--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.398323</v>
+        <v>0.463612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266528</v>
+        <v>0.310459</v>
       </c>
       <c r="D2" t="n">
-        <v>0.288778</v>
+        <v>0.327604</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.417673</v>
+        <v>0.475997</v>
       </c>
       <c r="C3" t="n">
-        <v>0.275941</v>
+        <v>0.313377</v>
       </c>
       <c r="D3" t="n">
-        <v>0.293653</v>
+        <v>0.332769</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.425939</v>
+        <v>0.482856</v>
       </c>
       <c r="C4" t="n">
-        <v>0.279055</v>
+        <v>0.317089</v>
       </c>
       <c r="D4" t="n">
-        <v>0.299017</v>
+        <v>0.339068</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.441742</v>
+        <v>0.5007239999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.283527</v>
+        <v>0.321571</v>
       </c>
       <c r="D5" t="n">
-        <v>0.303011</v>
+        <v>0.343545</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.451947</v>
+        <v>0.506679</v>
       </c>
       <c r="C6" t="n">
-        <v>0.28731</v>
+        <v>0.325581</v>
       </c>
       <c r="D6" t="n">
-        <v>0.307958</v>
+        <v>0.349339</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.462878</v>
+        <v>0.522432</v>
       </c>
       <c r="C7" t="n">
-        <v>0.236409</v>
+        <v>0.268028</v>
       </c>
       <c r="D7" t="n">
-        <v>0.255753</v>
+        <v>0.289909</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.34005</v>
+        <v>0.386358</v>
       </c>
       <c r="C8" t="n">
-        <v>0.242128</v>
+        <v>0.274732</v>
       </c>
       <c r="D8" t="n">
-        <v>0.260952</v>
+        <v>0.295586</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.350055</v>
+        <v>0.397215</v>
       </c>
       <c r="C9" t="n">
-        <v>0.242061</v>
+        <v>0.274509</v>
       </c>
       <c r="D9" t="n">
-        <v>0.267079</v>
+        <v>0.302588</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.35742</v>
+        <v>0.405938</v>
       </c>
       <c r="C10" t="n">
-        <v>0.247625</v>
+        <v>0.281237</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273517</v>
+        <v>0.310173</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.368092</v>
+        <v>0.417449</v>
       </c>
       <c r="C11" t="n">
-        <v>0.25402</v>
+        <v>0.290132</v>
       </c>
       <c r="D11" t="n">
-        <v>0.28111</v>
+        <v>0.32212</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.376726</v>
+        <v>0.427368</v>
       </c>
       <c r="C12" t="n">
-        <v>0.261634</v>
+        <v>0.296523</v>
       </c>
       <c r="D12" t="n">
-        <v>0.286448</v>
+        <v>0.324566</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.38645</v>
+        <v>0.440579</v>
       </c>
       <c r="C13" t="n">
-        <v>0.267903</v>
+        <v>0.304592</v>
       </c>
       <c r="D13" t="n">
-        <v>0.299696</v>
+        <v>0.340797</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.39481</v>
+        <v>0.451436</v>
       </c>
       <c r="C14" t="n">
-        <v>0.274318</v>
+        <v>0.312376</v>
       </c>
       <c r="D14" t="n">
-        <v>0.304745</v>
+        <v>0.346485</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.403695</v>
+        <v>0.464127</v>
       </c>
       <c r="C15" t="n">
-        <v>0.278751</v>
+        <v>0.317479</v>
       </c>
       <c r="D15" t="n">
-        <v>0.308783</v>
+        <v>0.352991</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.414724</v>
+        <v>0.474606</v>
       </c>
       <c r="C16" t="n">
-        <v>0.285829</v>
+        <v>0.325967</v>
       </c>
       <c r="D16" t="n">
-        <v>0.314469</v>
+        <v>0.358524</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.424809</v>
+        <v>0.488383</v>
       </c>
       <c r="C17" t="n">
-        <v>0.289733</v>
+        <v>0.330813</v>
       </c>
       <c r="D17" t="n">
-        <v>0.319407</v>
+        <v>0.365242</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.435714</v>
+        <v>0.49988</v>
       </c>
       <c r="C18" t="n">
-        <v>0.294558</v>
+        <v>0.334973</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3244</v>
+        <v>0.369962</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.447287</v>
+        <v>0.5112</v>
       </c>
       <c r="C19" t="n">
-        <v>0.300952</v>
+        <v>0.342644</v>
       </c>
       <c r="D19" t="n">
-        <v>0.330458</v>
+        <v>0.376142</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.457985</v>
+        <v>0.526199</v>
       </c>
       <c r="C20" t="n">
-        <v>0.30663</v>
+        <v>0.349361</v>
       </c>
       <c r="D20" t="n">
-        <v>0.336681</v>
+        <v>0.384931</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.470802</v>
+        <v>0.541625</v>
       </c>
       <c r="C21" t="n">
-        <v>0.23784</v>
+        <v>0.272432</v>
       </c>
       <c r="D21" t="n">
-        <v>0.271775</v>
+        <v>0.304904</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.386064</v>
+        <v>0.429838</v>
       </c>
       <c r="C22" t="n">
-        <v>0.245788</v>
+        <v>0.278165</v>
       </c>
       <c r="D22" t="n">
-        <v>0.281775</v>
+        <v>0.315291</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.410005</v>
+        <v>0.453918</v>
       </c>
       <c r="C23" t="n">
-        <v>0.25552</v>
+        <v>0.288074</v>
       </c>
       <c r="D23" t="n">
-        <v>0.29193</v>
+        <v>0.324765</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.420412</v>
+        <v>0.461607</v>
       </c>
       <c r="C24" t="n">
-        <v>0.263153</v>
+        <v>0.295798</v>
       </c>
       <c r="D24" t="n">
-        <v>0.299837</v>
+        <v>0.33336</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.435891</v>
+        <v>0.476861</v>
       </c>
       <c r="C25" t="n">
-        <v>0.272852</v>
+        <v>0.303879</v>
       </c>
       <c r="D25" t="n">
-        <v>0.308786</v>
+        <v>0.342935</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.453902</v>
+        <v>0.492232</v>
       </c>
       <c r="C26" t="n">
-        <v>0.281887</v>
+        <v>0.314409</v>
       </c>
       <c r="D26" t="n">
-        <v>0.319439</v>
+        <v>0.353807</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.467831</v>
+        <v>0.50849</v>
       </c>
       <c r="C27" t="n">
-        <v>0.291293</v>
+        <v>0.327042</v>
       </c>
       <c r="D27" t="n">
-        <v>0.333556</v>
+        <v>0.370624</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.482104</v>
+        <v>0.5284</v>
       </c>
       <c r="C28" t="n">
-        <v>0.299046</v>
+        <v>0.334429</v>
       </c>
       <c r="D28" t="n">
-        <v>0.344111</v>
+        <v>0.376139</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.504674</v>
+        <v>0.546143</v>
       </c>
       <c r="C29" t="n">
-        <v>0.309879</v>
+        <v>0.345352</v>
       </c>
       <c r="D29" t="n">
-        <v>0.353789</v>
+        <v>0.388663</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.521894</v>
+        <v>0.56426</v>
       </c>
       <c r="C30" t="n">
-        <v>0.318817</v>
+        <v>0.353049</v>
       </c>
       <c r="D30" t="n">
-        <v>0.364787</v>
+        <v>0.401982</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.539699</v>
+        <v>0.581298</v>
       </c>
       <c r="C31" t="n">
-        <v>0.328299</v>
+        <v>0.361854</v>
       </c>
       <c r="D31" t="n">
-        <v>0.377178</v>
+        <v>0.411713</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.564554</v>
+        <v>0.607927</v>
       </c>
       <c r="C32" t="n">
-        <v>0.337747</v>
+        <v>0.37064</v>
       </c>
       <c r="D32" t="n">
-        <v>0.390632</v>
+        <v>0.424263</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.579146</v>
+        <v>0.6202029999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.346865</v>
+        <v>0.379134</v>
       </c>
       <c r="D33" t="n">
-        <v>0.401296</v>
+        <v>0.435971</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.598027</v>
+        <v>0.639817</v>
       </c>
       <c r="C34" t="n">
-        <v>0.356736</v>
+        <v>0.389835</v>
       </c>
       <c r="D34" t="n">
-        <v>0.414276</v>
+        <v>0.447445</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.61877</v>
+        <v>0.66033</v>
       </c>
       <c r="C35" t="n">
-        <v>0.287609</v>
+        <v>0.312209</v>
       </c>
       <c r="D35" t="n">
-        <v>0.332058</v>
+        <v>0.356115</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.486385</v>
+        <v>0.513497</v>
       </c>
       <c r="C36" t="n">
-        <v>0.296164</v>
+        <v>0.321427</v>
       </c>
       <c r="D36" t="n">
-        <v>0.346644</v>
+        <v>0.370461</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.500414</v>
+        <v>0.538733</v>
       </c>
       <c r="C37" t="n">
-        <v>0.303793</v>
+        <v>0.327834</v>
       </c>
       <c r="D37" t="n">
-        <v>0.350117</v>
+        <v>0.375299</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.515217</v>
+        <v>0.545082</v>
       </c>
       <c r="C38" t="n">
-        <v>0.312797</v>
+        <v>0.337321</v>
       </c>
       <c r="D38" t="n">
-        <v>0.36556</v>
+        <v>0.389202</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.531951</v>
+        <v>0.567522</v>
       </c>
       <c r="C39" t="n">
-        <v>0.321563</v>
+        <v>0.347427</v>
       </c>
       <c r="D39" t="n">
-        <v>0.380689</v>
+        <v>0.405502</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.547298</v>
+        <v>0.583579</v>
       </c>
       <c r="C40" t="n">
-        <v>0.330818</v>
+        <v>0.355829</v>
       </c>
       <c r="D40" t="n">
-        <v>0.391214</v>
+        <v>0.419014</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.56828</v>
+        <v>0.596123</v>
       </c>
       <c r="C41" t="n">
-        <v>0.339898</v>
+        <v>0.36545</v>
       </c>
       <c r="D41" t="n">
-        <v>0.398617</v>
+        <v>0.431101</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5844</v>
+        <v>0.6151799999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.349358</v>
+        <v>0.375601</v>
       </c>
       <c r="D42" t="n">
-        <v>0.410385</v>
+        <v>0.439263</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.602949</v>
+        <v>0.63056</v>
       </c>
       <c r="C43" t="n">
-        <v>0.358343</v>
+        <v>0.388367</v>
       </c>
       <c r="D43" t="n">
-        <v>0.421706</v>
+        <v>0.454384</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.62214</v>
+        <v>0.662184</v>
       </c>
       <c r="C44" t="n">
-        <v>0.370656</v>
+        <v>0.399734</v>
       </c>
       <c r="D44" t="n">
-        <v>0.437973</v>
+        <v>0.467383</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.640533</v>
+        <v>0.680774</v>
       </c>
       <c r="C45" t="n">
-        <v>0.378539</v>
+        <v>0.409973</v>
       </c>
       <c r="D45" t="n">
-        <v>0.447358</v>
+        <v>0.479019</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.661033</v>
+        <v>0.6935829999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.387262</v>
+        <v>0.419709</v>
       </c>
       <c r="D46" t="n">
-        <v>0.464179</v>
+        <v>0.489901</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.684152</v>
+        <v>0.715899</v>
       </c>
       <c r="C47" t="n">
-        <v>0.397568</v>
+        <v>0.429903</v>
       </c>
       <c r="D47" t="n">
-        <v>0.47388</v>
+        <v>0.506605</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.712143</v>
+        <v>0.746857</v>
       </c>
       <c r="C48" t="n">
-        <v>0.412945</v>
+        <v>0.4396</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4904</v>
+        <v>0.516405</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7324929999999999</v>
+        <v>0.772173</v>
       </c>
       <c r="C49" t="n">
-        <v>0.422271</v>
+        <v>0.452957</v>
       </c>
       <c r="D49" t="n">
-        <v>0.498046</v>
+        <v>0.534937</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.75093</v>
+        <v>0.808207</v>
       </c>
       <c r="C50" t="n">
-        <v>0.330001</v>
+        <v>0.364006</v>
       </c>
       <c r="D50" t="n">
-        <v>0.38997</v>
+        <v>0.418893</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.547876</v>
+        <v>0.636618</v>
       </c>
       <c r="C51" t="n">
-        <v>0.337327</v>
+        <v>0.371078</v>
       </c>
       <c r="D51" t="n">
-        <v>0.401253</v>
+        <v>0.433327</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.570812</v>
+        <v>0.648543</v>
       </c>
       <c r="C52" t="n">
-        <v>0.346156</v>
+        <v>0.397485</v>
       </c>
       <c r="D52" t="n">
-        <v>0.413652</v>
+        <v>0.490963</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.575856</v>
+        <v>0.681555</v>
       </c>
       <c r="C53" t="n">
-        <v>0.354315</v>
+        <v>0.396516</v>
       </c>
       <c r="D53" t="n">
-        <v>0.416683</v>
+        <v>0.524707</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6060990000000001</v>
+        <v>0.765749</v>
       </c>
       <c r="C54" t="n">
-        <v>0.366378</v>
+        <v>0.408603</v>
       </c>
       <c r="D54" t="n">
-        <v>0.434085</v>
+        <v>0.486015</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.617292</v>
+        <v>0.726255</v>
       </c>
       <c r="C55" t="n">
-        <v>0.374755</v>
+        <v>0.428539</v>
       </c>
       <c r="D55" t="n">
-        <v>0.448271</v>
+        <v>0.50551</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.62551</v>
+        <v>0.764863</v>
       </c>
       <c r="C56" t="n">
-        <v>0.38337</v>
+        <v>0.428815</v>
       </c>
       <c r="D56" t="n">
-        <v>0.458658</v>
+        <v>0.519271</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.65359</v>
+        <v>0.765419</v>
       </c>
       <c r="C57" t="n">
-        <v>0.390403</v>
+        <v>0.480637</v>
       </c>
       <c r="D57" t="n">
-        <v>0.469808</v>
+        <v>0.561972</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.676628</v>
+        <v>0.794699</v>
       </c>
       <c r="C58" t="n">
-        <v>0.40581</v>
+        <v>0.506612</v>
       </c>
       <c r="D58" t="n">
-        <v>0.482432</v>
+        <v>0.587824</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.702967</v>
+        <v>0.913795</v>
       </c>
       <c r="C59" t="n">
-        <v>0.41821</v>
+        <v>0.514036</v>
       </c>
       <c r="D59" t="n">
-        <v>0.497331</v>
+        <v>0.576951</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.730455</v>
+        <v>0.958232</v>
       </c>
       <c r="C60" t="n">
-        <v>0.433437</v>
+        <v>0.558495</v>
       </c>
       <c r="D60" t="n">
-        <v>0.514495</v>
+        <v>0.610947</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.762556</v>
+        <v>0.9061630000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.444594</v>
+        <v>0.557547</v>
       </c>
       <c r="D61" t="n">
-        <v>0.532177</v>
+        <v>0.6698499999999999</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.782</v>
+        <v>1.06951</v>
       </c>
       <c r="C62" t="n">
-        <v>0.455033</v>
+        <v>0.586175</v>
       </c>
       <c r="D62" t="n">
-        <v>0.552357</v>
+        <v>0.717177</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8072009999999999</v>
+        <v>1.12176</v>
       </c>
       <c r="C63" t="n">
-        <v>0.469345</v>
+        <v>0.645205</v>
       </c>
       <c r="D63" t="n">
-        <v>0.570858</v>
+        <v>0.727282</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.830897</v>
+        <v>1.23537</v>
       </c>
       <c r="C64" t="n">
-        <v>0.350572</v>
+        <v>0.577354</v>
       </c>
       <c r="D64" t="n">
-        <v>0.413259</v>
+        <v>0.649869</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.601245</v>
+        <v>1.01242</v>
       </c>
       <c r="C65" t="n">
-        <v>0.361944</v>
+        <v>0.552196</v>
       </c>
       <c r="D65" t="n">
-        <v>0.437798</v>
+        <v>0.653834</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6217780000000001</v>
+        <v>1.12086</v>
       </c>
       <c r="C66" t="n">
-        <v>0.372993</v>
+        <v>0.60221</v>
       </c>
       <c r="D66" t="n">
-        <v>0.449916</v>
+        <v>0.677387</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.648582</v>
+        <v>1.2129</v>
       </c>
       <c r="C67" t="n">
-        <v>0.387114</v>
+        <v>0.6632209999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.457545</v>
+        <v>0.685704</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.674779</v>
+        <v>1.24506</v>
       </c>
       <c r="C68" t="n">
-        <v>0.42682</v>
+        <v>0.64729</v>
       </c>
       <c r="D68" t="n">
-        <v>0.480022</v>
+        <v>0.774126</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.736473</v>
+        <v>1.25066</v>
       </c>
       <c r="C69" t="n">
-        <v>0.411681</v>
+        <v>0.727007</v>
       </c>
       <c r="D69" t="n">
-        <v>0.500244</v>
+        <v>0.8466399999999999</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.800327</v>
+        <v>1.47655</v>
       </c>
       <c r="C70" t="n">
-        <v>0.423645</v>
+        <v>0.776543</v>
       </c>
       <c r="D70" t="n">
-        <v>0.521187</v>
+        <v>0.870143</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.789874</v>
+        <v>1.45096</v>
       </c>
       <c r="C71" t="n">
-        <v>0.440198</v>
+        <v>0.7735880000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.530273</v>
+        <v>0.875062</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.791919</v>
+        <v>1.69984</v>
       </c>
       <c r="C72" t="n">
-        <v>0.460752</v>
+        <v>0.844899</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5681580000000001</v>
+        <v>0.897432</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.906715</v>
+        <v>1.70821</v>
       </c>
       <c r="C73" t="n">
-        <v>0.475279</v>
+        <v>0.963426</v>
       </c>
       <c r="D73" t="n">
-        <v>0.582049</v>
+        <v>0.981425</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.856723</v>
+        <v>1.69942</v>
       </c>
       <c r="C74" t="n">
-        <v>0.498598</v>
+        <v>0.877484</v>
       </c>
       <c r="D74" t="n">
-        <v>0.60967</v>
+        <v>1.01491</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.895993</v>
+        <v>1.72345</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5062179999999999</v>
+        <v>0.919257</v>
       </c>
       <c r="D75" t="n">
-        <v>0.634955</v>
+        <v>1.02302</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.931932</v>
+        <v>1.84619</v>
       </c>
       <c r="C76" t="n">
-        <v>0.515713</v>
+        <v>0.938798</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6492019999999999</v>
+        <v>1.06618</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.980732</v>
+        <v>1.90063</v>
       </c>
       <c r="C77" t="n">
-        <v>0.560402</v>
+        <v>0.937508</v>
       </c>
       <c r="D77" t="n">
-        <v>0.716915</v>
+        <v>1.07578</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.12098</v>
+        <v>1.95542</v>
       </c>
       <c r="C78" t="n">
-        <v>0.462387</v>
+        <v>0.801042</v>
       </c>
       <c r="D78" t="n">
-        <v>0.587713</v>
+        <v>0.864035</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.975934</v>
+        <v>1.51497</v>
       </c>
       <c r="C79" t="n">
-        <v>0.541807</v>
+        <v>0.805215</v>
       </c>
       <c r="D79" t="n">
-        <v>0.725641</v>
+        <v>0.9892069999999999</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.00601</v>
+        <v>1.54579</v>
       </c>
       <c r="C80" t="n">
-        <v>0.600129</v>
+        <v>0.925173</v>
       </c>
       <c r="D80" t="n">
-        <v>0.81508</v>
+        <v>1.09035</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.24864</v>
+        <v>1.72404</v>
       </c>
       <c r="C81" t="n">
-        <v>0.648655</v>
+        <v>0.957125</v>
       </c>
       <c r="D81" t="n">
-        <v>0.647856</v>
+        <v>1.04198</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.16176</v>
+        <v>1.77318</v>
       </c>
       <c r="C82" t="n">
-        <v>0.627991</v>
+        <v>0.973519</v>
       </c>
       <c r="D82" t="n">
-        <v>0.716056</v>
+        <v>1.09455</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.23221</v>
+        <v>1.82786</v>
       </c>
       <c r="C83" t="n">
-        <v>0.593427</v>
+        <v>0.997271</v>
       </c>
       <c r="D83" t="n">
-        <v>0.703696</v>
+        <v>1.16042</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.19971</v>
+        <v>1.83997</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6297430000000001</v>
+        <v>1.00364</v>
       </c>
       <c r="D84" t="n">
-        <v>0.765671</v>
+        <v>1.24326</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.21102</v>
+        <v>1.92377</v>
       </c>
       <c r="C85" t="n">
-        <v>0.678647</v>
+        <v>1.03018</v>
       </c>
       <c r="D85" t="n">
-        <v>0.76271</v>
+        <v>1.23769</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.30785</v>
+        <v>2.03628</v>
       </c>
       <c r="C86" t="n">
-        <v>0.689009</v>
+        <v>1.14094</v>
       </c>
       <c r="D86" t="n">
-        <v>0.812777</v>
+        <v>1.33241</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.36811</v>
+        <v>2.13147</v>
       </c>
       <c r="C87" t="n">
-        <v>0.766369</v>
+        <v>1.12981</v>
       </c>
       <c r="D87" t="n">
-        <v>0.907023</v>
+        <v>1.35066</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.54498</v>
+        <v>2.14588</v>
       </c>
       <c r="C88" t="n">
-        <v>0.735867</v>
+        <v>1.17463</v>
       </c>
       <c r="D88" t="n">
-        <v>0.939594</v>
+        <v>1.38769</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.76647</v>
+        <v>2.18844</v>
       </c>
       <c r="C89" t="n">
-        <v>0.943675</v>
+        <v>1.16484</v>
       </c>
       <c r="D89" t="n">
-        <v>0.905164</v>
+        <v>1.38565</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.53569</v>
+        <v>2.30052</v>
       </c>
       <c r="C90" t="n">
-        <v>0.799427</v>
+        <v>1.22217</v>
       </c>
       <c r="D90" t="n">
-        <v>0.882338</v>
+        <v>1.49014</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.5993</v>
+        <v>2.39606</v>
       </c>
       <c r="C91" t="n">
-        <v>0.928128</v>
+        <v>1.28489</v>
       </c>
       <c r="D91" t="n">
-        <v>0.982923</v>
+        <v>1.58766</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.78239</v>
+        <v>2.53782</v>
       </c>
       <c r="C92" t="n">
-        <v>0.67871</v>
+        <v>1.05639</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8418099999999999</v>
+        <v>1.3091</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.37737</v>
+        <v>1.84826</v>
       </c>
       <c r="C93" t="n">
-        <v>0.711187</v>
+        <v>1.05871</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8043439999999999</v>
+        <v>1.28619</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.41793</v>
+        <v>1.89346</v>
       </c>
       <c r="C94" t="n">
-        <v>0.71605</v>
+        <v>1.08724</v>
       </c>
       <c r="D94" t="n">
-        <v>0.825201</v>
+        <v>1.33743</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.53339</v>
+        <v>1.8964</v>
       </c>
       <c r="C95" t="n">
-        <v>0.759836</v>
+        <v>1.0903</v>
       </c>
       <c r="D95" t="n">
-        <v>0.90537</v>
+        <v>1.31947</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.61083</v>
+        <v>1.98709</v>
       </c>
       <c r="C96" t="n">
-        <v>0.78615</v>
+        <v>1.11507</v>
       </c>
       <c r="D96" t="n">
-        <v>0.888486</v>
+        <v>1.33339</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.54683</v>
+        <v>2.02768</v>
       </c>
       <c r="C97" t="n">
-        <v>0.852589</v>
+        <v>1.15271</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9902</v>
+        <v>1.42038</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.65487</v>
+        <v>2.07842</v>
       </c>
       <c r="C98" t="n">
-        <v>0.891742</v>
+        <v>1.16706</v>
       </c>
       <c r="D98" t="n">
-        <v>1.04923</v>
+        <v>1.50033</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.71934</v>
+        <v>2.15114</v>
       </c>
       <c r="C99" t="n">
-        <v>0.983911</v>
+        <v>1.22635</v>
       </c>
       <c r="D99" t="n">
-        <v>1.05398</v>
+        <v>1.49956</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.74473</v>
+        <v>2.19962</v>
       </c>
       <c r="C100" t="n">
-        <v>0.929476</v>
+        <v>1.25389</v>
       </c>
       <c r="D100" t="n">
-        <v>1.16808</v>
+        <v>1.63415</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.77015</v>
+        <v>2.2719</v>
       </c>
       <c r="C101" t="n">
-        <v>1.02741</v>
+        <v>1.29553</v>
       </c>
       <c r="D101" t="n">
-        <v>1.29271</v>
+        <v>1.63753</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.96252</v>
+        <v>2.33701</v>
       </c>
       <c r="C102" t="n">
-        <v>1.06923</v>
+        <v>1.30717</v>
       </c>
       <c r="D102" t="n">
-        <v>1.29707</v>
+        <v>1.65985</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.04379</v>
+        <v>2.41039</v>
       </c>
       <c r="C103" t="n">
-        <v>1.07989</v>
+        <v>1.34779</v>
       </c>
       <c r="D103" t="n">
-        <v>1.29333</v>
+        <v>1.70392</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.10482</v>
+        <v>2.48835</v>
       </c>
       <c r="C104" t="n">
-        <v>1.13633</v>
+        <v>1.40047</v>
       </c>
       <c r="D104" t="n">
-        <v>1.41268</v>
+        <v>1.7261</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.20755</v>
+        <v>2.54305</v>
       </c>
       <c r="C105" t="n">
-        <v>1.16191</v>
+        <v>1.4189</v>
       </c>
       <c r="D105" t="n">
-        <v>1.39748</v>
+        <v>1.86164</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.21234</v>
+        <v>2.64662</v>
       </c>
       <c r="C106" t="n">
-        <v>1.19208</v>
+        <v>1.47542</v>
       </c>
       <c r="D106" t="n">
-        <v>1.45255</v>
+        <v>1.90957</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.74444</v>
+        <v>1.8913</v>
       </c>
       <c r="C107" t="n">
-        <v>0.968235</v>
+        <v>1.13194</v>
       </c>
       <c r="D107" t="n">
-        <v>1.23361</v>
+        <v>1.38642</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.82786</v>
+        <v>1.93894</v>
       </c>
       <c r="C108" t="n">
-        <v>1.01506</v>
+        <v>1.13943</v>
       </c>
       <c r="D108" t="n">
-        <v>1.22527</v>
+        <v>1.40399</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.82247</v>
+        <v>2.00232</v>
       </c>
       <c r="C109" t="n">
-        <v>1.03706</v>
+        <v>1.16749</v>
       </c>
       <c r="D109" t="n">
-        <v>1.28592</v>
+        <v>1.48206</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.8791</v>
+        <v>2.01428</v>
       </c>
       <c r="C110" t="n">
-        <v>1.06071</v>
+        <v>1.18684</v>
       </c>
       <c r="D110" t="n">
-        <v>1.34952</v>
+        <v>1.53722</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.90331</v>
+        <v>2.07109</v>
       </c>
       <c r="C111" t="n">
-        <v>1.09838</v>
+        <v>1.20887</v>
       </c>
       <c r="D111" t="n">
-        <v>1.34229</v>
+        <v>1.5426</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.95141</v>
+        <v>2.12424</v>
       </c>
       <c r="C112" t="n">
-        <v>1.11057</v>
+        <v>1.23577</v>
       </c>
       <c r="D112" t="n">
-        <v>1.39712</v>
+        <v>1.58675</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.05261</v>
+        <v>2.17511</v>
       </c>
       <c r="C113" t="n">
-        <v>1.11431</v>
+        <v>1.27855</v>
       </c>
       <c r="D113" t="n">
-        <v>1.40702</v>
+        <v>1.66233</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.06617</v>
+        <v>2.24656</v>
       </c>
       <c r="C114" t="n">
-        <v>1.15042</v>
+        <v>1.29974</v>
       </c>
       <c r="D114" t="n">
-        <v>1.42031</v>
+        <v>1.66355</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.13029</v>
+        <v>2.2724</v>
       </c>
       <c r="C115" t="n">
-        <v>1.20941</v>
+        <v>1.30341</v>
       </c>
       <c r="D115" t="n">
-        <v>1.50486</v>
+        <v>1.73523</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.13816</v>
+        <v>2.36284</v>
       </c>
       <c r="C116" t="n">
-        <v>1.20473</v>
+        <v>1.34666</v>
       </c>
       <c r="D116" t="n">
-        <v>1.52444</v>
+        <v>1.78163</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.20182</v>
+        <v>2.42374</v>
       </c>
       <c r="C117" t="n">
-        <v>1.18825</v>
+        <v>1.40074</v>
       </c>
       <c r="D117" t="n">
-        <v>1.55495</v>
+        <v>1.8234</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.31613</v>
+        <v>2.49381</v>
       </c>
       <c r="C118" t="n">
-        <v>1.24456</v>
+        <v>1.40438</v>
       </c>
       <c r="D118" t="n">
-        <v>1.65913</v>
+        <v>1.90228</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.40265</v>
+        <v>2.55693</v>
       </c>
       <c r="C119" t="n">
-        <v>1.32594</v>
+        <v>1.45368</v>
       </c>
       <c r="D119" t="n">
-        <v>1.96633</v>
+        <v>1.91461</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.321337</v>
+        <v>0.455378</v>
       </c>
       <c r="C2" t="n">
-        <v>0.232773</v>
+        <v>0.320689</v>
       </c>
       <c r="D2" t="n">
-        <v>0.194191</v>
+        <v>0.257496</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.329731</v>
+        <v>0.471845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.237485</v>
+        <v>0.336614</v>
       </c>
       <c r="D3" t="n">
-        <v>0.196377</v>
+        <v>0.261902</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.337723</v>
+        <v>0.489598</v>
       </c>
       <c r="C4" t="n">
-        <v>0.243576</v>
+        <v>0.356884</v>
       </c>
       <c r="D4" t="n">
-        <v>0.199482</v>
+        <v>0.268807</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.346325</v>
+        <v>0.515027</v>
       </c>
       <c r="C5" t="n">
-        <v>0.25112</v>
+        <v>0.36688</v>
       </c>
       <c r="D5" t="n">
-        <v>0.202137</v>
+        <v>0.275349</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.357667</v>
+        <v>0.529475</v>
       </c>
       <c r="C6" t="n">
-        <v>0.255767</v>
+        <v>0.381012</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20471</v>
+        <v>0.282458</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.367085</v>
+        <v>0.550071</v>
       </c>
       <c r="C7" t="n">
-        <v>0.204082</v>
+        <v>0.309566</v>
       </c>
       <c r="D7" t="n">
-        <v>0.189134</v>
+        <v>0.272619</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.281138</v>
+        <v>0.42842</v>
       </c>
       <c r="C8" t="n">
-        <v>0.207017</v>
+        <v>0.313313</v>
       </c>
       <c r="D8" t="n">
-        <v>0.190813</v>
+        <v>0.278775</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.285011</v>
+        <v>0.433139</v>
       </c>
       <c r="C9" t="n">
-        <v>0.211975</v>
+        <v>0.339503</v>
       </c>
       <c r="D9" t="n">
-        <v>0.192987</v>
+        <v>0.282937</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.290933</v>
+        <v>0.449301</v>
       </c>
       <c r="C10" t="n">
-        <v>0.216222</v>
+        <v>0.334052</v>
       </c>
       <c r="D10" t="n">
-        <v>0.194729</v>
+        <v>0.281734</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.297239</v>
+        <v>0.465912</v>
       </c>
       <c r="C11" t="n">
-        <v>0.219271</v>
+        <v>0.344507</v>
       </c>
       <c r="D11" t="n">
-        <v>0.196629</v>
+        <v>0.290452</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.305087</v>
+        <v>0.46811</v>
       </c>
       <c r="C12" t="n">
-        <v>0.224439</v>
+        <v>0.34196</v>
       </c>
       <c r="D12" t="n">
-        <v>0.198895</v>
+        <v>0.294496</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.31</v>
+        <v>0.481219</v>
       </c>
       <c r="C13" t="n">
-        <v>0.230028</v>
+        <v>0.357902</v>
       </c>
       <c r="D13" t="n">
-        <v>0.200681</v>
+        <v>0.301585</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.319645</v>
+        <v>0.501965</v>
       </c>
       <c r="C14" t="n">
-        <v>0.235666</v>
+        <v>0.370648</v>
       </c>
       <c r="D14" t="n">
-        <v>0.20304</v>
+        <v>0.305273</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.326427</v>
+        <v>0.51215</v>
       </c>
       <c r="C15" t="n">
-        <v>0.241375</v>
+        <v>0.389955</v>
       </c>
       <c r="D15" t="n">
-        <v>0.206168</v>
+        <v>0.31136</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.336408</v>
+        <v>0.526325</v>
       </c>
       <c r="C16" t="n">
-        <v>0.250275</v>
+        <v>0.394051</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209577</v>
+        <v>0.319137</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.345296</v>
+        <v>0.5417729999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.254607</v>
+        <v>0.396219</v>
       </c>
       <c r="D17" t="n">
-        <v>0.211915</v>
+        <v>0.323585</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.353779</v>
+        <v>0.5507</v>
       </c>
       <c r="C18" t="n">
-        <v>0.259859</v>
+        <v>0.405897</v>
       </c>
       <c r="D18" t="n">
-        <v>0.215042</v>
+        <v>0.334693</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.361678</v>
+        <v>0.569798</v>
       </c>
       <c r="C19" t="n">
-        <v>0.267202</v>
+        <v>0.426294</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219177</v>
+        <v>0.336996</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.372903</v>
+        <v>0.586095</v>
       </c>
       <c r="C20" t="n">
-        <v>0.27575</v>
+        <v>0.437774</v>
       </c>
       <c r="D20" t="n">
-        <v>0.222176</v>
+        <v>0.344809</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.386818</v>
+        <v>0.607591</v>
       </c>
       <c r="C21" t="n">
-        <v>0.22546</v>
+        <v>0.351307</v>
       </c>
       <c r="D21" t="n">
-        <v>0.200484</v>
+        <v>0.314056</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.317097</v>
+        <v>0.466068</v>
       </c>
       <c r="C22" t="n">
-        <v>0.233555</v>
+        <v>0.350702</v>
       </c>
       <c r="D22" t="n">
-        <v>0.202622</v>
+        <v>0.31731</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.329402</v>
+        <v>0.471293</v>
       </c>
       <c r="C23" t="n">
-        <v>0.239236</v>
+        <v>0.36344</v>
       </c>
       <c r="D23" t="n">
-        <v>0.204322</v>
+        <v>0.320895</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.336509</v>
+        <v>0.484814</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2476</v>
+        <v>0.370673</v>
       </c>
       <c r="D24" t="n">
-        <v>0.205418</v>
+        <v>0.330273</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.347509</v>
+        <v>0.509063</v>
       </c>
       <c r="C25" t="n">
-        <v>0.255451</v>
+        <v>0.385367</v>
       </c>
       <c r="D25" t="n">
-        <v>0.208375</v>
+        <v>0.330468</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.361202</v>
+        <v>0.515083</v>
       </c>
       <c r="C26" t="n">
-        <v>0.264641</v>
+        <v>0.394103</v>
       </c>
       <c r="D26" t="n">
-        <v>0.216008</v>
+        <v>0.344988</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.373875</v>
+        <v>0.5330589999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.272379</v>
+        <v>0.393519</v>
       </c>
       <c r="D27" t="n">
-        <v>0.21751</v>
+        <v>0.340894</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.386768</v>
+        <v>0.5326149999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.282119</v>
+        <v>0.400285</v>
       </c>
       <c r="D28" t="n">
-        <v>0.22397</v>
+        <v>0.346457</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.402188</v>
+        <v>0.548509</v>
       </c>
       <c r="C29" t="n">
-        <v>0.292156</v>
+        <v>0.412727</v>
       </c>
       <c r="D29" t="n">
-        <v>0.229161</v>
+        <v>0.354308</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.41531</v>
+        <v>0.562214</v>
       </c>
       <c r="C30" t="n">
-        <v>0.305937</v>
+        <v>0.43432</v>
       </c>
       <c r="D30" t="n">
-        <v>0.233171</v>
+        <v>0.369205</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.432359</v>
+        <v>0.587234</v>
       </c>
       <c r="C31" t="n">
-        <v>0.316588</v>
+        <v>0.434798</v>
       </c>
       <c r="D31" t="n">
-        <v>0.23799</v>
+        <v>0.367218</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.449951</v>
+        <v>0.60349</v>
       </c>
       <c r="C32" t="n">
-        <v>0.330579</v>
+        <v>0.448198</v>
       </c>
       <c r="D32" t="n">
-        <v>0.245763</v>
+        <v>0.370664</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.482993</v>
+        <v>0.614019</v>
       </c>
       <c r="C33" t="n">
-        <v>0.342257</v>
+        <v>0.463123</v>
       </c>
       <c r="D33" t="n">
-        <v>0.251774</v>
+        <v>0.376616</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.487806</v>
+        <v>0.623147</v>
       </c>
       <c r="C34" t="n">
-        <v>0.357325</v>
+        <v>0.468602</v>
       </c>
       <c r="D34" t="n">
-        <v>0.257754</v>
+        <v>0.384768</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.515965</v>
+        <v>0.648189</v>
       </c>
       <c r="C35" t="n">
-        <v>0.292047</v>
+        <v>0.362896</v>
       </c>
       <c r="D35" t="n">
-        <v>0.241836</v>
+        <v>0.330199</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.401642</v>
+        <v>0.486312</v>
       </c>
       <c r="C36" t="n">
-        <v>0.298498</v>
+        <v>0.368782</v>
       </c>
       <c r="D36" t="n">
-        <v>0.249395</v>
+        <v>0.340184</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.419645</v>
+        <v>0.493883</v>
       </c>
       <c r="C37" t="n">
-        <v>0.312847</v>
+        <v>0.365013</v>
       </c>
       <c r="D37" t="n">
-        <v>0.252839</v>
+        <v>0.334727</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.427162</v>
+        <v>0.510177</v>
       </c>
       <c r="C38" t="n">
-        <v>0.31685</v>
+        <v>0.386776</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259647</v>
+        <v>0.351203</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.439176</v>
+        <v>0.517486</v>
       </c>
       <c r="C39" t="n">
-        <v>0.32581</v>
+        <v>0.401792</v>
       </c>
       <c r="D39" t="n">
-        <v>0.265465</v>
+        <v>0.362089</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.456352</v>
+        <v>0.540919</v>
       </c>
       <c r="C40" t="n">
-        <v>0.343069</v>
+        <v>0.404132</v>
       </c>
       <c r="D40" t="n">
-        <v>0.272688</v>
+        <v>0.358245</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.469376</v>
+        <v>0.538843</v>
       </c>
       <c r="C41" t="n">
-        <v>0.348988</v>
+        <v>0.413945</v>
       </c>
       <c r="D41" t="n">
-        <v>0.278217</v>
+        <v>0.36268</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.507543</v>
+        <v>0.551794</v>
       </c>
       <c r="C42" t="n">
-        <v>0.358625</v>
+        <v>0.418883</v>
       </c>
       <c r="D42" t="n">
-        <v>0.28325</v>
+        <v>0.368528</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.517472</v>
+        <v>0.564644</v>
       </c>
       <c r="C43" t="n">
-        <v>0.387366</v>
+        <v>0.42783</v>
       </c>
       <c r="D43" t="n">
-        <v>0.287721</v>
+        <v>0.370962</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.531447</v>
+        <v>0.599168</v>
       </c>
       <c r="C44" t="n">
-        <v>0.381619</v>
+        <v>0.45012</v>
       </c>
       <c r="D44" t="n">
-        <v>0.294881</v>
+        <v>0.375713</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5770110000000001</v>
+        <v>0.5965</v>
       </c>
       <c r="C45" t="n">
-        <v>0.390648</v>
+        <v>0.462033</v>
       </c>
       <c r="D45" t="n">
-        <v>0.303045</v>
+        <v>0.38215</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.613525</v>
+        <v>0.615513</v>
       </c>
       <c r="C46" t="n">
-        <v>0.434804</v>
+        <v>0.470521</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3099</v>
+        <v>0.387644</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.607884</v>
+        <v>0.626036</v>
       </c>
       <c r="C47" t="n">
-        <v>0.47407</v>
+        <v>0.487077</v>
       </c>
       <c r="D47" t="n">
-        <v>0.326675</v>
+        <v>0.393291</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.650124</v>
+        <v>0.638083</v>
       </c>
       <c r="C48" t="n">
-        <v>0.513086</v>
+        <v>0.498525</v>
       </c>
       <c r="D48" t="n">
-        <v>0.335999</v>
+        <v>0.400258</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.68543</v>
+        <v>0.666647</v>
       </c>
       <c r="C49" t="n">
-        <v>0.533752</v>
+        <v>0.499312</v>
       </c>
       <c r="D49" t="n">
-        <v>0.365865</v>
+        <v>0.421022</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.752451</v>
+        <v>0.6856139999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.395621</v>
+        <v>0.397895</v>
       </c>
       <c r="D50" t="n">
-        <v>0.316058</v>
+        <v>0.356886</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.575894</v>
+        <v>0.554698</v>
       </c>
       <c r="C51" t="n">
-        <v>0.399711</v>
+        <v>0.42052</v>
       </c>
       <c r="D51" t="n">
-        <v>0.325253</v>
+        <v>0.356897</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.586421</v>
+        <v>0.575083</v>
       </c>
       <c r="C52" t="n">
-        <v>0.427387</v>
+        <v>0.431677</v>
       </c>
       <c r="D52" t="n">
-        <v>0.341761</v>
+        <v>0.365097</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.677015</v>
+        <v>0.580922</v>
       </c>
       <c r="C53" t="n">
-        <v>0.516361</v>
+        <v>0.446493</v>
       </c>
       <c r="D53" t="n">
-        <v>0.357158</v>
+        <v>0.379576</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.703298</v>
+        <v>0.611267</v>
       </c>
       <c r="C54" t="n">
-        <v>0.532063</v>
+        <v>0.472937</v>
       </c>
       <c r="D54" t="n">
-        <v>0.353293</v>
+        <v>0.38529</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7861629999999999</v>
+        <v>0.636667</v>
       </c>
       <c r="C55" t="n">
-        <v>0.570764</v>
+        <v>0.473059</v>
       </c>
       <c r="D55" t="n">
-        <v>0.388118</v>
+        <v>0.391761</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.845131</v>
+        <v>0.648346</v>
       </c>
       <c r="C56" t="n">
-        <v>0.647539</v>
+        <v>0.493592</v>
       </c>
       <c r="D56" t="n">
-        <v>0.42064</v>
+        <v>0.410022</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.808009</v>
+        <v>0.667669</v>
       </c>
       <c r="C57" t="n">
-        <v>0.686816</v>
+        <v>0.505336</v>
       </c>
       <c r="D57" t="n">
-        <v>0.43501</v>
+        <v>0.411545</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.997161</v>
+        <v>0.699422</v>
       </c>
       <c r="C58" t="n">
-        <v>0.710879</v>
+        <v>0.529083</v>
       </c>
       <c r="D58" t="n">
-        <v>0.462562</v>
+        <v>0.419495</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.971772</v>
+        <v>0.730921</v>
       </c>
       <c r="C59" t="n">
-        <v>0.669558</v>
+        <v>0.553559</v>
       </c>
       <c r="D59" t="n">
-        <v>0.422779</v>
+        <v>0.440022</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.925153</v>
+        <v>0.774188</v>
       </c>
       <c r="C60" t="n">
-        <v>0.696174</v>
+        <v>0.5702159999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.468899</v>
+        <v>0.447514</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.03961</v>
+        <v>0.828634</v>
       </c>
       <c r="C61" t="n">
-        <v>0.835073</v>
+        <v>0.606494</v>
       </c>
       <c r="D61" t="n">
-        <v>0.463309</v>
+        <v>0.457317</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.31007</v>
+        <v>0.8514119999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9682809999999999</v>
+        <v>0.624548</v>
       </c>
       <c r="D62" t="n">
-        <v>0.583611</v>
+        <v>0.47448</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.39443</v>
+        <v>0.863653</v>
       </c>
       <c r="C63" t="n">
-        <v>1.02624</v>
+        <v>0.649921</v>
       </c>
       <c r="D63" t="n">
-        <v>0.607058</v>
+        <v>0.493307</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.32772</v>
+        <v>0.897158</v>
       </c>
       <c r="C64" t="n">
-        <v>0.801106</v>
+        <v>0.511314</v>
       </c>
       <c r="D64" t="n">
-        <v>0.563934</v>
+        <v>0.433633</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.08757</v>
+        <v>0.686087</v>
       </c>
       <c r="C65" t="n">
-        <v>0.830815</v>
+        <v>0.525468</v>
       </c>
       <c r="D65" t="n">
-        <v>0.593238</v>
+        <v>0.443205</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.14465</v>
+        <v>0.712382</v>
       </c>
       <c r="C66" t="n">
-        <v>0.850281</v>
+        <v>0.541844</v>
       </c>
       <c r="D66" t="n">
-        <v>0.625301</v>
+        <v>0.456451</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.16996</v>
+        <v>0.726692</v>
       </c>
       <c r="C67" t="n">
-        <v>0.879569</v>
+        <v>0.582884</v>
       </c>
       <c r="D67" t="n">
-        <v>0.643764</v>
+        <v>0.460189</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.24683</v>
+        <v>0.917448</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9100200000000001</v>
+        <v>0.697126</v>
       </c>
       <c r="D68" t="n">
-        <v>0.605228</v>
+        <v>0.467832</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.31886</v>
+        <v>0.727597</v>
       </c>
       <c r="C69" t="n">
-        <v>0.918312</v>
+        <v>0.64111</v>
       </c>
       <c r="D69" t="n">
-        <v>0.648509</v>
+        <v>0.498107</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.31082</v>
+        <v>0.809354</v>
       </c>
       <c r="C70" t="n">
-        <v>1.01473</v>
+        <v>0.701835</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7117250000000001</v>
+        <v>0.50497</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.40056</v>
+        <v>0.853928</v>
       </c>
       <c r="C71" t="n">
-        <v>1.04393</v>
+        <v>0.6601</v>
       </c>
       <c r="D71" t="n">
-        <v>0.752457</v>
+        <v>0.486179</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.4367</v>
+        <v>0.89188</v>
       </c>
       <c r="C72" t="n">
-        <v>1.09481</v>
+        <v>0.670816</v>
       </c>
       <c r="D72" t="n">
-        <v>0.809028</v>
+        <v>0.5103839999999999</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.40639</v>
+        <v>0.945939</v>
       </c>
       <c r="C73" t="n">
-        <v>1.07697</v>
+        <v>0.690065</v>
       </c>
       <c r="D73" t="n">
-        <v>0.733392</v>
+        <v>0.525657</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.57999</v>
+        <v>1.00276</v>
       </c>
       <c r="C74" t="n">
-        <v>1.20314</v>
+        <v>0.791107</v>
       </c>
       <c r="D74" t="n">
-        <v>0.880487</v>
+        <v>0.521107</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.62647</v>
+        <v>0.995259</v>
       </c>
       <c r="C75" t="n">
-        <v>1.21076</v>
+        <v>0.771113</v>
       </c>
       <c r="D75" t="n">
-        <v>0.855909</v>
+        <v>0.521537</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.70789</v>
+        <v>1.19951</v>
       </c>
       <c r="C76" t="n">
-        <v>1.29162</v>
+        <v>0.86793</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9372470000000001</v>
+        <v>0.622258</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.74773</v>
+        <v>1.23132</v>
       </c>
       <c r="C77" t="n">
-        <v>1.31996</v>
+        <v>0.951259</v>
       </c>
       <c r="D77" t="n">
-        <v>0.952256</v>
+        <v>0.605227</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.80401</v>
+        <v>1.17183</v>
       </c>
       <c r="C78" t="n">
-        <v>1.00385</v>
+        <v>0.707353</v>
       </c>
       <c r="D78" t="n">
-        <v>0.786753</v>
+        <v>0.52612</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.30679</v>
+        <v>1.15831</v>
       </c>
       <c r="C79" t="n">
-        <v>0.988753</v>
+        <v>0.672967</v>
       </c>
       <c r="D79" t="n">
-        <v>0.845823</v>
+        <v>0.535085</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.32544</v>
+        <v>1.01198</v>
       </c>
       <c r="C80" t="n">
-        <v>1.04978</v>
+        <v>0.721495</v>
       </c>
       <c r="D80" t="n">
-        <v>0.820096</v>
+        <v>0.494356</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.3519</v>
+        <v>1.06901</v>
       </c>
       <c r="C81" t="n">
-        <v>1.07937</v>
+        <v>0.794748</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8566820000000001</v>
+        <v>0.545069</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.39349</v>
+        <v>0.977363</v>
       </c>
       <c r="C82" t="n">
-        <v>1.09984</v>
+        <v>0.757068</v>
       </c>
       <c r="D82" t="n">
-        <v>0.890604</v>
+        <v>0.536287</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.46546</v>
+        <v>1.11472</v>
       </c>
       <c r="C83" t="n">
-        <v>1.12881</v>
+        <v>0.8797779999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.872931</v>
+        <v>0.55221</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.46659</v>
+        <v>1.14228</v>
       </c>
       <c r="C84" t="n">
-        <v>1.14876</v>
+        <v>0.846577</v>
       </c>
       <c r="D84" t="n">
-        <v>0.903751</v>
+        <v>0.585685</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.53083</v>
+        <v>1.23108</v>
       </c>
       <c r="C85" t="n">
-        <v>1.2048</v>
+        <v>0.918478</v>
       </c>
       <c r="D85" t="n">
-        <v>0.968028</v>
+        <v>0.641454</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.58536</v>
+        <v>1.2015</v>
       </c>
       <c r="C86" t="n">
-        <v>1.25107</v>
+        <v>0.9183249999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>1.0032</v>
+        <v>0.584129</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.64312</v>
+        <v>1.23762</v>
       </c>
       <c r="C87" t="n">
-        <v>1.28722</v>
+        <v>1.03881</v>
       </c>
       <c r="D87" t="n">
-        <v>1.03212</v>
+        <v>0.651775</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.68071</v>
+        <v>1.42008</v>
       </c>
       <c r="C88" t="n">
-        <v>1.30436</v>
+        <v>1.03695</v>
       </c>
       <c r="D88" t="n">
-        <v>1.02669</v>
+        <v>0.671019</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.73576</v>
+        <v>1.39784</v>
       </c>
       <c r="C89" t="n">
-        <v>1.33019</v>
+        <v>1.13305</v>
       </c>
       <c r="D89" t="n">
-        <v>1.03631</v>
+        <v>0.737295</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.77425</v>
+        <v>1.43506</v>
       </c>
       <c r="C90" t="n">
-        <v>1.35408</v>
+        <v>1.13087</v>
       </c>
       <c r="D90" t="n">
-        <v>1.01811</v>
+        <v>0.660768</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.83031</v>
+        <v>1.59661</v>
       </c>
       <c r="C91" t="n">
-        <v>1.40546</v>
+        <v>1.20323</v>
       </c>
       <c r="D91" t="n">
-        <v>1.06786</v>
+        <v>0.725396</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.89539</v>
+        <v>1.70034</v>
       </c>
       <c r="C92" t="n">
-        <v>1.03305</v>
+        <v>0.9215449999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.877178</v>
+        <v>0.65627</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.33367</v>
+        <v>1.22156</v>
       </c>
       <c r="C93" t="n">
-        <v>1.07647</v>
+        <v>0.9160430000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.920771</v>
+        <v>0.644478</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.36555</v>
+        <v>1.30959</v>
       </c>
       <c r="C94" t="n">
-        <v>1.09872</v>
+        <v>0.931507</v>
       </c>
       <c r="D94" t="n">
-        <v>0.929965</v>
+        <v>0.718935</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.37074</v>
+        <v>1.28824</v>
       </c>
       <c r="C95" t="n">
-        <v>1.0891</v>
+        <v>0.985103</v>
       </c>
       <c r="D95" t="n">
-        <v>0.947076</v>
+        <v>0.690802</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.456</v>
+        <v>1.32499</v>
       </c>
       <c r="C96" t="n">
-        <v>1.13539</v>
+        <v>1.04543</v>
       </c>
       <c r="D96" t="n">
-        <v>0.984082</v>
+        <v>0.777621</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.49839</v>
+        <v>1.37139</v>
       </c>
       <c r="C97" t="n">
-        <v>1.1878</v>
+        <v>1.03884</v>
       </c>
       <c r="D97" t="n">
-        <v>0.996445</v>
+        <v>0.762679</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.53314</v>
+        <v>1.47674</v>
       </c>
       <c r="C98" t="n">
-        <v>1.18605</v>
+        <v>1.12087</v>
       </c>
       <c r="D98" t="n">
-        <v>0.994344</v>
+        <v>0.765593</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.53563</v>
+        <v>1.46673</v>
       </c>
       <c r="C99" t="n">
-        <v>1.20304</v>
+        <v>1.13008</v>
       </c>
       <c r="D99" t="n">
-        <v>1.00508</v>
+        <v>0.82336</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.5861</v>
+        <v>1.5274</v>
       </c>
       <c r="C100" t="n">
-        <v>1.24904</v>
+        <v>1.16789</v>
       </c>
       <c r="D100" t="n">
-        <v>1.02778</v>
+        <v>0.885976</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.64245</v>
+        <v>1.56399</v>
       </c>
       <c r="C101" t="n">
-        <v>1.29299</v>
+        <v>1.18063</v>
       </c>
       <c r="D101" t="n">
-        <v>1.06567</v>
+        <v>0.841472</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.69787</v>
+        <v>1.60984</v>
       </c>
       <c r="C102" t="n">
-        <v>1.31028</v>
+        <v>1.27913</v>
       </c>
       <c r="D102" t="n">
-        <v>1.09335</v>
+        <v>0.883758</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.74332</v>
+        <v>1.68697</v>
       </c>
       <c r="C103" t="n">
-        <v>1.3507</v>
+        <v>1.30384</v>
       </c>
       <c r="D103" t="n">
-        <v>1.10291</v>
+        <v>0.865027</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.81249</v>
+        <v>1.70459</v>
       </c>
       <c r="C104" t="n">
-        <v>1.41025</v>
+        <v>1.34443</v>
       </c>
       <c r="D104" t="n">
-        <v>1.14084</v>
+        <v>0.946214</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.84739</v>
+        <v>1.79469</v>
       </c>
       <c r="C105" t="n">
-        <v>1.45881</v>
+        <v>1.49688</v>
       </c>
       <c r="D105" t="n">
-        <v>1.14557</v>
+        <v>0.934119</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.90968</v>
+        <v>1.93242</v>
       </c>
       <c r="C106" t="n">
-        <v>1.47351</v>
+        <v>1.45541</v>
       </c>
       <c r="D106" t="n">
-        <v>1.16246</v>
+        <v>0.981398</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.32495</v>
+        <v>1.28195</v>
       </c>
       <c r="C107" t="n">
-        <v>1.08718</v>
+        <v>1.04661</v>
       </c>
       <c r="D107" t="n">
-        <v>0.942589</v>
+        <v>0.851805</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.37802</v>
+        <v>1.34442</v>
       </c>
       <c r="C108" t="n">
-        <v>1.11457</v>
+        <v>1.03765</v>
       </c>
       <c r="D108" t="n">
-        <v>0.971518</v>
+        <v>0.865509</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.43104</v>
+        <v>1.30555</v>
       </c>
       <c r="C109" t="n">
-        <v>1.14693</v>
+        <v>1.00955</v>
       </c>
       <c r="D109" t="n">
-        <v>0.989912</v>
+        <v>0.807947</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.47565</v>
+        <v>1.3853</v>
       </c>
       <c r="C110" t="n">
-        <v>1.18359</v>
+        <v>1.10735</v>
       </c>
       <c r="D110" t="n">
-        <v>0.99292</v>
+        <v>0.874938</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.4887</v>
+        <v>1.47241</v>
       </c>
       <c r="C111" t="n">
-        <v>1.20152</v>
+        <v>1.21024</v>
       </c>
       <c r="D111" t="n">
-        <v>1.02468</v>
+        <v>0.935087</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.54006</v>
+        <v>1.52339</v>
       </c>
       <c r="C112" t="n">
-        <v>1.23259</v>
+        <v>1.20134</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04356</v>
+        <v>0.9801260000000001</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.63585</v>
+        <v>1.61543</v>
       </c>
       <c r="C113" t="n">
-        <v>1.27047</v>
+        <v>1.25674</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09049</v>
+        <v>0.9638330000000001</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.6996</v>
+        <v>1.67233</v>
       </c>
       <c r="C114" t="n">
-        <v>1.31861</v>
+        <v>1.30354</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10411</v>
+        <v>1.0233</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.73326</v>
+        <v>1.78549</v>
       </c>
       <c r="C115" t="n">
-        <v>1.33616</v>
+        <v>1.34002</v>
       </c>
       <c r="D115" t="n">
-        <v>1.13855</v>
+        <v>1.04491</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.77038</v>
+        <v>1.83837</v>
       </c>
       <c r="C116" t="n">
-        <v>1.39603</v>
+        <v>1.43793</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14183</v>
+        <v>1.11892</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.82975</v>
+        <v>1.88767</v>
       </c>
       <c r="C117" t="n">
-        <v>1.42893</v>
+        <v>1.47609</v>
       </c>
       <c r="D117" t="n">
-        <v>1.16623</v>
+        <v>1.15755</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.90797</v>
+        <v>1.96984</v>
       </c>
       <c r="C118" t="n">
-        <v>1.48119</v>
+        <v>1.53213</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21785</v>
+        <v>1.17341</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.99611</v>
+        <v>2.10101</v>
       </c>
       <c r="C119" t="n">
-        <v>1.52445</v>
+        <v>1.58444</v>
       </c>
       <c r="D119" t="n">
-        <v>1.28789</v>
+        <v>1.28885</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.649929</v>
+        <v>0.901748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.519226</v>
+        <v>0.740787</v>
       </c>
       <c r="D2" t="n">
-        <v>0.335554</v>
+        <v>0.409273</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.667205</v>
+        <v>0.934659</v>
       </c>
       <c r="C3" t="n">
-        <v>0.539779</v>
+        <v>0.74719</v>
       </c>
       <c r="D3" t="n">
-        <v>0.347701</v>
+        <v>0.427734</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.70057</v>
+        <v>1.0225</v>
       </c>
       <c r="C4" t="n">
-        <v>0.562538</v>
+        <v>0.809425</v>
       </c>
       <c r="D4" t="n">
-        <v>0.352362</v>
+        <v>0.446697</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7285970000000001</v>
+        <v>1.04904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5855320000000001</v>
+        <v>0.835491</v>
       </c>
       <c r="D5" t="n">
-        <v>0.365502</v>
+        <v>0.457549</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.757231</v>
+        <v>1.10083</v>
       </c>
       <c r="C6" t="n">
-        <v>0.598087</v>
+        <v>0.874304</v>
       </c>
       <c r="D6" t="n">
-        <v>0.376996</v>
+        <v>0.478775</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.782673</v>
+        <v>1.18005</v>
       </c>
       <c r="C7" t="n">
-        <v>0.619906</v>
+        <v>0.952804</v>
       </c>
       <c r="D7" t="n">
-        <v>0.384375</v>
+        <v>0.495673</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.818721</v>
+        <v>1.22895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.645124</v>
+        <v>0.995391</v>
       </c>
       <c r="D8" t="n">
-        <v>0.391235</v>
+        <v>0.512035</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.854245</v>
+        <v>1.31781</v>
       </c>
       <c r="C9" t="n">
-        <v>0.674208</v>
+        <v>1.03756</v>
       </c>
       <c r="D9" t="n">
-        <v>0.404111</v>
+        <v>0.531854</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.883897</v>
+        <v>1.40536</v>
       </c>
       <c r="C10" t="n">
-        <v>0.696812</v>
+        <v>1.09914</v>
       </c>
       <c r="D10" t="n">
-        <v>0.417834</v>
+        <v>0.553451</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.916162</v>
+        <v>1.49568</v>
       </c>
       <c r="C11" t="n">
-        <v>0.454197</v>
+        <v>0.713659</v>
       </c>
       <c r="D11" t="n">
-        <v>0.310415</v>
+        <v>0.433777</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.61803</v>
+        <v>0.968301</v>
       </c>
       <c r="C12" t="n">
-        <v>0.469023</v>
+        <v>0.759388</v>
       </c>
       <c r="D12" t="n">
-        <v>0.319011</v>
+        <v>0.44217</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.632005</v>
+        <v>0.993972</v>
       </c>
       <c r="C13" t="n">
-        <v>0.485652</v>
+        <v>0.795668</v>
       </c>
       <c r="D13" t="n">
-        <v>0.324355</v>
+        <v>0.450755</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6661899999999999</v>
+        <v>1.03799</v>
       </c>
       <c r="C14" t="n">
-        <v>0.511884</v>
+        <v>0.81633</v>
       </c>
       <c r="D14" t="n">
-        <v>0.332599</v>
+        <v>0.469445</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.684831</v>
+        <v>1.08422</v>
       </c>
       <c r="C15" t="n">
-        <v>0.526904</v>
+        <v>0.843378</v>
       </c>
       <c r="D15" t="n">
-        <v>0.344937</v>
+        <v>0.493225</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.703005</v>
+        <v>1.14266</v>
       </c>
       <c r="C16" t="n">
-        <v>0.54482</v>
+        <v>0.904716</v>
       </c>
       <c r="D16" t="n">
-        <v>0.355837</v>
+        <v>0.509012</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.731581</v>
+        <v>1.21131</v>
       </c>
       <c r="C17" t="n">
-        <v>0.571114</v>
+        <v>0.949787</v>
       </c>
       <c r="D17" t="n">
-        <v>0.363806</v>
+        <v>0.5240010000000001</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.759572</v>
+        <v>1.26629</v>
       </c>
       <c r="C18" t="n">
-        <v>0.589765</v>
+        <v>1.00761</v>
       </c>
       <c r="D18" t="n">
-        <v>0.380211</v>
+        <v>0.540821</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.79817</v>
+        <v>1.31953</v>
       </c>
       <c r="C19" t="n">
-        <v>0.620416</v>
+        <v>1.03808</v>
       </c>
       <c r="D19" t="n">
-        <v>0.390783</v>
+        <v>0.565752</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8199109999999999</v>
+        <v>1.37642</v>
       </c>
       <c r="C20" t="n">
-        <v>0.648081</v>
+        <v>1.10081</v>
       </c>
       <c r="D20" t="n">
-        <v>0.400859</v>
+        <v>0.591263</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.857756</v>
+        <v>1.4607</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6787069999999999</v>
+        <v>1.14315</v>
       </c>
       <c r="D21" t="n">
-        <v>0.408372</v>
+        <v>0.597842</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.889945</v>
+        <v>1.47504</v>
       </c>
       <c r="C22" t="n">
-        <v>0.700039</v>
+        <v>1.20503</v>
       </c>
       <c r="D22" t="n">
-        <v>0.419754</v>
+        <v>0.626383</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.928076</v>
+        <v>1.58588</v>
       </c>
       <c r="C23" t="n">
-        <v>0.735946</v>
+        <v>1.25901</v>
       </c>
       <c r="D23" t="n">
-        <v>0.429684</v>
+        <v>0.638171</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.983752</v>
+        <v>1.65158</v>
       </c>
       <c r="C24" t="n">
-        <v>0.773151</v>
+        <v>1.33021</v>
       </c>
       <c r="D24" t="n">
-        <v>0.444982</v>
+        <v>0.666505</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.03957</v>
+        <v>1.70714</v>
       </c>
       <c r="C25" t="n">
-        <v>0.82391</v>
+        <v>1.36095</v>
       </c>
       <c r="D25" t="n">
-        <v>0.463663</v>
+        <v>0.714202</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.10261</v>
+        <v>1.75801</v>
       </c>
       <c r="C26" t="n">
-        <v>0.545269</v>
+        <v>0.83713</v>
       </c>
       <c r="D26" t="n">
-        <v>0.337127</v>
+        <v>0.529026</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.742444</v>
+        <v>1.11173</v>
       </c>
       <c r="C27" t="n">
-        <v>0.569981</v>
+        <v>0.876467</v>
       </c>
       <c r="D27" t="n">
-        <v>0.338683</v>
+        <v>0.529454</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7949349999999999</v>
+        <v>1.18554</v>
       </c>
       <c r="C28" t="n">
-        <v>0.605148</v>
+        <v>0.927304</v>
       </c>
       <c r="D28" t="n">
-        <v>0.353023</v>
+        <v>0.560233</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.836544</v>
+        <v>1.2448</v>
       </c>
       <c r="C29" t="n">
-        <v>0.647994</v>
+        <v>0.975212</v>
       </c>
       <c r="D29" t="n">
-        <v>0.364092</v>
+        <v>0.554818</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.878525</v>
+        <v>1.26423</v>
       </c>
       <c r="C30" t="n">
-        <v>0.690312</v>
+        <v>1.01105</v>
       </c>
       <c r="D30" t="n">
-        <v>0.38383</v>
+        <v>0.578412</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.927974</v>
+        <v>1.32684</v>
       </c>
       <c r="C31" t="n">
-        <v>0.737584</v>
+        <v>1.05949</v>
       </c>
       <c r="D31" t="n">
-        <v>0.399641</v>
+        <v>0.598108</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.979309</v>
+        <v>1.36839</v>
       </c>
       <c r="C32" t="n">
-        <v>0.782685</v>
+        <v>1.09831</v>
       </c>
       <c r="D32" t="n">
-        <v>0.417079</v>
+        <v>0.620014</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.03449</v>
+        <v>1.46943</v>
       </c>
       <c r="C33" t="n">
-        <v>0.805756</v>
+        <v>1.16198</v>
       </c>
       <c r="D33" t="n">
-        <v>0.427912</v>
+        <v>0.640477</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.09374</v>
+        <v>1.51177</v>
       </c>
       <c r="C34" t="n">
-        <v>0.868676</v>
+        <v>1.22029</v>
       </c>
       <c r="D34" t="n">
-        <v>0.447658</v>
+        <v>0.6598579999999999</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.16254</v>
+        <v>1.57268</v>
       </c>
       <c r="C35" t="n">
-        <v>0.931583</v>
+        <v>1.26511</v>
       </c>
       <c r="D35" t="n">
-        <v>0.465983</v>
+        <v>0.678611</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.22842</v>
+        <v>1.59734</v>
       </c>
       <c r="C36" t="n">
-        <v>0.96182</v>
+        <v>1.31693</v>
       </c>
       <c r="D36" t="n">
-        <v>0.485066</v>
+        <v>0.698128</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.29723</v>
+        <v>1.68694</v>
       </c>
       <c r="C37" t="n">
-        <v>1.02402</v>
+        <v>1.35701</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5066000000000001</v>
+        <v>0.706473</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.36953</v>
+        <v>1.74882</v>
       </c>
       <c r="C38" t="n">
-        <v>1.10096</v>
+        <v>1.42253</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5431</v>
+        <v>0.759178</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.45283</v>
+        <v>1.8203</v>
       </c>
       <c r="C39" t="n">
-        <v>1.15993</v>
+        <v>1.48563</v>
       </c>
       <c r="D39" t="n">
-        <v>0.556025</v>
+        <v>0.752175</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.52623</v>
+        <v>1.93835</v>
       </c>
       <c r="C40" t="n">
-        <v>0.722785</v>
+        <v>0.901564</v>
       </c>
       <c r="D40" t="n">
-        <v>0.420128</v>
+        <v>0.576868</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.999479</v>
+        <v>1.19623</v>
       </c>
       <c r="C41" t="n">
-        <v>0.754887</v>
+        <v>0.941345</v>
       </c>
       <c r="D41" t="n">
-        <v>0.43834</v>
+        <v>0.592466</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.04373</v>
+        <v>1.22992</v>
       </c>
       <c r="C42" t="n">
-        <v>0.804548</v>
+        <v>0.963763</v>
       </c>
       <c r="D42" t="n">
-        <v>0.458756</v>
+        <v>0.614522</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.12351</v>
+        <v>1.29687</v>
       </c>
       <c r="C43" t="n">
-        <v>0.856735</v>
+        <v>1.014</v>
       </c>
       <c r="D43" t="n">
-        <v>0.475989</v>
+        <v>0.641659</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.18284</v>
+        <v>1.36268</v>
       </c>
       <c r="C44" t="n">
-        <v>0.907671</v>
+        <v>1.07418</v>
       </c>
       <c r="D44" t="n">
-        <v>0.495541</v>
+        <v>0.656899</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.2292</v>
+        <v>1.40951</v>
       </c>
       <c r="C45" t="n">
-        <v>0.923589</v>
+        <v>1.09774</v>
       </c>
       <c r="D45" t="n">
-        <v>0.512677</v>
+        <v>0.66787</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.26695</v>
+        <v>1.45542</v>
       </c>
       <c r="C46" t="n">
-        <v>0.993341</v>
+        <v>1.15524</v>
       </c>
       <c r="D46" t="n">
-        <v>0.544686</v>
+        <v>0.699433</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.36995</v>
+        <v>1.51739</v>
       </c>
       <c r="C47" t="n">
-        <v>1.02664</v>
+        <v>1.19369</v>
       </c>
       <c r="D47" t="n">
-        <v>0.554695</v>
+        <v>0.720007</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.39611</v>
+        <v>1.59721</v>
       </c>
       <c r="C48" t="n">
-        <v>1.09174</v>
+        <v>1.27939</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5749300000000001</v>
+        <v>0.750267</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.4456</v>
+        <v>1.75444</v>
       </c>
       <c r="C49" t="n">
-        <v>1.13251</v>
+        <v>1.31238</v>
       </c>
       <c r="D49" t="n">
-        <v>0.593146</v>
+        <v>0.751449</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.55726</v>
+        <v>1.71886</v>
       </c>
       <c r="C50" t="n">
-        <v>1.2216</v>
+        <v>1.38092</v>
       </c>
       <c r="D50" t="n">
-        <v>0.623992</v>
+        <v>0.768172</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.67544</v>
+        <v>1.81428</v>
       </c>
       <c r="C51" t="n">
-        <v>1.30309</v>
+        <v>1.424</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6612209999999999</v>
+        <v>0.795523</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.73872</v>
+        <v>1.85873</v>
       </c>
       <c r="C52" t="n">
-        <v>1.40767</v>
+        <v>1.48951</v>
       </c>
       <c r="D52" t="n">
-        <v>0.688699</v>
+        <v>0.816635</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.91473</v>
+        <v>1.97833</v>
       </c>
       <c r="C53" t="n">
-        <v>1.46919</v>
+        <v>1.58604</v>
       </c>
       <c r="D53" t="n">
-        <v>0.710848</v>
+        <v>0.850816</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.88691</v>
+        <v>2.05251</v>
       </c>
       <c r="C54" t="n">
-        <v>0.901585</v>
+        <v>0.9725510000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.517522</v>
+        <v>0.6465959999999999</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.20213</v>
+        <v>1.31521</v>
       </c>
       <c r="C55" t="n">
-        <v>0.906462</v>
+        <v>1.0486</v>
       </c>
       <c r="D55" t="n">
-        <v>0.538809</v>
+        <v>0.67774</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.2035</v>
+        <v>1.42335</v>
       </c>
       <c r="C56" t="n">
-        <v>0.968625</v>
+        <v>1.11411</v>
       </c>
       <c r="D56" t="n">
-        <v>0.554894</v>
+        <v>0.694679</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.29136</v>
+        <v>1.50544</v>
       </c>
       <c r="C57" t="n">
-        <v>1.04184</v>
+        <v>1.1698</v>
       </c>
       <c r="D57" t="n">
-        <v>0.570307</v>
+        <v>0.730116</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.423</v>
+        <v>1.58282</v>
       </c>
       <c r="C58" t="n">
-        <v>1.0597</v>
+        <v>1.27095</v>
       </c>
       <c r="D58" t="n">
-        <v>0.593733</v>
+        <v>0.776246</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.40181</v>
+        <v>1.71232</v>
       </c>
       <c r="C59" t="n">
-        <v>1.09923</v>
+        <v>1.37527</v>
       </c>
       <c r="D59" t="n">
-        <v>0.613927</v>
+        <v>0.802637</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.47114</v>
+        <v>1.83591</v>
       </c>
       <c r="C60" t="n">
-        <v>1.15177</v>
+        <v>1.45713</v>
       </c>
       <c r="D60" t="n">
-        <v>0.638651</v>
+        <v>0.83708</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.5958</v>
+        <v>1.93202</v>
       </c>
       <c r="C61" t="n">
-        <v>1.2961</v>
+        <v>1.53578</v>
       </c>
       <c r="D61" t="n">
-        <v>0.664945</v>
+        <v>0.887715</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.72671</v>
+        <v>2.14339</v>
       </c>
       <c r="C62" t="n">
-        <v>1.56073</v>
+        <v>1.76626</v>
       </c>
       <c r="D62" t="n">
-        <v>0.737455</v>
+        <v>0.932489</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>2.12253</v>
+        <v>2.22358</v>
       </c>
       <c r="C63" t="n">
-        <v>1.51696</v>
+        <v>1.75453</v>
       </c>
       <c r="D63" t="n">
-        <v>0.775209</v>
+        <v>0.976465</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>2.07436</v>
+        <v>2.25964</v>
       </c>
       <c r="C64" t="n">
-        <v>1.77473</v>
+        <v>1.85827</v>
       </c>
       <c r="D64" t="n">
-        <v>0.779849</v>
+        <v>1.02393</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.95536</v>
+        <v>2.53833</v>
       </c>
       <c r="C65" t="n">
-        <v>1.51127</v>
+        <v>2.07596</v>
       </c>
       <c r="D65" t="n">
-        <v>0.766939</v>
+        <v>1.04343</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>2.09186</v>
+        <v>2.60698</v>
       </c>
       <c r="C66" t="n">
-        <v>1.62124</v>
+        <v>2.08891</v>
       </c>
       <c r="D66" t="n">
-        <v>0.774933</v>
+        <v>1.11313</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>2.55317</v>
+        <v>2.78005</v>
       </c>
       <c r="C67" t="n">
-        <v>1.85702</v>
+        <v>2.36275</v>
       </c>
       <c r="D67" t="n">
-        <v>0.803272</v>
+        <v>1.13613</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>3.28788</v>
+        <v>3.09679</v>
       </c>
       <c r="C68" t="n">
-        <v>1.64681</v>
+        <v>1.39484</v>
       </c>
       <c r="D68" t="n">
-        <v>0.74078</v>
+        <v>0.819317</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>2.34296</v>
+        <v>1.9281</v>
       </c>
       <c r="C69" t="n">
-        <v>1.45959</v>
+        <v>1.37297</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7009</v>
+        <v>0.849181</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.04128</v>
+        <v>1.96723</v>
       </c>
       <c r="C70" t="n">
-        <v>1.7719</v>
+        <v>1.56557</v>
       </c>
       <c r="D70" t="n">
-        <v>0.718852</v>
+        <v>0.924063</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.32455</v>
+        <v>2.08001</v>
       </c>
       <c r="C71" t="n">
-        <v>1.82726</v>
+        <v>1.65155</v>
       </c>
       <c r="D71" t="n">
-        <v>0.790803</v>
+        <v>0.991627</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.71444</v>
+        <v>2.35898</v>
       </c>
       <c r="C72" t="n">
-        <v>2.40652</v>
+        <v>1.75106</v>
       </c>
       <c r="D72" t="n">
-        <v>0.997626</v>
+        <v>1.00262</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.14128</v>
+        <v>2.42591</v>
       </c>
       <c r="C73" t="n">
-        <v>2.29306</v>
+        <v>1.91759</v>
       </c>
       <c r="D73" t="n">
-        <v>1.1202</v>
+        <v>1.01236</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.88157</v>
+        <v>2.4203</v>
       </c>
       <c r="C74" t="n">
-        <v>2.16963</v>
+        <v>2.10015</v>
       </c>
       <c r="D74" t="n">
-        <v>0.873166</v>
+        <v>1.05566</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.93037</v>
+        <v>2.71784</v>
       </c>
       <c r="C75" t="n">
-        <v>2.54765</v>
+        <v>2.17665</v>
       </c>
       <c r="D75" t="n">
-        <v>1.03012</v>
+        <v>1.11985</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>3.09509</v>
+        <v>2.87327</v>
       </c>
       <c r="C76" t="n">
-        <v>2.61015</v>
+        <v>2.62301</v>
       </c>
       <c r="D76" t="n">
-        <v>1.13967</v>
+        <v>1.15907</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>3.90178</v>
+        <v>3.20955</v>
       </c>
       <c r="C77" t="n">
-        <v>2.81097</v>
+        <v>2.87933</v>
       </c>
       <c r="D77" t="n">
-        <v>1.33679</v>
+        <v>1.30987</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>3.80834</v>
+        <v>3.43322</v>
       </c>
       <c r="C78" t="n">
-        <v>3.37344</v>
+        <v>3.13527</v>
       </c>
       <c r="D78" t="n">
-        <v>1.20546</v>
+        <v>1.50909</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>3.38449</v>
+        <v>3.8992</v>
       </c>
       <c r="C79" t="n">
-        <v>2.70603</v>
+        <v>3.18556</v>
       </c>
       <c r="D79" t="n">
-        <v>1.31287</v>
+        <v>1.41154</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>4.23799</v>
+        <v>3.94552</v>
       </c>
       <c r="C80" t="n">
-        <v>3.66295</v>
+        <v>3.10589</v>
       </c>
       <c r="D80" t="n">
-        <v>1.40527</v>
+        <v>1.46223</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>4.68945</v>
+        <v>4.27603</v>
       </c>
       <c r="C81" t="n">
-        <v>3.48498</v>
+        <v>3.42662</v>
       </c>
       <c r="D81" t="n">
-        <v>1.3788</v>
+        <v>1.53929</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>4.60701</v>
+        <v>4.64655</v>
       </c>
       <c r="C82" t="n">
-        <v>3.57839</v>
+        <v>3.59024</v>
       </c>
       <c r="D82" t="n">
-        <v>1.62851</v>
+        <v>1.61155</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>5.48253</v>
+        <v>4.62607</v>
       </c>
       <c r="C83" t="n">
-        <v>2.29454</v>
+        <v>2.25627</v>
       </c>
       <c r="D83" t="n">
-        <v>1.26292</v>
+        <v>1.08277</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.52783</v>
+        <v>2.80537</v>
       </c>
       <c r="C84" t="n">
-        <v>2.73318</v>
+        <v>2.45697</v>
       </c>
       <c r="D84" t="n">
-        <v>1.37281</v>
+        <v>1.23526</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.87742</v>
+        <v>3.13995</v>
       </c>
       <c r="C85" t="n">
-        <v>2.80894</v>
+        <v>2.56324</v>
       </c>
       <c r="D85" t="n">
-        <v>1.43823</v>
+        <v>1.14871</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.97584</v>
+        <v>3.4778</v>
       </c>
       <c r="C86" t="n">
-        <v>2.94557</v>
+        <v>2.60516</v>
       </c>
       <c r="D86" t="n">
-        <v>1.44866</v>
+        <v>1.26749</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>4.03674</v>
+        <v>3.4983</v>
       </c>
       <c r="C87" t="n">
-        <v>3.16585</v>
+        <v>2.6985</v>
       </c>
       <c r="D87" t="n">
-        <v>1.52697</v>
+        <v>1.40284</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.34536</v>
+        <v>4.07554</v>
       </c>
       <c r="C88" t="n">
-        <v>3.31237</v>
+        <v>2.97558</v>
       </c>
       <c r="D88" t="n">
-        <v>1.56379</v>
+        <v>1.47144</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>4.25309</v>
+        <v>4.00327</v>
       </c>
       <c r="C89" t="n">
-        <v>3.44062</v>
+        <v>3.31398</v>
       </c>
       <c r="D89" t="n">
-        <v>1.5113</v>
+        <v>1.49562</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>4.43344</v>
+        <v>4.16624</v>
       </c>
       <c r="C90" t="n">
-        <v>3.70194</v>
+        <v>3.58553</v>
       </c>
       <c r="D90" t="n">
-        <v>1.49088</v>
+        <v>1.65468</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>4.94095</v>
+        <v>5.15572</v>
       </c>
       <c r="C91" t="n">
-        <v>3.50624</v>
+        <v>3.56321</v>
       </c>
       <c r="D91" t="n">
-        <v>1.84674</v>
+        <v>1.83098</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>5.22766</v>
+        <v>5.02905</v>
       </c>
       <c r="C92" t="n">
-        <v>4.27754</v>
+        <v>3.7665</v>
       </c>
       <c r="D92" t="n">
-        <v>2.02529</v>
+        <v>1.79549</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>5.49304</v>
+        <v>5.24854</v>
       </c>
       <c r="C93" t="n">
-        <v>4.24598</v>
+        <v>4.26363</v>
       </c>
       <c r="D93" t="n">
-        <v>1.84064</v>
+        <v>2.00108</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>5.63704</v>
+        <v>5.30947</v>
       </c>
       <c r="C94" t="n">
-        <v>4.76583</v>
+        <v>4.46799</v>
       </c>
       <c r="D94" t="n">
-        <v>2.20219</v>
+        <v>1.97959</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>6.18964</v>
+        <v>5.72785</v>
       </c>
       <c r="C95" t="n">
-        <v>5.04119</v>
+        <v>4.59712</v>
       </c>
       <c r="D95" t="n">
-        <v>2.20563</v>
+        <v>2.3216</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>6.21247</v>
+        <v>6.00232</v>
       </c>
       <c r="C96" t="n">
-        <v>5.26687</v>
+        <v>5.14367</v>
       </c>
       <c r="D96" t="n">
-        <v>2.48139</v>
+        <v>2.28421</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>6.89435</v>
+        <v>6.54108</v>
       </c>
       <c r="C97" t="n">
-        <v>2.99446</v>
+        <v>2.98534</v>
       </c>
       <c r="D97" t="n">
-        <v>1.77072</v>
+        <v>1.574</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.02001</v>
+        <v>3.90662</v>
       </c>
       <c r="C98" t="n">
-        <v>3.17935</v>
+        <v>3.00545</v>
       </c>
       <c r="D98" t="n">
-        <v>1.73763</v>
+        <v>1.63175</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.17169</v>
+        <v>4.04604</v>
       </c>
       <c r="C99" t="n">
-        <v>3.19709</v>
+        <v>3.14112</v>
       </c>
       <c r="D99" t="n">
-        <v>1.66019</v>
+        <v>1.66835</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.13547</v>
+        <v>4.23731</v>
       </c>
       <c r="C100" t="n">
-        <v>3.13505</v>
+        <v>3.47201</v>
       </c>
       <c r="D100" t="n">
-        <v>1.85925</v>
+        <v>1.81378</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.51075</v>
+        <v>4.55299</v>
       </c>
       <c r="C101" t="n">
-        <v>3.62722</v>
+        <v>3.66679</v>
       </c>
       <c r="D101" t="n">
-        <v>1.89389</v>
+        <v>1.8053</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.71651</v>
+        <v>4.78326</v>
       </c>
       <c r="C102" t="n">
-        <v>3.68014</v>
+        <v>3.78742</v>
       </c>
       <c r="D102" t="n">
-        <v>1.83679</v>
+        <v>1.96257</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.63109</v>
+        <v>5.16857</v>
       </c>
       <c r="C103" t="n">
-        <v>3.72606</v>
+        <v>4.16867</v>
       </c>
       <c r="D103" t="n">
-        <v>1.89785</v>
+        <v>1.98732</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>5.14032</v>
+        <v>5.32239</v>
       </c>
       <c r="C104" t="n">
-        <v>4.25055</v>
+        <v>4.39145</v>
       </c>
       <c r="D104" t="n">
-        <v>2.16061</v>
+        <v>2.19453</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>5.40867</v>
+        <v>5.78982</v>
       </c>
       <c r="C105" t="n">
-        <v>4.43432</v>
+        <v>4.67483</v>
       </c>
       <c r="D105" t="n">
-        <v>2.27106</v>
+        <v>2.33714</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.69376</v>
+        <v>5.99915</v>
       </c>
       <c r="C106" t="n">
-        <v>4.64116</v>
+        <v>4.9956</v>
       </c>
       <c r="D106" t="n">
-        <v>2.39312</v>
+        <v>2.38673</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>6.01706</v>
+        <v>6.23237</v>
       </c>
       <c r="C107" t="n">
-        <v>4.88842</v>
+        <v>5.18469</v>
       </c>
       <c r="D107" t="n">
-        <v>2.5715</v>
+        <v>2.55041</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>6.29195</v>
+        <v>6.7557</v>
       </c>
       <c r="C108" t="n">
-        <v>5.14862</v>
+        <v>5.54633</v>
       </c>
       <c r="D108" t="n">
-        <v>2.35423</v>
+        <v>2.64477</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.43887</v>
+        <v>7.22989</v>
       </c>
       <c r="C109" t="n">
-        <v>5.4674</v>
+        <v>5.79006</v>
       </c>
       <c r="D109" t="n">
-        <v>2.72421</v>
+        <v>2.78416</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.93728</v>
+        <v>7.26505</v>
       </c>
       <c r="C110" t="n">
-        <v>5.74853</v>
+        <v>6.05056</v>
       </c>
       <c r="D110" t="n">
-        <v>2.83457</v>
+        <v>2.9651</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>7.29405</v>
+        <v>7.78856</v>
       </c>
       <c r="C111" t="n">
-        <v>3.13941</v>
+        <v>3.36834</v>
       </c>
       <c r="D111" t="n">
-        <v>1.98494</v>
+        <v>1.84695</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.25017</v>
+        <v>4.55391</v>
       </c>
       <c r="C112" t="n">
-        <v>3.24402</v>
+        <v>3.5214</v>
       </c>
       <c r="D112" t="n">
-        <v>2.03849</v>
+        <v>1.87317</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.42748</v>
+        <v>4.7867</v>
       </c>
       <c r="C113" t="n">
-        <v>3.4603</v>
+        <v>3.74354</v>
       </c>
       <c r="D113" t="n">
-        <v>2.10881</v>
+        <v>2.00226</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.60759</v>
+        <v>4.94316</v>
       </c>
       <c r="C114" t="n">
-        <v>3.6105</v>
+        <v>3.92477</v>
       </c>
       <c r="D114" t="n">
-        <v>2.21675</v>
+        <v>2.08529</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.8562</v>
+        <v>4.81479</v>
       </c>
       <c r="C115" t="n">
-        <v>3.75848</v>
+        <v>3.55922</v>
       </c>
       <c r="D115" t="n">
-        <v>2.07111</v>
+        <v>1.75298</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.00614</v>
+        <v>4.41815</v>
       </c>
       <c r="C116" t="n">
-        <v>3.94966</v>
+        <v>3.30754</v>
       </c>
       <c r="D116" t="n">
-        <v>2.17036</v>
+        <v>1.6154</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.19054</v>
+        <v>4.43529</v>
       </c>
       <c r="C117" t="n">
-        <v>4.13255</v>
+        <v>3.5747</v>
       </c>
       <c r="D117" t="n">
-        <v>2.2535</v>
+        <v>1.82414</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.37515</v>
+        <v>4.76798</v>
       </c>
       <c r="C118" t="n">
-        <v>4.39175</v>
+        <v>3.82424</v>
       </c>
       <c r="D118" t="n">
-        <v>2.61743</v>
+        <v>1.91111</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.72588</v>
+        <v>5.15572</v>
       </c>
       <c r="C119" t="n">
-        <v>4.65806</v>
+        <v>4.1196</v>
       </c>
       <c r="D119" t="n">
-        <v>2.6475</v>
+        <v>1.92178</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.463612</v>
+        <v>0.396092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.310459</v>
+        <v>0.289772</v>
       </c>
       <c r="D2" t="n">
-        <v>0.327604</v>
+        <v>0.313422</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.475997</v>
+        <v>0.402994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.313377</v>
+        <v>0.292934</v>
       </c>
       <c r="D3" t="n">
-        <v>0.332769</v>
+        <v>0.319183</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.482856</v>
+        <v>0.412243</v>
       </c>
       <c r="C4" t="n">
-        <v>0.317089</v>
+        <v>0.297888</v>
       </c>
       <c r="D4" t="n">
-        <v>0.339068</v>
+        <v>0.322223</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5007239999999999</v>
+        <v>0.424901</v>
       </c>
       <c r="C5" t="n">
-        <v>0.321571</v>
+        <v>0.304332</v>
       </c>
       <c r="D5" t="n">
-        <v>0.343545</v>
+        <v>0.326801</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.506679</v>
+        <v>0.436076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.325581</v>
+        <v>0.309937</v>
       </c>
       <c r="D6" t="n">
-        <v>0.349339</v>
+        <v>0.333543</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.522432</v>
+        <v>0.449721</v>
       </c>
       <c r="C7" t="n">
-        <v>0.268028</v>
+        <v>0.251946</v>
       </c>
       <c r="D7" t="n">
-        <v>0.289909</v>
+        <v>0.284426</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.386358</v>
+        <v>0.335903</v>
       </c>
       <c r="C8" t="n">
-        <v>0.274732</v>
+        <v>0.259578</v>
       </c>
       <c r="D8" t="n">
-        <v>0.295586</v>
+        <v>0.293659</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.397215</v>
+        <v>0.348578</v>
       </c>
       <c r="C9" t="n">
-        <v>0.274509</v>
+        <v>0.266804</v>
       </c>
       <c r="D9" t="n">
-        <v>0.302588</v>
+        <v>0.298928</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.405938</v>
+        <v>0.360714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.281237</v>
+        <v>0.276775</v>
       </c>
       <c r="D10" t="n">
-        <v>0.310173</v>
+        <v>0.309984</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.417449</v>
+        <v>0.375198</v>
       </c>
       <c r="C11" t="n">
-        <v>0.290132</v>
+        <v>0.284195</v>
       </c>
       <c r="D11" t="n">
-        <v>0.32212</v>
+        <v>0.320297</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.427368</v>
+        <v>0.382659</v>
       </c>
       <c r="C12" t="n">
-        <v>0.296523</v>
+        <v>0.293542</v>
       </c>
       <c r="D12" t="n">
-        <v>0.324566</v>
+        <v>0.327596</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.440579</v>
+        <v>0.397812</v>
       </c>
       <c r="C13" t="n">
-        <v>0.304592</v>
+        <v>0.301804</v>
       </c>
       <c r="D13" t="n">
-        <v>0.340797</v>
+        <v>0.338413</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.451436</v>
+        <v>0.413388</v>
       </c>
       <c r="C14" t="n">
-        <v>0.312376</v>
+        <v>0.309415</v>
       </c>
       <c r="D14" t="n">
-        <v>0.346485</v>
+        <v>0.348563</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.464127</v>
+        <v>0.425486</v>
       </c>
       <c r="C15" t="n">
-        <v>0.317479</v>
+        <v>0.315164</v>
       </c>
       <c r="D15" t="n">
-        <v>0.352991</v>
+        <v>0.35583</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.474606</v>
+        <v>0.438299</v>
       </c>
       <c r="C16" t="n">
-        <v>0.325967</v>
+        <v>0.323462</v>
       </c>
       <c r="D16" t="n">
-        <v>0.358524</v>
+        <v>0.365986</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.488383</v>
+        <v>0.451246</v>
       </c>
       <c r="C17" t="n">
-        <v>0.330813</v>
+        <v>0.330823</v>
       </c>
       <c r="D17" t="n">
-        <v>0.365242</v>
+        <v>0.373007</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.49988</v>
+        <v>0.463407</v>
       </c>
       <c r="C18" t="n">
-        <v>0.334973</v>
+        <v>0.337147</v>
       </c>
       <c r="D18" t="n">
-        <v>0.369962</v>
+        <v>0.381433</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5112</v>
+        <v>0.475886</v>
       </c>
       <c r="C19" t="n">
-        <v>0.342644</v>
+        <v>0.342489</v>
       </c>
       <c r="D19" t="n">
-        <v>0.376142</v>
+        <v>0.389384</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.526199</v>
+        <v>0.488344</v>
       </c>
       <c r="C20" t="n">
-        <v>0.349361</v>
+        <v>0.350468</v>
       </c>
       <c r="D20" t="n">
-        <v>0.384931</v>
+        <v>0.398922</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.541625</v>
+        <v>0.501383</v>
       </c>
       <c r="C21" t="n">
-        <v>0.272432</v>
+        <v>0.280749</v>
       </c>
       <c r="D21" t="n">
-        <v>0.304904</v>
+        <v>0.31482</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.429838</v>
+        <v>0.389677</v>
       </c>
       <c r="C22" t="n">
-        <v>0.278165</v>
+        <v>0.288786</v>
       </c>
       <c r="D22" t="n">
-        <v>0.315291</v>
+        <v>0.323282</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.453918</v>
+        <v>0.400825</v>
       </c>
       <c r="C23" t="n">
-        <v>0.288074</v>
+        <v>0.297023</v>
       </c>
       <c r="D23" t="n">
-        <v>0.324765</v>
+        <v>0.33396</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.461607</v>
+        <v>0.411152</v>
       </c>
       <c r="C24" t="n">
-        <v>0.295798</v>
+        <v>0.305387</v>
       </c>
       <c r="D24" t="n">
-        <v>0.33336</v>
+        <v>0.343113</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.476861</v>
+        <v>0.422679</v>
       </c>
       <c r="C25" t="n">
-        <v>0.303879</v>
+        <v>0.313864</v>
       </c>
       <c r="D25" t="n">
-        <v>0.342935</v>
+        <v>0.353439</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.492232</v>
+        <v>0.434078</v>
       </c>
       <c r="C26" t="n">
-        <v>0.314409</v>
+        <v>0.322283</v>
       </c>
       <c r="D26" t="n">
-        <v>0.353807</v>
+        <v>0.364628</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.50849</v>
+        <v>0.442947</v>
       </c>
       <c r="C27" t="n">
-        <v>0.327042</v>
+        <v>0.33039</v>
       </c>
       <c r="D27" t="n">
-        <v>0.370624</v>
+        <v>0.375827</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5284</v>
+        <v>0.458666</v>
       </c>
       <c r="C28" t="n">
-        <v>0.334429</v>
+        <v>0.338915</v>
       </c>
       <c r="D28" t="n">
-        <v>0.376139</v>
+        <v>0.385082</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.546143</v>
+        <v>0.471283</v>
       </c>
       <c r="C29" t="n">
-        <v>0.345352</v>
+        <v>0.346424</v>
       </c>
       <c r="D29" t="n">
-        <v>0.388663</v>
+        <v>0.396279</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.56426</v>
+        <v>0.482573</v>
       </c>
       <c r="C30" t="n">
-        <v>0.353049</v>
+        <v>0.353961</v>
       </c>
       <c r="D30" t="n">
-        <v>0.401982</v>
+        <v>0.40598</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.581298</v>
+        <v>0.492977</v>
       </c>
       <c r="C31" t="n">
-        <v>0.361854</v>
+        <v>0.359934</v>
       </c>
       <c r="D31" t="n">
-        <v>0.411713</v>
+        <v>0.415007</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.607927</v>
+        <v>0.504297</v>
       </c>
       <c r="C32" t="n">
-        <v>0.37064</v>
+        <v>0.36867</v>
       </c>
       <c r="D32" t="n">
-        <v>0.424263</v>
+        <v>0.424638</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6202029999999999</v>
+        <v>0.51635</v>
       </c>
       <c r="C33" t="n">
-        <v>0.379134</v>
+        <v>0.375482</v>
       </c>
       <c r="D33" t="n">
-        <v>0.435971</v>
+        <v>0.433042</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.639817</v>
+        <v>0.532156</v>
       </c>
       <c r="C34" t="n">
-        <v>0.389835</v>
+        <v>0.383214</v>
       </c>
       <c r="D34" t="n">
-        <v>0.447445</v>
+        <v>0.442641</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.66033</v>
+        <v>0.539776</v>
       </c>
       <c r="C35" t="n">
-        <v>0.312209</v>
+        <v>0.298346</v>
       </c>
       <c r="D35" t="n">
-        <v>0.356115</v>
+        <v>0.338227</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.513497</v>
+        <v>0.409444</v>
       </c>
       <c r="C36" t="n">
-        <v>0.321427</v>
+        <v>0.305424</v>
       </c>
       <c r="D36" t="n">
-        <v>0.370461</v>
+        <v>0.348113</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.538733</v>
+        <v>0.420435</v>
       </c>
       <c r="C37" t="n">
-        <v>0.327834</v>
+        <v>0.313681</v>
       </c>
       <c r="D37" t="n">
-        <v>0.375299</v>
+        <v>0.3572</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.545082</v>
+        <v>0.430835</v>
       </c>
       <c r="C38" t="n">
-        <v>0.337321</v>
+        <v>0.322936</v>
       </c>
       <c r="D38" t="n">
-        <v>0.389202</v>
+        <v>0.367871</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.567522</v>
+        <v>0.441806</v>
       </c>
       <c r="C39" t="n">
-        <v>0.347427</v>
+        <v>0.330813</v>
       </c>
       <c r="D39" t="n">
-        <v>0.405502</v>
+        <v>0.378792</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.583579</v>
+        <v>0.452957</v>
       </c>
       <c r="C40" t="n">
-        <v>0.355829</v>
+        <v>0.339519</v>
       </c>
       <c r="D40" t="n">
-        <v>0.419014</v>
+        <v>0.38917</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.596123</v>
+        <v>0.46845</v>
       </c>
       <c r="C41" t="n">
-        <v>0.36545</v>
+        <v>0.348158</v>
       </c>
       <c r="D41" t="n">
-        <v>0.431101</v>
+        <v>0.400318</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6151799999999999</v>
+        <v>0.476016</v>
       </c>
       <c r="C42" t="n">
-        <v>0.375601</v>
+        <v>0.35613</v>
       </c>
       <c r="D42" t="n">
-        <v>0.439263</v>
+        <v>0.409439</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.63056</v>
+        <v>0.488529</v>
       </c>
       <c r="C43" t="n">
-        <v>0.388367</v>
+        <v>0.363805</v>
       </c>
       <c r="D43" t="n">
-        <v>0.454384</v>
+        <v>0.41991</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.662184</v>
+        <v>0.500742</v>
       </c>
       <c r="C44" t="n">
-        <v>0.399734</v>
+        <v>0.370576</v>
       </c>
       <c r="D44" t="n">
-        <v>0.467383</v>
+        <v>0.428083</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.680774</v>
+        <v>0.5115420000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.409973</v>
+        <v>0.377531</v>
       </c>
       <c r="D45" t="n">
-        <v>0.479019</v>
+        <v>0.437451</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6935829999999999</v>
+        <v>0.522903</v>
       </c>
       <c r="C46" t="n">
-        <v>0.419709</v>
+        <v>0.383936</v>
       </c>
       <c r="D46" t="n">
-        <v>0.489901</v>
+        <v>0.445723</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.715899</v>
+        <v>0.534591</v>
       </c>
       <c r="C47" t="n">
-        <v>0.429903</v>
+        <v>0.390837</v>
       </c>
       <c r="D47" t="n">
-        <v>0.506605</v>
+        <v>0.453909</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.746857</v>
+        <v>0.552163</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4396</v>
+        <v>0.397663</v>
       </c>
       <c r="D48" t="n">
-        <v>0.516405</v>
+        <v>0.463186</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.772173</v>
+        <v>0.56069</v>
       </c>
       <c r="C49" t="n">
-        <v>0.452957</v>
+        <v>0.404917</v>
       </c>
       <c r="D49" t="n">
-        <v>0.534937</v>
+        <v>0.473127</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.808207</v>
+        <v>0.576249</v>
       </c>
       <c r="C50" t="n">
-        <v>0.364006</v>
+        <v>0.311389</v>
       </c>
       <c r="D50" t="n">
-        <v>0.418893</v>
+        <v>0.34729</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.636618</v>
+        <v>0.430632</v>
       </c>
       <c r="C51" t="n">
-        <v>0.371078</v>
+        <v>0.320542</v>
       </c>
       <c r="D51" t="n">
-        <v>0.433327</v>
+        <v>0.35802</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.648543</v>
+        <v>0.440256</v>
       </c>
       <c r="C52" t="n">
-        <v>0.397485</v>
+        <v>0.329411</v>
       </c>
       <c r="D52" t="n">
-        <v>0.490963</v>
+        <v>0.369199</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.681555</v>
+        <v>0.452198</v>
       </c>
       <c r="C53" t="n">
-        <v>0.396516</v>
+        <v>0.337878</v>
       </c>
       <c r="D53" t="n">
-        <v>0.524707</v>
+        <v>0.380094</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.765749</v>
+        <v>0.463763</v>
       </c>
       <c r="C54" t="n">
-        <v>0.408603</v>
+        <v>0.347132</v>
       </c>
       <c r="D54" t="n">
-        <v>0.486015</v>
+        <v>0.391585</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.726255</v>
+        <v>0.47887</v>
       </c>
       <c r="C55" t="n">
-        <v>0.428539</v>
+        <v>0.356009</v>
       </c>
       <c r="D55" t="n">
-        <v>0.50551</v>
+        <v>0.402742</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.764863</v>
+        <v>0.487514</v>
       </c>
       <c r="C56" t="n">
-        <v>0.428815</v>
+        <v>0.364041</v>
       </c>
       <c r="D56" t="n">
-        <v>0.519271</v>
+        <v>0.412546</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.765419</v>
+        <v>0.498513</v>
       </c>
       <c r="C57" t="n">
-        <v>0.480637</v>
+        <v>0.371901</v>
       </c>
       <c r="D57" t="n">
-        <v>0.561972</v>
+        <v>0.421954</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.794699</v>
+        <v>0.509329</v>
       </c>
       <c r="C58" t="n">
-        <v>0.506612</v>
+        <v>0.378743</v>
       </c>
       <c r="D58" t="n">
-        <v>0.587824</v>
+        <v>0.431721</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.913795</v>
+        <v>0.51961</v>
       </c>
       <c r="C59" t="n">
-        <v>0.514036</v>
+        <v>0.385354</v>
       </c>
       <c r="D59" t="n">
-        <v>0.576951</v>
+        <v>0.440584</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.958232</v>
+        <v>0.5310589999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.558495</v>
+        <v>0.39192</v>
       </c>
       <c r="D60" t="n">
-        <v>0.610947</v>
+        <v>0.449948</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9061630000000001</v>
+        <v>0.545658</v>
       </c>
       <c r="C61" t="n">
-        <v>0.557547</v>
+        <v>0.398571</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6698499999999999</v>
+        <v>0.458525</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.06951</v>
+        <v>0.556478</v>
       </c>
       <c r="C62" t="n">
-        <v>0.586175</v>
+        <v>0.406378</v>
       </c>
       <c r="D62" t="n">
-        <v>0.717177</v>
+        <v>0.468815</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.12176</v>
+        <v>0.568156</v>
       </c>
       <c r="C63" t="n">
-        <v>0.645205</v>
+        <v>0.413184</v>
       </c>
       <c r="D63" t="n">
-        <v>0.727282</v>
+        <v>0.478062</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.23537</v>
+        <v>0.581934</v>
       </c>
       <c r="C64" t="n">
-        <v>0.577354</v>
+        <v>0.322432</v>
       </c>
       <c r="D64" t="n">
-        <v>0.649869</v>
+        <v>0.36382</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.01242</v>
+        <v>0.452881</v>
       </c>
       <c r="C65" t="n">
-        <v>0.552196</v>
+        <v>0.331898</v>
       </c>
       <c r="D65" t="n">
-        <v>0.653834</v>
+        <v>0.376401</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.12086</v>
+        <v>0.470985</v>
       </c>
       <c r="C66" t="n">
-        <v>0.60221</v>
+        <v>0.343202</v>
       </c>
       <c r="D66" t="n">
-        <v>0.677387</v>
+        <v>0.389484</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.2129</v>
+        <v>0.487685</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6632209999999999</v>
+        <v>0.353853</v>
       </c>
       <c r="D67" t="n">
-        <v>0.685704</v>
+        <v>0.40355</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.24506</v>
+        <v>0.507189</v>
       </c>
       <c r="C68" t="n">
-        <v>0.64729</v>
+        <v>0.365464</v>
       </c>
       <c r="D68" t="n">
-        <v>0.774126</v>
+        <v>0.41721</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.25066</v>
+        <v>0.531614</v>
       </c>
       <c r="C69" t="n">
-        <v>0.727007</v>
+        <v>0.37884</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8466399999999999</v>
+        <v>0.434426</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.47655</v>
+        <v>0.5526990000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.776543</v>
+        <v>0.392631</v>
       </c>
       <c r="D70" t="n">
-        <v>0.870143</v>
+        <v>0.452543</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.45096</v>
+        <v>0.571972</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7735880000000001</v>
+        <v>0.405044</v>
       </c>
       <c r="D71" t="n">
-        <v>0.875062</v>
+        <v>0.468306</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.69984</v>
+        <v>0.598222</v>
       </c>
       <c r="C72" t="n">
-        <v>0.844899</v>
+        <v>0.420281</v>
       </c>
       <c r="D72" t="n">
-        <v>0.897432</v>
+        <v>0.485249</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.70821</v>
+        <v>0.625599</v>
       </c>
       <c r="C73" t="n">
-        <v>0.963426</v>
+        <v>0.435636</v>
       </c>
       <c r="D73" t="n">
-        <v>0.981425</v>
+        <v>0.505153</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.69942</v>
+        <v>0.657898</v>
       </c>
       <c r="C74" t="n">
-        <v>0.877484</v>
+        <v>0.453964</v>
       </c>
       <c r="D74" t="n">
-        <v>1.01491</v>
+        <v>0.527343</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.72345</v>
+        <v>0.692509</v>
       </c>
       <c r="C75" t="n">
-        <v>0.919257</v>
+        <v>0.47246</v>
       </c>
       <c r="D75" t="n">
-        <v>1.02302</v>
+        <v>0.549817</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.84619</v>
+        <v>0.732764</v>
       </c>
       <c r="C76" t="n">
-        <v>0.938798</v>
+        <v>0.494956</v>
       </c>
       <c r="D76" t="n">
-        <v>1.06618</v>
+        <v>0.575879</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.90063</v>
+        <v>0.776136</v>
       </c>
       <c r="C77" t="n">
-        <v>0.937508</v>
+        <v>0.51999</v>
       </c>
       <c r="D77" t="n">
-        <v>1.07578</v>
+        <v>0.605174</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.95542</v>
+        <v>0.82803</v>
       </c>
       <c r="C78" t="n">
-        <v>0.801042</v>
+        <v>0.458796</v>
       </c>
       <c r="D78" t="n">
-        <v>0.864035</v>
+        <v>0.524268</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.51497</v>
+        <v>0.823605</v>
       </c>
       <c r="C79" t="n">
-        <v>0.805215</v>
+        <v>0.482123</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9892069999999999</v>
+        <v>0.556032</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.54579</v>
+        <v>0.865823</v>
       </c>
       <c r="C80" t="n">
-        <v>0.925173</v>
+        <v>0.508991</v>
       </c>
       <c r="D80" t="n">
-        <v>1.09035</v>
+        <v>0.5863080000000001</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.72404</v>
+        <v>0.904107</v>
       </c>
       <c r="C81" t="n">
-        <v>0.957125</v>
+        <v>0.539008</v>
       </c>
       <c r="D81" t="n">
-        <v>1.04198</v>
+        <v>0.613105</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.77318</v>
+        <v>0.952579</v>
       </c>
       <c r="C82" t="n">
-        <v>0.973519</v>
+        <v>0.571943</v>
       </c>
       <c r="D82" t="n">
-        <v>1.09455</v>
+        <v>0.6446769999999999</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.82786</v>
+        <v>1.00141</v>
       </c>
       <c r="C83" t="n">
-        <v>0.997271</v>
+        <v>0.603648</v>
       </c>
       <c r="D83" t="n">
-        <v>1.16042</v>
+        <v>0.680639</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.83997</v>
+        <v>1.04091</v>
       </c>
       <c r="C84" t="n">
-        <v>1.00364</v>
+        <v>0.6391559999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>1.24326</v>
+        <v>0.7256359999999999</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.92377</v>
+        <v>1.10524</v>
       </c>
       <c r="C85" t="n">
-        <v>1.03018</v>
+        <v>0.67334</v>
       </c>
       <c r="D85" t="n">
-        <v>1.23769</v>
+        <v>0.765343</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.03628</v>
+        <v>1.15851</v>
       </c>
       <c r="C86" t="n">
-        <v>1.14094</v>
+        <v>0.708996</v>
       </c>
       <c r="D86" t="n">
-        <v>1.33241</v>
+        <v>0.806466</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.13147</v>
+        <v>1.21274</v>
       </c>
       <c r="C87" t="n">
-        <v>1.12981</v>
+        <v>0.7441410000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>1.35066</v>
+        <v>0.841801</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.14588</v>
+        <v>1.26935</v>
       </c>
       <c r="C88" t="n">
-        <v>1.17463</v>
+        <v>0.780229</v>
       </c>
       <c r="D88" t="n">
-        <v>1.38769</v>
+        <v>0.879288</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.18844</v>
+        <v>1.32532</v>
       </c>
       <c r="C89" t="n">
-        <v>1.16484</v>
+        <v>0.815157</v>
       </c>
       <c r="D89" t="n">
-        <v>1.38565</v>
+        <v>0.919107</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.30052</v>
+        <v>1.38758</v>
       </c>
       <c r="C90" t="n">
-        <v>1.22217</v>
+        <v>0.855302</v>
       </c>
       <c r="D90" t="n">
-        <v>1.49014</v>
+        <v>0.959884</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.39606</v>
+        <v>1.45524</v>
       </c>
       <c r="C91" t="n">
-        <v>1.28489</v>
+        <v>0.897514</v>
       </c>
       <c r="D91" t="n">
-        <v>1.58766</v>
+        <v>1.00484</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.53782</v>
+        <v>1.52519</v>
       </c>
       <c r="C92" t="n">
-        <v>1.05639</v>
+        <v>0.768577</v>
       </c>
       <c r="D92" t="n">
-        <v>1.3091</v>
+        <v>0.885239</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.84826</v>
+        <v>1.33211</v>
       </c>
       <c r="C93" t="n">
-        <v>1.05871</v>
+        <v>0.795513</v>
       </c>
       <c r="D93" t="n">
-        <v>1.28619</v>
+        <v>0.92963</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.89346</v>
+        <v>1.37038</v>
       </c>
       <c r="C94" t="n">
-        <v>1.08724</v>
+        <v>0.824229</v>
       </c>
       <c r="D94" t="n">
-        <v>1.33743</v>
+        <v>0.960354</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.8964</v>
+        <v>1.41082</v>
       </c>
       <c r="C95" t="n">
-        <v>1.0903</v>
+        <v>0.854582</v>
       </c>
       <c r="D95" t="n">
-        <v>1.31947</v>
+        <v>0.98584</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.98709</v>
+        <v>1.45296</v>
       </c>
       <c r="C96" t="n">
-        <v>1.11507</v>
+        <v>0.886644</v>
       </c>
       <c r="D96" t="n">
-        <v>1.33339</v>
+        <v>1.01929</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.02768</v>
+        <v>1.49537</v>
       </c>
       <c r="C97" t="n">
-        <v>1.15271</v>
+        <v>0.918785</v>
       </c>
       <c r="D97" t="n">
-        <v>1.42038</v>
+        <v>1.07856</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.07842</v>
+        <v>1.53975</v>
       </c>
       <c r="C98" t="n">
-        <v>1.16706</v>
+        <v>0.951591</v>
       </c>
       <c r="D98" t="n">
-        <v>1.50033</v>
+        <v>1.10719</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.15114</v>
+        <v>1.58637</v>
       </c>
       <c r="C99" t="n">
-        <v>1.22635</v>
+        <v>0.985537</v>
       </c>
       <c r="D99" t="n">
-        <v>1.49956</v>
+        <v>1.14938</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.19962</v>
+        <v>1.63414</v>
       </c>
       <c r="C100" t="n">
-        <v>1.25389</v>
+        <v>1.02</v>
       </c>
       <c r="D100" t="n">
-        <v>1.63415</v>
+        <v>1.19373</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.2719</v>
+        <v>1.68192</v>
       </c>
       <c r="C101" t="n">
-        <v>1.29553</v>
+        <v>1.0554</v>
       </c>
       <c r="D101" t="n">
-        <v>1.63753</v>
+        <v>1.23807</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.33701</v>
+        <v>1.73396</v>
       </c>
       <c r="C102" t="n">
-        <v>1.30717</v>
+        <v>1.09148</v>
       </c>
       <c r="D102" t="n">
-        <v>1.65985</v>
+        <v>1.27768</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.41039</v>
+        <v>1.78987</v>
       </c>
       <c r="C103" t="n">
-        <v>1.34779</v>
+        <v>1.12962</v>
       </c>
       <c r="D103" t="n">
-        <v>1.70392</v>
+        <v>1.32491</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.48835</v>
+        <v>1.84696</v>
       </c>
       <c r="C104" t="n">
-        <v>1.40047</v>
+        <v>1.16795</v>
       </c>
       <c r="D104" t="n">
-        <v>1.7261</v>
+        <v>1.37416</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.54305</v>
+        <v>1.90716</v>
       </c>
       <c r="C105" t="n">
-        <v>1.4189</v>
+        <v>1.20851</v>
       </c>
       <c r="D105" t="n">
-        <v>1.86164</v>
+        <v>1.42263</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.64662</v>
+        <v>1.97179</v>
       </c>
       <c r="C106" t="n">
-        <v>1.47542</v>
+        <v>1.25087</v>
       </c>
       <c r="D106" t="n">
-        <v>1.90957</v>
+        <v>1.47415</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.8913</v>
+        <v>1.62548</v>
       </c>
       <c r="C107" t="n">
-        <v>1.13194</v>
+        <v>1.01712</v>
       </c>
       <c r="D107" t="n">
-        <v>1.38642</v>
+        <v>1.25256</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.93894</v>
+        <v>1.66086</v>
       </c>
       <c r="C108" t="n">
-        <v>1.13943</v>
+        <v>1.04265</v>
       </c>
       <c r="D108" t="n">
-        <v>1.40399</v>
+        <v>1.28249</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.00232</v>
+        <v>1.6915</v>
       </c>
       <c r="C109" t="n">
-        <v>1.16749</v>
+        <v>1.07071</v>
       </c>
       <c r="D109" t="n">
-        <v>1.48206</v>
+        <v>1.3303</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.01428</v>
+        <v>1.71602</v>
       </c>
       <c r="C110" t="n">
-        <v>1.18684</v>
+        <v>1.08152</v>
       </c>
       <c r="D110" t="n">
-        <v>1.53722</v>
+        <v>1.34145</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.07109</v>
+        <v>1.76524</v>
       </c>
       <c r="C111" t="n">
-        <v>1.20887</v>
+        <v>1.12688</v>
       </c>
       <c r="D111" t="n">
-        <v>1.5426</v>
+        <v>1.39413</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.12424</v>
+        <v>1.80634</v>
       </c>
       <c r="C112" t="n">
-        <v>1.23577</v>
+        <v>1.1603</v>
       </c>
       <c r="D112" t="n">
-        <v>1.58675</v>
+        <v>1.43863</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.17511</v>
+        <v>1.84653</v>
       </c>
       <c r="C113" t="n">
-        <v>1.27855</v>
+        <v>1.19231</v>
       </c>
       <c r="D113" t="n">
-        <v>1.66233</v>
+        <v>1.48051</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.24656</v>
+        <v>1.89386</v>
       </c>
       <c r="C114" t="n">
-        <v>1.29974</v>
+        <v>1.22472</v>
       </c>
       <c r="D114" t="n">
-        <v>1.66355</v>
+        <v>1.5144</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.2724</v>
+        <v>1.92759</v>
       </c>
       <c r="C115" t="n">
-        <v>1.30341</v>
+        <v>1.24379</v>
       </c>
       <c r="D115" t="n">
-        <v>1.73523</v>
+        <v>1.56901</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.36284</v>
+        <v>1.97544</v>
       </c>
       <c r="C116" t="n">
-        <v>1.34666</v>
+        <v>1.27805</v>
       </c>
       <c r="D116" t="n">
-        <v>1.78163</v>
+        <v>1.61288</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.42374</v>
+        <v>2.02984</v>
       </c>
       <c r="C117" t="n">
-        <v>1.40074</v>
+        <v>1.31424</v>
       </c>
       <c r="D117" t="n">
-        <v>1.8234</v>
+        <v>1.65835</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.49381</v>
+        <v>2.08747</v>
       </c>
       <c r="C118" t="n">
-        <v>1.40438</v>
+        <v>1.35245</v>
       </c>
       <c r="D118" t="n">
-        <v>1.90228</v>
+        <v>1.70038</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.55693</v>
+        <v>2.13895</v>
       </c>
       <c r="C119" t="n">
-        <v>1.45368</v>
+        <v>1.39098</v>
       </c>
       <c r="D119" t="n">
-        <v>1.91461</v>
+        <v>1.75048</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.455378</v>
+        <v>0.279766</v>
       </c>
       <c r="C2" t="n">
-        <v>0.320689</v>
+        <v>0.200826</v>
       </c>
       <c r="D2" t="n">
-        <v>0.257496</v>
+        <v>0.179987</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.471845</v>
+        <v>0.293105</v>
       </c>
       <c r="C3" t="n">
-        <v>0.336614</v>
+        <v>0.207552</v>
       </c>
       <c r="D3" t="n">
-        <v>0.261902</v>
+        <v>0.183851</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.489598</v>
+        <v>0.299197</v>
       </c>
       <c r="C4" t="n">
-        <v>0.356884</v>
+        <v>0.213485</v>
       </c>
       <c r="D4" t="n">
-        <v>0.268807</v>
+        <v>0.185021</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.515027</v>
+        <v>0.308613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.36688</v>
+        <v>0.21869</v>
       </c>
       <c r="D5" t="n">
-        <v>0.275349</v>
+        <v>0.189105</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.529475</v>
+        <v>0.321379</v>
       </c>
       <c r="C6" t="n">
-        <v>0.381012</v>
+        <v>0.228151</v>
       </c>
       <c r="D6" t="n">
-        <v>0.282458</v>
+        <v>0.192221</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.550071</v>
+        <v>0.332437</v>
       </c>
       <c r="C7" t="n">
-        <v>0.309566</v>
+        <v>0.188731</v>
       </c>
       <c r="D7" t="n">
-        <v>0.272619</v>
+        <v>0.173443</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.42842</v>
+        <v>0.252607</v>
       </c>
       <c r="C8" t="n">
-        <v>0.313313</v>
+        <v>0.191308</v>
       </c>
       <c r="D8" t="n">
-        <v>0.278775</v>
+        <v>0.175115</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.433139</v>
+        <v>0.254265</v>
       </c>
       <c r="C9" t="n">
-        <v>0.339503</v>
+        <v>0.197451</v>
       </c>
       <c r="D9" t="n">
-        <v>0.282937</v>
+        <v>0.177958</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.449301</v>
+        <v>0.264267</v>
       </c>
       <c r="C10" t="n">
-        <v>0.334052</v>
+        <v>0.203748</v>
       </c>
       <c r="D10" t="n">
-        <v>0.281734</v>
+        <v>0.18178</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.465912</v>
+        <v>0.270729</v>
       </c>
       <c r="C11" t="n">
-        <v>0.344507</v>
+        <v>0.208483</v>
       </c>
       <c r="D11" t="n">
-        <v>0.290452</v>
+        <v>0.184969</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.46811</v>
+        <v>0.278313</v>
       </c>
       <c r="C12" t="n">
-        <v>0.34196</v>
+        <v>0.214302</v>
       </c>
       <c r="D12" t="n">
-        <v>0.294496</v>
+        <v>0.188123</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.481219</v>
+        <v>0.285632</v>
       </c>
       <c r="C13" t="n">
-        <v>0.357902</v>
+        <v>0.223271</v>
       </c>
       <c r="D13" t="n">
-        <v>0.301585</v>
+        <v>0.189562</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.501965</v>
+        <v>0.29739</v>
       </c>
       <c r="C14" t="n">
-        <v>0.370648</v>
+        <v>0.229617</v>
       </c>
       <c r="D14" t="n">
-        <v>0.305273</v>
+        <v>0.194445</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.51215</v>
+        <v>0.30462</v>
       </c>
       <c r="C15" t="n">
-        <v>0.389955</v>
+        <v>0.236089</v>
       </c>
       <c r="D15" t="n">
-        <v>0.31136</v>
+        <v>0.198291</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.526325</v>
+        <v>0.315854</v>
       </c>
       <c r="C16" t="n">
-        <v>0.394051</v>
+        <v>0.246553</v>
       </c>
       <c r="D16" t="n">
-        <v>0.319137</v>
+        <v>0.202494</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5417729999999999</v>
+        <v>0.328604</v>
       </c>
       <c r="C17" t="n">
-        <v>0.396219</v>
+        <v>0.254784</v>
       </c>
       <c r="D17" t="n">
-        <v>0.323585</v>
+        <v>0.206641</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5507</v>
+        <v>0.338726</v>
       </c>
       <c r="C18" t="n">
-        <v>0.405897</v>
+        <v>0.263425</v>
       </c>
       <c r="D18" t="n">
-        <v>0.334693</v>
+        <v>0.210655</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.569798</v>
+        <v>0.35094</v>
       </c>
       <c r="C19" t="n">
-        <v>0.426294</v>
+        <v>0.271412</v>
       </c>
       <c r="D19" t="n">
-        <v>0.336996</v>
+        <v>0.216604</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.586095</v>
+        <v>0.364564</v>
       </c>
       <c r="C20" t="n">
-        <v>0.437774</v>
+        <v>0.284078</v>
       </c>
       <c r="D20" t="n">
-        <v>0.344809</v>
+        <v>0.221518</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.607591</v>
+        <v>0.377572</v>
       </c>
       <c r="C21" t="n">
-        <v>0.351307</v>
+        <v>0.231845</v>
       </c>
       <c r="D21" t="n">
-        <v>0.314056</v>
+        <v>0.203642</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.466068</v>
+        <v>0.294598</v>
       </c>
       <c r="C22" t="n">
-        <v>0.350702</v>
+        <v>0.237615</v>
       </c>
       <c r="D22" t="n">
-        <v>0.31731</v>
+        <v>0.206346</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.471293</v>
+        <v>0.302175</v>
       </c>
       <c r="C23" t="n">
-        <v>0.36344</v>
+        <v>0.244241</v>
       </c>
       <c r="D23" t="n">
-        <v>0.320895</v>
+        <v>0.209698</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.484814</v>
+        <v>0.309893</v>
       </c>
       <c r="C24" t="n">
-        <v>0.370673</v>
+        <v>0.249167</v>
       </c>
       <c r="D24" t="n">
-        <v>0.330273</v>
+        <v>0.213348</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.509063</v>
+        <v>0.317176</v>
       </c>
       <c r="C25" t="n">
-        <v>0.385367</v>
+        <v>0.255507</v>
       </c>
       <c r="D25" t="n">
-        <v>0.330468</v>
+        <v>0.216647</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.515083</v>
+        <v>0.325919</v>
       </c>
       <c r="C26" t="n">
-        <v>0.394103</v>
+        <v>0.263187</v>
       </c>
       <c r="D26" t="n">
-        <v>0.344988</v>
+        <v>0.220546</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5330589999999999</v>
+        <v>0.332931</v>
       </c>
       <c r="C27" t="n">
-        <v>0.393519</v>
+        <v>0.267774</v>
       </c>
       <c r="D27" t="n">
-        <v>0.340894</v>
+        <v>0.224456</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5326149999999999</v>
+        <v>0.342754</v>
       </c>
       <c r="C28" t="n">
-        <v>0.400285</v>
+        <v>0.274202</v>
       </c>
       <c r="D28" t="n">
-        <v>0.346457</v>
+        <v>0.228415</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.548509</v>
+        <v>0.352791</v>
       </c>
       <c r="C29" t="n">
-        <v>0.412727</v>
+        <v>0.281661</v>
       </c>
       <c r="D29" t="n">
-        <v>0.354308</v>
+        <v>0.232615</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.562214</v>
+        <v>0.361969</v>
       </c>
       <c r="C30" t="n">
-        <v>0.43432</v>
+        <v>0.289851</v>
       </c>
       <c r="D30" t="n">
-        <v>0.369205</v>
+        <v>0.236529</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.587234</v>
+        <v>0.372686</v>
       </c>
       <c r="C31" t="n">
-        <v>0.434798</v>
+        <v>0.296566</v>
       </c>
       <c r="D31" t="n">
-        <v>0.367218</v>
+        <v>0.240736</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.60349</v>
+        <v>0.382626</v>
       </c>
       <c r="C32" t="n">
-        <v>0.448198</v>
+        <v>0.306169</v>
       </c>
       <c r="D32" t="n">
-        <v>0.370664</v>
+        <v>0.245462</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.614019</v>
+        <v>0.395931</v>
       </c>
       <c r="C33" t="n">
-        <v>0.463123</v>
+        <v>0.314443</v>
       </c>
       <c r="D33" t="n">
-        <v>0.376616</v>
+        <v>0.250408</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.623147</v>
+        <v>0.408486</v>
       </c>
       <c r="C34" t="n">
-        <v>0.468602</v>
+        <v>0.324163</v>
       </c>
       <c r="D34" t="n">
-        <v>0.384768</v>
+        <v>0.255232</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.648189</v>
+        <v>0.421139</v>
       </c>
       <c r="C35" t="n">
-        <v>0.362896</v>
+        <v>0.249897</v>
       </c>
       <c r="D35" t="n">
-        <v>0.330199</v>
+        <v>0.227151</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.486312</v>
+        <v>0.316136</v>
       </c>
       <c r="C36" t="n">
-        <v>0.368782</v>
+        <v>0.256492</v>
       </c>
       <c r="D36" t="n">
-        <v>0.340184</v>
+        <v>0.230789</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.493883</v>
+        <v>0.322315</v>
       </c>
       <c r="C37" t="n">
-        <v>0.365013</v>
+        <v>0.261739</v>
       </c>
       <c r="D37" t="n">
-        <v>0.334727</v>
+        <v>0.233497</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.510177</v>
+        <v>0.331126</v>
       </c>
       <c r="C38" t="n">
-        <v>0.386776</v>
+        <v>0.268562</v>
       </c>
       <c r="D38" t="n">
-        <v>0.351203</v>
+        <v>0.237131</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.517486</v>
+        <v>0.336702</v>
       </c>
       <c r="C39" t="n">
-        <v>0.401792</v>
+        <v>0.27441</v>
       </c>
       <c r="D39" t="n">
-        <v>0.362089</v>
+        <v>0.240863</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.540919</v>
+        <v>0.346381</v>
       </c>
       <c r="C40" t="n">
-        <v>0.404132</v>
+        <v>0.280962</v>
       </c>
       <c r="D40" t="n">
-        <v>0.358245</v>
+        <v>0.244784</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.538843</v>
+        <v>0.353951</v>
       </c>
       <c r="C41" t="n">
-        <v>0.413945</v>
+        <v>0.286975</v>
       </c>
       <c r="D41" t="n">
-        <v>0.36268</v>
+        <v>0.248018</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.551794</v>
+        <v>0.361977</v>
       </c>
       <c r="C42" t="n">
-        <v>0.418883</v>
+        <v>0.292537</v>
       </c>
       <c r="D42" t="n">
-        <v>0.368528</v>
+        <v>0.251221</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.564644</v>
+        <v>0.370846</v>
       </c>
       <c r="C43" t="n">
-        <v>0.42783</v>
+        <v>0.299469</v>
       </c>
       <c r="D43" t="n">
-        <v>0.370962</v>
+        <v>0.254791</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.599168</v>
+        <v>0.380799</v>
       </c>
       <c r="C44" t="n">
-        <v>0.45012</v>
+        <v>0.30764</v>
       </c>
       <c r="D44" t="n">
-        <v>0.375713</v>
+        <v>0.259314</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5965</v>
+        <v>0.392496</v>
       </c>
       <c r="C45" t="n">
-        <v>0.462033</v>
+        <v>0.315683</v>
       </c>
       <c r="D45" t="n">
-        <v>0.38215</v>
+        <v>0.264611</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.615513</v>
+        <v>0.40279</v>
       </c>
       <c r="C46" t="n">
-        <v>0.470521</v>
+        <v>0.324358</v>
       </c>
       <c r="D46" t="n">
-        <v>0.387644</v>
+        <v>0.267754</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.626036</v>
+        <v>0.413271</v>
       </c>
       <c r="C47" t="n">
-        <v>0.487077</v>
+        <v>0.331848</v>
       </c>
       <c r="D47" t="n">
-        <v>0.393291</v>
+        <v>0.273671</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.638083</v>
+        <v>0.424755</v>
       </c>
       <c r="C48" t="n">
-        <v>0.498525</v>
+        <v>0.340854</v>
       </c>
       <c r="D48" t="n">
-        <v>0.400258</v>
+        <v>0.278651</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.666647</v>
+        <v>0.435383</v>
       </c>
       <c r="C49" t="n">
-        <v>0.499312</v>
+        <v>0.351012</v>
       </c>
       <c r="D49" t="n">
-        <v>0.421022</v>
+        <v>0.284049</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6856139999999999</v>
+        <v>0.449592</v>
       </c>
       <c r="C50" t="n">
-        <v>0.397895</v>
+        <v>0.264088</v>
       </c>
       <c r="D50" t="n">
-        <v>0.356886</v>
+        <v>0.231539</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.554698</v>
+        <v>0.333895</v>
       </c>
       <c r="C51" t="n">
-        <v>0.42052</v>
+        <v>0.269799</v>
       </c>
       <c r="D51" t="n">
-        <v>0.356897</v>
+        <v>0.234456</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.575083</v>
+        <v>0.340598</v>
       </c>
       <c r="C52" t="n">
-        <v>0.431677</v>
+        <v>0.275539</v>
       </c>
       <c r="D52" t="n">
-        <v>0.365097</v>
+        <v>0.237957</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.580922</v>
+        <v>0.347638</v>
       </c>
       <c r="C53" t="n">
-        <v>0.446493</v>
+        <v>0.282452</v>
       </c>
       <c r="D53" t="n">
-        <v>0.379576</v>
+        <v>0.242001</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.611267</v>
+        <v>0.355497</v>
       </c>
       <c r="C54" t="n">
-        <v>0.472937</v>
+        <v>0.28841</v>
       </c>
       <c r="D54" t="n">
-        <v>0.38529</v>
+        <v>0.245636</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.636667</v>
+        <v>0.36484</v>
       </c>
       <c r="C55" t="n">
-        <v>0.473059</v>
+        <v>0.295583</v>
       </c>
       <c r="D55" t="n">
-        <v>0.391761</v>
+        <v>0.24993</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.648346</v>
+        <v>0.374039</v>
       </c>
       <c r="C56" t="n">
-        <v>0.493592</v>
+        <v>0.301165</v>
       </c>
       <c r="D56" t="n">
-        <v>0.410022</v>
+        <v>0.25372</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.667669</v>
+        <v>0.382952</v>
       </c>
       <c r="C57" t="n">
-        <v>0.505336</v>
+        <v>0.309154</v>
       </c>
       <c r="D57" t="n">
-        <v>0.411545</v>
+        <v>0.257816</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.699422</v>
+        <v>0.393066</v>
       </c>
       <c r="C58" t="n">
-        <v>0.529083</v>
+        <v>0.316847</v>
       </c>
       <c r="D58" t="n">
-        <v>0.419495</v>
+        <v>0.263739</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.730921</v>
+        <v>0.404594</v>
       </c>
       <c r="C59" t="n">
-        <v>0.553559</v>
+        <v>0.323468</v>
       </c>
       <c r="D59" t="n">
-        <v>0.440022</v>
+        <v>0.266628</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.774188</v>
+        <v>0.41415</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5702159999999999</v>
+        <v>0.33106</v>
       </c>
       <c r="D60" t="n">
-        <v>0.447514</v>
+        <v>0.270847</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.828634</v>
+        <v>0.425161</v>
       </c>
       <c r="C61" t="n">
-        <v>0.606494</v>
+        <v>0.340572</v>
       </c>
       <c r="D61" t="n">
-        <v>0.457317</v>
+        <v>0.276048</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8514119999999999</v>
+        <v>0.436041</v>
       </c>
       <c r="C62" t="n">
-        <v>0.624548</v>
+        <v>0.349185</v>
       </c>
       <c r="D62" t="n">
-        <v>0.47448</v>
+        <v>0.281058</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.863653</v>
+        <v>0.447961</v>
       </c>
       <c r="C63" t="n">
-        <v>0.649921</v>
+        <v>0.359703</v>
       </c>
       <c r="D63" t="n">
-        <v>0.493307</v>
+        <v>0.28723</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.897158</v>
+        <v>0.461763</v>
       </c>
       <c r="C64" t="n">
-        <v>0.511314</v>
+        <v>0.28268</v>
       </c>
       <c r="D64" t="n">
-        <v>0.433633</v>
+        <v>0.247718</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.686087</v>
+        <v>0.359669</v>
       </c>
       <c r="C65" t="n">
-        <v>0.525468</v>
+        <v>0.291293</v>
       </c>
       <c r="D65" t="n">
-        <v>0.443205</v>
+        <v>0.24867</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.712382</v>
+        <v>0.373258</v>
       </c>
       <c r="C66" t="n">
-        <v>0.541844</v>
+        <v>0.300986</v>
       </c>
       <c r="D66" t="n">
-        <v>0.456451</v>
+        <v>0.254885</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.726692</v>
+        <v>0.387425</v>
       </c>
       <c r="C67" t="n">
-        <v>0.582884</v>
+        <v>0.310704</v>
       </c>
       <c r="D67" t="n">
-        <v>0.460189</v>
+        <v>0.261187</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.917448</v>
+        <v>0.399755</v>
       </c>
       <c r="C68" t="n">
-        <v>0.697126</v>
+        <v>0.322351</v>
       </c>
       <c r="D68" t="n">
-        <v>0.467832</v>
+        <v>0.267461</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.727597</v>
+        <v>0.412366</v>
       </c>
       <c r="C69" t="n">
-        <v>0.64111</v>
+        <v>0.330823</v>
       </c>
       <c r="D69" t="n">
-        <v>0.498107</v>
+        <v>0.270878</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.809354</v>
+        <v>0.424589</v>
       </c>
       <c r="C70" t="n">
-        <v>0.701835</v>
+        <v>0.340902</v>
       </c>
       <c r="D70" t="n">
-        <v>0.50497</v>
+        <v>0.276989</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.853928</v>
+        <v>0.446481</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6601</v>
+        <v>0.35611</v>
       </c>
       <c r="D71" t="n">
-        <v>0.486179</v>
+        <v>0.284178</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.89188</v>
+        <v>0.467091</v>
       </c>
       <c r="C72" t="n">
-        <v>0.670816</v>
+        <v>0.370645</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5103839999999999</v>
+        <v>0.290436</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.945939</v>
+        <v>0.488304</v>
       </c>
       <c r="C73" t="n">
-        <v>0.690065</v>
+        <v>0.387233</v>
       </c>
       <c r="D73" t="n">
-        <v>0.525657</v>
+        <v>0.298572</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.00276</v>
+        <v>0.511892</v>
       </c>
       <c r="C74" t="n">
-        <v>0.791107</v>
+        <v>0.404448</v>
       </c>
       <c r="D74" t="n">
-        <v>0.521107</v>
+        <v>0.307913</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.995259</v>
+        <v>0.540569</v>
       </c>
       <c r="C75" t="n">
-        <v>0.771113</v>
+        <v>0.424694</v>
       </c>
       <c r="D75" t="n">
-        <v>0.521537</v>
+        <v>0.317514</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.19951</v>
+        <v>0.567492</v>
       </c>
       <c r="C76" t="n">
-        <v>0.86793</v>
+        <v>0.447896</v>
       </c>
       <c r="D76" t="n">
-        <v>0.622258</v>
+        <v>0.326419</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.23132</v>
+        <v>0.610306</v>
       </c>
       <c r="C77" t="n">
-        <v>0.951259</v>
+        <v>0.475916</v>
       </c>
       <c r="D77" t="n">
-        <v>0.605227</v>
+        <v>0.337047</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.17183</v>
+        <v>0.651129</v>
       </c>
       <c r="C78" t="n">
-        <v>0.707353</v>
+        <v>0.433822</v>
       </c>
       <c r="D78" t="n">
-        <v>0.52612</v>
+        <v>0.308172</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.15831</v>
+        <v>0.610829</v>
       </c>
       <c r="C79" t="n">
-        <v>0.672967</v>
+        <v>0.46509</v>
       </c>
       <c r="D79" t="n">
-        <v>0.535085</v>
+        <v>0.320107</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.01198</v>
+        <v>0.651397</v>
       </c>
       <c r="C80" t="n">
-        <v>0.721495</v>
+        <v>0.488552</v>
       </c>
       <c r="D80" t="n">
-        <v>0.494356</v>
+        <v>0.334927</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.06901</v>
+        <v>0.694233</v>
       </c>
       <c r="C81" t="n">
-        <v>0.794748</v>
+        <v>0.526352</v>
       </c>
       <c r="D81" t="n">
-        <v>0.545069</v>
+        <v>0.349474</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.977363</v>
+        <v>0.74336</v>
       </c>
       <c r="C82" t="n">
-        <v>0.757068</v>
+        <v>0.562364</v>
       </c>
       <c r="D82" t="n">
-        <v>0.536287</v>
+        <v>0.36768</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.11472</v>
+        <v>0.794401</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8797779999999999</v>
+        <v>0.602447</v>
       </c>
       <c r="D83" t="n">
-        <v>0.55221</v>
+        <v>0.384116</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.14228</v>
+        <v>0.855758</v>
       </c>
       <c r="C84" t="n">
-        <v>0.846577</v>
+        <v>0.643873</v>
       </c>
       <c r="D84" t="n">
-        <v>0.585685</v>
+        <v>0.40679</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.23108</v>
+        <v>0.908857</v>
       </c>
       <c r="C85" t="n">
-        <v>0.918478</v>
+        <v>0.688778</v>
       </c>
       <c r="D85" t="n">
-        <v>0.641454</v>
+        <v>0.432678</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.2015</v>
+        <v>0.966979</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9183249999999999</v>
+        <v>0.73324</v>
       </c>
       <c r="D86" t="n">
-        <v>0.584129</v>
+        <v>0.460094</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.23762</v>
+        <v>1.02896</v>
       </c>
       <c r="C87" t="n">
-        <v>1.03881</v>
+        <v>0.784701</v>
       </c>
       <c r="D87" t="n">
-        <v>0.651775</v>
+        <v>0.482165</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.42008</v>
+        <v>1.09819</v>
       </c>
       <c r="C88" t="n">
-        <v>1.03695</v>
+        <v>0.8347329999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.671019</v>
+        <v>0.50815</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.39784</v>
+        <v>1.16726</v>
       </c>
       <c r="C89" t="n">
-        <v>1.13305</v>
+        <v>0.892299</v>
       </c>
       <c r="D89" t="n">
-        <v>0.737295</v>
+        <v>0.538527</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.43506</v>
+        <v>1.23931</v>
       </c>
       <c r="C90" t="n">
-        <v>1.13087</v>
+        <v>0.942892</v>
       </c>
       <c r="D90" t="n">
-        <v>0.660768</v>
+        <v>0.570171</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.59661</v>
+        <v>1.31965</v>
       </c>
       <c r="C91" t="n">
-        <v>1.20323</v>
+        <v>1.0022</v>
       </c>
       <c r="D91" t="n">
-        <v>0.725396</v>
+        <v>0.607423</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.70034</v>
+        <v>1.39941</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9215449999999999</v>
+        <v>0.830967</v>
       </c>
       <c r="D92" t="n">
-        <v>0.65627</v>
+        <v>0.582359</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.22156</v>
+        <v>1.11002</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9160430000000001</v>
+        <v>0.862306</v>
       </c>
       <c r="D93" t="n">
-        <v>0.644478</v>
+        <v>0.604764</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.30959</v>
+        <v>1.15431</v>
       </c>
       <c r="C94" t="n">
-        <v>0.931507</v>
+        <v>0.900031</v>
       </c>
       <c r="D94" t="n">
-        <v>0.718935</v>
+        <v>0.628067</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.28824</v>
+        <v>1.19999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.985103</v>
+        <v>0.934655</v>
       </c>
       <c r="D95" t="n">
-        <v>0.690802</v>
+        <v>0.653604</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.32499</v>
+        <v>1.25414</v>
       </c>
       <c r="C96" t="n">
-        <v>1.04543</v>
+        <v>0.9738520000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.777621</v>
+        <v>0.68186</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.37139</v>
+        <v>1.30292</v>
       </c>
       <c r="C97" t="n">
-        <v>1.03884</v>
+        <v>1.01422</v>
       </c>
       <c r="D97" t="n">
-        <v>0.762679</v>
+        <v>0.70187</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.47674</v>
+        <v>1.37372</v>
       </c>
       <c r="C98" t="n">
-        <v>1.12087</v>
+        <v>1.05744</v>
       </c>
       <c r="D98" t="n">
-        <v>0.765593</v>
+        <v>0.731311</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.46673</v>
+        <v>1.41268</v>
       </c>
       <c r="C99" t="n">
-        <v>1.13008</v>
+        <v>1.09942</v>
       </c>
       <c r="D99" t="n">
-        <v>0.82336</v>
+        <v>0.760985</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.5274</v>
+        <v>1.45845</v>
       </c>
       <c r="C100" t="n">
-        <v>1.16789</v>
+        <v>1.14672</v>
       </c>
       <c r="D100" t="n">
-        <v>0.885976</v>
+        <v>0.7857189999999999</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.56399</v>
+        <v>1.52666</v>
       </c>
       <c r="C101" t="n">
-        <v>1.18063</v>
+        <v>1.19376</v>
       </c>
       <c r="D101" t="n">
-        <v>0.841472</v>
+        <v>0.8135829999999999</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.60984</v>
+        <v>1.59401</v>
       </c>
       <c r="C102" t="n">
-        <v>1.27913</v>
+        <v>1.24548</v>
       </c>
       <c r="D102" t="n">
-        <v>0.883758</v>
+        <v>0.863945</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.68697</v>
+        <v>1.66473</v>
       </c>
       <c r="C103" t="n">
-        <v>1.30384</v>
+        <v>1.29572</v>
       </c>
       <c r="D103" t="n">
-        <v>0.865027</v>
+        <v>0.876424</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.70459</v>
+        <v>1.68052</v>
       </c>
       <c r="C104" t="n">
-        <v>1.34443</v>
+        <v>1.35124</v>
       </c>
       <c r="D104" t="n">
-        <v>0.946214</v>
+        <v>0.907385</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.79469</v>
+        <v>1.75706</v>
       </c>
       <c r="C105" t="n">
-        <v>1.49688</v>
+        <v>1.40847</v>
       </c>
       <c r="D105" t="n">
-        <v>0.934119</v>
+        <v>0.94382</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.93242</v>
+        <v>1.82763</v>
       </c>
       <c r="C106" t="n">
-        <v>1.45541</v>
+        <v>1.46178</v>
       </c>
       <c r="D106" t="n">
-        <v>0.981398</v>
+        <v>0.972703</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.28195</v>
+        <v>1.35036</v>
       </c>
       <c r="C107" t="n">
-        <v>1.04661</v>
+        <v>1.13932</v>
       </c>
       <c r="D107" t="n">
-        <v>0.851805</v>
+        <v>0.92218</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.34442</v>
+        <v>1.39196</v>
       </c>
       <c r="C108" t="n">
-        <v>1.03765</v>
+        <v>1.1519</v>
       </c>
       <c r="D108" t="n">
-        <v>0.865509</v>
+        <v>0.91974</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.30555</v>
+        <v>1.42083</v>
       </c>
       <c r="C109" t="n">
-        <v>1.00955</v>
+        <v>1.18642</v>
       </c>
       <c r="D109" t="n">
-        <v>0.807947</v>
+        <v>0.938805</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3853</v>
+        <v>1.48479</v>
       </c>
       <c r="C110" t="n">
-        <v>1.10735</v>
+        <v>1.23725</v>
       </c>
       <c r="D110" t="n">
-        <v>0.874938</v>
+        <v>0.983606</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.47241</v>
+        <v>1.514</v>
       </c>
       <c r="C111" t="n">
-        <v>1.21024</v>
+        <v>1.25448</v>
       </c>
       <c r="D111" t="n">
-        <v>0.935087</v>
+        <v>0.9864889999999999</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.52339</v>
+        <v>1.57091</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20134</v>
+        <v>1.29666</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9801260000000001</v>
+        <v>1.03772</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.61543</v>
+        <v>1.63575</v>
       </c>
       <c r="C113" t="n">
-        <v>1.25674</v>
+        <v>1.3519</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9638330000000001</v>
+        <v>1.06242</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.67233</v>
+        <v>1.69457</v>
       </c>
       <c r="C114" t="n">
-        <v>1.30354</v>
+        <v>1.39026</v>
       </c>
       <c r="D114" t="n">
-        <v>1.0233</v>
+        <v>1.08957</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.78549</v>
+        <v>1.75294</v>
       </c>
       <c r="C115" t="n">
-        <v>1.34002</v>
+        <v>1.43587</v>
       </c>
       <c r="D115" t="n">
-        <v>1.04491</v>
+        <v>1.1214</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.83837</v>
+        <v>1.81507</v>
       </c>
       <c r="C116" t="n">
-        <v>1.43793</v>
+        <v>1.48681</v>
       </c>
       <c r="D116" t="n">
-        <v>1.11892</v>
+        <v>1.14971</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.88767</v>
+        <v>1.88137</v>
       </c>
       <c r="C117" t="n">
-        <v>1.47609</v>
+        <v>1.5165</v>
       </c>
       <c r="D117" t="n">
-        <v>1.15755</v>
+        <v>1.1752</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.96984</v>
+        <v>1.95335</v>
       </c>
       <c r="C118" t="n">
-        <v>1.53213</v>
+        <v>1.56409</v>
       </c>
       <c r="D118" t="n">
-        <v>1.17341</v>
+        <v>1.21129</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.10101</v>
+        <v>2.02421</v>
       </c>
       <c r="C119" t="n">
-        <v>1.58444</v>
+        <v>1.62881</v>
       </c>
       <c r="D119" t="n">
-        <v>1.28885</v>
+        <v>1.24509</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.901748</v>
+        <v>0.634857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.740787</v>
+        <v>0.422975</v>
       </c>
       <c r="D2" t="n">
-        <v>0.409273</v>
+        <v>0.306629</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.934659</v>
+        <v>0.662934</v>
       </c>
       <c r="C3" t="n">
-        <v>0.74719</v>
+        <v>0.435714</v>
       </c>
       <c r="D3" t="n">
-        <v>0.427734</v>
+        <v>0.315872</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0225</v>
+        <v>0.687853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.809425</v>
+        <v>0.459829</v>
       </c>
       <c r="D4" t="n">
-        <v>0.446697</v>
+        <v>0.324502</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>1.04904</v>
+        <v>0.710283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.835491</v>
+        <v>0.477839</v>
       </c>
       <c r="D5" t="n">
-        <v>0.457549</v>
+        <v>0.334853</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>1.10083</v>
+        <v>0.737662</v>
       </c>
       <c r="C6" t="n">
-        <v>0.874304</v>
+        <v>0.51229</v>
       </c>
       <c r="D6" t="n">
-        <v>0.478775</v>
+        <v>0.346468</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>1.18005</v>
+        <v>0.782581</v>
       </c>
       <c r="C7" t="n">
-        <v>0.952804</v>
+        <v>0.535054</v>
       </c>
       <c r="D7" t="n">
-        <v>0.495673</v>
+        <v>0.359854</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>1.22895</v>
+        <v>0.802082</v>
       </c>
       <c r="C8" t="n">
-        <v>0.995391</v>
+        <v>0.562441</v>
       </c>
       <c r="D8" t="n">
-        <v>0.512035</v>
+        <v>0.366234</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>1.31781</v>
+        <v>0.84276</v>
       </c>
       <c r="C9" t="n">
-        <v>1.03756</v>
+        <v>0.5853120000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.531854</v>
+        <v>0.382921</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>1.40536</v>
+        <v>0.881319</v>
       </c>
       <c r="C10" t="n">
-        <v>1.09914</v>
+        <v>0.612905</v>
       </c>
       <c r="D10" t="n">
-        <v>0.553451</v>
+        <v>0.387762</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>1.49568</v>
+        <v>0.905213</v>
       </c>
       <c r="C11" t="n">
-        <v>0.713659</v>
+        <v>0.423735</v>
       </c>
       <c r="D11" t="n">
-        <v>0.433777</v>
+        <v>0.285583</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.968301</v>
+        <v>0.5940029999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.759388</v>
+        <v>0.435131</v>
       </c>
       <c r="D12" t="n">
-        <v>0.44217</v>
+        <v>0.297756</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.993972</v>
+        <v>0.605948</v>
       </c>
       <c r="C13" t="n">
-        <v>0.795668</v>
+        <v>0.453982</v>
       </c>
       <c r="D13" t="n">
-        <v>0.450755</v>
+        <v>0.306969</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>1.03799</v>
+        <v>0.637837</v>
       </c>
       <c r="C14" t="n">
-        <v>0.81633</v>
+        <v>0.472032</v>
       </c>
       <c r="D14" t="n">
-        <v>0.469445</v>
+        <v>0.315118</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>1.08422</v>
+        <v>0.658845</v>
       </c>
       <c r="C15" t="n">
-        <v>0.843378</v>
+        <v>0.507897</v>
       </c>
       <c r="D15" t="n">
-        <v>0.493225</v>
+        <v>0.33035</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>1.14266</v>
+        <v>0.696734</v>
       </c>
       <c r="C16" t="n">
-        <v>0.904716</v>
+        <v>0.534706</v>
       </c>
       <c r="D16" t="n">
-        <v>0.509012</v>
+        <v>0.344442</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>1.21131</v>
+        <v>0.7312920000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.949787</v>
+        <v>0.563367</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5240010000000001</v>
+        <v>0.353914</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>1.26629</v>
+        <v>0.773487</v>
       </c>
       <c r="C18" t="n">
-        <v>1.00761</v>
+        <v>0.596583</v>
       </c>
       <c r="D18" t="n">
-        <v>0.540821</v>
+        <v>0.371693</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>1.31953</v>
+        <v>0.806566</v>
       </c>
       <c r="C19" t="n">
-        <v>1.03808</v>
+        <v>0.624856</v>
       </c>
       <c r="D19" t="n">
-        <v>0.565752</v>
+        <v>0.380441</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>1.37642</v>
+        <v>0.847985</v>
       </c>
       <c r="C20" t="n">
-        <v>1.10081</v>
+        <v>0.657604</v>
       </c>
       <c r="D20" t="n">
-        <v>0.591263</v>
+        <v>0.394771</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>1.4607</v>
+        <v>0.886193</v>
       </c>
       <c r="C21" t="n">
-        <v>1.14315</v>
+        <v>0.692932</v>
       </c>
       <c r="D21" t="n">
-        <v>0.597842</v>
+        <v>0.407208</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>1.47504</v>
+        <v>0.925919</v>
       </c>
       <c r="C22" t="n">
-        <v>1.20503</v>
+        <v>0.726401</v>
       </c>
       <c r="D22" t="n">
-        <v>0.626383</v>
+        <v>0.421568</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>1.58588</v>
+        <v>0.9693040000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>1.25901</v>
+        <v>0.7686539999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.638171</v>
+        <v>0.437545</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.65158</v>
+        <v>1.02114</v>
       </c>
       <c r="C24" t="n">
-        <v>1.33021</v>
+        <v>0.799319</v>
       </c>
       <c r="D24" t="n">
-        <v>0.666505</v>
+        <v>0.455331</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.70714</v>
+        <v>1.06973</v>
       </c>
       <c r="C25" t="n">
-        <v>1.36095</v>
+        <v>0.8444700000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.714202</v>
+        <v>0.475349</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.75801</v>
+        <v>1.1078</v>
       </c>
       <c r="C26" t="n">
-        <v>0.83713</v>
+        <v>0.547551</v>
       </c>
       <c r="D26" t="n">
-        <v>0.529026</v>
+        <v>0.342588</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.11173</v>
+        <v>0.728212</v>
       </c>
       <c r="C27" t="n">
-        <v>0.876467</v>
+        <v>0.575833</v>
       </c>
       <c r="D27" t="n">
-        <v>0.529454</v>
+        <v>0.354154</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.18554</v>
+        <v>0.76476</v>
       </c>
       <c r="C28" t="n">
-        <v>0.927304</v>
+        <v>0.606874</v>
       </c>
       <c r="D28" t="n">
-        <v>0.560233</v>
+        <v>0.369194</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.2448</v>
+        <v>0.797697</v>
       </c>
       <c r="C29" t="n">
-        <v>0.975212</v>
+        <v>0.637124</v>
       </c>
       <c r="D29" t="n">
-        <v>0.554818</v>
+        <v>0.383698</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.26423</v>
+        <v>0.833942</v>
       </c>
       <c r="C30" t="n">
-        <v>1.01105</v>
+        <v>0.67143</v>
       </c>
       <c r="D30" t="n">
-        <v>0.578412</v>
+        <v>0.395151</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.32684</v>
+        <v>0.874879</v>
       </c>
       <c r="C31" t="n">
-        <v>1.05949</v>
+        <v>0.701369</v>
       </c>
       <c r="D31" t="n">
-        <v>0.598108</v>
+        <v>0.411561</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.36839</v>
+        <v>0.9076689999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>1.09831</v>
+        <v>0.738047</v>
       </c>
       <c r="D32" t="n">
-        <v>0.620014</v>
+        <v>0.426963</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.46943</v>
+        <v>0.956745</v>
       </c>
       <c r="C33" t="n">
-        <v>1.16198</v>
+        <v>0.770699</v>
       </c>
       <c r="D33" t="n">
-        <v>0.640477</v>
+        <v>0.437091</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.51177</v>
+        <v>0.992922</v>
       </c>
       <c r="C34" t="n">
-        <v>1.22029</v>
+        <v>0.807953</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6598579999999999</v>
+        <v>0.454912</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.57268</v>
+        <v>1.03882</v>
       </c>
       <c r="C35" t="n">
-        <v>1.26511</v>
+        <v>0.840096</v>
       </c>
       <c r="D35" t="n">
-        <v>0.678611</v>
+        <v>0.467251</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.59734</v>
+        <v>1.08751</v>
       </c>
       <c r="C36" t="n">
-        <v>1.31693</v>
+        <v>0.870175</v>
       </c>
       <c r="D36" t="n">
-        <v>0.698128</v>
+        <v>0.480436</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.68694</v>
+        <v>1.12611</v>
       </c>
       <c r="C37" t="n">
-        <v>1.35701</v>
+        <v>0.909909</v>
       </c>
       <c r="D37" t="n">
-        <v>0.706473</v>
+        <v>0.49381</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.74882</v>
+        <v>1.17317</v>
       </c>
       <c r="C38" t="n">
-        <v>1.42253</v>
+        <v>0.949204</v>
       </c>
       <c r="D38" t="n">
-        <v>0.759178</v>
+        <v>0.519388</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.8203</v>
+        <v>1.22596</v>
       </c>
       <c r="C39" t="n">
-        <v>1.48563</v>
+        <v>0.981847</v>
       </c>
       <c r="D39" t="n">
-        <v>0.752175</v>
+        <v>0.532436</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.93835</v>
+        <v>1.26841</v>
       </c>
       <c r="C40" t="n">
-        <v>0.901564</v>
+        <v>0.61713</v>
       </c>
       <c r="D40" t="n">
-        <v>0.576868</v>
+        <v>0.398001</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.19623</v>
+        <v>0.8052280000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.941345</v>
+        <v>0.639884</v>
       </c>
       <c r="D41" t="n">
-        <v>0.592466</v>
+        <v>0.410155</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.22992</v>
+        <v>0.84165</v>
       </c>
       <c r="C42" t="n">
-        <v>0.963763</v>
+        <v>0.669525</v>
       </c>
       <c r="D42" t="n">
-        <v>0.614522</v>
+        <v>0.423985</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.29687</v>
+        <v>0.873407</v>
       </c>
       <c r="C43" t="n">
-        <v>1.014</v>
+        <v>0.698888</v>
       </c>
       <c r="D43" t="n">
-        <v>0.641659</v>
+        <v>0.438165</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.36268</v>
+        <v>0.916199</v>
       </c>
       <c r="C44" t="n">
-        <v>1.07418</v>
+        <v>0.730527</v>
       </c>
       <c r="D44" t="n">
-        <v>0.656899</v>
+        <v>0.452345</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.40951</v>
+        <v>0.950979</v>
       </c>
       <c r="C45" t="n">
-        <v>1.09774</v>
+        <v>0.7631790000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.66787</v>
+        <v>0.469125</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.45542</v>
+        <v>0.994328</v>
       </c>
       <c r="C46" t="n">
-        <v>1.15524</v>
+        <v>0.798526</v>
       </c>
       <c r="D46" t="n">
-        <v>0.699433</v>
+        <v>0.487877</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.51739</v>
+        <v>1.03698</v>
       </c>
       <c r="C47" t="n">
-        <v>1.19369</v>
+        <v>0.833098</v>
       </c>
       <c r="D47" t="n">
-        <v>0.720007</v>
+        <v>0.500807</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.59721</v>
+        <v>1.07918</v>
       </c>
       <c r="C48" t="n">
-        <v>1.27939</v>
+        <v>0.868263</v>
       </c>
       <c r="D48" t="n">
-        <v>0.750267</v>
+        <v>0.516313</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.75444</v>
+        <v>1.12479</v>
       </c>
       <c r="C49" t="n">
-        <v>1.31238</v>
+        <v>0.902494</v>
       </c>
       <c r="D49" t="n">
-        <v>0.751449</v>
+        <v>0.526115</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.71886</v>
+        <v>1.16836</v>
       </c>
       <c r="C50" t="n">
-        <v>1.38092</v>
+        <v>0.942925</v>
       </c>
       <c r="D50" t="n">
-        <v>0.768172</v>
+        <v>0.5430779999999999</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.81428</v>
+        <v>1.2124</v>
       </c>
       <c r="C51" t="n">
-        <v>1.424</v>
+        <v>0.977669</v>
       </c>
       <c r="D51" t="n">
-        <v>0.795523</v>
+        <v>0.567561</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.85873</v>
+        <v>1.2558</v>
       </c>
       <c r="C52" t="n">
-        <v>1.48951</v>
+        <v>1.0164</v>
       </c>
       <c r="D52" t="n">
-        <v>0.816635</v>
+        <v>0.582932</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.97833</v>
+        <v>1.30791</v>
       </c>
       <c r="C53" t="n">
-        <v>1.58604</v>
+        <v>1.05508</v>
       </c>
       <c r="D53" t="n">
-        <v>0.850816</v>
+        <v>0.601569</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>2.05251</v>
+        <v>1.35369</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9725510000000001</v>
+        <v>0.648949</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6465959999999999</v>
+        <v>0.428628</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.31521</v>
+        <v>0.840419</v>
       </c>
       <c r="C55" t="n">
-        <v>1.0486</v>
+        <v>0.672844</v>
       </c>
       <c r="D55" t="n">
-        <v>0.67774</v>
+        <v>0.444938</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.42335</v>
+        <v>0.874075</v>
       </c>
       <c r="C56" t="n">
-        <v>1.11411</v>
+        <v>0.700195</v>
       </c>
       <c r="D56" t="n">
-        <v>0.694679</v>
+        <v>0.457485</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.50544</v>
+        <v>0.909992</v>
       </c>
       <c r="C57" t="n">
-        <v>1.1698</v>
+        <v>0.730036</v>
       </c>
       <c r="D57" t="n">
-        <v>0.730116</v>
+        <v>0.470977</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.58282</v>
+        <v>0.94559</v>
       </c>
       <c r="C58" t="n">
-        <v>1.27095</v>
+        <v>0.762812</v>
       </c>
       <c r="D58" t="n">
-        <v>0.776246</v>
+        <v>0.488139</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.71232</v>
+        <v>0.985136</v>
       </c>
       <c r="C59" t="n">
-        <v>1.37527</v>
+        <v>0.794939</v>
       </c>
       <c r="D59" t="n">
-        <v>0.802637</v>
+        <v>0.503958</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.83591</v>
+        <v>1.02312</v>
       </c>
       <c r="C60" t="n">
-        <v>1.45713</v>
+        <v>0.828267</v>
       </c>
       <c r="D60" t="n">
-        <v>0.83708</v>
+        <v>0.518976</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.93202</v>
+        <v>1.06624</v>
       </c>
       <c r="C61" t="n">
-        <v>1.53578</v>
+        <v>0.864335</v>
       </c>
       <c r="D61" t="n">
-        <v>0.887715</v>
+        <v>0.535878</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>2.14339</v>
+        <v>1.10735</v>
       </c>
       <c r="C62" t="n">
-        <v>1.76626</v>
+        <v>0.903464</v>
       </c>
       <c r="D62" t="n">
-        <v>0.932489</v>
+        <v>0.5511160000000001</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>2.22358</v>
+        <v>1.15269</v>
       </c>
       <c r="C63" t="n">
-        <v>1.75453</v>
+        <v>0.938599</v>
       </c>
       <c r="D63" t="n">
-        <v>0.976465</v>
+        <v>0.56962</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>2.25964</v>
+        <v>1.20187</v>
       </c>
       <c r="C64" t="n">
-        <v>1.85827</v>
+        <v>0.974239</v>
       </c>
       <c r="D64" t="n">
-        <v>1.02393</v>
+        <v>0.583562</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>2.53833</v>
+        <v>1.24755</v>
       </c>
       <c r="C65" t="n">
-        <v>2.07596</v>
+        <v>1.00945</v>
       </c>
       <c r="D65" t="n">
-        <v>1.04343</v>
+        <v>0.599587</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>2.60698</v>
+        <v>1.29008</v>
       </c>
       <c r="C66" t="n">
-        <v>2.08891</v>
+        <v>1.05123</v>
       </c>
       <c r="D66" t="n">
-        <v>1.11313</v>
+        <v>0.618485</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>2.78005</v>
+        <v>1.33884</v>
       </c>
       <c r="C67" t="n">
-        <v>2.36275</v>
+        <v>1.08736</v>
       </c>
       <c r="D67" t="n">
-        <v>1.13613</v>
+        <v>0.634201</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>3.09679</v>
+        <v>1.38947</v>
       </c>
       <c r="C68" t="n">
-        <v>1.39484</v>
+        <v>0.66861</v>
       </c>
       <c r="D68" t="n">
-        <v>0.819317</v>
+        <v>0.455881</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.9281</v>
+        <v>0.883287</v>
       </c>
       <c r="C69" t="n">
-        <v>1.37297</v>
+        <v>0.7049299999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.849181</v>
+        <v>0.468086</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.96723</v>
+        <v>0.934617</v>
       </c>
       <c r="C70" t="n">
-        <v>1.56557</v>
+        <v>0.745899</v>
       </c>
       <c r="D70" t="n">
-        <v>0.924063</v>
+        <v>0.489634</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.08001</v>
+        <v>0.990168</v>
       </c>
       <c r="C71" t="n">
-        <v>1.65155</v>
+        <v>0.788995</v>
       </c>
       <c r="D71" t="n">
-        <v>0.991627</v>
+        <v>0.511391</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.35898</v>
+        <v>1.04965</v>
       </c>
       <c r="C72" t="n">
-        <v>1.75106</v>
+        <v>0.837433</v>
       </c>
       <c r="D72" t="n">
-        <v>1.00262</v>
+        <v>0.532963</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.42591</v>
+        <v>1.1004</v>
       </c>
       <c r="C73" t="n">
-        <v>1.91759</v>
+        <v>0.880226</v>
       </c>
       <c r="D73" t="n">
-        <v>1.01236</v>
+        <v>0.548544</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.4203</v>
+        <v>1.16208</v>
       </c>
       <c r="C74" t="n">
-        <v>2.10015</v>
+        <v>0.932378</v>
       </c>
       <c r="D74" t="n">
-        <v>1.05566</v>
+        <v>0.568273</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.71784</v>
+        <v>1.23697</v>
       </c>
       <c r="C75" t="n">
-        <v>2.17665</v>
+        <v>0.99288</v>
       </c>
       <c r="D75" t="n">
-        <v>1.11985</v>
+        <v>0.6001300000000001</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.87327</v>
+        <v>1.30664</v>
       </c>
       <c r="C76" t="n">
-        <v>2.62301</v>
+        <v>1.05255</v>
       </c>
       <c r="D76" t="n">
-        <v>1.15907</v>
+        <v>0.615741</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>3.20955</v>
+        <v>1.40704</v>
       </c>
       <c r="C77" t="n">
-        <v>2.87933</v>
+        <v>1.12312</v>
       </c>
       <c r="D77" t="n">
-        <v>1.30987</v>
+        <v>0.645993</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>3.43322</v>
+        <v>1.51301</v>
       </c>
       <c r="C78" t="n">
-        <v>3.13527</v>
+        <v>1.21539</v>
       </c>
       <c r="D78" t="n">
-        <v>1.50909</v>
+        <v>0.670942</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>3.8992</v>
+        <v>1.6466</v>
       </c>
       <c r="C79" t="n">
-        <v>3.18556</v>
+        <v>1.31982</v>
       </c>
       <c r="D79" t="n">
-        <v>1.41154</v>
+        <v>0.705999</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>3.94552</v>
+        <v>1.78672</v>
       </c>
       <c r="C80" t="n">
-        <v>3.10589</v>
+        <v>1.43386</v>
       </c>
       <c r="D80" t="n">
-        <v>1.46223</v>
+        <v>0.740837</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>4.27603</v>
+        <v>1.94349</v>
       </c>
       <c r="C81" t="n">
-        <v>3.42662</v>
+        <v>1.57862</v>
       </c>
       <c r="D81" t="n">
-        <v>1.53929</v>
+        <v>0.770416</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>4.64655</v>
+        <v>2.1408</v>
       </c>
       <c r="C82" t="n">
-        <v>3.59024</v>
+        <v>1.73273</v>
       </c>
       <c r="D82" t="n">
-        <v>1.61155</v>
+        <v>0.842334</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>4.62607</v>
+        <v>2.38364</v>
       </c>
       <c r="C83" t="n">
-        <v>2.25627</v>
+        <v>1.15348</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08277</v>
+        <v>0.61149</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.80537</v>
+        <v>1.62374</v>
       </c>
       <c r="C84" t="n">
-        <v>2.45697</v>
+        <v>1.28279</v>
       </c>
       <c r="D84" t="n">
-        <v>1.23526</v>
+        <v>0.651998</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.13995</v>
+        <v>1.80191</v>
       </c>
       <c r="C85" t="n">
-        <v>2.56324</v>
+        <v>1.42395</v>
       </c>
       <c r="D85" t="n">
-        <v>1.14871</v>
+        <v>0.701443</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.4778</v>
+        <v>1.99465</v>
       </c>
       <c r="C86" t="n">
-        <v>2.60516</v>
+        <v>1.58682</v>
       </c>
       <c r="D86" t="n">
-        <v>1.26749</v>
+        <v>0.759033</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>3.4983</v>
+        <v>2.20627</v>
       </c>
       <c r="C87" t="n">
-        <v>2.6985</v>
+        <v>1.75588</v>
       </c>
       <c r="D87" t="n">
-        <v>1.40284</v>
+        <v>0.822889</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.07554</v>
+        <v>2.43397</v>
       </c>
       <c r="C88" t="n">
-        <v>2.97558</v>
+        <v>1.93753</v>
       </c>
       <c r="D88" t="n">
-        <v>1.47144</v>
+        <v>0.902876</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>4.00327</v>
+        <v>2.66898</v>
       </c>
       <c r="C89" t="n">
-        <v>3.31398</v>
+        <v>2.14234</v>
       </c>
       <c r="D89" t="n">
-        <v>1.49562</v>
+        <v>0.977537</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>4.16624</v>
+        <v>2.92716</v>
       </c>
       <c r="C90" t="n">
-        <v>3.58553</v>
+        <v>2.34484</v>
       </c>
       <c r="D90" t="n">
-        <v>1.65468</v>
+        <v>1.06459</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>5.15572</v>
+        <v>3.20194</v>
       </c>
       <c r="C91" t="n">
-        <v>3.56321</v>
+        <v>2.57076</v>
       </c>
       <c r="D91" t="n">
-        <v>1.83098</v>
+        <v>1.15486</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>5.02905</v>
+        <v>3.50188</v>
       </c>
       <c r="C92" t="n">
-        <v>3.7665</v>
+        <v>2.80814</v>
       </c>
       <c r="D92" t="n">
-        <v>1.79549</v>
+        <v>1.24232</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>5.24854</v>
+        <v>3.8072</v>
       </c>
       <c r="C93" t="n">
-        <v>4.26363</v>
+        <v>3.0469</v>
       </c>
       <c r="D93" t="n">
-        <v>2.00108</v>
+        <v>1.33346</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>5.30947</v>
+        <v>4.10347</v>
       </c>
       <c r="C94" t="n">
-        <v>4.46799</v>
+        <v>3.30344</v>
       </c>
       <c r="D94" t="n">
-        <v>1.97959</v>
+        <v>1.42129</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>5.72785</v>
+        <v>4.43968</v>
       </c>
       <c r="C95" t="n">
-        <v>4.59712</v>
+        <v>3.58549</v>
       </c>
       <c r="D95" t="n">
-        <v>2.3216</v>
+        <v>1.54358</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>6.00232</v>
+        <v>4.80115</v>
       </c>
       <c r="C96" t="n">
-        <v>5.14367</v>
+        <v>3.87725</v>
       </c>
       <c r="D96" t="n">
-        <v>2.28421</v>
+        <v>1.66133</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>6.54108</v>
+        <v>5.14875</v>
       </c>
       <c r="C97" t="n">
-        <v>2.98534</v>
+        <v>2.31702</v>
       </c>
       <c r="D97" t="n">
-        <v>1.574</v>
+        <v>1.16375</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.90662</v>
+        <v>3.16495</v>
       </c>
       <c r="C98" t="n">
-        <v>3.00545</v>
+        <v>2.48466</v>
       </c>
       <c r="D98" t="n">
-        <v>1.63175</v>
+        <v>1.23208</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.04604</v>
+        <v>3.36875</v>
       </c>
       <c r="C99" t="n">
-        <v>3.14112</v>
+        <v>2.64862</v>
       </c>
       <c r="D99" t="n">
-        <v>1.66835</v>
+        <v>1.32517</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.23731</v>
+        <v>3.60289</v>
       </c>
       <c r="C100" t="n">
-        <v>3.47201</v>
+        <v>2.8321</v>
       </c>
       <c r="D100" t="n">
-        <v>1.81378</v>
+        <v>1.40297</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.55299</v>
+        <v>3.7934</v>
       </c>
       <c r="C101" t="n">
-        <v>3.66679</v>
+        <v>3.01641</v>
       </c>
       <c r="D101" t="n">
-        <v>1.8053</v>
+        <v>1.4536</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.78326</v>
+        <v>4.00256</v>
       </c>
       <c r="C102" t="n">
-        <v>3.78742</v>
+        <v>3.22337</v>
       </c>
       <c r="D102" t="n">
-        <v>1.96257</v>
+        <v>1.55839</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>5.16857</v>
+        <v>4.27191</v>
       </c>
       <c r="C103" t="n">
-        <v>4.16867</v>
+        <v>3.43177</v>
       </c>
       <c r="D103" t="n">
-        <v>1.98732</v>
+        <v>1.63944</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>5.32239</v>
+        <v>4.47161</v>
       </c>
       <c r="C104" t="n">
-        <v>4.39145</v>
+        <v>3.63797</v>
       </c>
       <c r="D104" t="n">
-        <v>2.19453</v>
+        <v>1.7415</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>5.78982</v>
+        <v>4.76794</v>
       </c>
       <c r="C105" t="n">
-        <v>4.67483</v>
+        <v>3.84146</v>
       </c>
       <c r="D105" t="n">
-        <v>2.33714</v>
+        <v>1.81229</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.99915</v>
+        <v>5.05222</v>
       </c>
       <c r="C106" t="n">
-        <v>4.9956</v>
+        <v>4.05406</v>
       </c>
       <c r="D106" t="n">
-        <v>2.38673</v>
+        <v>1.92671</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>6.23237</v>
+        <v>5.35528</v>
       </c>
       <c r="C107" t="n">
-        <v>5.18469</v>
+        <v>4.24502</v>
       </c>
       <c r="D107" t="n">
-        <v>2.55041</v>
+        <v>2.01903</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>6.7557</v>
+        <v>5.68094</v>
       </c>
       <c r="C108" t="n">
-        <v>5.54633</v>
+        <v>4.49008</v>
       </c>
       <c r="D108" t="n">
-        <v>2.64477</v>
+        <v>2.12559</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>7.22989</v>
+        <v>6.0278</v>
       </c>
       <c r="C109" t="n">
-        <v>5.79006</v>
+        <v>4.76761</v>
       </c>
       <c r="D109" t="n">
-        <v>2.78416</v>
+        <v>2.23496</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>7.26505</v>
+        <v>6.36424</v>
       </c>
       <c r="C110" t="n">
-        <v>6.05056</v>
+        <v>5.07974</v>
       </c>
       <c r="D110" t="n">
-        <v>2.9651</v>
+        <v>2.34898</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>7.78856</v>
+        <v>6.71334</v>
       </c>
       <c r="C111" t="n">
-        <v>3.36834</v>
+        <v>2.90662</v>
       </c>
       <c r="D111" t="n">
-        <v>1.84695</v>
+        <v>1.6357</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.55391</v>
+        <v>3.97588</v>
       </c>
       <c r="C112" t="n">
-        <v>3.5214</v>
+        <v>3.07522</v>
       </c>
       <c r="D112" t="n">
-        <v>1.87317</v>
+        <v>1.69195</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.7867</v>
+        <v>4.19104</v>
       </c>
       <c r="C113" t="n">
-        <v>3.74354</v>
+        <v>3.23924</v>
       </c>
       <c r="D113" t="n">
-        <v>2.00226</v>
+        <v>1.77604</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.94316</v>
+        <v>4.41254</v>
       </c>
       <c r="C114" t="n">
-        <v>3.92477</v>
+        <v>3.41884</v>
       </c>
       <c r="D114" t="n">
-        <v>2.08529</v>
+        <v>1.86319</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.81479</v>
+        <v>4.64907</v>
       </c>
       <c r="C115" t="n">
-        <v>3.55922</v>
+        <v>3.60463</v>
       </c>
       <c r="D115" t="n">
-        <v>1.75298</v>
+        <v>1.93262</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.41815</v>
+        <v>4.90067</v>
       </c>
       <c r="C116" t="n">
-        <v>3.30754</v>
+        <v>3.80905</v>
       </c>
       <c r="D116" t="n">
-        <v>1.6154</v>
+        <v>2.02117</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.43529</v>
+        <v>5.15683</v>
       </c>
       <c r="C117" t="n">
-        <v>3.5747</v>
+        <v>4.01693</v>
       </c>
       <c r="D117" t="n">
-        <v>1.82414</v>
+        <v>2.13662</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.76798</v>
+        <v>5.44177</v>
       </c>
       <c r="C118" t="n">
-        <v>3.82424</v>
+        <v>4.24783</v>
       </c>
       <c r="D118" t="n">
-        <v>1.91111</v>
+        <v>2.24234</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.15572</v>
+        <v>5.73973</v>
       </c>
       <c r="C119" t="n">
-        <v>4.1196</v>
+        <v>4.49347</v>
       </c>
       <c r="D119" t="n">
-        <v>1.92178</v>
+        <v>2.3187</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.396092</v>
+        <v>0.400266</v>
       </c>
       <c r="C2" t="n">
-        <v>0.289772</v>
+        <v>0.294721</v>
       </c>
       <c r="D2" t="n">
-        <v>0.313422</v>
+        <v>0.318763</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.402994</v>
+        <v>0.4164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.292934</v>
+        <v>0.299915</v>
       </c>
       <c r="D3" t="n">
-        <v>0.319183</v>
+        <v>0.324557</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.412243</v>
+        <v>0.42573</v>
       </c>
       <c r="C4" t="n">
-        <v>0.297888</v>
+        <v>0.30544</v>
       </c>
       <c r="D4" t="n">
-        <v>0.322223</v>
+        <v>0.330498</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.424901</v>
+        <v>0.437688</v>
       </c>
       <c r="C5" t="n">
-        <v>0.304332</v>
+        <v>0.312599</v>
       </c>
       <c r="D5" t="n">
-        <v>0.326801</v>
+        <v>0.339732</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.436076</v>
+        <v>0.453765</v>
       </c>
       <c r="C6" t="n">
-        <v>0.309937</v>
+        <v>0.318033</v>
       </c>
       <c r="D6" t="n">
-        <v>0.333543</v>
+        <v>0.347214</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.449721</v>
+        <v>0.464622</v>
       </c>
       <c r="C7" t="n">
-        <v>0.251946</v>
+        <v>0.250668</v>
       </c>
       <c r="D7" t="n">
-        <v>0.284426</v>
+        <v>0.281728</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.335903</v>
+        <v>0.338455</v>
       </c>
       <c r="C8" t="n">
-        <v>0.259578</v>
+        <v>0.259129</v>
       </c>
       <c r="D8" t="n">
-        <v>0.293659</v>
+        <v>0.289868</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.348578</v>
+        <v>0.350187</v>
       </c>
       <c r="C9" t="n">
-        <v>0.266804</v>
+        <v>0.264675</v>
       </c>
       <c r="D9" t="n">
-        <v>0.298928</v>
+        <v>0.296214</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.360714</v>
+        <v>0.361136</v>
       </c>
       <c r="C10" t="n">
-        <v>0.276775</v>
+        <v>0.274812</v>
       </c>
       <c r="D10" t="n">
-        <v>0.309984</v>
+        <v>0.306775</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.375198</v>
+        <v>0.374821</v>
       </c>
       <c r="C11" t="n">
-        <v>0.284195</v>
+        <v>0.283908</v>
       </c>
       <c r="D11" t="n">
-        <v>0.320297</v>
+        <v>0.316729</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.382659</v>
+        <v>0.393231</v>
       </c>
       <c r="C12" t="n">
-        <v>0.293542</v>
+        <v>0.29194</v>
       </c>
       <c r="D12" t="n">
-        <v>0.327596</v>
+        <v>0.324172</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.397812</v>
+        <v>0.405739</v>
       </c>
       <c r="C13" t="n">
-        <v>0.301804</v>
+        <v>0.30037</v>
       </c>
       <c r="D13" t="n">
-        <v>0.338413</v>
+        <v>0.333401</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.413388</v>
+        <v>0.408859</v>
       </c>
       <c r="C14" t="n">
-        <v>0.309415</v>
+        <v>0.306835</v>
       </c>
       <c r="D14" t="n">
-        <v>0.348563</v>
+        <v>0.34292</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.425486</v>
+        <v>0.420838</v>
       </c>
       <c r="C15" t="n">
-        <v>0.315164</v>
+        <v>0.313701</v>
       </c>
       <c r="D15" t="n">
-        <v>0.35583</v>
+        <v>0.350147</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.438299</v>
+        <v>0.434655</v>
       </c>
       <c r="C16" t="n">
-        <v>0.323462</v>
+        <v>0.321717</v>
       </c>
       <c r="D16" t="n">
-        <v>0.365986</v>
+        <v>0.360234</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.451246</v>
+        <v>0.449459</v>
       </c>
       <c r="C17" t="n">
-        <v>0.330823</v>
+        <v>0.327883</v>
       </c>
       <c r="D17" t="n">
-        <v>0.373007</v>
+        <v>0.367147</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.463407</v>
+        <v>0.460441</v>
       </c>
       <c r="C18" t="n">
-        <v>0.337147</v>
+        <v>0.334776</v>
       </c>
       <c r="D18" t="n">
-        <v>0.381433</v>
+        <v>0.375132</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.475886</v>
+        <v>0.473697</v>
       </c>
       <c r="C19" t="n">
-        <v>0.342489</v>
+        <v>0.340724</v>
       </c>
       <c r="D19" t="n">
-        <v>0.389384</v>
+        <v>0.383906</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.488344</v>
+        <v>0.486225</v>
       </c>
       <c r="C20" t="n">
-        <v>0.350468</v>
+        <v>0.347683</v>
       </c>
       <c r="D20" t="n">
-        <v>0.398922</v>
+        <v>0.402124</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.501383</v>
+        <v>0.498808</v>
       </c>
       <c r="C21" t="n">
-        <v>0.280749</v>
+        <v>0.281025</v>
       </c>
       <c r="D21" t="n">
-        <v>0.31482</v>
+        <v>0.310575</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.389677</v>
+        <v>0.391194</v>
       </c>
       <c r="C22" t="n">
-        <v>0.288786</v>
+        <v>0.289391</v>
       </c>
       <c r="D22" t="n">
-        <v>0.323282</v>
+        <v>0.320255</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.400825</v>
+        <v>0.40292</v>
       </c>
       <c r="C23" t="n">
-        <v>0.297023</v>
+        <v>0.297028</v>
       </c>
       <c r="D23" t="n">
-        <v>0.33396</v>
+        <v>0.330488</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.411152</v>
+        <v>0.413132</v>
       </c>
       <c r="C24" t="n">
-        <v>0.305387</v>
+        <v>0.305875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.343113</v>
+        <v>0.340025</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.422679</v>
+        <v>0.423986</v>
       </c>
       <c r="C25" t="n">
-        <v>0.313864</v>
+        <v>0.313986</v>
       </c>
       <c r="D25" t="n">
-        <v>0.353439</v>
+        <v>0.350145</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.434078</v>
+        <v>0.435695</v>
       </c>
       <c r="C26" t="n">
-        <v>0.322283</v>
+        <v>0.322621</v>
       </c>
       <c r="D26" t="n">
-        <v>0.364628</v>
+        <v>0.360994</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.442947</v>
+        <v>0.450234</v>
       </c>
       <c r="C27" t="n">
-        <v>0.33039</v>
+        <v>0.332074</v>
       </c>
       <c r="D27" t="n">
-        <v>0.375827</v>
+        <v>0.372211</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.458666</v>
+        <v>0.459823</v>
       </c>
       <c r="C28" t="n">
-        <v>0.338915</v>
+        <v>0.338771</v>
       </c>
       <c r="D28" t="n">
-        <v>0.385082</v>
+        <v>0.381572</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.471283</v>
+        <v>0.472694</v>
       </c>
       <c r="C29" t="n">
-        <v>0.346424</v>
+        <v>0.346082</v>
       </c>
       <c r="D29" t="n">
-        <v>0.396279</v>
+        <v>0.391772</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.482573</v>
+        <v>0.483586</v>
       </c>
       <c r="C30" t="n">
-        <v>0.353961</v>
+        <v>0.353927</v>
       </c>
       <c r="D30" t="n">
-        <v>0.40598</v>
+        <v>0.40088</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.492977</v>
+        <v>0.494811</v>
       </c>
       <c r="C31" t="n">
-        <v>0.359934</v>
+        <v>0.36052</v>
       </c>
       <c r="D31" t="n">
-        <v>0.415007</v>
+        <v>0.410413</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.504297</v>
+        <v>0.506413</v>
       </c>
       <c r="C32" t="n">
-        <v>0.36867</v>
+        <v>0.368996</v>
       </c>
       <c r="D32" t="n">
-        <v>0.424638</v>
+        <v>0.420107</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.51635</v>
+        <v>0.517502</v>
       </c>
       <c r="C33" t="n">
-        <v>0.375482</v>
+        <v>0.375981</v>
       </c>
       <c r="D33" t="n">
-        <v>0.433042</v>
+        <v>0.428296</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.532156</v>
+        <v>0.529107</v>
       </c>
       <c r="C34" t="n">
-        <v>0.383214</v>
+        <v>0.383183</v>
       </c>
       <c r="D34" t="n">
-        <v>0.442641</v>
+        <v>0.438068</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.539776</v>
+        <v>0.541006</v>
       </c>
       <c r="C35" t="n">
-        <v>0.298346</v>
+        <v>0.298699</v>
       </c>
       <c r="D35" t="n">
-        <v>0.338227</v>
+        <v>0.335843</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.409444</v>
+        <v>0.41147</v>
       </c>
       <c r="C36" t="n">
-        <v>0.305424</v>
+        <v>0.306396</v>
       </c>
       <c r="D36" t="n">
-        <v>0.348113</v>
+        <v>0.346432</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.420435</v>
+        <v>0.422751</v>
       </c>
       <c r="C37" t="n">
-        <v>0.313681</v>
+        <v>0.314155</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3572</v>
+        <v>0.356336</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.430835</v>
+        <v>0.433135</v>
       </c>
       <c r="C38" t="n">
-        <v>0.322936</v>
+        <v>0.323645</v>
       </c>
       <c r="D38" t="n">
-        <v>0.367871</v>
+        <v>0.366311</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.441806</v>
+        <v>0.44423</v>
       </c>
       <c r="C39" t="n">
-        <v>0.330813</v>
+        <v>0.331226</v>
       </c>
       <c r="D39" t="n">
-        <v>0.378792</v>
+        <v>0.376497</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.452957</v>
+        <v>0.455145</v>
       </c>
       <c r="C40" t="n">
-        <v>0.339519</v>
+        <v>0.339741</v>
       </c>
       <c r="D40" t="n">
-        <v>0.38917</v>
+        <v>0.386962</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.46845</v>
+        <v>0.470142</v>
       </c>
       <c r="C41" t="n">
-        <v>0.348158</v>
+        <v>0.348598</v>
       </c>
       <c r="D41" t="n">
-        <v>0.400318</v>
+        <v>0.397814</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.476016</v>
+        <v>0.479233</v>
       </c>
       <c r="C42" t="n">
-        <v>0.35613</v>
+        <v>0.356172</v>
       </c>
       <c r="D42" t="n">
-        <v>0.409439</v>
+        <v>0.407868</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.488529</v>
+        <v>0.490808</v>
       </c>
       <c r="C43" t="n">
-        <v>0.363805</v>
+        <v>0.36377</v>
       </c>
       <c r="D43" t="n">
-        <v>0.41991</v>
+        <v>0.418641</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.500742</v>
+        <v>0.502376</v>
       </c>
       <c r="C44" t="n">
-        <v>0.370576</v>
+        <v>0.370809</v>
       </c>
       <c r="D44" t="n">
-        <v>0.428083</v>
+        <v>0.427966</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5115420000000001</v>
+        <v>0.513286</v>
       </c>
       <c r="C45" t="n">
-        <v>0.377531</v>
+        <v>0.378205</v>
       </c>
       <c r="D45" t="n">
-        <v>0.437451</v>
+        <v>0.437552</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.522903</v>
+        <v>0.523894</v>
       </c>
       <c r="C46" t="n">
-        <v>0.383936</v>
+        <v>0.384557</v>
       </c>
       <c r="D46" t="n">
-        <v>0.445723</v>
+        <v>0.445763</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.534591</v>
+        <v>0.535845</v>
       </c>
       <c r="C47" t="n">
-        <v>0.390837</v>
+        <v>0.391036</v>
       </c>
       <c r="D47" t="n">
-        <v>0.453909</v>
+        <v>0.455954</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.552163</v>
+        <v>0.550542</v>
       </c>
       <c r="C48" t="n">
-        <v>0.397663</v>
+        <v>0.398162</v>
       </c>
       <c r="D48" t="n">
-        <v>0.463186</v>
+        <v>0.463263</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.56069</v>
+        <v>0.561207</v>
       </c>
       <c r="C49" t="n">
-        <v>0.404917</v>
+        <v>0.405435</v>
       </c>
       <c r="D49" t="n">
-        <v>0.473127</v>
+        <v>0.471624</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.576249</v>
+        <v>0.572838</v>
       </c>
       <c r="C50" t="n">
-        <v>0.311389</v>
+        <v>0.313111</v>
       </c>
       <c r="D50" t="n">
-        <v>0.34729</v>
+        <v>0.347026</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430632</v>
+        <v>0.428997</v>
       </c>
       <c r="C51" t="n">
-        <v>0.320542</v>
+        <v>0.321254</v>
       </c>
       <c r="D51" t="n">
-        <v>0.35802</v>
+        <v>0.357297</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.440256</v>
+        <v>0.441123</v>
       </c>
       <c r="C52" t="n">
-        <v>0.329411</v>
+        <v>0.329997</v>
       </c>
       <c r="D52" t="n">
-        <v>0.369199</v>
+        <v>0.369153</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.452198</v>
+        <v>0.452715</v>
       </c>
       <c r="C53" t="n">
-        <v>0.337878</v>
+        <v>0.338826</v>
       </c>
       <c r="D53" t="n">
-        <v>0.380094</v>
+        <v>0.380437</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.463763</v>
+        <v>0.464959</v>
       </c>
       <c r="C54" t="n">
-        <v>0.347132</v>
+        <v>0.347769</v>
       </c>
       <c r="D54" t="n">
-        <v>0.391585</v>
+        <v>0.391394</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.47887</v>
+        <v>0.478121</v>
       </c>
       <c r="C55" t="n">
-        <v>0.356009</v>
+        <v>0.356483</v>
       </c>
       <c r="D55" t="n">
-        <v>0.402742</v>
+        <v>0.402402</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.487514</v>
+        <v>0.48826</v>
       </c>
       <c r="C56" t="n">
-        <v>0.364041</v>
+        <v>0.364562</v>
       </c>
       <c r="D56" t="n">
-        <v>0.412546</v>
+        <v>0.412952</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.498513</v>
+        <v>0.498867</v>
       </c>
       <c r="C57" t="n">
-        <v>0.371901</v>
+        <v>0.3721</v>
       </c>
       <c r="D57" t="n">
-        <v>0.421954</v>
+        <v>0.422692</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.509329</v>
+        <v>0.509885</v>
       </c>
       <c r="C58" t="n">
-        <v>0.378743</v>
+        <v>0.378915</v>
       </c>
       <c r="D58" t="n">
-        <v>0.431721</v>
+        <v>0.431551</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.51961</v>
+        <v>0.520217</v>
       </c>
       <c r="C59" t="n">
-        <v>0.385354</v>
+        <v>0.385504</v>
       </c>
       <c r="D59" t="n">
-        <v>0.440584</v>
+        <v>0.440706</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5310589999999999</v>
+        <v>0.531454</v>
       </c>
       <c r="C60" t="n">
-        <v>0.39192</v>
+        <v>0.392356</v>
       </c>
       <c r="D60" t="n">
-        <v>0.449948</v>
+        <v>0.450073</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.545658</v>
+        <v>0.542716</v>
       </c>
       <c r="C61" t="n">
-        <v>0.398571</v>
+        <v>0.398316</v>
       </c>
       <c r="D61" t="n">
-        <v>0.458525</v>
+        <v>0.458814</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.556478</v>
+        <v>0.555569</v>
       </c>
       <c r="C62" t="n">
-        <v>0.406378</v>
+        <v>0.405394</v>
       </c>
       <c r="D62" t="n">
-        <v>0.468815</v>
+        <v>0.467024</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.568156</v>
+        <v>0.567531</v>
       </c>
       <c r="C63" t="n">
-        <v>0.413184</v>
+        <v>0.412584</v>
       </c>
       <c r="D63" t="n">
-        <v>0.478062</v>
+        <v>0.476351</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.581934</v>
+        <v>0.581143</v>
       </c>
       <c r="C64" t="n">
-        <v>0.322432</v>
+        <v>0.324566</v>
       </c>
       <c r="D64" t="n">
-        <v>0.36382</v>
+        <v>0.366362</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.452881</v>
+        <v>0.458107</v>
       </c>
       <c r="C65" t="n">
-        <v>0.331898</v>
+        <v>0.334809</v>
       </c>
       <c r="D65" t="n">
-        <v>0.376401</v>
+        <v>0.380491</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.470985</v>
+        <v>0.474344</v>
       </c>
       <c r="C66" t="n">
-        <v>0.343202</v>
+        <v>0.345279</v>
       </c>
       <c r="D66" t="n">
-        <v>0.389484</v>
+        <v>0.394322</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.487685</v>
+        <v>0.488381</v>
       </c>
       <c r="C67" t="n">
-        <v>0.353853</v>
+        <v>0.356681</v>
       </c>
       <c r="D67" t="n">
-        <v>0.40355</v>
+        <v>0.406078</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.507189</v>
+        <v>0.509414</v>
       </c>
       <c r="C68" t="n">
-        <v>0.365464</v>
+        <v>0.36883</v>
       </c>
       <c r="D68" t="n">
-        <v>0.41721</v>
+        <v>0.421279</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.531614</v>
+        <v>0.525299</v>
       </c>
       <c r="C69" t="n">
-        <v>0.37884</v>
+        <v>0.379938</v>
       </c>
       <c r="D69" t="n">
-        <v>0.434426</v>
+        <v>0.434863</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5526990000000001</v>
+        <v>0.549311</v>
       </c>
       <c r="C70" t="n">
-        <v>0.392631</v>
+        <v>0.392906</v>
       </c>
       <c r="D70" t="n">
-        <v>0.452543</v>
+        <v>0.450791</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.571972</v>
+        <v>0.572797</v>
       </c>
       <c r="C71" t="n">
-        <v>0.405044</v>
+        <v>0.407518</v>
       </c>
       <c r="D71" t="n">
-        <v>0.468306</v>
+        <v>0.466569</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.598222</v>
+        <v>0.599255</v>
       </c>
       <c r="C72" t="n">
-        <v>0.420281</v>
+        <v>0.419793</v>
       </c>
       <c r="D72" t="n">
-        <v>0.485249</v>
+        <v>0.484036</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.625599</v>
+        <v>0.621028</v>
       </c>
       <c r="C73" t="n">
-        <v>0.435636</v>
+        <v>0.432643</v>
       </c>
       <c r="D73" t="n">
-        <v>0.505153</v>
+        <v>0.499855</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.657898</v>
+        <v>0.652088</v>
       </c>
       <c r="C74" t="n">
-        <v>0.453964</v>
+        <v>0.450153</v>
       </c>
       <c r="D74" t="n">
-        <v>0.527343</v>
+        <v>0.5196190000000001</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.692509</v>
+        <v>0.683013</v>
       </c>
       <c r="C75" t="n">
-        <v>0.47246</v>
+        <v>0.46777</v>
       </c>
       <c r="D75" t="n">
-        <v>0.549817</v>
+        <v>0.5406300000000001</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.732764</v>
+        <v>0.718878</v>
       </c>
       <c r="C76" t="n">
-        <v>0.494956</v>
+        <v>0.488384</v>
       </c>
       <c r="D76" t="n">
-        <v>0.575879</v>
+        <v>0.563546</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.776136</v>
+        <v>0.763347</v>
       </c>
       <c r="C77" t="n">
-        <v>0.51999</v>
+        <v>0.513172</v>
       </c>
       <c r="D77" t="n">
-        <v>0.605174</v>
+        <v>0.588332</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.82803</v>
+        <v>0.808402</v>
       </c>
       <c r="C78" t="n">
-        <v>0.458796</v>
+        <v>0.441469</v>
       </c>
       <c r="D78" t="n">
-        <v>0.524268</v>
+        <v>0.498635</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.823605</v>
+        <v>0.796849</v>
       </c>
       <c r="C79" t="n">
-        <v>0.482123</v>
+        <v>0.469025</v>
       </c>
       <c r="D79" t="n">
-        <v>0.556032</v>
+        <v>0.527729</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.865823</v>
+        <v>0.839736</v>
       </c>
       <c r="C80" t="n">
-        <v>0.508991</v>
+        <v>0.497996</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5863080000000001</v>
+        <v>0.56102</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.904107</v>
+        <v>0.885576</v>
       </c>
       <c r="C81" t="n">
-        <v>0.539008</v>
+        <v>0.52977</v>
       </c>
       <c r="D81" t="n">
-        <v>0.613105</v>
+        <v>0.592871</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.952579</v>
+        <v>0.93605</v>
       </c>
       <c r="C82" t="n">
-        <v>0.571943</v>
+        <v>0.560184</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6446769999999999</v>
+        <v>0.629733</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.00141</v>
+        <v>0.987134</v>
       </c>
       <c r="C83" t="n">
-        <v>0.603648</v>
+        <v>0.595424</v>
       </c>
       <c r="D83" t="n">
-        <v>0.680639</v>
+        <v>0.668341</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.04091</v>
+        <v>1.02955</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6391559999999999</v>
+        <v>0.6289709999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7256359999999999</v>
+        <v>0.707851</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.10524</v>
+        <v>1.09578</v>
       </c>
       <c r="C85" t="n">
-        <v>0.67334</v>
+        <v>0.66508</v>
       </c>
       <c r="D85" t="n">
-        <v>0.765343</v>
+        <v>0.74618</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.15851</v>
+        <v>1.15075</v>
       </c>
       <c r="C86" t="n">
-        <v>0.708996</v>
+        <v>0.701093</v>
       </c>
       <c r="D86" t="n">
-        <v>0.806466</v>
+        <v>0.784805</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.21274</v>
+        <v>1.20823</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7441410000000001</v>
+        <v>0.738583</v>
       </c>
       <c r="D87" t="n">
-        <v>0.841801</v>
+        <v>0.825905</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.26935</v>
+        <v>1.26743</v>
       </c>
       <c r="C88" t="n">
-        <v>0.780229</v>
+        <v>0.776574</v>
       </c>
       <c r="D88" t="n">
-        <v>0.879288</v>
+        <v>0.867632</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.32532</v>
+        <v>1.32771</v>
       </c>
       <c r="C89" t="n">
-        <v>0.815157</v>
+        <v>0.8144130000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.919107</v>
+        <v>0.908125</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.38758</v>
+        <v>1.39056</v>
       </c>
       <c r="C90" t="n">
-        <v>0.855302</v>
+        <v>0.854607</v>
       </c>
       <c r="D90" t="n">
-        <v>0.959884</v>
+        <v>0.949723</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.45524</v>
+        <v>1.45926</v>
       </c>
       <c r="C91" t="n">
-        <v>0.897514</v>
+        <v>0.896438</v>
       </c>
       <c r="D91" t="n">
-        <v>1.00484</v>
+        <v>0.994698</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.52519</v>
+        <v>1.5255</v>
       </c>
       <c r="C92" t="n">
-        <v>0.768577</v>
+        <v>0.773013</v>
       </c>
       <c r="D92" t="n">
-        <v>0.885239</v>
+        <v>0.882467</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.33211</v>
+        <v>1.33819</v>
       </c>
       <c r="C93" t="n">
-        <v>0.795513</v>
+        <v>0.802047</v>
       </c>
       <c r="D93" t="n">
-        <v>0.92963</v>
+        <v>0.915453</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.37038</v>
+        <v>1.37754</v>
       </c>
       <c r="C94" t="n">
-        <v>0.824229</v>
+        <v>0.830253</v>
       </c>
       <c r="D94" t="n">
-        <v>0.960354</v>
+        <v>0.950675</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.41082</v>
+        <v>1.41712</v>
       </c>
       <c r="C95" t="n">
-        <v>0.854582</v>
+        <v>0.860403</v>
       </c>
       <c r="D95" t="n">
-        <v>0.98584</v>
+        <v>0.985218</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.45296</v>
+        <v>1.46207</v>
       </c>
       <c r="C96" t="n">
-        <v>0.886644</v>
+        <v>0.892161</v>
       </c>
       <c r="D96" t="n">
-        <v>1.01929</v>
+        <v>1.02393</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.49537</v>
+        <v>1.50354</v>
       </c>
       <c r="C97" t="n">
-        <v>0.918785</v>
+        <v>0.924917</v>
       </c>
       <c r="D97" t="n">
-        <v>1.07856</v>
+        <v>1.06285</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.53975</v>
+        <v>1.54977</v>
       </c>
       <c r="C98" t="n">
-        <v>0.951591</v>
+        <v>0.958453</v>
       </c>
       <c r="D98" t="n">
-        <v>1.10719</v>
+        <v>1.10251</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.58637</v>
+        <v>1.59562</v>
       </c>
       <c r="C99" t="n">
-        <v>0.985537</v>
+        <v>0.993129</v>
       </c>
       <c r="D99" t="n">
-        <v>1.14938</v>
+        <v>1.13967</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.63414</v>
+        <v>1.64339</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02</v>
+        <v>1.02725</v>
       </c>
       <c r="D100" t="n">
-        <v>1.19373</v>
+        <v>1.18059</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.68192</v>
+        <v>1.69073</v>
       </c>
       <c r="C101" t="n">
-        <v>1.0554</v>
+        <v>1.06285</v>
       </c>
       <c r="D101" t="n">
-        <v>1.23807</v>
+        <v>1.22252</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.73396</v>
+        <v>1.74294</v>
       </c>
       <c r="C102" t="n">
-        <v>1.09148</v>
+        <v>1.0991</v>
       </c>
       <c r="D102" t="n">
-        <v>1.27768</v>
+        <v>1.25993</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.78987</v>
+        <v>1.79843</v>
       </c>
       <c r="C103" t="n">
-        <v>1.12962</v>
+        <v>1.13732</v>
       </c>
       <c r="D103" t="n">
-        <v>1.32491</v>
+        <v>1.30328</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.84696</v>
+        <v>1.85502</v>
       </c>
       <c r="C104" t="n">
-        <v>1.16795</v>
+        <v>1.17558</v>
       </c>
       <c r="D104" t="n">
-        <v>1.37416</v>
+        <v>1.35002</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.90716</v>
+        <v>1.91505</v>
       </c>
       <c r="C105" t="n">
-        <v>1.20851</v>
+        <v>1.21607</v>
       </c>
       <c r="D105" t="n">
-        <v>1.42263</v>
+        <v>1.39659</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.97179</v>
+        <v>1.98156</v>
       </c>
       <c r="C106" t="n">
-        <v>1.25087</v>
+        <v>1.25857</v>
       </c>
       <c r="D106" t="n">
-        <v>1.47415</v>
+        <v>1.44515</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.62548</v>
+        <v>1.63326</v>
       </c>
       <c r="C107" t="n">
-        <v>1.01712</v>
+        <v>1.02097</v>
       </c>
       <c r="D107" t="n">
-        <v>1.25256</v>
+        <v>1.2519</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.66086</v>
+        <v>1.6668</v>
       </c>
       <c r="C108" t="n">
-        <v>1.04265</v>
+        <v>1.03061</v>
       </c>
       <c r="D108" t="n">
-        <v>1.28249</v>
+        <v>1.25141</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.6915</v>
+        <v>1.69217</v>
       </c>
       <c r="C109" t="n">
-        <v>1.07071</v>
+        <v>1.07677</v>
       </c>
       <c r="D109" t="n">
-        <v>1.3303</v>
+        <v>1.31831</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.71602</v>
+        <v>1.72625</v>
       </c>
       <c r="C110" t="n">
-        <v>1.08152</v>
+        <v>1.08653</v>
       </c>
       <c r="D110" t="n">
-        <v>1.34145</v>
+        <v>1.32539</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.76524</v>
+        <v>1.77552</v>
       </c>
       <c r="C111" t="n">
-        <v>1.12688</v>
+        <v>1.13652</v>
       </c>
       <c r="D111" t="n">
-        <v>1.39413</v>
+        <v>1.39648</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.80634</v>
+        <v>1.82017</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1603</v>
+        <v>1.16737</v>
       </c>
       <c r="D112" t="n">
-        <v>1.43863</v>
+        <v>1.43689</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.84653</v>
+        <v>1.86165</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19231</v>
+        <v>1.20106</v>
       </c>
       <c r="D113" t="n">
-        <v>1.48051</v>
+        <v>1.47792</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.89386</v>
+        <v>1.90628</v>
       </c>
       <c r="C114" t="n">
-        <v>1.22472</v>
+        <v>1.23368</v>
       </c>
       <c r="D114" t="n">
-        <v>1.5144</v>
+        <v>1.52253</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.92759</v>
+        <v>1.95064</v>
       </c>
       <c r="C115" t="n">
-        <v>1.24379</v>
+        <v>1.26724</v>
       </c>
       <c r="D115" t="n">
-        <v>1.56901</v>
+        <v>1.56702</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.97544</v>
+        <v>2.00531</v>
       </c>
       <c r="C116" t="n">
-        <v>1.27805</v>
+        <v>1.30168</v>
       </c>
       <c r="D116" t="n">
-        <v>1.61288</v>
+        <v>1.6123</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.02984</v>
+        <v>2.05574</v>
       </c>
       <c r="C117" t="n">
-        <v>1.31424</v>
+        <v>1.33187</v>
       </c>
       <c r="D117" t="n">
-        <v>1.65835</v>
+        <v>1.65857</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.08747</v>
+        <v>2.11057</v>
       </c>
       <c r="C118" t="n">
-        <v>1.35245</v>
+        <v>1.37649</v>
       </c>
       <c r="D118" t="n">
-        <v>1.70038</v>
+        <v>1.70858</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.13895</v>
+        <v>2.17067</v>
       </c>
       <c r="C119" t="n">
-        <v>1.39098</v>
+        <v>1.41554</v>
       </c>
       <c r="D119" t="n">
-        <v>1.75048</v>
+        <v>1.75705</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.279766</v>
+        <v>0.281195</v>
       </c>
       <c r="C2" t="n">
-        <v>0.200826</v>
+        <v>0.204624</v>
       </c>
       <c r="D2" t="n">
-        <v>0.179987</v>
+        <v>0.180712</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.293105</v>
+        <v>0.294085</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207552</v>
+        <v>0.210698</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183851</v>
+        <v>0.183825</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.299197</v>
+        <v>0.302233</v>
       </c>
       <c r="C4" t="n">
-        <v>0.213485</v>
+        <v>0.218748</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185021</v>
+        <v>0.186279</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.308613</v>
+        <v>0.31055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.21869</v>
+        <v>0.223906</v>
       </c>
       <c r="D5" t="n">
-        <v>0.189105</v>
+        <v>0.189009</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.321379</v>
+        <v>0.324086</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228151</v>
+        <v>0.23023</v>
       </c>
       <c r="D6" t="n">
-        <v>0.192221</v>
+        <v>0.192038</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.332437</v>
+        <v>0.333854</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188731</v>
+        <v>0.19377</v>
       </c>
       <c r="D7" t="n">
-        <v>0.173443</v>
+        <v>0.175514</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252607</v>
+        <v>0.253463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.191308</v>
+        <v>0.195578</v>
       </c>
       <c r="D8" t="n">
-        <v>0.175115</v>
+        <v>0.177374</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.254265</v>
+        <v>0.260051</v>
       </c>
       <c r="C9" t="n">
-        <v>0.197451</v>
+        <v>0.203005</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177958</v>
+        <v>0.180724</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.264267</v>
+        <v>0.268387</v>
       </c>
       <c r="C10" t="n">
-        <v>0.203748</v>
+        <v>0.207343</v>
       </c>
       <c r="D10" t="n">
-        <v>0.18178</v>
+        <v>0.183668</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.270729</v>
+        <v>0.277158</v>
       </c>
       <c r="C11" t="n">
-        <v>0.208483</v>
+        <v>0.212075</v>
       </c>
       <c r="D11" t="n">
-        <v>0.184969</v>
+        <v>0.186938</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.278313</v>
+        <v>0.285129</v>
       </c>
       <c r="C12" t="n">
-        <v>0.214302</v>
+        <v>0.219456</v>
       </c>
       <c r="D12" t="n">
-        <v>0.188123</v>
+        <v>0.189652</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.285632</v>
+        <v>0.288554</v>
       </c>
       <c r="C13" t="n">
-        <v>0.223271</v>
+        <v>0.226946</v>
       </c>
       <c r="D13" t="n">
-        <v>0.189562</v>
+        <v>0.191843</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.29739</v>
+        <v>0.302905</v>
       </c>
       <c r="C14" t="n">
-        <v>0.229617</v>
+        <v>0.233221</v>
       </c>
       <c r="D14" t="n">
-        <v>0.194445</v>
+        <v>0.195462</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.30462</v>
+        <v>0.308615</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236089</v>
+        <v>0.239425</v>
       </c>
       <c r="D15" t="n">
-        <v>0.198291</v>
+        <v>0.198165</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.315854</v>
+        <v>0.318143</v>
       </c>
       <c r="C16" t="n">
-        <v>0.246553</v>
+        <v>0.24915</v>
       </c>
       <c r="D16" t="n">
-        <v>0.202494</v>
+        <v>0.203125</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.328604</v>
+        <v>0.330669</v>
       </c>
       <c r="C17" t="n">
-        <v>0.254784</v>
+        <v>0.256207</v>
       </c>
       <c r="D17" t="n">
-        <v>0.206641</v>
+        <v>0.208302</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.338726</v>
+        <v>0.341002</v>
       </c>
       <c r="C18" t="n">
-        <v>0.263425</v>
+        <v>0.264952</v>
       </c>
       <c r="D18" t="n">
-        <v>0.210655</v>
+        <v>0.211554</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.35094</v>
+        <v>0.35071</v>
       </c>
       <c r="C19" t="n">
-        <v>0.271412</v>
+        <v>0.273156</v>
       </c>
       <c r="D19" t="n">
-        <v>0.216604</v>
+        <v>0.217796</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.364564</v>
+        <v>0.36595</v>
       </c>
       <c r="C20" t="n">
-        <v>0.284078</v>
+        <v>0.283855</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221518</v>
+        <v>0.222192</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.377572</v>
+        <v>0.377431</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231845</v>
+        <v>0.231928</v>
       </c>
       <c r="D21" t="n">
-        <v>0.203642</v>
+        <v>0.204762</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.294598</v>
+        <v>0.295156</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237615</v>
+        <v>0.237733</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206346</v>
+        <v>0.208587</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.302175</v>
+        <v>0.302364</v>
       </c>
       <c r="C23" t="n">
-        <v>0.244241</v>
+        <v>0.244221</v>
       </c>
       <c r="D23" t="n">
-        <v>0.209698</v>
+        <v>0.21315</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.309893</v>
+        <v>0.309968</v>
       </c>
       <c r="C24" t="n">
-        <v>0.249167</v>
+        <v>0.249122</v>
       </c>
       <c r="D24" t="n">
-        <v>0.213348</v>
+        <v>0.21613</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.317176</v>
+        <v>0.317269</v>
       </c>
       <c r="C25" t="n">
-        <v>0.255507</v>
+        <v>0.25568</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216647</v>
+        <v>0.21922</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.325919</v>
+        <v>0.325308</v>
       </c>
       <c r="C26" t="n">
-        <v>0.263187</v>
+        <v>0.262773</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220546</v>
+        <v>0.223188</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332931</v>
+        <v>0.329134</v>
       </c>
       <c r="C27" t="n">
-        <v>0.267774</v>
+        <v>0.266661</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224456</v>
+        <v>0.226301</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.342754</v>
+        <v>0.342023</v>
       </c>
       <c r="C28" t="n">
-        <v>0.274202</v>
+        <v>0.273498</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228415</v>
+        <v>0.229972</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.352791</v>
+        <v>0.351804</v>
       </c>
       <c r="C29" t="n">
-        <v>0.281661</v>
+        <v>0.280475</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232615</v>
+        <v>0.233077</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.361969</v>
+        <v>0.361042</v>
       </c>
       <c r="C30" t="n">
-        <v>0.289851</v>
+        <v>0.287906</v>
       </c>
       <c r="D30" t="n">
-        <v>0.236529</v>
+        <v>0.237201</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.372686</v>
+        <v>0.371376</v>
       </c>
       <c r="C31" t="n">
-        <v>0.296566</v>
+        <v>0.294827</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240736</v>
+        <v>0.240636</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.382626</v>
+        <v>0.381143</v>
       </c>
       <c r="C32" t="n">
-        <v>0.306169</v>
+        <v>0.304062</v>
       </c>
       <c r="D32" t="n">
-        <v>0.245462</v>
+        <v>0.244442</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.395931</v>
+        <v>0.394579</v>
       </c>
       <c r="C33" t="n">
-        <v>0.314443</v>
+        <v>0.312531</v>
       </c>
       <c r="D33" t="n">
-        <v>0.250408</v>
+        <v>0.247009</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.408486</v>
+        <v>0.406633</v>
       </c>
       <c r="C34" t="n">
-        <v>0.324163</v>
+        <v>0.32203</v>
       </c>
       <c r="D34" t="n">
-        <v>0.255232</v>
+        <v>0.256014</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.421139</v>
+        <v>0.420583</v>
       </c>
       <c r="C35" t="n">
-        <v>0.249897</v>
+        <v>0.249095</v>
       </c>
       <c r="D35" t="n">
-        <v>0.227151</v>
+        <v>0.227057</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.316136</v>
+        <v>0.315898</v>
       </c>
       <c r="C36" t="n">
-        <v>0.256492</v>
+        <v>0.256063</v>
       </c>
       <c r="D36" t="n">
-        <v>0.230789</v>
+        <v>0.230457</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322315</v>
+        <v>0.322891</v>
       </c>
       <c r="C37" t="n">
-        <v>0.261739</v>
+        <v>0.261182</v>
       </c>
       <c r="D37" t="n">
-        <v>0.233497</v>
+        <v>0.233887</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.331126</v>
+        <v>0.331332</v>
       </c>
       <c r="C38" t="n">
-        <v>0.268562</v>
+        <v>0.267935</v>
       </c>
       <c r="D38" t="n">
-        <v>0.237131</v>
+        <v>0.23726</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.336702</v>
+        <v>0.336809</v>
       </c>
       <c r="C39" t="n">
-        <v>0.27441</v>
+        <v>0.273789</v>
       </c>
       <c r="D39" t="n">
-        <v>0.240863</v>
+        <v>0.240455</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.346381</v>
+        <v>0.346287</v>
       </c>
       <c r="C40" t="n">
-        <v>0.280962</v>
+        <v>0.279609</v>
       </c>
       <c r="D40" t="n">
-        <v>0.244784</v>
+        <v>0.24438</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.353951</v>
+        <v>0.354163</v>
       </c>
       <c r="C41" t="n">
-        <v>0.286975</v>
+        <v>0.286254</v>
       </c>
       <c r="D41" t="n">
-        <v>0.248018</v>
+        <v>0.247762</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.361977</v>
+        <v>0.36216</v>
       </c>
       <c r="C42" t="n">
-        <v>0.292537</v>
+        <v>0.291593</v>
       </c>
       <c r="D42" t="n">
-        <v>0.251221</v>
+        <v>0.251039</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.370846</v>
+        <v>0.37136</v>
       </c>
       <c r="C43" t="n">
-        <v>0.299469</v>
+        <v>0.298322</v>
       </c>
       <c r="D43" t="n">
-        <v>0.254791</v>
+        <v>0.25514</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.380799</v>
+        <v>0.381265</v>
       </c>
       <c r="C44" t="n">
-        <v>0.30764</v>
+        <v>0.306275</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259314</v>
+        <v>0.259306</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.392496</v>
+        <v>0.392728</v>
       </c>
       <c r="C45" t="n">
-        <v>0.315683</v>
+        <v>0.314371</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264611</v>
+        <v>0.262315</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.40279</v>
+        <v>0.403446</v>
       </c>
       <c r="C46" t="n">
-        <v>0.324358</v>
+        <v>0.322957</v>
       </c>
       <c r="D46" t="n">
-        <v>0.267754</v>
+        <v>0.267145</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.413271</v>
+        <v>0.413765</v>
       </c>
       <c r="C47" t="n">
-        <v>0.331848</v>
+        <v>0.330711</v>
       </c>
       <c r="D47" t="n">
-        <v>0.273671</v>
+        <v>0.273395</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.424755</v>
+        <v>0.425596</v>
       </c>
       <c r="C48" t="n">
-        <v>0.340854</v>
+        <v>0.339974</v>
       </c>
       <c r="D48" t="n">
-        <v>0.278651</v>
+        <v>0.278182</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.435383</v>
+        <v>0.435684</v>
       </c>
       <c r="C49" t="n">
-        <v>0.351012</v>
+        <v>0.349407</v>
       </c>
       <c r="D49" t="n">
-        <v>0.284049</v>
+        <v>0.282268</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.449592</v>
+        <v>0.450469</v>
       </c>
       <c r="C50" t="n">
-        <v>0.264088</v>
+        <v>0.26308</v>
       </c>
       <c r="D50" t="n">
-        <v>0.231539</v>
+        <v>0.231167</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.333895</v>
+        <v>0.333849</v>
       </c>
       <c r="C51" t="n">
-        <v>0.269799</v>
+        <v>0.268691</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234456</v>
+        <v>0.234198</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340598</v>
+        <v>0.340542</v>
       </c>
       <c r="C52" t="n">
-        <v>0.275539</v>
+        <v>0.274506</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237957</v>
+        <v>0.237833</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347638</v>
+        <v>0.347264</v>
       </c>
       <c r="C53" t="n">
-        <v>0.282452</v>
+        <v>0.280873</v>
       </c>
       <c r="D53" t="n">
-        <v>0.242001</v>
+        <v>0.241476</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.355497</v>
+        <v>0.355664</v>
       </c>
       <c r="C54" t="n">
-        <v>0.28841</v>
+        <v>0.287437</v>
       </c>
       <c r="D54" t="n">
-        <v>0.245636</v>
+        <v>0.244809</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.36484</v>
+        <v>0.364779</v>
       </c>
       <c r="C55" t="n">
-        <v>0.295583</v>
+        <v>0.294209</v>
       </c>
       <c r="D55" t="n">
-        <v>0.24993</v>
+        <v>0.249869</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.374039</v>
+        <v>0.37459</v>
       </c>
       <c r="C56" t="n">
-        <v>0.301165</v>
+        <v>0.299964</v>
       </c>
       <c r="D56" t="n">
-        <v>0.25372</v>
+        <v>0.252959</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.382952</v>
+        <v>0.383139</v>
       </c>
       <c r="C57" t="n">
-        <v>0.309154</v>
+        <v>0.307212</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257816</v>
+        <v>0.257203</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.393066</v>
+        <v>0.392893</v>
       </c>
       <c r="C58" t="n">
-        <v>0.316847</v>
+        <v>0.314975</v>
       </c>
       <c r="D58" t="n">
-        <v>0.263739</v>
+        <v>0.262266</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.404594</v>
+        <v>0.404543</v>
       </c>
       <c r="C59" t="n">
-        <v>0.323468</v>
+        <v>0.321605</v>
       </c>
       <c r="D59" t="n">
-        <v>0.266628</v>
+        <v>0.265828</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.41415</v>
+        <v>0.413979</v>
       </c>
       <c r="C60" t="n">
-        <v>0.33106</v>
+        <v>0.329531</v>
       </c>
       <c r="D60" t="n">
-        <v>0.270847</v>
+        <v>0.270578</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.425161</v>
+        <v>0.425171</v>
       </c>
       <c r="C61" t="n">
-        <v>0.340572</v>
+        <v>0.339209</v>
       </c>
       <c r="D61" t="n">
-        <v>0.276048</v>
+        <v>0.275725</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.436041</v>
+        <v>0.435955</v>
       </c>
       <c r="C62" t="n">
-        <v>0.349185</v>
+        <v>0.347018</v>
       </c>
       <c r="D62" t="n">
-        <v>0.281058</v>
+        <v>0.280505</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.447961</v>
+        <v>0.44808</v>
       </c>
       <c r="C63" t="n">
-        <v>0.359703</v>
+        <v>0.357547</v>
       </c>
       <c r="D63" t="n">
-        <v>0.28723</v>
+        <v>0.286733</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.461763</v>
+        <v>0.461642</v>
       </c>
       <c r="C64" t="n">
-        <v>0.28268</v>
+        <v>0.280278</v>
       </c>
       <c r="D64" t="n">
-        <v>0.247718</v>
+        <v>0.245714</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.359669</v>
+        <v>0.359243</v>
       </c>
       <c r="C65" t="n">
-        <v>0.291293</v>
+        <v>0.287551</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24867</v>
+        <v>0.246665</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.373258</v>
+        <v>0.372411</v>
       </c>
       <c r="C66" t="n">
-        <v>0.300986</v>
+        <v>0.29795</v>
       </c>
       <c r="D66" t="n">
-        <v>0.254885</v>
+        <v>0.25504</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.387425</v>
+        <v>0.386783</v>
       </c>
       <c r="C67" t="n">
-        <v>0.310704</v>
+        <v>0.30841</v>
       </c>
       <c r="D67" t="n">
-        <v>0.261187</v>
+        <v>0.258279</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.399755</v>
+        <v>0.405832</v>
       </c>
       <c r="C68" t="n">
-        <v>0.322351</v>
+        <v>0.318721</v>
       </c>
       <c r="D68" t="n">
-        <v>0.267461</v>
+        <v>0.264932</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.412366</v>
+        <v>0.42041</v>
       </c>
       <c r="C69" t="n">
-        <v>0.330823</v>
+        <v>0.333436</v>
       </c>
       <c r="D69" t="n">
-        <v>0.270878</v>
+        <v>0.26969</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.424589</v>
+        <v>0.441427</v>
       </c>
       <c r="C70" t="n">
-        <v>0.340902</v>
+        <v>0.346346</v>
       </c>
       <c r="D70" t="n">
-        <v>0.276989</v>
+        <v>0.276489</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.446481</v>
+        <v>0.461354</v>
       </c>
       <c r="C71" t="n">
-        <v>0.35611</v>
+        <v>0.362884</v>
       </c>
       <c r="D71" t="n">
-        <v>0.284178</v>
+        <v>0.282096</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.467091</v>
+        <v>0.484986</v>
       </c>
       <c r="C72" t="n">
-        <v>0.370645</v>
+        <v>0.380381</v>
       </c>
       <c r="D72" t="n">
-        <v>0.290436</v>
+        <v>0.29065</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.488304</v>
+        <v>0.511416</v>
       </c>
       <c r="C73" t="n">
-        <v>0.387233</v>
+        <v>0.402302</v>
       </c>
       <c r="D73" t="n">
-        <v>0.298572</v>
+        <v>0.30035</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.511892</v>
+        <v>0.539123</v>
       </c>
       <c r="C74" t="n">
-        <v>0.404448</v>
+        <v>0.421566</v>
       </c>
       <c r="D74" t="n">
-        <v>0.307913</v>
+        <v>0.309621</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.540569</v>
+        <v>0.576975</v>
       </c>
       <c r="C75" t="n">
-        <v>0.424694</v>
+        <v>0.450055</v>
       </c>
       <c r="D75" t="n">
-        <v>0.317514</v>
+        <v>0.320236</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.567492</v>
+        <v>0.614218</v>
       </c>
       <c r="C76" t="n">
-        <v>0.447896</v>
+        <v>0.481402</v>
       </c>
       <c r="D76" t="n">
-        <v>0.326419</v>
+        <v>0.334939</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.610306</v>
+        <v>0.655373</v>
       </c>
       <c r="C77" t="n">
-        <v>0.475916</v>
+        <v>0.50818</v>
       </c>
       <c r="D77" t="n">
-        <v>0.337047</v>
+        <v>0.345868</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.651129</v>
+        <v>0.7021309999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.433822</v>
+        <v>0.44255</v>
       </c>
       <c r="D78" t="n">
-        <v>0.308172</v>
+        <v>0.308156</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.610829</v>
+        <v>0.621281</v>
       </c>
       <c r="C79" t="n">
-        <v>0.46509</v>
+        <v>0.467839</v>
       </c>
       <c r="D79" t="n">
-        <v>0.320107</v>
+        <v>0.322641</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.651397</v>
+        <v>0.660753</v>
       </c>
       <c r="C80" t="n">
-        <v>0.488552</v>
+        <v>0.49414</v>
       </c>
       <c r="D80" t="n">
-        <v>0.334927</v>
+        <v>0.337199</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.694233</v>
+        <v>0.701536</v>
       </c>
       <c r="C81" t="n">
-        <v>0.526352</v>
+        <v>0.530446</v>
       </c>
       <c r="D81" t="n">
-        <v>0.349474</v>
+        <v>0.353511</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.74336</v>
+        <v>0.750187</v>
       </c>
       <c r="C82" t="n">
-        <v>0.562364</v>
+        <v>0.564653</v>
       </c>
       <c r="D82" t="n">
-        <v>0.36768</v>
+        <v>0.369809</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.794401</v>
+        <v>0.801221</v>
       </c>
       <c r="C83" t="n">
-        <v>0.602447</v>
+        <v>0.603611</v>
       </c>
       <c r="D83" t="n">
-        <v>0.384116</v>
+        <v>0.386277</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.855758</v>
+        <v>0.871987</v>
       </c>
       <c r="C84" t="n">
-        <v>0.643873</v>
+        <v>0.643317</v>
       </c>
       <c r="D84" t="n">
-        <v>0.40679</v>
+        <v>0.407734</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.908857</v>
+        <v>0.909919</v>
       </c>
       <c r="C85" t="n">
-        <v>0.688778</v>
+        <v>0.683566</v>
       </c>
       <c r="D85" t="n">
-        <v>0.432678</v>
+        <v>0.428198</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.966979</v>
+        <v>0.969181</v>
       </c>
       <c r="C86" t="n">
-        <v>0.73324</v>
+        <v>0.7277400000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.460094</v>
+        <v>0.453744</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02896</v>
+        <v>1.03512</v>
       </c>
       <c r="C87" t="n">
-        <v>0.784701</v>
+        <v>0.78215</v>
       </c>
       <c r="D87" t="n">
-        <v>0.482165</v>
+        <v>0.482538</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.09819</v>
+        <v>1.102</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8347329999999999</v>
+        <v>0.832236</v>
       </c>
       <c r="D88" t="n">
-        <v>0.50815</v>
+        <v>0.510054</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.16726</v>
+        <v>1.17175</v>
       </c>
       <c r="C89" t="n">
-        <v>0.892299</v>
+        <v>0.887969</v>
       </c>
       <c r="D89" t="n">
-        <v>0.538527</v>
+        <v>0.539151</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.23931</v>
+        <v>1.24639</v>
       </c>
       <c r="C90" t="n">
-        <v>0.942892</v>
+        <v>0.940377</v>
       </c>
       <c r="D90" t="n">
-        <v>0.570171</v>
+        <v>0.57156</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.31965</v>
+        <v>1.32377</v>
       </c>
       <c r="C91" t="n">
-        <v>1.0022</v>
+        <v>1.00022</v>
       </c>
       <c r="D91" t="n">
-        <v>0.607423</v>
+        <v>0.60114</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.39941</v>
+        <v>1.40381</v>
       </c>
       <c r="C92" t="n">
-        <v>0.830967</v>
+        <v>0.850705</v>
       </c>
       <c r="D92" t="n">
-        <v>0.582359</v>
+        <v>0.608903</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.11002</v>
+        <v>1.1318</v>
       </c>
       <c r="C93" t="n">
-        <v>0.862306</v>
+        <v>0.8829900000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.604764</v>
+        <v>0.629837</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.15431</v>
+        <v>1.17782</v>
       </c>
       <c r="C94" t="n">
-        <v>0.900031</v>
+        <v>0.921726</v>
       </c>
       <c r="D94" t="n">
-        <v>0.628067</v>
+        <v>0.65347</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.19999</v>
+        <v>1.22343</v>
       </c>
       <c r="C95" t="n">
-        <v>0.934655</v>
+        <v>0.955558</v>
       </c>
       <c r="D95" t="n">
-        <v>0.653604</v>
+        <v>0.676498</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.25414</v>
+        <v>1.27718</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9738520000000001</v>
+        <v>0.996014</v>
       </c>
       <c r="D96" t="n">
-        <v>0.68186</v>
+        <v>0.701808</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.30292</v>
+        <v>1.3278</v>
       </c>
       <c r="C97" t="n">
-        <v>1.01422</v>
+        <v>1.03387</v>
       </c>
       <c r="D97" t="n">
-        <v>0.70187</v>
+        <v>0.72588</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.37372</v>
+        <v>1.38268</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05744</v>
+        <v>1.07501</v>
       </c>
       <c r="D98" t="n">
-        <v>0.731311</v>
+        <v>0.752134</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.41268</v>
+        <v>1.43708</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09942</v>
+        <v>1.1194</v>
       </c>
       <c r="D99" t="n">
-        <v>0.760985</v>
+        <v>0.779556</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.45845</v>
+        <v>1.49359</v>
       </c>
       <c r="C100" t="n">
-        <v>1.14672</v>
+        <v>1.16585</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7857189999999999</v>
+        <v>0.80727</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.52666</v>
+        <v>1.55817</v>
       </c>
       <c r="C101" t="n">
-        <v>1.19376</v>
+        <v>1.21232</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8135829999999999</v>
+        <v>0.836017</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.59401</v>
+        <v>1.61867</v>
       </c>
       <c r="C102" t="n">
-        <v>1.24548</v>
+        <v>1.26267</v>
       </c>
       <c r="D102" t="n">
-        <v>0.863945</v>
+        <v>0.864989</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.66473</v>
+        <v>1.68317</v>
       </c>
       <c r="C103" t="n">
-        <v>1.29572</v>
+        <v>1.31562</v>
       </c>
       <c r="D103" t="n">
-        <v>0.876424</v>
+        <v>0.897307</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.68052</v>
+        <v>1.76417</v>
       </c>
       <c r="C104" t="n">
-        <v>1.35124</v>
+        <v>1.36488</v>
       </c>
       <c r="D104" t="n">
-        <v>0.907385</v>
+        <v>0.931132</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.75706</v>
+        <v>1.80258</v>
       </c>
       <c r="C105" t="n">
-        <v>1.40847</v>
+        <v>1.42052</v>
       </c>
       <c r="D105" t="n">
-        <v>0.94382</v>
+        <v>0.965112</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.82763</v>
+        <v>1.88366</v>
       </c>
       <c r="C106" t="n">
-        <v>1.46178</v>
+        <v>1.47134</v>
       </c>
       <c r="D106" t="n">
-        <v>0.972703</v>
+        <v>0.999854</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.35036</v>
+        <v>1.38839</v>
       </c>
       <c r="C107" t="n">
-        <v>1.13932</v>
+        <v>1.10534</v>
       </c>
       <c r="D107" t="n">
-        <v>0.92218</v>
+        <v>0.896713</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.39196</v>
+        <v>1.42488</v>
       </c>
       <c r="C108" t="n">
-        <v>1.1519</v>
+        <v>1.16666</v>
       </c>
       <c r="D108" t="n">
-        <v>0.91974</v>
+        <v>0.941187</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.42083</v>
+        <v>1.43966</v>
       </c>
       <c r="C109" t="n">
-        <v>1.18642</v>
+        <v>1.19337</v>
       </c>
       <c r="D109" t="n">
-        <v>0.938805</v>
+        <v>0.962653</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.48479</v>
+        <v>1.49069</v>
       </c>
       <c r="C110" t="n">
-        <v>1.23725</v>
+        <v>1.23001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.983606</v>
+        <v>0.989074</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.514</v>
+        <v>1.52778</v>
       </c>
       <c r="C111" t="n">
-        <v>1.25448</v>
+        <v>1.23579</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9864889999999999</v>
+        <v>1.01384</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.57091</v>
+        <v>1.58893</v>
       </c>
       <c r="C112" t="n">
-        <v>1.29666</v>
+        <v>1.27409</v>
       </c>
       <c r="D112" t="n">
-        <v>1.03772</v>
+        <v>1.04018</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.63575</v>
+        <v>1.64308</v>
       </c>
       <c r="C113" t="n">
-        <v>1.3519</v>
+        <v>1.30954</v>
       </c>
       <c r="D113" t="n">
-        <v>1.06242</v>
+        <v>1.06584</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.69457</v>
+        <v>1.70284</v>
       </c>
       <c r="C114" t="n">
-        <v>1.39026</v>
+        <v>1.39337</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08957</v>
+        <v>1.09301</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.75294</v>
+        <v>1.75771</v>
       </c>
       <c r="C115" t="n">
-        <v>1.43587</v>
+        <v>1.39895</v>
       </c>
       <c r="D115" t="n">
-        <v>1.1214</v>
+        <v>1.12231</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.81507</v>
+        <v>1.8229</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48681</v>
+        <v>1.44096</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14971</v>
+        <v>1.14981</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.88137</v>
+        <v>1.88885</v>
       </c>
       <c r="C117" t="n">
-        <v>1.5165</v>
+        <v>1.49085</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1752</v>
+        <v>1.18269</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.95335</v>
+        <v>1.95757</v>
       </c>
       <c r="C118" t="n">
-        <v>1.56409</v>
+        <v>1.54518</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21129</v>
+        <v>1.21578</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.02421</v>
+        <v>2.02976</v>
       </c>
       <c r="C119" t="n">
-        <v>1.62881</v>
+        <v>1.59739</v>
       </c>
       <c r="D119" t="n">
-        <v>1.24509</v>
+        <v>1.2514</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.634857</v>
+        <v>0.64118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.422975</v>
+        <v>0.434428</v>
       </c>
       <c r="D2" t="n">
-        <v>0.306629</v>
+        <v>0.309871</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.662934</v>
+        <v>0.668171</v>
       </c>
       <c r="C3" t="n">
-        <v>0.435714</v>
+        <v>0.457697</v>
       </c>
       <c r="D3" t="n">
-        <v>0.315872</v>
+        <v>0.319312</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.687853</v>
+        <v>0.697126</v>
       </c>
       <c r="C4" t="n">
-        <v>0.459829</v>
+        <v>0.479441</v>
       </c>
       <c r="D4" t="n">
-        <v>0.324502</v>
+        <v>0.32849</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.710283</v>
+        <v>0.720685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.477839</v>
+        <v>0.494708</v>
       </c>
       <c r="D5" t="n">
-        <v>0.334853</v>
+        <v>0.33987</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.737662</v>
+        <v>0.7457859999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.51229</v>
+        <v>0.526886</v>
       </c>
       <c r="D6" t="n">
-        <v>0.346468</v>
+        <v>0.350038</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.782581</v>
+        <v>0.784355</v>
       </c>
       <c r="C7" t="n">
-        <v>0.535054</v>
+        <v>0.543353</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359854</v>
+        <v>0.359814</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.802082</v>
+        <v>0.813603</v>
       </c>
       <c r="C8" t="n">
-        <v>0.562441</v>
+        <v>0.566416</v>
       </c>
       <c r="D8" t="n">
-        <v>0.366234</v>
+        <v>0.36989</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.84276</v>
+        <v>0.846832</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5853120000000001</v>
+        <v>0.595039</v>
       </c>
       <c r="D9" t="n">
-        <v>0.382921</v>
+        <v>0.380831</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.881319</v>
+        <v>0.887065</v>
       </c>
       <c r="C10" t="n">
-        <v>0.612905</v>
+        <v>0.621941</v>
       </c>
       <c r="D10" t="n">
-        <v>0.387762</v>
+        <v>0.392123</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.905213</v>
+        <v>0.91836</v>
       </c>
       <c r="C11" t="n">
-        <v>0.423735</v>
+        <v>0.424879</v>
       </c>
       <c r="D11" t="n">
-        <v>0.285583</v>
+        <v>0.291452</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5940029999999999</v>
+        <v>0.60203</v>
       </c>
       <c r="C12" t="n">
-        <v>0.435131</v>
+        <v>0.447468</v>
       </c>
       <c r="D12" t="n">
-        <v>0.297756</v>
+        <v>0.301608</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.605948</v>
+        <v>0.621691</v>
       </c>
       <c r="C13" t="n">
-        <v>0.453982</v>
+        <v>0.468264</v>
       </c>
       <c r="D13" t="n">
-        <v>0.306969</v>
+        <v>0.311238</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.637837</v>
+        <v>0.657102</v>
       </c>
       <c r="C14" t="n">
-        <v>0.472032</v>
+        <v>0.494923</v>
       </c>
       <c r="D14" t="n">
-        <v>0.315118</v>
+        <v>0.324147</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.658845</v>
+        <v>0.685628</v>
       </c>
       <c r="C15" t="n">
-        <v>0.507897</v>
+        <v>0.525386</v>
       </c>
       <c r="D15" t="n">
-        <v>0.33035</v>
+        <v>0.337908</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.696734</v>
+        <v>0.721426</v>
       </c>
       <c r="C16" t="n">
-        <v>0.534706</v>
+        <v>0.553904</v>
       </c>
       <c r="D16" t="n">
-        <v>0.344442</v>
+        <v>0.35059</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7312920000000001</v>
+        <v>0.7604959999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.563367</v>
+        <v>0.584036</v>
       </c>
       <c r="D17" t="n">
-        <v>0.353914</v>
+        <v>0.367417</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.773487</v>
+        <v>0.798897</v>
       </c>
       <c r="C18" t="n">
-        <v>0.596583</v>
+        <v>0.617102</v>
       </c>
       <c r="D18" t="n">
-        <v>0.371693</v>
+        <v>0.380288</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.806566</v>
+        <v>0.8361189999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.624856</v>
+        <v>0.650574</v>
       </c>
       <c r="D19" t="n">
-        <v>0.380441</v>
+        <v>0.391786</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.847985</v>
+        <v>0.879674</v>
       </c>
       <c r="C20" t="n">
-        <v>0.657604</v>
+        <v>0.684461</v>
       </c>
       <c r="D20" t="n">
-        <v>0.394771</v>
+        <v>0.411329</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.886193</v>
+        <v>0.919621</v>
       </c>
       <c r="C21" t="n">
-        <v>0.692932</v>
+        <v>0.717937</v>
       </c>
       <c r="D21" t="n">
-        <v>0.407208</v>
+        <v>0.422999</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.925919</v>
+        <v>0.961492</v>
       </c>
       <c r="C22" t="n">
-        <v>0.726401</v>
+        <v>0.7479980000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.421568</v>
+        <v>0.435418</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9693040000000001</v>
+        <v>0.997482</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7686539999999999</v>
+        <v>0.787643</v>
       </c>
       <c r="D23" t="n">
-        <v>0.437545</v>
+        <v>0.451225</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.02114</v>
+        <v>1.04238</v>
       </c>
       <c r="C24" t="n">
-        <v>0.799319</v>
+        <v>0.819862</v>
       </c>
       <c r="D24" t="n">
-        <v>0.455331</v>
+        <v>0.468639</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.06973</v>
+        <v>1.0908</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8444700000000001</v>
+        <v>0.856081</v>
       </c>
       <c r="D25" t="n">
-        <v>0.475349</v>
+        <v>0.485793</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.1078</v>
+        <v>1.13081</v>
       </c>
       <c r="C26" t="n">
-        <v>0.547551</v>
+        <v>0.546388</v>
       </c>
       <c r="D26" t="n">
-        <v>0.342588</v>
+        <v>0.342311</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.728212</v>
+        <v>0.728583</v>
       </c>
       <c r="C27" t="n">
-        <v>0.575833</v>
+        <v>0.570344</v>
       </c>
       <c r="D27" t="n">
-        <v>0.354154</v>
+        <v>0.354303</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.76476</v>
+        <v>0.760077</v>
       </c>
       <c r="C28" t="n">
-        <v>0.606874</v>
+        <v>0.601096</v>
       </c>
       <c r="D28" t="n">
-        <v>0.369194</v>
+        <v>0.367469</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.797697</v>
+        <v>0.803217</v>
       </c>
       <c r="C29" t="n">
-        <v>0.637124</v>
+        <v>0.631686</v>
       </c>
       <c r="D29" t="n">
-        <v>0.383698</v>
+        <v>0.378008</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.833942</v>
+        <v>0.840388</v>
       </c>
       <c r="C30" t="n">
-        <v>0.67143</v>
+        <v>0.665925</v>
       </c>
       <c r="D30" t="n">
-        <v>0.395151</v>
+        <v>0.401093</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.874879</v>
+        <v>0.871823</v>
       </c>
       <c r="C31" t="n">
-        <v>0.701369</v>
+        <v>0.695588</v>
       </c>
       <c r="D31" t="n">
-        <v>0.411561</v>
+        <v>0.408946</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9076689999999999</v>
+        <v>0.917203</v>
       </c>
       <c r="C32" t="n">
-        <v>0.738047</v>
+        <v>0.731909</v>
       </c>
       <c r="D32" t="n">
-        <v>0.426963</v>
+        <v>0.429849</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.956745</v>
+        <v>0.95201</v>
       </c>
       <c r="C33" t="n">
-        <v>0.770699</v>
+        <v>0.764903</v>
       </c>
       <c r="D33" t="n">
-        <v>0.437091</v>
+        <v>0.444072</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.992922</v>
+        <v>0.993541</v>
       </c>
       <c r="C34" t="n">
-        <v>0.807953</v>
+        <v>0.800535</v>
       </c>
       <c r="D34" t="n">
-        <v>0.454912</v>
+        <v>0.457631</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.03882</v>
+        <v>1.04895</v>
       </c>
       <c r="C35" t="n">
-        <v>0.840096</v>
+        <v>0.830191</v>
       </c>
       <c r="D35" t="n">
-        <v>0.467251</v>
+        <v>0.470417</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.08751</v>
+        <v>1.08504</v>
       </c>
       <c r="C36" t="n">
-        <v>0.870175</v>
+        <v>0.862975</v>
       </c>
       <c r="D36" t="n">
-        <v>0.480436</v>
+        <v>0.483349</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.12611</v>
+        <v>1.12856</v>
       </c>
       <c r="C37" t="n">
-        <v>0.909909</v>
+        <v>0.904842</v>
       </c>
       <c r="D37" t="n">
-        <v>0.49381</v>
+        <v>0.500045</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.17317</v>
+        <v>1.18029</v>
       </c>
       <c r="C38" t="n">
-        <v>0.949204</v>
+        <v>0.948675</v>
       </c>
       <c r="D38" t="n">
-        <v>0.519388</v>
+        <v>0.514466</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.22596</v>
+        <v>1.22888</v>
       </c>
       <c r="C39" t="n">
-        <v>0.981847</v>
+        <v>0.981613</v>
       </c>
       <c r="D39" t="n">
-        <v>0.532436</v>
+        <v>0.534913</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.26841</v>
+        <v>1.2791</v>
       </c>
       <c r="C40" t="n">
-        <v>0.61713</v>
+        <v>0.6116</v>
       </c>
       <c r="D40" t="n">
-        <v>0.398001</v>
+        <v>0.398404</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8052280000000001</v>
+        <v>0.807802</v>
       </c>
       <c r="C41" t="n">
-        <v>0.639884</v>
+        <v>0.635953</v>
       </c>
       <c r="D41" t="n">
-        <v>0.410155</v>
+        <v>0.407239</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.84165</v>
+        <v>0.843858</v>
       </c>
       <c r="C42" t="n">
-        <v>0.669525</v>
+        <v>0.664055</v>
       </c>
       <c r="D42" t="n">
-        <v>0.423985</v>
+        <v>0.423401</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.873407</v>
+        <v>0.8759439999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.698888</v>
+        <v>0.694451</v>
       </c>
       <c r="D43" t="n">
-        <v>0.438165</v>
+        <v>0.438682</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.916199</v>
+        <v>0.918134</v>
       </c>
       <c r="C44" t="n">
-        <v>0.730527</v>
+        <v>0.725884</v>
       </c>
       <c r="D44" t="n">
-        <v>0.452345</v>
+        <v>0.453682</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.950979</v>
+        <v>0.9553779999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7631790000000001</v>
+        <v>0.760572</v>
       </c>
       <c r="D45" t="n">
-        <v>0.469125</v>
+        <v>0.465414</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.994328</v>
+        <v>0.997659</v>
       </c>
       <c r="C46" t="n">
-        <v>0.798526</v>
+        <v>0.794752</v>
       </c>
       <c r="D46" t="n">
-        <v>0.487877</v>
+        <v>0.486671</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.03698</v>
+        <v>1.04293</v>
       </c>
       <c r="C47" t="n">
-        <v>0.833098</v>
+        <v>0.827638</v>
       </c>
       <c r="D47" t="n">
-        <v>0.500807</v>
+        <v>0.501043</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.07918</v>
+        <v>1.08469</v>
       </c>
       <c r="C48" t="n">
-        <v>0.868263</v>
+        <v>0.862473</v>
       </c>
       <c r="D48" t="n">
-        <v>0.516313</v>
+        <v>0.518557</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.12479</v>
+        <v>1.12742</v>
       </c>
       <c r="C49" t="n">
-        <v>0.902494</v>
+        <v>0.8985649999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.526115</v>
+        <v>0.534508</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.16836</v>
+        <v>1.17579</v>
       </c>
       <c r="C50" t="n">
-        <v>0.942925</v>
+        <v>0.939115</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5430779999999999</v>
+        <v>0.550748</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.2124</v>
+        <v>1.22046</v>
       </c>
       <c r="C51" t="n">
-        <v>0.977669</v>
+        <v>0.975185</v>
       </c>
       <c r="D51" t="n">
-        <v>0.567561</v>
+        <v>0.570906</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.2558</v>
+        <v>1.26569</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0164</v>
+        <v>1.01521</v>
       </c>
       <c r="D52" t="n">
-        <v>0.582932</v>
+        <v>0.58619</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.30791</v>
+        <v>1.31124</v>
       </c>
       <c r="C53" t="n">
-        <v>1.05508</v>
+        <v>1.05453</v>
       </c>
       <c r="D53" t="n">
-        <v>0.601569</v>
+        <v>0.606722</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.35369</v>
+        <v>1.35738</v>
       </c>
       <c r="C54" t="n">
-        <v>0.648949</v>
+        <v>0.644643</v>
       </c>
       <c r="D54" t="n">
-        <v>0.428628</v>
+        <v>0.432169</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.840419</v>
+        <v>0.843709</v>
       </c>
       <c r="C55" t="n">
-        <v>0.672844</v>
+        <v>0.669335</v>
       </c>
       <c r="D55" t="n">
-        <v>0.444938</v>
+        <v>0.442901</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.874075</v>
+        <v>0.877325</v>
       </c>
       <c r="C56" t="n">
-        <v>0.700195</v>
+        <v>0.6972</v>
       </c>
       <c r="D56" t="n">
-        <v>0.457485</v>
+        <v>0.457745</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.909992</v>
+        <v>0.914452</v>
       </c>
       <c r="C57" t="n">
-        <v>0.730036</v>
+        <v>0.724789</v>
       </c>
       <c r="D57" t="n">
-        <v>0.470977</v>
+        <v>0.472376</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.94559</v>
+        <v>0.949779</v>
       </c>
       <c r="C58" t="n">
-        <v>0.762812</v>
+        <v>0.757107</v>
       </c>
       <c r="D58" t="n">
-        <v>0.488139</v>
+        <v>0.48835</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.985136</v>
+        <v>0.989722</v>
       </c>
       <c r="C59" t="n">
-        <v>0.794939</v>
+        <v>0.791022</v>
       </c>
       <c r="D59" t="n">
-        <v>0.503958</v>
+        <v>0.504973</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.02312</v>
+        <v>1.03079</v>
       </c>
       <c r="C60" t="n">
-        <v>0.828267</v>
+        <v>0.82375</v>
       </c>
       <c r="D60" t="n">
-        <v>0.518976</v>
+        <v>0.5222869999999999</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.06624</v>
+        <v>1.07112</v>
       </c>
       <c r="C61" t="n">
-        <v>0.864335</v>
+        <v>0.860337</v>
       </c>
       <c r="D61" t="n">
-        <v>0.535878</v>
+        <v>0.537294</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.10735</v>
+        <v>1.1144</v>
       </c>
       <c r="C62" t="n">
-        <v>0.903464</v>
+        <v>0.898124</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5511160000000001</v>
+        <v>0.5542820000000001</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15269</v>
+        <v>1.15715</v>
       </c>
       <c r="C63" t="n">
-        <v>0.938599</v>
+        <v>0.9337</v>
       </c>
       <c r="D63" t="n">
-        <v>0.56962</v>
+        <v>0.571851</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.20187</v>
+        <v>1.20665</v>
       </c>
       <c r="C64" t="n">
-        <v>0.974239</v>
+        <v>0.972437</v>
       </c>
       <c r="D64" t="n">
-        <v>0.583562</v>
+        <v>0.587255</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.24755</v>
+        <v>1.25222</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00945</v>
+        <v>1.01191</v>
       </c>
       <c r="D65" t="n">
-        <v>0.599587</v>
+        <v>0.605008</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.29008</v>
+        <v>1.29647</v>
       </c>
       <c r="C66" t="n">
-        <v>1.05123</v>
+        <v>1.05144</v>
       </c>
       <c r="D66" t="n">
-        <v>0.618485</v>
+        <v>0.622495</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.33884</v>
+        <v>1.34441</v>
       </c>
       <c r="C67" t="n">
-        <v>1.08736</v>
+        <v>1.09131</v>
       </c>
       <c r="D67" t="n">
-        <v>0.634201</v>
+        <v>0.640939</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.38947</v>
+        <v>1.39895</v>
       </c>
       <c r="C68" t="n">
-        <v>0.66861</v>
+        <v>0.663358</v>
       </c>
       <c r="D68" t="n">
-        <v>0.455881</v>
+        <v>0.455482</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.883287</v>
+        <v>0.889033</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7049299999999999</v>
+        <v>0.702116</v>
       </c>
       <c r="D69" t="n">
-        <v>0.468086</v>
+        <v>0.471659</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.934617</v>
+        <v>0.94314</v>
       </c>
       <c r="C70" t="n">
-        <v>0.745899</v>
+        <v>0.747923</v>
       </c>
       <c r="D70" t="n">
-        <v>0.489634</v>
+        <v>0.491394</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.990168</v>
+        <v>0.9964229999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.788995</v>
+        <v>0.7923210000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.511391</v>
+        <v>0.512786</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.04965</v>
+        <v>1.05461</v>
       </c>
       <c r="C72" t="n">
-        <v>0.837433</v>
+        <v>0.83791</v>
       </c>
       <c r="D72" t="n">
-        <v>0.532963</v>
+        <v>0.535223</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.1004</v>
+        <v>1.11486</v>
       </c>
       <c r="C73" t="n">
-        <v>0.880226</v>
+        <v>0.8879899999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.548544</v>
+        <v>0.554639</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.16208</v>
+        <v>1.18495</v>
       </c>
       <c r="C74" t="n">
-        <v>0.932378</v>
+        <v>0.945577</v>
       </c>
       <c r="D74" t="n">
-        <v>0.568273</v>
+        <v>0.577829</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.23697</v>
+        <v>1.26423</v>
       </c>
       <c r="C75" t="n">
-        <v>0.99288</v>
+        <v>1.00984</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6001300000000001</v>
+        <v>0.604212</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.30664</v>
+        <v>1.35555</v>
       </c>
       <c r="C76" t="n">
-        <v>1.05255</v>
+        <v>1.08177</v>
       </c>
       <c r="D76" t="n">
-        <v>0.615741</v>
+        <v>0.629354</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.40704</v>
+        <v>1.46728</v>
       </c>
       <c r="C77" t="n">
-        <v>1.12312</v>
+        <v>1.17606</v>
       </c>
       <c r="D77" t="n">
-        <v>0.645993</v>
+        <v>0.661091</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.51301</v>
+        <v>1.60098</v>
       </c>
       <c r="C78" t="n">
-        <v>1.21539</v>
+        <v>1.28526</v>
       </c>
       <c r="D78" t="n">
-        <v>0.670942</v>
+        <v>0.690795</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.6466</v>
+        <v>1.72577</v>
       </c>
       <c r="C79" t="n">
-        <v>1.31982</v>
+        <v>1.38933</v>
       </c>
       <c r="D79" t="n">
-        <v>0.705999</v>
+        <v>0.7381720000000001</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.78672</v>
+        <v>1.87528</v>
       </c>
       <c r="C80" t="n">
-        <v>1.43386</v>
+        <v>1.51205</v>
       </c>
       <c r="D80" t="n">
-        <v>0.740837</v>
+        <v>0.772174</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.94349</v>
+        <v>2.04549</v>
       </c>
       <c r="C81" t="n">
-        <v>1.57862</v>
+        <v>1.66589</v>
       </c>
       <c r="D81" t="n">
-        <v>0.770416</v>
+        <v>0.82097</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.1408</v>
+        <v>2.264</v>
       </c>
       <c r="C82" t="n">
-        <v>1.73273</v>
+        <v>1.84334</v>
       </c>
       <c r="D82" t="n">
-        <v>0.842334</v>
+        <v>0.881266</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.38364</v>
+        <v>2.5051</v>
       </c>
       <c r="C83" t="n">
-        <v>1.15348</v>
+        <v>1.20121</v>
       </c>
       <c r="D83" t="n">
-        <v>0.61149</v>
+        <v>0.651854</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.62374</v>
+        <v>1.68054</v>
       </c>
       <c r="C84" t="n">
-        <v>1.28279</v>
+        <v>1.3316</v>
       </c>
       <c r="D84" t="n">
-        <v>0.651998</v>
+        <v>0.6873010000000001</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.80191</v>
+        <v>1.84005</v>
       </c>
       <c r="C85" t="n">
-        <v>1.42395</v>
+        <v>1.4702</v>
       </c>
       <c r="D85" t="n">
-        <v>0.701443</v>
+        <v>0.743931</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.99465</v>
+        <v>2.04375</v>
       </c>
       <c r="C86" t="n">
-        <v>1.58682</v>
+        <v>1.62436</v>
       </c>
       <c r="D86" t="n">
-        <v>0.759033</v>
+        <v>0.803056</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.20627</v>
+        <v>2.24779</v>
       </c>
       <c r="C87" t="n">
-        <v>1.75588</v>
+        <v>1.79953</v>
       </c>
       <c r="D87" t="n">
-        <v>0.822889</v>
+        <v>0.86705</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.43397</v>
+        <v>2.48633</v>
       </c>
       <c r="C88" t="n">
-        <v>1.93753</v>
+        <v>1.99065</v>
       </c>
       <c r="D88" t="n">
-        <v>0.902876</v>
+        <v>0.945565</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.66898</v>
+        <v>2.71625</v>
       </c>
       <c r="C89" t="n">
-        <v>2.14234</v>
+        <v>2.18587</v>
       </c>
       <c r="D89" t="n">
-        <v>0.977537</v>
+        <v>1.02982</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.92716</v>
+        <v>2.96793</v>
       </c>
       <c r="C90" t="n">
-        <v>2.34484</v>
+        <v>2.38595</v>
       </c>
       <c r="D90" t="n">
-        <v>1.06459</v>
+        <v>1.09821</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.20194</v>
+        <v>3.23632</v>
       </c>
       <c r="C91" t="n">
-        <v>2.57076</v>
+        <v>2.61227</v>
       </c>
       <c r="D91" t="n">
-        <v>1.15486</v>
+        <v>1.19661</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.50188</v>
+        <v>3.53789</v>
       </c>
       <c r="C92" t="n">
-        <v>2.80814</v>
+        <v>2.85246</v>
       </c>
       <c r="D92" t="n">
-        <v>1.24232</v>
+        <v>1.28283</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.8072</v>
+        <v>3.83899</v>
       </c>
       <c r="C93" t="n">
-        <v>3.0469</v>
+        <v>3.10502</v>
       </c>
       <c r="D93" t="n">
-        <v>1.33346</v>
+        <v>1.37223</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.10347</v>
+        <v>4.15235</v>
       </c>
       <c r="C94" t="n">
-        <v>3.30344</v>
+        <v>3.36946</v>
       </c>
       <c r="D94" t="n">
-        <v>1.42129</v>
+        <v>1.47094</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.43968</v>
+        <v>4.48854</v>
       </c>
       <c r="C95" t="n">
-        <v>3.58549</v>
+        <v>3.64337</v>
       </c>
       <c r="D95" t="n">
-        <v>1.54358</v>
+        <v>1.58057</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.80115</v>
+        <v>4.84219</v>
       </c>
       <c r="C96" t="n">
-        <v>3.87725</v>
+        <v>3.95465</v>
       </c>
       <c r="D96" t="n">
-        <v>1.66133</v>
+        <v>1.70788</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.14875</v>
+        <v>5.19793</v>
       </c>
       <c r="C97" t="n">
-        <v>2.31702</v>
+        <v>2.3399</v>
       </c>
       <c r="D97" t="n">
-        <v>1.16375</v>
+        <v>1.17325</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.16495</v>
+        <v>3.19459</v>
       </c>
       <c r="C98" t="n">
-        <v>2.48466</v>
+        <v>2.50224</v>
       </c>
       <c r="D98" t="n">
-        <v>1.23208</v>
+        <v>1.25353</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.36875</v>
+        <v>3.40997</v>
       </c>
       <c r="C99" t="n">
-        <v>2.64862</v>
+        <v>2.67642</v>
       </c>
       <c r="D99" t="n">
-        <v>1.32517</v>
+        <v>1.32853</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.60289</v>
+        <v>3.64161</v>
       </c>
       <c r="C100" t="n">
-        <v>2.8321</v>
+        <v>2.85765</v>
       </c>
       <c r="D100" t="n">
-        <v>1.40297</v>
+        <v>1.41156</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.7934</v>
+        <v>3.88838</v>
       </c>
       <c r="C101" t="n">
-        <v>3.01641</v>
+        <v>3.03848</v>
       </c>
       <c r="D101" t="n">
-        <v>1.4536</v>
+        <v>1.49488</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.00256</v>
+        <v>4.06516</v>
       </c>
       <c r="C102" t="n">
-        <v>3.22337</v>
+        <v>3.22858</v>
       </c>
       <c r="D102" t="n">
-        <v>1.55839</v>
+        <v>1.57748</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.27191</v>
+        <v>4.3032</v>
       </c>
       <c r="C103" t="n">
-        <v>3.43177</v>
+        <v>3.44258</v>
       </c>
       <c r="D103" t="n">
-        <v>1.63944</v>
+        <v>1.66005</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.47161</v>
+        <v>4.52063</v>
       </c>
       <c r="C104" t="n">
-        <v>3.63797</v>
+        <v>3.59647</v>
       </c>
       <c r="D104" t="n">
-        <v>1.7415</v>
+        <v>1.76254</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.76794</v>
+        <v>4.80112</v>
       </c>
       <c r="C105" t="n">
-        <v>3.84146</v>
+        <v>3.81316</v>
       </c>
       <c r="D105" t="n">
-        <v>1.81229</v>
+        <v>1.8557</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.05222</v>
+        <v>5.07598</v>
       </c>
       <c r="C106" t="n">
-        <v>4.05406</v>
+        <v>4.03669</v>
       </c>
       <c r="D106" t="n">
-        <v>1.92671</v>
+        <v>1.94716</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.35528</v>
+        <v>5.39135</v>
       </c>
       <c r="C107" t="n">
-        <v>4.24502</v>
+        <v>4.28778</v>
       </c>
       <c r="D107" t="n">
-        <v>2.01903</v>
+        <v>2.04933</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.68094</v>
+        <v>5.69772</v>
       </c>
       <c r="C108" t="n">
-        <v>4.49008</v>
+        <v>4.5715</v>
       </c>
       <c r="D108" t="n">
-        <v>2.12559</v>
+        <v>2.15907</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.0278</v>
+        <v>6.0482</v>
       </c>
       <c r="C109" t="n">
-        <v>4.76761</v>
+        <v>4.86293</v>
       </c>
       <c r="D109" t="n">
-        <v>2.23496</v>
+        <v>2.27112</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.36424</v>
+        <v>6.39618</v>
       </c>
       <c r="C110" t="n">
-        <v>5.07974</v>
+        <v>5.15306</v>
       </c>
       <c r="D110" t="n">
-        <v>2.34898</v>
+        <v>2.38675</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.71334</v>
+        <v>6.75089</v>
       </c>
       <c r="C111" t="n">
-        <v>2.90662</v>
+        <v>2.93354</v>
       </c>
       <c r="D111" t="n">
-        <v>1.6357</v>
+        <v>1.66597</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.97588</v>
+        <v>3.99306</v>
       </c>
       <c r="C112" t="n">
-        <v>3.07522</v>
+        <v>3.09764</v>
       </c>
       <c r="D112" t="n">
-        <v>1.69195</v>
+        <v>1.73673</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.19104</v>
+        <v>4.2037</v>
       </c>
       <c r="C113" t="n">
-        <v>3.23924</v>
+        <v>3.26378</v>
       </c>
       <c r="D113" t="n">
-        <v>1.77604</v>
+        <v>1.81499</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.41254</v>
+        <v>4.43179</v>
       </c>
       <c r="C114" t="n">
-        <v>3.41884</v>
+        <v>3.45469</v>
       </c>
       <c r="D114" t="n">
-        <v>1.86319</v>
+        <v>1.90412</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.64907</v>
+        <v>4.66277</v>
       </c>
       <c r="C115" t="n">
-        <v>3.60463</v>
+        <v>3.64161</v>
       </c>
       <c r="D115" t="n">
-        <v>1.93262</v>
+        <v>1.9878</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.90067</v>
+        <v>4.91217</v>
       </c>
       <c r="C116" t="n">
-        <v>3.80905</v>
+        <v>3.85302</v>
       </c>
       <c r="D116" t="n">
-        <v>2.02117</v>
+        <v>2.08255</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.15683</v>
+        <v>5.18272</v>
       </c>
       <c r="C117" t="n">
-        <v>4.01693</v>
+        <v>4.0743</v>
       </c>
       <c r="D117" t="n">
-        <v>2.13662</v>
+        <v>2.17002</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.44177</v>
+        <v>5.46506</v>
       </c>
       <c r="C118" t="n">
-        <v>4.24783</v>
+        <v>4.30861</v>
       </c>
       <c r="D118" t="n">
-        <v>2.24234</v>
+        <v>2.26271</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.73973</v>
+        <v>5.75768</v>
       </c>
       <c r="C119" t="n">
-        <v>4.49347</v>
+        <v>4.56536</v>
       </c>
       <c r="D119" t="n">
-        <v>2.3187</v>
+        <v>2.36567</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.400266</v>
+        <v>0.392721</v>
       </c>
       <c r="C2" t="n">
-        <v>0.294721</v>
+        <v>0.310685</v>
       </c>
       <c r="D2" t="n">
-        <v>0.318763</v>
+        <v>0.313569</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4164</v>
+        <v>0.405459</v>
       </c>
       <c r="C3" t="n">
-        <v>0.299915</v>
+        <v>0.313345</v>
       </c>
       <c r="D3" t="n">
-        <v>0.324557</v>
+        <v>0.318194</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.42573</v>
+        <v>0.416475</v>
       </c>
       <c r="C4" t="n">
-        <v>0.30544</v>
+        <v>0.32004</v>
       </c>
       <c r="D4" t="n">
-        <v>0.330498</v>
+        <v>0.322621</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.437688</v>
+        <v>0.427786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.312599</v>
+        <v>0.325689</v>
       </c>
       <c r="D5" t="n">
-        <v>0.339732</v>
+        <v>0.329619</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.453765</v>
+        <v>0.437848</v>
       </c>
       <c r="C6" t="n">
-        <v>0.318033</v>
+        <v>0.330087</v>
       </c>
       <c r="D6" t="n">
-        <v>0.347214</v>
+        <v>0.33499</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.464622</v>
+        <v>0.45016</v>
       </c>
       <c r="C7" t="n">
-        <v>0.250668</v>
+        <v>0.273506</v>
       </c>
       <c r="D7" t="n">
-        <v>0.281728</v>
+        <v>0.287516</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.338455</v>
+        <v>0.345185</v>
       </c>
       <c r="C8" t="n">
-        <v>0.259129</v>
+        <v>0.281141</v>
       </c>
       <c r="D8" t="n">
-        <v>0.289868</v>
+        <v>0.294802</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.350187</v>
+        <v>0.356668</v>
       </c>
       <c r="C9" t="n">
-        <v>0.264675</v>
+        <v>0.287762</v>
       </c>
       <c r="D9" t="n">
-        <v>0.296214</v>
+        <v>0.301245</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.361136</v>
+        <v>0.367571</v>
       </c>
       <c r="C10" t="n">
-        <v>0.274812</v>
+        <v>0.296634</v>
       </c>
       <c r="D10" t="n">
-        <v>0.306775</v>
+        <v>0.312479</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.374821</v>
+        <v>0.379525</v>
       </c>
       <c r="C11" t="n">
-        <v>0.283908</v>
+        <v>0.306513</v>
       </c>
       <c r="D11" t="n">
-        <v>0.316729</v>
+        <v>0.322152</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.393231</v>
+        <v>0.389262</v>
       </c>
       <c r="C12" t="n">
-        <v>0.29194</v>
+        <v>0.31631</v>
       </c>
       <c r="D12" t="n">
-        <v>0.324172</v>
+        <v>0.330492</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.405739</v>
+        <v>0.403347</v>
       </c>
       <c r="C13" t="n">
-        <v>0.30037</v>
+        <v>0.327043</v>
       </c>
       <c r="D13" t="n">
-        <v>0.333401</v>
+        <v>0.340857</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.408859</v>
+        <v>0.416541</v>
       </c>
       <c r="C14" t="n">
-        <v>0.306835</v>
+        <v>0.332917</v>
       </c>
       <c r="D14" t="n">
-        <v>0.34292</v>
+        <v>0.350523</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.420838</v>
+        <v>0.428503</v>
       </c>
       <c r="C15" t="n">
-        <v>0.313701</v>
+        <v>0.340537</v>
       </c>
       <c r="D15" t="n">
-        <v>0.350147</v>
+        <v>0.357077</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.434655</v>
+        <v>0.441239</v>
       </c>
       <c r="C16" t="n">
-        <v>0.321717</v>
+        <v>0.34965</v>
       </c>
       <c r="D16" t="n">
-        <v>0.360234</v>
+        <v>0.367671</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.449459</v>
+        <v>0.455446</v>
       </c>
       <c r="C17" t="n">
-        <v>0.327883</v>
+        <v>0.356147</v>
       </c>
       <c r="D17" t="n">
-        <v>0.367147</v>
+        <v>0.374506</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.460441</v>
+        <v>0.466948</v>
       </c>
       <c r="C18" t="n">
-        <v>0.334776</v>
+        <v>0.362323</v>
       </c>
       <c r="D18" t="n">
-        <v>0.375132</v>
+        <v>0.382735</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.473697</v>
+        <v>0.47979</v>
       </c>
       <c r="C19" t="n">
-        <v>0.340724</v>
+        <v>0.369728</v>
       </c>
       <c r="D19" t="n">
-        <v>0.383906</v>
+        <v>0.391354</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.486225</v>
+        <v>0.491619</v>
       </c>
       <c r="C20" t="n">
-        <v>0.347683</v>
+        <v>0.378912</v>
       </c>
       <c r="D20" t="n">
-        <v>0.402124</v>
+        <v>0.396817</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.498808</v>
+        <v>0.5044380000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.281025</v>
+        <v>0.299995</v>
       </c>
       <c r="D21" t="n">
-        <v>0.310575</v>
+        <v>0.313997</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.391194</v>
+        <v>0.392151</v>
       </c>
       <c r="C22" t="n">
-        <v>0.289391</v>
+        <v>0.309501</v>
       </c>
       <c r="D22" t="n">
-        <v>0.320255</v>
+        <v>0.323478</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.40292</v>
+        <v>0.403639</v>
       </c>
       <c r="C23" t="n">
-        <v>0.297028</v>
+        <v>0.318179</v>
       </c>
       <c r="D23" t="n">
-        <v>0.330488</v>
+        <v>0.333705</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.413132</v>
+        <v>0.413457</v>
       </c>
       <c r="C24" t="n">
-        <v>0.305875</v>
+        <v>0.327595</v>
       </c>
       <c r="D24" t="n">
-        <v>0.340025</v>
+        <v>0.342904</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.423986</v>
+        <v>0.424442</v>
       </c>
       <c r="C25" t="n">
-        <v>0.313986</v>
+        <v>0.336385</v>
       </c>
       <c r="D25" t="n">
-        <v>0.350145</v>
+        <v>0.353639</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.435695</v>
+        <v>0.436069</v>
       </c>
       <c r="C26" t="n">
-        <v>0.322621</v>
+        <v>0.345617</v>
       </c>
       <c r="D26" t="n">
-        <v>0.360994</v>
+        <v>0.364208</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.450234</v>
+        <v>0.449535</v>
       </c>
       <c r="C27" t="n">
-        <v>0.332074</v>
+        <v>0.353639</v>
       </c>
       <c r="D27" t="n">
-        <v>0.372211</v>
+        <v>0.375524</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.459823</v>
+        <v>0.460317</v>
       </c>
       <c r="C28" t="n">
-        <v>0.338771</v>
+        <v>0.36149</v>
       </c>
       <c r="D28" t="n">
-        <v>0.381572</v>
+        <v>0.385646</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.472694</v>
+        <v>0.473423</v>
       </c>
       <c r="C29" t="n">
-        <v>0.346082</v>
+        <v>0.369449</v>
       </c>
       <c r="D29" t="n">
-        <v>0.391772</v>
+        <v>0.395402</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.483586</v>
+        <v>0.483406</v>
       </c>
       <c r="C30" t="n">
-        <v>0.353927</v>
+        <v>0.377678</v>
       </c>
       <c r="D30" t="n">
-        <v>0.40088</v>
+        <v>0.405818</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.494811</v>
+        <v>0.494493</v>
       </c>
       <c r="C31" t="n">
-        <v>0.36052</v>
+        <v>0.384119</v>
       </c>
       <c r="D31" t="n">
-        <v>0.410413</v>
+        <v>0.414938</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.506413</v>
+        <v>0.506479</v>
       </c>
       <c r="C32" t="n">
-        <v>0.368996</v>
+        <v>0.392803</v>
       </c>
       <c r="D32" t="n">
-        <v>0.420107</v>
+        <v>0.424793</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.517502</v>
+        <v>0.518176</v>
       </c>
       <c r="C33" t="n">
-        <v>0.375981</v>
+        <v>0.399143</v>
       </c>
       <c r="D33" t="n">
-        <v>0.428296</v>
+        <v>0.432747</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.529107</v>
+        <v>0.52933</v>
       </c>
       <c r="C34" t="n">
-        <v>0.383183</v>
+        <v>0.407351</v>
       </c>
       <c r="D34" t="n">
-        <v>0.438068</v>
+        <v>0.442626</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.541006</v>
+        <v>0.540812</v>
       </c>
       <c r="C35" t="n">
-        <v>0.298699</v>
+        <v>0.318319</v>
       </c>
       <c r="D35" t="n">
-        <v>0.335843</v>
+        <v>0.335904</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.41147</v>
+        <v>0.412306</v>
       </c>
       <c r="C36" t="n">
-        <v>0.306396</v>
+        <v>0.32621</v>
       </c>
       <c r="D36" t="n">
-        <v>0.346432</v>
+        <v>0.345546</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.422751</v>
+        <v>0.422794</v>
       </c>
       <c r="C37" t="n">
-        <v>0.314155</v>
+        <v>0.334294</v>
       </c>
       <c r="D37" t="n">
-        <v>0.356336</v>
+        <v>0.355742</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.433135</v>
+        <v>0.433409</v>
       </c>
       <c r="C38" t="n">
-        <v>0.323645</v>
+        <v>0.343325</v>
       </c>
       <c r="D38" t="n">
-        <v>0.366311</v>
+        <v>0.36683</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.44423</v>
+        <v>0.443989</v>
       </c>
       <c r="C39" t="n">
-        <v>0.331226</v>
+        <v>0.351858</v>
       </c>
       <c r="D39" t="n">
-        <v>0.376497</v>
+        <v>0.377102</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.455145</v>
+        <v>0.455603</v>
       </c>
       <c r="C40" t="n">
-        <v>0.339741</v>
+        <v>0.361244</v>
       </c>
       <c r="D40" t="n">
-        <v>0.386962</v>
+        <v>0.387737</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.470142</v>
+        <v>0.470665</v>
       </c>
       <c r="C41" t="n">
-        <v>0.348598</v>
+        <v>0.369715</v>
       </c>
       <c r="D41" t="n">
-        <v>0.397814</v>
+        <v>0.398266</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.479233</v>
+        <v>0.480252</v>
       </c>
       <c r="C42" t="n">
-        <v>0.356172</v>
+        <v>0.378067</v>
       </c>
       <c r="D42" t="n">
-        <v>0.407868</v>
+        <v>0.408776</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.490808</v>
+        <v>0.491065</v>
       </c>
       <c r="C43" t="n">
-        <v>0.36377</v>
+        <v>0.385479</v>
       </c>
       <c r="D43" t="n">
-        <v>0.418641</v>
+        <v>0.419664</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.502376</v>
+        <v>0.502126</v>
       </c>
       <c r="C44" t="n">
-        <v>0.370809</v>
+        <v>0.392968</v>
       </c>
       <c r="D44" t="n">
-        <v>0.427966</v>
+        <v>0.429989</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.513286</v>
+        <v>0.512996</v>
       </c>
       <c r="C45" t="n">
-        <v>0.378205</v>
+        <v>0.400347</v>
       </c>
       <c r="D45" t="n">
-        <v>0.437552</v>
+        <v>0.439539</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.523894</v>
+        <v>0.524197</v>
       </c>
       <c r="C46" t="n">
-        <v>0.384557</v>
+        <v>0.406729</v>
       </c>
       <c r="D46" t="n">
-        <v>0.445763</v>
+        <v>0.447942</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.535845</v>
+        <v>0.535875</v>
       </c>
       <c r="C47" t="n">
-        <v>0.391036</v>
+        <v>0.413273</v>
       </c>
       <c r="D47" t="n">
-        <v>0.455954</v>
+        <v>0.456488</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.550542</v>
+        <v>0.549158</v>
       </c>
       <c r="C48" t="n">
-        <v>0.398162</v>
+        <v>0.420215</v>
       </c>
       <c r="D48" t="n">
-        <v>0.463263</v>
+        <v>0.465412</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.561207</v>
+        <v>0.558067</v>
       </c>
       <c r="C49" t="n">
-        <v>0.405435</v>
+        <v>0.431314</v>
       </c>
       <c r="D49" t="n">
-        <v>0.471624</v>
+        <v>0.473079</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.572838</v>
+        <v>0.569917</v>
       </c>
       <c r="C50" t="n">
-        <v>0.313111</v>
+        <v>0.333656</v>
       </c>
       <c r="D50" t="n">
-        <v>0.347026</v>
+        <v>0.346599</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.428997</v>
+        <v>0.430039</v>
       </c>
       <c r="C51" t="n">
-        <v>0.321254</v>
+        <v>0.342673</v>
       </c>
       <c r="D51" t="n">
-        <v>0.357297</v>
+        <v>0.3575</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.441123</v>
+        <v>0.441515</v>
       </c>
       <c r="C52" t="n">
-        <v>0.329997</v>
+        <v>0.352262</v>
       </c>
       <c r="D52" t="n">
-        <v>0.369153</v>
+        <v>0.368751</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.452715</v>
+        <v>0.453607</v>
       </c>
       <c r="C53" t="n">
-        <v>0.338826</v>
+        <v>0.361312</v>
       </c>
       <c r="D53" t="n">
-        <v>0.380437</v>
+        <v>0.379675</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.464959</v>
+        <v>0.465447</v>
       </c>
       <c r="C54" t="n">
-        <v>0.347769</v>
+        <v>0.369942</v>
       </c>
       <c r="D54" t="n">
-        <v>0.391394</v>
+        <v>0.390468</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.478121</v>
+        <v>0.479765</v>
       </c>
       <c r="C55" t="n">
-        <v>0.356483</v>
+        <v>0.379495</v>
       </c>
       <c r="D55" t="n">
-        <v>0.402402</v>
+        <v>0.400896</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.48826</v>
+        <v>0.488476</v>
       </c>
       <c r="C56" t="n">
-        <v>0.364562</v>
+        <v>0.388227</v>
       </c>
       <c r="D56" t="n">
-        <v>0.412952</v>
+        <v>0.412051</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.498867</v>
+        <v>0.499902</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3721</v>
+        <v>0.395571</v>
       </c>
       <c r="D57" t="n">
-        <v>0.422692</v>
+        <v>0.421729</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.509885</v>
+        <v>0.51054</v>
       </c>
       <c r="C58" t="n">
-        <v>0.378915</v>
+        <v>0.403592</v>
       </c>
       <c r="D58" t="n">
-        <v>0.431551</v>
+        <v>0.430723</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.520217</v>
+        <v>0.521979</v>
       </c>
       <c r="C59" t="n">
-        <v>0.385504</v>
+        <v>0.410081</v>
       </c>
       <c r="D59" t="n">
-        <v>0.440706</v>
+        <v>0.439506</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.531454</v>
+        <v>0.533023</v>
       </c>
       <c r="C60" t="n">
-        <v>0.392356</v>
+        <v>0.417384</v>
       </c>
       <c r="D60" t="n">
-        <v>0.450073</v>
+        <v>0.449041</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.542716</v>
+        <v>0.543392</v>
       </c>
       <c r="C61" t="n">
-        <v>0.398316</v>
+        <v>0.4242</v>
       </c>
       <c r="D61" t="n">
-        <v>0.458814</v>
+        <v>0.45766</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.555569</v>
+        <v>0.55475</v>
       </c>
       <c r="C62" t="n">
-        <v>0.405394</v>
+        <v>0.431344</v>
       </c>
       <c r="D62" t="n">
-        <v>0.467024</v>
+        <v>0.465674</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.567531</v>
+        <v>0.5675750000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.412584</v>
+        <v>0.438688</v>
       </c>
       <c r="D63" t="n">
-        <v>0.476351</v>
+        <v>0.47548</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.581143</v>
+        <v>0.580736</v>
       </c>
       <c r="C64" t="n">
-        <v>0.324566</v>
+        <v>0.348099</v>
       </c>
       <c r="D64" t="n">
-        <v>0.366362</v>
+        <v>0.366587</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.458107</v>
+        <v>0.457793</v>
       </c>
       <c r="C65" t="n">
-        <v>0.334809</v>
+        <v>0.357741</v>
       </c>
       <c r="D65" t="n">
-        <v>0.380491</v>
+        <v>0.379173</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.474344</v>
+        <v>0.471774</v>
       </c>
       <c r="C66" t="n">
-        <v>0.345279</v>
+        <v>0.368029</v>
       </c>
       <c r="D66" t="n">
-        <v>0.394322</v>
+        <v>0.39056</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.488381</v>
+        <v>0.487129</v>
       </c>
       <c r="C67" t="n">
-        <v>0.356681</v>
+        <v>0.378909</v>
       </c>
       <c r="D67" t="n">
-        <v>0.406078</v>
+        <v>0.403096</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.509414</v>
+        <v>0.507112</v>
       </c>
       <c r="C68" t="n">
-        <v>0.36883</v>
+        <v>0.391471</v>
       </c>
       <c r="D68" t="n">
-        <v>0.421279</v>
+        <v>0.417861</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.525299</v>
+        <v>0.525261</v>
       </c>
       <c r="C69" t="n">
-        <v>0.379938</v>
+        <v>0.403021</v>
       </c>
       <c r="D69" t="n">
-        <v>0.434863</v>
+        <v>0.432175</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.549311</v>
+        <v>0.538635</v>
       </c>
       <c r="C70" t="n">
-        <v>0.392906</v>
+        <v>0.415967</v>
       </c>
       <c r="D70" t="n">
-        <v>0.450791</v>
+        <v>0.446874</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.572797</v>
+        <v>0.570021</v>
       </c>
       <c r="C71" t="n">
-        <v>0.407518</v>
+        <v>0.430503</v>
       </c>
       <c r="D71" t="n">
-        <v>0.466569</v>
+        <v>0.463266</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.599255</v>
+        <v>0.588828</v>
       </c>
       <c r="C72" t="n">
-        <v>0.419793</v>
+        <v>0.441966</v>
       </c>
       <c r="D72" t="n">
-        <v>0.484036</v>
+        <v>0.477887</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.621028</v>
+        <v>0.617479</v>
       </c>
       <c r="C73" t="n">
-        <v>0.432643</v>
+        <v>0.456704</v>
       </c>
       <c r="D73" t="n">
-        <v>0.499855</v>
+        <v>0.49244</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.652088</v>
+        <v>0.644796</v>
       </c>
       <c r="C74" t="n">
-        <v>0.450153</v>
+        <v>0.472722</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5196190000000001</v>
+        <v>0.510083</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.683013</v>
+        <v>0.676117</v>
       </c>
       <c r="C75" t="n">
-        <v>0.46777</v>
+        <v>0.491252</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5406300000000001</v>
+        <v>0.533066</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.718878</v>
+        <v>0.70827</v>
       </c>
       <c r="C76" t="n">
-        <v>0.488384</v>
+        <v>0.509799</v>
       </c>
       <c r="D76" t="n">
-        <v>0.563546</v>
+        <v>0.552795</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.763347</v>
+        <v>0.754131</v>
       </c>
       <c r="C77" t="n">
-        <v>0.513172</v>
+        <v>0.536627</v>
       </c>
       <c r="D77" t="n">
-        <v>0.588332</v>
+        <v>0.581328</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.808402</v>
+        <v>0.799709</v>
       </c>
       <c r="C78" t="n">
-        <v>0.441469</v>
+        <v>0.470812</v>
       </c>
       <c r="D78" t="n">
-        <v>0.498635</v>
+        <v>0.495681</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.796849</v>
+        <v>0.797797</v>
       </c>
       <c r="C79" t="n">
-        <v>0.469025</v>
+        <v>0.498266</v>
       </c>
       <c r="D79" t="n">
-        <v>0.527729</v>
+        <v>0.525309</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.839736</v>
+        <v>0.843817</v>
       </c>
       <c r="C80" t="n">
-        <v>0.497996</v>
+        <v>0.5272289999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.56102</v>
+        <v>0.555597</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.885576</v>
+        <v>0.8889899999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.52977</v>
+        <v>0.559713</v>
       </c>
       <c r="D81" t="n">
-        <v>0.592871</v>
+        <v>0.590149</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.93605</v>
+        <v>0.93648</v>
       </c>
       <c r="C82" t="n">
-        <v>0.560184</v>
+        <v>0.592348</v>
       </c>
       <c r="D82" t="n">
-        <v>0.629733</v>
+        <v>0.6248629999999999</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.987134</v>
+        <v>0.98625</v>
       </c>
       <c r="C83" t="n">
-        <v>0.595424</v>
+        <v>0.627203</v>
       </c>
       <c r="D83" t="n">
-        <v>0.668341</v>
+        <v>0.661752</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.02955</v>
+        <v>1.03573</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6289709999999999</v>
+        <v>0.661706</v>
       </c>
       <c r="D84" t="n">
-        <v>0.707851</v>
+        <v>0.700646</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.09578</v>
+        <v>1.09253</v>
       </c>
       <c r="C85" t="n">
-        <v>0.66508</v>
+        <v>0.6979300000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.74618</v>
+        <v>0.738465</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.15075</v>
+        <v>1.14884</v>
       </c>
       <c r="C86" t="n">
-        <v>0.701093</v>
+        <v>0.735081</v>
       </c>
       <c r="D86" t="n">
-        <v>0.784805</v>
+        <v>0.7780860000000001</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.20823</v>
+        <v>1.2049</v>
       </c>
       <c r="C87" t="n">
-        <v>0.738583</v>
+        <v>0.773184</v>
       </c>
       <c r="D87" t="n">
-        <v>0.825905</v>
+        <v>0.819653</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.26743</v>
+        <v>1.26295</v>
       </c>
       <c r="C88" t="n">
-        <v>0.776574</v>
+        <v>0.810885</v>
       </c>
       <c r="D88" t="n">
-        <v>0.867632</v>
+        <v>0.860241</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.32771</v>
+        <v>1.32379</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8144130000000001</v>
+        <v>0.849548</v>
       </c>
       <c r="D89" t="n">
-        <v>0.908125</v>
+        <v>0.9025300000000001</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.39056</v>
+        <v>1.38825</v>
       </c>
       <c r="C90" t="n">
-        <v>0.854607</v>
+        <v>0.8897350000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.949723</v>
+        <v>0.9438800000000001</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.45926</v>
+        <v>1.45475</v>
       </c>
       <c r="C91" t="n">
-        <v>0.896438</v>
+        <v>0.9323129999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.994698</v>
+        <v>0.988824</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.5255</v>
+        <v>1.52275</v>
       </c>
       <c r="C92" t="n">
-        <v>0.773013</v>
+        <v>0.784034</v>
       </c>
       <c r="D92" t="n">
-        <v>0.882467</v>
+        <v>0.841971</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.33819</v>
+        <v>1.31973</v>
       </c>
       <c r="C93" t="n">
-        <v>0.802047</v>
+        <v>0.81253</v>
       </c>
       <c r="D93" t="n">
-        <v>0.915453</v>
+        <v>0.878049</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.37754</v>
+        <v>1.35557</v>
       </c>
       <c r="C94" t="n">
-        <v>0.830253</v>
+        <v>0.841263</v>
       </c>
       <c r="D94" t="n">
-        <v>0.950675</v>
+        <v>0.925876</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.41712</v>
+        <v>1.39598</v>
       </c>
       <c r="C95" t="n">
-        <v>0.860403</v>
+        <v>0.871876</v>
       </c>
       <c r="D95" t="n">
-        <v>0.985218</v>
+        <v>0.948761</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.46207</v>
+        <v>1.43629</v>
       </c>
       <c r="C96" t="n">
-        <v>0.892161</v>
+        <v>0.903286</v>
       </c>
       <c r="D96" t="n">
-        <v>1.02393</v>
+        <v>0.986648</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.50354</v>
+        <v>1.47977</v>
       </c>
       <c r="C97" t="n">
-        <v>0.924917</v>
+        <v>0.936047</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06285</v>
+        <v>1.02483</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.54977</v>
+        <v>1.52362</v>
       </c>
       <c r="C98" t="n">
-        <v>0.958453</v>
+        <v>0.969203</v>
       </c>
       <c r="D98" t="n">
-        <v>1.10251</v>
+        <v>1.06394</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.59562</v>
+        <v>1.56971</v>
       </c>
       <c r="C99" t="n">
-        <v>0.993129</v>
+        <v>1.00345</v>
       </c>
       <c r="D99" t="n">
-        <v>1.13967</v>
+        <v>1.10955</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.64339</v>
+        <v>1.61771</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02725</v>
+        <v>1.03864</v>
       </c>
       <c r="D100" t="n">
-        <v>1.18059</v>
+        <v>1.15133</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.69073</v>
+        <v>1.66921</v>
       </c>
       <c r="C101" t="n">
-        <v>1.06285</v>
+        <v>1.07429</v>
       </c>
       <c r="D101" t="n">
-        <v>1.22252</v>
+        <v>1.1922</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.74294</v>
+        <v>1.72097</v>
       </c>
       <c r="C102" t="n">
-        <v>1.0991</v>
+        <v>1.11058</v>
       </c>
       <c r="D102" t="n">
-        <v>1.25993</v>
+        <v>1.24564</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.79843</v>
+        <v>1.77461</v>
       </c>
       <c r="C103" t="n">
-        <v>1.13732</v>
+        <v>1.14916</v>
       </c>
       <c r="D103" t="n">
-        <v>1.30328</v>
+        <v>1.29032</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.85502</v>
+        <v>1.83113</v>
       </c>
       <c r="C104" t="n">
-        <v>1.17558</v>
+        <v>1.18857</v>
       </c>
       <c r="D104" t="n">
-        <v>1.35002</v>
+        <v>1.33705</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.91505</v>
+        <v>1.89168</v>
       </c>
       <c r="C105" t="n">
-        <v>1.21607</v>
+        <v>1.2296</v>
       </c>
       <c r="D105" t="n">
-        <v>1.39659</v>
+        <v>1.38371</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.98156</v>
+        <v>1.9575</v>
       </c>
       <c r="C106" t="n">
-        <v>1.25857</v>
+        <v>1.27215</v>
       </c>
       <c r="D106" t="n">
-        <v>1.44515</v>
+        <v>1.43367</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.63326</v>
+        <v>1.60951</v>
       </c>
       <c r="C107" t="n">
-        <v>1.02097</v>
+        <v>1.05071</v>
       </c>
       <c r="D107" t="n">
-        <v>1.2519</v>
+        <v>1.25045</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.6668</v>
+        <v>1.64756</v>
       </c>
       <c r="C108" t="n">
-        <v>1.03061</v>
+        <v>1.07682</v>
       </c>
       <c r="D108" t="n">
-        <v>1.25141</v>
+        <v>1.28001</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.69217</v>
+        <v>1.69848</v>
       </c>
       <c r="C109" t="n">
-        <v>1.07677</v>
+        <v>1.10382</v>
       </c>
       <c r="D109" t="n">
-        <v>1.31831</v>
+        <v>1.31512</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.72625</v>
+        <v>1.73227</v>
       </c>
       <c r="C110" t="n">
-        <v>1.08653</v>
+        <v>1.13399</v>
       </c>
       <c r="D110" t="n">
-        <v>1.32539</v>
+        <v>1.35209</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.77552</v>
+        <v>1.77409</v>
       </c>
       <c r="C111" t="n">
-        <v>1.13652</v>
+        <v>1.16366</v>
       </c>
       <c r="D111" t="n">
-        <v>1.39648</v>
+        <v>1.40169</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.82017</v>
+        <v>1.81716</v>
       </c>
       <c r="C112" t="n">
-        <v>1.16737</v>
+        <v>1.1968</v>
       </c>
       <c r="D112" t="n">
-        <v>1.43689</v>
+        <v>1.43288</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.86165</v>
+        <v>1.85803</v>
       </c>
       <c r="C113" t="n">
-        <v>1.20106</v>
+        <v>1.22108</v>
       </c>
       <c r="D113" t="n">
-        <v>1.47792</v>
+        <v>1.4751</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.90628</v>
+        <v>1.90372</v>
       </c>
       <c r="C114" t="n">
-        <v>1.23368</v>
+        <v>1.26049</v>
       </c>
       <c r="D114" t="n">
-        <v>1.52253</v>
+        <v>1.51831</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.95064</v>
+        <v>1.94867</v>
       </c>
       <c r="C115" t="n">
-        <v>1.26724</v>
+        <v>1.29517</v>
       </c>
       <c r="D115" t="n">
-        <v>1.56702</v>
+        <v>1.55928</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.00531</v>
+        <v>1.99794</v>
       </c>
       <c r="C116" t="n">
-        <v>1.30168</v>
+        <v>1.33005</v>
       </c>
       <c r="D116" t="n">
-        <v>1.6123</v>
+        <v>1.60212</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.05574</v>
+        <v>2.04919</v>
       </c>
       <c r="C117" t="n">
-        <v>1.33187</v>
+        <v>1.36661</v>
       </c>
       <c r="D117" t="n">
-        <v>1.65857</v>
+        <v>1.6453</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.11057</v>
+        <v>2.10407</v>
       </c>
       <c r="C118" t="n">
-        <v>1.37649</v>
+        <v>1.40002</v>
       </c>
       <c r="D118" t="n">
-        <v>1.70858</v>
+        <v>1.69639</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.17067</v>
+        <v>2.16161</v>
       </c>
       <c r="C119" t="n">
-        <v>1.41554</v>
+        <v>1.44031</v>
       </c>
       <c r="D119" t="n">
-        <v>1.75705</v>
+        <v>1.74416</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.281195</v>
+        <v>0.282327</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204624</v>
+        <v>0.218753</v>
       </c>
       <c r="D2" t="n">
-        <v>0.180712</v>
+        <v>0.180968</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.294085</v>
+        <v>0.29238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.210698</v>
+        <v>0.223631</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183825</v>
+        <v>0.183211</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.302233</v>
+        <v>0.298813</v>
       </c>
       <c r="C4" t="n">
-        <v>0.218748</v>
+        <v>0.229703</v>
       </c>
       <c r="D4" t="n">
-        <v>0.186279</v>
+        <v>0.185501</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.31055</v>
+        <v>0.308894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223906</v>
+        <v>0.237282</v>
       </c>
       <c r="D5" t="n">
-        <v>0.189009</v>
+        <v>0.189526</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.324086</v>
+        <v>0.320003</v>
       </c>
       <c r="C6" t="n">
-        <v>0.23023</v>
+        <v>0.244562</v>
       </c>
       <c r="D6" t="n">
-        <v>0.192038</v>
+        <v>0.190988</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.333854</v>
+        <v>0.333251</v>
       </c>
       <c r="C7" t="n">
-        <v>0.19377</v>
+        <v>0.203252</v>
       </c>
       <c r="D7" t="n">
-        <v>0.175514</v>
+        <v>0.174579</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.253463</v>
+        <v>0.251424</v>
       </c>
       <c r="C8" t="n">
-        <v>0.195578</v>
+        <v>0.208226</v>
       </c>
       <c r="D8" t="n">
-        <v>0.177374</v>
+        <v>0.179114</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.260051</v>
+        <v>0.255714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.203005</v>
+        <v>0.215549</v>
       </c>
       <c r="D9" t="n">
-        <v>0.180724</v>
+        <v>0.179977</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.268387</v>
+        <v>0.265365</v>
       </c>
       <c r="C10" t="n">
-        <v>0.207343</v>
+        <v>0.220928</v>
       </c>
       <c r="D10" t="n">
-        <v>0.183668</v>
+        <v>0.182927</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.277158</v>
+        <v>0.272726</v>
       </c>
       <c r="C11" t="n">
-        <v>0.212075</v>
+        <v>0.226148</v>
       </c>
       <c r="D11" t="n">
-        <v>0.186938</v>
+        <v>0.185341</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.285129</v>
+        <v>0.281686</v>
       </c>
       <c r="C12" t="n">
-        <v>0.219456</v>
+        <v>0.231872</v>
       </c>
       <c r="D12" t="n">
-        <v>0.189652</v>
+        <v>0.188183</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288554</v>
+        <v>0.292065</v>
       </c>
       <c r="C13" t="n">
-        <v>0.226946</v>
+        <v>0.240213</v>
       </c>
       <c r="D13" t="n">
-        <v>0.191843</v>
+        <v>0.191322</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.302905</v>
+        <v>0.298461</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233221</v>
+        <v>0.247501</v>
       </c>
       <c r="D14" t="n">
-        <v>0.195462</v>
+        <v>0.194741</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.308615</v>
+        <v>0.307003</v>
       </c>
       <c r="C15" t="n">
-        <v>0.239425</v>
+        <v>0.254197</v>
       </c>
       <c r="D15" t="n">
-        <v>0.198165</v>
+        <v>0.19966</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.318143</v>
+        <v>0.317948</v>
       </c>
       <c r="C16" t="n">
-        <v>0.24915</v>
+        <v>0.265278</v>
       </c>
       <c r="D16" t="n">
-        <v>0.203125</v>
+        <v>0.203939</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.330669</v>
+        <v>0.330544</v>
       </c>
       <c r="C17" t="n">
-        <v>0.256207</v>
+        <v>0.271825</v>
       </c>
       <c r="D17" t="n">
-        <v>0.208302</v>
+        <v>0.208999</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.341002</v>
+        <v>0.339821</v>
       </c>
       <c r="C18" t="n">
-        <v>0.264952</v>
+        <v>0.282143</v>
       </c>
       <c r="D18" t="n">
-        <v>0.211554</v>
+        <v>0.214214</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.35071</v>
+        <v>0.35114</v>
       </c>
       <c r="C19" t="n">
-        <v>0.273156</v>
+        <v>0.290231</v>
       </c>
       <c r="D19" t="n">
-        <v>0.217796</v>
+        <v>0.218312</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.36595</v>
+        <v>0.365079</v>
       </c>
       <c r="C20" t="n">
-        <v>0.283855</v>
+        <v>0.302245</v>
       </c>
       <c r="D20" t="n">
-        <v>0.222192</v>
+        <v>0.222384</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.377431</v>
+        <v>0.377164</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231928</v>
+        <v>0.247258</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204762</v>
+        <v>0.20513</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.295156</v>
+        <v>0.295031</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237733</v>
+        <v>0.253343</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208587</v>
+        <v>0.208728</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.302364</v>
+        <v>0.302267</v>
       </c>
       <c r="C23" t="n">
-        <v>0.244221</v>
+        <v>0.259799</v>
       </c>
       <c r="D23" t="n">
-        <v>0.21315</v>
+        <v>0.212647</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.309968</v>
+        <v>0.310183</v>
       </c>
       <c r="C24" t="n">
-        <v>0.249122</v>
+        <v>0.264702</v>
       </c>
       <c r="D24" t="n">
-        <v>0.21613</v>
+        <v>0.215917</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.317269</v>
+        <v>0.317529</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25568</v>
+        <v>0.271227</v>
       </c>
       <c r="D25" t="n">
-        <v>0.21922</v>
+        <v>0.218602</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.325308</v>
+        <v>0.326275</v>
       </c>
       <c r="C26" t="n">
-        <v>0.262773</v>
+        <v>0.278875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.223188</v>
+        <v>0.223475</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329134</v>
+        <v>0.333202</v>
       </c>
       <c r="C27" t="n">
-        <v>0.266661</v>
+        <v>0.283324</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226301</v>
+        <v>0.226347</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.342023</v>
+        <v>0.342639</v>
       </c>
       <c r="C28" t="n">
-        <v>0.273498</v>
+        <v>0.289816</v>
       </c>
       <c r="D28" t="n">
-        <v>0.229972</v>
+        <v>0.23117</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.351804</v>
+        <v>0.351853</v>
       </c>
       <c r="C29" t="n">
-        <v>0.280475</v>
+        <v>0.297826</v>
       </c>
       <c r="D29" t="n">
-        <v>0.233077</v>
+        <v>0.234892</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.361042</v>
+        <v>0.361907</v>
       </c>
       <c r="C30" t="n">
-        <v>0.287906</v>
+        <v>0.306509</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237201</v>
+        <v>0.239206</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.371376</v>
+        <v>0.372564</v>
       </c>
       <c r="C31" t="n">
-        <v>0.294827</v>
+        <v>0.312538</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240636</v>
+        <v>0.243179</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.381143</v>
+        <v>0.38252</v>
       </c>
       <c r="C32" t="n">
-        <v>0.304062</v>
+        <v>0.323278</v>
       </c>
       <c r="D32" t="n">
-        <v>0.244442</v>
+        <v>0.248126</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.394579</v>
+        <v>0.395881</v>
       </c>
       <c r="C33" t="n">
-        <v>0.312531</v>
+        <v>0.330889</v>
       </c>
       <c r="D33" t="n">
-        <v>0.247009</v>
+        <v>0.251375</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.406633</v>
+        <v>0.40748</v>
       </c>
       <c r="C34" t="n">
-        <v>0.32203</v>
+        <v>0.341122</v>
       </c>
       <c r="D34" t="n">
-        <v>0.256014</v>
+        <v>0.258091</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.420583</v>
+        <v>0.420588</v>
       </c>
       <c r="C35" t="n">
-        <v>0.249095</v>
+        <v>0.265001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.227057</v>
+        <v>0.227875</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.315898</v>
+        <v>0.315488</v>
       </c>
       <c r="C36" t="n">
-        <v>0.256063</v>
+        <v>0.27165</v>
       </c>
       <c r="D36" t="n">
-        <v>0.230457</v>
+        <v>0.230941</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322891</v>
+        <v>0.322155</v>
       </c>
       <c r="C37" t="n">
-        <v>0.261182</v>
+        <v>0.276796</v>
       </c>
       <c r="D37" t="n">
-        <v>0.233887</v>
+        <v>0.234389</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.331332</v>
+        <v>0.330719</v>
       </c>
       <c r="C38" t="n">
-        <v>0.267935</v>
+        <v>0.28362</v>
       </c>
       <c r="D38" t="n">
-        <v>0.23726</v>
+        <v>0.238059</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.336809</v>
+        <v>0.335952</v>
       </c>
       <c r="C39" t="n">
-        <v>0.273789</v>
+        <v>0.289503</v>
       </c>
       <c r="D39" t="n">
-        <v>0.240455</v>
+        <v>0.241147</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.346287</v>
+        <v>0.345774</v>
       </c>
       <c r="C40" t="n">
-        <v>0.279609</v>
+        <v>0.296645</v>
       </c>
       <c r="D40" t="n">
-        <v>0.24438</v>
+        <v>0.245277</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.354163</v>
+        <v>0.352992</v>
       </c>
       <c r="C41" t="n">
-        <v>0.286254</v>
+        <v>0.302947</v>
       </c>
       <c r="D41" t="n">
-        <v>0.247762</v>
+        <v>0.248427</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.36216</v>
+        <v>0.361285</v>
       </c>
       <c r="C42" t="n">
-        <v>0.291593</v>
+        <v>0.308037</v>
       </c>
       <c r="D42" t="n">
-        <v>0.251039</v>
+        <v>0.252007</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.37136</v>
+        <v>0.370048</v>
       </c>
       <c r="C43" t="n">
-        <v>0.298322</v>
+        <v>0.315174</v>
       </c>
       <c r="D43" t="n">
-        <v>0.25514</v>
+        <v>0.255786</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.381265</v>
+        <v>0.379847</v>
       </c>
       <c r="C44" t="n">
-        <v>0.306275</v>
+        <v>0.32391</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259306</v>
+        <v>0.259881</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.392728</v>
+        <v>0.391381</v>
       </c>
       <c r="C45" t="n">
-        <v>0.314371</v>
+        <v>0.331771</v>
       </c>
       <c r="D45" t="n">
-        <v>0.262315</v>
+        <v>0.264506</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.403446</v>
+        <v>0.402062</v>
       </c>
       <c r="C46" t="n">
-        <v>0.322957</v>
+        <v>0.340921</v>
       </c>
       <c r="D46" t="n">
-        <v>0.267145</v>
+        <v>0.268771</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.413765</v>
+        <v>0.412246</v>
       </c>
       <c r="C47" t="n">
-        <v>0.330711</v>
+        <v>0.348613</v>
       </c>
       <c r="D47" t="n">
-        <v>0.273395</v>
+        <v>0.274071</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.425596</v>
+        <v>0.423783</v>
       </c>
       <c r="C48" t="n">
-        <v>0.339974</v>
+        <v>0.35802</v>
       </c>
       <c r="D48" t="n">
-        <v>0.278182</v>
+        <v>0.279062</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.435684</v>
+        <v>0.434343</v>
       </c>
       <c r="C49" t="n">
-        <v>0.349407</v>
+        <v>0.367333</v>
       </c>
       <c r="D49" t="n">
-        <v>0.282268</v>
+        <v>0.283804</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.450469</v>
+        <v>0.448789</v>
       </c>
       <c r="C50" t="n">
-        <v>0.26308</v>
+        <v>0.279029</v>
       </c>
       <c r="D50" t="n">
-        <v>0.231167</v>
+        <v>0.231487</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.333849</v>
+        <v>0.333358</v>
       </c>
       <c r="C51" t="n">
-        <v>0.268691</v>
+        <v>0.285207</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234198</v>
+        <v>0.23454</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340542</v>
+        <v>0.340125</v>
       </c>
       <c r="C52" t="n">
-        <v>0.274506</v>
+        <v>0.291037</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237833</v>
+        <v>0.238193</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347264</v>
+        <v>0.346559</v>
       </c>
       <c r="C53" t="n">
-        <v>0.280873</v>
+        <v>0.297902</v>
       </c>
       <c r="D53" t="n">
-        <v>0.241476</v>
+        <v>0.241782</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.355664</v>
+        <v>0.354825</v>
       </c>
       <c r="C54" t="n">
-        <v>0.287437</v>
+        <v>0.303869</v>
       </c>
       <c r="D54" t="n">
-        <v>0.244809</v>
+        <v>0.245342</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.364779</v>
+        <v>0.363853</v>
       </c>
       <c r="C55" t="n">
-        <v>0.294209</v>
+        <v>0.311421</v>
       </c>
       <c r="D55" t="n">
-        <v>0.249869</v>
+        <v>0.250081</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.37459</v>
+        <v>0.373308</v>
       </c>
       <c r="C56" t="n">
-        <v>0.299964</v>
+        <v>0.316922</v>
       </c>
       <c r="D56" t="n">
-        <v>0.252959</v>
+        <v>0.253198</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.383139</v>
+        <v>0.382121</v>
       </c>
       <c r="C57" t="n">
-        <v>0.307212</v>
+        <v>0.324933</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257203</v>
+        <v>0.257825</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.392893</v>
+        <v>0.392079</v>
       </c>
       <c r="C58" t="n">
-        <v>0.314975</v>
+        <v>0.33329</v>
       </c>
       <c r="D58" t="n">
-        <v>0.262266</v>
+        <v>0.263354</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.404543</v>
+        <v>0.403675</v>
       </c>
       <c r="C59" t="n">
-        <v>0.321605</v>
+        <v>0.339758</v>
       </c>
       <c r="D59" t="n">
-        <v>0.265828</v>
+        <v>0.266295</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.413979</v>
+        <v>0.413083</v>
       </c>
       <c r="C60" t="n">
-        <v>0.329531</v>
+        <v>0.348229</v>
       </c>
       <c r="D60" t="n">
-        <v>0.270578</v>
+        <v>0.271175</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.425171</v>
+        <v>0.424082</v>
       </c>
       <c r="C61" t="n">
-        <v>0.339209</v>
+        <v>0.357565</v>
       </c>
       <c r="D61" t="n">
-        <v>0.275725</v>
+        <v>0.276219</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.435955</v>
+        <v>0.43501</v>
       </c>
       <c r="C62" t="n">
-        <v>0.347018</v>
+        <v>0.366267</v>
       </c>
       <c r="D62" t="n">
-        <v>0.280505</v>
+        <v>0.28107</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.44808</v>
+        <v>0.446969</v>
       </c>
       <c r="C63" t="n">
-        <v>0.357547</v>
+        <v>0.376894</v>
       </c>
       <c r="D63" t="n">
-        <v>0.286733</v>
+        <v>0.287083</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.461642</v>
+        <v>0.459658</v>
       </c>
       <c r="C64" t="n">
-        <v>0.280278</v>
+        <v>0.288061</v>
       </c>
       <c r="D64" t="n">
-        <v>0.245714</v>
+        <v>0.235739</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.359243</v>
+        <v>0.34691</v>
       </c>
       <c r="C65" t="n">
-        <v>0.287551</v>
+        <v>0.295515</v>
       </c>
       <c r="D65" t="n">
-        <v>0.246665</v>
+        <v>0.241264</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.372411</v>
+        <v>0.347814</v>
       </c>
       <c r="C66" t="n">
-        <v>0.29795</v>
+        <v>0.300462</v>
       </c>
       <c r="D66" t="n">
-        <v>0.25504</v>
+        <v>0.244864</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.386783</v>
+        <v>0.35844</v>
       </c>
       <c r="C67" t="n">
-        <v>0.30841</v>
+        <v>0.31122</v>
       </c>
       <c r="D67" t="n">
-        <v>0.258279</v>
+        <v>0.248719</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.405832</v>
+        <v>0.373321</v>
       </c>
       <c r="C68" t="n">
-        <v>0.318721</v>
+        <v>0.318617</v>
       </c>
       <c r="D68" t="n">
-        <v>0.264932</v>
+        <v>0.25323</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.42041</v>
+        <v>0.418124</v>
       </c>
       <c r="C69" t="n">
-        <v>0.333436</v>
+        <v>0.328266</v>
       </c>
       <c r="D69" t="n">
-        <v>0.26969</v>
+        <v>0.258449</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.441427</v>
+        <v>0.433915</v>
       </c>
       <c r="C70" t="n">
-        <v>0.346346</v>
+        <v>0.338577</v>
       </c>
       <c r="D70" t="n">
-        <v>0.276489</v>
+        <v>0.26374</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.461354</v>
+        <v>0.422647</v>
       </c>
       <c r="C71" t="n">
-        <v>0.362884</v>
+        <v>0.353437</v>
       </c>
       <c r="D71" t="n">
-        <v>0.282096</v>
+        <v>0.26956</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.484986</v>
+        <v>0.447563</v>
       </c>
       <c r="C72" t="n">
-        <v>0.380381</v>
+        <v>0.369894</v>
       </c>
       <c r="D72" t="n">
-        <v>0.29065</v>
+        <v>0.276084</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.511416</v>
+        <v>0.467356</v>
       </c>
       <c r="C73" t="n">
-        <v>0.402302</v>
+        <v>0.390912</v>
       </c>
       <c r="D73" t="n">
-        <v>0.30035</v>
+        <v>0.284857</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.539123</v>
+        <v>0.494602</v>
       </c>
       <c r="C74" t="n">
-        <v>0.421566</v>
+        <v>0.411801</v>
       </c>
       <c r="D74" t="n">
-        <v>0.309621</v>
+        <v>0.292956</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.576975</v>
+        <v>0.531618</v>
       </c>
       <c r="C75" t="n">
-        <v>0.450055</v>
+        <v>0.438702</v>
       </c>
       <c r="D75" t="n">
-        <v>0.320236</v>
+        <v>0.303126</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.614218</v>
+        <v>0.571516</v>
       </c>
       <c r="C76" t="n">
-        <v>0.481402</v>
+        <v>0.470706</v>
       </c>
       <c r="D76" t="n">
-        <v>0.334939</v>
+        <v>0.315559</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.655373</v>
+        <v>0.619553</v>
       </c>
       <c r="C77" t="n">
-        <v>0.50818</v>
+        <v>0.505039</v>
       </c>
       <c r="D77" t="n">
-        <v>0.345868</v>
+        <v>0.326649</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7021309999999999</v>
+        <v>0.665534</v>
       </c>
       <c r="C78" t="n">
-        <v>0.44255</v>
+        <v>0.50143</v>
       </c>
       <c r="D78" t="n">
-        <v>0.308156</v>
+        <v>0.318277</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.621281</v>
+        <v>0.661003</v>
       </c>
       <c r="C79" t="n">
-        <v>0.467839</v>
+        <v>0.528773</v>
       </c>
       <c r="D79" t="n">
-        <v>0.322641</v>
+        <v>0.328702</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.660753</v>
+        <v>0.703995</v>
       </c>
       <c r="C80" t="n">
-        <v>0.49414</v>
+        <v>0.563406</v>
       </c>
       <c r="D80" t="n">
-        <v>0.337199</v>
+        <v>0.340572</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.701536</v>
+        <v>0.753123</v>
       </c>
       <c r="C81" t="n">
-        <v>0.530446</v>
+        <v>0.60356</v>
       </c>
       <c r="D81" t="n">
-        <v>0.353511</v>
+        <v>0.358816</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.750187</v>
+        <v>0.8097529999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.564653</v>
+        <v>0.644601</v>
       </c>
       <c r="D82" t="n">
-        <v>0.369809</v>
+        <v>0.38134</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.801221</v>
+        <v>0.863586</v>
       </c>
       <c r="C83" t="n">
-        <v>0.603611</v>
+        <v>0.690223</v>
       </c>
       <c r="D83" t="n">
-        <v>0.386277</v>
+        <v>0.403249</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.871987</v>
+        <v>0.915932</v>
       </c>
       <c r="C84" t="n">
-        <v>0.643317</v>
+        <v>0.735795</v>
       </c>
       <c r="D84" t="n">
-        <v>0.407734</v>
+        <v>0.42732</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.909919</v>
+        <v>0.991611</v>
       </c>
       <c r="C85" t="n">
-        <v>0.683566</v>
+        <v>0.788007</v>
       </c>
       <c r="D85" t="n">
-        <v>0.428198</v>
+        <v>0.454593</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.969181</v>
+        <v>1.05744</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7277400000000001</v>
+        <v>0.836221</v>
       </c>
       <c r="D86" t="n">
-        <v>0.453744</v>
+        <v>0.484937</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.03512</v>
+        <v>1.12643</v>
       </c>
       <c r="C87" t="n">
-        <v>0.78215</v>
+        <v>0.897191</v>
       </c>
       <c r="D87" t="n">
-        <v>0.482538</v>
+        <v>0.512961</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.102</v>
+        <v>1.20537</v>
       </c>
       <c r="C88" t="n">
-        <v>0.832236</v>
+        <v>0.953856</v>
       </c>
       <c r="D88" t="n">
-        <v>0.510054</v>
+        <v>0.540292</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.17175</v>
+        <v>1.28863</v>
       </c>
       <c r="C89" t="n">
-        <v>0.887969</v>
+        <v>1.01857</v>
       </c>
       <c r="D89" t="n">
-        <v>0.539151</v>
+        <v>0.578634</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.24639</v>
+        <v>1.37336</v>
       </c>
       <c r="C90" t="n">
-        <v>0.940377</v>
+        <v>1.07931</v>
       </c>
       <c r="D90" t="n">
-        <v>0.57156</v>
+        <v>0.6097630000000001</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.32377</v>
+        <v>1.45809</v>
       </c>
       <c r="C91" t="n">
-        <v>1.00022</v>
+        <v>1.14914</v>
       </c>
       <c r="D91" t="n">
-        <v>0.60114</v>
+        <v>0.646321</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.40381</v>
+        <v>1.55347</v>
       </c>
       <c r="C92" t="n">
-        <v>0.850705</v>
+        <v>0.990081</v>
       </c>
       <c r="D92" t="n">
-        <v>0.608903</v>
+        <v>0.668879</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.1318</v>
+        <v>1.25345</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8829900000000001</v>
+        <v>1.02639</v>
       </c>
       <c r="D93" t="n">
-        <v>0.629837</v>
+        <v>0.692354</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.17782</v>
+        <v>1.293</v>
       </c>
       <c r="C94" t="n">
-        <v>0.921726</v>
+        <v>1.06978</v>
       </c>
       <c r="D94" t="n">
-        <v>0.65347</v>
+        <v>0.720211</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.22343</v>
+        <v>1.3283</v>
       </c>
       <c r="C95" t="n">
-        <v>0.955558</v>
+        <v>1.10374</v>
       </c>
       <c r="D95" t="n">
-        <v>0.676498</v>
+        <v>0.747447</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.27718</v>
+        <v>1.38829</v>
       </c>
       <c r="C96" t="n">
-        <v>0.996014</v>
+        <v>1.15409</v>
       </c>
       <c r="D96" t="n">
-        <v>0.701808</v>
+        <v>0.776389</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.3278</v>
+        <v>1.44643</v>
       </c>
       <c r="C97" t="n">
-        <v>1.03387</v>
+        <v>1.19337</v>
       </c>
       <c r="D97" t="n">
-        <v>0.72588</v>
+        <v>0.80425</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.38268</v>
+        <v>1.48692</v>
       </c>
       <c r="C98" t="n">
-        <v>1.07501</v>
+        <v>1.22144</v>
       </c>
       <c r="D98" t="n">
-        <v>0.752134</v>
+        <v>0.834396</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.43708</v>
+        <v>1.56808</v>
       </c>
       <c r="C99" t="n">
-        <v>1.1194</v>
+        <v>1.26591</v>
       </c>
       <c r="D99" t="n">
-        <v>0.779556</v>
+        <v>0.864796</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.49359</v>
+        <v>1.62891</v>
       </c>
       <c r="C100" t="n">
-        <v>1.16585</v>
+        <v>1.31213</v>
       </c>
       <c r="D100" t="n">
-        <v>0.80727</v>
+        <v>0.896894</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.55817</v>
+        <v>1.69803</v>
       </c>
       <c r="C101" t="n">
-        <v>1.21232</v>
+        <v>1.3653</v>
       </c>
       <c r="D101" t="n">
-        <v>0.836017</v>
+        <v>0.929634</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.61867</v>
+        <v>1.76878</v>
       </c>
       <c r="C102" t="n">
-        <v>1.26267</v>
+        <v>1.41925</v>
       </c>
       <c r="D102" t="n">
-        <v>0.864989</v>
+        <v>0.960109</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.68317</v>
+        <v>1.84242</v>
       </c>
       <c r="C103" t="n">
-        <v>1.31562</v>
+        <v>1.47789</v>
       </c>
       <c r="D103" t="n">
-        <v>0.897307</v>
+        <v>0.99724</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.76417</v>
+        <v>1.92339</v>
       </c>
       <c r="C104" t="n">
-        <v>1.36488</v>
+        <v>1.5366</v>
       </c>
       <c r="D104" t="n">
-        <v>0.931132</v>
+        <v>1.03306</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.80258</v>
+        <v>2.00566</v>
       </c>
       <c r="C105" t="n">
-        <v>1.42052</v>
+        <v>1.60072</v>
       </c>
       <c r="D105" t="n">
-        <v>0.965112</v>
+        <v>1.07419</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.88366</v>
+        <v>2.09657</v>
       </c>
       <c r="C106" t="n">
-        <v>1.47134</v>
+        <v>1.66527</v>
       </c>
       <c r="D106" t="n">
-        <v>0.999854</v>
+        <v>1.11391</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.38839</v>
+        <v>1.53747</v>
       </c>
       <c r="C107" t="n">
-        <v>1.10534</v>
+        <v>1.26587</v>
       </c>
       <c r="D107" t="n">
-        <v>0.896713</v>
+        <v>1.01249</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.42488</v>
+        <v>1.59036</v>
       </c>
       <c r="C108" t="n">
-        <v>1.16666</v>
+        <v>1.30129</v>
       </c>
       <c r="D108" t="n">
-        <v>0.941187</v>
+        <v>1.0352</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.43966</v>
+        <v>1.62043</v>
       </c>
       <c r="C109" t="n">
-        <v>1.19337</v>
+        <v>1.33849</v>
       </c>
       <c r="D109" t="n">
-        <v>0.962653</v>
+        <v>1.06078</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.49069</v>
+        <v>1.69957</v>
       </c>
       <c r="C110" t="n">
-        <v>1.23001</v>
+        <v>1.40014</v>
       </c>
       <c r="D110" t="n">
-        <v>0.989074</v>
+        <v>1.10226</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.52778</v>
+        <v>1.73034</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23579</v>
+        <v>1.42127</v>
       </c>
       <c r="D111" t="n">
-        <v>1.01384</v>
+        <v>1.11109</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.58893</v>
+        <v>1.79036</v>
       </c>
       <c r="C112" t="n">
-        <v>1.27409</v>
+        <v>1.4648</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04018</v>
+        <v>1.15083</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.64308</v>
+        <v>1.867</v>
       </c>
       <c r="C113" t="n">
-        <v>1.30954</v>
+        <v>1.5263</v>
       </c>
       <c r="D113" t="n">
-        <v>1.06584</v>
+        <v>1.18207</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.70284</v>
+        <v>1.93294</v>
       </c>
       <c r="C114" t="n">
-        <v>1.39337</v>
+        <v>1.57341</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09301</v>
+        <v>1.20529</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.75771</v>
+        <v>1.99481</v>
       </c>
       <c r="C115" t="n">
-        <v>1.39895</v>
+        <v>1.62472</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12231</v>
+        <v>1.22611</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.8229</v>
+        <v>2.0738</v>
       </c>
       <c r="C116" t="n">
-        <v>1.44096</v>
+        <v>1.67873</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14981</v>
+        <v>1.28953</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.88885</v>
+        <v>2.15075</v>
       </c>
       <c r="C117" t="n">
-        <v>1.49085</v>
+        <v>1.73646</v>
       </c>
       <c r="D117" t="n">
-        <v>1.18269</v>
+        <v>1.29491</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.95757</v>
+        <v>2.23022</v>
       </c>
       <c r="C118" t="n">
-        <v>1.54518</v>
+        <v>1.79835</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21578</v>
+        <v>1.32484</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.02976</v>
+        <v>2.30844</v>
       </c>
       <c r="C119" t="n">
-        <v>1.59739</v>
+        <v>1.85906</v>
       </c>
       <c r="D119" t="n">
-        <v>1.2514</v>
+        <v>1.37402</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.64118</v>
+        <v>0.639123</v>
       </c>
       <c r="C2" t="n">
-        <v>0.434428</v>
+        <v>0.463749</v>
       </c>
       <c r="D2" t="n">
-        <v>0.309871</v>
+        <v>0.311746</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.668171</v>
+        <v>0.65962</v>
       </c>
       <c r="C3" t="n">
-        <v>0.457697</v>
+        <v>0.476897</v>
       </c>
       <c r="D3" t="n">
-        <v>0.319312</v>
+        <v>0.323496</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.697126</v>
+        <v>0.696935</v>
       </c>
       <c r="C4" t="n">
-        <v>0.479441</v>
+        <v>0.506782</v>
       </c>
       <c r="D4" t="n">
-        <v>0.32849</v>
+        <v>0.331096</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.720685</v>
+        <v>0.719255</v>
       </c>
       <c r="C5" t="n">
-        <v>0.494708</v>
+        <v>0.526047</v>
       </c>
       <c r="D5" t="n">
-        <v>0.33987</v>
+        <v>0.342204</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7457859999999999</v>
+        <v>0.745463</v>
       </c>
       <c r="C6" t="n">
-        <v>0.526886</v>
+        <v>0.554187</v>
       </c>
       <c r="D6" t="n">
-        <v>0.350038</v>
+        <v>0.35401</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.784355</v>
+        <v>0.78265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.543353</v>
+        <v>0.577604</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359814</v>
+        <v>0.361704</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.813603</v>
+        <v>0.805833</v>
       </c>
       <c r="C8" t="n">
-        <v>0.566416</v>
+        <v>0.604602</v>
       </c>
       <c r="D8" t="n">
-        <v>0.36989</v>
+        <v>0.370016</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.846832</v>
+        <v>0.844687</v>
       </c>
       <c r="C9" t="n">
-        <v>0.595039</v>
+        <v>0.626489</v>
       </c>
       <c r="D9" t="n">
-        <v>0.380831</v>
+        <v>0.381617</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.887065</v>
+        <v>0.88347</v>
       </c>
       <c r="C10" t="n">
-        <v>0.621941</v>
+        <v>0.66162</v>
       </c>
       <c r="D10" t="n">
-        <v>0.392123</v>
+        <v>0.398458</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.91836</v>
+        <v>0.917405</v>
       </c>
       <c r="C11" t="n">
-        <v>0.424879</v>
+        <v>0.450581</v>
       </c>
       <c r="D11" t="n">
-        <v>0.291452</v>
+        <v>0.292028</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.60203</v>
+        <v>0.593568</v>
       </c>
       <c r="C12" t="n">
-        <v>0.447468</v>
+        <v>0.469217</v>
       </c>
       <c r="D12" t="n">
-        <v>0.301608</v>
+        <v>0.303082</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.621691</v>
+        <v>0.620945</v>
       </c>
       <c r="C13" t="n">
-        <v>0.468264</v>
+        <v>0.490037</v>
       </c>
       <c r="D13" t="n">
-        <v>0.311238</v>
+        <v>0.31228</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.657102</v>
+        <v>0.647253</v>
       </c>
       <c r="C14" t="n">
-        <v>0.494923</v>
+        <v>0.523968</v>
       </c>
       <c r="D14" t="n">
-        <v>0.324147</v>
+        <v>0.323222</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.685628</v>
+        <v>0.679852</v>
       </c>
       <c r="C15" t="n">
-        <v>0.525386</v>
+        <v>0.5483479999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.337908</v>
+        <v>0.339688</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.721426</v>
+        <v>0.70918</v>
       </c>
       <c r="C16" t="n">
-        <v>0.553904</v>
+        <v>0.570623</v>
       </c>
       <c r="D16" t="n">
-        <v>0.35059</v>
+        <v>0.347661</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7604959999999999</v>
+        <v>0.745852</v>
       </c>
       <c r="C17" t="n">
-        <v>0.584036</v>
+        <v>0.599596</v>
       </c>
       <c r="D17" t="n">
-        <v>0.367417</v>
+        <v>0.36204</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.798897</v>
+        <v>0.783863</v>
       </c>
       <c r="C18" t="n">
-        <v>0.617102</v>
+        <v>0.634207</v>
       </c>
       <c r="D18" t="n">
-        <v>0.380288</v>
+        <v>0.379274</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8361189999999999</v>
+        <v>0.823904</v>
       </c>
       <c r="C19" t="n">
-        <v>0.650574</v>
+        <v>0.668195</v>
       </c>
       <c r="D19" t="n">
-        <v>0.391786</v>
+        <v>0.393209</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.879674</v>
+        <v>0.861145</v>
       </c>
       <c r="C20" t="n">
-        <v>0.684461</v>
+        <v>0.701</v>
       </c>
       <c r="D20" t="n">
-        <v>0.411329</v>
+        <v>0.406136</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.919621</v>
+        <v>0.901968</v>
       </c>
       <c r="C21" t="n">
-        <v>0.717937</v>
+        <v>0.73444</v>
       </c>
       <c r="D21" t="n">
-        <v>0.422999</v>
+        <v>0.418166</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.961492</v>
+        <v>0.948062</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7479980000000001</v>
+        <v>0.766286</v>
       </c>
       <c r="D22" t="n">
-        <v>0.435418</v>
+        <v>0.434473</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.997482</v>
+        <v>0.988162</v>
       </c>
       <c r="C23" t="n">
-        <v>0.787643</v>
+        <v>0.807472</v>
       </c>
       <c r="D23" t="n">
-        <v>0.451225</v>
+        <v>0.446065</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.04238</v>
+        <v>1.0359</v>
       </c>
       <c r="C24" t="n">
-        <v>0.819862</v>
+        <v>0.841176</v>
       </c>
       <c r="D24" t="n">
-        <v>0.468639</v>
+        <v>0.462208</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.0908</v>
+        <v>1.07822</v>
       </c>
       <c r="C25" t="n">
-        <v>0.856081</v>
+        <v>0.880668</v>
       </c>
       <c r="D25" t="n">
-        <v>0.485793</v>
+        <v>0.478814</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.13081</v>
+        <v>1.12096</v>
       </c>
       <c r="C26" t="n">
-        <v>0.546388</v>
+        <v>0.576447</v>
       </c>
       <c r="D26" t="n">
-        <v>0.342311</v>
+        <v>0.342659</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.728583</v>
+        <v>0.733121</v>
       </c>
       <c r="C27" t="n">
-        <v>0.570344</v>
+        <v>0.601665</v>
       </c>
       <c r="D27" t="n">
-        <v>0.354303</v>
+        <v>0.357379</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.760077</v>
+        <v>0.7683179999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.601096</v>
+        <v>0.634511</v>
       </c>
       <c r="D28" t="n">
-        <v>0.367469</v>
+        <v>0.372712</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.803217</v>
+        <v>0.803496</v>
       </c>
       <c r="C29" t="n">
-        <v>0.631686</v>
+        <v>0.662606</v>
       </c>
       <c r="D29" t="n">
-        <v>0.378008</v>
+        <v>0.385498</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.840388</v>
+        <v>0.838909</v>
       </c>
       <c r="C30" t="n">
-        <v>0.665925</v>
+        <v>0.695899</v>
       </c>
       <c r="D30" t="n">
-        <v>0.401093</v>
+        <v>0.402047</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.871823</v>
+        <v>0.876692</v>
       </c>
       <c r="C31" t="n">
-        <v>0.695588</v>
+        <v>0.728519</v>
       </c>
       <c r="D31" t="n">
-        <v>0.408946</v>
+        <v>0.413508</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.917203</v>
+        <v>0.915001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.731909</v>
+        <v>0.762055</v>
       </c>
       <c r="D32" t="n">
-        <v>0.429849</v>
+        <v>0.427806</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.95201</v>
+        <v>0.958576</v>
       </c>
       <c r="C33" t="n">
-        <v>0.764903</v>
+        <v>0.795368</v>
       </c>
       <c r="D33" t="n">
-        <v>0.444072</v>
+        <v>0.442732</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.993541</v>
+        <v>0.997596</v>
       </c>
       <c r="C34" t="n">
-        <v>0.800535</v>
+        <v>0.827667</v>
       </c>
       <c r="D34" t="n">
-        <v>0.457631</v>
+        <v>0.457842</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.04895</v>
+        <v>1.04499</v>
       </c>
       <c r="C35" t="n">
-        <v>0.830191</v>
+        <v>0.862777</v>
       </c>
       <c r="D35" t="n">
-        <v>0.470417</v>
+        <v>0.470435</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.08504</v>
+        <v>1.08726</v>
       </c>
       <c r="C36" t="n">
-        <v>0.862975</v>
+        <v>0.8984259999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.483349</v>
+        <v>0.488744</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.12856</v>
+        <v>1.13093</v>
       </c>
       <c r="C37" t="n">
-        <v>0.904842</v>
+        <v>0.9329499999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.500045</v>
+        <v>0.503336</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.18029</v>
+        <v>1.17767</v>
       </c>
       <c r="C38" t="n">
-        <v>0.948675</v>
+        <v>0.971645</v>
       </c>
       <c r="D38" t="n">
-        <v>0.514466</v>
+        <v>0.517964</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.22888</v>
+        <v>1.22807</v>
       </c>
       <c r="C39" t="n">
-        <v>0.981613</v>
+        <v>1.00513</v>
       </c>
       <c r="D39" t="n">
-        <v>0.534913</v>
+        <v>0.534071</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.2791</v>
+        <v>1.27608</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6116</v>
+        <v>0.638541</v>
       </c>
       <c r="D40" t="n">
-        <v>0.398404</v>
+        <v>0.399256</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.807802</v>
+        <v>0.804652</v>
       </c>
       <c r="C41" t="n">
-        <v>0.635953</v>
+        <v>0.6623790000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.407239</v>
+        <v>0.412001</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.843858</v>
+        <v>0.8392539999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.664055</v>
+        <v>0.689071</v>
       </c>
       <c r="D42" t="n">
-        <v>0.423401</v>
+        <v>0.427485</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8759439999999999</v>
+        <v>0.87215</v>
       </c>
       <c r="C43" t="n">
-        <v>0.694451</v>
+        <v>0.721167</v>
       </c>
       <c r="D43" t="n">
-        <v>0.438682</v>
+        <v>0.439298</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.918134</v>
+        <v>0.91433</v>
       </c>
       <c r="C44" t="n">
-        <v>0.725884</v>
+        <v>0.752135</v>
       </c>
       <c r="D44" t="n">
-        <v>0.453682</v>
+        <v>0.454294</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9553779999999999</v>
+        <v>0.947733</v>
       </c>
       <c r="C45" t="n">
-        <v>0.760572</v>
+        <v>0.784326</v>
       </c>
       <c r="D45" t="n">
-        <v>0.465414</v>
+        <v>0.468772</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.997659</v>
+        <v>0.9913380000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.794752</v>
+        <v>0.818378</v>
       </c>
       <c r="D46" t="n">
-        <v>0.486671</v>
+        <v>0.486965</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.04293</v>
+        <v>1.03509</v>
       </c>
       <c r="C47" t="n">
-        <v>0.827638</v>
+        <v>0.850136</v>
       </c>
       <c r="D47" t="n">
-        <v>0.501043</v>
+        <v>0.50459</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.08469</v>
+        <v>1.07788</v>
       </c>
       <c r="C48" t="n">
-        <v>0.862473</v>
+        <v>0.887593</v>
       </c>
       <c r="D48" t="n">
-        <v>0.518557</v>
+        <v>0.518397</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.12742</v>
+        <v>1.11977</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8985649999999999</v>
+        <v>0.927272</v>
       </c>
       <c r="D49" t="n">
-        <v>0.534508</v>
+        <v>0.529075</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.17579</v>
+        <v>1.16801</v>
       </c>
       <c r="C50" t="n">
-        <v>0.939115</v>
+        <v>0.963228</v>
       </c>
       <c r="D50" t="n">
-        <v>0.550748</v>
+        <v>0.545014</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.22046</v>
+        <v>1.2134</v>
       </c>
       <c r="C51" t="n">
-        <v>0.975185</v>
+        <v>0.997667</v>
       </c>
       <c r="D51" t="n">
-        <v>0.570906</v>
+        <v>0.566968</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.26569</v>
+        <v>1.25811</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01521</v>
+        <v>1.03246</v>
       </c>
       <c r="D52" t="n">
-        <v>0.58619</v>
+        <v>0.581795</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.31124</v>
+        <v>1.30582</v>
       </c>
       <c r="C53" t="n">
-        <v>1.05453</v>
+        <v>1.07397</v>
       </c>
       <c r="D53" t="n">
-        <v>0.606722</v>
+        <v>0.599372</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.35738</v>
+        <v>1.35225</v>
       </c>
       <c r="C54" t="n">
-        <v>0.644643</v>
+        <v>0.667064</v>
       </c>
       <c r="D54" t="n">
-        <v>0.432169</v>
+        <v>0.429615</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.843709</v>
+        <v>0.838103</v>
       </c>
       <c r="C55" t="n">
-        <v>0.669335</v>
+        <v>0.693075</v>
       </c>
       <c r="D55" t="n">
-        <v>0.442901</v>
+        <v>0.444195</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.877325</v>
+        <v>0.870205</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6972</v>
+        <v>0.720846</v>
       </c>
       <c r="D56" t="n">
-        <v>0.457745</v>
+        <v>0.455622</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.914452</v>
+        <v>0.906985</v>
       </c>
       <c r="C57" t="n">
-        <v>0.724789</v>
+        <v>0.750323</v>
       </c>
       <c r="D57" t="n">
-        <v>0.472376</v>
+        <v>0.470419</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.949779</v>
+        <v>0.941752</v>
       </c>
       <c r="C58" t="n">
-        <v>0.757107</v>
+        <v>0.78174</v>
       </c>
       <c r="D58" t="n">
-        <v>0.48835</v>
+        <v>0.484827</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.989722</v>
+        <v>0.980129</v>
       </c>
       <c r="C59" t="n">
-        <v>0.791022</v>
+        <v>0.815429</v>
       </c>
       <c r="D59" t="n">
-        <v>0.504973</v>
+        <v>0.50279</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.03079</v>
+        <v>1.02042</v>
       </c>
       <c r="C60" t="n">
-        <v>0.82375</v>
+        <v>0.8491649999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5222869999999999</v>
+        <v>0.518688</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.07112</v>
+        <v>1.06083</v>
       </c>
       <c r="C61" t="n">
-        <v>0.860337</v>
+        <v>0.8839</v>
       </c>
       <c r="D61" t="n">
-        <v>0.537294</v>
+        <v>0.53313</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.1144</v>
+        <v>1.10389</v>
       </c>
       <c r="C62" t="n">
-        <v>0.898124</v>
+        <v>0.920615</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5542820000000001</v>
+        <v>0.548924</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15715</v>
+        <v>1.14929</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9337</v>
+        <v>0.95359</v>
       </c>
       <c r="D63" t="n">
-        <v>0.571851</v>
+        <v>0.566051</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.20665</v>
+        <v>1.1971</v>
       </c>
       <c r="C64" t="n">
-        <v>0.972437</v>
+        <v>0.991821</v>
       </c>
       <c r="D64" t="n">
-        <v>0.587255</v>
+        <v>0.583852</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.25222</v>
+        <v>1.24265</v>
       </c>
       <c r="C65" t="n">
-        <v>1.01191</v>
+        <v>1.02765</v>
       </c>
       <c r="D65" t="n">
-        <v>0.605008</v>
+        <v>0.598325</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.29647</v>
+        <v>1.28698</v>
       </c>
       <c r="C66" t="n">
-        <v>1.05144</v>
+        <v>1.06743</v>
       </c>
       <c r="D66" t="n">
-        <v>0.622495</v>
+        <v>0.614935</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.34441</v>
+        <v>1.3365</v>
       </c>
       <c r="C67" t="n">
-        <v>1.09131</v>
+        <v>1.10705</v>
       </c>
       <c r="D67" t="n">
-        <v>0.640939</v>
+        <v>0.6314689999999999</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.39895</v>
+        <v>1.38258</v>
       </c>
       <c r="C68" t="n">
-        <v>0.663358</v>
+        <v>0.69165</v>
       </c>
       <c r="D68" t="n">
-        <v>0.455482</v>
+        <v>0.457144</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.889033</v>
+        <v>0.88861</v>
       </c>
       <c r="C69" t="n">
-        <v>0.702116</v>
+        <v>0.73069</v>
       </c>
       <c r="D69" t="n">
-        <v>0.471659</v>
+        <v>0.471712</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.94314</v>
+        <v>0.936307</v>
       </c>
       <c r="C70" t="n">
-        <v>0.747923</v>
+        <v>0.7690940000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.491394</v>
+        <v>0.492389</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9964229999999999</v>
+        <v>1.00008</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7923210000000001</v>
+        <v>0.815856</v>
       </c>
       <c r="D71" t="n">
-        <v>0.512786</v>
+        <v>0.512615</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.05461</v>
+        <v>1.06482</v>
       </c>
       <c r="C72" t="n">
-        <v>0.83791</v>
+        <v>0.876014</v>
       </c>
       <c r="D72" t="n">
-        <v>0.535223</v>
+        <v>0.536612</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.11486</v>
+        <v>1.14752</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8879899999999999</v>
+        <v>0.942904</v>
       </c>
       <c r="D73" t="n">
-        <v>0.554639</v>
+        <v>0.558872</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.18495</v>
+        <v>1.22069</v>
       </c>
       <c r="C74" t="n">
-        <v>0.945577</v>
+        <v>1.00396</v>
       </c>
       <c r="D74" t="n">
-        <v>0.577829</v>
+        <v>0.580793</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.26423</v>
+        <v>1.3077</v>
       </c>
       <c r="C75" t="n">
-        <v>1.00984</v>
+        <v>1.0754</v>
       </c>
       <c r="D75" t="n">
-        <v>0.604212</v>
+        <v>0.6021879999999999</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.35555</v>
+        <v>1.38676</v>
       </c>
       <c r="C76" t="n">
-        <v>1.08177</v>
+        <v>1.14262</v>
       </c>
       <c r="D76" t="n">
-        <v>0.629354</v>
+        <v>0.628477</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.46728</v>
+        <v>1.49425</v>
       </c>
       <c r="C77" t="n">
-        <v>1.17606</v>
+        <v>1.22928</v>
       </c>
       <c r="D77" t="n">
-        <v>0.661091</v>
+        <v>0.657687</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.60098</v>
+        <v>1.62275</v>
       </c>
       <c r="C78" t="n">
-        <v>1.28526</v>
+        <v>1.33285</v>
       </c>
       <c r="D78" t="n">
-        <v>0.690795</v>
+        <v>0.690418</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.72577</v>
+        <v>1.77674</v>
       </c>
       <c r="C79" t="n">
-        <v>1.38933</v>
+        <v>1.45832</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7381720000000001</v>
+        <v>0.724028</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.87528</v>
+        <v>1.94553</v>
       </c>
       <c r="C80" t="n">
-        <v>1.51205</v>
+        <v>1.6021</v>
       </c>
       <c r="D80" t="n">
-        <v>0.772174</v>
+        <v>0.765272</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.04549</v>
+        <v>2.12346</v>
       </c>
       <c r="C81" t="n">
-        <v>1.66589</v>
+        <v>1.75335</v>
       </c>
       <c r="D81" t="n">
-        <v>0.82097</v>
+        <v>0.812673</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.264</v>
+        <v>2.34825</v>
       </c>
       <c r="C82" t="n">
-        <v>1.84334</v>
+        <v>1.94711</v>
       </c>
       <c r="D82" t="n">
-        <v>0.881266</v>
+        <v>0.880553</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.5051</v>
+        <v>2.6081</v>
       </c>
       <c r="C83" t="n">
-        <v>1.20121</v>
+        <v>1.29762</v>
       </c>
       <c r="D83" t="n">
-        <v>0.651854</v>
+        <v>0.642227</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.68054</v>
+        <v>1.76428</v>
       </c>
       <c r="C84" t="n">
-        <v>1.3316</v>
+        <v>1.43233</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6873010000000001</v>
+        <v>0.689956</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.84005</v>
+        <v>1.97063</v>
       </c>
       <c r="C85" t="n">
-        <v>1.4702</v>
+        <v>1.58285</v>
       </c>
       <c r="D85" t="n">
-        <v>0.743931</v>
+        <v>0.738078</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.04375</v>
+        <v>2.16984</v>
       </c>
       <c r="C86" t="n">
-        <v>1.62436</v>
+        <v>1.76384</v>
       </c>
       <c r="D86" t="n">
-        <v>0.803056</v>
+        <v>0.814012</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.24779</v>
+        <v>2.40564</v>
       </c>
       <c r="C87" t="n">
-        <v>1.79953</v>
+        <v>1.95048</v>
       </c>
       <c r="D87" t="n">
-        <v>0.86705</v>
+        <v>0.87286</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.48633</v>
+        <v>2.65577</v>
       </c>
       <c r="C88" t="n">
-        <v>1.99065</v>
+        <v>2.16231</v>
       </c>
       <c r="D88" t="n">
-        <v>0.945565</v>
+        <v>0.9523</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.71625</v>
+        <v>2.93432</v>
       </c>
       <c r="C89" t="n">
-        <v>2.18587</v>
+        <v>2.39214</v>
       </c>
       <c r="D89" t="n">
-        <v>1.02982</v>
+        <v>1.03732</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.96793</v>
+        <v>3.24048</v>
       </c>
       <c r="C90" t="n">
-        <v>2.38595</v>
+        <v>2.63476</v>
       </c>
       <c r="D90" t="n">
-        <v>1.09821</v>
+        <v>1.12623</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.23632</v>
+        <v>3.54427</v>
       </c>
       <c r="C91" t="n">
-        <v>2.61227</v>
+        <v>2.89005</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19661</v>
+        <v>1.22098</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.53789</v>
+        <v>3.87643</v>
       </c>
       <c r="C92" t="n">
-        <v>2.85246</v>
+        <v>3.15406</v>
       </c>
       <c r="D92" t="n">
-        <v>1.28283</v>
+        <v>1.32192</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.83899</v>
+        <v>4.23605</v>
       </c>
       <c r="C93" t="n">
-        <v>3.10502</v>
+        <v>3.43747</v>
       </c>
       <c r="D93" t="n">
-        <v>1.37223</v>
+        <v>1.43089</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.15235</v>
+        <v>4.60451</v>
       </c>
       <c r="C94" t="n">
-        <v>3.36946</v>
+        <v>3.74162</v>
       </c>
       <c r="D94" t="n">
-        <v>1.47094</v>
+        <v>1.53766</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.48854</v>
+        <v>4.99346</v>
       </c>
       <c r="C95" t="n">
-        <v>3.64337</v>
+        <v>4.0593</v>
       </c>
       <c r="D95" t="n">
-        <v>1.58057</v>
+        <v>1.66395</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.84219</v>
+        <v>5.37722</v>
       </c>
       <c r="C96" t="n">
-        <v>3.95465</v>
+        <v>4.39501</v>
       </c>
       <c r="D96" t="n">
-        <v>1.70788</v>
+        <v>1.78896</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.19793</v>
+        <v>5.7141</v>
       </c>
       <c r="C97" t="n">
-        <v>2.3399</v>
+        <v>2.61137</v>
       </c>
       <c r="D97" t="n">
-        <v>1.17325</v>
+        <v>1.24189</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.19459</v>
+        <v>3.47966</v>
       </c>
       <c r="C98" t="n">
-        <v>2.50224</v>
+        <v>2.76997</v>
       </c>
       <c r="D98" t="n">
-        <v>1.25353</v>
+        <v>1.3166</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.40997</v>
+        <v>3.7037</v>
       </c>
       <c r="C99" t="n">
-        <v>2.67642</v>
+        <v>2.92467</v>
       </c>
       <c r="D99" t="n">
-        <v>1.32853</v>
+        <v>1.40026</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.64161</v>
+        <v>3.9385</v>
       </c>
       <c r="C100" t="n">
-        <v>2.85765</v>
+        <v>3.11364</v>
       </c>
       <c r="D100" t="n">
-        <v>1.41156</v>
+        <v>1.50366</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.88838</v>
+        <v>4.20415</v>
       </c>
       <c r="C101" t="n">
-        <v>3.03848</v>
+        <v>3.3207</v>
       </c>
       <c r="D101" t="n">
-        <v>1.49488</v>
+        <v>1.59337</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.06516</v>
+        <v>4.46165</v>
       </c>
       <c r="C102" t="n">
-        <v>3.22858</v>
+        <v>3.54775</v>
       </c>
       <c r="D102" t="n">
-        <v>1.57748</v>
+        <v>1.68945</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.3032</v>
+        <v>4.74684</v>
       </c>
       <c r="C103" t="n">
-        <v>3.44258</v>
+        <v>3.77977</v>
       </c>
       <c r="D103" t="n">
-        <v>1.66005</v>
+        <v>1.76574</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.52063</v>
+        <v>5.06145</v>
       </c>
       <c r="C104" t="n">
-        <v>3.59647</v>
+        <v>4.04014</v>
       </c>
       <c r="D104" t="n">
-        <v>1.76254</v>
+        <v>1.88349</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.80112</v>
+        <v>5.41069</v>
       </c>
       <c r="C105" t="n">
-        <v>3.81316</v>
+        <v>4.29273</v>
       </c>
       <c r="D105" t="n">
-        <v>1.8557</v>
+        <v>1.99731</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.07598</v>
+        <v>5.72232</v>
       </c>
       <c r="C106" t="n">
-        <v>4.03669</v>
+        <v>4.57215</v>
       </c>
       <c r="D106" t="n">
-        <v>1.94716</v>
+        <v>2.10404</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.39135</v>
+        <v>6.08228</v>
       </c>
       <c r="C107" t="n">
-        <v>4.28778</v>
+        <v>4.86954</v>
       </c>
       <c r="D107" t="n">
-        <v>2.04933</v>
+        <v>2.21109</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.69772</v>
+        <v>6.47451</v>
       </c>
       <c r="C108" t="n">
-        <v>4.5715</v>
+        <v>5.17518</v>
       </c>
       <c r="D108" t="n">
-        <v>2.15907</v>
+        <v>2.3456</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.0482</v>
+        <v>6.85589</v>
       </c>
       <c r="C109" t="n">
-        <v>4.86293</v>
+        <v>5.50315</v>
       </c>
       <c r="D109" t="n">
-        <v>2.27112</v>
+        <v>2.46765</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.39618</v>
+        <v>7.26394</v>
       </c>
       <c r="C110" t="n">
-        <v>5.15306</v>
+        <v>5.83802</v>
       </c>
       <c r="D110" t="n">
-        <v>2.38675</v>
+        <v>2.58906</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.75089</v>
+        <v>7.67649</v>
       </c>
       <c r="C111" t="n">
-        <v>2.93354</v>
+        <v>3.37809</v>
       </c>
       <c r="D111" t="n">
-        <v>1.66597</v>
+        <v>1.80295</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.99306</v>
+        <v>4.55159</v>
       </c>
       <c r="C112" t="n">
-        <v>3.09764</v>
+        <v>3.56417</v>
       </c>
       <c r="D112" t="n">
-        <v>1.73673</v>
+        <v>1.89015</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.2037</v>
+        <v>4.78687</v>
       </c>
       <c r="C113" t="n">
-        <v>3.26378</v>
+        <v>3.76075</v>
       </c>
       <c r="D113" t="n">
-        <v>1.81499</v>
+        <v>1.98307</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.43179</v>
+        <v>5.05355</v>
       </c>
       <c r="C114" t="n">
-        <v>3.45469</v>
+        <v>3.9724</v>
       </c>
       <c r="D114" t="n">
-        <v>1.90412</v>
+        <v>2.07484</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.66277</v>
+        <v>5.31819</v>
       </c>
       <c r="C115" t="n">
-        <v>3.64161</v>
+        <v>4.18781</v>
       </c>
       <c r="D115" t="n">
-        <v>1.9878</v>
+        <v>2.17093</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.91217</v>
+        <v>5.61167</v>
       </c>
       <c r="C116" t="n">
-        <v>3.85302</v>
+        <v>4.42489</v>
       </c>
       <c r="D116" t="n">
-        <v>2.08255</v>
+        <v>2.27038</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.18272</v>
+        <v>5.914</v>
       </c>
       <c r="C117" t="n">
-        <v>4.0743</v>
+        <v>4.67622</v>
       </c>
       <c r="D117" t="n">
-        <v>2.17002</v>
+        <v>2.37435</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.46506</v>
+        <v>6.24539</v>
       </c>
       <c r="C118" t="n">
-        <v>4.30861</v>
+        <v>4.94006</v>
       </c>
       <c r="D118" t="n">
-        <v>2.26271</v>
+        <v>2.46522</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.75768</v>
+        <v>6.58047</v>
       </c>
       <c r="C119" t="n">
-        <v>4.56536</v>
+        <v>5.22631</v>
       </c>
       <c r="D119" t="n">
-        <v>2.36567</v>
+        <v>2.59929</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.396092</v>
+        <v>0.388789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.289772</v>
+        <v>0.295557</v>
       </c>
       <c r="D2" t="n">
-        <v>0.313422</v>
+        <v>0.317194</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.402994</v>
+        <v>0.40499</v>
       </c>
       <c r="C3" t="n">
-        <v>0.292934</v>
+        <v>0.300855</v>
       </c>
       <c r="D3" t="n">
-        <v>0.319183</v>
+        <v>0.323134</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.412243</v>
+        <v>0.413482</v>
       </c>
       <c r="C4" t="n">
-        <v>0.297888</v>
+        <v>0.304989</v>
       </c>
       <c r="D4" t="n">
-        <v>0.322223</v>
+        <v>0.326508</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.424901</v>
+        <v>0.425521</v>
       </c>
       <c r="C5" t="n">
-        <v>0.304332</v>
+        <v>0.310066</v>
       </c>
       <c r="D5" t="n">
-        <v>0.326801</v>
+        <v>0.331171</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.436076</v>
+        <v>0.436738</v>
       </c>
       <c r="C6" t="n">
-        <v>0.309937</v>
+        <v>0.315621</v>
       </c>
       <c r="D6" t="n">
-        <v>0.333543</v>
+        <v>0.336659</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.449721</v>
+        <v>0.446502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.251946</v>
+        <v>0.262515</v>
       </c>
       <c r="D7" t="n">
-        <v>0.284426</v>
+        <v>0.285675</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.335903</v>
+        <v>0.344626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.259578</v>
+        <v>0.268252</v>
       </c>
       <c r="D8" t="n">
-        <v>0.293659</v>
+        <v>0.294109</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.348578</v>
+        <v>0.355497</v>
       </c>
       <c r="C9" t="n">
-        <v>0.266804</v>
+        <v>0.274714</v>
       </c>
       <c r="D9" t="n">
-        <v>0.298928</v>
+        <v>0.300943</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.360714</v>
+        <v>0.366393</v>
       </c>
       <c r="C10" t="n">
-        <v>0.276775</v>
+        <v>0.283485</v>
       </c>
       <c r="D10" t="n">
-        <v>0.309984</v>
+        <v>0.311271</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.375198</v>
+        <v>0.381661</v>
       </c>
       <c r="C11" t="n">
-        <v>0.284195</v>
+        <v>0.292146</v>
       </c>
       <c r="D11" t="n">
-        <v>0.320297</v>
+        <v>0.320375</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.382659</v>
+        <v>0.391445</v>
       </c>
       <c r="C12" t="n">
-        <v>0.293542</v>
+        <v>0.301301</v>
       </c>
       <c r="D12" t="n">
-        <v>0.327596</v>
+        <v>0.330436</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.397812</v>
+        <v>0.40436</v>
       </c>
       <c r="C13" t="n">
-        <v>0.301804</v>
+        <v>0.311567</v>
       </c>
       <c r="D13" t="n">
-        <v>0.338413</v>
+        <v>0.341086</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.413388</v>
+        <v>0.41675</v>
       </c>
       <c r="C14" t="n">
-        <v>0.309415</v>
+        <v>0.317848</v>
       </c>
       <c r="D14" t="n">
-        <v>0.348563</v>
+        <v>0.350409</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.425486</v>
+        <v>0.428923</v>
       </c>
       <c r="C15" t="n">
-        <v>0.315164</v>
+        <v>0.324535</v>
       </c>
       <c r="D15" t="n">
-        <v>0.35583</v>
+        <v>0.35895</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.438299</v>
+        <v>0.442626</v>
       </c>
       <c r="C16" t="n">
-        <v>0.323462</v>
+        <v>0.332414</v>
       </c>
       <c r="D16" t="n">
-        <v>0.365986</v>
+        <v>0.368915</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.451246</v>
+        <v>0.456479</v>
       </c>
       <c r="C17" t="n">
-        <v>0.330823</v>
+        <v>0.340467</v>
       </c>
       <c r="D17" t="n">
-        <v>0.373007</v>
+        <v>0.376244</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.463407</v>
+        <v>0.468506</v>
       </c>
       <c r="C18" t="n">
-        <v>0.337147</v>
+        <v>0.346569</v>
       </c>
       <c r="D18" t="n">
-        <v>0.381433</v>
+        <v>0.386436</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.475886</v>
+        <v>0.483098</v>
       </c>
       <c r="C19" t="n">
-        <v>0.342489</v>
+        <v>0.353711</v>
       </c>
       <c r="D19" t="n">
-        <v>0.389384</v>
+        <v>0.392798</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.488344</v>
+        <v>0.49335</v>
       </c>
       <c r="C20" t="n">
-        <v>0.350468</v>
+        <v>0.361557</v>
       </c>
       <c r="D20" t="n">
-        <v>0.398922</v>
+        <v>0.398563</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.501383</v>
+        <v>0.506524</v>
       </c>
       <c r="C21" t="n">
-        <v>0.280749</v>
+        <v>0.281955</v>
       </c>
       <c r="D21" t="n">
-        <v>0.31482</v>
+        <v>0.306975</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.389677</v>
+        <v>0.385976</v>
       </c>
       <c r="C22" t="n">
-        <v>0.288786</v>
+        <v>0.290677</v>
       </c>
       <c r="D22" t="n">
-        <v>0.323282</v>
+        <v>0.316755</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.400825</v>
+        <v>0.397125</v>
       </c>
       <c r="C23" t="n">
-        <v>0.297023</v>
+        <v>0.299764</v>
       </c>
       <c r="D23" t="n">
-        <v>0.33396</v>
+        <v>0.326076</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.411152</v>
+        <v>0.407217</v>
       </c>
       <c r="C24" t="n">
-        <v>0.305387</v>
+        <v>0.307439</v>
       </c>
       <c r="D24" t="n">
-        <v>0.343113</v>
+        <v>0.336064</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.422679</v>
+        <v>0.419875</v>
       </c>
       <c r="C25" t="n">
-        <v>0.313864</v>
+        <v>0.314611</v>
       </c>
       <c r="D25" t="n">
-        <v>0.353439</v>
+        <v>0.345702</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.434078</v>
+        <v>0.431294</v>
       </c>
       <c r="C26" t="n">
-        <v>0.322283</v>
+        <v>0.323315</v>
       </c>
       <c r="D26" t="n">
-        <v>0.364628</v>
+        <v>0.356501</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.442947</v>
+        <v>0.450768</v>
       </c>
       <c r="C27" t="n">
-        <v>0.33039</v>
+        <v>0.332074</v>
       </c>
       <c r="D27" t="n">
-        <v>0.375827</v>
+        <v>0.367641</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.458666</v>
+        <v>0.456762</v>
       </c>
       <c r="C28" t="n">
-        <v>0.338915</v>
+        <v>0.339277</v>
       </c>
       <c r="D28" t="n">
-        <v>0.385082</v>
+        <v>0.377146</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.471283</v>
+        <v>0.467892</v>
       </c>
       <c r="C29" t="n">
-        <v>0.346424</v>
+        <v>0.347578</v>
       </c>
       <c r="D29" t="n">
-        <v>0.396279</v>
+        <v>0.388399</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.482573</v>
+        <v>0.47831</v>
       </c>
       <c r="C30" t="n">
-        <v>0.353961</v>
+        <v>0.354249</v>
       </c>
       <c r="D30" t="n">
-        <v>0.40598</v>
+        <v>0.397284</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.492977</v>
+        <v>0.489542</v>
       </c>
       <c r="C31" t="n">
-        <v>0.359934</v>
+        <v>0.361142</v>
       </c>
       <c r="D31" t="n">
-        <v>0.415007</v>
+        <v>0.406762</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.504297</v>
+        <v>0.500644</v>
       </c>
       <c r="C32" t="n">
-        <v>0.36867</v>
+        <v>0.368702</v>
       </c>
       <c r="D32" t="n">
-        <v>0.424638</v>
+        <v>0.416561</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.51635</v>
+        <v>0.5130710000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.375482</v>
+        <v>0.374428</v>
       </c>
       <c r="D33" t="n">
-        <v>0.433042</v>
+        <v>0.424919</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.532156</v>
+        <v>0.523908</v>
       </c>
       <c r="C34" t="n">
-        <v>0.383214</v>
+        <v>0.381814</v>
       </c>
       <c r="D34" t="n">
-        <v>0.442641</v>
+        <v>0.43452</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.539776</v>
+        <v>0.540432</v>
       </c>
       <c r="C35" t="n">
-        <v>0.298346</v>
+        <v>0.305862</v>
       </c>
       <c r="D35" t="n">
-        <v>0.338227</v>
+        <v>0.337473</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.409444</v>
+        <v>0.412277</v>
       </c>
       <c r="C36" t="n">
-        <v>0.305424</v>
+        <v>0.313741</v>
       </c>
       <c r="D36" t="n">
-        <v>0.348113</v>
+        <v>0.348421</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.420435</v>
+        <v>0.423264</v>
       </c>
       <c r="C37" t="n">
-        <v>0.313681</v>
+        <v>0.321548</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3572</v>
+        <v>0.357574</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.430835</v>
+        <v>0.433916</v>
       </c>
       <c r="C38" t="n">
-        <v>0.322936</v>
+        <v>0.330206</v>
       </c>
       <c r="D38" t="n">
-        <v>0.367871</v>
+        <v>0.369474</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.441806</v>
+        <v>0.444879</v>
       </c>
       <c r="C39" t="n">
-        <v>0.330813</v>
+        <v>0.33879</v>
       </c>
       <c r="D39" t="n">
-        <v>0.378792</v>
+        <v>0.378988</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.452957</v>
+        <v>0.455611</v>
       </c>
       <c r="C40" t="n">
-        <v>0.339519</v>
+        <v>0.346274</v>
       </c>
       <c r="D40" t="n">
-        <v>0.38917</v>
+        <v>0.389651</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.46845</v>
+        <v>0.470339</v>
       </c>
       <c r="C41" t="n">
-        <v>0.348158</v>
+        <v>0.355072</v>
       </c>
       <c r="D41" t="n">
-        <v>0.400318</v>
+        <v>0.400554</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.476016</v>
+        <v>0.477539</v>
       </c>
       <c r="C42" t="n">
-        <v>0.35613</v>
+        <v>0.361859</v>
       </c>
       <c r="D42" t="n">
-        <v>0.409439</v>
+        <v>0.410342</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.488529</v>
+        <v>0.491012</v>
       </c>
       <c r="C43" t="n">
-        <v>0.363805</v>
+        <v>0.369335</v>
       </c>
       <c r="D43" t="n">
-        <v>0.41991</v>
+        <v>0.421046</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.500742</v>
+        <v>0.502277</v>
       </c>
       <c r="C44" t="n">
-        <v>0.370576</v>
+        <v>0.376441</v>
       </c>
       <c r="D44" t="n">
-        <v>0.428083</v>
+        <v>0.430611</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5115420000000001</v>
+        <v>0.513192</v>
       </c>
       <c r="C45" t="n">
-        <v>0.377531</v>
+        <v>0.382897</v>
       </c>
       <c r="D45" t="n">
-        <v>0.437451</v>
+        <v>0.440012</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.522903</v>
+        <v>0.523879</v>
       </c>
       <c r="C46" t="n">
-        <v>0.383936</v>
+        <v>0.389039</v>
       </c>
       <c r="D46" t="n">
-        <v>0.445723</v>
+        <v>0.448049</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.534591</v>
+        <v>0.535744</v>
       </c>
       <c r="C47" t="n">
-        <v>0.390837</v>
+        <v>0.395135</v>
       </c>
       <c r="D47" t="n">
-        <v>0.453909</v>
+        <v>0.457049</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.552163</v>
+        <v>0.546881</v>
       </c>
       <c r="C48" t="n">
-        <v>0.397663</v>
+        <v>0.401283</v>
       </c>
       <c r="D48" t="n">
-        <v>0.463186</v>
+        <v>0.465984</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.56069</v>
+        <v>0.560487</v>
       </c>
       <c r="C49" t="n">
-        <v>0.404917</v>
+        <v>0.408731</v>
       </c>
       <c r="D49" t="n">
-        <v>0.473127</v>
+        <v>0.474393</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.576249</v>
+        <v>0.569958</v>
       </c>
       <c r="C50" t="n">
-        <v>0.311389</v>
+        <v>0.320978</v>
       </c>
       <c r="D50" t="n">
-        <v>0.34729</v>
+        <v>0.347713</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430632</v>
+        <v>0.431174</v>
       </c>
       <c r="C51" t="n">
-        <v>0.320542</v>
+        <v>0.329258</v>
       </c>
       <c r="D51" t="n">
-        <v>0.35802</v>
+        <v>0.35922</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.440256</v>
+        <v>0.441742</v>
       </c>
       <c r="C52" t="n">
-        <v>0.329411</v>
+        <v>0.337868</v>
       </c>
       <c r="D52" t="n">
-        <v>0.369199</v>
+        <v>0.369831</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.452198</v>
+        <v>0.453189</v>
       </c>
       <c r="C53" t="n">
-        <v>0.337878</v>
+        <v>0.346226</v>
       </c>
       <c r="D53" t="n">
-        <v>0.380094</v>
+        <v>0.380561</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.463763</v>
+        <v>0.465378</v>
       </c>
       <c r="C54" t="n">
-        <v>0.347132</v>
+        <v>0.354714</v>
       </c>
       <c r="D54" t="n">
-        <v>0.391585</v>
+        <v>0.391899</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.47887</v>
+        <v>0.479298</v>
       </c>
       <c r="C55" t="n">
-        <v>0.356009</v>
+        <v>0.362866</v>
       </c>
       <c r="D55" t="n">
-        <v>0.402742</v>
+        <v>0.403708</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.487514</v>
+        <v>0.488373</v>
       </c>
       <c r="C56" t="n">
-        <v>0.364041</v>
+        <v>0.370925</v>
       </c>
       <c r="D56" t="n">
-        <v>0.412546</v>
+        <v>0.414775</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.498513</v>
+        <v>0.499876</v>
       </c>
       <c r="C57" t="n">
-        <v>0.371901</v>
+        <v>0.377754</v>
       </c>
       <c r="D57" t="n">
-        <v>0.421954</v>
+        <v>0.424318</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.509329</v>
+        <v>0.509968</v>
       </c>
       <c r="C58" t="n">
-        <v>0.378743</v>
+        <v>0.383839</v>
       </c>
       <c r="D58" t="n">
-        <v>0.431721</v>
+        <v>0.433017</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.51961</v>
+        <v>0.520871</v>
       </c>
       <c r="C59" t="n">
-        <v>0.385354</v>
+        <v>0.390133</v>
       </c>
       <c r="D59" t="n">
-        <v>0.440584</v>
+        <v>0.442396</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5310589999999999</v>
+        <v>0.532093</v>
       </c>
       <c r="C60" t="n">
-        <v>0.39192</v>
+        <v>0.396822</v>
       </c>
       <c r="D60" t="n">
-        <v>0.449948</v>
+        <v>0.451924</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.545658</v>
+        <v>0.5424870000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.398571</v>
+        <v>0.402508</v>
       </c>
       <c r="D61" t="n">
-        <v>0.458525</v>
+        <v>0.460624</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.556478</v>
+        <v>0.5555290000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.406378</v>
+        <v>0.408711</v>
       </c>
       <c r="D62" t="n">
-        <v>0.468815</v>
+        <v>0.469318</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.568156</v>
+        <v>0.566689</v>
       </c>
       <c r="C63" t="n">
-        <v>0.413184</v>
+        <v>0.416415</v>
       </c>
       <c r="D63" t="n">
-        <v>0.478062</v>
+        <v>0.479241</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.581934</v>
+        <v>0.581408</v>
       </c>
       <c r="C64" t="n">
-        <v>0.322432</v>
+        <v>0.33228</v>
       </c>
       <c r="D64" t="n">
-        <v>0.36382</v>
+        <v>0.364911</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.452881</v>
+        <v>0.459758</v>
       </c>
       <c r="C65" t="n">
-        <v>0.331898</v>
+        <v>0.340575</v>
       </c>
       <c r="D65" t="n">
-        <v>0.376401</v>
+        <v>0.378686</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.470985</v>
+        <v>0.476886</v>
       </c>
       <c r="C66" t="n">
-        <v>0.343202</v>
+        <v>0.351541</v>
       </c>
       <c r="D66" t="n">
-        <v>0.389484</v>
+        <v>0.391076</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.487685</v>
+        <v>0.488809</v>
       </c>
       <c r="C67" t="n">
-        <v>0.353853</v>
+        <v>0.362637</v>
       </c>
       <c r="D67" t="n">
-        <v>0.40355</v>
+        <v>0.405616</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.507189</v>
+        <v>0.507557</v>
       </c>
       <c r="C68" t="n">
-        <v>0.365464</v>
+        <v>0.374914</v>
       </c>
       <c r="D68" t="n">
-        <v>0.41721</v>
+        <v>0.420859</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.531614</v>
+        <v>0.5067469999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.37884</v>
+        <v>0.385033</v>
       </c>
       <c r="D69" t="n">
-        <v>0.434426</v>
+        <v>0.437024</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5526990000000001</v>
+        <v>0.524306</v>
       </c>
       <c r="C70" t="n">
-        <v>0.392631</v>
+        <v>0.395603</v>
       </c>
       <c r="D70" t="n">
-        <v>0.452543</v>
+        <v>0.450467</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.571972</v>
+        <v>0.563177</v>
       </c>
       <c r="C71" t="n">
-        <v>0.405044</v>
+        <v>0.406327</v>
       </c>
       <c r="D71" t="n">
-        <v>0.468306</v>
+        <v>0.466103</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.598222</v>
+        <v>0.580354</v>
       </c>
       <c r="C72" t="n">
-        <v>0.420281</v>
+        <v>0.416799</v>
       </c>
       <c r="D72" t="n">
-        <v>0.485249</v>
+        <v>0.477181</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.625599</v>
+        <v>0.6060219999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.435636</v>
+        <v>0.43079</v>
       </c>
       <c r="D73" t="n">
-        <v>0.505153</v>
+        <v>0.49419</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.657898</v>
+        <v>0.634756</v>
       </c>
       <c r="C74" t="n">
-        <v>0.453964</v>
+        <v>0.444332</v>
       </c>
       <c r="D74" t="n">
-        <v>0.527343</v>
+        <v>0.512877</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.692509</v>
+        <v>0.6643790000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.47246</v>
+        <v>0.460139</v>
       </c>
       <c r="D75" t="n">
-        <v>0.549817</v>
+        <v>0.530923</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.732764</v>
+        <v>0.702631</v>
       </c>
       <c r="C76" t="n">
-        <v>0.494956</v>
+        <v>0.480867</v>
       </c>
       <c r="D76" t="n">
-        <v>0.575879</v>
+        <v>0.556812</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.776136</v>
+        <v>0.744905</v>
       </c>
       <c r="C77" t="n">
-        <v>0.51999</v>
+        <v>0.505159</v>
       </c>
       <c r="D77" t="n">
-        <v>0.605174</v>
+        <v>0.585051</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.82803</v>
+        <v>0.8010429999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.458796</v>
+        <v>0.451634</v>
       </c>
       <c r="D78" t="n">
-        <v>0.524268</v>
+        <v>0.501795</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.823605</v>
+        <v>0.792967</v>
       </c>
       <c r="C79" t="n">
-        <v>0.482123</v>
+        <v>0.478036</v>
       </c>
       <c r="D79" t="n">
-        <v>0.556032</v>
+        <v>0.528737</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.865823</v>
+        <v>0.8369450000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.508991</v>
+        <v>0.504606</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5863080000000001</v>
+        <v>0.560882</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.904107</v>
+        <v>0.884937</v>
       </c>
       <c r="C81" t="n">
-        <v>0.539008</v>
+        <v>0.535121</v>
       </c>
       <c r="D81" t="n">
-        <v>0.613105</v>
+        <v>0.595118</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.952579</v>
+        <v>0.933707</v>
       </c>
       <c r="C82" t="n">
-        <v>0.571943</v>
+        <v>0.566109</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6446769999999999</v>
+        <v>0.631355</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.00141</v>
+        <v>0.98389</v>
       </c>
       <c r="C83" t="n">
-        <v>0.603648</v>
+        <v>0.598519</v>
       </c>
       <c r="D83" t="n">
-        <v>0.680639</v>
+        <v>0.668054</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.04091</v>
+        <v>1.04592</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6391559999999999</v>
+        <v>0.6318550000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7256359999999999</v>
+        <v>0.71282</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.10524</v>
+        <v>1.0906</v>
       </c>
       <c r="C85" t="n">
-        <v>0.67334</v>
+        <v>0.668228</v>
       </c>
       <c r="D85" t="n">
-        <v>0.765343</v>
+        <v>0.754055</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.15851</v>
+        <v>1.14854</v>
       </c>
       <c r="C86" t="n">
-        <v>0.708996</v>
+        <v>0.70616</v>
       </c>
       <c r="D86" t="n">
-        <v>0.806466</v>
+        <v>0.796214</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.21274</v>
+        <v>1.20768</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7441410000000001</v>
+        <v>0.744085</v>
       </c>
       <c r="D87" t="n">
-        <v>0.841801</v>
+        <v>0.8339800000000001</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.26935</v>
+        <v>1.26792</v>
       </c>
       <c r="C88" t="n">
-        <v>0.780229</v>
+        <v>0.781492</v>
       </c>
       <c r="D88" t="n">
-        <v>0.879288</v>
+        <v>0.875624</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.32532</v>
+        <v>1.32812</v>
       </c>
       <c r="C89" t="n">
-        <v>0.815157</v>
+        <v>0.819641</v>
       </c>
       <c r="D89" t="n">
-        <v>0.919107</v>
+        <v>0.917333</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.38758</v>
+        <v>1.39289</v>
       </c>
       <c r="C90" t="n">
-        <v>0.855302</v>
+        <v>0.85997</v>
       </c>
       <c r="D90" t="n">
-        <v>0.959884</v>
+        <v>0.9609839999999999</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.45524</v>
+        <v>1.46133</v>
       </c>
       <c r="C91" t="n">
-        <v>0.897514</v>
+        <v>0.901909</v>
       </c>
       <c r="D91" t="n">
-        <v>1.00484</v>
+        <v>1.00593</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.52519</v>
+        <v>1.53013</v>
       </c>
       <c r="C92" t="n">
-        <v>0.768577</v>
+        <v>0.78371</v>
       </c>
       <c r="D92" t="n">
-        <v>0.885239</v>
+        <v>0.897555</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.33211</v>
+        <v>1.34441</v>
       </c>
       <c r="C93" t="n">
-        <v>0.795513</v>
+        <v>0.811688</v>
       </c>
       <c r="D93" t="n">
-        <v>0.92963</v>
+        <v>0.941455</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.37038</v>
+        <v>1.38305</v>
       </c>
       <c r="C94" t="n">
-        <v>0.824229</v>
+        <v>0.840653</v>
       </c>
       <c r="D94" t="n">
-        <v>0.960354</v>
+        <v>0.973149</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.41082</v>
+        <v>1.42662</v>
       </c>
       <c r="C95" t="n">
-        <v>0.854582</v>
+        <v>0.8707549999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.98584</v>
+        <v>0.999126</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.45296</v>
+        <v>1.46445</v>
       </c>
       <c r="C96" t="n">
-        <v>0.886644</v>
+        <v>0.902118</v>
       </c>
       <c r="D96" t="n">
-        <v>1.01929</v>
+        <v>1.03195</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.49537</v>
+        <v>1.50893</v>
       </c>
       <c r="C97" t="n">
-        <v>0.918785</v>
+        <v>0.934909</v>
       </c>
       <c r="D97" t="n">
-        <v>1.07856</v>
+        <v>1.09223</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.53975</v>
+        <v>1.55355</v>
       </c>
       <c r="C98" t="n">
-        <v>0.951591</v>
+        <v>0.9676</v>
       </c>
       <c r="D98" t="n">
-        <v>1.10719</v>
+        <v>1.1205</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.58637</v>
+        <v>1.60223</v>
       </c>
       <c r="C99" t="n">
-        <v>0.985537</v>
+        <v>1.00215</v>
       </c>
       <c r="D99" t="n">
-        <v>1.14938</v>
+        <v>1.16428</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.63414</v>
+        <v>1.64944</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02</v>
+        <v>1.0363</v>
       </c>
       <c r="D100" t="n">
-        <v>1.19373</v>
+        <v>1.21101</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.68192</v>
+        <v>1.69982</v>
       </c>
       <c r="C101" t="n">
-        <v>1.0554</v>
+        <v>1.07134</v>
       </c>
       <c r="D101" t="n">
-        <v>1.23807</v>
+        <v>1.25537</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.73396</v>
+        <v>1.752</v>
       </c>
       <c r="C102" t="n">
-        <v>1.09148</v>
+        <v>1.10895</v>
       </c>
       <c r="D102" t="n">
-        <v>1.27768</v>
+        <v>1.30465</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.78987</v>
+        <v>1.80698</v>
       </c>
       <c r="C103" t="n">
-        <v>1.12962</v>
+        <v>1.14569</v>
       </c>
       <c r="D103" t="n">
-        <v>1.32491</v>
+        <v>1.35086</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.84696</v>
+        <v>1.86507</v>
       </c>
       <c r="C104" t="n">
-        <v>1.16795</v>
+        <v>1.18444</v>
       </c>
       <c r="D104" t="n">
-        <v>1.37416</v>
+        <v>1.39898</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.90716</v>
+        <v>1.92695</v>
       </c>
       <c r="C105" t="n">
-        <v>1.20851</v>
+        <v>1.22554</v>
       </c>
       <c r="D105" t="n">
-        <v>1.42263</v>
+        <v>1.44994</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.97179</v>
+        <v>1.99251</v>
       </c>
       <c r="C106" t="n">
-        <v>1.25087</v>
+        <v>1.26807</v>
       </c>
       <c r="D106" t="n">
-        <v>1.47415</v>
+        <v>1.50128</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.62548</v>
+        <v>1.63742</v>
       </c>
       <c r="C107" t="n">
-        <v>1.01712</v>
+        <v>1.03311</v>
       </c>
       <c r="D107" t="n">
-        <v>1.25256</v>
+        <v>1.26043</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.66086</v>
+        <v>1.6636</v>
       </c>
       <c r="C108" t="n">
-        <v>1.04265</v>
+        <v>1.06031</v>
       </c>
       <c r="D108" t="n">
-        <v>1.28249</v>
+        <v>1.29193</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.6915</v>
+        <v>1.6978</v>
       </c>
       <c r="C109" t="n">
-        <v>1.07071</v>
+        <v>1.08739</v>
       </c>
       <c r="D109" t="n">
-        <v>1.3303</v>
+        <v>1.33945</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.71602</v>
+        <v>1.74002</v>
       </c>
       <c r="C110" t="n">
-        <v>1.08152</v>
+        <v>1.11557</v>
       </c>
       <c r="D110" t="n">
-        <v>1.34145</v>
+        <v>1.37599</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.76524</v>
+        <v>1.78494</v>
       </c>
       <c r="C111" t="n">
-        <v>1.12688</v>
+        <v>1.14797</v>
       </c>
       <c r="D111" t="n">
-        <v>1.39413</v>
+        <v>1.40714</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.80634</v>
+        <v>1.82647</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1603</v>
+        <v>1.17847</v>
       </c>
       <c r="D112" t="n">
-        <v>1.43863</v>
+        <v>1.45224</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.84653</v>
+        <v>1.86587</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19231</v>
+        <v>1.21046</v>
       </c>
       <c r="D113" t="n">
-        <v>1.48051</v>
+        <v>1.49411</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.89386</v>
+        <v>1.91172</v>
       </c>
       <c r="C114" t="n">
-        <v>1.22472</v>
+        <v>1.24033</v>
       </c>
       <c r="D114" t="n">
-        <v>1.5144</v>
+        <v>1.52923</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.92759</v>
+        <v>1.94198</v>
       </c>
       <c r="C115" t="n">
-        <v>1.24379</v>
+        <v>1.25929</v>
       </c>
       <c r="D115" t="n">
-        <v>1.56901</v>
+        <v>1.57762</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.97544</v>
+        <v>1.9899</v>
       </c>
       <c r="C116" t="n">
-        <v>1.27805</v>
+        <v>1.29441</v>
       </c>
       <c r="D116" t="n">
-        <v>1.61288</v>
+        <v>1.62266</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.02984</v>
+        <v>2.04712</v>
       </c>
       <c r="C117" t="n">
-        <v>1.31424</v>
+        <v>1.32881</v>
       </c>
       <c r="D117" t="n">
-        <v>1.65835</v>
+        <v>1.66819</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.08747</v>
+        <v>2.10314</v>
       </c>
       <c r="C118" t="n">
-        <v>1.35245</v>
+        <v>1.36595</v>
       </c>
       <c r="D118" t="n">
-        <v>1.70038</v>
+        <v>1.71092</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.13895</v>
+        <v>2.15487</v>
       </c>
       <c r="C119" t="n">
-        <v>1.39098</v>
+        <v>1.40594</v>
       </c>
       <c r="D119" t="n">
-        <v>1.75048</v>
+        <v>1.75926</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.279766</v>
+        <v>0.278281</v>
       </c>
       <c r="C2" t="n">
-        <v>0.200826</v>
+        <v>0.205928</v>
       </c>
       <c r="D2" t="n">
-        <v>0.179987</v>
+        <v>0.180495</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.293105</v>
+        <v>0.287154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207552</v>
+        <v>0.211769</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183851</v>
+        <v>0.182862</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.299197</v>
+        <v>0.296144</v>
       </c>
       <c r="C4" t="n">
-        <v>0.213485</v>
+        <v>0.218675</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185021</v>
+        <v>0.185186</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.308613</v>
+        <v>0.308143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.21869</v>
+        <v>0.227359</v>
       </c>
       <c r="D5" t="n">
-        <v>0.189105</v>
+        <v>0.18938</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.321379</v>
+        <v>0.322835</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228151</v>
+        <v>0.235525</v>
       </c>
       <c r="D6" t="n">
-        <v>0.192221</v>
+        <v>0.191908</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.332437</v>
+        <v>0.331503</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188731</v>
+        <v>0.19865</v>
       </c>
       <c r="D7" t="n">
-        <v>0.173443</v>
+        <v>0.176478</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252607</v>
+        <v>0.255822</v>
       </c>
       <c r="C8" t="n">
-        <v>0.191308</v>
+        <v>0.200269</v>
       </c>
       <c r="D8" t="n">
-        <v>0.175115</v>
+        <v>0.178454</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.254265</v>
+        <v>0.260234</v>
       </c>
       <c r="C9" t="n">
-        <v>0.197451</v>
+        <v>0.206139</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177958</v>
+        <v>0.180537</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.264267</v>
+        <v>0.269662</v>
       </c>
       <c r="C10" t="n">
-        <v>0.203748</v>
+        <v>0.210562</v>
       </c>
       <c r="D10" t="n">
-        <v>0.18178</v>
+        <v>0.184829</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.270729</v>
+        <v>0.276299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.208483</v>
+        <v>0.216407</v>
       </c>
       <c r="D11" t="n">
-        <v>0.184969</v>
+        <v>0.186421</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.278313</v>
+        <v>0.285514</v>
       </c>
       <c r="C12" t="n">
-        <v>0.214302</v>
+        <v>0.223354</v>
       </c>
       <c r="D12" t="n">
-        <v>0.188123</v>
+        <v>0.190679</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.285632</v>
+        <v>0.287758</v>
       </c>
       <c r="C13" t="n">
-        <v>0.223271</v>
+        <v>0.232025</v>
       </c>
       <c r="D13" t="n">
-        <v>0.189562</v>
+        <v>0.193528</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.29739</v>
+        <v>0.302981</v>
       </c>
       <c r="C14" t="n">
-        <v>0.229617</v>
+        <v>0.238606</v>
       </c>
       <c r="D14" t="n">
-        <v>0.194445</v>
+        <v>0.197458</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.30462</v>
+        <v>0.311163</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236089</v>
+        <v>0.244722</v>
       </c>
       <c r="D15" t="n">
-        <v>0.198291</v>
+        <v>0.201786</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.315854</v>
+        <v>0.318138</v>
       </c>
       <c r="C16" t="n">
-        <v>0.246553</v>
+        <v>0.254482</v>
       </c>
       <c r="D16" t="n">
-        <v>0.202494</v>
+        <v>0.206234</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.328604</v>
+        <v>0.331228</v>
       </c>
       <c r="C17" t="n">
-        <v>0.254784</v>
+        <v>0.261735</v>
       </c>
       <c r="D17" t="n">
-        <v>0.206641</v>
+        <v>0.210394</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.338726</v>
+        <v>0.340807</v>
       </c>
       <c r="C18" t="n">
-        <v>0.263425</v>
+        <v>0.270188</v>
       </c>
       <c r="D18" t="n">
-        <v>0.210655</v>
+        <v>0.211986</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.35094</v>
+        <v>0.352793</v>
       </c>
       <c r="C19" t="n">
-        <v>0.271412</v>
+        <v>0.279354</v>
       </c>
       <c r="D19" t="n">
-        <v>0.216604</v>
+        <v>0.219429</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.364564</v>
+        <v>0.367097</v>
       </c>
       <c r="C20" t="n">
-        <v>0.284078</v>
+        <v>0.291922</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221518</v>
+        <v>0.223199</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.377572</v>
+        <v>0.378842</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231845</v>
+        <v>0.235849</v>
       </c>
       <c r="D21" t="n">
-        <v>0.203642</v>
+        <v>0.206138</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.294598</v>
+        <v>0.295424</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237615</v>
+        <v>0.241738</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206346</v>
+        <v>0.208962</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.302175</v>
+        <v>0.302645</v>
       </c>
       <c r="C23" t="n">
-        <v>0.244241</v>
+        <v>0.248394</v>
       </c>
       <c r="D23" t="n">
-        <v>0.209698</v>
+        <v>0.212198</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.309893</v>
+        <v>0.31051</v>
       </c>
       <c r="C24" t="n">
-        <v>0.249167</v>
+        <v>0.252818</v>
       </c>
       <c r="D24" t="n">
-        <v>0.213348</v>
+        <v>0.216249</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.317176</v>
+        <v>0.317899</v>
       </c>
       <c r="C25" t="n">
-        <v>0.255507</v>
+        <v>0.259695</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216647</v>
+        <v>0.219278</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.325919</v>
+        <v>0.32605</v>
       </c>
       <c r="C26" t="n">
-        <v>0.263187</v>
+        <v>0.267254</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220546</v>
+        <v>0.222909</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332931</v>
+        <v>0.334278</v>
       </c>
       <c r="C27" t="n">
-        <v>0.267774</v>
+        <v>0.27185</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224456</v>
+        <v>0.227121</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.342754</v>
+        <v>0.342693</v>
       </c>
       <c r="C28" t="n">
-        <v>0.274202</v>
+        <v>0.279568</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228415</v>
+        <v>0.230554</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.352791</v>
+        <v>0.352581</v>
       </c>
       <c r="C29" t="n">
-        <v>0.281661</v>
+        <v>0.286918</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232615</v>
+        <v>0.235209</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.361969</v>
+        <v>0.362359</v>
       </c>
       <c r="C30" t="n">
-        <v>0.289851</v>
+        <v>0.295488</v>
       </c>
       <c r="D30" t="n">
-        <v>0.236529</v>
+        <v>0.238505</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.372686</v>
+        <v>0.37322</v>
       </c>
       <c r="C31" t="n">
-        <v>0.296566</v>
+        <v>0.301573</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240736</v>
+        <v>0.242872</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.382626</v>
+        <v>0.382673</v>
       </c>
       <c r="C32" t="n">
-        <v>0.306169</v>
+        <v>0.311143</v>
       </c>
       <c r="D32" t="n">
-        <v>0.245462</v>
+        <v>0.247229</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.395931</v>
+        <v>0.395457</v>
       </c>
       <c r="C33" t="n">
-        <v>0.314443</v>
+        <v>0.32011</v>
       </c>
       <c r="D33" t="n">
-        <v>0.250408</v>
+        <v>0.251036</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.408486</v>
+        <v>0.407776</v>
       </c>
       <c r="C34" t="n">
-        <v>0.324163</v>
+        <v>0.329969</v>
       </c>
       <c r="D34" t="n">
-        <v>0.255232</v>
+        <v>0.256936</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.421139</v>
+        <v>0.420977</v>
       </c>
       <c r="C35" t="n">
-        <v>0.249897</v>
+        <v>0.253445</v>
       </c>
       <c r="D35" t="n">
-        <v>0.227151</v>
+        <v>0.227627</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.316136</v>
+        <v>0.315779</v>
       </c>
       <c r="C36" t="n">
-        <v>0.256492</v>
+        <v>0.26043</v>
       </c>
       <c r="D36" t="n">
-        <v>0.230789</v>
+        <v>0.230815</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322315</v>
+        <v>0.322137</v>
       </c>
       <c r="C37" t="n">
-        <v>0.261739</v>
+        <v>0.265532</v>
       </c>
       <c r="D37" t="n">
-        <v>0.233497</v>
+        <v>0.234126</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.331126</v>
+        <v>0.330696</v>
       </c>
       <c r="C38" t="n">
-        <v>0.268562</v>
+        <v>0.27256</v>
       </c>
       <c r="D38" t="n">
-        <v>0.237131</v>
+        <v>0.238116</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.336702</v>
+        <v>0.336122</v>
       </c>
       <c r="C39" t="n">
-        <v>0.27441</v>
+        <v>0.27774</v>
       </c>
       <c r="D39" t="n">
-        <v>0.240863</v>
+        <v>0.240923</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.346381</v>
+        <v>0.345902</v>
       </c>
       <c r="C40" t="n">
-        <v>0.280962</v>
+        <v>0.284908</v>
       </c>
       <c r="D40" t="n">
-        <v>0.244784</v>
+        <v>0.244551</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.353951</v>
+        <v>0.353638</v>
       </c>
       <c r="C41" t="n">
-        <v>0.286975</v>
+        <v>0.290977</v>
       </c>
       <c r="D41" t="n">
-        <v>0.248018</v>
+        <v>0.248019</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.361977</v>
+        <v>0.361244</v>
       </c>
       <c r="C42" t="n">
-        <v>0.292537</v>
+        <v>0.296446</v>
       </c>
       <c r="D42" t="n">
-        <v>0.251221</v>
+        <v>0.251458</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.370846</v>
+        <v>0.370178</v>
       </c>
       <c r="C43" t="n">
-        <v>0.299469</v>
+        <v>0.303913</v>
       </c>
       <c r="D43" t="n">
-        <v>0.254791</v>
+        <v>0.255187</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.380799</v>
+        <v>0.380153</v>
       </c>
       <c r="C44" t="n">
-        <v>0.30764</v>
+        <v>0.312306</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259314</v>
+        <v>0.25946</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.392496</v>
+        <v>0.391812</v>
       </c>
       <c r="C45" t="n">
-        <v>0.315683</v>
+        <v>0.320118</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264611</v>
+        <v>0.264898</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.40279</v>
+        <v>0.402378</v>
       </c>
       <c r="C46" t="n">
-        <v>0.324358</v>
+        <v>0.32831</v>
       </c>
       <c r="D46" t="n">
-        <v>0.267754</v>
+        <v>0.268129</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.413271</v>
+        <v>0.412594</v>
       </c>
       <c r="C47" t="n">
-        <v>0.331848</v>
+        <v>0.33671</v>
       </c>
       <c r="D47" t="n">
-        <v>0.273671</v>
+        <v>0.274286</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.424755</v>
+        <v>0.423794</v>
       </c>
       <c r="C48" t="n">
-        <v>0.340854</v>
+        <v>0.345591</v>
       </c>
       <c r="D48" t="n">
-        <v>0.278651</v>
+        <v>0.279231</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.435383</v>
+        <v>0.434762</v>
       </c>
       <c r="C49" t="n">
-        <v>0.351012</v>
+        <v>0.355689</v>
       </c>
       <c r="D49" t="n">
-        <v>0.284049</v>
+        <v>0.284362</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.449592</v>
+        <v>0.448986</v>
       </c>
       <c r="C50" t="n">
-        <v>0.264088</v>
+        <v>0.267581</v>
       </c>
       <c r="D50" t="n">
-        <v>0.231539</v>
+        <v>0.231521</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.333895</v>
+        <v>0.333064</v>
       </c>
       <c r="C51" t="n">
-        <v>0.269799</v>
+        <v>0.272909</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234456</v>
+        <v>0.23458</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340598</v>
+        <v>0.340216</v>
       </c>
       <c r="C52" t="n">
-        <v>0.275539</v>
+        <v>0.279143</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237957</v>
+        <v>0.238117</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347638</v>
+        <v>0.346725</v>
       </c>
       <c r="C53" t="n">
-        <v>0.282452</v>
+        <v>0.285854</v>
       </c>
       <c r="D53" t="n">
-        <v>0.242001</v>
+        <v>0.242175</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.355497</v>
+        <v>0.354919</v>
       </c>
       <c r="C54" t="n">
-        <v>0.28841</v>
+        <v>0.292253</v>
       </c>
       <c r="D54" t="n">
-        <v>0.245636</v>
+        <v>0.245617</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.36484</v>
+        <v>0.363842</v>
       </c>
       <c r="C55" t="n">
-        <v>0.295583</v>
+        <v>0.298942</v>
       </c>
       <c r="D55" t="n">
-        <v>0.24993</v>
+        <v>0.249753</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.374039</v>
+        <v>0.373471</v>
       </c>
       <c r="C56" t="n">
-        <v>0.301165</v>
+        <v>0.305196</v>
       </c>
       <c r="D56" t="n">
-        <v>0.25372</v>
+        <v>0.253792</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.382952</v>
+        <v>0.382209</v>
       </c>
       <c r="C57" t="n">
-        <v>0.309154</v>
+        <v>0.31268</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257816</v>
+        <v>0.257875</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.393066</v>
+        <v>0.392011</v>
       </c>
       <c r="C58" t="n">
-        <v>0.316847</v>
+        <v>0.320791</v>
       </c>
       <c r="D58" t="n">
-        <v>0.263739</v>
+        <v>0.264037</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.404594</v>
+        <v>0.403979</v>
       </c>
       <c r="C59" t="n">
-        <v>0.323468</v>
+        <v>0.327682</v>
       </c>
       <c r="D59" t="n">
-        <v>0.266628</v>
+        <v>0.266749</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.41415</v>
+        <v>0.413221</v>
       </c>
       <c r="C60" t="n">
-        <v>0.33106</v>
+        <v>0.335173</v>
       </c>
       <c r="D60" t="n">
-        <v>0.270847</v>
+        <v>0.271066</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.425161</v>
+        <v>0.424315</v>
       </c>
       <c r="C61" t="n">
-        <v>0.340572</v>
+        <v>0.344941</v>
       </c>
       <c r="D61" t="n">
-        <v>0.276048</v>
+        <v>0.276608</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.436041</v>
+        <v>0.435113</v>
       </c>
       <c r="C62" t="n">
-        <v>0.349185</v>
+        <v>0.353798</v>
       </c>
       <c r="D62" t="n">
-        <v>0.281058</v>
+        <v>0.281283</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.447961</v>
+        <v>0.447176</v>
       </c>
       <c r="C63" t="n">
-        <v>0.359703</v>
+        <v>0.364069</v>
       </c>
       <c r="D63" t="n">
-        <v>0.28723</v>
+        <v>0.287657</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.461763</v>
+        <v>0.459683</v>
       </c>
       <c r="C64" t="n">
-        <v>0.28268</v>
+        <v>0.286446</v>
       </c>
       <c r="D64" t="n">
-        <v>0.247718</v>
+        <v>0.248674</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.359669</v>
+        <v>0.365831</v>
       </c>
       <c r="C65" t="n">
-        <v>0.291293</v>
+        <v>0.294659</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24867</v>
+        <v>0.248814</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.373258</v>
+        <v>0.377338</v>
       </c>
       <c r="C66" t="n">
-        <v>0.300986</v>
+        <v>0.305318</v>
       </c>
       <c r="D66" t="n">
-        <v>0.254885</v>
+        <v>0.255767</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.387425</v>
+        <v>0.388027</v>
       </c>
       <c r="C67" t="n">
-        <v>0.310704</v>
+        <v>0.314279</v>
       </c>
       <c r="D67" t="n">
-        <v>0.261187</v>
+        <v>0.260616</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.399755</v>
+        <v>0.401695</v>
       </c>
       <c r="C68" t="n">
-        <v>0.322351</v>
+        <v>0.324289</v>
       </c>
       <c r="D68" t="n">
-        <v>0.267461</v>
+        <v>0.267714</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.412366</v>
+        <v>0.42338</v>
       </c>
       <c r="C69" t="n">
-        <v>0.330823</v>
+        <v>0.338043</v>
       </c>
       <c r="D69" t="n">
-        <v>0.270878</v>
+        <v>0.272522</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.424589</v>
+        <v>0.440138</v>
       </c>
       <c r="C70" t="n">
-        <v>0.340902</v>
+        <v>0.34991</v>
       </c>
       <c r="D70" t="n">
-        <v>0.276989</v>
+        <v>0.27817</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.446481</v>
+        <v>0.450195</v>
       </c>
       <c r="C71" t="n">
-        <v>0.35611</v>
+        <v>0.36303</v>
       </c>
       <c r="D71" t="n">
-        <v>0.284178</v>
+        <v>0.285464</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.467091</v>
+        <v>0.475153</v>
       </c>
       <c r="C72" t="n">
-        <v>0.370645</v>
+        <v>0.379098</v>
       </c>
       <c r="D72" t="n">
-        <v>0.290436</v>
+        <v>0.291962</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.488304</v>
+        <v>0.500108</v>
       </c>
       <c r="C73" t="n">
-        <v>0.387233</v>
+        <v>0.396949</v>
       </c>
       <c r="D73" t="n">
-        <v>0.298572</v>
+        <v>0.301743</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.511892</v>
+        <v>0.524349</v>
       </c>
       <c r="C74" t="n">
-        <v>0.404448</v>
+        <v>0.414997</v>
       </c>
       <c r="D74" t="n">
-        <v>0.307913</v>
+        <v>0.312088</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.540569</v>
+        <v>0.554241</v>
       </c>
       <c r="C75" t="n">
-        <v>0.424694</v>
+        <v>0.438329</v>
       </c>
       <c r="D75" t="n">
-        <v>0.317514</v>
+        <v>0.321766</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.567492</v>
+        <v>0.593624</v>
       </c>
       <c r="C76" t="n">
-        <v>0.447896</v>
+        <v>0.467814</v>
       </c>
       <c r="D76" t="n">
-        <v>0.326419</v>
+        <v>0.335564</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.610306</v>
+        <v>0.635448</v>
       </c>
       <c r="C77" t="n">
-        <v>0.475916</v>
+        <v>0.498051</v>
       </c>
       <c r="D77" t="n">
-        <v>0.337047</v>
+        <v>0.348166</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.651129</v>
+        <v>0.683164</v>
       </c>
       <c r="C78" t="n">
-        <v>0.433822</v>
+        <v>0.439829</v>
       </c>
       <c r="D78" t="n">
-        <v>0.308172</v>
+        <v>0.308276</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.610829</v>
+        <v>0.619079</v>
       </c>
       <c r="C79" t="n">
-        <v>0.46509</v>
+        <v>0.468174</v>
       </c>
       <c r="D79" t="n">
-        <v>0.320107</v>
+        <v>0.321303</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.651397</v>
+        <v>0.660208</v>
       </c>
       <c r="C80" t="n">
-        <v>0.488552</v>
+        <v>0.500373</v>
       </c>
       <c r="D80" t="n">
-        <v>0.334927</v>
+        <v>0.338292</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.694233</v>
+        <v>0.708144</v>
       </c>
       <c r="C81" t="n">
-        <v>0.526352</v>
+        <v>0.536505</v>
       </c>
       <c r="D81" t="n">
-        <v>0.349474</v>
+        <v>0.34893</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.74336</v>
+        <v>0.753246</v>
       </c>
       <c r="C82" t="n">
-        <v>0.562364</v>
+        <v>0.571708</v>
       </c>
       <c r="D82" t="n">
-        <v>0.36768</v>
+        <v>0.368999</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.794401</v>
+        <v>0.806667</v>
       </c>
       <c r="C83" t="n">
-        <v>0.602447</v>
+        <v>0.610577</v>
       </c>
       <c r="D83" t="n">
-        <v>0.384116</v>
+        <v>0.390896</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.855758</v>
+        <v>0.8675890000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.643873</v>
+        <v>0.650272</v>
       </c>
       <c r="D84" t="n">
-        <v>0.40679</v>
+        <v>0.410022</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.908857</v>
+        <v>0.9182979999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.688778</v>
+        <v>0.693913</v>
       </c>
       <c r="D85" t="n">
-        <v>0.432678</v>
+        <v>0.433553</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.966979</v>
+        <v>0.979337</v>
       </c>
       <c r="C86" t="n">
-        <v>0.73324</v>
+        <v>0.739147</v>
       </c>
       <c r="D86" t="n">
-        <v>0.460094</v>
+        <v>0.462597</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02896</v>
+        <v>1.04185</v>
       </c>
       <c r="C87" t="n">
-        <v>0.784701</v>
+        <v>0.789588</v>
       </c>
       <c r="D87" t="n">
-        <v>0.482165</v>
+        <v>0.488255</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.09819</v>
+        <v>1.11473</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8347329999999999</v>
+        <v>0.838845</v>
       </c>
       <c r="D88" t="n">
-        <v>0.50815</v>
+        <v>0.519295</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.16726</v>
+        <v>1.18065</v>
       </c>
       <c r="C89" t="n">
-        <v>0.892299</v>
+        <v>0.893209</v>
       </c>
       <c r="D89" t="n">
-        <v>0.538527</v>
+        <v>0.550739</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.23931</v>
+        <v>1.25853</v>
       </c>
       <c r="C90" t="n">
-        <v>0.942892</v>
+        <v>0.943235</v>
       </c>
       <c r="D90" t="n">
-        <v>0.570171</v>
+        <v>0.576238</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.31965</v>
+        <v>1.33674</v>
       </c>
       <c r="C91" t="n">
-        <v>1.0022</v>
+        <v>0.999518</v>
       </c>
       <c r="D91" t="n">
-        <v>0.607423</v>
+        <v>0.617468</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.39941</v>
+        <v>1.42034</v>
       </c>
       <c r="C92" t="n">
-        <v>0.830967</v>
+        <v>0.864239</v>
       </c>
       <c r="D92" t="n">
-        <v>0.582359</v>
+        <v>0.617971</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.11002</v>
+        <v>1.14605</v>
       </c>
       <c r="C93" t="n">
-        <v>0.862306</v>
+        <v>0.896479</v>
       </c>
       <c r="D93" t="n">
-        <v>0.604764</v>
+        <v>0.640131</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.15431</v>
+        <v>1.18546</v>
       </c>
       <c r="C94" t="n">
-        <v>0.900031</v>
+        <v>0.933456</v>
       </c>
       <c r="D94" t="n">
-        <v>0.628067</v>
+        <v>0.662539</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.19999</v>
+        <v>1.23343</v>
       </c>
       <c r="C95" t="n">
-        <v>0.934655</v>
+        <v>0.96685</v>
       </c>
       <c r="D95" t="n">
-        <v>0.653604</v>
+        <v>0.689039</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.25414</v>
+        <v>1.29085</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9738520000000001</v>
+        <v>1.00704</v>
       </c>
       <c r="D96" t="n">
-        <v>0.68186</v>
+        <v>0.716917</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.30292</v>
+        <v>1.33475</v>
       </c>
       <c r="C97" t="n">
-        <v>1.01422</v>
+        <v>1.04526</v>
       </c>
       <c r="D97" t="n">
-        <v>0.70187</v>
+        <v>0.738154</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.37372</v>
+        <v>1.3973</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05744</v>
+        <v>1.08682</v>
       </c>
       <c r="D98" t="n">
-        <v>0.731311</v>
+        <v>0.767859</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.41268</v>
+        <v>1.44947</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09942</v>
+        <v>1.12905</v>
       </c>
       <c r="D99" t="n">
-        <v>0.760985</v>
+        <v>0.797254</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.45845</v>
+        <v>1.4992</v>
       </c>
       <c r="C100" t="n">
-        <v>1.14672</v>
+        <v>1.17492</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7857189999999999</v>
+        <v>0.82212</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.52666</v>
+        <v>1.54304</v>
       </c>
       <c r="C101" t="n">
-        <v>1.19376</v>
+        <v>1.22044</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8135829999999999</v>
+        <v>0.850389</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.59401</v>
+        <v>1.57761</v>
       </c>
       <c r="C102" t="n">
-        <v>1.24548</v>
+        <v>1.26822</v>
       </c>
       <c r="D102" t="n">
-        <v>0.863945</v>
+        <v>0.8800480000000001</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.66473</v>
+        <v>1.64787</v>
       </c>
       <c r="C103" t="n">
-        <v>1.29572</v>
+        <v>1.31768</v>
       </c>
       <c r="D103" t="n">
-        <v>0.876424</v>
+        <v>0.9181589999999999</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.68052</v>
+        <v>1.72523</v>
       </c>
       <c r="C104" t="n">
-        <v>1.35124</v>
+        <v>1.36535</v>
       </c>
       <c r="D104" t="n">
-        <v>0.907385</v>
+        <v>0.946228</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.75706</v>
+        <v>1.78929</v>
       </c>
       <c r="C105" t="n">
-        <v>1.40847</v>
+        <v>1.42373</v>
       </c>
       <c r="D105" t="n">
-        <v>0.94382</v>
+        <v>0.982268</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.82763</v>
+        <v>1.86581</v>
       </c>
       <c r="C106" t="n">
-        <v>1.46178</v>
+        <v>1.47458</v>
       </c>
       <c r="D106" t="n">
-        <v>0.972703</v>
+        <v>1.01135</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.35036</v>
+        <v>1.36586</v>
       </c>
       <c r="C107" t="n">
-        <v>1.13932</v>
+        <v>1.15314</v>
       </c>
       <c r="D107" t="n">
-        <v>0.92218</v>
+        <v>0.937713</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.39196</v>
+        <v>1.38986</v>
       </c>
       <c r="C108" t="n">
-        <v>1.1519</v>
+        <v>1.17746</v>
       </c>
       <c r="D108" t="n">
-        <v>0.91974</v>
+        <v>0.9629259999999999</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.42083</v>
+        <v>1.44843</v>
       </c>
       <c r="C109" t="n">
-        <v>1.18642</v>
+        <v>1.21112</v>
       </c>
       <c r="D109" t="n">
-        <v>0.938805</v>
+        <v>0.980168</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.48479</v>
+        <v>1.49866</v>
       </c>
       <c r="C110" t="n">
-        <v>1.23725</v>
+        <v>1.22261</v>
       </c>
       <c r="D110" t="n">
-        <v>0.983606</v>
+        <v>0.980092</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.514</v>
+        <v>1.54672</v>
       </c>
       <c r="C111" t="n">
-        <v>1.25448</v>
+        <v>1.27584</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9864889999999999</v>
+        <v>1.02912</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.57091</v>
+        <v>1.6053</v>
       </c>
       <c r="C112" t="n">
-        <v>1.29666</v>
+        <v>1.31394</v>
       </c>
       <c r="D112" t="n">
-        <v>1.03772</v>
+        <v>1.05628</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.63575</v>
+        <v>1.65387</v>
       </c>
       <c r="C113" t="n">
-        <v>1.3519</v>
+        <v>1.33403</v>
       </c>
       <c r="D113" t="n">
-        <v>1.06242</v>
+        <v>1.08226</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.69457</v>
+        <v>1.71124</v>
       </c>
       <c r="C114" t="n">
-        <v>1.39026</v>
+        <v>1.3935</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08957</v>
+        <v>1.10695</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.75294</v>
+        <v>1.7698</v>
       </c>
       <c r="C115" t="n">
-        <v>1.43587</v>
+        <v>1.41393</v>
       </c>
       <c r="D115" t="n">
-        <v>1.1214</v>
+        <v>1.13856</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.81507</v>
+        <v>1.83496</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48681</v>
+        <v>1.44904</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14971</v>
+        <v>1.16829</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.88137</v>
+        <v>1.90181</v>
       </c>
       <c r="C117" t="n">
-        <v>1.5165</v>
+        <v>1.49528</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1752</v>
+        <v>1.19598</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.95335</v>
+        <v>1.97137</v>
       </c>
       <c r="C118" t="n">
-        <v>1.56409</v>
+        <v>1.5458</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21129</v>
+        <v>1.23028</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.02421</v>
+        <v>2.03972</v>
       </c>
       <c r="C119" t="n">
-        <v>1.62881</v>
+        <v>1.58653</v>
       </c>
       <c r="D119" t="n">
-        <v>1.24509</v>
+        <v>1.25534</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.634857</v>
+        <v>0.636097</v>
       </c>
       <c r="C2" t="n">
-        <v>0.422975</v>
+        <v>0.459611</v>
       </c>
       <c r="D2" t="n">
-        <v>0.306629</v>
+        <v>0.308719</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.662934</v>
+        <v>0.660737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.435714</v>
+        <v>0.471159</v>
       </c>
       <c r="D3" t="n">
-        <v>0.315872</v>
+        <v>0.31905</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.687853</v>
+        <v>0.689438</v>
       </c>
       <c r="C4" t="n">
-        <v>0.459829</v>
+        <v>0.494925</v>
       </c>
       <c r="D4" t="n">
-        <v>0.324502</v>
+        <v>0.328004</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.710283</v>
+        <v>0.7138679999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.477839</v>
+        <v>0.510426</v>
       </c>
       <c r="D5" t="n">
-        <v>0.334853</v>
+        <v>0.338719</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.737662</v>
+        <v>0.738047</v>
       </c>
       <c r="C6" t="n">
-        <v>0.51229</v>
+        <v>0.526377</v>
       </c>
       <c r="D6" t="n">
-        <v>0.346468</v>
+        <v>0.351183</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.782581</v>
+        <v>0.77238</v>
       </c>
       <c r="C7" t="n">
-        <v>0.535054</v>
+        <v>0.548916</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359854</v>
+        <v>0.36253</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.802082</v>
+        <v>0.802964</v>
       </c>
       <c r="C8" t="n">
-        <v>0.562441</v>
+        <v>0.590658</v>
       </c>
       <c r="D8" t="n">
-        <v>0.366234</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.84276</v>
+        <v>0.845471</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5853120000000001</v>
+        <v>0.612364</v>
       </c>
       <c r="D9" t="n">
-        <v>0.382921</v>
+        <v>0.38477</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.881319</v>
+        <v>0.879475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.612905</v>
+        <v>0.645642</v>
       </c>
       <c r="D10" t="n">
-        <v>0.387762</v>
+        <v>0.397544</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.905213</v>
+        <v>0.906921</v>
       </c>
       <c r="C11" t="n">
-        <v>0.423735</v>
+        <v>0.434957</v>
       </c>
       <c r="D11" t="n">
-        <v>0.285583</v>
+        <v>0.287629</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5940029999999999</v>
+        <v>0.5872579999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.435131</v>
+        <v>0.450378</v>
       </c>
       <c r="D12" t="n">
-        <v>0.297756</v>
+        <v>0.29872</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.605948</v>
+        <v>0.605501</v>
       </c>
       <c r="C13" t="n">
-        <v>0.453982</v>
+        <v>0.471069</v>
       </c>
       <c r="D13" t="n">
-        <v>0.306969</v>
+        <v>0.310393</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.637837</v>
+        <v>0.639424</v>
       </c>
       <c r="C14" t="n">
-        <v>0.472032</v>
+        <v>0.497714</v>
       </c>
       <c r="D14" t="n">
-        <v>0.315118</v>
+        <v>0.319872</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.658845</v>
+        <v>0.6732590000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.507897</v>
+        <v>0.5279</v>
       </c>
       <c r="D15" t="n">
-        <v>0.33035</v>
+        <v>0.334534</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.696734</v>
+        <v>0.707346</v>
       </c>
       <c r="C16" t="n">
-        <v>0.534706</v>
+        <v>0.552306</v>
       </c>
       <c r="D16" t="n">
-        <v>0.344442</v>
+        <v>0.350454</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7312920000000001</v>
+        <v>0.745658</v>
       </c>
       <c r="C17" t="n">
-        <v>0.563367</v>
+        <v>0.587749</v>
       </c>
       <c r="D17" t="n">
-        <v>0.353914</v>
+        <v>0.361959</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.773487</v>
+        <v>0.785289</v>
       </c>
       <c r="C18" t="n">
-        <v>0.596583</v>
+        <v>0.613229</v>
       </c>
       <c r="D18" t="n">
-        <v>0.371693</v>
+        <v>0.372387</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.806566</v>
+        <v>0.81998</v>
       </c>
       <c r="C19" t="n">
-        <v>0.624856</v>
+        <v>0.6449009999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.380441</v>
+        <v>0.386827</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.847985</v>
+        <v>0.861932</v>
       </c>
       <c r="C20" t="n">
-        <v>0.657604</v>
+        <v>0.683756</v>
       </c>
       <c r="D20" t="n">
-        <v>0.394771</v>
+        <v>0.402338</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.886193</v>
+        <v>0.903596</v>
       </c>
       <c r="C21" t="n">
-        <v>0.692932</v>
+        <v>0.710174</v>
       </c>
       <c r="D21" t="n">
-        <v>0.407208</v>
+        <v>0.417923</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.925919</v>
+        <v>0.94985</v>
       </c>
       <c r="C22" t="n">
-        <v>0.726401</v>
+        <v>0.748377</v>
       </c>
       <c r="D22" t="n">
-        <v>0.421568</v>
+        <v>0.434317</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9693040000000001</v>
+        <v>0.994626</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7686539999999999</v>
+        <v>0.790983</v>
       </c>
       <c r="D23" t="n">
-        <v>0.437545</v>
+        <v>0.449449</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.02114</v>
+        <v>1.03985</v>
       </c>
       <c r="C24" t="n">
-        <v>0.799319</v>
+        <v>0.814144</v>
       </c>
       <c r="D24" t="n">
-        <v>0.455331</v>
+        <v>0.462615</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.06973</v>
+        <v>1.0816</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8444700000000001</v>
+        <v>0.869467</v>
       </c>
       <c r="D25" t="n">
-        <v>0.475349</v>
+        <v>0.47848</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.1078</v>
+        <v>1.1224</v>
       </c>
       <c r="C26" t="n">
-        <v>0.547551</v>
+        <v>0.556522</v>
       </c>
       <c r="D26" t="n">
-        <v>0.342588</v>
+        <v>0.342181</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.728212</v>
+        <v>0.736697</v>
       </c>
       <c r="C27" t="n">
-        <v>0.575833</v>
+        <v>0.580019</v>
       </c>
       <c r="D27" t="n">
-        <v>0.354154</v>
+        <v>0.357761</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.76476</v>
+        <v>0.772523</v>
       </c>
       <c r="C28" t="n">
-        <v>0.606874</v>
+        <v>0.6138439999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.369194</v>
+        <v>0.372294</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.797697</v>
+        <v>0.808867</v>
       </c>
       <c r="C29" t="n">
-        <v>0.637124</v>
+        <v>0.6332719999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.383698</v>
+        <v>0.388068</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.833942</v>
+        <v>0.845198</v>
       </c>
       <c r="C30" t="n">
-        <v>0.67143</v>
+        <v>0.673142</v>
       </c>
       <c r="D30" t="n">
-        <v>0.395151</v>
+        <v>0.400785</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.874879</v>
+        <v>0.87685</v>
       </c>
       <c r="C31" t="n">
-        <v>0.701369</v>
+        <v>0.696423</v>
       </c>
       <c r="D31" t="n">
-        <v>0.411561</v>
+        <v>0.417054</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9076689999999999</v>
+        <v>0.919658</v>
       </c>
       <c r="C32" t="n">
-        <v>0.738047</v>
+        <v>0.725805</v>
       </c>
       <c r="D32" t="n">
-        <v>0.426963</v>
+        <v>0.430455</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.956745</v>
+        <v>0.962161</v>
       </c>
       <c r="C33" t="n">
-        <v>0.770699</v>
+        <v>0.75115</v>
       </c>
       <c r="D33" t="n">
-        <v>0.437091</v>
+        <v>0.442522</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.992922</v>
+        <v>1.00128</v>
       </c>
       <c r="C34" t="n">
-        <v>0.807953</v>
+        <v>0.799938</v>
       </c>
       <c r="D34" t="n">
-        <v>0.454912</v>
+        <v>0.456618</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.03882</v>
+        <v>1.04818</v>
       </c>
       <c r="C35" t="n">
-        <v>0.840096</v>
+        <v>0.827828</v>
       </c>
       <c r="D35" t="n">
-        <v>0.467251</v>
+        <v>0.475144</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.08751</v>
+        <v>1.08914</v>
       </c>
       <c r="C36" t="n">
-        <v>0.870175</v>
+        <v>0.853842</v>
       </c>
       <c r="D36" t="n">
-        <v>0.480436</v>
+        <v>0.486986</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.12611</v>
+        <v>1.13468</v>
       </c>
       <c r="C37" t="n">
-        <v>0.909909</v>
+        <v>0.897555</v>
       </c>
       <c r="D37" t="n">
-        <v>0.49381</v>
+        <v>0.500037</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.17317</v>
+        <v>1.17732</v>
       </c>
       <c r="C38" t="n">
-        <v>0.949204</v>
+        <v>0.914957</v>
       </c>
       <c r="D38" t="n">
-        <v>0.519388</v>
+        <v>0.5222869999999999</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.22596</v>
+        <v>1.23487</v>
       </c>
       <c r="C39" t="n">
-        <v>0.981847</v>
+        <v>0.9620379999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.532436</v>
+        <v>0.542597</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.26841</v>
+        <v>1.27559</v>
       </c>
       <c r="C40" t="n">
-        <v>0.61713</v>
+        <v>0.611739</v>
       </c>
       <c r="D40" t="n">
-        <v>0.398001</v>
+        <v>0.399214</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8052280000000001</v>
+        <v>0.80674</v>
       </c>
       <c r="C41" t="n">
-        <v>0.639884</v>
+        <v>0.633451</v>
       </c>
       <c r="D41" t="n">
-        <v>0.410155</v>
+        <v>0.410763</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.84165</v>
+        <v>0.841433</v>
       </c>
       <c r="C42" t="n">
-        <v>0.669525</v>
+        <v>0.657425</v>
       </c>
       <c r="D42" t="n">
-        <v>0.423985</v>
+        <v>0.42531</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.873407</v>
+        <v>0.874134</v>
       </c>
       <c r="C43" t="n">
-        <v>0.698888</v>
+        <v>0.688122</v>
       </c>
       <c r="D43" t="n">
-        <v>0.438165</v>
+        <v>0.439436</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.916199</v>
+        <v>0.916167</v>
       </c>
       <c r="C44" t="n">
-        <v>0.730527</v>
+        <v>0.722965</v>
       </c>
       <c r="D44" t="n">
-        <v>0.452345</v>
+        <v>0.456905</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.950979</v>
+        <v>0.951906</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7631790000000001</v>
+        <v>0.747544</v>
       </c>
       <c r="D45" t="n">
-        <v>0.469125</v>
+        <v>0.472529</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.994328</v>
+        <v>0.994362</v>
       </c>
       <c r="C46" t="n">
-        <v>0.798526</v>
+        <v>0.787609</v>
       </c>
       <c r="D46" t="n">
-        <v>0.487877</v>
+        <v>0.488714</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.03698</v>
+        <v>1.03785</v>
       </c>
       <c r="C47" t="n">
-        <v>0.833098</v>
+        <v>0.821398</v>
       </c>
       <c r="D47" t="n">
-        <v>0.500807</v>
+        <v>0.501856</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.07918</v>
+        <v>1.08135</v>
       </c>
       <c r="C48" t="n">
-        <v>0.868263</v>
+        <v>0.855081</v>
       </c>
       <c r="D48" t="n">
-        <v>0.516313</v>
+        <v>0.5185689999999999</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.12479</v>
+        <v>1.1217</v>
       </c>
       <c r="C49" t="n">
-        <v>0.902494</v>
+        <v>0.892971</v>
       </c>
       <c r="D49" t="n">
-        <v>0.526115</v>
+        <v>0.53199</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.16836</v>
+        <v>1.17022</v>
       </c>
       <c r="C50" t="n">
-        <v>0.942925</v>
+        <v>0.929963</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5430779999999999</v>
+        <v>0.551965</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.2124</v>
+        <v>1.21511</v>
       </c>
       <c r="C51" t="n">
-        <v>0.977669</v>
+        <v>0.963273</v>
       </c>
       <c r="D51" t="n">
-        <v>0.567561</v>
+        <v>0.566463</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.2558</v>
+        <v>1.26061</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0164</v>
+        <v>1.0051</v>
       </c>
       <c r="D52" t="n">
-        <v>0.582932</v>
+        <v>0.583529</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.30791</v>
+        <v>1.30583</v>
       </c>
       <c r="C53" t="n">
-        <v>1.05508</v>
+        <v>1.04865</v>
       </c>
       <c r="D53" t="n">
-        <v>0.601569</v>
+        <v>0.600779</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.35369</v>
+        <v>1.3561</v>
       </c>
       <c r="C54" t="n">
-        <v>0.648949</v>
+        <v>0.641991</v>
       </c>
       <c r="D54" t="n">
-        <v>0.428628</v>
+        <v>0.429048</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.840419</v>
+        <v>0.839728</v>
       </c>
       <c r="C55" t="n">
-        <v>0.672844</v>
+        <v>0.663643</v>
       </c>
       <c r="D55" t="n">
-        <v>0.444938</v>
+        <v>0.445321</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.874075</v>
+        <v>0.872198</v>
       </c>
       <c r="C56" t="n">
-        <v>0.700195</v>
+        <v>0.692922</v>
       </c>
       <c r="D56" t="n">
-        <v>0.457485</v>
+        <v>0.457879</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.909992</v>
+        <v>0.909084</v>
       </c>
       <c r="C57" t="n">
-        <v>0.730036</v>
+        <v>0.714934</v>
       </c>
       <c r="D57" t="n">
-        <v>0.470977</v>
+        <v>0.471398</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.94559</v>
+        <v>0.943648</v>
       </c>
       <c r="C58" t="n">
-        <v>0.762812</v>
+        <v>0.746568</v>
       </c>
       <c r="D58" t="n">
-        <v>0.488139</v>
+        <v>0.489185</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.985136</v>
+        <v>0.98228</v>
       </c>
       <c r="C59" t="n">
-        <v>0.794939</v>
+        <v>0.787957</v>
       </c>
       <c r="D59" t="n">
-        <v>0.503958</v>
+        <v>0.504691</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.02312</v>
+        <v>1.02278</v>
       </c>
       <c r="C60" t="n">
-        <v>0.828267</v>
+        <v>0.815036</v>
       </c>
       <c r="D60" t="n">
-        <v>0.518976</v>
+        <v>0.523841</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.06624</v>
+        <v>1.06385</v>
       </c>
       <c r="C61" t="n">
-        <v>0.864335</v>
+        <v>0.84773</v>
       </c>
       <c r="D61" t="n">
-        <v>0.535878</v>
+        <v>0.536736</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.10735</v>
+        <v>1.10657</v>
       </c>
       <c r="C62" t="n">
-        <v>0.903464</v>
+        <v>0.87378</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5511160000000001</v>
+        <v>0.54952</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15269</v>
+        <v>1.15218</v>
       </c>
       <c r="C63" t="n">
-        <v>0.938599</v>
+        <v>0.909695</v>
       </c>
       <c r="D63" t="n">
-        <v>0.56962</v>
+        <v>0.5701270000000001</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.20187</v>
+        <v>1.19973</v>
       </c>
       <c r="C64" t="n">
-        <v>0.974239</v>
+        <v>0.946956</v>
       </c>
       <c r="D64" t="n">
-        <v>0.583562</v>
+        <v>0.584421</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.24755</v>
+        <v>1.24802</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00945</v>
+        <v>0.9913</v>
       </c>
       <c r="D65" t="n">
-        <v>0.599587</v>
+        <v>0.59905</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.29008</v>
+        <v>1.29321</v>
       </c>
       <c r="C66" t="n">
-        <v>1.05123</v>
+        <v>1.02965</v>
       </c>
       <c r="D66" t="n">
-        <v>0.618485</v>
+        <v>0.6182879999999999</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.33884</v>
+        <v>1.3441</v>
       </c>
       <c r="C67" t="n">
-        <v>1.08736</v>
+        <v>1.0713</v>
       </c>
       <c r="D67" t="n">
-        <v>0.634201</v>
+        <v>0.63292</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.38947</v>
+        <v>1.39102</v>
       </c>
       <c r="C68" t="n">
-        <v>0.66861</v>
+        <v>0.660412</v>
       </c>
       <c r="D68" t="n">
-        <v>0.455881</v>
+        <v>0.459071</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.883287</v>
+        <v>0.891962</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7049299999999999</v>
+        <v>0.69456</v>
       </c>
       <c r="D69" t="n">
-        <v>0.468086</v>
+        <v>0.47152</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.934617</v>
+        <v>0.948664</v>
       </c>
       <c r="C70" t="n">
-        <v>0.745899</v>
+        <v>0.734996</v>
       </c>
       <c r="D70" t="n">
-        <v>0.489634</v>
+        <v>0.492684</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.990168</v>
+        <v>1.0161</v>
       </c>
       <c r="C71" t="n">
-        <v>0.788995</v>
+        <v>0.779185</v>
       </c>
       <c r="D71" t="n">
-        <v>0.511391</v>
+        <v>0.512426</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.04965</v>
+        <v>1.06087</v>
       </c>
       <c r="C72" t="n">
-        <v>0.837433</v>
+        <v>0.822713</v>
       </c>
       <c r="D72" t="n">
-        <v>0.532963</v>
+        <v>0.532734</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.1004</v>
+        <v>1.12992</v>
       </c>
       <c r="C73" t="n">
-        <v>0.880226</v>
+        <v>0.883127</v>
       </c>
       <c r="D73" t="n">
-        <v>0.548544</v>
+        <v>0.558129</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.16208</v>
+        <v>1.20892</v>
       </c>
       <c r="C74" t="n">
-        <v>0.932378</v>
+        <v>0.9393860000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.568273</v>
+        <v>0.5775400000000001</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.23697</v>
+        <v>1.29248</v>
       </c>
       <c r="C75" t="n">
-        <v>0.99288</v>
+        <v>0.998405</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6001300000000001</v>
+        <v>0.608607</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.30664</v>
+        <v>1.38415</v>
       </c>
       <c r="C76" t="n">
-        <v>1.05255</v>
+        <v>1.06902</v>
       </c>
       <c r="D76" t="n">
-        <v>0.615741</v>
+        <v>0.632498</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.40704</v>
+        <v>1.4907</v>
       </c>
       <c r="C77" t="n">
-        <v>1.12312</v>
+        <v>1.14809</v>
       </c>
       <c r="D77" t="n">
-        <v>0.645993</v>
+        <v>0.668266</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.51301</v>
+        <v>1.6004</v>
       </c>
       <c r="C78" t="n">
-        <v>1.21539</v>
+        <v>1.24198</v>
       </c>
       <c r="D78" t="n">
-        <v>0.670942</v>
+        <v>0.695032</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.6466</v>
+        <v>1.74031</v>
       </c>
       <c r="C79" t="n">
-        <v>1.31982</v>
+        <v>1.35141</v>
       </c>
       <c r="D79" t="n">
-        <v>0.705999</v>
+        <v>0.734195</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.78672</v>
+        <v>1.90293</v>
       </c>
       <c r="C80" t="n">
-        <v>1.43386</v>
+        <v>1.45867</v>
       </c>
       <c r="D80" t="n">
-        <v>0.740837</v>
+        <v>0.767331</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.94349</v>
+        <v>2.08077</v>
       </c>
       <c r="C81" t="n">
-        <v>1.57862</v>
+        <v>1.62407</v>
       </c>
       <c r="D81" t="n">
-        <v>0.770416</v>
+        <v>0.802909</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.1408</v>
+        <v>2.29473</v>
       </c>
       <c r="C82" t="n">
-        <v>1.73273</v>
+        <v>1.80038</v>
       </c>
       <c r="D82" t="n">
-        <v>0.842334</v>
+        <v>0.88549</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.38364</v>
+        <v>2.5234</v>
       </c>
       <c r="C83" t="n">
-        <v>1.15348</v>
+        <v>1.16635</v>
       </c>
       <c r="D83" t="n">
-        <v>0.61149</v>
+        <v>0.638283</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.62374</v>
+        <v>1.71007</v>
       </c>
       <c r="C84" t="n">
-        <v>1.28279</v>
+        <v>1.27293</v>
       </c>
       <c r="D84" t="n">
-        <v>0.651998</v>
+        <v>0.691761</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.80191</v>
+        <v>1.87421</v>
       </c>
       <c r="C85" t="n">
-        <v>1.42395</v>
+        <v>1.39084</v>
       </c>
       <c r="D85" t="n">
-        <v>0.701443</v>
+        <v>0.752663</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.99465</v>
+        <v>2.0711</v>
       </c>
       <c r="C86" t="n">
-        <v>1.58682</v>
+        <v>1.54702</v>
       </c>
       <c r="D86" t="n">
-        <v>0.759033</v>
+        <v>0.810274</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.20627</v>
+        <v>2.2877</v>
       </c>
       <c r="C87" t="n">
-        <v>1.75588</v>
+        <v>1.71033</v>
       </c>
       <c r="D87" t="n">
-        <v>0.822889</v>
+        <v>0.858266</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.43397</v>
+        <v>2.51161</v>
       </c>
       <c r="C88" t="n">
-        <v>1.93753</v>
+        <v>1.88483</v>
       </c>
       <c r="D88" t="n">
-        <v>0.902876</v>
+        <v>0.928104</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.66898</v>
+        <v>2.74505</v>
       </c>
       <c r="C89" t="n">
-        <v>2.14234</v>
+        <v>2.06055</v>
       </c>
       <c r="D89" t="n">
-        <v>0.977537</v>
+        <v>1.01134</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.92716</v>
+        <v>3.00582</v>
       </c>
       <c r="C90" t="n">
-        <v>2.34484</v>
+        <v>2.26343</v>
       </c>
       <c r="D90" t="n">
-        <v>1.06459</v>
+        <v>1.09154</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.20194</v>
+        <v>3.28506</v>
       </c>
       <c r="C91" t="n">
-        <v>2.57076</v>
+        <v>2.54485</v>
       </c>
       <c r="D91" t="n">
-        <v>1.15486</v>
+        <v>1.18399</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.50188</v>
+        <v>3.58982</v>
       </c>
       <c r="C92" t="n">
-        <v>2.80814</v>
+        <v>2.69355</v>
       </c>
       <c r="D92" t="n">
-        <v>1.24232</v>
+        <v>1.27409</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.8072</v>
+        <v>3.87619</v>
       </c>
       <c r="C93" t="n">
-        <v>3.0469</v>
+        <v>2.90652</v>
       </c>
       <c r="D93" t="n">
-        <v>1.33346</v>
+        <v>1.35656</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.10347</v>
+        <v>4.19234</v>
       </c>
       <c r="C94" t="n">
-        <v>3.30344</v>
+        <v>3.22322</v>
       </c>
       <c r="D94" t="n">
-        <v>1.42129</v>
+        <v>1.44654</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.43968</v>
+        <v>4.53598</v>
       </c>
       <c r="C95" t="n">
-        <v>3.58549</v>
+        <v>3.47319</v>
       </c>
       <c r="D95" t="n">
-        <v>1.54358</v>
+        <v>1.57038</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.80115</v>
+        <v>4.88877</v>
       </c>
       <c r="C96" t="n">
-        <v>3.87725</v>
+        <v>3.73987</v>
       </c>
       <c r="D96" t="n">
-        <v>1.66133</v>
+        <v>1.69449</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.14875</v>
+        <v>5.25998</v>
       </c>
       <c r="C97" t="n">
-        <v>2.31702</v>
+        <v>2.15717</v>
       </c>
       <c r="D97" t="n">
-        <v>1.16375</v>
+        <v>1.17805</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.16495</v>
+        <v>3.22077</v>
       </c>
       <c r="C98" t="n">
-        <v>2.48466</v>
+        <v>2.30725</v>
       </c>
       <c r="D98" t="n">
-        <v>1.23208</v>
+        <v>1.25757</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.36875</v>
+        <v>3.43851</v>
       </c>
       <c r="C99" t="n">
-        <v>2.64862</v>
+        <v>2.45095</v>
       </c>
       <c r="D99" t="n">
-        <v>1.32517</v>
+        <v>1.33695</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.60289</v>
+        <v>3.64185</v>
       </c>
       <c r="C100" t="n">
-        <v>2.8321</v>
+        <v>2.62897</v>
       </c>
       <c r="D100" t="n">
-        <v>1.40297</v>
+        <v>1.41233</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.7934</v>
+        <v>3.89367</v>
       </c>
       <c r="C101" t="n">
-        <v>3.01641</v>
+        <v>2.78613</v>
       </c>
       <c r="D101" t="n">
-        <v>1.4536</v>
+        <v>1.48656</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.00256</v>
+        <v>4.04697</v>
       </c>
       <c r="C102" t="n">
-        <v>3.22337</v>
+        <v>3.04399</v>
       </c>
       <c r="D102" t="n">
-        <v>1.55839</v>
+        <v>1.57937</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.27191</v>
+        <v>4.28217</v>
       </c>
       <c r="C103" t="n">
-        <v>3.43177</v>
+        <v>3.2311</v>
       </c>
       <c r="D103" t="n">
-        <v>1.63944</v>
+        <v>1.67322</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.47161</v>
+        <v>4.5544</v>
       </c>
       <c r="C104" t="n">
-        <v>3.63797</v>
+        <v>3.36585</v>
       </c>
       <c r="D104" t="n">
-        <v>1.7415</v>
+        <v>1.76752</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.76794</v>
+        <v>4.8241</v>
       </c>
       <c r="C105" t="n">
-        <v>3.84146</v>
+        <v>3.60425</v>
       </c>
       <c r="D105" t="n">
-        <v>1.81229</v>
+        <v>1.82928</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.05222</v>
+        <v>5.12619</v>
       </c>
       <c r="C106" t="n">
-        <v>4.05406</v>
+        <v>3.86654</v>
       </c>
       <c r="D106" t="n">
-        <v>1.92671</v>
+        <v>1.94011</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.35528</v>
+        <v>5.44331</v>
       </c>
       <c r="C107" t="n">
-        <v>4.24502</v>
+        <v>3.99042</v>
       </c>
       <c r="D107" t="n">
-        <v>2.01903</v>
+        <v>2.07428</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.68094</v>
+        <v>5.77425</v>
       </c>
       <c r="C108" t="n">
-        <v>4.49008</v>
+        <v>4.26281</v>
       </c>
       <c r="D108" t="n">
-        <v>2.12559</v>
+        <v>2.173</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.0278</v>
+        <v>6.11043</v>
       </c>
       <c r="C109" t="n">
-        <v>4.76761</v>
+        <v>4.62918</v>
       </c>
       <c r="D109" t="n">
-        <v>2.23496</v>
+        <v>2.25923</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.36424</v>
+        <v>6.46614</v>
       </c>
       <c r="C110" t="n">
-        <v>5.07974</v>
+        <v>4.84532</v>
       </c>
       <c r="D110" t="n">
-        <v>2.34898</v>
+        <v>2.36445</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.71334</v>
+        <v>6.83555</v>
       </c>
       <c r="C111" t="n">
-        <v>2.90662</v>
+        <v>2.69776</v>
       </c>
       <c r="D111" t="n">
-        <v>1.6357</v>
+        <v>1.66437</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.97588</v>
+        <v>4.02922</v>
       </c>
       <c r="C112" t="n">
-        <v>3.07522</v>
+        <v>2.83834</v>
       </c>
       <c r="D112" t="n">
-        <v>1.69195</v>
+        <v>1.73342</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.19104</v>
+        <v>4.24293</v>
       </c>
       <c r="C113" t="n">
-        <v>3.23924</v>
+        <v>2.9824</v>
       </c>
       <c r="D113" t="n">
-        <v>1.77604</v>
+        <v>1.81295</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.41254</v>
+        <v>4.46955</v>
       </c>
       <c r="C114" t="n">
-        <v>3.41884</v>
+        <v>3.12922</v>
       </c>
       <c r="D114" t="n">
-        <v>1.86319</v>
+        <v>1.89202</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.64907</v>
+        <v>4.71548</v>
       </c>
       <c r="C115" t="n">
-        <v>3.60463</v>
+        <v>3.30174</v>
       </c>
       <c r="D115" t="n">
-        <v>1.93262</v>
+        <v>1.97742</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.90067</v>
+        <v>4.96667</v>
       </c>
       <c r="C116" t="n">
-        <v>3.80905</v>
+        <v>3.50271</v>
       </c>
       <c r="D116" t="n">
-        <v>2.02117</v>
+        <v>2.05158</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.15683</v>
+        <v>5.23573</v>
       </c>
       <c r="C117" t="n">
-        <v>4.01693</v>
+        <v>3.75227</v>
       </c>
       <c r="D117" t="n">
-        <v>2.13662</v>
+        <v>2.16287</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.44177</v>
+        <v>5.51948</v>
       </c>
       <c r="C118" t="n">
-        <v>4.24783</v>
+        <v>3.96188</v>
       </c>
       <c r="D118" t="n">
-        <v>2.24234</v>
+        <v>2.27192</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.73973</v>
+        <v>5.80961</v>
       </c>
       <c r="C119" t="n">
-        <v>4.49347</v>
+        <v>4.24401</v>
       </c>
       <c r="D119" t="n">
-        <v>2.3187</v>
+        <v>2.35082</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.388789</v>
+        <v>0.405359</v>
       </c>
       <c r="C2" t="n">
-        <v>0.295557</v>
+        <v>0.300121</v>
       </c>
       <c r="D2" t="n">
-        <v>0.317194</v>
+        <v>0.32552</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.40499</v>
+        <v>0.416883</v>
       </c>
       <c r="C3" t="n">
-        <v>0.300855</v>
+        <v>0.307566</v>
       </c>
       <c r="D3" t="n">
-        <v>0.323134</v>
+        <v>0.331039</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.413482</v>
+        <v>0.426756</v>
       </c>
       <c r="C4" t="n">
-        <v>0.304989</v>
+        <v>0.3128</v>
       </c>
       <c r="D4" t="n">
-        <v>0.326508</v>
+        <v>0.335519</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.425521</v>
+        <v>0.439206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.310066</v>
+        <v>0.317841</v>
       </c>
       <c r="D5" t="n">
-        <v>0.331171</v>
+        <v>0.343396</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.436738</v>
+        <v>0.453306</v>
       </c>
       <c r="C6" t="n">
-        <v>0.315621</v>
+        <v>0.323618</v>
       </c>
       <c r="D6" t="n">
-        <v>0.336659</v>
+        <v>0.347202</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.446502</v>
+        <v>0.461782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.262515</v>
+        <v>0.259899</v>
       </c>
       <c r="D7" t="n">
-        <v>0.285675</v>
+        <v>0.283997</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.344626</v>
+        <v>0.342724</v>
       </c>
       <c r="C8" t="n">
-        <v>0.268252</v>
+        <v>0.267095</v>
       </c>
       <c r="D8" t="n">
-        <v>0.294109</v>
+        <v>0.29434</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.355497</v>
+        <v>0.355706</v>
       </c>
       <c r="C9" t="n">
-        <v>0.274714</v>
+        <v>0.274071</v>
       </c>
       <c r="D9" t="n">
-        <v>0.300943</v>
+        <v>0.300275</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.366393</v>
+        <v>0.367848</v>
       </c>
       <c r="C10" t="n">
-        <v>0.283485</v>
+        <v>0.283077</v>
       </c>
       <c r="D10" t="n">
-        <v>0.311271</v>
+        <v>0.311105</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.381661</v>
+        <v>0.381398</v>
       </c>
       <c r="C11" t="n">
-        <v>0.292146</v>
+        <v>0.291034</v>
       </c>
       <c r="D11" t="n">
-        <v>0.320375</v>
+        <v>0.319913</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.391445</v>
+        <v>0.397116</v>
       </c>
       <c r="C12" t="n">
-        <v>0.301301</v>
+        <v>0.300439</v>
       </c>
       <c r="D12" t="n">
-        <v>0.330436</v>
+        <v>0.329198</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.40436</v>
+        <v>0.413423</v>
       </c>
       <c r="C13" t="n">
-        <v>0.311567</v>
+        <v>0.31167</v>
       </c>
       <c r="D13" t="n">
-        <v>0.341086</v>
+        <v>0.342476</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.41675</v>
+        <v>0.417709</v>
       </c>
       <c r="C14" t="n">
-        <v>0.317848</v>
+        <v>0.317867</v>
       </c>
       <c r="D14" t="n">
-        <v>0.350409</v>
+        <v>0.349697</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.428923</v>
+        <v>0.428785</v>
       </c>
       <c r="C15" t="n">
-        <v>0.324535</v>
+        <v>0.324214</v>
       </c>
       <c r="D15" t="n">
-        <v>0.35895</v>
+        <v>0.359138</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.442626</v>
+        <v>0.442609</v>
       </c>
       <c r="C16" t="n">
-        <v>0.332414</v>
+        <v>0.332744</v>
       </c>
       <c r="D16" t="n">
-        <v>0.368915</v>
+        <v>0.36802</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.456479</v>
+        <v>0.454683</v>
       </c>
       <c r="C17" t="n">
-        <v>0.340467</v>
+        <v>0.339025</v>
       </c>
       <c r="D17" t="n">
-        <v>0.376244</v>
+        <v>0.375329</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.468506</v>
+        <v>0.466623</v>
       </c>
       <c r="C18" t="n">
-        <v>0.346569</v>
+        <v>0.346695</v>
       </c>
       <c r="D18" t="n">
-        <v>0.386436</v>
+        <v>0.38486</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.483098</v>
+        <v>0.480684</v>
       </c>
       <c r="C19" t="n">
-        <v>0.353711</v>
+        <v>0.35209</v>
       </c>
       <c r="D19" t="n">
-        <v>0.392798</v>
+        <v>0.392219</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.49335</v>
+        <v>0.491172</v>
       </c>
       <c r="C20" t="n">
-        <v>0.361557</v>
+        <v>0.359805</v>
       </c>
       <c r="D20" t="n">
-        <v>0.398563</v>
+        <v>0.407195</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.506524</v>
+        <v>0.50249</v>
       </c>
       <c r="C21" t="n">
-        <v>0.281955</v>
+        <v>0.289981</v>
       </c>
       <c r="D21" t="n">
-        <v>0.306975</v>
+        <v>0.316856</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.385976</v>
+        <v>0.392901</v>
       </c>
       <c r="C22" t="n">
-        <v>0.290677</v>
+        <v>0.298584</v>
       </c>
       <c r="D22" t="n">
-        <v>0.316755</v>
+        <v>0.327038</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.397125</v>
+        <v>0.403972</v>
       </c>
       <c r="C23" t="n">
-        <v>0.299764</v>
+        <v>0.307195</v>
       </c>
       <c r="D23" t="n">
-        <v>0.326076</v>
+        <v>0.336333</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.407217</v>
+        <v>0.4143</v>
       </c>
       <c r="C24" t="n">
-        <v>0.307439</v>
+        <v>0.314738</v>
       </c>
       <c r="D24" t="n">
-        <v>0.336064</v>
+        <v>0.345778</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.419875</v>
+        <v>0.425133</v>
       </c>
       <c r="C25" t="n">
-        <v>0.314611</v>
+        <v>0.322118</v>
       </c>
       <c r="D25" t="n">
-        <v>0.345702</v>
+        <v>0.356559</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.431294</v>
+        <v>0.436703</v>
       </c>
       <c r="C26" t="n">
-        <v>0.323315</v>
+        <v>0.330747</v>
       </c>
       <c r="D26" t="n">
-        <v>0.356501</v>
+        <v>0.367073</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.450768</v>
+        <v>0.44988</v>
       </c>
       <c r="C27" t="n">
-        <v>0.332074</v>
+        <v>0.339653</v>
       </c>
       <c r="D27" t="n">
-        <v>0.367641</v>
+        <v>0.378641</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.456762</v>
+        <v>0.46226</v>
       </c>
       <c r="C28" t="n">
-        <v>0.339277</v>
+        <v>0.346503</v>
       </c>
       <c r="D28" t="n">
-        <v>0.377146</v>
+        <v>0.388155</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.467892</v>
+        <v>0.474094</v>
       </c>
       <c r="C29" t="n">
-        <v>0.347578</v>
+        <v>0.355133</v>
       </c>
       <c r="D29" t="n">
-        <v>0.388399</v>
+        <v>0.400991</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.47831</v>
+        <v>0.484894</v>
       </c>
       <c r="C30" t="n">
-        <v>0.354249</v>
+        <v>0.361474</v>
       </c>
       <c r="D30" t="n">
-        <v>0.397284</v>
+        <v>0.408288</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.489542</v>
+        <v>0.494809</v>
       </c>
       <c r="C31" t="n">
-        <v>0.361142</v>
+        <v>0.369044</v>
       </c>
       <c r="D31" t="n">
-        <v>0.406762</v>
+        <v>0.417503</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.500644</v>
+        <v>0.507289</v>
       </c>
       <c r="C32" t="n">
-        <v>0.368702</v>
+        <v>0.375639</v>
       </c>
       <c r="D32" t="n">
-        <v>0.416561</v>
+        <v>0.42749</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5130710000000001</v>
+        <v>0.518965</v>
       </c>
       <c r="C33" t="n">
-        <v>0.374428</v>
+        <v>0.382381</v>
       </c>
       <c r="D33" t="n">
-        <v>0.424919</v>
+        <v>0.437608</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.523908</v>
+        <v>0.530326</v>
       </c>
       <c r="C34" t="n">
-        <v>0.381814</v>
+        <v>0.388961</v>
       </c>
       <c r="D34" t="n">
-        <v>0.43452</v>
+        <v>0.445185</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.540432</v>
+        <v>0.54193</v>
       </c>
       <c r="C35" t="n">
-        <v>0.305862</v>
+        <v>0.305939</v>
       </c>
       <c r="D35" t="n">
-        <v>0.337473</v>
+        <v>0.336623</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.412277</v>
+        <v>0.410528</v>
       </c>
       <c r="C36" t="n">
-        <v>0.313741</v>
+        <v>0.314182</v>
       </c>
       <c r="D36" t="n">
-        <v>0.348421</v>
+        <v>0.347356</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.423264</v>
+        <v>0.422259</v>
       </c>
       <c r="C37" t="n">
-        <v>0.321548</v>
+        <v>0.321407</v>
       </c>
       <c r="D37" t="n">
-        <v>0.357574</v>
+        <v>0.356146</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.433916</v>
+        <v>0.433703</v>
       </c>
       <c r="C38" t="n">
-        <v>0.330206</v>
+        <v>0.329902</v>
       </c>
       <c r="D38" t="n">
-        <v>0.369474</v>
+        <v>0.367682</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.444879</v>
+        <v>0.444626</v>
       </c>
       <c r="C39" t="n">
-        <v>0.33879</v>
+        <v>0.338235</v>
       </c>
       <c r="D39" t="n">
-        <v>0.378988</v>
+        <v>0.377266</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.455611</v>
+        <v>0.45463</v>
       </c>
       <c r="C40" t="n">
-        <v>0.346274</v>
+        <v>0.345695</v>
       </c>
       <c r="D40" t="n">
-        <v>0.389651</v>
+        <v>0.387682</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.470339</v>
+        <v>0.468033</v>
       </c>
       <c r="C41" t="n">
-        <v>0.355072</v>
+        <v>0.354373</v>
       </c>
       <c r="D41" t="n">
-        <v>0.400554</v>
+        <v>0.398805</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.477539</v>
+        <v>0.478741</v>
       </c>
       <c r="C42" t="n">
-        <v>0.361859</v>
+        <v>0.362184</v>
       </c>
       <c r="D42" t="n">
-        <v>0.410342</v>
+        <v>0.408652</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.491012</v>
+        <v>0.490147</v>
       </c>
       <c r="C43" t="n">
-        <v>0.369335</v>
+        <v>0.369417</v>
       </c>
       <c r="D43" t="n">
-        <v>0.421046</v>
+        <v>0.419365</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.502277</v>
+        <v>0.50153</v>
       </c>
       <c r="C44" t="n">
-        <v>0.376441</v>
+        <v>0.375769</v>
       </c>
       <c r="D44" t="n">
-        <v>0.430611</v>
+        <v>0.429429</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.513192</v>
+        <v>0.51278</v>
       </c>
       <c r="C45" t="n">
-        <v>0.382897</v>
+        <v>0.382886</v>
       </c>
       <c r="D45" t="n">
-        <v>0.440012</v>
+        <v>0.438716</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.523879</v>
+        <v>0.523209</v>
       </c>
       <c r="C46" t="n">
-        <v>0.389039</v>
+        <v>0.388954</v>
       </c>
       <c r="D46" t="n">
-        <v>0.448049</v>
+        <v>0.446935</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.535744</v>
+        <v>0.535705</v>
       </c>
       <c r="C47" t="n">
-        <v>0.395135</v>
+        <v>0.395156</v>
       </c>
       <c r="D47" t="n">
-        <v>0.457049</v>
+        <v>0.457727</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.546881</v>
+        <v>0.549023</v>
       </c>
       <c r="C48" t="n">
-        <v>0.401283</v>
+        <v>0.401384</v>
       </c>
       <c r="D48" t="n">
-        <v>0.465984</v>
+        <v>0.464634</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.560487</v>
+        <v>0.560858</v>
       </c>
       <c r="C49" t="n">
-        <v>0.408731</v>
+        <v>0.409021</v>
       </c>
       <c r="D49" t="n">
-        <v>0.474393</v>
+        <v>0.473756</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.569958</v>
+        <v>0.57026</v>
       </c>
       <c r="C50" t="n">
-        <v>0.320978</v>
+        <v>0.321182</v>
       </c>
       <c r="D50" t="n">
-        <v>0.347713</v>
+        <v>0.348337</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.431174</v>
+        <v>0.429413</v>
       </c>
       <c r="C51" t="n">
-        <v>0.329258</v>
+        <v>0.329133</v>
       </c>
       <c r="D51" t="n">
-        <v>0.35922</v>
+        <v>0.359432</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.441742</v>
+        <v>0.440182</v>
       </c>
       <c r="C52" t="n">
-        <v>0.337868</v>
+        <v>0.337668</v>
       </c>
       <c r="D52" t="n">
-        <v>0.369831</v>
+        <v>0.37034</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.453189</v>
+        <v>0.45192</v>
       </c>
       <c r="C53" t="n">
-        <v>0.346226</v>
+        <v>0.346613</v>
       </c>
       <c r="D53" t="n">
-        <v>0.380561</v>
+        <v>0.381307</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.465378</v>
+        <v>0.463465</v>
       </c>
       <c r="C54" t="n">
-        <v>0.354714</v>
+        <v>0.354507</v>
       </c>
       <c r="D54" t="n">
-        <v>0.391899</v>
+        <v>0.392454</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.479298</v>
+        <v>0.478451</v>
       </c>
       <c r="C55" t="n">
-        <v>0.362866</v>
+        <v>0.362748</v>
       </c>
       <c r="D55" t="n">
-        <v>0.403708</v>
+        <v>0.404294</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.488373</v>
+        <v>0.486656</v>
       </c>
       <c r="C56" t="n">
-        <v>0.370925</v>
+        <v>0.370293</v>
       </c>
       <c r="D56" t="n">
-        <v>0.414775</v>
+        <v>0.414929</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.499876</v>
+        <v>0.49865</v>
       </c>
       <c r="C57" t="n">
-        <v>0.377754</v>
+        <v>0.37735</v>
       </c>
       <c r="D57" t="n">
-        <v>0.424318</v>
+        <v>0.424509</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.509968</v>
+        <v>0.509368</v>
       </c>
       <c r="C58" t="n">
-        <v>0.383839</v>
+        <v>0.383592</v>
       </c>
       <c r="D58" t="n">
-        <v>0.433017</v>
+        <v>0.433365</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.520871</v>
+        <v>0.520459</v>
       </c>
       <c r="C59" t="n">
-        <v>0.390133</v>
+        <v>0.390082</v>
       </c>
       <c r="D59" t="n">
-        <v>0.442396</v>
+        <v>0.442114</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.532093</v>
+        <v>0.530635</v>
       </c>
       <c r="C60" t="n">
-        <v>0.396822</v>
+        <v>0.396667</v>
       </c>
       <c r="D60" t="n">
-        <v>0.451924</v>
+        <v>0.451547</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5424870000000001</v>
+        <v>0.542246</v>
       </c>
       <c r="C61" t="n">
-        <v>0.402508</v>
+        <v>0.403093</v>
       </c>
       <c r="D61" t="n">
-        <v>0.460624</v>
+        <v>0.460247</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5555290000000001</v>
+        <v>0.555365</v>
       </c>
       <c r="C62" t="n">
-        <v>0.408711</v>
+        <v>0.410402</v>
       </c>
       <c r="D62" t="n">
-        <v>0.469318</v>
+        <v>0.468907</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.566689</v>
+        <v>0.568419</v>
       </c>
       <c r="C63" t="n">
-        <v>0.416415</v>
+        <v>0.417388</v>
       </c>
       <c r="D63" t="n">
-        <v>0.479241</v>
+        <v>0.479963</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.581408</v>
+        <v>0.58104</v>
       </c>
       <c r="C64" t="n">
-        <v>0.33228</v>
+        <v>0.332483</v>
       </c>
       <c r="D64" t="n">
-        <v>0.364911</v>
+        <v>0.367155</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.459758</v>
+        <v>0.461497</v>
       </c>
       <c r="C65" t="n">
-        <v>0.340575</v>
+        <v>0.34245</v>
       </c>
       <c r="D65" t="n">
-        <v>0.378686</v>
+        <v>0.380642</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.476886</v>
+        <v>0.478583</v>
       </c>
       <c r="C66" t="n">
-        <v>0.351541</v>
+        <v>0.353312</v>
       </c>
       <c r="D66" t="n">
-        <v>0.391076</v>
+        <v>0.39458</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.488809</v>
+        <v>0.491308</v>
       </c>
       <c r="C67" t="n">
-        <v>0.362637</v>
+        <v>0.364513</v>
       </c>
       <c r="D67" t="n">
-        <v>0.405616</v>
+        <v>0.408362</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.507557</v>
+        <v>0.510026</v>
       </c>
       <c r="C68" t="n">
-        <v>0.374914</v>
+        <v>0.376455</v>
       </c>
       <c r="D68" t="n">
-        <v>0.420859</v>
+        <v>0.422748</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5067469999999999</v>
+        <v>0.54115</v>
       </c>
       <c r="C69" t="n">
-        <v>0.385033</v>
+        <v>0.387335</v>
       </c>
       <c r="D69" t="n">
-        <v>0.437024</v>
+        <v>0.439848</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.524306</v>
+        <v>0.559546</v>
       </c>
       <c r="C70" t="n">
-        <v>0.395603</v>
+        <v>0.397377</v>
       </c>
       <c r="D70" t="n">
-        <v>0.450467</v>
+        <v>0.454069</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.563177</v>
+        <v>0.57037</v>
       </c>
       <c r="C71" t="n">
-        <v>0.406327</v>
+        <v>0.411182</v>
       </c>
       <c r="D71" t="n">
-        <v>0.466103</v>
+        <v>0.469429</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.580354</v>
+        <v>0.600724</v>
       </c>
       <c r="C72" t="n">
-        <v>0.416799</v>
+        <v>0.426382</v>
       </c>
       <c r="D72" t="n">
-        <v>0.477181</v>
+        <v>0.487701</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6060219999999999</v>
+        <v>0.62979</v>
       </c>
       <c r="C73" t="n">
-        <v>0.43079</v>
+        <v>0.442102</v>
       </c>
       <c r="D73" t="n">
-        <v>0.49419</v>
+        <v>0.509532</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.634756</v>
+        <v>0.659792</v>
       </c>
       <c r="C74" t="n">
-        <v>0.444332</v>
+        <v>0.459633</v>
       </c>
       <c r="D74" t="n">
-        <v>0.512877</v>
+        <v>0.526299</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6643790000000001</v>
+        <v>0.69359</v>
       </c>
       <c r="C75" t="n">
-        <v>0.460139</v>
+        <v>0.47637</v>
       </c>
       <c r="D75" t="n">
-        <v>0.530923</v>
+        <v>0.550233</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.702631</v>
+        <v>0.7278829999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.480867</v>
+        <v>0.497345</v>
       </c>
       <c r="D76" t="n">
-        <v>0.556812</v>
+        <v>0.575485</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.744905</v>
+        <v>0.7741980000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.505159</v>
+        <v>0.521884</v>
       </c>
       <c r="D77" t="n">
-        <v>0.585051</v>
+        <v>0.603572</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8010429999999999</v>
+        <v>0.820048</v>
       </c>
       <c r="C78" t="n">
-        <v>0.451634</v>
+        <v>0.458697</v>
       </c>
       <c r="D78" t="n">
-        <v>0.501795</v>
+        <v>0.518726</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.792967</v>
+        <v>0.810433</v>
       </c>
       <c r="C79" t="n">
-        <v>0.478036</v>
+        <v>0.484641</v>
       </c>
       <c r="D79" t="n">
-        <v>0.528737</v>
+        <v>0.543024</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8369450000000001</v>
+        <v>0.853622</v>
       </c>
       <c r="C80" t="n">
-        <v>0.504606</v>
+        <v>0.511169</v>
       </c>
       <c r="D80" t="n">
-        <v>0.560882</v>
+        <v>0.573608</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.884937</v>
+        <v>0.894574</v>
       </c>
       <c r="C81" t="n">
-        <v>0.535121</v>
+        <v>0.542984</v>
       </c>
       <c r="D81" t="n">
-        <v>0.595118</v>
+        <v>0.606026</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.933707</v>
+        <v>0.9426639999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.566109</v>
+        <v>0.573421</v>
       </c>
       <c r="D82" t="n">
-        <v>0.631355</v>
+        <v>0.639976</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.98389</v>
+        <v>0.994051</v>
       </c>
       <c r="C83" t="n">
-        <v>0.598519</v>
+        <v>0.6043809999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.668054</v>
+        <v>0.677195</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.04592</v>
+        <v>1.05012</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6318550000000001</v>
+        <v>0.637278</v>
       </c>
       <c r="D84" t="n">
-        <v>0.71282</v>
+        <v>0.72143</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.0906</v>
+        <v>1.10013</v>
       </c>
       <c r="C85" t="n">
-        <v>0.668228</v>
+        <v>0.671828</v>
       </c>
       <c r="D85" t="n">
-        <v>0.754055</v>
+        <v>0.75954</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.14854</v>
+        <v>1.15693</v>
       </c>
       <c r="C86" t="n">
-        <v>0.70616</v>
+        <v>0.708902</v>
       </c>
       <c r="D86" t="n">
-        <v>0.796214</v>
+        <v>0.801615</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.20768</v>
+        <v>1.21434</v>
       </c>
       <c r="C87" t="n">
-        <v>0.744085</v>
+        <v>0.745792</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8339800000000001</v>
+        <v>0.838014</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.26792</v>
+        <v>1.27509</v>
       </c>
       <c r="C88" t="n">
-        <v>0.781492</v>
+        <v>0.7839390000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.875624</v>
+        <v>0.879447</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.32812</v>
+        <v>1.33461</v>
       </c>
       <c r="C89" t="n">
-        <v>0.819641</v>
+        <v>0.8221079999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.917333</v>
+        <v>0.921672</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.39289</v>
+        <v>1.39902</v>
       </c>
       <c r="C90" t="n">
-        <v>0.85997</v>
+        <v>0.86335</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9609839999999999</v>
+        <v>0.9653040000000001</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.46133</v>
+        <v>1.46638</v>
       </c>
       <c r="C91" t="n">
-        <v>0.901909</v>
+        <v>0.905399</v>
       </c>
       <c r="D91" t="n">
-        <v>1.00593</v>
+        <v>1.01012</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.53013</v>
+        <v>1.53587</v>
       </c>
       <c r="C92" t="n">
-        <v>0.78371</v>
+        <v>0.787415</v>
       </c>
       <c r="D92" t="n">
-        <v>0.897555</v>
+        <v>0.903616</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.34441</v>
+        <v>1.34536</v>
       </c>
       <c r="C93" t="n">
-        <v>0.811688</v>
+        <v>0.815232</v>
       </c>
       <c r="D93" t="n">
-        <v>0.941455</v>
+        <v>0.947531</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.38305</v>
+        <v>1.38462</v>
       </c>
       <c r="C94" t="n">
-        <v>0.840653</v>
+        <v>0.844013</v>
       </c>
       <c r="D94" t="n">
-        <v>0.973149</v>
+        <v>0.980063</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.42662</v>
+        <v>1.42437</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8707549999999999</v>
+        <v>0.876219</v>
       </c>
       <c r="D95" t="n">
-        <v>0.999126</v>
+        <v>1.00516</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.46445</v>
+        <v>1.4659</v>
       </c>
       <c r="C96" t="n">
-        <v>0.902118</v>
+        <v>0.90522</v>
       </c>
       <c r="D96" t="n">
-        <v>1.03195</v>
+        <v>1.03805</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.50893</v>
+        <v>1.50924</v>
       </c>
       <c r="C97" t="n">
-        <v>0.934909</v>
+        <v>0.937548</v>
       </c>
       <c r="D97" t="n">
-        <v>1.09223</v>
+        <v>1.09698</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.55355</v>
+        <v>1.55348</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9676</v>
+        <v>0.969984</v>
       </c>
       <c r="D98" t="n">
-        <v>1.1205</v>
+        <v>1.12533</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.60223</v>
+        <v>1.60111</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00215</v>
+        <v>1.00417</v>
       </c>
       <c r="D99" t="n">
-        <v>1.16428</v>
+        <v>1.16854</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.64944</v>
+        <v>1.64891</v>
       </c>
       <c r="C100" t="n">
-        <v>1.0363</v>
+        <v>1.03763</v>
       </c>
       <c r="D100" t="n">
-        <v>1.21101</v>
+        <v>1.21586</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.69982</v>
+        <v>1.69868</v>
       </c>
       <c r="C101" t="n">
-        <v>1.07134</v>
+        <v>1.07326</v>
       </c>
       <c r="D101" t="n">
-        <v>1.25537</v>
+        <v>1.26039</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.752</v>
+        <v>1.75175</v>
       </c>
       <c r="C102" t="n">
-        <v>1.10895</v>
+        <v>1.10981</v>
       </c>
       <c r="D102" t="n">
-        <v>1.30465</v>
+        <v>1.30182</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.80698</v>
+        <v>1.8074</v>
       </c>
       <c r="C103" t="n">
-        <v>1.14569</v>
+        <v>1.14698</v>
       </c>
       <c r="D103" t="n">
-        <v>1.35086</v>
+        <v>1.34829</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.86507</v>
+        <v>1.86524</v>
       </c>
       <c r="C104" t="n">
-        <v>1.18444</v>
+        <v>1.18584</v>
       </c>
       <c r="D104" t="n">
-        <v>1.39898</v>
+        <v>1.39717</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.92695</v>
+        <v>1.92573</v>
       </c>
       <c r="C105" t="n">
-        <v>1.22554</v>
+        <v>1.22591</v>
       </c>
       <c r="D105" t="n">
-        <v>1.44994</v>
+        <v>1.44682</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.99251</v>
+        <v>1.99213</v>
       </c>
       <c r="C106" t="n">
-        <v>1.26807</v>
+        <v>1.26818</v>
       </c>
       <c r="D106" t="n">
-        <v>1.50128</v>
+        <v>1.49894</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.63742</v>
+        <v>1.63437</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03311</v>
+        <v>1.03286</v>
       </c>
       <c r="D107" t="n">
-        <v>1.26043</v>
+        <v>1.25875</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.6636</v>
+        <v>1.65712</v>
       </c>
       <c r="C108" t="n">
-        <v>1.06031</v>
+        <v>1.05858</v>
       </c>
       <c r="D108" t="n">
-        <v>1.29193</v>
+        <v>1.29421</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.6978</v>
+        <v>1.70378</v>
       </c>
       <c r="C109" t="n">
-        <v>1.08739</v>
+        <v>1.08534</v>
       </c>
       <c r="D109" t="n">
-        <v>1.33945</v>
+        <v>1.33673</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.74002</v>
+        <v>1.72283</v>
       </c>
       <c r="C110" t="n">
-        <v>1.11557</v>
+        <v>1.09352</v>
       </c>
       <c r="D110" t="n">
-        <v>1.37599</v>
+        <v>1.34874</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.78494</v>
+        <v>1.76308</v>
       </c>
       <c r="C111" t="n">
-        <v>1.14797</v>
+        <v>1.12036</v>
       </c>
       <c r="D111" t="n">
-        <v>1.40714</v>
+        <v>1.37774</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.82647</v>
+        <v>1.80199</v>
       </c>
       <c r="C112" t="n">
-        <v>1.17847</v>
+        <v>1.15839</v>
       </c>
       <c r="D112" t="n">
-        <v>1.45224</v>
+        <v>1.4226</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.86587</v>
+        <v>1.84429</v>
       </c>
       <c r="C113" t="n">
-        <v>1.21046</v>
+        <v>1.19158</v>
       </c>
       <c r="D113" t="n">
-        <v>1.49411</v>
+        <v>1.46514</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.91172</v>
+        <v>1.89117</v>
       </c>
       <c r="C114" t="n">
-        <v>1.24033</v>
+        <v>1.22293</v>
       </c>
       <c r="D114" t="n">
-        <v>1.52923</v>
+        <v>1.49931</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.94198</v>
+        <v>1.94981</v>
       </c>
       <c r="C115" t="n">
-        <v>1.25929</v>
+        <v>1.2663</v>
       </c>
       <c r="D115" t="n">
-        <v>1.57762</v>
+        <v>1.57424</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.9899</v>
+        <v>2.0045</v>
       </c>
       <c r="C116" t="n">
-        <v>1.29441</v>
+        <v>1.30831</v>
       </c>
       <c r="D116" t="n">
-        <v>1.62266</v>
+        <v>1.61838</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.04712</v>
+        <v>2.05673</v>
       </c>
       <c r="C117" t="n">
-        <v>1.32881</v>
+        <v>1.34087</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66819</v>
+        <v>1.66347</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.10314</v>
+        <v>2.11046</v>
       </c>
       <c r="C118" t="n">
-        <v>1.36595</v>
+        <v>1.38004</v>
       </c>
       <c r="D118" t="n">
-        <v>1.71092</v>
+        <v>1.71081</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.15487</v>
+        <v>2.16757</v>
       </c>
       <c r="C119" t="n">
-        <v>1.40594</v>
+        <v>1.41726</v>
       </c>
       <c r="D119" t="n">
-        <v>1.75926</v>
+        <v>1.7593</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.278281</v>
+        <v>0.277535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.205928</v>
+        <v>0.203902</v>
       </c>
       <c r="D2" t="n">
-        <v>0.180495</v>
+        <v>0.180129</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.287154</v>
+        <v>0.287126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.211769</v>
+        <v>0.207574</v>
       </c>
       <c r="D3" t="n">
-        <v>0.182862</v>
+        <v>0.18234</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.296144</v>
+        <v>0.296469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.218675</v>
+        <v>0.216711</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185186</v>
+        <v>0.184721</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.308143</v>
+        <v>0.303898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.227359</v>
+        <v>0.222825</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18938</v>
+        <v>0.188495</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.322835</v>
+        <v>0.316119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.235525</v>
+        <v>0.228352</v>
       </c>
       <c r="D6" t="n">
-        <v>0.191908</v>
+        <v>0.189801</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.331503</v>
+        <v>0.323782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.19865</v>
+        <v>0.188952</v>
       </c>
       <c r="D7" t="n">
-        <v>0.176478</v>
+        <v>0.173117</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.255822</v>
+        <v>0.247786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.200269</v>
+        <v>0.192327</v>
       </c>
       <c r="D8" t="n">
-        <v>0.178454</v>
+        <v>0.174816</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.260234</v>
+        <v>0.254463</v>
       </c>
       <c r="C9" t="n">
-        <v>0.206139</v>
+        <v>0.198521</v>
       </c>
       <c r="D9" t="n">
-        <v>0.180537</v>
+        <v>0.177376</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.269662</v>
+        <v>0.2624</v>
       </c>
       <c r="C10" t="n">
-        <v>0.210562</v>
+        <v>0.203683</v>
       </c>
       <c r="D10" t="n">
-        <v>0.184829</v>
+        <v>0.180152</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.276299</v>
+        <v>0.269432</v>
       </c>
       <c r="C11" t="n">
-        <v>0.216407</v>
+        <v>0.209677</v>
       </c>
       <c r="D11" t="n">
-        <v>0.186421</v>
+        <v>0.182355</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.285514</v>
+        <v>0.278541</v>
       </c>
       <c r="C12" t="n">
-        <v>0.223354</v>
+        <v>0.216449</v>
       </c>
       <c r="D12" t="n">
-        <v>0.190679</v>
+        <v>0.185843</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.287758</v>
+        <v>0.286788</v>
       </c>
       <c r="C13" t="n">
-        <v>0.232025</v>
+        <v>0.223986</v>
       </c>
       <c r="D13" t="n">
-        <v>0.193528</v>
+        <v>0.188491</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.302981</v>
+        <v>0.2976</v>
       </c>
       <c r="C14" t="n">
-        <v>0.238606</v>
+        <v>0.231335</v>
       </c>
       <c r="D14" t="n">
-        <v>0.197458</v>
+        <v>0.191702</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.311163</v>
+        <v>0.304414</v>
       </c>
       <c r="C15" t="n">
-        <v>0.244722</v>
+        <v>0.239728</v>
       </c>
       <c r="D15" t="n">
-        <v>0.201786</v>
+        <v>0.196888</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.318138</v>
+        <v>0.315445</v>
       </c>
       <c r="C16" t="n">
-        <v>0.254482</v>
+        <v>0.249657</v>
       </c>
       <c r="D16" t="n">
-        <v>0.206234</v>
+        <v>0.202087</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.331228</v>
+        <v>0.328379</v>
       </c>
       <c r="C17" t="n">
-        <v>0.261735</v>
+        <v>0.258475</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210394</v>
+        <v>0.205982</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.340807</v>
+        <v>0.338195</v>
       </c>
       <c r="C18" t="n">
-        <v>0.270188</v>
+        <v>0.265937</v>
       </c>
       <c r="D18" t="n">
-        <v>0.211986</v>
+        <v>0.211014</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.352793</v>
+        <v>0.349247</v>
       </c>
       <c r="C19" t="n">
-        <v>0.279354</v>
+        <v>0.276266</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219429</v>
+        <v>0.215912</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.367097</v>
+        <v>0.363471</v>
       </c>
       <c r="C20" t="n">
-        <v>0.291922</v>
+        <v>0.286931</v>
       </c>
       <c r="D20" t="n">
-        <v>0.223199</v>
+        <v>0.221014</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.378842</v>
+        <v>0.375219</v>
       </c>
       <c r="C21" t="n">
-        <v>0.235849</v>
+        <v>0.233485</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206138</v>
+        <v>0.205048</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.295424</v>
+        <v>0.293942</v>
       </c>
       <c r="C22" t="n">
-        <v>0.241738</v>
+        <v>0.239616</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208962</v>
+        <v>0.207846</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.302645</v>
+        <v>0.30146</v>
       </c>
       <c r="C23" t="n">
-        <v>0.248394</v>
+        <v>0.245811</v>
       </c>
       <c r="D23" t="n">
-        <v>0.212198</v>
+        <v>0.211317</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.31051</v>
+        <v>0.309123</v>
       </c>
       <c r="C24" t="n">
-        <v>0.252818</v>
+        <v>0.250947</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216249</v>
+        <v>0.214574</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.317899</v>
+        <v>0.316462</v>
       </c>
       <c r="C25" t="n">
-        <v>0.259695</v>
+        <v>0.257182</v>
       </c>
       <c r="D25" t="n">
-        <v>0.219278</v>
+        <v>0.217708</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.32605</v>
+        <v>0.325198</v>
       </c>
       <c r="C26" t="n">
-        <v>0.267254</v>
+        <v>0.264399</v>
       </c>
       <c r="D26" t="n">
-        <v>0.222909</v>
+        <v>0.221315</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.334278</v>
+        <v>0.332615</v>
       </c>
       <c r="C27" t="n">
-        <v>0.27185</v>
+        <v>0.269041</v>
       </c>
       <c r="D27" t="n">
-        <v>0.227121</v>
+        <v>0.225748</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.342693</v>
+        <v>0.341368</v>
       </c>
       <c r="C28" t="n">
-        <v>0.279568</v>
+        <v>0.276632</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230554</v>
+        <v>0.229192</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.352581</v>
+        <v>0.350806</v>
       </c>
       <c r="C29" t="n">
-        <v>0.286918</v>
+        <v>0.283539</v>
       </c>
       <c r="D29" t="n">
-        <v>0.235209</v>
+        <v>0.2333</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.362359</v>
+        <v>0.361227</v>
       </c>
       <c r="C30" t="n">
-        <v>0.295488</v>
+        <v>0.292161</v>
       </c>
       <c r="D30" t="n">
-        <v>0.238505</v>
+        <v>0.237329</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.37322</v>
+        <v>0.371949</v>
       </c>
       <c r="C31" t="n">
-        <v>0.301573</v>
+        <v>0.298297</v>
       </c>
       <c r="D31" t="n">
-        <v>0.242872</v>
+        <v>0.240511</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.382673</v>
+        <v>0.381638</v>
       </c>
       <c r="C32" t="n">
-        <v>0.311143</v>
+        <v>0.308463</v>
       </c>
       <c r="D32" t="n">
-        <v>0.247229</v>
+        <v>0.245133</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.395457</v>
+        <v>0.395145</v>
       </c>
       <c r="C33" t="n">
-        <v>0.32011</v>
+        <v>0.31685</v>
       </c>
       <c r="D33" t="n">
-        <v>0.251036</v>
+        <v>0.250273</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.407776</v>
+        <v>0.407222</v>
       </c>
       <c r="C34" t="n">
-        <v>0.329969</v>
+        <v>0.326988</v>
       </c>
       <c r="D34" t="n">
-        <v>0.256936</v>
+        <v>0.25552</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.420977</v>
+        <v>0.420719</v>
       </c>
       <c r="C35" t="n">
-        <v>0.253445</v>
+        <v>0.252</v>
       </c>
       <c r="D35" t="n">
-        <v>0.227627</v>
+        <v>0.227462</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.315779</v>
+        <v>0.316052</v>
       </c>
       <c r="C36" t="n">
-        <v>0.26043</v>
+        <v>0.258735</v>
       </c>
       <c r="D36" t="n">
-        <v>0.230815</v>
+        <v>0.230663</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322137</v>
+        <v>0.3224</v>
       </c>
       <c r="C37" t="n">
-        <v>0.265532</v>
+        <v>0.264232</v>
       </c>
       <c r="D37" t="n">
-        <v>0.234126</v>
+        <v>0.233933</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.330696</v>
+        <v>0.330787</v>
       </c>
       <c r="C38" t="n">
-        <v>0.27256</v>
+        <v>0.270996</v>
       </c>
       <c r="D38" t="n">
-        <v>0.238116</v>
+        <v>0.237794</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.336122</v>
+        <v>0.336576</v>
       </c>
       <c r="C39" t="n">
-        <v>0.27774</v>
+        <v>0.276301</v>
       </c>
       <c r="D39" t="n">
-        <v>0.240923</v>
+        <v>0.240526</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345902</v>
+        <v>0.345908</v>
       </c>
       <c r="C40" t="n">
-        <v>0.284908</v>
+        <v>0.283288</v>
       </c>
       <c r="D40" t="n">
-        <v>0.244551</v>
+        <v>0.244329</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.353638</v>
+        <v>0.353316</v>
       </c>
       <c r="C41" t="n">
-        <v>0.290977</v>
+        <v>0.28945</v>
       </c>
       <c r="D41" t="n">
-        <v>0.248019</v>
+        <v>0.247762</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.361244</v>
+        <v>0.361773</v>
       </c>
       <c r="C42" t="n">
-        <v>0.296446</v>
+        <v>0.294665</v>
       </c>
       <c r="D42" t="n">
-        <v>0.251458</v>
+        <v>0.251351</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.370178</v>
+        <v>0.370706</v>
       </c>
       <c r="C43" t="n">
-        <v>0.303913</v>
+        <v>0.302372</v>
       </c>
       <c r="D43" t="n">
-        <v>0.255187</v>
+        <v>0.255012</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.380153</v>
+        <v>0.380195</v>
       </c>
       <c r="C44" t="n">
-        <v>0.312306</v>
+        <v>0.310191</v>
       </c>
       <c r="D44" t="n">
-        <v>0.25946</v>
+        <v>0.259549</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.391812</v>
+        <v>0.392241</v>
       </c>
       <c r="C45" t="n">
-        <v>0.320118</v>
+        <v>0.318438</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264898</v>
+        <v>0.264851</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.402378</v>
+        <v>0.40269</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32831</v>
+        <v>0.326563</v>
       </c>
       <c r="D46" t="n">
-        <v>0.268129</v>
+        <v>0.267867</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.412594</v>
+        <v>0.412974</v>
       </c>
       <c r="C47" t="n">
-        <v>0.33671</v>
+        <v>0.334814</v>
       </c>
       <c r="D47" t="n">
-        <v>0.274286</v>
+        <v>0.273853</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.423794</v>
+        <v>0.424486</v>
       </c>
       <c r="C48" t="n">
-        <v>0.345591</v>
+        <v>0.343337</v>
       </c>
       <c r="D48" t="n">
-        <v>0.279231</v>
+        <v>0.279121</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.434762</v>
+        <v>0.435403</v>
       </c>
       <c r="C49" t="n">
-        <v>0.355689</v>
+        <v>0.353569</v>
       </c>
       <c r="D49" t="n">
-        <v>0.284362</v>
+        <v>0.284009</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.448986</v>
+        <v>0.449513</v>
       </c>
       <c r="C50" t="n">
-        <v>0.267581</v>
+        <v>0.265972</v>
       </c>
       <c r="D50" t="n">
-        <v>0.231521</v>
+        <v>0.2314</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.333064</v>
+        <v>0.333241</v>
       </c>
       <c r="C51" t="n">
-        <v>0.272909</v>
+        <v>0.271426</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23458</v>
+        <v>0.234503</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340216</v>
+        <v>0.340376</v>
       </c>
       <c r="C52" t="n">
-        <v>0.279143</v>
+        <v>0.277714</v>
       </c>
       <c r="D52" t="n">
-        <v>0.238117</v>
+        <v>0.237922</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346725</v>
+        <v>0.347143</v>
       </c>
       <c r="C53" t="n">
-        <v>0.285854</v>
+        <v>0.284529</v>
       </c>
       <c r="D53" t="n">
-        <v>0.242175</v>
+        <v>0.242141</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.354919</v>
+        <v>0.355145</v>
       </c>
       <c r="C54" t="n">
-        <v>0.292253</v>
+        <v>0.290745</v>
       </c>
       <c r="D54" t="n">
-        <v>0.245617</v>
+        <v>0.245529</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.363842</v>
+        <v>0.363793</v>
       </c>
       <c r="C55" t="n">
-        <v>0.298942</v>
+        <v>0.2975</v>
       </c>
       <c r="D55" t="n">
-        <v>0.249753</v>
+        <v>0.249493</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.373471</v>
+        <v>0.373426</v>
       </c>
       <c r="C56" t="n">
-        <v>0.305196</v>
+        <v>0.3037</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253792</v>
+        <v>0.253686</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.382209</v>
+        <v>0.382508</v>
       </c>
       <c r="C57" t="n">
-        <v>0.31268</v>
+        <v>0.310971</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257875</v>
+        <v>0.25767</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.392011</v>
+        <v>0.392386</v>
       </c>
       <c r="C58" t="n">
-        <v>0.320791</v>
+        <v>0.318792</v>
       </c>
       <c r="D58" t="n">
-        <v>0.264037</v>
+        <v>0.263133</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403979</v>
+        <v>0.404396</v>
       </c>
       <c r="C59" t="n">
-        <v>0.327682</v>
+        <v>0.325937</v>
       </c>
       <c r="D59" t="n">
-        <v>0.266749</v>
+        <v>0.266722</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.413221</v>
+        <v>0.413765</v>
       </c>
       <c r="C60" t="n">
-        <v>0.335173</v>
+        <v>0.333459</v>
       </c>
       <c r="D60" t="n">
-        <v>0.271066</v>
+        <v>0.270883</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.424315</v>
+        <v>0.424543</v>
       </c>
       <c r="C61" t="n">
-        <v>0.344941</v>
+        <v>0.342929</v>
       </c>
       <c r="D61" t="n">
-        <v>0.276608</v>
+        <v>0.276207</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.435113</v>
+        <v>0.435401</v>
       </c>
       <c r="C62" t="n">
-        <v>0.353798</v>
+        <v>0.351809</v>
       </c>
       <c r="D62" t="n">
-        <v>0.281283</v>
+        <v>0.281013</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.447176</v>
+        <v>0.447266</v>
       </c>
       <c r="C63" t="n">
-        <v>0.364069</v>
+        <v>0.36179</v>
       </c>
       <c r="D63" t="n">
-        <v>0.287657</v>
+        <v>0.287481</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.459683</v>
+        <v>0.461579</v>
       </c>
       <c r="C64" t="n">
-        <v>0.286446</v>
+        <v>0.2802</v>
       </c>
       <c r="D64" t="n">
-        <v>0.248674</v>
+        <v>0.247735</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.365831</v>
+        <v>0.353002</v>
       </c>
       <c r="C65" t="n">
-        <v>0.294659</v>
+        <v>0.287901</v>
       </c>
       <c r="D65" t="n">
-        <v>0.248814</v>
+        <v>0.24671</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.377338</v>
+        <v>0.36515</v>
       </c>
       <c r="C66" t="n">
-        <v>0.305318</v>
+        <v>0.30034</v>
       </c>
       <c r="D66" t="n">
-        <v>0.255767</v>
+        <v>0.25327</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388027</v>
+        <v>0.382678</v>
       </c>
       <c r="C67" t="n">
-        <v>0.314279</v>
+        <v>0.306841</v>
       </c>
       <c r="D67" t="n">
-        <v>0.260616</v>
+        <v>0.258243</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.401695</v>
+        <v>0.391951</v>
       </c>
       <c r="C68" t="n">
-        <v>0.324289</v>
+        <v>0.317528</v>
       </c>
       <c r="D68" t="n">
-        <v>0.267714</v>
+        <v>0.265696</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.42338</v>
+        <v>0.410709</v>
       </c>
       <c r="C69" t="n">
-        <v>0.338043</v>
+        <v>0.329206</v>
       </c>
       <c r="D69" t="n">
-        <v>0.272522</v>
+        <v>0.268917</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.440138</v>
+        <v>0.43501</v>
       </c>
       <c r="C70" t="n">
-        <v>0.34991</v>
+        <v>0.338755</v>
       </c>
       <c r="D70" t="n">
-        <v>0.27817</v>
+        <v>0.273446</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.450195</v>
+        <v>0.44147</v>
       </c>
       <c r="C71" t="n">
-        <v>0.36303</v>
+        <v>0.354284</v>
       </c>
       <c r="D71" t="n">
-        <v>0.285464</v>
+        <v>0.280856</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.475153</v>
+        <v>0.462433</v>
       </c>
       <c r="C72" t="n">
-        <v>0.379098</v>
+        <v>0.368338</v>
       </c>
       <c r="D72" t="n">
-        <v>0.291962</v>
+        <v>0.28753</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.500108</v>
+        <v>0.494513</v>
       </c>
       <c r="C73" t="n">
-        <v>0.396949</v>
+        <v>0.390846</v>
       </c>
       <c r="D73" t="n">
-        <v>0.301743</v>
+        <v>0.297719</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.524349</v>
+        <v>0.516161</v>
       </c>
       <c r="C74" t="n">
-        <v>0.414997</v>
+        <v>0.408756</v>
       </c>
       <c r="D74" t="n">
-        <v>0.312088</v>
+        <v>0.308901</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.554241</v>
+        <v>0.551535</v>
       </c>
       <c r="C75" t="n">
-        <v>0.438329</v>
+        <v>0.433561</v>
       </c>
       <c r="D75" t="n">
-        <v>0.321766</v>
+        <v>0.318343</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.593624</v>
+        <v>0.588337</v>
       </c>
       <c r="C76" t="n">
-        <v>0.467814</v>
+        <v>0.46205</v>
       </c>
       <c r="D76" t="n">
-        <v>0.335564</v>
+        <v>0.332841</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.635448</v>
+        <v>0.6292140000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.498051</v>
+        <v>0.49295</v>
       </c>
       <c r="D77" t="n">
-        <v>0.348166</v>
+        <v>0.345852</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.683164</v>
+        <v>0.669582</v>
       </c>
       <c r="C78" t="n">
-        <v>0.439829</v>
+        <v>0.442412</v>
       </c>
       <c r="D78" t="n">
-        <v>0.308276</v>
+        <v>0.308704</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.619079</v>
+        <v>0.625398</v>
       </c>
       <c r="C79" t="n">
-        <v>0.468174</v>
+        <v>0.46735</v>
       </c>
       <c r="D79" t="n">
-        <v>0.321303</v>
+        <v>0.322306</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.660208</v>
+        <v>0.665526</v>
       </c>
       <c r="C80" t="n">
-        <v>0.500373</v>
+        <v>0.495999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.338292</v>
+        <v>0.339051</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.708144</v>
+        <v>0.709966</v>
       </c>
       <c r="C81" t="n">
-        <v>0.536505</v>
+        <v>0.5307730000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.34893</v>
+        <v>0.349146</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.753246</v>
+        <v>0.7546389999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.571708</v>
+        <v>0.566342</v>
       </c>
       <c r="D82" t="n">
-        <v>0.368999</v>
+        <v>0.368411</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.806667</v>
+        <v>0.804579</v>
       </c>
       <c r="C83" t="n">
-        <v>0.610577</v>
+        <v>0.60654</v>
       </c>
       <c r="D83" t="n">
-        <v>0.390896</v>
+        <v>0.392546</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8675890000000001</v>
+        <v>0.861942</v>
       </c>
       <c r="C84" t="n">
-        <v>0.650272</v>
+        <v>0.647499</v>
       </c>
       <c r="D84" t="n">
-        <v>0.410022</v>
+        <v>0.414307</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9182979999999999</v>
+        <v>0.916113</v>
       </c>
       <c r="C85" t="n">
-        <v>0.693913</v>
+        <v>0.689522</v>
       </c>
       <c r="D85" t="n">
-        <v>0.433553</v>
+        <v>0.436874</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.979337</v>
+        <v>0.975812</v>
       </c>
       <c r="C86" t="n">
-        <v>0.739147</v>
+        <v>0.7348980000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.462597</v>
+        <v>0.465878</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.04185</v>
+        <v>1.03872</v>
       </c>
       <c r="C87" t="n">
-        <v>0.789588</v>
+        <v>0.784112</v>
       </c>
       <c r="D87" t="n">
-        <v>0.488255</v>
+        <v>0.490545</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.11473</v>
+        <v>1.10716</v>
       </c>
       <c r="C88" t="n">
-        <v>0.838845</v>
+        <v>0.833046</v>
       </c>
       <c r="D88" t="n">
-        <v>0.519295</v>
+        <v>0.51714</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.18065</v>
+        <v>1.17547</v>
       </c>
       <c r="C89" t="n">
-        <v>0.893209</v>
+        <v>0.886653</v>
       </c>
       <c r="D89" t="n">
-        <v>0.550739</v>
+        <v>0.549727</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.25853</v>
+        <v>1.25071</v>
       </c>
       <c r="C90" t="n">
-        <v>0.943235</v>
+        <v>0.936617</v>
       </c>
       <c r="D90" t="n">
-        <v>0.576238</v>
+        <v>0.574902</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.33674</v>
+        <v>1.32714</v>
       </c>
       <c r="C91" t="n">
-        <v>0.999518</v>
+        <v>0.993544</v>
       </c>
       <c r="D91" t="n">
-        <v>0.617468</v>
+        <v>0.616412</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.42034</v>
+        <v>1.40865</v>
       </c>
       <c r="C92" t="n">
-        <v>0.864239</v>
+        <v>0.857199</v>
       </c>
       <c r="D92" t="n">
-        <v>0.617971</v>
+        <v>0.6146430000000001</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.14605</v>
+        <v>1.13705</v>
       </c>
       <c r="C93" t="n">
-        <v>0.896479</v>
+        <v>0.888907</v>
       </c>
       <c r="D93" t="n">
-        <v>0.640131</v>
+        <v>0.63758</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.18546</v>
+        <v>1.18036</v>
       </c>
       <c r="C94" t="n">
-        <v>0.933456</v>
+        <v>0.92559</v>
       </c>
       <c r="D94" t="n">
-        <v>0.662539</v>
+        <v>0.659363</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.23343</v>
+        <v>1.22606</v>
       </c>
       <c r="C95" t="n">
-        <v>0.96685</v>
+        <v>0.958728</v>
       </c>
       <c r="D95" t="n">
-        <v>0.689039</v>
+        <v>0.686331</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.29085</v>
+        <v>1.27966</v>
       </c>
       <c r="C96" t="n">
-        <v>1.00704</v>
+        <v>0.998667</v>
       </c>
       <c r="D96" t="n">
-        <v>0.716917</v>
+        <v>0.714684</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.33475</v>
+        <v>1.32803</v>
       </c>
       <c r="C97" t="n">
-        <v>1.04526</v>
+        <v>1.03727</v>
       </c>
       <c r="D97" t="n">
-        <v>0.738154</v>
+        <v>0.735123</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.3973</v>
+        <v>1.37193</v>
       </c>
       <c r="C98" t="n">
-        <v>1.08682</v>
+        <v>1.07913</v>
       </c>
       <c r="D98" t="n">
-        <v>0.767859</v>
+        <v>0.765369</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.44947</v>
+        <v>1.44362</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12905</v>
+        <v>1.1189</v>
       </c>
       <c r="D99" t="n">
-        <v>0.797254</v>
+        <v>0.794607</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.4992</v>
+        <v>1.48016</v>
       </c>
       <c r="C100" t="n">
-        <v>1.17492</v>
+        <v>1.16276</v>
       </c>
       <c r="D100" t="n">
-        <v>0.82212</v>
+        <v>0.815707</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.54304</v>
+        <v>1.53918</v>
       </c>
       <c r="C101" t="n">
-        <v>1.22044</v>
+        <v>1.20583</v>
       </c>
       <c r="D101" t="n">
-        <v>0.850389</v>
+        <v>0.843291</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.57761</v>
+        <v>1.59186</v>
       </c>
       <c r="C102" t="n">
-        <v>1.26822</v>
+        <v>1.25497</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8800480000000001</v>
+        <v>0.878151</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.64787</v>
+        <v>1.6392</v>
       </c>
       <c r="C103" t="n">
-        <v>1.31768</v>
+        <v>1.30226</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9181589999999999</v>
+        <v>0.908649</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.72523</v>
+        <v>1.69382</v>
       </c>
       <c r="C104" t="n">
-        <v>1.36535</v>
+        <v>1.34926</v>
       </c>
       <c r="D104" t="n">
-        <v>0.946228</v>
+        <v>0.935172</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.78929</v>
+        <v>1.77355</v>
       </c>
       <c r="C105" t="n">
-        <v>1.42373</v>
+        <v>1.39996</v>
       </c>
       <c r="D105" t="n">
-        <v>0.982268</v>
+        <v>0.971741</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.86581</v>
+        <v>1.86742</v>
       </c>
       <c r="C106" t="n">
-        <v>1.47458</v>
+        <v>1.45693</v>
       </c>
       <c r="D106" t="n">
-        <v>1.01135</v>
+        <v>1.00147</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.36586</v>
+        <v>1.35121</v>
       </c>
       <c r="C107" t="n">
-        <v>1.15314</v>
+        <v>1.13565</v>
       </c>
       <c r="D107" t="n">
-        <v>0.937713</v>
+        <v>0.9303129999999999</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.38986</v>
+        <v>1.39842</v>
       </c>
       <c r="C108" t="n">
-        <v>1.17746</v>
+        <v>1.17616</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9629259999999999</v>
+        <v>0.952285</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.44843</v>
+        <v>1.44141</v>
       </c>
       <c r="C109" t="n">
-        <v>1.21112</v>
+        <v>1.20644</v>
       </c>
       <c r="D109" t="n">
-        <v>0.980168</v>
+        <v>0.974043</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.49866</v>
+        <v>1.49107</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22261</v>
+        <v>1.22852</v>
       </c>
       <c r="D110" t="n">
-        <v>0.980092</v>
+        <v>0.9701109999999999</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.54672</v>
+        <v>1.51788</v>
       </c>
       <c r="C111" t="n">
-        <v>1.27584</v>
+        <v>1.24169</v>
       </c>
       <c r="D111" t="n">
-        <v>1.02912</v>
+        <v>0.993186</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.6053</v>
+        <v>1.56532</v>
       </c>
       <c r="C112" t="n">
-        <v>1.31394</v>
+        <v>1.27916</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05628</v>
+        <v>1.04363</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.65387</v>
+        <v>1.64159</v>
       </c>
       <c r="C113" t="n">
-        <v>1.33403</v>
+        <v>1.30948</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08226</v>
+        <v>1.06915</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.71124</v>
+        <v>1.69802</v>
       </c>
       <c r="C114" t="n">
-        <v>1.3935</v>
+        <v>1.38095</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10695</v>
+        <v>1.09549</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.7698</v>
+        <v>1.75175</v>
       </c>
       <c r="C115" t="n">
-        <v>1.41393</v>
+        <v>1.42537</v>
       </c>
       <c r="D115" t="n">
-        <v>1.13856</v>
+        <v>1.12315</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.83496</v>
+        <v>1.82007</v>
       </c>
       <c r="C116" t="n">
-        <v>1.44904</v>
+        <v>1.42804</v>
       </c>
       <c r="D116" t="n">
-        <v>1.16829</v>
+        <v>1.15553</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.90181</v>
+        <v>1.88663</v>
       </c>
       <c r="C117" t="n">
-        <v>1.49528</v>
+        <v>1.47799</v>
       </c>
       <c r="D117" t="n">
-        <v>1.19598</v>
+        <v>1.1843</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.97137</v>
+        <v>1.95313</v>
       </c>
       <c r="C118" t="n">
-        <v>1.5458</v>
+        <v>1.52825</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23028</v>
+        <v>1.21401</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.03972</v>
+        <v>2.02355</v>
       </c>
       <c r="C119" t="n">
-        <v>1.58653</v>
+        <v>1.57235</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25534</v>
+        <v>1.24548</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.636097</v>
+        <v>0.634321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.459611</v>
+        <v>0.450419</v>
       </c>
       <c r="D2" t="n">
-        <v>0.308719</v>
+        <v>0.305031</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.660737</v>
+        <v>0.659709</v>
       </c>
       <c r="C3" t="n">
-        <v>0.471159</v>
+        <v>0.464264</v>
       </c>
       <c r="D3" t="n">
-        <v>0.31905</v>
+        <v>0.315058</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.689438</v>
+        <v>0.683265</v>
       </c>
       <c r="C4" t="n">
-        <v>0.494925</v>
+        <v>0.485634</v>
       </c>
       <c r="D4" t="n">
-        <v>0.328004</v>
+        <v>0.325082</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7138679999999999</v>
+        <v>0.708974</v>
       </c>
       <c r="C5" t="n">
-        <v>0.510426</v>
+        <v>0.502802</v>
       </c>
       <c r="D5" t="n">
-        <v>0.338719</v>
+        <v>0.333687</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.738047</v>
+        <v>0.73473</v>
       </c>
       <c r="C6" t="n">
-        <v>0.526377</v>
+        <v>0.517027</v>
       </c>
       <c r="D6" t="n">
-        <v>0.351183</v>
+        <v>0.346906</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.77238</v>
+        <v>0.766469</v>
       </c>
       <c r="C7" t="n">
-        <v>0.548916</v>
+        <v>0.537675</v>
       </c>
       <c r="D7" t="n">
-        <v>0.36253</v>
+        <v>0.355021</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.802964</v>
+        <v>0.8050620000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.590658</v>
+        <v>0.555652</v>
       </c>
       <c r="D8" t="n">
-        <v>0.365</v>
+        <v>0.363731</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.845471</v>
+        <v>0.831692</v>
       </c>
       <c r="C9" t="n">
-        <v>0.612364</v>
+        <v>0.596127</v>
       </c>
       <c r="D9" t="n">
-        <v>0.38477</v>
+        <v>0.370898</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.879475</v>
+        <v>0.869447</v>
       </c>
       <c r="C10" t="n">
-        <v>0.645642</v>
+        <v>0.609016</v>
       </c>
       <c r="D10" t="n">
-        <v>0.397544</v>
+        <v>0.384385</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.906921</v>
+        <v>0.891204</v>
       </c>
       <c r="C11" t="n">
-        <v>0.434957</v>
+        <v>0.438673</v>
       </c>
       <c r="D11" t="n">
-        <v>0.287629</v>
+        <v>0.28696</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5872579999999999</v>
+        <v>0.597151</v>
       </c>
       <c r="C12" t="n">
-        <v>0.450378</v>
+        <v>0.445692</v>
       </c>
       <c r="D12" t="n">
-        <v>0.29872</v>
+        <v>0.296953</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.605501</v>
+        <v>0.6134309999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.471069</v>
+        <v>0.473654</v>
       </c>
       <c r="D13" t="n">
-        <v>0.310393</v>
+        <v>0.307872</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.639424</v>
+        <v>0.647108</v>
       </c>
       <c r="C14" t="n">
-        <v>0.497714</v>
+        <v>0.5012</v>
       </c>
       <c r="D14" t="n">
-        <v>0.319872</v>
+        <v>0.321178</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6732590000000001</v>
+        <v>0.676732</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5279</v>
+        <v>0.526649</v>
       </c>
       <c r="D15" t="n">
-        <v>0.334534</v>
+        <v>0.334667</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.707346</v>
+        <v>0.715202</v>
       </c>
       <c r="C16" t="n">
-        <v>0.552306</v>
+        <v>0.552871</v>
       </c>
       <c r="D16" t="n">
-        <v>0.350454</v>
+        <v>0.351809</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.745658</v>
+        <v>0.753211</v>
       </c>
       <c r="C17" t="n">
-        <v>0.587749</v>
+        <v>0.587527</v>
       </c>
       <c r="D17" t="n">
-        <v>0.361959</v>
+        <v>0.364763</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.785289</v>
+        <v>0.792895</v>
       </c>
       <c r="C18" t="n">
-        <v>0.613229</v>
+        <v>0.61404</v>
       </c>
       <c r="D18" t="n">
-        <v>0.372387</v>
+        <v>0.37689</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.81998</v>
+        <v>0.834515</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6449009999999999</v>
+        <v>0.649142</v>
       </c>
       <c r="D19" t="n">
-        <v>0.386827</v>
+        <v>0.391546</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.861932</v>
+        <v>0.8725889999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.683756</v>
+        <v>0.6883320000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.402338</v>
+        <v>0.404474</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.903596</v>
+        <v>0.90644</v>
       </c>
       <c r="C21" t="n">
-        <v>0.710174</v>
+        <v>0.6982429999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.417923</v>
+        <v>0.421387</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.94985</v>
+        <v>0.93285</v>
       </c>
       <c r="C22" t="n">
-        <v>0.748377</v>
+        <v>0.736311</v>
       </c>
       <c r="D22" t="n">
-        <v>0.434317</v>
+        <v>0.430939</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.994626</v>
+        <v>0.980552</v>
       </c>
       <c r="C23" t="n">
-        <v>0.790983</v>
+        <v>0.779666</v>
       </c>
       <c r="D23" t="n">
-        <v>0.449449</v>
+        <v>0.44394</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.03985</v>
+        <v>1.02929</v>
       </c>
       <c r="C24" t="n">
-        <v>0.814144</v>
+        <v>0.804905</v>
       </c>
       <c r="D24" t="n">
-        <v>0.462615</v>
+        <v>0.458395</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.0816</v>
+        <v>1.079</v>
       </c>
       <c r="C25" t="n">
-        <v>0.869467</v>
+        <v>0.862797</v>
       </c>
       <c r="D25" t="n">
-        <v>0.47848</v>
+        <v>0.473577</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.1224</v>
+        <v>1.11562</v>
       </c>
       <c r="C26" t="n">
-        <v>0.556522</v>
+        <v>0.550747</v>
       </c>
       <c r="D26" t="n">
-        <v>0.342181</v>
+        <v>0.339768</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.736697</v>
+        <v>0.7306049999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.580019</v>
+        <v>0.575447</v>
       </c>
       <c r="D27" t="n">
-        <v>0.357761</v>
+        <v>0.355058</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.772523</v>
+        <v>0.7679859999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6138439999999999</v>
+        <v>0.605561</v>
       </c>
       <c r="D28" t="n">
-        <v>0.372294</v>
+        <v>0.36878</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.808867</v>
+        <v>0.803436</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6332719999999999</v>
+        <v>0.630972</v>
       </c>
       <c r="D29" t="n">
-        <v>0.388068</v>
+        <v>0.383889</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.845198</v>
+        <v>0.837371</v>
       </c>
       <c r="C30" t="n">
-        <v>0.673142</v>
+        <v>0.66735</v>
       </c>
       <c r="D30" t="n">
-        <v>0.400785</v>
+        <v>0.399269</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.87685</v>
+        <v>0.872368</v>
       </c>
       <c r="C31" t="n">
-        <v>0.696423</v>
+        <v>0.686117</v>
       </c>
       <c r="D31" t="n">
-        <v>0.417054</v>
+        <v>0.409607</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.919658</v>
+        <v>0.90671</v>
       </c>
       <c r="C32" t="n">
-        <v>0.725805</v>
+        <v>0.719264</v>
       </c>
       <c r="D32" t="n">
-        <v>0.430455</v>
+        <v>0.424616</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.962161</v>
+        <v>0.9486599999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.75115</v>
+        <v>0.745566</v>
       </c>
       <c r="D33" t="n">
-        <v>0.442522</v>
+        <v>0.438199</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.00128</v>
+        <v>0.98733</v>
       </c>
       <c r="C34" t="n">
-        <v>0.799938</v>
+        <v>0.776908</v>
       </c>
       <c r="D34" t="n">
-        <v>0.456618</v>
+        <v>0.451794</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.04818</v>
+        <v>1.03762</v>
       </c>
       <c r="C35" t="n">
-        <v>0.827828</v>
+        <v>0.8083129999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.475144</v>
+        <v>0.457458</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.08914</v>
+        <v>1.07457</v>
       </c>
       <c r="C36" t="n">
-        <v>0.853842</v>
+        <v>0.843608</v>
       </c>
       <c r="D36" t="n">
-        <v>0.486986</v>
+        <v>0.484123</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.13468</v>
+        <v>1.11663</v>
       </c>
       <c r="C37" t="n">
-        <v>0.897555</v>
+        <v>0.879545</v>
       </c>
       <c r="D37" t="n">
-        <v>0.500037</v>
+        <v>0.495665</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.17732</v>
+        <v>1.16722</v>
       </c>
       <c r="C38" t="n">
-        <v>0.914957</v>
+        <v>0.893863</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5222869999999999</v>
+        <v>0.506146</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.23487</v>
+        <v>1.21618</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9620379999999999</v>
+        <v>0.92737</v>
       </c>
       <c r="D39" t="n">
-        <v>0.542597</v>
+        <v>0.524092</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.27559</v>
+        <v>1.2657</v>
       </c>
       <c r="C40" t="n">
-        <v>0.611739</v>
+        <v>0.609017</v>
       </c>
       <c r="D40" t="n">
-        <v>0.399214</v>
+        <v>0.392533</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.80674</v>
+        <v>0.800712</v>
       </c>
       <c r="C41" t="n">
-        <v>0.633451</v>
+        <v>0.627731</v>
       </c>
       <c r="D41" t="n">
-        <v>0.410763</v>
+        <v>0.40678</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.841433</v>
+        <v>0.8365939999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.657425</v>
+        <v>0.650989</v>
       </c>
       <c r="D42" t="n">
-        <v>0.42531</v>
+        <v>0.422312</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.874134</v>
+        <v>0.869591</v>
       </c>
       <c r="C43" t="n">
-        <v>0.688122</v>
+        <v>0.684526</v>
       </c>
       <c r="D43" t="n">
-        <v>0.439436</v>
+        <v>0.435386</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.916167</v>
+        <v>0.912152</v>
       </c>
       <c r="C44" t="n">
-        <v>0.722965</v>
+        <v>0.711418</v>
       </c>
       <c r="D44" t="n">
-        <v>0.456905</v>
+        <v>0.451156</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.951906</v>
+        <v>0.945716</v>
       </c>
       <c r="C45" t="n">
-        <v>0.747544</v>
+        <v>0.741077</v>
       </c>
       <c r="D45" t="n">
-        <v>0.472529</v>
+        <v>0.467665</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.994362</v>
+        <v>0.988399</v>
       </c>
       <c r="C46" t="n">
-        <v>0.787609</v>
+        <v>0.770632</v>
       </c>
       <c r="D46" t="n">
-        <v>0.488714</v>
+        <v>0.485179</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.03785</v>
+        <v>1.033</v>
       </c>
       <c r="C47" t="n">
-        <v>0.821398</v>
+        <v>0.801053</v>
       </c>
       <c r="D47" t="n">
-        <v>0.501856</v>
+        <v>0.491245</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.08135</v>
+        <v>1.07474</v>
       </c>
       <c r="C48" t="n">
-        <v>0.855081</v>
+        <v>0.836581</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5185689999999999</v>
+        <v>0.514679</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.1217</v>
+        <v>1.11791</v>
       </c>
       <c r="C49" t="n">
-        <v>0.892971</v>
+        <v>0.879336</v>
       </c>
       <c r="D49" t="n">
-        <v>0.53199</v>
+        <v>0.527386</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.17022</v>
+        <v>1.16146</v>
       </c>
       <c r="C50" t="n">
-        <v>0.929963</v>
+        <v>0.909604</v>
       </c>
       <c r="D50" t="n">
-        <v>0.551965</v>
+        <v>0.546391</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.21511</v>
+        <v>1.2067</v>
       </c>
       <c r="C51" t="n">
-        <v>0.963273</v>
+        <v>0.9517910000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.566463</v>
+        <v>0.563158</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.26061</v>
+        <v>1.24913</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0051</v>
+        <v>0.987455</v>
       </c>
       <c r="D52" t="n">
-        <v>0.583529</v>
+        <v>0.571627</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.30583</v>
+        <v>1.30245</v>
       </c>
       <c r="C53" t="n">
-        <v>1.04865</v>
+        <v>1.02757</v>
       </c>
       <c r="D53" t="n">
-        <v>0.600779</v>
+        <v>0.597136</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.3561</v>
+        <v>1.34599</v>
       </c>
       <c r="C54" t="n">
-        <v>0.641991</v>
+        <v>0.639124</v>
       </c>
       <c r="D54" t="n">
-        <v>0.429048</v>
+        <v>0.427818</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.839728</v>
+        <v>0.837985</v>
       </c>
       <c r="C55" t="n">
-        <v>0.663643</v>
+        <v>0.657851</v>
       </c>
       <c r="D55" t="n">
-        <v>0.445321</v>
+        <v>0.444571</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.872198</v>
+        <v>0.87137</v>
       </c>
       <c r="C56" t="n">
-        <v>0.692922</v>
+        <v>0.688557</v>
       </c>
       <c r="D56" t="n">
-        <v>0.457879</v>
+        <v>0.456737</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.909084</v>
+        <v>0.907967</v>
       </c>
       <c r="C57" t="n">
-        <v>0.714934</v>
+        <v>0.708668</v>
       </c>
       <c r="D57" t="n">
-        <v>0.471398</v>
+        <v>0.46939</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.943648</v>
+        <v>0.941869</v>
       </c>
       <c r="C58" t="n">
-        <v>0.746568</v>
+        <v>0.738538</v>
       </c>
       <c r="D58" t="n">
-        <v>0.489185</v>
+        <v>0.487575</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.98228</v>
+        <v>0.982193</v>
       </c>
       <c r="C59" t="n">
-        <v>0.787957</v>
+        <v>0.778908</v>
       </c>
       <c r="D59" t="n">
-        <v>0.504691</v>
+        <v>0.502963</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.02278</v>
+        <v>1.02074</v>
       </c>
       <c r="C60" t="n">
-        <v>0.815036</v>
+        <v>0.807335</v>
       </c>
       <c r="D60" t="n">
-        <v>0.523841</v>
+        <v>0.519919</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.06385</v>
+        <v>1.06139</v>
       </c>
       <c r="C61" t="n">
-        <v>0.84773</v>
+        <v>0.838114</v>
       </c>
       <c r="D61" t="n">
-        <v>0.536736</v>
+        <v>0.534283</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.10657</v>
+        <v>1.10412</v>
       </c>
       <c r="C62" t="n">
-        <v>0.87378</v>
+        <v>0.870082</v>
       </c>
       <c r="D62" t="n">
-        <v>0.54952</v>
+        <v>0.548032</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15218</v>
+        <v>1.14979</v>
       </c>
       <c r="C63" t="n">
-        <v>0.909695</v>
+        <v>0.903406</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5701270000000001</v>
+        <v>0.567424</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.19973</v>
+        <v>1.19797</v>
       </c>
       <c r="C64" t="n">
-        <v>0.946956</v>
+        <v>0.943377</v>
       </c>
       <c r="D64" t="n">
-        <v>0.584421</v>
+        <v>0.577828</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.24802</v>
+        <v>1.24079</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9913</v>
+        <v>0.985344</v>
       </c>
       <c r="D65" t="n">
-        <v>0.59905</v>
+        <v>0.5976399999999999</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.29321</v>
+        <v>1.2851</v>
       </c>
       <c r="C66" t="n">
-        <v>1.02965</v>
+        <v>1.01822</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6182879999999999</v>
+        <v>0.616212</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.3441</v>
+        <v>1.33862</v>
       </c>
       <c r="C67" t="n">
-        <v>1.0713</v>
+        <v>1.06116</v>
       </c>
       <c r="D67" t="n">
-        <v>0.63292</v>
+        <v>0.633196</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.39102</v>
+        <v>1.39546</v>
       </c>
       <c r="C68" t="n">
-        <v>0.660412</v>
+        <v>0.651953</v>
       </c>
       <c r="D68" t="n">
-        <v>0.459071</v>
+        <v>0.451564</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.891962</v>
+        <v>0.875661</v>
       </c>
       <c r="C69" t="n">
-        <v>0.69456</v>
+        <v>0.680664</v>
       </c>
       <c r="D69" t="n">
-        <v>0.47152</v>
+        <v>0.465158</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.948664</v>
+        <v>0.922525</v>
       </c>
       <c r="C70" t="n">
-        <v>0.734996</v>
+        <v>0.717659</v>
       </c>
       <c r="D70" t="n">
-        <v>0.492684</v>
+        <v>0.485116</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.0161</v>
+        <v>0.980339</v>
       </c>
       <c r="C71" t="n">
-        <v>0.779185</v>
+        <v>0.7633529999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.512426</v>
+        <v>0.505856</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.06087</v>
+        <v>1.03301</v>
       </c>
       <c r="C72" t="n">
-        <v>0.822713</v>
+        <v>0.7981780000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.532734</v>
+        <v>0.525798</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.12992</v>
+        <v>1.09559</v>
       </c>
       <c r="C73" t="n">
-        <v>0.883127</v>
+        <v>0.850805</v>
       </c>
       <c r="D73" t="n">
-        <v>0.558129</v>
+        <v>0.5490620000000001</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.20892</v>
+        <v>1.16123</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9393860000000001</v>
+        <v>0.898613</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5775400000000001</v>
+        <v>0.569138</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.29248</v>
+        <v>1.24006</v>
       </c>
       <c r="C75" t="n">
-        <v>0.998405</v>
+        <v>0.9471309999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.608607</v>
+        <v>0.593212</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.38415</v>
+        <v>1.31415</v>
       </c>
       <c r="C76" t="n">
-        <v>1.06902</v>
+        <v>1.02975</v>
       </c>
       <c r="D76" t="n">
-        <v>0.632498</v>
+        <v>0.615749</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.4907</v>
+        <v>1.41382</v>
       </c>
       <c r="C77" t="n">
-        <v>1.14809</v>
+        <v>1.10168</v>
       </c>
       <c r="D77" t="n">
-        <v>0.668266</v>
+        <v>0.645081</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.6004</v>
+        <v>1.54087</v>
       </c>
       <c r="C78" t="n">
-        <v>1.24198</v>
+        <v>1.1781</v>
       </c>
       <c r="D78" t="n">
-        <v>0.695032</v>
+        <v>0.673567</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.74031</v>
+        <v>1.68228</v>
       </c>
       <c r="C79" t="n">
-        <v>1.35141</v>
+        <v>1.30023</v>
       </c>
       <c r="D79" t="n">
-        <v>0.734195</v>
+        <v>0.706239</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.90293</v>
+        <v>1.84082</v>
       </c>
       <c r="C80" t="n">
-        <v>1.45867</v>
+        <v>1.4175</v>
       </c>
       <c r="D80" t="n">
-        <v>0.767331</v>
+        <v>0.75437</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.08077</v>
+        <v>2.02582</v>
       </c>
       <c r="C81" t="n">
-        <v>1.62407</v>
+        <v>1.56061</v>
       </c>
       <c r="D81" t="n">
-        <v>0.802909</v>
+        <v>0.792357</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.29473</v>
+        <v>2.24153</v>
       </c>
       <c r="C82" t="n">
-        <v>1.80038</v>
+        <v>1.72628</v>
       </c>
       <c r="D82" t="n">
-        <v>0.88549</v>
+        <v>0.872943</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.5234</v>
+        <v>2.45272</v>
       </c>
       <c r="C83" t="n">
-        <v>1.16635</v>
+        <v>1.12967</v>
       </c>
       <c r="D83" t="n">
-        <v>0.638283</v>
+        <v>0.62867</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.71007</v>
+        <v>1.66428</v>
       </c>
       <c r="C84" t="n">
-        <v>1.27293</v>
+        <v>1.23184</v>
       </c>
       <c r="D84" t="n">
-        <v>0.691761</v>
+        <v>0.680469</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.87421</v>
+        <v>1.84548</v>
       </c>
       <c r="C85" t="n">
-        <v>1.39084</v>
+        <v>1.35727</v>
       </c>
       <c r="D85" t="n">
-        <v>0.752663</v>
+        <v>0.741031</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.0711</v>
+        <v>2.02138</v>
       </c>
       <c r="C86" t="n">
-        <v>1.54702</v>
+        <v>1.49865</v>
       </c>
       <c r="D86" t="n">
-        <v>0.810274</v>
+        <v>0.801854</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.2877</v>
+        <v>2.23746</v>
       </c>
       <c r="C87" t="n">
-        <v>1.71033</v>
+        <v>1.65016</v>
       </c>
       <c r="D87" t="n">
-        <v>0.858266</v>
+        <v>0.844265</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.51161</v>
+        <v>2.46725</v>
       </c>
       <c r="C88" t="n">
-        <v>1.88483</v>
+        <v>1.83124</v>
       </c>
       <c r="D88" t="n">
-        <v>0.928104</v>
+        <v>0.917137</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.74505</v>
+        <v>2.71151</v>
       </c>
       <c r="C89" t="n">
-        <v>2.06055</v>
+        <v>1.99766</v>
       </c>
       <c r="D89" t="n">
-        <v>1.01134</v>
+        <v>1.00538</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>3.00582</v>
+        <v>2.95924</v>
       </c>
       <c r="C90" t="n">
-        <v>2.26343</v>
+        <v>2.17555</v>
       </c>
       <c r="D90" t="n">
-        <v>1.09154</v>
+        <v>1.08834</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.28506</v>
+        <v>3.23066</v>
       </c>
       <c r="C91" t="n">
-        <v>2.54485</v>
+        <v>2.38131</v>
       </c>
       <c r="D91" t="n">
-        <v>1.18399</v>
+        <v>1.17857</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.58982</v>
+        <v>3.52265</v>
       </c>
       <c r="C92" t="n">
-        <v>2.69355</v>
+        <v>2.62261</v>
       </c>
       <c r="D92" t="n">
-        <v>1.27409</v>
+        <v>1.26378</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.87619</v>
+        <v>3.83288</v>
       </c>
       <c r="C93" t="n">
-        <v>2.90652</v>
+        <v>2.84849</v>
       </c>
       <c r="D93" t="n">
-        <v>1.35656</v>
+        <v>1.3441</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.19234</v>
+        <v>4.15782</v>
       </c>
       <c r="C94" t="n">
-        <v>3.22322</v>
+        <v>3.10915</v>
       </c>
       <c r="D94" t="n">
-        <v>1.44654</v>
+        <v>1.43899</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.53598</v>
+        <v>4.48965</v>
       </c>
       <c r="C95" t="n">
-        <v>3.47319</v>
+        <v>3.37227</v>
       </c>
       <c r="D95" t="n">
-        <v>1.57038</v>
+        <v>1.56187</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.88877</v>
+        <v>4.83288</v>
       </c>
       <c r="C96" t="n">
-        <v>3.73987</v>
+        <v>3.64391</v>
       </c>
       <c r="D96" t="n">
-        <v>1.69449</v>
+        <v>1.68678</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.25998</v>
+        <v>5.19924</v>
       </c>
       <c r="C97" t="n">
-        <v>2.15717</v>
+        <v>2.12312</v>
       </c>
       <c r="D97" t="n">
-        <v>1.17805</v>
+        <v>1.17548</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.22077</v>
+        <v>3.20307</v>
       </c>
       <c r="C98" t="n">
-        <v>2.30725</v>
+        <v>2.26635</v>
       </c>
       <c r="D98" t="n">
-        <v>1.25757</v>
+        <v>1.25177</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.43851</v>
+        <v>3.42631</v>
       </c>
       <c r="C99" t="n">
-        <v>2.45095</v>
+        <v>2.42486</v>
       </c>
       <c r="D99" t="n">
-        <v>1.33695</v>
+        <v>1.33049</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.64185</v>
+        <v>3.62757</v>
       </c>
       <c r="C100" t="n">
-        <v>2.62897</v>
+        <v>2.59386</v>
       </c>
       <c r="D100" t="n">
-        <v>1.41233</v>
+        <v>1.40633</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.89367</v>
+        <v>3.83168</v>
       </c>
       <c r="C101" t="n">
-        <v>2.78613</v>
+        <v>2.75489</v>
       </c>
       <c r="D101" t="n">
-        <v>1.48656</v>
+        <v>1.48026</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.04697</v>
+        <v>4.04009</v>
       </c>
       <c r="C102" t="n">
-        <v>3.04399</v>
+        <v>2.94244</v>
       </c>
       <c r="D102" t="n">
-        <v>1.57937</v>
+        <v>1.57533</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.28217</v>
+        <v>4.25568</v>
       </c>
       <c r="C103" t="n">
-        <v>3.2311</v>
+        <v>3.12819</v>
       </c>
       <c r="D103" t="n">
-        <v>1.67322</v>
+        <v>1.6646</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.5544</v>
+        <v>4.51937</v>
       </c>
       <c r="C104" t="n">
-        <v>3.36585</v>
+        <v>3.32842</v>
       </c>
       <c r="D104" t="n">
-        <v>1.76752</v>
+        <v>1.75507</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.8241</v>
+        <v>4.79313</v>
       </c>
       <c r="C105" t="n">
-        <v>3.60425</v>
+        <v>3.51837</v>
       </c>
       <c r="D105" t="n">
-        <v>1.82928</v>
+        <v>1.82081</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.12619</v>
+        <v>5.08646</v>
       </c>
       <c r="C106" t="n">
-        <v>3.86654</v>
+        <v>3.70441</v>
       </c>
       <c r="D106" t="n">
-        <v>1.94011</v>
+        <v>1.9322</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.44331</v>
+        <v>5.41061</v>
       </c>
       <c r="C107" t="n">
-        <v>3.99042</v>
+        <v>3.91032</v>
       </c>
       <c r="D107" t="n">
-        <v>2.07428</v>
+        <v>2.05942</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.77425</v>
+        <v>5.7158</v>
       </c>
       <c r="C108" t="n">
-        <v>4.26281</v>
+        <v>4.16763</v>
       </c>
       <c r="D108" t="n">
-        <v>2.173</v>
+        <v>2.15803</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.11043</v>
+        <v>6.05131</v>
       </c>
       <c r="C109" t="n">
-        <v>4.62918</v>
+        <v>4.44839</v>
       </c>
       <c r="D109" t="n">
-        <v>2.25923</v>
+        <v>2.24064</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.46614</v>
+        <v>6.40177</v>
       </c>
       <c r="C110" t="n">
-        <v>4.84532</v>
+        <v>4.73711</v>
       </c>
       <c r="D110" t="n">
-        <v>2.36445</v>
+        <v>2.34525</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.83555</v>
+        <v>6.75389</v>
       </c>
       <c r="C111" t="n">
-        <v>2.69776</v>
+        <v>2.67814</v>
       </c>
       <c r="D111" t="n">
-        <v>1.66437</v>
+        <v>1.65185</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.02922</v>
+        <v>3.98771</v>
       </c>
       <c r="C112" t="n">
-        <v>2.83834</v>
+        <v>2.80201</v>
       </c>
       <c r="D112" t="n">
-        <v>1.73342</v>
+        <v>1.71771</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.24293</v>
+        <v>4.22205</v>
       </c>
       <c r="C113" t="n">
-        <v>2.9824</v>
+        <v>2.9305</v>
       </c>
       <c r="D113" t="n">
-        <v>1.81295</v>
+        <v>1.79704</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.46955</v>
+        <v>4.43125</v>
       </c>
       <c r="C114" t="n">
-        <v>3.12922</v>
+        <v>3.06782</v>
       </c>
       <c r="D114" t="n">
-        <v>1.89202</v>
+        <v>1.87537</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.71548</v>
+        <v>4.67542</v>
       </c>
       <c r="C115" t="n">
-        <v>3.30174</v>
+        <v>3.23106</v>
       </c>
       <c r="D115" t="n">
-        <v>1.97742</v>
+        <v>1.9609</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96667</v>
+        <v>4.9193</v>
       </c>
       <c r="C116" t="n">
-        <v>3.50271</v>
+        <v>3.44655</v>
       </c>
       <c r="D116" t="n">
-        <v>2.05158</v>
+        <v>2.0321</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.23573</v>
+        <v>5.18235</v>
       </c>
       <c r="C117" t="n">
-        <v>3.75227</v>
+        <v>3.61315</v>
       </c>
       <c r="D117" t="n">
-        <v>2.16287</v>
+        <v>2.14313</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.51948</v>
+        <v>5.46518</v>
       </c>
       <c r="C118" t="n">
-        <v>3.96188</v>
+        <v>3.84566</v>
       </c>
       <c r="D118" t="n">
-        <v>2.27192</v>
+        <v>2.25534</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.80961</v>
+        <v>5.75745</v>
       </c>
       <c r="C119" t="n">
-        <v>4.24401</v>
+        <v>4.15395</v>
       </c>
       <c r="D119" t="n">
-        <v>2.35082</v>
+        <v>2.33507</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.396092</v>
+        <v>0.402277</v>
       </c>
       <c r="C2" t="n">
-        <v>0.289772</v>
+        <v>0.294245</v>
       </c>
       <c r="D2" t="n">
-        <v>0.313422</v>
+        <v>0.319489</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.402994</v>
+        <v>0.413822</v>
       </c>
       <c r="C3" t="n">
-        <v>0.292934</v>
+        <v>0.298638</v>
       </c>
       <c r="D3" t="n">
-        <v>0.319183</v>
+        <v>0.326594</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.412243</v>
+        <v>0.424796</v>
       </c>
       <c r="C4" t="n">
-        <v>0.297888</v>
+        <v>0.305113</v>
       </c>
       <c r="D4" t="n">
-        <v>0.322223</v>
+        <v>0.332052</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.424901</v>
+        <v>0.435858</v>
       </c>
       <c r="C5" t="n">
-        <v>0.304332</v>
+        <v>0.31104</v>
       </c>
       <c r="D5" t="n">
-        <v>0.326801</v>
+        <v>0.336546</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.436076</v>
+        <v>0.446071</v>
       </c>
       <c r="C6" t="n">
-        <v>0.309937</v>
+        <v>0.314976</v>
       </c>
       <c r="D6" t="n">
-        <v>0.333543</v>
+        <v>0.341932</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.449721</v>
+        <v>0.458715</v>
       </c>
       <c r="C7" t="n">
-        <v>0.251946</v>
+        <v>0.254804</v>
       </c>
       <c r="D7" t="n">
-        <v>0.284426</v>
+        <v>0.289384</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.335903</v>
+        <v>0.343541</v>
       </c>
       <c r="C8" t="n">
-        <v>0.259578</v>
+        <v>0.264046</v>
       </c>
       <c r="D8" t="n">
-        <v>0.293659</v>
+        <v>0.299073</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.348578</v>
+        <v>0.356758</v>
       </c>
       <c r="C9" t="n">
-        <v>0.266804</v>
+        <v>0.27052</v>
       </c>
       <c r="D9" t="n">
-        <v>0.298928</v>
+        <v>0.304531</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.360714</v>
+        <v>0.367325</v>
       </c>
       <c r="C10" t="n">
-        <v>0.276775</v>
+        <v>0.281159</v>
       </c>
       <c r="D10" t="n">
-        <v>0.309984</v>
+        <v>0.315804</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.375198</v>
+        <v>0.38111</v>
       </c>
       <c r="C11" t="n">
-        <v>0.284195</v>
+        <v>0.289137</v>
       </c>
       <c r="D11" t="n">
-        <v>0.320297</v>
+        <v>0.32639</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.382659</v>
+        <v>0.395835</v>
       </c>
       <c r="C12" t="n">
-        <v>0.293542</v>
+        <v>0.29859</v>
       </c>
       <c r="D12" t="n">
-        <v>0.327596</v>
+        <v>0.334427</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.397812</v>
+        <v>0.408784</v>
       </c>
       <c r="C13" t="n">
-        <v>0.301804</v>
+        <v>0.307608</v>
       </c>
       <c r="D13" t="n">
-        <v>0.338413</v>
+        <v>0.343853</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.413388</v>
+        <v>0.418795</v>
       </c>
       <c r="C14" t="n">
-        <v>0.309415</v>
+        <v>0.315716</v>
       </c>
       <c r="D14" t="n">
-        <v>0.348563</v>
+        <v>0.355711</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.425486</v>
+        <v>0.431302</v>
       </c>
       <c r="C15" t="n">
-        <v>0.315164</v>
+        <v>0.321873</v>
       </c>
       <c r="D15" t="n">
-        <v>0.35583</v>
+        <v>0.36299</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.438299</v>
+        <v>0.444837</v>
       </c>
       <c r="C16" t="n">
-        <v>0.323462</v>
+        <v>0.33049</v>
       </c>
       <c r="D16" t="n">
-        <v>0.365986</v>
+        <v>0.372679</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.451246</v>
+        <v>0.455904</v>
       </c>
       <c r="C17" t="n">
-        <v>0.330823</v>
+        <v>0.338327</v>
       </c>
       <c r="D17" t="n">
-        <v>0.373007</v>
+        <v>0.381563</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.463407</v>
+        <v>0.470298</v>
       </c>
       <c r="C18" t="n">
-        <v>0.337147</v>
+        <v>0.344342</v>
       </c>
       <c r="D18" t="n">
-        <v>0.381433</v>
+        <v>0.390036</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.475886</v>
+        <v>0.482752</v>
       </c>
       <c r="C19" t="n">
-        <v>0.342489</v>
+        <v>0.349955</v>
       </c>
       <c r="D19" t="n">
-        <v>0.389384</v>
+        <v>0.398301</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.488344</v>
+        <v>0.495173</v>
       </c>
       <c r="C20" t="n">
-        <v>0.350468</v>
+        <v>0.357159</v>
       </c>
       <c r="D20" t="n">
-        <v>0.398922</v>
+        <v>0.405244</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.501383</v>
+        <v>0.508708</v>
       </c>
       <c r="C21" t="n">
-        <v>0.280749</v>
+        <v>0.281471</v>
       </c>
       <c r="D21" t="n">
-        <v>0.31482</v>
+        <v>0.315687</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.389677</v>
+        <v>0.391055</v>
       </c>
       <c r="C22" t="n">
-        <v>0.288786</v>
+        <v>0.290249</v>
       </c>
       <c r="D22" t="n">
-        <v>0.323282</v>
+        <v>0.325562</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.400825</v>
+        <v>0.402843</v>
       </c>
       <c r="C23" t="n">
-        <v>0.297023</v>
+        <v>0.299016</v>
       </c>
       <c r="D23" t="n">
-        <v>0.33396</v>
+        <v>0.335984</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.411152</v>
+        <v>0.413007</v>
       </c>
       <c r="C24" t="n">
-        <v>0.305387</v>
+        <v>0.307078</v>
       </c>
       <c r="D24" t="n">
-        <v>0.343113</v>
+        <v>0.345851</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.422679</v>
+        <v>0.42495</v>
       </c>
       <c r="C25" t="n">
-        <v>0.313864</v>
+        <v>0.315706</v>
       </c>
       <c r="D25" t="n">
-        <v>0.353439</v>
+        <v>0.356158</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.434078</v>
+        <v>0.437084</v>
       </c>
       <c r="C26" t="n">
-        <v>0.322283</v>
+        <v>0.324678</v>
       </c>
       <c r="D26" t="n">
-        <v>0.364628</v>
+        <v>0.367494</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.442947</v>
+        <v>0.449537</v>
       </c>
       <c r="C27" t="n">
-        <v>0.33039</v>
+        <v>0.332568</v>
       </c>
       <c r="D27" t="n">
-        <v>0.375827</v>
+        <v>0.378725</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.458666</v>
+        <v>0.461917</v>
       </c>
       <c r="C28" t="n">
-        <v>0.338915</v>
+        <v>0.340911</v>
       </c>
       <c r="D28" t="n">
-        <v>0.385082</v>
+        <v>0.386268</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.471283</v>
+        <v>0.475043</v>
       </c>
       <c r="C29" t="n">
-        <v>0.346424</v>
+        <v>0.348646</v>
       </c>
       <c r="D29" t="n">
-        <v>0.396279</v>
+        <v>0.399755</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.482573</v>
+        <v>0.486945</v>
       </c>
       <c r="C30" t="n">
-        <v>0.353961</v>
+        <v>0.356174</v>
       </c>
       <c r="D30" t="n">
-        <v>0.40598</v>
+        <v>0.408566</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.492977</v>
+        <v>0.497814</v>
       </c>
       <c r="C31" t="n">
-        <v>0.359934</v>
+        <v>0.36241</v>
       </c>
       <c r="D31" t="n">
-        <v>0.415007</v>
+        <v>0.417896</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.504297</v>
+        <v>0.509968</v>
       </c>
       <c r="C32" t="n">
-        <v>0.36867</v>
+        <v>0.371217</v>
       </c>
       <c r="D32" t="n">
-        <v>0.424638</v>
+        <v>0.427639</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.51635</v>
+        <v>0.522284</v>
       </c>
       <c r="C33" t="n">
-        <v>0.375482</v>
+        <v>0.377624</v>
       </c>
       <c r="D33" t="n">
-        <v>0.433042</v>
+        <v>0.435775</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.532156</v>
+        <v>0.534144</v>
       </c>
       <c r="C34" t="n">
-        <v>0.383214</v>
+        <v>0.384974</v>
       </c>
       <c r="D34" t="n">
-        <v>0.442641</v>
+        <v>0.445247</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.539776</v>
+        <v>0.545523</v>
       </c>
       <c r="C35" t="n">
-        <v>0.298346</v>
+        <v>0.297427</v>
       </c>
       <c r="D35" t="n">
-        <v>0.338227</v>
+        <v>0.337679</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.409444</v>
+        <v>0.411771</v>
       </c>
       <c r="C36" t="n">
-        <v>0.305424</v>
+        <v>0.306062</v>
       </c>
       <c r="D36" t="n">
-        <v>0.348113</v>
+        <v>0.347702</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.420435</v>
+        <v>0.423065</v>
       </c>
       <c r="C37" t="n">
-        <v>0.313681</v>
+        <v>0.313977</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3572</v>
+        <v>0.357618</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.430835</v>
+        <v>0.432481</v>
       </c>
       <c r="C38" t="n">
-        <v>0.322936</v>
+        <v>0.323375</v>
       </c>
       <c r="D38" t="n">
-        <v>0.367871</v>
+        <v>0.367984</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.441806</v>
+        <v>0.444649</v>
       </c>
       <c r="C39" t="n">
-        <v>0.330813</v>
+        <v>0.331256</v>
       </c>
       <c r="D39" t="n">
-        <v>0.378792</v>
+        <v>0.37909</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.452957</v>
+        <v>0.456164</v>
       </c>
       <c r="C40" t="n">
-        <v>0.339519</v>
+        <v>0.340229</v>
       </c>
       <c r="D40" t="n">
-        <v>0.38917</v>
+        <v>0.388974</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.46845</v>
+        <v>0.468064</v>
       </c>
       <c r="C41" t="n">
-        <v>0.348158</v>
+        <v>0.348865</v>
       </c>
       <c r="D41" t="n">
-        <v>0.400318</v>
+        <v>0.400288</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.476016</v>
+        <v>0.480894</v>
       </c>
       <c r="C42" t="n">
-        <v>0.35613</v>
+        <v>0.356524</v>
       </c>
       <c r="D42" t="n">
-        <v>0.409439</v>
+        <v>0.409465</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.488529</v>
+        <v>0.493082</v>
       </c>
       <c r="C43" t="n">
-        <v>0.363805</v>
+        <v>0.364179</v>
       </c>
       <c r="D43" t="n">
-        <v>0.41991</v>
+        <v>0.420413</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.500742</v>
+        <v>0.505472</v>
       </c>
       <c r="C44" t="n">
-        <v>0.370576</v>
+        <v>0.371044</v>
       </c>
       <c r="D44" t="n">
-        <v>0.428083</v>
+        <v>0.430813</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5115420000000001</v>
+        <v>0.516737</v>
       </c>
       <c r="C45" t="n">
-        <v>0.377531</v>
+        <v>0.37777</v>
       </c>
       <c r="D45" t="n">
-        <v>0.437451</v>
+        <v>0.439976</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.522903</v>
+        <v>0.526932</v>
       </c>
       <c r="C46" t="n">
-        <v>0.383936</v>
+        <v>0.384288</v>
       </c>
       <c r="D46" t="n">
-        <v>0.445723</v>
+        <v>0.44764</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.534591</v>
+        <v>0.540537</v>
       </c>
       <c r="C47" t="n">
-        <v>0.390837</v>
+        <v>0.390998</v>
       </c>
       <c r="D47" t="n">
-        <v>0.453909</v>
+        <v>0.456792</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.552163</v>
+        <v>0.552284</v>
       </c>
       <c r="C48" t="n">
-        <v>0.397663</v>
+        <v>0.397813</v>
       </c>
       <c r="D48" t="n">
-        <v>0.463186</v>
+        <v>0.46604</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.56069</v>
+        <v>0.564881</v>
       </c>
       <c r="C49" t="n">
-        <v>0.404917</v>
+        <v>0.405242</v>
       </c>
       <c r="D49" t="n">
-        <v>0.473127</v>
+        <v>0.476659</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.576249</v>
+        <v>0.577229</v>
       </c>
       <c r="C50" t="n">
-        <v>0.311389</v>
+        <v>0.31167</v>
       </c>
       <c r="D50" t="n">
-        <v>0.34729</v>
+        <v>0.347899</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430632</v>
+        <v>0.431507</v>
       </c>
       <c r="C51" t="n">
-        <v>0.320542</v>
+        <v>0.320579</v>
       </c>
       <c r="D51" t="n">
-        <v>0.35802</v>
+        <v>0.358621</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.440256</v>
+        <v>0.442957</v>
       </c>
       <c r="C52" t="n">
-        <v>0.329411</v>
+        <v>0.329455</v>
       </c>
       <c r="D52" t="n">
-        <v>0.369199</v>
+        <v>0.369564</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.452198</v>
+        <v>0.455033</v>
       </c>
       <c r="C53" t="n">
-        <v>0.337878</v>
+        <v>0.337883</v>
       </c>
       <c r="D53" t="n">
-        <v>0.380094</v>
+        <v>0.380496</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.463763</v>
+        <v>0.467502</v>
       </c>
       <c r="C54" t="n">
-        <v>0.347132</v>
+        <v>0.347084</v>
       </c>
       <c r="D54" t="n">
-        <v>0.391585</v>
+        <v>0.391364</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.47887</v>
+        <v>0.479297</v>
       </c>
       <c r="C55" t="n">
-        <v>0.356009</v>
+        <v>0.356038</v>
       </c>
       <c r="D55" t="n">
-        <v>0.402742</v>
+        <v>0.402624</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.487514</v>
+        <v>0.491281</v>
       </c>
       <c r="C56" t="n">
-        <v>0.364041</v>
+        <v>0.364409</v>
       </c>
       <c r="D56" t="n">
-        <v>0.412546</v>
+        <v>0.413362</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.498513</v>
+        <v>0.503355</v>
       </c>
       <c r="C57" t="n">
-        <v>0.371901</v>
+        <v>0.372097</v>
       </c>
       <c r="D57" t="n">
-        <v>0.421954</v>
+        <v>0.423143</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.509329</v>
+        <v>0.514209</v>
       </c>
       <c r="C58" t="n">
-        <v>0.378743</v>
+        <v>0.379161</v>
       </c>
       <c r="D58" t="n">
-        <v>0.431721</v>
+        <v>0.432507</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.51961</v>
+        <v>0.526016</v>
       </c>
       <c r="C59" t="n">
-        <v>0.385354</v>
+        <v>0.385418</v>
       </c>
       <c r="D59" t="n">
-        <v>0.440584</v>
+        <v>0.44087</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5310589999999999</v>
+        <v>0.536772</v>
       </c>
       <c r="C60" t="n">
-        <v>0.39192</v>
+        <v>0.392269</v>
       </c>
       <c r="D60" t="n">
-        <v>0.449948</v>
+        <v>0.45034</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.545658</v>
+        <v>0.549311</v>
       </c>
       <c r="C61" t="n">
-        <v>0.398571</v>
+        <v>0.398662</v>
       </c>
       <c r="D61" t="n">
-        <v>0.458525</v>
+        <v>0.459126</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.556478</v>
+        <v>0.561227</v>
       </c>
       <c r="C62" t="n">
-        <v>0.406378</v>
+        <v>0.405492</v>
       </c>
       <c r="D62" t="n">
-        <v>0.468815</v>
+        <v>0.467506</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.568156</v>
+        <v>0.572139</v>
       </c>
       <c r="C63" t="n">
-        <v>0.413184</v>
+        <v>0.412534</v>
       </c>
       <c r="D63" t="n">
-        <v>0.478062</v>
+        <v>0.477433</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.581934</v>
+        <v>0.586526</v>
       </c>
       <c r="C64" t="n">
-        <v>0.322432</v>
+        <v>0.324916</v>
       </c>
       <c r="D64" t="n">
-        <v>0.36382</v>
+        <v>0.368679</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.452881</v>
+        <v>0.457293</v>
       </c>
       <c r="C65" t="n">
-        <v>0.331898</v>
+        <v>0.33571</v>
       </c>
       <c r="D65" t="n">
-        <v>0.376401</v>
+        <v>0.382713</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.470985</v>
+        <v>0.474608</v>
       </c>
       <c r="C66" t="n">
-        <v>0.343202</v>
+        <v>0.345198</v>
       </c>
       <c r="D66" t="n">
-        <v>0.389484</v>
+        <v>0.394364</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.487685</v>
+        <v>0.490564</v>
       </c>
       <c r="C67" t="n">
-        <v>0.353853</v>
+        <v>0.355895</v>
       </c>
       <c r="D67" t="n">
-        <v>0.40355</v>
+        <v>0.407477</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.507189</v>
+        <v>0.5147620000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.365464</v>
+        <v>0.368291</v>
       </c>
       <c r="D68" t="n">
-        <v>0.41721</v>
+        <v>0.421789</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.531614</v>
+        <v>0.532941</v>
       </c>
       <c r="C69" t="n">
-        <v>0.37884</v>
+        <v>0.379376</v>
       </c>
       <c r="D69" t="n">
-        <v>0.434426</v>
+        <v>0.436976</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5526990000000001</v>
+        <v>0.554401</v>
       </c>
       <c r="C70" t="n">
-        <v>0.392631</v>
+        <v>0.392027</v>
       </c>
       <c r="D70" t="n">
-        <v>0.452543</v>
+        <v>0.45392</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.571972</v>
+        <v>0.580362</v>
       </c>
       <c r="C71" t="n">
-        <v>0.405044</v>
+        <v>0.406291</v>
       </c>
       <c r="D71" t="n">
-        <v>0.468306</v>
+        <v>0.469702</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.598222</v>
+        <v>0.608997</v>
       </c>
       <c r="C72" t="n">
-        <v>0.420281</v>
+        <v>0.421017</v>
       </c>
       <c r="D72" t="n">
-        <v>0.485249</v>
+        <v>0.486114</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.625599</v>
+        <v>0.640755</v>
       </c>
       <c r="C73" t="n">
-        <v>0.435636</v>
+        <v>0.436686</v>
       </c>
       <c r="D73" t="n">
-        <v>0.505153</v>
+        <v>0.507719</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.657898</v>
+        <v>0.6709310000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.453964</v>
+        <v>0.453567</v>
       </c>
       <c r="D74" t="n">
-        <v>0.527343</v>
+        <v>0.526667</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.692509</v>
+        <v>0.707295</v>
       </c>
       <c r="C75" t="n">
-        <v>0.47246</v>
+        <v>0.473065</v>
       </c>
       <c r="D75" t="n">
-        <v>0.549817</v>
+        <v>0.549065</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.732764</v>
+        <v>0.74497</v>
       </c>
       <c r="C76" t="n">
-        <v>0.494956</v>
+        <v>0.49193</v>
       </c>
       <c r="D76" t="n">
-        <v>0.575879</v>
+        <v>0.576799</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.776136</v>
+        <v>0.799752</v>
       </c>
       <c r="C77" t="n">
-        <v>0.51999</v>
+        <v>0.520116</v>
       </c>
       <c r="D77" t="n">
-        <v>0.605174</v>
+        <v>0.605283</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.82803</v>
+        <v>0.852893</v>
       </c>
       <c r="C78" t="n">
-        <v>0.458796</v>
+        <v>0.469587</v>
       </c>
       <c r="D78" t="n">
-        <v>0.524268</v>
+        <v>0.535087</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.823605</v>
+        <v>0.857505</v>
       </c>
       <c r="C79" t="n">
-        <v>0.482123</v>
+        <v>0.492328</v>
       </c>
       <c r="D79" t="n">
-        <v>0.556032</v>
+        <v>0.568142</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.865823</v>
+        <v>0.914504</v>
       </c>
       <c r="C80" t="n">
-        <v>0.508991</v>
+        <v>0.5227850000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5863080000000001</v>
+        <v>0.599801</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.904107</v>
+        <v>0.964955</v>
       </c>
       <c r="C81" t="n">
-        <v>0.539008</v>
+        <v>0.555266</v>
       </c>
       <c r="D81" t="n">
-        <v>0.613105</v>
+        <v>0.63444</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.952579</v>
+        <v>1.01753</v>
       </c>
       <c r="C82" t="n">
-        <v>0.571943</v>
+        <v>0.592681</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6446769999999999</v>
+        <v>0.668709</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.00141</v>
+        <v>1.08231</v>
       </c>
       <c r="C83" t="n">
-        <v>0.603648</v>
+        <v>0.631056</v>
       </c>
       <c r="D83" t="n">
-        <v>0.680639</v>
+        <v>0.709689</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.04091</v>
+        <v>1.18039</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6391559999999999</v>
+        <v>0.674706</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7256359999999999</v>
+        <v>0.761439</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.10524</v>
+        <v>1.2105</v>
       </c>
       <c r="C85" t="n">
-        <v>0.67334</v>
+        <v>0.712988</v>
       </c>
       <c r="D85" t="n">
-        <v>0.765343</v>
+        <v>0.806149</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.15851</v>
+        <v>1.2729</v>
       </c>
       <c r="C86" t="n">
-        <v>0.708996</v>
+        <v>0.755382</v>
       </c>
       <c r="D86" t="n">
-        <v>0.806466</v>
+        <v>0.853318</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.21274</v>
+        <v>1.34071</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7441410000000001</v>
+        <v>0.797614</v>
       </c>
       <c r="D87" t="n">
-        <v>0.841801</v>
+        <v>0.894539</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.26935</v>
+        <v>1.4085</v>
       </c>
       <c r="C88" t="n">
-        <v>0.780229</v>
+        <v>0.840431</v>
       </c>
       <c r="D88" t="n">
-        <v>0.879288</v>
+        <v>0.940239</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.32532</v>
+        <v>1.47816</v>
       </c>
       <c r="C89" t="n">
-        <v>0.815157</v>
+        <v>0.885072</v>
       </c>
       <c r="D89" t="n">
-        <v>0.919107</v>
+        <v>0.987478</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.38758</v>
+        <v>1.55348</v>
       </c>
       <c r="C90" t="n">
-        <v>0.855302</v>
+        <v>0.931655</v>
       </c>
       <c r="D90" t="n">
-        <v>0.959884</v>
+        <v>1.03642</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.45524</v>
+        <v>1.63635</v>
       </c>
       <c r="C91" t="n">
-        <v>0.897514</v>
+        <v>0.978982</v>
       </c>
       <c r="D91" t="n">
-        <v>1.00484</v>
+        <v>1.08665</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.52519</v>
+        <v>1.70854</v>
       </c>
       <c r="C92" t="n">
-        <v>0.768577</v>
+        <v>0.851641</v>
       </c>
       <c r="D92" t="n">
-        <v>0.885239</v>
+        <v>0.982568</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.33211</v>
+        <v>1.49099</v>
       </c>
       <c r="C93" t="n">
-        <v>0.795513</v>
+        <v>0.883019</v>
       </c>
       <c r="D93" t="n">
-        <v>0.92963</v>
+        <v>1.03078</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.37038</v>
+        <v>1.53642</v>
       </c>
       <c r="C94" t="n">
-        <v>0.824229</v>
+        <v>0.915845</v>
       </c>
       <c r="D94" t="n">
-        <v>0.960354</v>
+        <v>1.06577</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.41082</v>
+        <v>1.58237</v>
       </c>
       <c r="C95" t="n">
-        <v>0.854582</v>
+        <v>0.949446</v>
       </c>
       <c r="D95" t="n">
-        <v>0.98584</v>
+        <v>1.09412</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.45296</v>
+        <v>1.63111</v>
       </c>
       <c r="C96" t="n">
-        <v>0.886644</v>
+        <v>0.984298</v>
       </c>
       <c r="D96" t="n">
-        <v>1.01929</v>
+        <v>1.13035</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.49537</v>
+        <v>1.67989</v>
       </c>
       <c r="C97" t="n">
-        <v>0.918785</v>
+        <v>1.02177</v>
       </c>
       <c r="D97" t="n">
-        <v>1.07856</v>
+        <v>1.19698</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.53975</v>
+        <v>1.73141</v>
       </c>
       <c r="C98" t="n">
-        <v>0.951591</v>
+        <v>1.05835</v>
       </c>
       <c r="D98" t="n">
-        <v>1.10719</v>
+        <v>1.22887</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.58637</v>
+        <v>1.78716</v>
       </c>
       <c r="C99" t="n">
-        <v>0.985537</v>
+        <v>1.09671</v>
       </c>
       <c r="D99" t="n">
-        <v>1.14938</v>
+        <v>1.27678</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.63414</v>
+        <v>1.84081</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02</v>
+        <v>1.13543</v>
       </c>
       <c r="D100" t="n">
-        <v>1.19373</v>
+        <v>1.32588</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.68192</v>
+        <v>1.89705</v>
       </c>
       <c r="C101" t="n">
-        <v>1.0554</v>
+        <v>1.17413</v>
       </c>
       <c r="D101" t="n">
-        <v>1.23807</v>
+        <v>1.37522</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.73396</v>
+        <v>1.9547</v>
       </c>
       <c r="C102" t="n">
-        <v>1.09148</v>
+        <v>1.2173</v>
       </c>
       <c r="D102" t="n">
-        <v>1.27768</v>
+        <v>1.42501</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.78987</v>
+        <v>2.02386</v>
       </c>
       <c r="C103" t="n">
-        <v>1.12962</v>
+        <v>1.25944</v>
       </c>
       <c r="D103" t="n">
-        <v>1.32491</v>
+        <v>1.4776</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.84696</v>
+        <v>2.08714</v>
       </c>
       <c r="C104" t="n">
-        <v>1.16795</v>
+        <v>1.30124</v>
       </c>
       <c r="D104" t="n">
-        <v>1.37416</v>
+        <v>1.53203</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.90716</v>
+        <v>2.15813</v>
       </c>
       <c r="C105" t="n">
-        <v>1.20851</v>
+        <v>1.34849</v>
       </c>
       <c r="D105" t="n">
-        <v>1.42263</v>
+        <v>1.58833</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.97179</v>
+        <v>2.22801</v>
       </c>
       <c r="C106" t="n">
-        <v>1.25087</v>
+        <v>1.39602</v>
       </c>
       <c r="D106" t="n">
-        <v>1.47415</v>
+        <v>1.64639</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.62548</v>
+        <v>1.75417</v>
       </c>
       <c r="C107" t="n">
-        <v>1.01712</v>
+        <v>1.12391</v>
       </c>
       <c r="D107" t="n">
-        <v>1.25256</v>
+        <v>1.38968</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.66086</v>
+        <v>1.80826</v>
       </c>
       <c r="C108" t="n">
-        <v>1.04265</v>
+        <v>1.15727</v>
       </c>
       <c r="D108" t="n">
-        <v>1.28249</v>
+        <v>1.42476</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.6915</v>
+        <v>1.82807</v>
       </c>
       <c r="C109" t="n">
-        <v>1.07071</v>
+        <v>1.17623</v>
       </c>
       <c r="D109" t="n">
-        <v>1.3303</v>
+        <v>1.48147</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.71602</v>
+        <v>1.86887</v>
       </c>
       <c r="C110" t="n">
-        <v>1.08152</v>
+        <v>1.18405</v>
       </c>
       <c r="D110" t="n">
-        <v>1.34145</v>
+        <v>1.52465</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.76524</v>
+        <v>1.91317</v>
       </c>
       <c r="C111" t="n">
-        <v>1.12688</v>
+        <v>1.22066</v>
       </c>
       <c r="D111" t="n">
-        <v>1.39413</v>
+        <v>1.55399</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.80634</v>
+        <v>1.96478</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1603</v>
+        <v>1.25179</v>
       </c>
       <c r="D112" t="n">
-        <v>1.43863</v>
+        <v>1.59163</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.84653</v>
+        <v>1.99876</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19231</v>
+        <v>1.32658</v>
       </c>
       <c r="D113" t="n">
-        <v>1.48051</v>
+        <v>1.65146</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.89386</v>
+        <v>2.07137</v>
       </c>
       <c r="C114" t="n">
-        <v>1.22472</v>
+        <v>1.32415</v>
       </c>
       <c r="D114" t="n">
-        <v>1.5144</v>
+        <v>1.69383</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.92759</v>
+        <v>2.11</v>
       </c>
       <c r="C115" t="n">
-        <v>1.24379</v>
+        <v>1.35749</v>
       </c>
       <c r="D115" t="n">
-        <v>1.56901</v>
+        <v>1.74273</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.97544</v>
+        <v>2.15598</v>
       </c>
       <c r="C116" t="n">
-        <v>1.27805</v>
+        <v>1.39471</v>
       </c>
       <c r="D116" t="n">
-        <v>1.61288</v>
+        <v>1.80006</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.02984</v>
+        <v>2.21988</v>
       </c>
       <c r="C117" t="n">
-        <v>1.31424</v>
+        <v>1.43379</v>
       </c>
       <c r="D117" t="n">
-        <v>1.65835</v>
+        <v>1.84661</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.08747</v>
+        <v>2.27003</v>
       </c>
       <c r="C118" t="n">
-        <v>1.35245</v>
+        <v>1.47385</v>
       </c>
       <c r="D118" t="n">
-        <v>1.70038</v>
+        <v>1.90329</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.13895</v>
+        <v>2.3406</v>
       </c>
       <c r="C119" t="n">
-        <v>1.39098</v>
+        <v>1.51577</v>
       </c>
       <c r="D119" t="n">
-        <v>1.75048</v>
+        <v>1.94715</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.279766</v>
+        <v>0.281815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.200826</v>
+        <v>0.203595</v>
       </c>
       <c r="D2" t="n">
-        <v>0.179987</v>
+        <v>0.180825</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.293105</v>
+        <v>0.292826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207552</v>
+        <v>0.208342</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183851</v>
+        <v>0.184276</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.299197</v>
+        <v>0.29851</v>
       </c>
       <c r="C4" t="n">
-        <v>0.213485</v>
+        <v>0.214535</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185021</v>
+        <v>0.18598</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.308613</v>
+        <v>0.306872</v>
       </c>
       <c r="C5" t="n">
-        <v>0.21869</v>
+        <v>0.220025</v>
       </c>
       <c r="D5" t="n">
-        <v>0.189105</v>
+        <v>0.189018</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.321379</v>
+        <v>0.317217</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228151</v>
+        <v>0.224815</v>
       </c>
       <c r="D6" t="n">
-        <v>0.192221</v>
+        <v>0.191274</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.332437</v>
+        <v>0.325925</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188731</v>
+        <v>0.188752</v>
       </c>
       <c r="D7" t="n">
-        <v>0.173443</v>
+        <v>0.174926</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252607</v>
+        <v>0.249155</v>
       </c>
       <c r="C8" t="n">
-        <v>0.191308</v>
+        <v>0.191507</v>
       </c>
       <c r="D8" t="n">
-        <v>0.175115</v>
+        <v>0.176956</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.254265</v>
+        <v>0.25398</v>
       </c>
       <c r="C9" t="n">
-        <v>0.197451</v>
+        <v>0.199365</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177958</v>
+        <v>0.181295</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.264267</v>
+        <v>0.261765</v>
       </c>
       <c r="C10" t="n">
-        <v>0.203748</v>
+        <v>0.204456</v>
       </c>
       <c r="D10" t="n">
-        <v>0.18178</v>
+        <v>0.182267</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.270729</v>
+        <v>0.270873</v>
       </c>
       <c r="C11" t="n">
-        <v>0.208483</v>
+        <v>0.208569</v>
       </c>
       <c r="D11" t="n">
-        <v>0.184969</v>
+        <v>0.185616</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.278313</v>
+        <v>0.27962</v>
       </c>
       <c r="C12" t="n">
-        <v>0.214302</v>
+        <v>0.215489</v>
       </c>
       <c r="D12" t="n">
-        <v>0.188123</v>
+        <v>0.187383</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.285632</v>
+        <v>0.289261</v>
       </c>
       <c r="C13" t="n">
-        <v>0.223271</v>
+        <v>0.223186</v>
       </c>
       <c r="D13" t="n">
-        <v>0.189562</v>
+        <v>0.190202</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.29739</v>
+        <v>0.297742</v>
       </c>
       <c r="C14" t="n">
-        <v>0.229617</v>
+        <v>0.228888</v>
       </c>
       <c r="D14" t="n">
-        <v>0.194445</v>
+        <v>0.192542</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.30462</v>
+        <v>0.30497</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236089</v>
+        <v>0.236618</v>
       </c>
       <c r="D15" t="n">
-        <v>0.198291</v>
+        <v>0.197326</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.315854</v>
+        <v>0.316056</v>
       </c>
       <c r="C16" t="n">
-        <v>0.246553</v>
+        <v>0.246935</v>
       </c>
       <c r="D16" t="n">
-        <v>0.202494</v>
+        <v>0.202308</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.328604</v>
+        <v>0.329194</v>
       </c>
       <c r="C17" t="n">
-        <v>0.254784</v>
+        <v>0.254456</v>
       </c>
       <c r="D17" t="n">
-        <v>0.206641</v>
+        <v>0.20484</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.338726</v>
+        <v>0.339006</v>
       </c>
       <c r="C18" t="n">
-        <v>0.263425</v>
+        <v>0.263065</v>
       </c>
       <c r="D18" t="n">
-        <v>0.210655</v>
+        <v>0.213215</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.35094</v>
+        <v>0.350149</v>
       </c>
       <c r="C19" t="n">
-        <v>0.271412</v>
+        <v>0.270998</v>
       </c>
       <c r="D19" t="n">
-        <v>0.216604</v>
+        <v>0.214968</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.364564</v>
+        <v>0.362896</v>
       </c>
       <c r="C20" t="n">
-        <v>0.284078</v>
+        <v>0.282544</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221518</v>
+        <v>0.220448</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.377572</v>
+        <v>0.376049</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231845</v>
+        <v>0.231182</v>
       </c>
       <c r="D21" t="n">
-        <v>0.203642</v>
+        <v>0.203337</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.294598</v>
+        <v>0.294283</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237615</v>
+        <v>0.237108</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206346</v>
+        <v>0.205966</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.302175</v>
+        <v>0.301891</v>
       </c>
       <c r="C23" t="n">
-        <v>0.244241</v>
+        <v>0.243866</v>
       </c>
       <c r="D23" t="n">
-        <v>0.209698</v>
+        <v>0.209516</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.309893</v>
+        <v>0.309283</v>
       </c>
       <c r="C24" t="n">
-        <v>0.249167</v>
+        <v>0.248311</v>
       </c>
       <c r="D24" t="n">
-        <v>0.213348</v>
+        <v>0.212725</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.317176</v>
+        <v>0.317018</v>
       </c>
       <c r="C25" t="n">
-        <v>0.255507</v>
+        <v>0.254776</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216647</v>
+        <v>0.216213</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.325919</v>
+        <v>0.325729</v>
       </c>
       <c r="C26" t="n">
-        <v>0.263187</v>
+        <v>0.262518</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220546</v>
+        <v>0.220616</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332931</v>
+        <v>0.333096</v>
       </c>
       <c r="C27" t="n">
-        <v>0.267774</v>
+        <v>0.267935</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224456</v>
+        <v>0.223761</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.342754</v>
+        <v>0.342178</v>
       </c>
       <c r="C28" t="n">
-        <v>0.274202</v>
+        <v>0.273588</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228415</v>
+        <v>0.227538</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.352791</v>
+        <v>0.352365</v>
       </c>
       <c r="C29" t="n">
-        <v>0.281661</v>
+        <v>0.281098</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232615</v>
+        <v>0.232034</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.361969</v>
+        <v>0.362071</v>
       </c>
       <c r="C30" t="n">
-        <v>0.289851</v>
+        <v>0.28952</v>
       </c>
       <c r="D30" t="n">
-        <v>0.236529</v>
+        <v>0.236152</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.372686</v>
+        <v>0.37263</v>
       </c>
       <c r="C31" t="n">
-        <v>0.296566</v>
+        <v>0.295883</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240736</v>
+        <v>0.240117</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.382626</v>
+        <v>0.382843</v>
       </c>
       <c r="C32" t="n">
-        <v>0.306169</v>
+        <v>0.305973</v>
       </c>
       <c r="D32" t="n">
-        <v>0.245462</v>
+        <v>0.244312</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.395931</v>
+        <v>0.395639</v>
       </c>
       <c r="C33" t="n">
-        <v>0.314443</v>
+        <v>0.314539</v>
       </c>
       <c r="D33" t="n">
-        <v>0.250408</v>
+        <v>0.251945</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.408486</v>
+        <v>0.407873</v>
       </c>
       <c r="C34" t="n">
-        <v>0.324163</v>
+        <v>0.323764</v>
       </c>
       <c r="D34" t="n">
-        <v>0.255232</v>
+        <v>0.254802</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.421139</v>
+        <v>0.42062</v>
       </c>
       <c r="C35" t="n">
-        <v>0.249897</v>
+        <v>0.249386</v>
       </c>
       <c r="D35" t="n">
-        <v>0.227151</v>
+        <v>0.226727</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.316136</v>
+        <v>0.315773</v>
       </c>
       <c r="C36" t="n">
-        <v>0.256492</v>
+        <v>0.256069</v>
       </c>
       <c r="D36" t="n">
-        <v>0.230789</v>
+        <v>0.230423</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322315</v>
+        <v>0.322196</v>
       </c>
       <c r="C37" t="n">
-        <v>0.261739</v>
+        <v>0.261382</v>
       </c>
       <c r="D37" t="n">
-        <v>0.233497</v>
+        <v>0.233248</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.331126</v>
+        <v>0.330904</v>
       </c>
       <c r="C38" t="n">
-        <v>0.268562</v>
+        <v>0.268155</v>
       </c>
       <c r="D38" t="n">
-        <v>0.237131</v>
+        <v>0.236539</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.336702</v>
+        <v>0.336439</v>
       </c>
       <c r="C39" t="n">
-        <v>0.27441</v>
+        <v>0.273973</v>
       </c>
       <c r="D39" t="n">
-        <v>0.240863</v>
+        <v>0.240237</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.346381</v>
+        <v>0.345969</v>
       </c>
       <c r="C40" t="n">
-        <v>0.280962</v>
+        <v>0.280612</v>
       </c>
       <c r="D40" t="n">
-        <v>0.244784</v>
+        <v>0.244466</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.353951</v>
+        <v>0.353959</v>
       </c>
       <c r="C41" t="n">
-        <v>0.286975</v>
+        <v>0.286367</v>
       </c>
       <c r="D41" t="n">
-        <v>0.248018</v>
+        <v>0.247352</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.361977</v>
+        <v>0.361464</v>
       </c>
       <c r="C42" t="n">
-        <v>0.292537</v>
+        <v>0.292203</v>
       </c>
       <c r="D42" t="n">
-        <v>0.251221</v>
+        <v>0.250796</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.370846</v>
+        <v>0.370616</v>
       </c>
       <c r="C43" t="n">
-        <v>0.299469</v>
+        <v>0.299111</v>
       </c>
       <c r="D43" t="n">
-        <v>0.254791</v>
+        <v>0.254304</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.380799</v>
+        <v>0.380286</v>
       </c>
       <c r="C44" t="n">
-        <v>0.30764</v>
+        <v>0.307265</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259314</v>
+        <v>0.258835</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.392496</v>
+        <v>0.391985</v>
       </c>
       <c r="C45" t="n">
-        <v>0.315683</v>
+        <v>0.315451</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264611</v>
+        <v>0.264242</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.40279</v>
+        <v>0.402266</v>
       </c>
       <c r="C46" t="n">
-        <v>0.324358</v>
+        <v>0.324163</v>
       </c>
       <c r="D46" t="n">
-        <v>0.267754</v>
+        <v>0.267216</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.413271</v>
+        <v>0.412531</v>
       </c>
       <c r="C47" t="n">
-        <v>0.331848</v>
+        <v>0.331557</v>
       </c>
       <c r="D47" t="n">
-        <v>0.273671</v>
+        <v>0.273275</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.424755</v>
+        <v>0.424209</v>
       </c>
       <c r="C48" t="n">
-        <v>0.340854</v>
+        <v>0.340827</v>
       </c>
       <c r="D48" t="n">
-        <v>0.278651</v>
+        <v>0.278464</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.435383</v>
+        <v>0.43491</v>
       </c>
       <c r="C49" t="n">
-        <v>0.351012</v>
+        <v>0.350929</v>
       </c>
       <c r="D49" t="n">
-        <v>0.284049</v>
+        <v>0.283669</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.449592</v>
+        <v>0.449123</v>
       </c>
       <c r="C50" t="n">
-        <v>0.264088</v>
+        <v>0.26397</v>
       </c>
       <c r="D50" t="n">
-        <v>0.231539</v>
+        <v>0.230991</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.333895</v>
+        <v>0.333555</v>
       </c>
       <c r="C51" t="n">
-        <v>0.269799</v>
+        <v>0.269419</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234456</v>
+        <v>0.233987</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340598</v>
+        <v>0.340399</v>
       </c>
       <c r="C52" t="n">
-        <v>0.275539</v>
+        <v>0.27531</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237957</v>
+        <v>0.237461</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347638</v>
+        <v>0.347352</v>
       </c>
       <c r="C53" t="n">
-        <v>0.282452</v>
+        <v>0.282015</v>
       </c>
       <c r="D53" t="n">
-        <v>0.242001</v>
+        <v>0.241597</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.355497</v>
+        <v>0.355375</v>
       </c>
       <c r="C54" t="n">
-        <v>0.28841</v>
+        <v>0.288006</v>
       </c>
       <c r="D54" t="n">
-        <v>0.245636</v>
+        <v>0.245087</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.36484</v>
+        <v>0.364609</v>
       </c>
       <c r="C55" t="n">
-        <v>0.295583</v>
+        <v>0.295442</v>
       </c>
       <c r="D55" t="n">
-        <v>0.24993</v>
+        <v>0.249581</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.374039</v>
+        <v>0.374252</v>
       </c>
       <c r="C56" t="n">
-        <v>0.301165</v>
+        <v>0.301307</v>
       </c>
       <c r="D56" t="n">
-        <v>0.25372</v>
+        <v>0.253127</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.382952</v>
+        <v>0.382844</v>
       </c>
       <c r="C57" t="n">
-        <v>0.309154</v>
+        <v>0.308762</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257816</v>
+        <v>0.257381</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.393066</v>
+        <v>0.392669</v>
       </c>
       <c r="C58" t="n">
-        <v>0.316847</v>
+        <v>0.316607</v>
       </c>
       <c r="D58" t="n">
-        <v>0.263739</v>
+        <v>0.262874</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.404594</v>
+        <v>0.404415</v>
       </c>
       <c r="C59" t="n">
-        <v>0.323468</v>
+        <v>0.323144</v>
       </c>
       <c r="D59" t="n">
-        <v>0.266628</v>
+        <v>0.266403</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.41415</v>
+        <v>0.413795</v>
       </c>
       <c r="C60" t="n">
-        <v>0.33106</v>
+        <v>0.330833</v>
       </c>
       <c r="D60" t="n">
-        <v>0.270847</v>
+        <v>0.270636</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.425161</v>
+        <v>0.424769</v>
       </c>
       <c r="C61" t="n">
-        <v>0.340572</v>
+        <v>0.340586</v>
       </c>
       <c r="D61" t="n">
-        <v>0.276048</v>
+        <v>0.276047</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.436041</v>
+        <v>0.43562</v>
       </c>
       <c r="C62" t="n">
-        <v>0.349185</v>
+        <v>0.349135</v>
       </c>
       <c r="D62" t="n">
-        <v>0.281058</v>
+        <v>0.280888</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.447961</v>
+        <v>0.447579</v>
       </c>
       <c r="C63" t="n">
-        <v>0.359703</v>
+        <v>0.359409</v>
       </c>
       <c r="D63" t="n">
-        <v>0.28723</v>
+        <v>0.287021</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.461763</v>
+        <v>0.462213</v>
       </c>
       <c r="C64" t="n">
-        <v>0.28268</v>
+        <v>0.281194</v>
       </c>
       <c r="D64" t="n">
-        <v>0.247718</v>
+        <v>0.246896</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.359669</v>
+        <v>0.358405</v>
       </c>
       <c r="C65" t="n">
-        <v>0.291293</v>
+        <v>0.288797</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24867</v>
+        <v>0.248287</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.373258</v>
+        <v>0.369914</v>
       </c>
       <c r="C66" t="n">
-        <v>0.300986</v>
+        <v>0.299481</v>
       </c>
       <c r="D66" t="n">
-        <v>0.254885</v>
+        <v>0.253951</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.387425</v>
+        <v>0.385784</v>
       </c>
       <c r="C67" t="n">
-        <v>0.310704</v>
+        <v>0.307583</v>
       </c>
       <c r="D67" t="n">
-        <v>0.261187</v>
+        <v>0.259653</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.399755</v>
+        <v>0.395099</v>
       </c>
       <c r="C68" t="n">
-        <v>0.322351</v>
+        <v>0.31755</v>
       </c>
       <c r="D68" t="n">
-        <v>0.267461</v>
+        <v>0.26572</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.412366</v>
+        <v>0.412851</v>
       </c>
       <c r="C69" t="n">
-        <v>0.330823</v>
+        <v>0.328255</v>
       </c>
       <c r="D69" t="n">
-        <v>0.270878</v>
+        <v>0.270261</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.424589</v>
+        <v>0.428799</v>
       </c>
       <c r="C70" t="n">
-        <v>0.340902</v>
+        <v>0.338786</v>
       </c>
       <c r="D70" t="n">
-        <v>0.276989</v>
+        <v>0.275735</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.446481</v>
+        <v>0.442248</v>
       </c>
       <c r="C71" t="n">
-        <v>0.35611</v>
+        <v>0.352259</v>
       </c>
       <c r="D71" t="n">
-        <v>0.284178</v>
+        <v>0.283002</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.467091</v>
+        <v>0.463727</v>
       </c>
       <c r="C72" t="n">
-        <v>0.370645</v>
+        <v>0.366734</v>
       </c>
       <c r="D72" t="n">
-        <v>0.290436</v>
+        <v>0.289527</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.488304</v>
+        <v>0.484141</v>
       </c>
       <c r="C73" t="n">
-        <v>0.387233</v>
+        <v>0.384126</v>
       </c>
       <c r="D73" t="n">
-        <v>0.298572</v>
+        <v>0.297619</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.511892</v>
+        <v>0.51125</v>
       </c>
       <c r="C74" t="n">
-        <v>0.404448</v>
+        <v>0.40561</v>
       </c>
       <c r="D74" t="n">
-        <v>0.307913</v>
+        <v>0.306037</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.540569</v>
+        <v>0.5462590000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.424694</v>
+        <v>0.429122</v>
       </c>
       <c r="D75" t="n">
-        <v>0.317514</v>
+        <v>0.31751</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.567492</v>
+        <v>0.57888</v>
       </c>
       <c r="C76" t="n">
-        <v>0.447896</v>
+        <v>0.455658</v>
       </c>
       <c r="D76" t="n">
-        <v>0.326419</v>
+        <v>0.329644</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.610306</v>
+        <v>0.615488</v>
       </c>
       <c r="C77" t="n">
-        <v>0.475916</v>
+        <v>0.484013</v>
       </c>
       <c r="D77" t="n">
-        <v>0.337047</v>
+        <v>0.339873</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.651129</v>
+        <v>0.659654</v>
       </c>
       <c r="C78" t="n">
-        <v>0.433822</v>
+        <v>0.456422</v>
       </c>
       <c r="D78" t="n">
-        <v>0.308172</v>
+        <v>0.320468</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.610829</v>
+        <v>0.640235</v>
       </c>
       <c r="C79" t="n">
-        <v>0.46509</v>
+        <v>0.481942</v>
       </c>
       <c r="D79" t="n">
-        <v>0.320107</v>
+        <v>0.333741</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.651397</v>
+        <v>0.676964</v>
       </c>
       <c r="C80" t="n">
-        <v>0.488552</v>
+        <v>0.508582</v>
       </c>
       <c r="D80" t="n">
-        <v>0.334927</v>
+        <v>0.34672</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.694233</v>
+        <v>0.716104</v>
       </c>
       <c r="C81" t="n">
-        <v>0.526352</v>
+        <v>0.545363</v>
       </c>
       <c r="D81" t="n">
-        <v>0.349474</v>
+        <v>0.361693</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.74336</v>
+        <v>0.76417</v>
       </c>
       <c r="C82" t="n">
-        <v>0.562364</v>
+        <v>0.578286</v>
       </c>
       <c r="D82" t="n">
-        <v>0.36768</v>
+        <v>0.380299</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.794401</v>
+        <v>0.813545</v>
       </c>
       <c r="C83" t="n">
-        <v>0.602447</v>
+        <v>0.618331</v>
       </c>
       <c r="D83" t="n">
-        <v>0.384116</v>
+        <v>0.39546</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.855758</v>
+        <v>0.869868</v>
       </c>
       <c r="C84" t="n">
-        <v>0.643873</v>
+        <v>0.659112</v>
       </c>
       <c r="D84" t="n">
-        <v>0.40679</v>
+        <v>0.42304</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.908857</v>
+        <v>0.928701</v>
       </c>
       <c r="C85" t="n">
-        <v>0.688778</v>
+        <v>0.701215</v>
       </c>
       <c r="D85" t="n">
-        <v>0.432678</v>
+        <v>0.445118</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.966979</v>
+        <v>0.9880989999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.73324</v>
+        <v>0.748138</v>
       </c>
       <c r="D86" t="n">
-        <v>0.460094</v>
+        <v>0.47309</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02896</v>
+        <v>1.05061</v>
       </c>
       <c r="C87" t="n">
-        <v>0.784701</v>
+        <v>0.800767</v>
       </c>
       <c r="D87" t="n">
-        <v>0.482165</v>
+        <v>0.496024</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.09819</v>
+        <v>1.11895</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8347329999999999</v>
+        <v>0.849164</v>
       </c>
       <c r="D88" t="n">
-        <v>0.50815</v>
+        <v>0.520057</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.16726</v>
+        <v>1.18742</v>
       </c>
       <c r="C89" t="n">
-        <v>0.892299</v>
+        <v>0.904981</v>
       </c>
       <c r="D89" t="n">
-        <v>0.538527</v>
+        <v>0.552478</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.23931</v>
+        <v>1.26062</v>
       </c>
       <c r="C90" t="n">
-        <v>0.942892</v>
+        <v>0.95796</v>
       </c>
       <c r="D90" t="n">
-        <v>0.570171</v>
+        <v>0.582792</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.31965</v>
+        <v>1.3397</v>
       </c>
       <c r="C91" t="n">
-        <v>1.0022</v>
+        <v>1.01806</v>
       </c>
       <c r="D91" t="n">
-        <v>0.607423</v>
+        <v>0.620875</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.39941</v>
+        <v>1.42154</v>
       </c>
       <c r="C92" t="n">
-        <v>0.830967</v>
+        <v>0.86297</v>
       </c>
       <c r="D92" t="n">
-        <v>0.582359</v>
+        <v>0.620001</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.11002</v>
+        <v>1.14286</v>
       </c>
       <c r="C93" t="n">
-        <v>0.862306</v>
+        <v>0.894328</v>
       </c>
       <c r="D93" t="n">
-        <v>0.604764</v>
+        <v>0.641723</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.15431</v>
+        <v>1.18496</v>
       </c>
       <c r="C94" t="n">
-        <v>0.900031</v>
+        <v>0.931885</v>
       </c>
       <c r="D94" t="n">
-        <v>0.628067</v>
+        <v>0.662628</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.19999</v>
+        <v>1.23349</v>
       </c>
       <c r="C95" t="n">
-        <v>0.934655</v>
+        <v>0.967637</v>
       </c>
       <c r="D95" t="n">
-        <v>0.653604</v>
+        <v>0.690056</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.25414</v>
+        <v>1.28957</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9738520000000001</v>
+        <v>1.00756</v>
       </c>
       <c r="D96" t="n">
-        <v>0.68186</v>
+        <v>0.71862</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.30292</v>
+        <v>1.3366</v>
       </c>
       <c r="C97" t="n">
-        <v>1.01422</v>
+        <v>1.04827</v>
       </c>
       <c r="D97" t="n">
-        <v>0.70187</v>
+        <v>0.739161</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.37372</v>
+        <v>1.39415</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05744</v>
+        <v>1.09053</v>
       </c>
       <c r="D98" t="n">
-        <v>0.731311</v>
+        <v>0.769447</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.41268</v>
+        <v>1.42974</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09942</v>
+        <v>1.13385</v>
       </c>
       <c r="D99" t="n">
-        <v>0.760985</v>
+        <v>0.7968499999999999</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.45845</v>
+        <v>1.49148</v>
       </c>
       <c r="C100" t="n">
-        <v>1.14672</v>
+        <v>1.18158</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7857189999999999</v>
+        <v>0.82216</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.52666</v>
+        <v>1.56981</v>
       </c>
       <c r="C101" t="n">
-        <v>1.19376</v>
+        <v>1.22887</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8135829999999999</v>
+        <v>0.8491880000000001</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.59401</v>
+        <v>1.57309</v>
       </c>
       <c r="C102" t="n">
-        <v>1.24548</v>
+        <v>1.28046</v>
       </c>
       <c r="D102" t="n">
-        <v>0.863945</v>
+        <v>0.8845730000000001</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.66473</v>
+        <v>1.64176</v>
       </c>
       <c r="C103" t="n">
-        <v>1.29572</v>
+        <v>1.33281</v>
       </c>
       <c r="D103" t="n">
-        <v>0.876424</v>
+        <v>0.915503</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.68052</v>
+        <v>1.7095</v>
       </c>
       <c r="C104" t="n">
-        <v>1.35124</v>
+        <v>1.38504</v>
       </c>
       <c r="D104" t="n">
-        <v>0.907385</v>
+        <v>0.944115</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.75706</v>
+        <v>1.79311</v>
       </c>
       <c r="C105" t="n">
-        <v>1.40847</v>
+        <v>1.44518</v>
       </c>
       <c r="D105" t="n">
-        <v>0.94382</v>
+        <v>0.981703</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.82763</v>
+        <v>1.85967</v>
       </c>
       <c r="C106" t="n">
-        <v>1.46178</v>
+        <v>1.49923</v>
       </c>
       <c r="D106" t="n">
-        <v>0.972703</v>
+        <v>1.01112</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.35036</v>
+        <v>1.36196</v>
       </c>
       <c r="C107" t="n">
-        <v>1.13932</v>
+        <v>1.14899</v>
       </c>
       <c r="D107" t="n">
-        <v>0.92218</v>
+        <v>0.932575</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.39196</v>
+        <v>1.40303</v>
       </c>
       <c r="C108" t="n">
-        <v>1.1519</v>
+        <v>1.184</v>
       </c>
       <c r="D108" t="n">
-        <v>0.91974</v>
+        <v>0.9583390000000001</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.42083</v>
+        <v>1.45214</v>
       </c>
       <c r="C109" t="n">
-        <v>1.18642</v>
+        <v>1.22255</v>
       </c>
       <c r="D109" t="n">
-        <v>0.938805</v>
+        <v>0.97723</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.48479</v>
+        <v>1.50016</v>
       </c>
       <c r="C110" t="n">
-        <v>1.23725</v>
+        <v>1.25386</v>
       </c>
       <c r="D110" t="n">
-        <v>0.983606</v>
+        <v>0.9969710000000001</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.514</v>
+        <v>1.54822</v>
       </c>
       <c r="C111" t="n">
-        <v>1.25448</v>
+        <v>1.27229</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9864889999999999</v>
+        <v>1.02382</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.57091</v>
+        <v>1.59845</v>
       </c>
       <c r="C112" t="n">
-        <v>1.29666</v>
+        <v>1.32819</v>
       </c>
       <c r="D112" t="n">
-        <v>1.03772</v>
+        <v>1.05251</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.63575</v>
+        <v>1.65527</v>
       </c>
       <c r="C113" t="n">
-        <v>1.3519</v>
+        <v>1.37497</v>
       </c>
       <c r="D113" t="n">
-        <v>1.06242</v>
+        <v>1.07639</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.69457</v>
+        <v>1.71291</v>
       </c>
       <c r="C114" t="n">
-        <v>1.39026</v>
+        <v>1.42155</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08957</v>
+        <v>1.10329</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.75294</v>
+        <v>1.77298</v>
       </c>
       <c r="C115" t="n">
-        <v>1.43587</v>
+        <v>1.46081</v>
       </c>
       <c r="D115" t="n">
-        <v>1.1214</v>
+        <v>1.13327</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.81507</v>
+        <v>1.8369</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48681</v>
+        <v>1.49409</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14971</v>
+        <v>1.16457</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.88137</v>
+        <v>1.90258</v>
       </c>
       <c r="C117" t="n">
-        <v>1.5165</v>
+        <v>1.53026</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1752</v>
+        <v>1.19088</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.95335</v>
+        <v>1.97207</v>
       </c>
       <c r="C118" t="n">
-        <v>1.56409</v>
+        <v>1.57747</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21129</v>
+        <v>1.22431</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.02421</v>
+        <v>2.04312</v>
       </c>
       <c r="C119" t="n">
-        <v>1.62881</v>
+        <v>1.64</v>
       </c>
       <c r="D119" t="n">
-        <v>1.24509</v>
+        <v>1.25589</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.634857</v>
+        <v>0.637166</v>
       </c>
       <c r="C2" t="n">
-        <v>0.422975</v>
+        <v>0.435458</v>
       </c>
       <c r="D2" t="n">
-        <v>0.306629</v>
+        <v>0.308775</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.662934</v>
+        <v>0.664562</v>
       </c>
       <c r="C3" t="n">
-        <v>0.435714</v>
+        <v>0.454128</v>
       </c>
       <c r="D3" t="n">
-        <v>0.315872</v>
+        <v>0.320561</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.687853</v>
+        <v>0.692801</v>
       </c>
       <c r="C4" t="n">
-        <v>0.459829</v>
+        <v>0.487199</v>
       </c>
       <c r="D4" t="n">
-        <v>0.324502</v>
+        <v>0.331949</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.710283</v>
+        <v>0.72256</v>
       </c>
       <c r="C5" t="n">
-        <v>0.477839</v>
+        <v>0.505162</v>
       </c>
       <c r="D5" t="n">
-        <v>0.334853</v>
+        <v>0.341289</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.737662</v>
+        <v>0.7472220000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.51229</v>
+        <v>0.510694</v>
       </c>
       <c r="D6" t="n">
-        <v>0.346468</v>
+        <v>0.350929</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.782581</v>
+        <v>0.774305</v>
       </c>
       <c r="C7" t="n">
-        <v>0.535054</v>
+        <v>0.5485409999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359854</v>
+        <v>0.356153</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.802082</v>
+        <v>0.802559</v>
       </c>
       <c r="C8" t="n">
-        <v>0.562441</v>
+        <v>0.567868</v>
       </c>
       <c r="D8" t="n">
-        <v>0.366234</v>
+        <v>0.366079</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.84276</v>
+        <v>0.836387</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5853120000000001</v>
+        <v>0.582277</v>
       </c>
       <c r="D9" t="n">
-        <v>0.382921</v>
+        <v>0.373795</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.881319</v>
+        <v>0.869935</v>
       </c>
       <c r="C10" t="n">
-        <v>0.612905</v>
+        <v>0.603334</v>
       </c>
       <c r="D10" t="n">
-        <v>0.387762</v>
+        <v>0.386579</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.905213</v>
+        <v>0.897111</v>
       </c>
       <c r="C11" t="n">
-        <v>0.423735</v>
+        <v>0.411833</v>
       </c>
       <c r="D11" t="n">
-        <v>0.285583</v>
+        <v>0.284454</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5940029999999999</v>
+        <v>0.586577</v>
       </c>
       <c r="C12" t="n">
-        <v>0.435131</v>
+        <v>0.428781</v>
       </c>
       <c r="D12" t="n">
-        <v>0.297756</v>
+        <v>0.294926</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.605948</v>
+        <v>0.605001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.453982</v>
+        <v>0.448439</v>
       </c>
       <c r="D13" t="n">
-        <v>0.306969</v>
+        <v>0.30518</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.637837</v>
+        <v>0.636089</v>
       </c>
       <c r="C14" t="n">
-        <v>0.472032</v>
+        <v>0.479749</v>
       </c>
       <c r="D14" t="n">
-        <v>0.315118</v>
+        <v>0.315909</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.658845</v>
+        <v>0.664678</v>
       </c>
       <c r="C15" t="n">
-        <v>0.507897</v>
+        <v>0.506456</v>
       </c>
       <c r="D15" t="n">
-        <v>0.33035</v>
+        <v>0.333752</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.696734</v>
+        <v>0.70496</v>
       </c>
       <c r="C16" t="n">
-        <v>0.534706</v>
+        <v>0.536605</v>
       </c>
       <c r="D16" t="n">
-        <v>0.344442</v>
+        <v>0.343174</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7312920000000001</v>
+        <v>0.742986</v>
       </c>
       <c r="C17" t="n">
-        <v>0.563367</v>
+        <v>0.566961</v>
       </c>
       <c r="D17" t="n">
-        <v>0.353914</v>
+        <v>0.35882</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.773487</v>
+        <v>0.776926</v>
       </c>
       <c r="C18" t="n">
-        <v>0.596583</v>
+        <v>0.610515</v>
       </c>
       <c r="D18" t="n">
-        <v>0.371693</v>
+        <v>0.369707</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.806566</v>
+        <v>0.81706</v>
       </c>
       <c r="C19" t="n">
-        <v>0.624856</v>
+        <v>0.6345420000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.380441</v>
+        <v>0.384454</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.847985</v>
+        <v>0.849169</v>
       </c>
       <c r="C20" t="n">
-        <v>0.657604</v>
+        <v>0.674145</v>
       </c>
       <c r="D20" t="n">
-        <v>0.394771</v>
+        <v>0.403223</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.886193</v>
+        <v>0.900494</v>
       </c>
       <c r="C21" t="n">
-        <v>0.692932</v>
+        <v>0.706222</v>
       </c>
       <c r="D21" t="n">
-        <v>0.407208</v>
+        <v>0.413302</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.925919</v>
+        <v>0.941824</v>
       </c>
       <c r="C22" t="n">
-        <v>0.726401</v>
+        <v>0.740719</v>
       </c>
       <c r="D22" t="n">
-        <v>0.421568</v>
+        <v>0.432537</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9693040000000001</v>
+        <v>0.987059</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7686539999999999</v>
+        <v>0.7803369999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.437545</v>
+        <v>0.442433</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.02114</v>
+        <v>1.03223</v>
       </c>
       <c r="C24" t="n">
-        <v>0.799319</v>
+        <v>0.812905</v>
       </c>
       <c r="D24" t="n">
-        <v>0.455331</v>
+        <v>0.456266</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.06973</v>
+        <v>1.07243</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8444700000000001</v>
+        <v>0.846155</v>
       </c>
       <c r="D25" t="n">
-        <v>0.475349</v>
+        <v>0.480745</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.1078</v>
+        <v>1.10864</v>
       </c>
       <c r="C26" t="n">
-        <v>0.547551</v>
+        <v>0.547799</v>
       </c>
       <c r="D26" t="n">
-        <v>0.342588</v>
+        <v>0.340868</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.728212</v>
+        <v>0.725088</v>
       </c>
       <c r="C27" t="n">
-        <v>0.575833</v>
+        <v>0.573025</v>
       </c>
       <c r="D27" t="n">
-        <v>0.354154</v>
+        <v>0.350518</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.76476</v>
+        <v>0.760674</v>
       </c>
       <c r="C28" t="n">
-        <v>0.606874</v>
+        <v>0.60287</v>
       </c>
       <c r="D28" t="n">
-        <v>0.369194</v>
+        <v>0.365335</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.797697</v>
+        <v>0.800668</v>
       </c>
       <c r="C29" t="n">
-        <v>0.637124</v>
+        <v>0.631269</v>
       </c>
       <c r="D29" t="n">
-        <v>0.383698</v>
+        <v>0.376666</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.833942</v>
+        <v>0.836879</v>
       </c>
       <c r="C30" t="n">
-        <v>0.67143</v>
+        <v>0.665708</v>
       </c>
       <c r="D30" t="n">
-        <v>0.395151</v>
+        <v>0.399982</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.874879</v>
+        <v>0.867719</v>
       </c>
       <c r="C31" t="n">
-        <v>0.701369</v>
+        <v>0.6967680000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.411561</v>
+        <v>0.406442</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9076689999999999</v>
+        <v>0.91257</v>
       </c>
       <c r="C32" t="n">
-        <v>0.738047</v>
+        <v>0.734623</v>
       </c>
       <c r="D32" t="n">
-        <v>0.426963</v>
+        <v>0.423231</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.956745</v>
+        <v>0.949152</v>
       </c>
       <c r="C33" t="n">
-        <v>0.770699</v>
+        <v>0.764808</v>
       </c>
       <c r="D33" t="n">
-        <v>0.437091</v>
+        <v>0.443197</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.992922</v>
+        <v>0.996213</v>
       </c>
       <c r="C34" t="n">
-        <v>0.807953</v>
+        <v>0.801586</v>
       </c>
       <c r="D34" t="n">
-        <v>0.454912</v>
+        <v>0.447701</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.03882</v>
+        <v>1.04094</v>
       </c>
       <c r="C35" t="n">
-        <v>0.840096</v>
+        <v>0.833105</v>
       </c>
       <c r="D35" t="n">
-        <v>0.467251</v>
+        <v>0.469172</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.08751</v>
+        <v>1.08257</v>
       </c>
       <c r="C36" t="n">
-        <v>0.870175</v>
+        <v>0.863034</v>
       </c>
       <c r="D36" t="n">
-        <v>0.480436</v>
+        <v>0.485861</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.12611</v>
+        <v>1.12782</v>
       </c>
       <c r="C37" t="n">
-        <v>0.909909</v>
+        <v>0.906012</v>
       </c>
       <c r="D37" t="n">
-        <v>0.49381</v>
+        <v>0.500818</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.17317</v>
+        <v>1.17746</v>
       </c>
       <c r="C38" t="n">
-        <v>0.949204</v>
+        <v>0.943649</v>
       </c>
       <c r="D38" t="n">
-        <v>0.519388</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.22596</v>
+        <v>1.21615</v>
       </c>
       <c r="C39" t="n">
-        <v>0.981847</v>
+        <v>0.975683</v>
       </c>
       <c r="D39" t="n">
-        <v>0.532436</v>
+        <v>0.535309</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.26841</v>
+        <v>1.27089</v>
       </c>
       <c r="C40" t="n">
-        <v>0.61713</v>
+        <v>0.618227</v>
       </c>
       <c r="D40" t="n">
-        <v>0.398001</v>
+        <v>0.398188</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8052280000000001</v>
+        <v>0.805395</v>
       </c>
       <c r="C41" t="n">
-        <v>0.639884</v>
+        <v>0.641742</v>
       </c>
       <c r="D41" t="n">
-        <v>0.410155</v>
+        <v>0.41211</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.84165</v>
+        <v>0.841279</v>
       </c>
       <c r="C42" t="n">
-        <v>0.669525</v>
+        <v>0.669289</v>
       </c>
       <c r="D42" t="n">
-        <v>0.423985</v>
+        <v>0.425964</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.873407</v>
+        <v>0.873806</v>
       </c>
       <c r="C43" t="n">
-        <v>0.698888</v>
+        <v>0.699527</v>
       </c>
       <c r="D43" t="n">
-        <v>0.438165</v>
+        <v>0.440371</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.916199</v>
+        <v>0.915878</v>
       </c>
       <c r="C44" t="n">
-        <v>0.730527</v>
+        <v>0.730654</v>
       </c>
       <c r="D44" t="n">
-        <v>0.452345</v>
+        <v>0.452763</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.950979</v>
+        <v>0.951489</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7631790000000001</v>
+        <v>0.763776</v>
       </c>
       <c r="D45" t="n">
-        <v>0.469125</v>
+        <v>0.463019</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.994328</v>
+        <v>0.994436</v>
       </c>
       <c r="C46" t="n">
-        <v>0.798526</v>
+        <v>0.800938</v>
       </c>
       <c r="D46" t="n">
-        <v>0.487877</v>
+        <v>0.489474</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.03698</v>
+        <v>1.03799</v>
       </c>
       <c r="C47" t="n">
-        <v>0.833098</v>
+        <v>0.832992</v>
       </c>
       <c r="D47" t="n">
-        <v>0.500807</v>
+        <v>0.503407</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.07918</v>
+        <v>1.07917</v>
       </c>
       <c r="C48" t="n">
-        <v>0.868263</v>
+        <v>0.867991</v>
       </c>
       <c r="D48" t="n">
-        <v>0.516313</v>
+        <v>0.519304</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.12479</v>
+        <v>1.12484</v>
       </c>
       <c r="C49" t="n">
-        <v>0.902494</v>
+        <v>0.905253</v>
       </c>
       <c r="D49" t="n">
-        <v>0.526115</v>
+        <v>0.531871</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.16836</v>
+        <v>1.16802</v>
       </c>
       <c r="C50" t="n">
-        <v>0.942925</v>
+        <v>0.943368</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5430779999999999</v>
+        <v>0.5451859999999999</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.2124</v>
+        <v>1.21157</v>
       </c>
       <c r="C51" t="n">
-        <v>0.977669</v>
+        <v>0.979595</v>
       </c>
       <c r="D51" t="n">
-        <v>0.567561</v>
+        <v>0.570034</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.2558</v>
+        <v>1.25737</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0164</v>
+        <v>1.01609</v>
       </c>
       <c r="D52" t="n">
-        <v>0.582932</v>
+        <v>0.583763</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.30791</v>
+        <v>1.30814</v>
       </c>
       <c r="C53" t="n">
-        <v>1.05508</v>
+        <v>1.05545</v>
       </c>
       <c r="D53" t="n">
-        <v>0.601569</v>
+        <v>0.601468</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.35369</v>
+        <v>1.35157</v>
       </c>
       <c r="C54" t="n">
-        <v>0.648949</v>
+        <v>0.650103</v>
       </c>
       <c r="D54" t="n">
-        <v>0.428628</v>
+        <v>0.430332</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.840419</v>
+        <v>0.841099</v>
       </c>
       <c r="C55" t="n">
-        <v>0.672844</v>
+        <v>0.673134</v>
       </c>
       <c r="D55" t="n">
-        <v>0.444938</v>
+        <v>0.446793</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.874075</v>
+        <v>0.872986</v>
       </c>
       <c r="C56" t="n">
-        <v>0.700195</v>
+        <v>0.700259</v>
       </c>
       <c r="D56" t="n">
-        <v>0.457485</v>
+        <v>0.459167</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.909992</v>
+        <v>0.910861</v>
       </c>
       <c r="C57" t="n">
-        <v>0.730036</v>
+        <v>0.73026</v>
       </c>
       <c r="D57" t="n">
-        <v>0.470977</v>
+        <v>0.472531</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.94559</v>
+        <v>0.944739</v>
       </c>
       <c r="C58" t="n">
-        <v>0.762812</v>
+        <v>0.761467</v>
       </c>
       <c r="D58" t="n">
-        <v>0.488139</v>
+        <v>0.488933</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.985136</v>
+        <v>0.984613</v>
       </c>
       <c r="C59" t="n">
-        <v>0.794939</v>
+        <v>0.794422</v>
       </c>
       <c r="D59" t="n">
-        <v>0.503958</v>
+        <v>0.50357</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.02312</v>
+        <v>1.0228</v>
       </c>
       <c r="C60" t="n">
-        <v>0.828267</v>
+        <v>0.828775</v>
       </c>
       <c r="D60" t="n">
-        <v>0.518976</v>
+        <v>0.520174</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.06624</v>
+        <v>1.06455</v>
       </c>
       <c r="C61" t="n">
-        <v>0.864335</v>
+        <v>0.862974</v>
       </c>
       <c r="D61" t="n">
-        <v>0.535878</v>
+        <v>0.535079</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.10735</v>
+        <v>1.10643</v>
       </c>
       <c r="C62" t="n">
-        <v>0.903464</v>
+        <v>0.900286</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5511160000000001</v>
+        <v>0.550346</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15269</v>
+        <v>1.14913</v>
       </c>
       <c r="C63" t="n">
-        <v>0.938599</v>
+        <v>0.935487</v>
       </c>
       <c r="D63" t="n">
-        <v>0.56962</v>
+        <v>0.570875</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.20187</v>
+        <v>1.20005</v>
       </c>
       <c r="C64" t="n">
-        <v>0.974239</v>
+        <v>0.9732189999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.583562</v>
+        <v>0.583655</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.24755</v>
+        <v>1.24893</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00945</v>
+        <v>1.01066</v>
       </c>
       <c r="D65" t="n">
-        <v>0.599587</v>
+        <v>0.5990839999999999</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.29008</v>
+        <v>1.29049</v>
       </c>
       <c r="C66" t="n">
-        <v>1.05123</v>
+        <v>1.05174</v>
       </c>
       <c r="D66" t="n">
-        <v>0.618485</v>
+        <v>0.617551</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.33884</v>
+        <v>1.34287</v>
       </c>
       <c r="C67" t="n">
-        <v>1.08736</v>
+        <v>1.0934</v>
       </c>
       <c r="D67" t="n">
-        <v>0.634201</v>
+        <v>0.634207</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.38947</v>
+        <v>1.39672</v>
       </c>
       <c r="C68" t="n">
-        <v>0.66861</v>
+        <v>0.669903</v>
       </c>
       <c r="D68" t="n">
-        <v>0.455881</v>
+        <v>0.453521</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.883287</v>
+        <v>0.886033</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7049299999999999</v>
+        <v>0.706314</v>
       </c>
       <c r="D69" t="n">
-        <v>0.468086</v>
+        <v>0.468296</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.934617</v>
+        <v>0.938597</v>
       </c>
       <c r="C70" t="n">
-        <v>0.745899</v>
+        <v>0.748397</v>
       </c>
       <c r="D70" t="n">
-        <v>0.489634</v>
+        <v>0.490365</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.990168</v>
+        <v>0.990873</v>
       </c>
       <c r="C71" t="n">
-        <v>0.788995</v>
+        <v>0.79431</v>
       </c>
       <c r="D71" t="n">
-        <v>0.511391</v>
+        <v>0.512678</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.04965</v>
+        <v>1.05333</v>
       </c>
       <c r="C72" t="n">
-        <v>0.837433</v>
+        <v>0.838306</v>
       </c>
       <c r="D72" t="n">
-        <v>0.532963</v>
+        <v>0.533839</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.1004</v>
+        <v>1.1186</v>
       </c>
       <c r="C73" t="n">
-        <v>0.880226</v>
+        <v>0.895431</v>
       </c>
       <c r="D73" t="n">
-        <v>0.548544</v>
+        <v>0.55389</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.16208</v>
+        <v>1.18191</v>
       </c>
       <c r="C74" t="n">
-        <v>0.932378</v>
+        <v>0.950021</v>
       </c>
       <c r="D74" t="n">
-        <v>0.568273</v>
+        <v>0.573967</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.23697</v>
+        <v>1.25895</v>
       </c>
       <c r="C75" t="n">
-        <v>0.99288</v>
+        <v>1.01151</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6001300000000001</v>
+        <v>0.603195</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.30664</v>
+        <v>1.34787</v>
       </c>
       <c r="C76" t="n">
-        <v>1.05255</v>
+        <v>1.07983</v>
       </c>
       <c r="D76" t="n">
-        <v>0.615741</v>
+        <v>0.6271099999999999</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.40704</v>
+        <v>1.45827</v>
       </c>
       <c r="C77" t="n">
-        <v>1.12312</v>
+        <v>1.16954</v>
       </c>
       <c r="D77" t="n">
-        <v>0.645993</v>
+        <v>0.657977</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.51301</v>
+        <v>1.57146</v>
       </c>
       <c r="C78" t="n">
-        <v>1.21539</v>
+        <v>1.26358</v>
       </c>
       <c r="D78" t="n">
-        <v>0.670942</v>
+        <v>0.681141</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.6466</v>
+        <v>1.68616</v>
       </c>
       <c r="C79" t="n">
-        <v>1.31982</v>
+        <v>1.3598</v>
       </c>
       <c r="D79" t="n">
-        <v>0.705999</v>
+        <v>0.711622</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.78672</v>
+        <v>1.84667</v>
       </c>
       <c r="C80" t="n">
-        <v>1.43386</v>
+        <v>1.47847</v>
       </c>
       <c r="D80" t="n">
-        <v>0.740837</v>
+        <v>0.75217</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.94349</v>
+        <v>2.01807</v>
       </c>
       <c r="C81" t="n">
-        <v>1.57862</v>
+        <v>1.62368</v>
       </c>
       <c r="D81" t="n">
-        <v>0.770416</v>
+        <v>0.7884139999999999</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.1408</v>
+        <v>2.2324</v>
       </c>
       <c r="C82" t="n">
-        <v>1.73273</v>
+        <v>1.80218</v>
       </c>
       <c r="D82" t="n">
-        <v>0.842334</v>
+        <v>0.866505</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.38364</v>
+        <v>2.48773</v>
       </c>
       <c r="C83" t="n">
-        <v>1.15348</v>
+        <v>1.1967</v>
       </c>
       <c r="D83" t="n">
-        <v>0.61149</v>
+        <v>0.6321020000000001</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.62374</v>
+        <v>1.67261</v>
       </c>
       <c r="C84" t="n">
-        <v>1.28279</v>
+        <v>1.32465</v>
       </c>
       <c r="D84" t="n">
-        <v>0.651998</v>
+        <v>0.673077</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.80191</v>
+        <v>1.82666</v>
       </c>
       <c r="C85" t="n">
-        <v>1.42395</v>
+        <v>1.45386</v>
       </c>
       <c r="D85" t="n">
-        <v>0.701443</v>
+        <v>0.720522</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.99465</v>
+        <v>2.02531</v>
       </c>
       <c r="C86" t="n">
-        <v>1.58682</v>
+        <v>1.60493</v>
       </c>
       <c r="D86" t="n">
-        <v>0.759033</v>
+        <v>0.7768389999999999</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.20627</v>
+        <v>2.23063</v>
       </c>
       <c r="C87" t="n">
-        <v>1.75588</v>
+        <v>1.77363</v>
       </c>
       <c r="D87" t="n">
-        <v>0.822889</v>
+        <v>0.836494</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.43397</v>
+        <v>2.45632</v>
       </c>
       <c r="C88" t="n">
-        <v>1.93753</v>
+        <v>1.96079</v>
       </c>
       <c r="D88" t="n">
-        <v>0.902876</v>
+        <v>0.913964</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.66898</v>
+        <v>2.70638</v>
       </c>
       <c r="C89" t="n">
-        <v>2.14234</v>
+        <v>2.16695</v>
       </c>
       <c r="D89" t="n">
-        <v>0.977537</v>
+        <v>0.992056</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.92716</v>
+        <v>2.97128</v>
       </c>
       <c r="C90" t="n">
-        <v>2.34484</v>
+        <v>2.3756</v>
       </c>
       <c r="D90" t="n">
-        <v>1.06459</v>
+        <v>1.07251</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.20194</v>
+        <v>3.25406</v>
       </c>
       <c r="C91" t="n">
-        <v>2.57076</v>
+        <v>2.61245</v>
       </c>
       <c r="D91" t="n">
-        <v>1.15486</v>
+        <v>1.16524</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.50188</v>
+        <v>3.53918</v>
       </c>
       <c r="C92" t="n">
-        <v>2.80814</v>
+        <v>2.8539</v>
       </c>
       <c r="D92" t="n">
-        <v>1.24232</v>
+        <v>1.25905</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.8072</v>
+        <v>3.85013</v>
       </c>
       <c r="C93" t="n">
-        <v>3.0469</v>
+        <v>3.10604</v>
       </c>
       <c r="D93" t="n">
-        <v>1.33346</v>
+        <v>1.35123</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.10347</v>
+        <v>4.19479</v>
       </c>
       <c r="C94" t="n">
-        <v>3.30344</v>
+        <v>3.36993</v>
       </c>
       <c r="D94" t="n">
-        <v>1.42129</v>
+        <v>1.44608</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.43968</v>
+        <v>4.53006</v>
       </c>
       <c r="C95" t="n">
-        <v>3.58549</v>
+        <v>3.65256</v>
       </c>
       <c r="D95" t="n">
-        <v>1.54358</v>
+        <v>1.57078</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.80115</v>
+        <v>4.90407</v>
       </c>
       <c r="C96" t="n">
-        <v>3.87725</v>
+        <v>3.96308</v>
       </c>
       <c r="D96" t="n">
-        <v>1.66133</v>
+        <v>1.69374</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.14875</v>
+        <v>5.27669</v>
       </c>
       <c r="C97" t="n">
-        <v>2.31702</v>
+        <v>2.36002</v>
       </c>
       <c r="D97" t="n">
-        <v>1.16375</v>
+        <v>1.18149</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.16495</v>
+        <v>3.23209</v>
       </c>
       <c r="C98" t="n">
-        <v>2.48466</v>
+        <v>2.52799</v>
       </c>
       <c r="D98" t="n">
-        <v>1.23208</v>
+        <v>1.2495</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.36875</v>
+        <v>3.46052</v>
       </c>
       <c r="C99" t="n">
-        <v>2.64862</v>
+        <v>2.70497</v>
       </c>
       <c r="D99" t="n">
-        <v>1.32517</v>
+        <v>1.34442</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.60289</v>
+        <v>3.68768</v>
       </c>
       <c r="C100" t="n">
-        <v>2.8321</v>
+        <v>2.8814</v>
       </c>
       <c r="D100" t="n">
-        <v>1.40297</v>
+        <v>1.4282</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.7934</v>
+        <v>3.90276</v>
       </c>
       <c r="C101" t="n">
-        <v>3.01641</v>
+        <v>3.07925</v>
       </c>
       <c r="D101" t="n">
-        <v>1.4536</v>
+        <v>1.48417</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.00256</v>
+        <v>4.07413</v>
       </c>
       <c r="C102" t="n">
-        <v>3.22337</v>
+        <v>3.27986</v>
       </c>
       <c r="D102" t="n">
-        <v>1.55839</v>
+        <v>1.5834</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.27191</v>
+        <v>4.27264</v>
       </c>
       <c r="C103" t="n">
-        <v>3.43177</v>
+        <v>3.47031</v>
       </c>
       <c r="D103" t="n">
-        <v>1.63944</v>
+        <v>1.66182</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.47161</v>
+        <v>4.54789</v>
       </c>
       <c r="C104" t="n">
-        <v>3.63797</v>
+        <v>3.67806</v>
       </c>
       <c r="D104" t="n">
-        <v>1.7415</v>
+        <v>1.76342</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.76794</v>
+        <v>4.83336</v>
       </c>
       <c r="C105" t="n">
-        <v>3.84146</v>
+        <v>3.85948</v>
       </c>
       <c r="D105" t="n">
-        <v>1.81229</v>
+        <v>1.83784</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.05222</v>
+        <v>5.12191</v>
       </c>
       <c r="C106" t="n">
-        <v>4.05406</v>
+        <v>4.0677</v>
       </c>
       <c r="D106" t="n">
-        <v>1.92671</v>
+        <v>1.95399</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.35528</v>
+        <v>5.44768</v>
       </c>
       <c r="C107" t="n">
-        <v>4.24502</v>
+        <v>4.30315</v>
       </c>
       <c r="D107" t="n">
-        <v>2.01903</v>
+        <v>2.04804</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.68094</v>
+        <v>5.76533</v>
       </c>
       <c r="C108" t="n">
-        <v>4.49008</v>
+        <v>4.56726</v>
       </c>
       <c r="D108" t="n">
-        <v>2.12559</v>
+        <v>2.15418</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.0278</v>
+        <v>6.10779</v>
       </c>
       <c r="C109" t="n">
-        <v>4.76761</v>
+        <v>4.83535</v>
       </c>
       <c r="D109" t="n">
-        <v>2.23496</v>
+        <v>2.26792</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.36424</v>
+        <v>6.44597</v>
       </c>
       <c r="C110" t="n">
-        <v>5.07974</v>
+        <v>5.14141</v>
       </c>
       <c r="D110" t="n">
-        <v>2.34898</v>
+        <v>2.37993</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.71334</v>
+        <v>6.83076</v>
       </c>
       <c r="C111" t="n">
-        <v>2.90662</v>
+        <v>2.95119</v>
       </c>
       <c r="D111" t="n">
-        <v>1.6357</v>
+        <v>1.65933</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.97588</v>
+        <v>4.03528</v>
       </c>
       <c r="C112" t="n">
-        <v>3.07522</v>
+        <v>3.1128</v>
       </c>
       <c r="D112" t="n">
-        <v>1.69195</v>
+        <v>1.71952</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.19104</v>
+        <v>4.26445</v>
       </c>
       <c r="C113" t="n">
-        <v>3.23924</v>
+        <v>3.28242</v>
       </c>
       <c r="D113" t="n">
-        <v>1.77604</v>
+        <v>1.80307</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.41254</v>
+        <v>4.47178</v>
       </c>
       <c r="C114" t="n">
-        <v>3.41884</v>
+        <v>3.46726</v>
       </c>
       <c r="D114" t="n">
-        <v>1.86319</v>
+        <v>1.89094</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.64907</v>
+        <v>4.71109</v>
       </c>
       <c r="C115" t="n">
-        <v>3.60463</v>
+        <v>3.65524</v>
       </c>
       <c r="D115" t="n">
-        <v>1.93262</v>
+        <v>1.96349</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.90067</v>
+        <v>4.96693</v>
       </c>
       <c r="C116" t="n">
-        <v>3.80905</v>
+        <v>3.86319</v>
       </c>
       <c r="D116" t="n">
-        <v>2.02117</v>
+        <v>2.05156</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.15683</v>
+        <v>5.23271</v>
       </c>
       <c r="C117" t="n">
-        <v>4.01693</v>
+        <v>4.07703</v>
       </c>
       <c r="D117" t="n">
-        <v>2.13662</v>
+        <v>2.16896</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.44177</v>
+        <v>5.51593</v>
       </c>
       <c r="C118" t="n">
-        <v>4.24783</v>
+        <v>4.30879</v>
       </c>
       <c r="D118" t="n">
-        <v>2.24234</v>
+        <v>2.26931</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.73973</v>
+        <v>5.81537</v>
       </c>
       <c r="C119" t="n">
-        <v>4.49347</v>
+        <v>4.54426</v>
       </c>
       <c r="D119" t="n">
-        <v>2.3187</v>
+        <v>2.35884</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.405359</v>
+        <v>0.419325</v>
       </c>
       <c r="C2" t="n">
-        <v>0.300121</v>
+        <v>0.300173</v>
       </c>
       <c r="D2" t="n">
-        <v>0.32552</v>
+        <v>0.322346</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.416883</v>
+        <v>0.423364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.307566</v>
+        <v>0.306858</v>
       </c>
       <c r="D3" t="n">
-        <v>0.331039</v>
+        <v>0.330189</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.426756</v>
+        <v>0.434468</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3128</v>
+        <v>0.313911</v>
       </c>
       <c r="D4" t="n">
-        <v>0.335519</v>
+        <v>0.337183</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.439206</v>
+        <v>0.446234</v>
       </c>
       <c r="C5" t="n">
-        <v>0.317841</v>
+        <v>0.319405</v>
       </c>
       <c r="D5" t="n">
-        <v>0.343396</v>
+        <v>0.343852</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.453306</v>
+        <v>0.459071</v>
       </c>
       <c r="C6" t="n">
-        <v>0.323618</v>
+        <v>0.324417</v>
       </c>
       <c r="D6" t="n">
-        <v>0.347202</v>
+        <v>0.349189</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.461782</v>
+        <v>0.467888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.259899</v>
+        <v>0.265318</v>
       </c>
       <c r="D7" t="n">
-        <v>0.283997</v>
+        <v>0.290667</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.342724</v>
+        <v>0.352828</v>
       </c>
       <c r="C8" t="n">
-        <v>0.267095</v>
+        <v>0.273077</v>
       </c>
       <c r="D8" t="n">
-        <v>0.29434</v>
+        <v>0.300628</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.355706</v>
+        <v>0.364932</v>
       </c>
       <c r="C9" t="n">
-        <v>0.274071</v>
+        <v>0.279371</v>
       </c>
       <c r="D9" t="n">
-        <v>0.300275</v>
+        <v>0.30736</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.367848</v>
+        <v>0.375274</v>
       </c>
       <c r="C10" t="n">
-        <v>0.283077</v>
+        <v>0.288277</v>
       </c>
       <c r="D10" t="n">
-        <v>0.311105</v>
+        <v>0.318781</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.381398</v>
+        <v>0.389663</v>
       </c>
       <c r="C11" t="n">
-        <v>0.291034</v>
+        <v>0.298281</v>
       </c>
       <c r="D11" t="n">
-        <v>0.319913</v>
+        <v>0.3283</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.397116</v>
+        <v>0.397495</v>
       </c>
       <c r="C12" t="n">
-        <v>0.300439</v>
+        <v>0.306634</v>
       </c>
       <c r="D12" t="n">
-        <v>0.329198</v>
+        <v>0.336045</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.413423</v>
+        <v>0.410187</v>
       </c>
       <c r="C13" t="n">
-        <v>0.31167</v>
+        <v>0.314436</v>
       </c>
       <c r="D13" t="n">
-        <v>0.342476</v>
+        <v>0.346369</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.417709</v>
+        <v>0.423088</v>
       </c>
       <c r="C14" t="n">
-        <v>0.317867</v>
+        <v>0.32317</v>
       </c>
       <c r="D14" t="n">
-        <v>0.349697</v>
+        <v>0.356309</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.428785</v>
+        <v>0.435024</v>
       </c>
       <c r="C15" t="n">
-        <v>0.324214</v>
+        <v>0.329574</v>
       </c>
       <c r="D15" t="n">
-        <v>0.359138</v>
+        <v>0.363819</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.442609</v>
+        <v>0.446954</v>
       </c>
       <c r="C16" t="n">
-        <v>0.332744</v>
+        <v>0.336944</v>
       </c>
       <c r="D16" t="n">
-        <v>0.36802</v>
+        <v>0.374086</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.454683</v>
+        <v>0.459588</v>
       </c>
       <c r="C17" t="n">
-        <v>0.339025</v>
+        <v>0.342828</v>
       </c>
       <c r="D17" t="n">
-        <v>0.375329</v>
+        <v>0.382066</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.466623</v>
+        <v>0.47023</v>
       </c>
       <c r="C18" t="n">
-        <v>0.346695</v>
+        <v>0.349074</v>
       </c>
       <c r="D18" t="n">
-        <v>0.38486</v>
+        <v>0.389103</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.480684</v>
+        <v>0.483435</v>
       </c>
       <c r="C19" t="n">
-        <v>0.35209</v>
+        <v>0.355839</v>
       </c>
       <c r="D19" t="n">
-        <v>0.392219</v>
+        <v>0.398496</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.491172</v>
+        <v>0.49458</v>
       </c>
       <c r="C20" t="n">
-        <v>0.359805</v>
+        <v>0.363946</v>
       </c>
       <c r="D20" t="n">
-        <v>0.407195</v>
+        <v>0.405732</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.50249</v>
+        <v>0.5073220000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.289981</v>
+        <v>0.288708</v>
       </c>
       <c r="D21" t="n">
-        <v>0.316856</v>
+        <v>0.313398</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.392901</v>
+        <v>0.391848</v>
       </c>
       <c r="C22" t="n">
-        <v>0.298584</v>
+        <v>0.295939</v>
       </c>
       <c r="D22" t="n">
-        <v>0.327038</v>
+        <v>0.323191</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.403972</v>
+        <v>0.403063</v>
       </c>
       <c r="C23" t="n">
-        <v>0.307195</v>
+        <v>0.304882</v>
       </c>
       <c r="D23" t="n">
-        <v>0.336333</v>
+        <v>0.333639</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4143</v>
+        <v>0.413211</v>
       </c>
       <c r="C24" t="n">
-        <v>0.314738</v>
+        <v>0.312671</v>
       </c>
       <c r="D24" t="n">
-        <v>0.345778</v>
+        <v>0.34327</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.425133</v>
+        <v>0.424667</v>
       </c>
       <c r="C25" t="n">
-        <v>0.322118</v>
+        <v>0.321238</v>
       </c>
       <c r="D25" t="n">
-        <v>0.356559</v>
+        <v>0.354582</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.436703</v>
+        <v>0.436046</v>
       </c>
       <c r="C26" t="n">
-        <v>0.330747</v>
+        <v>0.329574</v>
       </c>
       <c r="D26" t="n">
-        <v>0.367073</v>
+        <v>0.364572</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.44988</v>
+        <v>0.448024</v>
       </c>
       <c r="C27" t="n">
-        <v>0.339653</v>
+        <v>0.337297</v>
       </c>
       <c r="D27" t="n">
-        <v>0.378641</v>
+        <v>0.375704</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.46226</v>
+        <v>0.460913</v>
       </c>
       <c r="C28" t="n">
-        <v>0.346503</v>
+        <v>0.345736</v>
       </c>
       <c r="D28" t="n">
-        <v>0.388155</v>
+        <v>0.385362</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.474094</v>
+        <v>0.473294</v>
       </c>
       <c r="C29" t="n">
-        <v>0.355133</v>
+        <v>0.353904</v>
       </c>
       <c r="D29" t="n">
-        <v>0.400991</v>
+        <v>0.397168</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.484894</v>
+        <v>0.484245</v>
       </c>
       <c r="C30" t="n">
-        <v>0.361474</v>
+        <v>0.36036</v>
       </c>
       <c r="D30" t="n">
-        <v>0.408288</v>
+        <v>0.406052</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.494809</v>
+        <v>0.494433</v>
       </c>
       <c r="C31" t="n">
-        <v>0.369044</v>
+        <v>0.367478</v>
       </c>
       <c r="D31" t="n">
-        <v>0.417503</v>
+        <v>0.415459</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.507289</v>
+        <v>0.506277</v>
       </c>
       <c r="C32" t="n">
-        <v>0.375639</v>
+        <v>0.374584</v>
       </c>
       <c r="D32" t="n">
-        <v>0.42749</v>
+        <v>0.425374</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.518965</v>
+        <v>0.518298</v>
       </c>
       <c r="C33" t="n">
-        <v>0.382381</v>
+        <v>0.380557</v>
       </c>
       <c r="D33" t="n">
-        <v>0.437608</v>
+        <v>0.433622</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.530326</v>
+        <v>0.529381</v>
       </c>
       <c r="C34" t="n">
-        <v>0.388961</v>
+        <v>0.387567</v>
       </c>
       <c r="D34" t="n">
-        <v>0.445185</v>
+        <v>0.443035</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.54193</v>
+        <v>0.541568</v>
       </c>
       <c r="C35" t="n">
-        <v>0.305939</v>
+        <v>0.30549</v>
       </c>
       <c r="D35" t="n">
-        <v>0.336623</v>
+        <v>0.335952</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.410528</v>
+        <v>0.411356</v>
       </c>
       <c r="C36" t="n">
-        <v>0.314182</v>
+        <v>0.313827</v>
       </c>
       <c r="D36" t="n">
-        <v>0.347356</v>
+        <v>0.347126</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.422259</v>
+        <v>0.422172</v>
       </c>
       <c r="C37" t="n">
-        <v>0.321407</v>
+        <v>0.321749</v>
       </c>
       <c r="D37" t="n">
-        <v>0.356146</v>
+        <v>0.355933</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.433703</v>
+        <v>0.433137</v>
       </c>
       <c r="C38" t="n">
-        <v>0.329902</v>
+        <v>0.330029</v>
       </c>
       <c r="D38" t="n">
-        <v>0.367682</v>
+        <v>0.366945</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.444626</v>
+        <v>0.443074</v>
       </c>
       <c r="C39" t="n">
-        <v>0.338235</v>
+        <v>0.338295</v>
       </c>
       <c r="D39" t="n">
-        <v>0.377266</v>
+        <v>0.379256</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.45463</v>
+        <v>0.454333</v>
       </c>
       <c r="C40" t="n">
-        <v>0.345695</v>
+        <v>0.34598</v>
       </c>
       <c r="D40" t="n">
-        <v>0.387682</v>
+        <v>0.387912</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.468033</v>
+        <v>0.46815</v>
       </c>
       <c r="C41" t="n">
-        <v>0.354373</v>
+        <v>0.354163</v>
       </c>
       <c r="D41" t="n">
-        <v>0.398805</v>
+        <v>0.398719</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.478741</v>
+        <v>0.478475</v>
       </c>
       <c r="C42" t="n">
-        <v>0.362184</v>
+        <v>0.361758</v>
       </c>
       <c r="D42" t="n">
-        <v>0.408652</v>
+        <v>0.408757</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.490147</v>
+        <v>0.490097</v>
       </c>
       <c r="C43" t="n">
-        <v>0.369417</v>
+        <v>0.368371</v>
       </c>
       <c r="D43" t="n">
-        <v>0.419365</v>
+        <v>0.41939</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.50153</v>
+        <v>0.501575</v>
       </c>
       <c r="C44" t="n">
-        <v>0.375769</v>
+        <v>0.375451</v>
       </c>
       <c r="D44" t="n">
-        <v>0.429429</v>
+        <v>0.42932</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.51278</v>
+        <v>0.512805</v>
       </c>
       <c r="C45" t="n">
-        <v>0.382886</v>
+        <v>0.382316</v>
       </c>
       <c r="D45" t="n">
-        <v>0.438716</v>
+        <v>0.43891</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.523209</v>
+        <v>0.523467</v>
       </c>
       <c r="C46" t="n">
-        <v>0.388954</v>
+        <v>0.388256</v>
       </c>
       <c r="D46" t="n">
-        <v>0.446935</v>
+        <v>0.447417</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.535705</v>
+        <v>0.535434</v>
       </c>
       <c r="C47" t="n">
-        <v>0.395156</v>
+        <v>0.394252</v>
       </c>
       <c r="D47" t="n">
-        <v>0.457727</v>
+        <v>0.455741</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.549023</v>
+        <v>0.54656</v>
       </c>
       <c r="C48" t="n">
-        <v>0.401384</v>
+        <v>0.400669</v>
       </c>
       <c r="D48" t="n">
-        <v>0.464634</v>
+        <v>0.464929</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.560858</v>
+        <v>0.558743</v>
       </c>
       <c r="C49" t="n">
-        <v>0.409021</v>
+        <v>0.407889</v>
       </c>
       <c r="D49" t="n">
-        <v>0.473756</v>
+        <v>0.474976</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.57026</v>
+        <v>0.573805</v>
       </c>
       <c r="C50" t="n">
-        <v>0.321182</v>
+        <v>0.321262</v>
       </c>
       <c r="D50" t="n">
-        <v>0.348337</v>
+        <v>0.347318</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.429413</v>
+        <v>0.429626</v>
       </c>
       <c r="C51" t="n">
-        <v>0.329133</v>
+        <v>0.329352</v>
       </c>
       <c r="D51" t="n">
-        <v>0.359432</v>
+        <v>0.358375</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.440182</v>
+        <v>0.440898</v>
       </c>
       <c r="C52" t="n">
-        <v>0.337668</v>
+        <v>0.33776</v>
       </c>
       <c r="D52" t="n">
-        <v>0.37034</v>
+        <v>0.369552</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.45192</v>
+        <v>0.453555</v>
       </c>
       <c r="C53" t="n">
-        <v>0.346613</v>
+        <v>0.346054</v>
       </c>
       <c r="D53" t="n">
-        <v>0.381307</v>
+        <v>0.380208</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.463465</v>
+        <v>0.464312</v>
       </c>
       <c r="C54" t="n">
-        <v>0.354507</v>
+        <v>0.354587</v>
       </c>
       <c r="D54" t="n">
-        <v>0.392454</v>
+        <v>0.391591</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.478451</v>
+        <v>0.478299</v>
       </c>
       <c r="C55" t="n">
-        <v>0.362748</v>
+        <v>0.362422</v>
       </c>
       <c r="D55" t="n">
-        <v>0.404294</v>
+        <v>0.403174</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.486656</v>
+        <v>0.48825</v>
       </c>
       <c r="C56" t="n">
-        <v>0.370293</v>
+        <v>0.370092</v>
       </c>
       <c r="D56" t="n">
-        <v>0.414929</v>
+        <v>0.413969</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.49865</v>
+        <v>0.499127</v>
       </c>
       <c r="C57" t="n">
-        <v>0.37735</v>
+        <v>0.376949</v>
       </c>
       <c r="D57" t="n">
-        <v>0.424509</v>
+        <v>0.425351</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.509368</v>
+        <v>0.509672</v>
       </c>
       <c r="C58" t="n">
-        <v>0.383592</v>
+        <v>0.38306</v>
       </c>
       <c r="D58" t="n">
-        <v>0.433365</v>
+        <v>0.432783</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.520459</v>
+        <v>0.520298</v>
       </c>
       <c r="C59" t="n">
-        <v>0.390082</v>
+        <v>0.389495</v>
       </c>
       <c r="D59" t="n">
-        <v>0.442114</v>
+        <v>0.441804</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.530635</v>
+        <v>0.531299</v>
       </c>
       <c r="C60" t="n">
-        <v>0.396667</v>
+        <v>0.395655</v>
       </c>
       <c r="D60" t="n">
-        <v>0.451547</v>
+        <v>0.451427</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.542246</v>
+        <v>0.5437650000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.403093</v>
+        <v>0.40153</v>
       </c>
       <c r="D61" t="n">
-        <v>0.460247</v>
+        <v>0.460252</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.555365</v>
+        <v>0.55514</v>
       </c>
       <c r="C62" t="n">
-        <v>0.410402</v>
+        <v>0.40753</v>
       </c>
       <c r="D62" t="n">
-        <v>0.468907</v>
+        <v>0.468779</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.568419</v>
+        <v>0.566934</v>
       </c>
       <c r="C63" t="n">
-        <v>0.417388</v>
+        <v>0.414449</v>
       </c>
       <c r="D63" t="n">
-        <v>0.479963</v>
+        <v>0.478362</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.58104</v>
+        <v>0.578892</v>
       </c>
       <c r="C64" t="n">
-        <v>0.332483</v>
+        <v>0.333761</v>
       </c>
       <c r="D64" t="n">
-        <v>0.367155</v>
+        <v>0.368792</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.461497</v>
+        <v>0.465084</v>
       </c>
       <c r="C65" t="n">
-        <v>0.34245</v>
+        <v>0.34516</v>
       </c>
       <c r="D65" t="n">
-        <v>0.380642</v>
+        <v>0.384602</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.478583</v>
+        <v>0.477147</v>
       </c>
       <c r="C66" t="n">
-        <v>0.353312</v>
+        <v>0.355155</v>
       </c>
       <c r="D66" t="n">
-        <v>0.39458</v>
+        <v>0.3958</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.491308</v>
+        <v>0.497098</v>
       </c>
       <c r="C67" t="n">
-        <v>0.364513</v>
+        <v>0.366892</v>
       </c>
       <c r="D67" t="n">
-        <v>0.408362</v>
+        <v>0.409991</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.510026</v>
+        <v>0.516299</v>
       </c>
       <c r="C68" t="n">
-        <v>0.376455</v>
+        <v>0.37913</v>
       </c>
       <c r="D68" t="n">
-        <v>0.422748</v>
+        <v>0.427013</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.54115</v>
+        <v>0.540285</v>
       </c>
       <c r="C69" t="n">
-        <v>0.387335</v>
+        <v>0.39022</v>
       </c>
       <c r="D69" t="n">
-        <v>0.439848</v>
+        <v>0.441868</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.559546</v>
+        <v>0.559882</v>
       </c>
       <c r="C70" t="n">
-        <v>0.397377</v>
+        <v>0.402711</v>
       </c>
       <c r="D70" t="n">
-        <v>0.454069</v>
+        <v>0.457836</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.57037</v>
+        <v>0.583822</v>
       </c>
       <c r="C71" t="n">
-        <v>0.411182</v>
+        <v>0.418206</v>
       </c>
       <c r="D71" t="n">
-        <v>0.469429</v>
+        <v>0.476518</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.600724</v>
+        <v>0.611226</v>
       </c>
       <c r="C72" t="n">
-        <v>0.426382</v>
+        <v>0.432337</v>
       </c>
       <c r="D72" t="n">
-        <v>0.487701</v>
+        <v>0.493307</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.62979</v>
+        <v>0.635292</v>
       </c>
       <c r="C73" t="n">
-        <v>0.442102</v>
+        <v>0.446062</v>
       </c>
       <c r="D73" t="n">
-        <v>0.509532</v>
+        <v>0.511957</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.659792</v>
+        <v>0.668111</v>
       </c>
       <c r="C74" t="n">
-        <v>0.459633</v>
+        <v>0.462977</v>
       </c>
       <c r="D74" t="n">
-        <v>0.526299</v>
+        <v>0.534235</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.69359</v>
+        <v>0.703478</v>
       </c>
       <c r="C75" t="n">
-        <v>0.47637</v>
+        <v>0.481752</v>
       </c>
       <c r="D75" t="n">
-        <v>0.550233</v>
+        <v>0.555099</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7278829999999999</v>
+        <v>0.731206</v>
       </c>
       <c r="C76" t="n">
-        <v>0.497345</v>
+        <v>0.498831</v>
       </c>
       <c r="D76" t="n">
-        <v>0.575485</v>
+        <v>0.577636</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7741980000000001</v>
+        <v>0.774043</v>
       </c>
       <c r="C77" t="n">
-        <v>0.521884</v>
+        <v>0.5218</v>
       </c>
       <c r="D77" t="n">
-        <v>0.603572</v>
+        <v>0.6050450000000001</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.820048</v>
+        <v>0.8190460000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.458697</v>
+        <v>0.457935</v>
       </c>
       <c r="D78" t="n">
-        <v>0.518726</v>
+        <v>0.5132139999999999</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.810433</v>
+        <v>0.8063360000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.484641</v>
+        <v>0.483744</v>
       </c>
       <c r="D79" t="n">
-        <v>0.543024</v>
+        <v>0.538505</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.853622</v>
+        <v>0.8507169999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.511169</v>
+        <v>0.510184</v>
       </c>
       <c r="D80" t="n">
-        <v>0.573608</v>
+        <v>0.569249</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.894574</v>
+        <v>0.893153</v>
       </c>
       <c r="C81" t="n">
-        <v>0.542984</v>
+        <v>0.538918</v>
       </c>
       <c r="D81" t="n">
-        <v>0.606026</v>
+        <v>0.602003</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9426639999999999</v>
+        <v>0.942203</v>
       </c>
       <c r="C82" t="n">
-        <v>0.573421</v>
+        <v>0.5702700000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.639976</v>
+        <v>0.637172</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.994051</v>
+        <v>0.992602</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6043809999999999</v>
+        <v>0.603471</v>
       </c>
       <c r="D83" t="n">
-        <v>0.677195</v>
+        <v>0.673759</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05012</v>
+        <v>1.06205</v>
       </c>
       <c r="C84" t="n">
-        <v>0.637278</v>
+        <v>0.636777</v>
       </c>
       <c r="D84" t="n">
-        <v>0.72143</v>
+        <v>0.719241</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.10013</v>
+        <v>1.10074</v>
       </c>
       <c r="C85" t="n">
-        <v>0.671828</v>
+        <v>0.67199</v>
       </c>
       <c r="D85" t="n">
-        <v>0.75954</v>
+        <v>0.757843</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.15693</v>
+        <v>1.15694</v>
       </c>
       <c r="C86" t="n">
-        <v>0.708902</v>
+        <v>0.708832</v>
       </c>
       <c r="D86" t="n">
-        <v>0.801615</v>
+        <v>0.800458</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.21434</v>
+        <v>1.21521</v>
       </c>
       <c r="C87" t="n">
-        <v>0.745792</v>
+        <v>0.74622</v>
       </c>
       <c r="D87" t="n">
-        <v>0.838014</v>
+        <v>0.838228</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.27509</v>
+        <v>1.27397</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7839390000000001</v>
+        <v>0.783679</v>
       </c>
       <c r="D88" t="n">
-        <v>0.879447</v>
+        <v>0.878853</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.33461</v>
+        <v>1.33346</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8221079999999999</v>
+        <v>0.821675</v>
       </c>
       <c r="D89" t="n">
-        <v>0.921672</v>
+        <v>0.920481</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.39902</v>
+        <v>1.39692</v>
       </c>
       <c r="C90" t="n">
-        <v>0.86335</v>
+        <v>0.862043</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9653040000000001</v>
+        <v>0.963618</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.46638</v>
+        <v>1.46277</v>
       </c>
       <c r="C91" t="n">
-        <v>0.905399</v>
+        <v>0.903847</v>
       </c>
       <c r="D91" t="n">
-        <v>1.01012</v>
+        <v>1.00847</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.53587</v>
+        <v>1.53426</v>
       </c>
       <c r="C92" t="n">
-        <v>0.787415</v>
+        <v>0.790228</v>
       </c>
       <c r="D92" t="n">
-        <v>0.903616</v>
+        <v>0.9054759999999999</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.34536</v>
+        <v>1.35096</v>
       </c>
       <c r="C93" t="n">
-        <v>0.815232</v>
+        <v>0.817973</v>
       </c>
       <c r="D93" t="n">
-        <v>0.947531</v>
+        <v>0.950422</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.38462</v>
+        <v>1.38881</v>
       </c>
       <c r="C94" t="n">
-        <v>0.844013</v>
+        <v>0.847124</v>
       </c>
       <c r="D94" t="n">
-        <v>0.980063</v>
+        <v>0.98063</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.42437</v>
+        <v>1.43074</v>
       </c>
       <c r="C95" t="n">
-        <v>0.876219</v>
+        <v>0.877474</v>
       </c>
       <c r="D95" t="n">
-        <v>1.00516</v>
+        <v>1.00743</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.4659</v>
+        <v>1.47073</v>
       </c>
       <c r="C96" t="n">
-        <v>0.90522</v>
+        <v>0.908591</v>
       </c>
       <c r="D96" t="n">
-        <v>1.03805</v>
+        <v>1.04041</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.50924</v>
+        <v>1.51337</v>
       </c>
       <c r="C97" t="n">
-        <v>0.937548</v>
+        <v>0.941252</v>
       </c>
       <c r="D97" t="n">
-        <v>1.09698</v>
+        <v>1.10005</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.55348</v>
+        <v>1.55871</v>
       </c>
       <c r="C98" t="n">
-        <v>0.969984</v>
+        <v>0.973624</v>
       </c>
       <c r="D98" t="n">
-        <v>1.12533</v>
+        <v>1.12892</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.60111</v>
+        <v>1.60637</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00417</v>
+        <v>1.00749</v>
       </c>
       <c r="D99" t="n">
-        <v>1.16854</v>
+        <v>1.17181</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.64891</v>
+        <v>1.65471</v>
       </c>
       <c r="C100" t="n">
-        <v>1.03763</v>
+        <v>1.04164</v>
       </c>
       <c r="D100" t="n">
-        <v>1.21586</v>
+        <v>1.21697</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.69868</v>
+        <v>1.7055</v>
       </c>
       <c r="C101" t="n">
-        <v>1.07326</v>
+        <v>1.07719</v>
       </c>
       <c r="D101" t="n">
-        <v>1.26039</v>
+        <v>1.26166</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.75175</v>
+        <v>1.75665</v>
       </c>
       <c r="C102" t="n">
-        <v>1.10981</v>
+        <v>1.11517</v>
       </c>
       <c r="D102" t="n">
-        <v>1.30182</v>
+        <v>1.30539</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.8074</v>
+        <v>1.813</v>
       </c>
       <c r="C103" t="n">
-        <v>1.14698</v>
+        <v>1.15272</v>
       </c>
       <c r="D103" t="n">
-        <v>1.34829</v>
+        <v>1.35243</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.86524</v>
+        <v>1.87167</v>
       </c>
       <c r="C104" t="n">
-        <v>1.18584</v>
+        <v>1.19138</v>
       </c>
       <c r="D104" t="n">
-        <v>1.39717</v>
+        <v>1.40062</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.92573</v>
+        <v>1.93429</v>
       </c>
       <c r="C105" t="n">
-        <v>1.22591</v>
+        <v>1.23305</v>
       </c>
       <c r="D105" t="n">
-        <v>1.44682</v>
+        <v>1.45171</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.99213</v>
+        <v>2.00027</v>
       </c>
       <c r="C106" t="n">
-        <v>1.26818</v>
+        <v>1.27566</v>
       </c>
       <c r="D106" t="n">
-        <v>1.49894</v>
+        <v>1.50472</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.63437</v>
+        <v>1.62158</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03286</v>
+        <v>1.03463</v>
       </c>
       <c r="D107" t="n">
-        <v>1.25875</v>
+        <v>1.26077</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.65712</v>
+        <v>1.6709</v>
       </c>
       <c r="C108" t="n">
-        <v>1.05858</v>
+        <v>1.06268</v>
       </c>
       <c r="D108" t="n">
-        <v>1.29421</v>
+        <v>1.29556</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.70378</v>
+        <v>1.70917</v>
       </c>
       <c r="C109" t="n">
-        <v>1.08534</v>
+        <v>1.09212</v>
       </c>
       <c r="D109" t="n">
-        <v>1.33673</v>
+        <v>1.34448</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.72283</v>
+        <v>1.74613</v>
       </c>
       <c r="C110" t="n">
-        <v>1.09352</v>
+        <v>1.11992</v>
       </c>
       <c r="D110" t="n">
-        <v>1.34874</v>
+        <v>1.38135</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.76308</v>
+        <v>1.77483</v>
       </c>
       <c r="C111" t="n">
-        <v>1.12036</v>
+        <v>1.13817</v>
       </c>
       <c r="D111" t="n">
-        <v>1.37774</v>
+        <v>1.39205</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.80199</v>
+        <v>1.81508</v>
       </c>
       <c r="C112" t="n">
-        <v>1.15839</v>
+        <v>1.17087</v>
       </c>
       <c r="D112" t="n">
-        <v>1.4226</v>
+        <v>1.4352</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.84429</v>
+        <v>1.85756</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19158</v>
+        <v>1.20058</v>
       </c>
       <c r="D113" t="n">
-        <v>1.46514</v>
+        <v>1.47911</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.89117</v>
+        <v>1.90147</v>
       </c>
       <c r="C114" t="n">
-        <v>1.22293</v>
+        <v>1.23606</v>
       </c>
       <c r="D114" t="n">
-        <v>1.49931</v>
+        <v>1.51365</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.94981</v>
+        <v>1.95672</v>
       </c>
       <c r="C115" t="n">
-        <v>1.2663</v>
+        <v>1.27547</v>
       </c>
       <c r="D115" t="n">
-        <v>1.57424</v>
+        <v>1.58338</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.0045</v>
+        <v>2.00574</v>
       </c>
       <c r="C116" t="n">
-        <v>1.30831</v>
+        <v>1.31503</v>
       </c>
       <c r="D116" t="n">
-        <v>1.61838</v>
+        <v>1.62761</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.05673</v>
+        <v>2.05964</v>
       </c>
       <c r="C117" t="n">
-        <v>1.34087</v>
+        <v>1.34809</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66347</v>
+        <v>1.6735</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.11046</v>
+        <v>2.11636</v>
       </c>
       <c r="C118" t="n">
-        <v>1.38004</v>
+        <v>1.37659</v>
       </c>
       <c r="D118" t="n">
-        <v>1.71081</v>
+        <v>1.71564</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.16757</v>
+        <v>2.16692</v>
       </c>
       <c r="C119" t="n">
-        <v>1.41726</v>
+        <v>1.4209</v>
       </c>
       <c r="D119" t="n">
-        <v>1.7593</v>
+        <v>1.76415</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.277535</v>
+        <v>0.283752</v>
       </c>
       <c r="C2" t="n">
-        <v>0.203902</v>
+        <v>0.207613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.180129</v>
+        <v>0.181228</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.287126</v>
+        <v>0.290846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207574</v>
+        <v>0.212701</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18234</v>
+        <v>0.183837</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.296469</v>
+        <v>0.298717</v>
       </c>
       <c r="C4" t="n">
-        <v>0.216711</v>
+        <v>0.219253</v>
       </c>
       <c r="D4" t="n">
-        <v>0.184721</v>
+        <v>0.18652</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.303898</v>
+        <v>0.310573</v>
       </c>
       <c r="C5" t="n">
-        <v>0.222825</v>
+        <v>0.227131</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188495</v>
+        <v>0.190784</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.316119</v>
+        <v>0.323437</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228352</v>
+        <v>0.234573</v>
       </c>
       <c r="D6" t="n">
-        <v>0.189801</v>
+        <v>0.191498</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.323782</v>
+        <v>0.334963</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188952</v>
+        <v>0.200209</v>
       </c>
       <c r="D7" t="n">
-        <v>0.173117</v>
+        <v>0.178893</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.247786</v>
+        <v>0.256526</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192327</v>
+        <v>0.202709</v>
       </c>
       <c r="D8" t="n">
-        <v>0.174816</v>
+        <v>0.181348</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.254463</v>
+        <v>0.265117</v>
       </c>
       <c r="C9" t="n">
-        <v>0.198521</v>
+        <v>0.210652</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177376</v>
+        <v>0.184388</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2624</v>
+        <v>0.269318</v>
       </c>
       <c r="C10" t="n">
-        <v>0.203683</v>
+        <v>0.214833</v>
       </c>
       <c r="D10" t="n">
-        <v>0.180152</v>
+        <v>0.186886</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.269432</v>
+        <v>0.277147</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209677</v>
+        <v>0.218913</v>
       </c>
       <c r="D11" t="n">
-        <v>0.182355</v>
+        <v>0.18915</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.278541</v>
+        <v>0.286509</v>
       </c>
       <c r="C12" t="n">
-        <v>0.216449</v>
+        <v>0.224315</v>
       </c>
       <c r="D12" t="n">
-        <v>0.185843</v>
+        <v>0.191645</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.286788</v>
+        <v>0.285158</v>
       </c>
       <c r="C13" t="n">
-        <v>0.223986</v>
+        <v>0.231678</v>
       </c>
       <c r="D13" t="n">
-        <v>0.188491</v>
+        <v>0.194695</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2976</v>
+        <v>0.301003</v>
       </c>
       <c r="C14" t="n">
-        <v>0.231335</v>
+        <v>0.236629</v>
       </c>
       <c r="D14" t="n">
-        <v>0.191702</v>
+        <v>0.197334</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.304414</v>
+        <v>0.308717</v>
       </c>
       <c r="C15" t="n">
-        <v>0.239728</v>
+        <v>0.244018</v>
       </c>
       <c r="D15" t="n">
-        <v>0.196888</v>
+        <v>0.20202</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.315445</v>
+        <v>0.319829</v>
       </c>
       <c r="C16" t="n">
-        <v>0.249657</v>
+        <v>0.252935</v>
       </c>
       <c r="D16" t="n">
-        <v>0.202087</v>
+        <v>0.206274</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.328379</v>
+        <v>0.330793</v>
       </c>
       <c r="C17" t="n">
-        <v>0.258475</v>
+        <v>0.259374</v>
       </c>
       <c r="D17" t="n">
-        <v>0.205982</v>
+        <v>0.210684</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.338195</v>
+        <v>0.339756</v>
       </c>
       <c r="C18" t="n">
-        <v>0.265937</v>
+        <v>0.26812</v>
       </c>
       <c r="D18" t="n">
-        <v>0.211014</v>
+        <v>0.209395</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.349247</v>
+        <v>0.351116</v>
       </c>
       <c r="C19" t="n">
-        <v>0.276266</v>
+        <v>0.277071</v>
       </c>
       <c r="D19" t="n">
-        <v>0.215912</v>
+        <v>0.218895</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.363471</v>
+        <v>0.365864</v>
       </c>
       <c r="C20" t="n">
-        <v>0.286931</v>
+        <v>0.289981</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221014</v>
+        <v>0.224722</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.375219</v>
+        <v>0.378214</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233485</v>
+        <v>0.234858</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205048</v>
+        <v>0.203757</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.293942</v>
+        <v>0.294617</v>
       </c>
       <c r="C22" t="n">
-        <v>0.239616</v>
+        <v>0.24068</v>
       </c>
       <c r="D22" t="n">
-        <v>0.207846</v>
+        <v>0.206473</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.30146</v>
+        <v>0.301887</v>
       </c>
       <c r="C23" t="n">
-        <v>0.245811</v>
+        <v>0.24688</v>
       </c>
       <c r="D23" t="n">
-        <v>0.211317</v>
+        <v>0.209973</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.309123</v>
+        <v>0.309908</v>
       </c>
       <c r="C24" t="n">
-        <v>0.250947</v>
+        <v>0.252075</v>
       </c>
       <c r="D24" t="n">
-        <v>0.214574</v>
+        <v>0.213339</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.316462</v>
+        <v>0.317101</v>
       </c>
       <c r="C25" t="n">
-        <v>0.257182</v>
+        <v>0.259113</v>
       </c>
       <c r="D25" t="n">
-        <v>0.217708</v>
+        <v>0.216297</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.325198</v>
+        <v>0.326096</v>
       </c>
       <c r="C26" t="n">
-        <v>0.264399</v>
+        <v>0.266475</v>
       </c>
       <c r="D26" t="n">
-        <v>0.221315</v>
+        <v>0.220821</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332615</v>
+        <v>0.327915</v>
       </c>
       <c r="C27" t="n">
-        <v>0.269041</v>
+        <v>0.270476</v>
       </c>
       <c r="D27" t="n">
-        <v>0.225748</v>
+        <v>0.224551</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.341368</v>
+        <v>0.341874</v>
       </c>
       <c r="C28" t="n">
-        <v>0.276632</v>
+        <v>0.277856</v>
       </c>
       <c r="D28" t="n">
-        <v>0.229192</v>
+        <v>0.227885</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.350806</v>
+        <v>0.351421</v>
       </c>
       <c r="C29" t="n">
-        <v>0.283539</v>
+        <v>0.285329</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2333</v>
+        <v>0.231954</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.361227</v>
+        <v>0.360474</v>
       </c>
       <c r="C30" t="n">
-        <v>0.292161</v>
+        <v>0.293575</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237329</v>
+        <v>0.235911</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.371949</v>
+        <v>0.371449</v>
       </c>
       <c r="C31" t="n">
-        <v>0.298297</v>
+        <v>0.299542</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240511</v>
+        <v>0.239528</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.381638</v>
+        <v>0.380675</v>
       </c>
       <c r="C32" t="n">
-        <v>0.308463</v>
+        <v>0.309401</v>
       </c>
       <c r="D32" t="n">
-        <v>0.245133</v>
+        <v>0.244023</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.395145</v>
+        <v>0.393816</v>
       </c>
       <c r="C33" t="n">
-        <v>0.31685</v>
+        <v>0.317678</v>
       </c>
       <c r="D33" t="n">
-        <v>0.250273</v>
+        <v>0.247931</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.407222</v>
+        <v>0.405858</v>
       </c>
       <c r="C34" t="n">
-        <v>0.326988</v>
+        <v>0.327629</v>
       </c>
       <c r="D34" t="n">
-        <v>0.25552</v>
+        <v>0.254477</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.420719</v>
+        <v>0.419136</v>
       </c>
       <c r="C35" t="n">
-        <v>0.252</v>
+        <v>0.253034</v>
       </c>
       <c r="D35" t="n">
-        <v>0.227462</v>
+        <v>0.227001</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.316052</v>
+        <v>0.315854</v>
       </c>
       <c r="C36" t="n">
-        <v>0.258735</v>
+        <v>0.25967</v>
       </c>
       <c r="D36" t="n">
-        <v>0.230663</v>
+        <v>0.230317</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3224</v>
+        <v>0.322562</v>
       </c>
       <c r="C37" t="n">
-        <v>0.264232</v>
+        <v>0.264987</v>
       </c>
       <c r="D37" t="n">
-        <v>0.233933</v>
+        <v>0.233559</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.330787</v>
+        <v>0.330925</v>
       </c>
       <c r="C38" t="n">
-        <v>0.270996</v>
+        <v>0.272229</v>
       </c>
       <c r="D38" t="n">
-        <v>0.237794</v>
+        <v>0.237374</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.336576</v>
+        <v>0.336661</v>
       </c>
       <c r="C39" t="n">
-        <v>0.276301</v>
+        <v>0.277729</v>
       </c>
       <c r="D39" t="n">
-        <v>0.240526</v>
+        <v>0.239988</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345908</v>
+        <v>0.345853</v>
       </c>
       <c r="C40" t="n">
-        <v>0.283288</v>
+        <v>0.284383</v>
       </c>
       <c r="D40" t="n">
-        <v>0.244329</v>
+        <v>0.244025</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.353316</v>
+        <v>0.354147</v>
       </c>
       <c r="C41" t="n">
-        <v>0.28945</v>
+        <v>0.29078</v>
       </c>
       <c r="D41" t="n">
-        <v>0.247762</v>
+        <v>0.247464</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.361773</v>
+        <v>0.361776</v>
       </c>
       <c r="C42" t="n">
-        <v>0.294665</v>
+        <v>0.296189</v>
       </c>
       <c r="D42" t="n">
-        <v>0.251351</v>
+        <v>0.25111</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.370706</v>
+        <v>0.370664</v>
       </c>
       <c r="C43" t="n">
-        <v>0.302372</v>
+        <v>0.303665</v>
       </c>
       <c r="D43" t="n">
-        <v>0.255012</v>
+        <v>0.254797</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.380195</v>
+        <v>0.380538</v>
       </c>
       <c r="C44" t="n">
-        <v>0.310191</v>
+        <v>0.311787</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259549</v>
+        <v>0.259382</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.392241</v>
+        <v>0.392201</v>
       </c>
       <c r="C45" t="n">
-        <v>0.318438</v>
+        <v>0.319707</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264851</v>
+        <v>0.262569</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.40269</v>
+        <v>0.402715</v>
       </c>
       <c r="C46" t="n">
-        <v>0.326563</v>
+        <v>0.328348</v>
       </c>
       <c r="D46" t="n">
-        <v>0.267867</v>
+        <v>0.266832</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.412974</v>
+        <v>0.412814</v>
       </c>
       <c r="C47" t="n">
-        <v>0.334814</v>
+        <v>0.336296</v>
       </c>
       <c r="D47" t="n">
-        <v>0.273853</v>
+        <v>0.273907</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.424486</v>
+        <v>0.424394</v>
       </c>
       <c r="C48" t="n">
-        <v>0.343337</v>
+        <v>0.34517</v>
       </c>
       <c r="D48" t="n">
-        <v>0.279121</v>
+        <v>0.279286</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.435403</v>
+        <v>0.435292</v>
       </c>
       <c r="C49" t="n">
-        <v>0.353569</v>
+        <v>0.355551</v>
       </c>
       <c r="D49" t="n">
-        <v>0.284009</v>
+        <v>0.283155</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.449513</v>
+        <v>0.449694</v>
       </c>
       <c r="C50" t="n">
-        <v>0.265972</v>
+        <v>0.267051</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2314</v>
+        <v>0.231037</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.333241</v>
+        <v>0.33338</v>
       </c>
       <c r="C51" t="n">
-        <v>0.271426</v>
+        <v>0.272796</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234503</v>
+        <v>0.233988</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340376</v>
+        <v>0.340426</v>
       </c>
       <c r="C52" t="n">
-        <v>0.277714</v>
+        <v>0.278952</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237922</v>
+        <v>0.237611</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347143</v>
+        <v>0.3469</v>
       </c>
       <c r="C53" t="n">
-        <v>0.284529</v>
+        <v>0.285992</v>
       </c>
       <c r="D53" t="n">
-        <v>0.242141</v>
+        <v>0.241599</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.355145</v>
+        <v>0.355102</v>
       </c>
       <c r="C54" t="n">
-        <v>0.290745</v>
+        <v>0.292289</v>
       </c>
       <c r="D54" t="n">
-        <v>0.245529</v>
+        <v>0.245231</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.363793</v>
+        <v>0.364016</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2975</v>
+        <v>0.298728</v>
       </c>
       <c r="D55" t="n">
-        <v>0.249493</v>
+        <v>0.249111</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.373426</v>
+        <v>0.373975</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3037</v>
+        <v>0.304504</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253686</v>
+        <v>0.253098</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.382508</v>
+        <v>0.382409</v>
       </c>
       <c r="C57" t="n">
-        <v>0.310971</v>
+        <v>0.312469</v>
       </c>
       <c r="D57" t="n">
-        <v>0.25767</v>
+        <v>0.257188</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.392386</v>
+        <v>0.392078</v>
       </c>
       <c r="C58" t="n">
-        <v>0.318792</v>
+        <v>0.320208</v>
       </c>
       <c r="D58" t="n">
-        <v>0.263133</v>
+        <v>0.262303</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.404396</v>
+        <v>0.403916</v>
       </c>
       <c r="C59" t="n">
-        <v>0.325937</v>
+        <v>0.327474</v>
       </c>
       <c r="D59" t="n">
-        <v>0.266722</v>
+        <v>0.266182</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.413765</v>
+        <v>0.413609</v>
       </c>
       <c r="C60" t="n">
-        <v>0.333459</v>
+        <v>0.334911</v>
       </c>
       <c r="D60" t="n">
-        <v>0.270883</v>
+        <v>0.270315</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.424543</v>
+        <v>0.424221</v>
       </c>
       <c r="C61" t="n">
-        <v>0.342929</v>
+        <v>0.34465</v>
       </c>
       <c r="D61" t="n">
-        <v>0.276207</v>
+        <v>0.276157</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.435401</v>
+        <v>0.435238</v>
       </c>
       <c r="C62" t="n">
-        <v>0.351809</v>
+        <v>0.353201</v>
       </c>
       <c r="D62" t="n">
-        <v>0.281013</v>
+        <v>0.280999</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.447266</v>
+        <v>0.447206</v>
       </c>
       <c r="C63" t="n">
-        <v>0.36179</v>
+        <v>0.363661</v>
       </c>
       <c r="D63" t="n">
-        <v>0.287481</v>
+        <v>0.287149</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.461579</v>
+        <v>0.461571</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2802</v>
+        <v>0.284065</v>
       </c>
       <c r="D64" t="n">
-        <v>0.247735</v>
+        <v>0.245744</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.353002</v>
+        <v>0.358707</v>
       </c>
       <c r="C65" t="n">
-        <v>0.287901</v>
+        <v>0.292523</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24671</v>
+        <v>0.24807</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.36515</v>
+        <v>0.37053</v>
       </c>
       <c r="C66" t="n">
-        <v>0.30034</v>
+        <v>0.303332</v>
       </c>
       <c r="D66" t="n">
-        <v>0.25327</v>
+        <v>0.253985</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.382678</v>
+        <v>0.384854</v>
       </c>
       <c r="C67" t="n">
-        <v>0.306841</v>
+        <v>0.3114</v>
       </c>
       <c r="D67" t="n">
-        <v>0.258243</v>
+        <v>0.259236</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.391951</v>
+        <v>0.395467</v>
       </c>
       <c r="C68" t="n">
-        <v>0.317528</v>
+        <v>0.321863</v>
       </c>
       <c r="D68" t="n">
-        <v>0.265696</v>
+        <v>0.266193</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.410709</v>
+        <v>0.409899</v>
       </c>
       <c r="C69" t="n">
-        <v>0.329206</v>
+        <v>0.333053</v>
       </c>
       <c r="D69" t="n">
-        <v>0.268917</v>
+        <v>0.270494</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.43501</v>
+        <v>0.428757</v>
       </c>
       <c r="C70" t="n">
-        <v>0.338755</v>
+        <v>0.346896</v>
       </c>
       <c r="D70" t="n">
-        <v>0.273446</v>
+        <v>0.276415</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.44147</v>
+        <v>0.450373</v>
       </c>
       <c r="C71" t="n">
-        <v>0.354284</v>
+        <v>0.361413</v>
       </c>
       <c r="D71" t="n">
-        <v>0.280856</v>
+        <v>0.28376</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.462433</v>
+        <v>0.470123</v>
       </c>
       <c r="C72" t="n">
-        <v>0.368338</v>
+        <v>0.376256</v>
       </c>
       <c r="D72" t="n">
-        <v>0.28753</v>
+        <v>0.291568</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.494513</v>
+        <v>0.49254</v>
       </c>
       <c r="C73" t="n">
-        <v>0.390846</v>
+        <v>0.392385</v>
       </c>
       <c r="D73" t="n">
-        <v>0.297719</v>
+        <v>0.299124</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.516161</v>
+        <v>0.5192600000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.408756</v>
+        <v>0.412569</v>
       </c>
       <c r="D74" t="n">
-        <v>0.308901</v>
+        <v>0.309533</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.551535</v>
+        <v>0.548474</v>
       </c>
       <c r="C75" t="n">
-        <v>0.433561</v>
+        <v>0.432318</v>
       </c>
       <c r="D75" t="n">
-        <v>0.318343</v>
+        <v>0.318187</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.588337</v>
+        <v>0.583853</v>
       </c>
       <c r="C76" t="n">
-        <v>0.46205</v>
+        <v>0.460862</v>
       </c>
       <c r="D76" t="n">
-        <v>0.332841</v>
+        <v>0.330666</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6292140000000001</v>
+        <v>0.624939</v>
       </c>
       <c r="C77" t="n">
-        <v>0.49295</v>
+        <v>0.487908</v>
       </c>
       <c r="D77" t="n">
-        <v>0.345852</v>
+        <v>0.342767</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.669582</v>
+        <v>0.6718</v>
       </c>
       <c r="C78" t="n">
-        <v>0.442412</v>
+        <v>0.447357</v>
       </c>
       <c r="D78" t="n">
-        <v>0.308704</v>
+        <v>0.309656</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.625398</v>
+        <v>0.623564</v>
       </c>
       <c r="C79" t="n">
-        <v>0.46735</v>
+        <v>0.472857</v>
       </c>
       <c r="D79" t="n">
-        <v>0.322306</v>
+        <v>0.324182</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.665526</v>
+        <v>0.665233</v>
       </c>
       <c r="C80" t="n">
-        <v>0.495999</v>
+        <v>0.501203</v>
       </c>
       <c r="D80" t="n">
-        <v>0.339051</v>
+        <v>0.336687</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.709966</v>
+        <v>0.708578</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5307730000000001</v>
+        <v>0.5374139999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.349146</v>
+        <v>0.347617</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7546389999999999</v>
+        <v>0.754142</v>
       </c>
       <c r="C82" t="n">
-        <v>0.566342</v>
+        <v>0.570491</v>
       </c>
       <c r="D82" t="n">
-        <v>0.368411</v>
+        <v>0.36684</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.804579</v>
+        <v>0.806737</v>
       </c>
       <c r="C83" t="n">
-        <v>0.60654</v>
+        <v>0.609012</v>
       </c>
       <c r="D83" t="n">
-        <v>0.392546</v>
+        <v>0.389713</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.861942</v>
+        <v>0.864198</v>
       </c>
       <c r="C84" t="n">
-        <v>0.647499</v>
+        <v>0.652043</v>
       </c>
       <c r="D84" t="n">
-        <v>0.414307</v>
+        <v>0.410067</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.916113</v>
+        <v>0.920174</v>
       </c>
       <c r="C85" t="n">
-        <v>0.689522</v>
+        <v>0.69335</v>
       </c>
       <c r="D85" t="n">
-        <v>0.436874</v>
+        <v>0.432397</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.975812</v>
+        <v>0.980335</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7348980000000001</v>
+        <v>0.739693</v>
       </c>
       <c r="D86" t="n">
-        <v>0.465878</v>
+        <v>0.462897</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.03872</v>
+        <v>1.04282</v>
       </c>
       <c r="C87" t="n">
-        <v>0.784112</v>
+        <v>0.790687</v>
       </c>
       <c r="D87" t="n">
-        <v>0.490545</v>
+        <v>0.48824</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.10716</v>
+        <v>1.10729</v>
       </c>
       <c r="C88" t="n">
-        <v>0.833046</v>
+        <v>0.8363660000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.51714</v>
+        <v>0.5165999999999999</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.17547</v>
+        <v>1.17803</v>
       </c>
       <c r="C89" t="n">
-        <v>0.886653</v>
+        <v>0.890356</v>
       </c>
       <c r="D89" t="n">
-        <v>0.549727</v>
+        <v>0.546125</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.25071</v>
+        <v>1.25271</v>
       </c>
       <c r="C90" t="n">
-        <v>0.936617</v>
+        <v>0.940447</v>
       </c>
       <c r="D90" t="n">
-        <v>0.574902</v>
+        <v>0.574917</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.32714</v>
+        <v>1.32891</v>
       </c>
       <c r="C91" t="n">
-        <v>0.993544</v>
+        <v>0.997048</v>
       </c>
       <c r="D91" t="n">
-        <v>0.616412</v>
+        <v>0.61583</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.40865</v>
+        <v>1.41407</v>
       </c>
       <c r="C92" t="n">
-        <v>0.857199</v>
+        <v>0.859142</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6146430000000001</v>
+        <v>0.615538</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.13705</v>
+        <v>1.137</v>
       </c>
       <c r="C93" t="n">
-        <v>0.888907</v>
+        <v>0.892078</v>
       </c>
       <c r="D93" t="n">
-        <v>0.63758</v>
+        <v>0.638035</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.18036</v>
+        <v>1.18297</v>
       </c>
       <c r="C94" t="n">
-        <v>0.92559</v>
+        <v>0.928901</v>
       </c>
       <c r="D94" t="n">
-        <v>0.659363</v>
+        <v>0.660307</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.22606</v>
+        <v>1.22866</v>
       </c>
       <c r="C95" t="n">
-        <v>0.958728</v>
+        <v>0.962098</v>
       </c>
       <c r="D95" t="n">
-        <v>0.686331</v>
+        <v>0.686561</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.27966</v>
+        <v>1.28149</v>
       </c>
       <c r="C96" t="n">
-        <v>0.998667</v>
+        <v>1.00164</v>
       </c>
       <c r="D96" t="n">
-        <v>0.714684</v>
+        <v>0.714708</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.32803</v>
+        <v>1.33388</v>
       </c>
       <c r="C97" t="n">
-        <v>1.03727</v>
+        <v>1.04044</v>
       </c>
       <c r="D97" t="n">
-        <v>0.735123</v>
+        <v>0.73631</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.37193</v>
+        <v>1.38601</v>
       </c>
       <c r="C98" t="n">
-        <v>1.07913</v>
+        <v>1.08019</v>
       </c>
       <c r="D98" t="n">
-        <v>0.765369</v>
+        <v>0.765216</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.44362</v>
+        <v>1.43087</v>
       </c>
       <c r="C99" t="n">
-        <v>1.1189</v>
+        <v>1.12402</v>
       </c>
       <c r="D99" t="n">
-        <v>0.794607</v>
+        <v>0.796522</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.48016</v>
+        <v>1.49238</v>
       </c>
       <c r="C100" t="n">
-        <v>1.16276</v>
+        <v>1.16891</v>
       </c>
       <c r="D100" t="n">
-        <v>0.815707</v>
+        <v>0.819894</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.53918</v>
+        <v>1.56077</v>
       </c>
       <c r="C101" t="n">
-        <v>1.20583</v>
+        <v>1.21235</v>
       </c>
       <c r="D101" t="n">
-        <v>0.843291</v>
+        <v>0.84693</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.59186</v>
+        <v>1.57877</v>
       </c>
       <c r="C102" t="n">
-        <v>1.25497</v>
+        <v>1.26213</v>
       </c>
       <c r="D102" t="n">
-        <v>0.878151</v>
+        <v>0.879126</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.6392</v>
+        <v>1.64351</v>
       </c>
       <c r="C103" t="n">
-        <v>1.30226</v>
+        <v>1.30784</v>
       </c>
       <c r="D103" t="n">
-        <v>0.908649</v>
+        <v>0.914933</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.69382</v>
+        <v>1.71215</v>
       </c>
       <c r="C104" t="n">
-        <v>1.34926</v>
+        <v>1.36482</v>
       </c>
       <c r="D104" t="n">
-        <v>0.935172</v>
+        <v>0.944014</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.77355</v>
+        <v>1.78596</v>
       </c>
       <c r="C105" t="n">
-        <v>1.39996</v>
+        <v>1.41966</v>
       </c>
       <c r="D105" t="n">
-        <v>0.971741</v>
+        <v>0.981075</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.86742</v>
+        <v>1.85863</v>
       </c>
       <c r="C106" t="n">
-        <v>1.45693</v>
+        <v>1.47131</v>
       </c>
       <c r="D106" t="n">
-        <v>1.00147</v>
+        <v>1.01033</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.35121</v>
+        <v>1.36334</v>
       </c>
       <c r="C107" t="n">
-        <v>1.13565</v>
+        <v>1.14119</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9303129999999999</v>
+        <v>0.924955</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.39842</v>
+        <v>1.39694</v>
       </c>
       <c r="C108" t="n">
-        <v>1.17616</v>
+        <v>1.17977</v>
       </c>
       <c r="D108" t="n">
-        <v>0.952285</v>
+        <v>0.952364</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.44141</v>
+        <v>1.45416</v>
       </c>
       <c r="C109" t="n">
-        <v>1.20644</v>
+        <v>1.21064</v>
       </c>
       <c r="D109" t="n">
-        <v>0.974043</v>
+        <v>0.981276</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.49107</v>
+        <v>1.50327</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22852</v>
+        <v>1.25563</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9701109999999999</v>
+        <v>1.00185</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.51788</v>
+        <v>1.55035</v>
       </c>
       <c r="C111" t="n">
-        <v>1.24169</v>
+        <v>1.27792</v>
       </c>
       <c r="D111" t="n">
-        <v>0.993186</v>
+        <v>1.02704</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.56532</v>
+        <v>1.58633</v>
       </c>
       <c r="C112" t="n">
-        <v>1.27916</v>
+        <v>1.31833</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04363</v>
+        <v>1.05541</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.64159</v>
+        <v>1.65783</v>
       </c>
       <c r="C113" t="n">
-        <v>1.30948</v>
+        <v>1.35827</v>
       </c>
       <c r="D113" t="n">
-        <v>1.06915</v>
+        <v>1.08156</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.69802</v>
+        <v>1.71621</v>
       </c>
       <c r="C114" t="n">
-        <v>1.38095</v>
+        <v>1.40063</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09549</v>
+        <v>1.10804</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.75175</v>
+        <v>1.77331</v>
       </c>
       <c r="C115" t="n">
-        <v>1.42537</v>
+        <v>1.45557</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12315</v>
+        <v>1.13751</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.82007</v>
+        <v>1.83916</v>
       </c>
       <c r="C116" t="n">
-        <v>1.42804</v>
+        <v>1.48489</v>
       </c>
       <c r="D116" t="n">
-        <v>1.15553</v>
+        <v>1.1698</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.88663</v>
+        <v>1.90625</v>
       </c>
       <c r="C117" t="n">
-        <v>1.47799</v>
+        <v>1.52215</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1843</v>
+        <v>1.19765</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.95313</v>
+        <v>1.97687</v>
       </c>
       <c r="C118" t="n">
-        <v>1.52825</v>
+        <v>1.57125</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21401</v>
+        <v>1.22391</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.02355</v>
+        <v>2.04704</v>
       </c>
       <c r="C119" t="n">
-        <v>1.57235</v>
+        <v>1.61633</v>
       </c>
       <c r="D119" t="n">
-        <v>1.24548</v>
+        <v>1.26207</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.634321</v>
+        <v>0.641926</v>
       </c>
       <c r="C2" t="n">
-        <v>0.450419</v>
+        <v>0.465951</v>
       </c>
       <c r="D2" t="n">
-        <v>0.305031</v>
+        <v>0.311226</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.659709</v>
+        <v>0.665194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.464264</v>
+        <v>0.473549</v>
       </c>
       <c r="D3" t="n">
-        <v>0.315058</v>
+        <v>0.319696</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.683265</v>
+        <v>0.692995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.485634</v>
+        <v>0.496555</v>
       </c>
       <c r="D4" t="n">
-        <v>0.325082</v>
+        <v>0.329602</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.708974</v>
+        <v>0.718356</v>
       </c>
       <c r="C5" t="n">
-        <v>0.502802</v>
+        <v>0.512859</v>
       </c>
       <c r="D5" t="n">
-        <v>0.333687</v>
+        <v>0.339587</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.73473</v>
+        <v>0.743162</v>
       </c>
       <c r="C6" t="n">
-        <v>0.517027</v>
+        <v>0.531953</v>
       </c>
       <c r="D6" t="n">
-        <v>0.346906</v>
+        <v>0.351967</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.766469</v>
+        <v>0.775979</v>
       </c>
       <c r="C7" t="n">
-        <v>0.537675</v>
+        <v>0.55359</v>
       </c>
       <c r="D7" t="n">
-        <v>0.355021</v>
+        <v>0.359523</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8050620000000001</v>
+        <v>0.807404</v>
       </c>
       <c r="C8" t="n">
-        <v>0.555652</v>
+        <v>0.593701</v>
       </c>
       <c r="D8" t="n">
-        <v>0.363731</v>
+        <v>0.366605</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.831692</v>
+        <v>0.846183</v>
       </c>
       <c r="C9" t="n">
-        <v>0.596127</v>
+        <v>0.615695</v>
       </c>
       <c r="D9" t="n">
-        <v>0.370898</v>
+        <v>0.383701</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.869447</v>
+        <v>0.881786</v>
       </c>
       <c r="C10" t="n">
-        <v>0.609016</v>
+        <v>0.6459</v>
       </c>
       <c r="D10" t="n">
-        <v>0.384385</v>
+        <v>0.400457</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.891204</v>
+        <v>0.92187</v>
       </c>
       <c r="C11" t="n">
-        <v>0.438673</v>
+        <v>0.438307</v>
       </c>
       <c r="D11" t="n">
-        <v>0.28696</v>
+        <v>0.292304</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.597151</v>
+        <v>0.60886</v>
       </c>
       <c r="C12" t="n">
-        <v>0.445692</v>
+        <v>0.459808</v>
       </c>
       <c r="D12" t="n">
-        <v>0.296953</v>
+        <v>0.304905</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6134309999999999</v>
+        <v>0.634944</v>
       </c>
       <c r="C13" t="n">
-        <v>0.473654</v>
+        <v>0.487357</v>
       </c>
       <c r="D13" t="n">
-        <v>0.307872</v>
+        <v>0.318152</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.647108</v>
+        <v>0.658896</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5012</v>
+        <v>0.515043</v>
       </c>
       <c r="D14" t="n">
-        <v>0.321178</v>
+        <v>0.32928</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.676732</v>
+        <v>0.686267</v>
       </c>
       <c r="C15" t="n">
-        <v>0.526649</v>
+        <v>0.538873</v>
       </c>
       <c r="D15" t="n">
-        <v>0.334667</v>
+        <v>0.341445</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.715202</v>
+        <v>0.722071</v>
       </c>
       <c r="C16" t="n">
-        <v>0.552871</v>
+        <v>0.561164</v>
       </c>
       <c r="D16" t="n">
-        <v>0.351809</v>
+        <v>0.353801</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.753211</v>
+        <v>0.754947</v>
       </c>
       <c r="C17" t="n">
-        <v>0.587527</v>
+        <v>0.588206</v>
       </c>
       <c r="D17" t="n">
-        <v>0.364763</v>
+        <v>0.370824</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.792895</v>
+        <v>0.788347</v>
       </c>
       <c r="C18" t="n">
-        <v>0.61404</v>
+        <v>0.611962</v>
       </c>
       <c r="D18" t="n">
-        <v>0.37689</v>
+        <v>0.37893</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.834515</v>
+        <v>0.829708</v>
       </c>
       <c r="C19" t="n">
-        <v>0.649142</v>
+        <v>0.633984</v>
       </c>
       <c r="D19" t="n">
-        <v>0.391546</v>
+        <v>0.391599</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8725889999999999</v>
+        <v>0.867808</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6883320000000001</v>
+        <v>0.681042</v>
       </c>
       <c r="D20" t="n">
-        <v>0.404474</v>
+        <v>0.403871</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.90644</v>
+        <v>0.9028659999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6982429999999999</v>
+        <v>0.701466</v>
       </c>
       <c r="D21" t="n">
-        <v>0.421387</v>
+        <v>0.418695</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.93285</v>
+        <v>0.950375</v>
       </c>
       <c r="C22" t="n">
-        <v>0.736311</v>
+        <v>0.738658</v>
       </c>
       <c r="D22" t="n">
-        <v>0.430939</v>
+        <v>0.433888</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.980552</v>
+        <v>0.9919519999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.779666</v>
+        <v>0.776339</v>
       </c>
       <c r="D23" t="n">
-        <v>0.44394</v>
+        <v>0.445612</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.02929</v>
+        <v>1.02856</v>
       </c>
       <c r="C24" t="n">
-        <v>0.804905</v>
+        <v>0.7841129999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.458395</v>
+        <v>0.462646</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.079</v>
+        <v>1.07914</v>
       </c>
       <c r="C25" t="n">
-        <v>0.862797</v>
+        <v>0.8592</v>
       </c>
       <c r="D25" t="n">
-        <v>0.473577</v>
+        <v>0.473728</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.11562</v>
+        <v>1.12062</v>
       </c>
       <c r="C26" t="n">
-        <v>0.550747</v>
+        <v>0.552615</v>
       </c>
       <c r="D26" t="n">
-        <v>0.339768</v>
+        <v>0.341289</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7306049999999999</v>
+        <v>0.735253</v>
       </c>
       <c r="C27" t="n">
-        <v>0.575447</v>
+        <v>0.5750150000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.355058</v>
+        <v>0.356398</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7679859999999999</v>
+        <v>0.771887</v>
       </c>
       <c r="C28" t="n">
-        <v>0.605561</v>
+        <v>0.605044</v>
       </c>
       <c r="D28" t="n">
-        <v>0.36878</v>
+        <v>0.370533</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.803436</v>
+        <v>0.807252</v>
       </c>
       <c r="C29" t="n">
-        <v>0.630972</v>
+        <v>0.629152</v>
       </c>
       <c r="D29" t="n">
-        <v>0.383889</v>
+        <v>0.383386</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.837371</v>
+        <v>0.843716</v>
       </c>
       <c r="C30" t="n">
-        <v>0.66735</v>
+        <v>0.661816</v>
       </c>
       <c r="D30" t="n">
-        <v>0.399269</v>
+        <v>0.39825</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.872368</v>
+        <v>0.878176</v>
       </c>
       <c r="C31" t="n">
-        <v>0.686117</v>
+        <v>0.68162</v>
       </c>
       <c r="D31" t="n">
-        <v>0.409607</v>
+        <v>0.412072</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.90671</v>
+        <v>0.918276</v>
       </c>
       <c r="C32" t="n">
-        <v>0.719264</v>
+        <v>0.719755</v>
       </c>
       <c r="D32" t="n">
-        <v>0.424616</v>
+        <v>0.426288</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9486599999999999</v>
+        <v>0.960295</v>
       </c>
       <c r="C33" t="n">
-        <v>0.745566</v>
+        <v>0.7400409999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.438199</v>
+        <v>0.442859</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.98733</v>
+        <v>1.00061</v>
       </c>
       <c r="C34" t="n">
-        <v>0.776908</v>
+        <v>0.776366</v>
       </c>
       <c r="D34" t="n">
-        <v>0.451794</v>
+        <v>0.454708</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.03762</v>
+        <v>1.05018</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8083129999999999</v>
+        <v>0.811447</v>
       </c>
       <c r="D35" t="n">
-        <v>0.457458</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.07457</v>
+        <v>1.0902</v>
       </c>
       <c r="C36" t="n">
-        <v>0.843608</v>
+        <v>0.848033</v>
       </c>
       <c r="D36" t="n">
-        <v>0.484123</v>
+        <v>0.485432</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.11663</v>
+        <v>1.12882</v>
       </c>
       <c r="C37" t="n">
-        <v>0.879545</v>
+        <v>0.883925</v>
       </c>
       <c r="D37" t="n">
-        <v>0.495665</v>
+        <v>0.5007779999999999</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.16722</v>
+        <v>1.18209</v>
       </c>
       <c r="C38" t="n">
-        <v>0.893863</v>
+        <v>0.9054</v>
       </c>
       <c r="D38" t="n">
-        <v>0.506146</v>
+        <v>0.525302</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.21618</v>
+        <v>1.23204</v>
       </c>
       <c r="C39" t="n">
-        <v>0.92737</v>
+        <v>0.961599</v>
       </c>
       <c r="D39" t="n">
-        <v>0.524092</v>
+        <v>0.533488</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.2657</v>
+        <v>1.2775</v>
       </c>
       <c r="C40" t="n">
-        <v>0.609017</v>
+        <v>0.610984</v>
       </c>
       <c r="D40" t="n">
-        <v>0.392533</v>
+        <v>0.400692</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.800712</v>
+        <v>0.808568</v>
       </c>
       <c r="C41" t="n">
-        <v>0.627731</v>
+        <v>0.633166</v>
       </c>
       <c r="D41" t="n">
-        <v>0.40678</v>
+        <v>0.413511</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8365939999999999</v>
+        <v>0.843344</v>
       </c>
       <c r="C42" t="n">
-        <v>0.650989</v>
+        <v>0.654996</v>
       </c>
       <c r="D42" t="n">
-        <v>0.422312</v>
+        <v>0.427153</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.869591</v>
+        <v>0.876099</v>
       </c>
       <c r="C43" t="n">
-        <v>0.684526</v>
+        <v>0.688758</v>
       </c>
       <c r="D43" t="n">
-        <v>0.435386</v>
+        <v>0.441346</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.912152</v>
+        <v>0.918229</v>
       </c>
       <c r="C44" t="n">
-        <v>0.711418</v>
+        <v>0.709058</v>
       </c>
       <c r="D44" t="n">
-        <v>0.451156</v>
+        <v>0.456507</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.945716</v>
+        <v>0.9546210000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.741077</v>
+        <v>0.742529</v>
       </c>
       <c r="D45" t="n">
-        <v>0.467665</v>
+        <v>0.472171</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.988399</v>
+        <v>0.997042</v>
       </c>
       <c r="C46" t="n">
-        <v>0.770632</v>
+        <v>0.775739</v>
       </c>
       <c r="D46" t="n">
-        <v>0.485179</v>
+        <v>0.490877</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.033</v>
+        <v>1.03904</v>
       </c>
       <c r="C47" t="n">
-        <v>0.801053</v>
+        <v>0.814657</v>
       </c>
       <c r="D47" t="n">
-        <v>0.491245</v>
+        <v>0.506424</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.07474</v>
+        <v>1.08316</v>
       </c>
       <c r="C48" t="n">
-        <v>0.836581</v>
+        <v>0.847953</v>
       </c>
       <c r="D48" t="n">
-        <v>0.514679</v>
+        <v>0.520273</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.11791</v>
+        <v>1.12418</v>
       </c>
       <c r="C49" t="n">
-        <v>0.879336</v>
+        <v>0.872178</v>
       </c>
       <c r="D49" t="n">
-        <v>0.527386</v>
+        <v>0.531911</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.16146</v>
+        <v>1.17154</v>
       </c>
       <c r="C50" t="n">
-        <v>0.909604</v>
+        <v>0.921988</v>
       </c>
       <c r="D50" t="n">
-        <v>0.546391</v>
+        <v>0.547084</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.2067</v>
+        <v>1.21734</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9517910000000001</v>
+        <v>0.947505</v>
       </c>
       <c r="D51" t="n">
-        <v>0.563158</v>
+        <v>0.568448</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.24913</v>
+        <v>1.26104</v>
       </c>
       <c r="C52" t="n">
-        <v>0.987455</v>
+        <v>0.9901529999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.571627</v>
+        <v>0.583778</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.30245</v>
+        <v>1.30891</v>
       </c>
       <c r="C53" t="n">
-        <v>1.02757</v>
+        <v>1.02604</v>
       </c>
       <c r="D53" t="n">
-        <v>0.597136</v>
+        <v>0.600846</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.34599</v>
+        <v>1.35609</v>
       </c>
       <c r="C54" t="n">
-        <v>0.639124</v>
+        <v>0.638795</v>
       </c>
       <c r="D54" t="n">
-        <v>0.427818</v>
+        <v>0.429354</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.837985</v>
+        <v>0.842203</v>
       </c>
       <c r="C55" t="n">
-        <v>0.657851</v>
+        <v>0.659368</v>
       </c>
       <c r="D55" t="n">
-        <v>0.444571</v>
+        <v>0.445559</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.87137</v>
+        <v>0.874189</v>
       </c>
       <c r="C56" t="n">
-        <v>0.688557</v>
+        <v>0.690093</v>
       </c>
       <c r="D56" t="n">
-        <v>0.456737</v>
+        <v>0.458253</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.907967</v>
+        <v>0.9108889999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.708668</v>
+        <v>0.707297</v>
       </c>
       <c r="D57" t="n">
-        <v>0.46939</v>
+        <v>0.471414</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.941869</v>
+        <v>0.945283</v>
       </c>
       <c r="C58" t="n">
-        <v>0.738538</v>
+        <v>0.739143</v>
       </c>
       <c r="D58" t="n">
-        <v>0.487575</v>
+        <v>0.489024</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.982193</v>
+        <v>0.985055</v>
       </c>
       <c r="C59" t="n">
-        <v>0.778908</v>
+        <v>0.781961</v>
       </c>
       <c r="D59" t="n">
-        <v>0.502963</v>
+        <v>0.505304</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.02074</v>
+        <v>1.02492</v>
       </c>
       <c r="C60" t="n">
-        <v>0.807335</v>
+        <v>0.811716</v>
       </c>
       <c r="D60" t="n">
-        <v>0.519919</v>
+        <v>0.523092</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.06139</v>
+        <v>1.06597</v>
       </c>
       <c r="C61" t="n">
-        <v>0.838114</v>
+        <v>0.834891</v>
       </c>
       <c r="D61" t="n">
-        <v>0.534283</v>
+        <v>0.536724</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.10412</v>
+        <v>1.10789</v>
       </c>
       <c r="C62" t="n">
-        <v>0.870082</v>
+        <v>0.872009</v>
       </c>
       <c r="D62" t="n">
-        <v>0.548032</v>
+        <v>0.549303</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.14979</v>
+        <v>1.15373</v>
       </c>
       <c r="C63" t="n">
-        <v>0.903406</v>
+        <v>0.9166879999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.567424</v>
+        <v>0.570457</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.19797</v>
+        <v>1.20016</v>
       </c>
       <c r="C64" t="n">
-        <v>0.943377</v>
+        <v>0.957779</v>
       </c>
       <c r="D64" t="n">
-        <v>0.577828</v>
+        <v>0.585792</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.24079</v>
+        <v>1.25213</v>
       </c>
       <c r="C65" t="n">
-        <v>0.985344</v>
+        <v>0.99944</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5976399999999999</v>
+        <v>0.599623</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.2851</v>
+        <v>1.29754</v>
       </c>
       <c r="C66" t="n">
-        <v>1.01822</v>
+        <v>1.03708</v>
       </c>
       <c r="D66" t="n">
-        <v>0.616212</v>
+        <v>0.618993</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.33862</v>
+        <v>1.34678</v>
       </c>
       <c r="C67" t="n">
-        <v>1.06116</v>
+        <v>1.08918</v>
       </c>
       <c r="D67" t="n">
-        <v>0.633196</v>
+        <v>0.633935</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.39546</v>
+        <v>1.39621</v>
       </c>
       <c r="C68" t="n">
-        <v>0.651953</v>
+        <v>0.663256</v>
       </c>
       <c r="D68" t="n">
-        <v>0.451564</v>
+        <v>0.458884</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.875661</v>
+        <v>0.903357</v>
       </c>
       <c r="C69" t="n">
-        <v>0.680664</v>
+        <v>0.6958299999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.465158</v>
+        <v>0.471562</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.922525</v>
+        <v>0.955526</v>
       </c>
       <c r="C70" t="n">
-        <v>0.717659</v>
+        <v>0.735472</v>
       </c>
       <c r="D70" t="n">
-        <v>0.485116</v>
+        <v>0.493725</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.980339</v>
+        <v>1.02091</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7633529999999999</v>
+        <v>0.785482</v>
       </c>
       <c r="D71" t="n">
-        <v>0.505856</v>
+        <v>0.513486</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.03301</v>
+        <v>1.07115</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7981780000000001</v>
+        <v>0.823744</v>
       </c>
       <c r="D72" t="n">
-        <v>0.525798</v>
+        <v>0.5343560000000001</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.09559</v>
+        <v>1.14819</v>
       </c>
       <c r="C73" t="n">
-        <v>0.850805</v>
+        <v>0.889313</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5490620000000001</v>
+        <v>0.562304</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.16123</v>
+        <v>1.2213</v>
       </c>
       <c r="C74" t="n">
-        <v>0.898613</v>
+        <v>0.945129</v>
       </c>
       <c r="D74" t="n">
-        <v>0.569138</v>
+        <v>0.579954</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.24006</v>
+        <v>1.30538</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9471309999999999</v>
+        <v>0.997202</v>
       </c>
       <c r="D75" t="n">
-        <v>0.593212</v>
+        <v>0.610413</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.31415</v>
+        <v>1.3949</v>
       </c>
       <c r="C76" t="n">
-        <v>1.02975</v>
+        <v>1.07315</v>
       </c>
       <c r="D76" t="n">
-        <v>0.615749</v>
+        <v>0.635363</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.41382</v>
+        <v>1.49961</v>
       </c>
       <c r="C77" t="n">
-        <v>1.10168</v>
+        <v>1.16096</v>
       </c>
       <c r="D77" t="n">
-        <v>0.645081</v>
+        <v>0.668937</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.54087</v>
+        <v>1.59944</v>
       </c>
       <c r="C78" t="n">
-        <v>1.1781</v>
+        <v>1.24569</v>
       </c>
       <c r="D78" t="n">
-        <v>0.673567</v>
+        <v>0.695365</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.68228</v>
+        <v>1.73749</v>
       </c>
       <c r="C79" t="n">
-        <v>1.30023</v>
+        <v>1.33578</v>
       </c>
       <c r="D79" t="n">
-        <v>0.706239</v>
+        <v>0.7285509999999999</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.84082</v>
+        <v>1.89697</v>
       </c>
       <c r="C80" t="n">
-        <v>1.4175</v>
+        <v>1.45519</v>
       </c>
       <c r="D80" t="n">
-        <v>0.75437</v>
+        <v>0.763294</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.02582</v>
+        <v>2.05812</v>
       </c>
       <c r="C81" t="n">
-        <v>1.56061</v>
+        <v>1.59186</v>
       </c>
       <c r="D81" t="n">
-        <v>0.792357</v>
+        <v>0.802716</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.24153</v>
+        <v>2.26334</v>
       </c>
       <c r="C82" t="n">
-        <v>1.72628</v>
+        <v>1.75799</v>
       </c>
       <c r="D82" t="n">
-        <v>0.872943</v>
+        <v>0.874455</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.45272</v>
+        <v>2.48618</v>
       </c>
       <c r="C83" t="n">
-        <v>1.12967</v>
+        <v>1.12987</v>
       </c>
       <c r="D83" t="n">
-        <v>0.62867</v>
+        <v>0.629752</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.66428</v>
+        <v>1.68308</v>
       </c>
       <c r="C84" t="n">
-        <v>1.23184</v>
+        <v>1.23921</v>
       </c>
       <c r="D84" t="n">
-        <v>0.680469</v>
+        <v>0.676556</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.84548</v>
+        <v>1.83943</v>
       </c>
       <c r="C85" t="n">
-        <v>1.35727</v>
+        <v>1.35851</v>
       </c>
       <c r="D85" t="n">
-        <v>0.741031</v>
+        <v>0.735502</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.02138</v>
+        <v>2.03286</v>
       </c>
       <c r="C86" t="n">
-        <v>1.49865</v>
+        <v>1.49417</v>
       </c>
       <c r="D86" t="n">
-        <v>0.801854</v>
+        <v>0.79137</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.23746</v>
+        <v>2.23791</v>
       </c>
       <c r="C87" t="n">
-        <v>1.65016</v>
+        <v>1.63814</v>
       </c>
       <c r="D87" t="n">
-        <v>0.844265</v>
+        <v>0.8333390000000001</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.46725</v>
+        <v>2.47468</v>
       </c>
       <c r="C88" t="n">
-        <v>1.83124</v>
+        <v>1.83298</v>
       </c>
       <c r="D88" t="n">
-        <v>0.917137</v>
+        <v>0.909095</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.71151</v>
+        <v>2.71965</v>
       </c>
       <c r="C89" t="n">
-        <v>1.99766</v>
+        <v>2.01025</v>
       </c>
       <c r="D89" t="n">
-        <v>1.00538</v>
+        <v>1.00464</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.95924</v>
+        <v>2.99044</v>
       </c>
       <c r="C90" t="n">
-        <v>2.17555</v>
+        <v>2.20434</v>
       </c>
       <c r="D90" t="n">
-        <v>1.08834</v>
+        <v>1.09011</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.23066</v>
+        <v>3.26721</v>
       </c>
       <c r="C91" t="n">
-        <v>2.38131</v>
+        <v>2.4148</v>
       </c>
       <c r="D91" t="n">
-        <v>1.17857</v>
+        <v>1.17507</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.52265</v>
+        <v>3.5654</v>
       </c>
       <c r="C92" t="n">
-        <v>2.62261</v>
+        <v>2.63732</v>
       </c>
       <c r="D92" t="n">
-        <v>1.26378</v>
+        <v>1.26535</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.83288</v>
+        <v>3.86142</v>
       </c>
       <c r="C93" t="n">
-        <v>2.84849</v>
+        <v>2.89101</v>
       </c>
       <c r="D93" t="n">
-        <v>1.3441</v>
+        <v>1.3496</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.15782</v>
+        <v>4.18918</v>
       </c>
       <c r="C94" t="n">
-        <v>3.10915</v>
+        <v>3.10844</v>
       </c>
       <c r="D94" t="n">
-        <v>1.43899</v>
+        <v>1.44292</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.48965</v>
+        <v>4.52434</v>
       </c>
       <c r="C95" t="n">
-        <v>3.37227</v>
+        <v>3.49357</v>
       </c>
       <c r="D95" t="n">
-        <v>1.56187</v>
+        <v>1.56534</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.83288</v>
+        <v>4.87303</v>
       </c>
       <c r="C96" t="n">
-        <v>3.64391</v>
+        <v>3.77027</v>
       </c>
       <c r="D96" t="n">
-        <v>1.68678</v>
+        <v>1.68808</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.19924</v>
+        <v>5.23843</v>
       </c>
       <c r="C97" t="n">
-        <v>2.12312</v>
+        <v>2.14343</v>
       </c>
       <c r="D97" t="n">
-        <v>1.17548</v>
+        <v>1.17739</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.20307</v>
+        <v>3.21658</v>
       </c>
       <c r="C98" t="n">
-        <v>2.26635</v>
+        <v>2.27691</v>
       </c>
       <c r="D98" t="n">
-        <v>1.25177</v>
+        <v>1.25287</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.42631</v>
+        <v>3.43317</v>
       </c>
       <c r="C99" t="n">
-        <v>2.42486</v>
+        <v>2.43943</v>
       </c>
       <c r="D99" t="n">
-        <v>1.33049</v>
+        <v>1.33024</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.62757</v>
+        <v>3.64238</v>
       </c>
       <c r="C100" t="n">
-        <v>2.59386</v>
+        <v>2.57969</v>
       </c>
       <c r="D100" t="n">
-        <v>1.40633</v>
+        <v>1.4088</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.83168</v>
+        <v>3.83216</v>
       </c>
       <c r="C101" t="n">
-        <v>2.75489</v>
+        <v>2.76903</v>
       </c>
       <c r="D101" t="n">
-        <v>1.48026</v>
+        <v>1.48021</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.04009</v>
+        <v>4.05515</v>
       </c>
       <c r="C102" t="n">
-        <v>2.94244</v>
+        <v>2.94678</v>
       </c>
       <c r="D102" t="n">
-        <v>1.57533</v>
+        <v>1.57829</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.25568</v>
+        <v>4.26791</v>
       </c>
       <c r="C103" t="n">
-        <v>3.12819</v>
+        <v>3.14349</v>
       </c>
       <c r="D103" t="n">
-        <v>1.6646</v>
+        <v>1.67041</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.51937</v>
+        <v>4.53162</v>
       </c>
       <c r="C104" t="n">
-        <v>3.32842</v>
+        <v>3.34899</v>
       </c>
       <c r="D104" t="n">
-        <v>1.75507</v>
+        <v>1.75944</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.79313</v>
+        <v>4.82064</v>
       </c>
       <c r="C105" t="n">
-        <v>3.51837</v>
+        <v>3.54438</v>
       </c>
       <c r="D105" t="n">
-        <v>1.82081</v>
+        <v>1.82629</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.08646</v>
+        <v>5.1074</v>
       </c>
       <c r="C106" t="n">
-        <v>3.70441</v>
+        <v>3.7605</v>
       </c>
       <c r="D106" t="n">
-        <v>1.9322</v>
+        <v>1.93884</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.41061</v>
+        <v>5.42953</v>
       </c>
       <c r="C107" t="n">
-        <v>3.91032</v>
+        <v>3.98487</v>
       </c>
       <c r="D107" t="n">
-        <v>2.05942</v>
+        <v>2.07026</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.7158</v>
+        <v>5.75513</v>
       </c>
       <c r="C108" t="n">
-        <v>4.16763</v>
+        <v>4.16315</v>
       </c>
       <c r="D108" t="n">
-        <v>2.15803</v>
+        <v>2.16961</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.05131</v>
+        <v>6.09988</v>
       </c>
       <c r="C109" t="n">
-        <v>4.44839</v>
+        <v>4.49064</v>
       </c>
       <c r="D109" t="n">
-        <v>2.24064</v>
+        <v>2.25555</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.40177</v>
+        <v>6.45206</v>
       </c>
       <c r="C110" t="n">
-        <v>4.73711</v>
+        <v>4.75222</v>
       </c>
       <c r="D110" t="n">
-        <v>2.34525</v>
+        <v>2.35978</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.75389</v>
+        <v>6.81511</v>
       </c>
       <c r="C111" t="n">
-        <v>2.67814</v>
+        <v>2.70709</v>
       </c>
       <c r="D111" t="n">
-        <v>1.65185</v>
+        <v>1.66331</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.98771</v>
+        <v>4.03286</v>
       </c>
       <c r="C112" t="n">
-        <v>2.80201</v>
+        <v>2.81902</v>
       </c>
       <c r="D112" t="n">
-        <v>1.71771</v>
+        <v>1.73355</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.22205</v>
+        <v>4.26788</v>
       </c>
       <c r="C113" t="n">
-        <v>2.9305</v>
+        <v>2.95566</v>
       </c>
       <c r="D113" t="n">
-        <v>1.79704</v>
+        <v>1.81517</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.43125</v>
+        <v>4.47339</v>
       </c>
       <c r="C114" t="n">
-        <v>3.06782</v>
+        <v>3.1026</v>
       </c>
       <c r="D114" t="n">
-        <v>1.87537</v>
+        <v>1.89534</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.67542</v>
+        <v>4.71411</v>
       </c>
       <c r="C115" t="n">
-        <v>3.23106</v>
+        <v>3.29542</v>
       </c>
       <c r="D115" t="n">
-        <v>1.9609</v>
+        <v>1.98037</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.9193</v>
+        <v>4.96303</v>
       </c>
       <c r="C116" t="n">
-        <v>3.44655</v>
+        <v>3.47701</v>
       </c>
       <c r="D116" t="n">
-        <v>2.0321</v>
+        <v>2.05183</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.18235</v>
+        <v>5.22985</v>
       </c>
       <c r="C117" t="n">
-        <v>3.61315</v>
+        <v>3.6837</v>
       </c>
       <c r="D117" t="n">
-        <v>2.14313</v>
+        <v>2.16028</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.46518</v>
+        <v>5.51294</v>
       </c>
       <c r="C118" t="n">
-        <v>3.84566</v>
+        <v>3.8448</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25534</v>
+        <v>2.26678</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.75745</v>
+        <v>5.80339</v>
       </c>
       <c r="C119" t="n">
-        <v>4.15395</v>
+        <v>4.13169</v>
       </c>
       <c r="D119" t="n">
-        <v>2.33507</v>
+        <v>2.34218</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.419325</v>
+        <v>0.403956</v>
       </c>
       <c r="C2" t="n">
-        <v>0.300173</v>
+        <v>0.30034</v>
       </c>
       <c r="D2" t="n">
-        <v>0.322346</v>
+        <v>0.321808</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.423364</v>
+        <v>0.414925</v>
       </c>
       <c r="C3" t="n">
-        <v>0.306858</v>
+        <v>0.306121</v>
       </c>
       <c r="D3" t="n">
-        <v>0.330189</v>
+        <v>0.327412</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.434468</v>
+        <v>0.424121</v>
       </c>
       <c r="C4" t="n">
-        <v>0.313911</v>
+        <v>0.314145</v>
       </c>
       <c r="D4" t="n">
-        <v>0.337183</v>
+        <v>0.333278</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.446234</v>
+        <v>0.434841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.319405</v>
+        <v>0.319593</v>
       </c>
       <c r="D5" t="n">
-        <v>0.343852</v>
+        <v>0.340088</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.459071</v>
+        <v>0.44705</v>
       </c>
       <c r="C6" t="n">
-        <v>0.324417</v>
+        <v>0.324613</v>
       </c>
       <c r="D6" t="n">
-        <v>0.349189</v>
+        <v>0.345207</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.467888</v>
+        <v>0.455998</v>
       </c>
       <c r="C7" t="n">
-        <v>0.265318</v>
+        <v>0.263882</v>
       </c>
       <c r="D7" t="n">
-        <v>0.290667</v>
+        <v>0.287338</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.352828</v>
+        <v>0.347739</v>
       </c>
       <c r="C8" t="n">
-        <v>0.273077</v>
+        <v>0.271486</v>
       </c>
       <c r="D8" t="n">
-        <v>0.300628</v>
+        <v>0.297372</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.364932</v>
+        <v>0.358956</v>
       </c>
       <c r="C9" t="n">
-        <v>0.279371</v>
+        <v>0.280202</v>
       </c>
       <c r="D9" t="n">
-        <v>0.30736</v>
+        <v>0.30455</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.375274</v>
+        <v>0.371293</v>
       </c>
       <c r="C10" t="n">
-        <v>0.288277</v>
+        <v>0.288864</v>
       </c>
       <c r="D10" t="n">
-        <v>0.318781</v>
+        <v>0.316884</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.389663</v>
+        <v>0.386119</v>
       </c>
       <c r="C11" t="n">
-        <v>0.298281</v>
+        <v>0.298973</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3283</v>
+        <v>0.324184</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.397495</v>
+        <v>0.399775</v>
       </c>
       <c r="C12" t="n">
-        <v>0.306634</v>
+        <v>0.30867</v>
       </c>
       <c r="D12" t="n">
-        <v>0.336045</v>
+        <v>0.334356</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.410187</v>
+        <v>0.41064</v>
       </c>
       <c r="C13" t="n">
-        <v>0.314436</v>
+        <v>0.320119</v>
       </c>
       <c r="D13" t="n">
-        <v>0.346369</v>
+        <v>0.344144</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.423088</v>
+        <v>0.42114</v>
       </c>
       <c r="C14" t="n">
-        <v>0.32317</v>
+        <v>0.325574</v>
       </c>
       <c r="D14" t="n">
-        <v>0.356309</v>
+        <v>0.353876</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.435024</v>
+        <v>0.43327</v>
       </c>
       <c r="C15" t="n">
-        <v>0.329574</v>
+        <v>0.331888</v>
       </c>
       <c r="D15" t="n">
-        <v>0.363819</v>
+        <v>0.362982</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.446954</v>
+        <v>0.447685</v>
       </c>
       <c r="C16" t="n">
-        <v>0.336944</v>
+        <v>0.339707</v>
       </c>
       <c r="D16" t="n">
-        <v>0.374086</v>
+        <v>0.37432</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.459588</v>
+        <v>0.460662</v>
       </c>
       <c r="C17" t="n">
-        <v>0.342828</v>
+        <v>0.348137</v>
       </c>
       <c r="D17" t="n">
-        <v>0.382066</v>
+        <v>0.381447</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.47023</v>
+        <v>0.471557</v>
       </c>
       <c r="C18" t="n">
-        <v>0.349074</v>
+        <v>0.354632</v>
       </c>
       <c r="D18" t="n">
-        <v>0.389103</v>
+        <v>0.389403</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.483435</v>
+        <v>0.484903</v>
       </c>
       <c r="C19" t="n">
-        <v>0.355839</v>
+        <v>0.361262</v>
       </c>
       <c r="D19" t="n">
-        <v>0.398496</v>
+        <v>0.397533</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.49458</v>
+        <v>0.497001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.363946</v>
+        <v>0.369694</v>
       </c>
       <c r="D20" t="n">
-        <v>0.405732</v>
+        <v>0.405866</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5073220000000001</v>
+        <v>0.510006</v>
       </c>
       <c r="C21" t="n">
-        <v>0.288708</v>
+        <v>0.291182</v>
       </c>
       <c r="D21" t="n">
-        <v>0.313398</v>
+        <v>0.316063</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.391848</v>
+        <v>0.393595</v>
       </c>
       <c r="C22" t="n">
-        <v>0.295939</v>
+        <v>0.299326</v>
       </c>
       <c r="D22" t="n">
-        <v>0.323191</v>
+        <v>0.326441</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.403063</v>
+        <v>0.404586</v>
       </c>
       <c r="C23" t="n">
-        <v>0.304882</v>
+        <v>0.307404</v>
       </c>
       <c r="D23" t="n">
-        <v>0.333639</v>
+        <v>0.336366</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.413211</v>
+        <v>0.414818</v>
       </c>
       <c r="C24" t="n">
-        <v>0.312671</v>
+        <v>0.316233</v>
       </c>
       <c r="D24" t="n">
-        <v>0.34327</v>
+        <v>0.345399</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.424667</v>
+        <v>0.427667</v>
       </c>
       <c r="C25" t="n">
-        <v>0.321238</v>
+        <v>0.325133</v>
       </c>
       <c r="D25" t="n">
-        <v>0.354582</v>
+        <v>0.356318</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.436046</v>
+        <v>0.438707</v>
       </c>
       <c r="C26" t="n">
-        <v>0.329574</v>
+        <v>0.33357</v>
       </c>
       <c r="D26" t="n">
-        <v>0.364572</v>
+        <v>0.366807</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.448024</v>
+        <v>0.450381</v>
       </c>
       <c r="C27" t="n">
-        <v>0.337297</v>
+        <v>0.340621</v>
       </c>
       <c r="D27" t="n">
-        <v>0.375704</v>
+        <v>0.378357</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.460913</v>
+        <v>0.463444</v>
       </c>
       <c r="C28" t="n">
-        <v>0.345736</v>
+        <v>0.34944</v>
       </c>
       <c r="D28" t="n">
-        <v>0.385362</v>
+        <v>0.388057</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.473294</v>
+        <v>0.476101</v>
       </c>
       <c r="C29" t="n">
-        <v>0.353904</v>
+        <v>0.357891</v>
       </c>
       <c r="D29" t="n">
-        <v>0.397168</v>
+        <v>0.398651</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.484245</v>
+        <v>0.485046</v>
       </c>
       <c r="C30" t="n">
-        <v>0.36036</v>
+        <v>0.365348</v>
       </c>
       <c r="D30" t="n">
-        <v>0.406052</v>
+        <v>0.410214</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.494433</v>
+        <v>0.498412</v>
       </c>
       <c r="C31" t="n">
-        <v>0.367478</v>
+        <v>0.372924</v>
       </c>
       <c r="D31" t="n">
-        <v>0.415459</v>
+        <v>0.41752</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.506277</v>
+        <v>0.506472</v>
       </c>
       <c r="C32" t="n">
-        <v>0.374584</v>
+        <v>0.380661</v>
       </c>
       <c r="D32" t="n">
-        <v>0.425374</v>
+        <v>0.427062</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.518298</v>
+        <v>0.522257</v>
       </c>
       <c r="C33" t="n">
-        <v>0.380557</v>
+        <v>0.388116</v>
       </c>
       <c r="D33" t="n">
-        <v>0.433622</v>
+        <v>0.435198</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.529381</v>
+        <v>0.533627</v>
       </c>
       <c r="C34" t="n">
-        <v>0.387567</v>
+        <v>0.395903</v>
       </c>
       <c r="D34" t="n">
-        <v>0.443035</v>
+        <v>0.444959</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.541568</v>
+        <v>0.545806</v>
       </c>
       <c r="C35" t="n">
-        <v>0.30549</v>
+        <v>0.307445</v>
       </c>
       <c r="D35" t="n">
-        <v>0.335952</v>
+        <v>0.337902</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.411356</v>
+        <v>0.413809</v>
       </c>
       <c r="C36" t="n">
-        <v>0.313827</v>
+        <v>0.315072</v>
       </c>
       <c r="D36" t="n">
-        <v>0.347126</v>
+        <v>0.349407</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.422172</v>
+        <v>0.425372</v>
       </c>
       <c r="C37" t="n">
-        <v>0.321749</v>
+        <v>0.322758</v>
       </c>
       <c r="D37" t="n">
-        <v>0.355933</v>
+        <v>0.35797</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.433137</v>
+        <v>0.436315</v>
       </c>
       <c r="C38" t="n">
-        <v>0.330029</v>
+        <v>0.332666</v>
       </c>
       <c r="D38" t="n">
-        <v>0.366945</v>
+        <v>0.37008</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.443074</v>
+        <v>0.444911</v>
       </c>
       <c r="C39" t="n">
-        <v>0.338295</v>
+        <v>0.339726</v>
       </c>
       <c r="D39" t="n">
-        <v>0.379256</v>
+        <v>0.379663</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.454333</v>
+        <v>0.458911</v>
       </c>
       <c r="C40" t="n">
-        <v>0.34598</v>
+        <v>0.348399</v>
       </c>
       <c r="D40" t="n">
-        <v>0.387912</v>
+        <v>0.3905</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.46815</v>
+        <v>0.469933</v>
       </c>
       <c r="C41" t="n">
-        <v>0.354163</v>
+        <v>0.357473</v>
       </c>
       <c r="D41" t="n">
-        <v>0.398719</v>
+        <v>0.401534</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.478475</v>
+        <v>0.482382</v>
       </c>
       <c r="C42" t="n">
-        <v>0.361758</v>
+        <v>0.365395</v>
       </c>
       <c r="D42" t="n">
-        <v>0.408757</v>
+        <v>0.410244</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.490097</v>
+        <v>0.494863</v>
       </c>
       <c r="C43" t="n">
-        <v>0.368371</v>
+        <v>0.373604</v>
       </c>
       <c r="D43" t="n">
-        <v>0.41939</v>
+        <v>0.421063</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.501575</v>
+        <v>0.506486</v>
       </c>
       <c r="C44" t="n">
-        <v>0.375451</v>
+        <v>0.381273</v>
       </c>
       <c r="D44" t="n">
-        <v>0.42932</v>
+        <v>0.431044</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.512805</v>
+        <v>0.517425</v>
       </c>
       <c r="C45" t="n">
-        <v>0.382316</v>
+        <v>0.387849</v>
       </c>
       <c r="D45" t="n">
-        <v>0.43891</v>
+        <v>0.440374</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.523467</v>
+        <v>0.528652</v>
       </c>
       <c r="C46" t="n">
-        <v>0.388256</v>
+        <v>0.394721</v>
       </c>
       <c r="D46" t="n">
-        <v>0.447417</v>
+        <v>0.448184</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.535434</v>
+        <v>0.540482</v>
       </c>
       <c r="C47" t="n">
-        <v>0.394252</v>
+        <v>0.401232</v>
       </c>
       <c r="D47" t="n">
-        <v>0.455741</v>
+        <v>0.45739</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.54656</v>
+        <v>0.552969</v>
       </c>
       <c r="C48" t="n">
-        <v>0.400669</v>
+        <v>0.407999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.464929</v>
+        <v>0.465646</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.558743</v>
+        <v>0.564761</v>
       </c>
       <c r="C49" t="n">
-        <v>0.407889</v>
+        <v>0.416119</v>
       </c>
       <c r="D49" t="n">
-        <v>0.474976</v>
+        <v>0.474879</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.573805</v>
+        <v>0.577356</v>
       </c>
       <c r="C50" t="n">
-        <v>0.321262</v>
+        <v>0.321378</v>
       </c>
       <c r="D50" t="n">
-        <v>0.347318</v>
+        <v>0.348051</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.429626</v>
+        <v>0.431855</v>
       </c>
       <c r="C51" t="n">
-        <v>0.329352</v>
+        <v>0.329693</v>
       </c>
       <c r="D51" t="n">
-        <v>0.358375</v>
+        <v>0.359325</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.440898</v>
+        <v>0.444085</v>
       </c>
       <c r="C52" t="n">
-        <v>0.33776</v>
+        <v>0.33852</v>
       </c>
       <c r="D52" t="n">
-        <v>0.369552</v>
+        <v>0.370119</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.453555</v>
+        <v>0.455874</v>
       </c>
       <c r="C53" t="n">
-        <v>0.346054</v>
+        <v>0.34742</v>
       </c>
       <c r="D53" t="n">
-        <v>0.380208</v>
+        <v>0.380936</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.464312</v>
+        <v>0.467873</v>
       </c>
       <c r="C54" t="n">
-        <v>0.354587</v>
+        <v>0.356385</v>
       </c>
       <c r="D54" t="n">
-        <v>0.391591</v>
+        <v>0.392163</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.478299</v>
+        <v>0.479498</v>
       </c>
       <c r="C55" t="n">
-        <v>0.362422</v>
+        <v>0.365214</v>
       </c>
       <c r="D55" t="n">
-        <v>0.403174</v>
+        <v>0.403125</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.48825</v>
+        <v>0.491894</v>
       </c>
       <c r="C56" t="n">
-        <v>0.370092</v>
+        <v>0.373662</v>
       </c>
       <c r="D56" t="n">
-        <v>0.413969</v>
+        <v>0.415206</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.499127</v>
+        <v>0.503896</v>
       </c>
       <c r="C57" t="n">
-        <v>0.376949</v>
+        <v>0.381266</v>
       </c>
       <c r="D57" t="n">
-        <v>0.425351</v>
+        <v>0.424661</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.509672</v>
+        <v>0.515133</v>
       </c>
       <c r="C58" t="n">
-        <v>0.38306</v>
+        <v>0.389469</v>
       </c>
       <c r="D58" t="n">
-        <v>0.432783</v>
+        <v>0.433605</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.520298</v>
+        <v>0.526548</v>
       </c>
       <c r="C59" t="n">
-        <v>0.389495</v>
+        <v>0.39518</v>
       </c>
       <c r="D59" t="n">
-        <v>0.441804</v>
+        <v>0.442527</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.531299</v>
+        <v>0.533277</v>
       </c>
       <c r="C60" t="n">
-        <v>0.395655</v>
+        <v>0.402022</v>
       </c>
       <c r="D60" t="n">
-        <v>0.451427</v>
+        <v>0.4521</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5437650000000001</v>
+        <v>0.549484</v>
       </c>
       <c r="C61" t="n">
-        <v>0.40153</v>
+        <v>0.408627</v>
       </c>
       <c r="D61" t="n">
-        <v>0.460252</v>
+        <v>0.460641</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.55514</v>
+        <v>0.561465</v>
       </c>
       <c r="C62" t="n">
-        <v>0.40753</v>
+        <v>0.415639</v>
       </c>
       <c r="D62" t="n">
-        <v>0.468779</v>
+        <v>0.469419</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.566934</v>
+        <v>0.573581</v>
       </c>
       <c r="C63" t="n">
-        <v>0.414449</v>
+        <v>0.422977</v>
       </c>
       <c r="D63" t="n">
-        <v>0.478362</v>
+        <v>0.479524</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.578892</v>
+        <v>0.586235</v>
       </c>
       <c r="C64" t="n">
-        <v>0.333761</v>
+        <v>0.334136</v>
       </c>
       <c r="D64" t="n">
-        <v>0.368792</v>
+        <v>0.367527</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.465084</v>
+        <v>0.462768</v>
       </c>
       <c r="C65" t="n">
-        <v>0.34516</v>
+        <v>0.343319</v>
       </c>
       <c r="D65" t="n">
-        <v>0.384602</v>
+        <v>0.380661</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.477147</v>
+        <v>0.48016</v>
       </c>
       <c r="C66" t="n">
-        <v>0.355155</v>
+        <v>0.354314</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3958</v>
+        <v>0.393888</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.497098</v>
+        <v>0.49393</v>
       </c>
       <c r="C67" t="n">
-        <v>0.366892</v>
+        <v>0.365888</v>
       </c>
       <c r="D67" t="n">
-        <v>0.409991</v>
+        <v>0.40614</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.516299</v>
+        <v>0.515076</v>
       </c>
       <c r="C68" t="n">
-        <v>0.37913</v>
+        <v>0.377256</v>
       </c>
       <c r="D68" t="n">
-        <v>0.427013</v>
+        <v>0.42142</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.540285</v>
+        <v>0.530246</v>
       </c>
       <c r="C69" t="n">
-        <v>0.39022</v>
+        <v>0.390976</v>
       </c>
       <c r="D69" t="n">
-        <v>0.441868</v>
+        <v>0.436586</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.559882</v>
+        <v>0.559076</v>
       </c>
       <c r="C70" t="n">
-        <v>0.402711</v>
+        <v>0.40442</v>
       </c>
       <c r="D70" t="n">
-        <v>0.457836</v>
+        <v>0.455675</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.583822</v>
+        <v>0.587257</v>
       </c>
       <c r="C71" t="n">
-        <v>0.418206</v>
+        <v>0.418387</v>
       </c>
       <c r="D71" t="n">
-        <v>0.476518</v>
+        <v>0.472658</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.611226</v>
+        <v>0.621048</v>
       </c>
       <c r="C72" t="n">
-        <v>0.432337</v>
+        <v>0.436196</v>
       </c>
       <c r="D72" t="n">
-        <v>0.493307</v>
+        <v>0.493497</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.635292</v>
+        <v>0.647542</v>
       </c>
       <c r="C73" t="n">
-        <v>0.446062</v>
+        <v>0.450681</v>
       </c>
       <c r="D73" t="n">
-        <v>0.511957</v>
+        <v>0.512653</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.668111</v>
+        <v>0.68968</v>
       </c>
       <c r="C74" t="n">
-        <v>0.462977</v>
+        <v>0.47324</v>
       </c>
       <c r="D74" t="n">
-        <v>0.534235</v>
+        <v>0.535551</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.703478</v>
+        <v>0.732256</v>
       </c>
       <c r="C75" t="n">
-        <v>0.481752</v>
+        <v>0.493697</v>
       </c>
       <c r="D75" t="n">
-        <v>0.555099</v>
+        <v>0.5628919999999999</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.731206</v>
+        <v>0.7822519999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.498831</v>
+        <v>0.522407</v>
       </c>
       <c r="D76" t="n">
-        <v>0.577636</v>
+        <v>0.592946</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.774043</v>
+        <v>0.834991</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5218</v>
+        <v>0.550058</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6050450000000001</v>
+        <v>0.629008</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8190460000000001</v>
+        <v>0.90134</v>
       </c>
       <c r="C78" t="n">
-        <v>0.457935</v>
+        <v>0.484597</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5132139999999999</v>
+        <v>0.541689</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8063360000000001</v>
+        <v>0.868071</v>
       </c>
       <c r="C79" t="n">
-        <v>0.483744</v>
+        <v>0.511852</v>
       </c>
       <c r="D79" t="n">
-        <v>0.538505</v>
+        <v>0.578479</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8507169999999999</v>
+        <v>0.923415</v>
       </c>
       <c r="C80" t="n">
-        <v>0.510184</v>
+        <v>0.541851</v>
       </c>
       <c r="D80" t="n">
-        <v>0.569249</v>
+        <v>0.610311</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.893153</v>
+        <v>0.978573</v>
       </c>
       <c r="C81" t="n">
-        <v>0.538918</v>
+        <v>0.575534</v>
       </c>
       <c r="D81" t="n">
-        <v>0.602003</v>
+        <v>0.643319</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.942203</v>
+        <v>1.03067</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5702700000000001</v>
+        <v>0.612999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.637172</v>
+        <v>0.676183</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.992602</v>
+        <v>1.08844</v>
       </c>
       <c r="C83" t="n">
-        <v>0.603471</v>
+        <v>0.650965</v>
       </c>
       <c r="D83" t="n">
-        <v>0.673759</v>
+        <v>0.717729</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.06205</v>
+        <v>1.1886</v>
       </c>
       <c r="C84" t="n">
-        <v>0.636777</v>
+        <v>0.689295</v>
       </c>
       <c r="D84" t="n">
-        <v>0.719241</v>
+        <v>0.767829</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.10074</v>
+        <v>1.21506</v>
       </c>
       <c r="C85" t="n">
-        <v>0.67199</v>
+        <v>0.729294</v>
       </c>
       <c r="D85" t="n">
-        <v>0.757843</v>
+        <v>0.810842</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.15694</v>
+        <v>1.28198</v>
       </c>
       <c r="C86" t="n">
-        <v>0.708832</v>
+        <v>0.771578</v>
       </c>
       <c r="D86" t="n">
-        <v>0.800458</v>
+        <v>0.858572</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.21521</v>
+        <v>1.34953</v>
       </c>
       <c r="C87" t="n">
-        <v>0.74622</v>
+        <v>0.813656</v>
       </c>
       <c r="D87" t="n">
-        <v>0.838228</v>
+        <v>0.898845</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.27397</v>
+        <v>1.41726</v>
       </c>
       <c r="C88" t="n">
-        <v>0.783679</v>
+        <v>0.857198</v>
       </c>
       <c r="D88" t="n">
-        <v>0.878853</v>
+        <v>0.945519</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.33346</v>
+        <v>1.48691</v>
       </c>
       <c r="C89" t="n">
-        <v>0.821675</v>
+        <v>0.9014180000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.920481</v>
+        <v>0.993222</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.39692</v>
+        <v>1.56503</v>
       </c>
       <c r="C90" t="n">
-        <v>0.862043</v>
+        <v>0.9491540000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.963618</v>
+        <v>1.04212</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.46277</v>
+        <v>1.64673</v>
       </c>
       <c r="C91" t="n">
-        <v>0.903847</v>
+        <v>0.997621</v>
       </c>
       <c r="D91" t="n">
-        <v>1.00847</v>
+        <v>1.09242</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.53426</v>
+        <v>1.72801</v>
       </c>
       <c r="C92" t="n">
-        <v>0.790228</v>
+        <v>0.868228</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9054759999999999</v>
+        <v>0.987044</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.35096</v>
+        <v>1.50128</v>
       </c>
       <c r="C93" t="n">
-        <v>0.817973</v>
+        <v>0.899222</v>
       </c>
       <c r="D93" t="n">
-        <v>0.950422</v>
+        <v>1.0344</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.38881</v>
+        <v>1.54652</v>
       </c>
       <c r="C94" t="n">
-        <v>0.847124</v>
+        <v>0.931971</v>
       </c>
       <c r="D94" t="n">
-        <v>0.98063</v>
+        <v>1.06964</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.43074</v>
+        <v>1.59211</v>
       </c>
       <c r="C95" t="n">
-        <v>0.877474</v>
+        <v>0.9659990000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>1.00743</v>
+        <v>1.09912</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.47073</v>
+        <v>1.64054</v>
       </c>
       <c r="C96" t="n">
-        <v>0.908591</v>
+        <v>1.00182</v>
       </c>
       <c r="D96" t="n">
-        <v>1.04041</v>
+        <v>1.13569</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.51337</v>
+        <v>1.69079</v>
       </c>
       <c r="C97" t="n">
-        <v>0.941252</v>
+        <v>1.0389</v>
       </c>
       <c r="D97" t="n">
-        <v>1.10005</v>
+        <v>1.20256</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.55871</v>
+        <v>1.74517</v>
       </c>
       <c r="C98" t="n">
-        <v>0.973624</v>
+        <v>1.07635</v>
       </c>
       <c r="D98" t="n">
-        <v>1.12892</v>
+        <v>1.2344</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.60637</v>
+        <v>1.8056</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00749</v>
+        <v>1.11552</v>
       </c>
       <c r="D99" t="n">
-        <v>1.17181</v>
+        <v>1.28274</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.65471</v>
+        <v>1.8605</v>
       </c>
       <c r="C100" t="n">
-        <v>1.04164</v>
+        <v>1.15551</v>
       </c>
       <c r="D100" t="n">
-        <v>1.21697</v>
+        <v>1.33586</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.7055</v>
+        <v>1.91361</v>
       </c>
       <c r="C101" t="n">
-        <v>1.07719</v>
+        <v>1.19583</v>
       </c>
       <c r="D101" t="n">
-        <v>1.26166</v>
+        <v>1.38586</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.75665</v>
+        <v>1.96962</v>
       </c>
       <c r="C102" t="n">
-        <v>1.11517</v>
+        <v>1.23706</v>
       </c>
       <c r="D102" t="n">
-        <v>1.30539</v>
+        <v>1.43541</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.813</v>
+        <v>2.0479</v>
       </c>
       <c r="C103" t="n">
-        <v>1.15272</v>
+        <v>1.28108</v>
       </c>
       <c r="D103" t="n">
-        <v>1.35243</v>
+        <v>1.4884</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.87167</v>
+        <v>2.10746</v>
       </c>
       <c r="C104" t="n">
-        <v>1.19138</v>
+        <v>1.32337</v>
       </c>
       <c r="D104" t="n">
-        <v>1.40062</v>
+        <v>1.54184</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.93429</v>
+        <v>2.18749</v>
       </c>
       <c r="C105" t="n">
-        <v>1.23305</v>
+        <v>1.37044</v>
       </c>
       <c r="D105" t="n">
-        <v>1.45171</v>
+        <v>1.59753</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.00027</v>
+        <v>2.25975</v>
       </c>
       <c r="C106" t="n">
-        <v>1.27566</v>
+        <v>1.42088</v>
       </c>
       <c r="D106" t="n">
-        <v>1.50472</v>
+        <v>1.6572</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.62158</v>
+        <v>1.78176</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03463</v>
+        <v>1.1348</v>
       </c>
       <c r="D107" t="n">
-        <v>1.26077</v>
+        <v>1.40716</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.6709</v>
+        <v>1.81642</v>
       </c>
       <c r="C108" t="n">
-        <v>1.06268</v>
+        <v>1.15508</v>
       </c>
       <c r="D108" t="n">
-        <v>1.29556</v>
+        <v>1.44156</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.70917</v>
+        <v>1.85923</v>
       </c>
       <c r="C109" t="n">
-        <v>1.09212</v>
+        <v>1.18327</v>
       </c>
       <c r="D109" t="n">
-        <v>1.34448</v>
+        <v>1.49012</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.74613</v>
+        <v>1.89783</v>
       </c>
       <c r="C110" t="n">
-        <v>1.11992</v>
+        <v>1.21686</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38135</v>
+        <v>1.53581</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.77483</v>
+        <v>1.93926</v>
       </c>
       <c r="C111" t="n">
-        <v>1.13817</v>
+        <v>1.24846</v>
       </c>
       <c r="D111" t="n">
-        <v>1.39205</v>
+        <v>1.56859</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.81508</v>
+        <v>1.98519</v>
       </c>
       <c r="C112" t="n">
-        <v>1.17087</v>
+        <v>1.28296</v>
       </c>
       <c r="D112" t="n">
-        <v>1.4352</v>
+        <v>1.61407</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.85756</v>
+        <v>2.02732</v>
       </c>
       <c r="C113" t="n">
-        <v>1.20058</v>
+        <v>1.31832</v>
       </c>
       <c r="D113" t="n">
-        <v>1.47911</v>
+        <v>1.66542</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.90147</v>
+        <v>2.08044</v>
       </c>
       <c r="C114" t="n">
-        <v>1.23606</v>
+        <v>1.35491</v>
       </c>
       <c r="D114" t="n">
-        <v>1.51365</v>
+        <v>1.70262</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.95672</v>
+        <v>2.12942</v>
       </c>
       <c r="C115" t="n">
-        <v>1.27547</v>
+        <v>1.39307</v>
       </c>
       <c r="D115" t="n">
-        <v>1.58338</v>
+        <v>1.76221</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.00574</v>
+        <v>2.18637</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31503</v>
+        <v>1.43221</v>
       </c>
       <c r="D116" t="n">
-        <v>1.62761</v>
+        <v>1.80872</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.05964</v>
+        <v>2.24831</v>
       </c>
       <c r="C117" t="n">
-        <v>1.34809</v>
+        <v>1.47221</v>
       </c>
       <c r="D117" t="n">
-        <v>1.6735</v>
+        <v>1.86684</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.11636</v>
+        <v>2.30441</v>
       </c>
       <c r="C118" t="n">
-        <v>1.37659</v>
+        <v>1.51345</v>
       </c>
       <c r="D118" t="n">
-        <v>1.71564</v>
+        <v>1.91212</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.16692</v>
+        <v>2.36654</v>
       </c>
       <c r="C119" t="n">
-        <v>1.4209</v>
+        <v>1.55622</v>
       </c>
       <c r="D119" t="n">
-        <v>1.76415</v>
+        <v>1.96997</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.283752</v>
+        <v>0.283306</v>
       </c>
       <c r="C2" t="n">
-        <v>0.207613</v>
+        <v>0.217659</v>
       </c>
       <c r="D2" t="n">
-        <v>0.181228</v>
+        <v>0.181834</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.290846</v>
+        <v>0.292764</v>
       </c>
       <c r="C3" t="n">
-        <v>0.212701</v>
+        <v>0.222507</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183837</v>
+        <v>0.18401</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.298717</v>
+        <v>0.300162</v>
       </c>
       <c r="C4" t="n">
-        <v>0.219253</v>
+        <v>0.228538</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18652</v>
+        <v>0.18679</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.310573</v>
+        <v>0.310714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.227131</v>
+        <v>0.234207</v>
       </c>
       <c r="D5" t="n">
-        <v>0.190784</v>
+        <v>0.189798</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.323437</v>
+        <v>0.321503</v>
       </c>
       <c r="C6" t="n">
-        <v>0.234573</v>
+        <v>0.23869</v>
       </c>
       <c r="D6" t="n">
-        <v>0.191498</v>
+        <v>0.191668</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.334963</v>
+        <v>0.328282</v>
       </c>
       <c r="C7" t="n">
-        <v>0.200209</v>
+        <v>0.204513</v>
       </c>
       <c r="D7" t="n">
-        <v>0.178893</v>
+        <v>0.181969</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.256526</v>
+        <v>0.25722</v>
       </c>
       <c r="C8" t="n">
-        <v>0.202709</v>
+        <v>0.207748</v>
       </c>
       <c r="D8" t="n">
-        <v>0.181348</v>
+        <v>0.183668</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.265117</v>
+        <v>0.262453</v>
       </c>
       <c r="C9" t="n">
-        <v>0.210652</v>
+        <v>0.213245</v>
       </c>
       <c r="D9" t="n">
-        <v>0.184388</v>
+        <v>0.185622</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.269318</v>
+        <v>0.270309</v>
       </c>
       <c r="C10" t="n">
-        <v>0.214833</v>
+        <v>0.219006</v>
       </c>
       <c r="D10" t="n">
-        <v>0.186886</v>
+        <v>0.187677</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.277147</v>
+        <v>0.277521</v>
       </c>
       <c r="C11" t="n">
-        <v>0.218913</v>
+        <v>0.223489</v>
       </c>
       <c r="D11" t="n">
-        <v>0.18915</v>
+        <v>0.190572</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286509</v>
+        <v>0.285055</v>
       </c>
       <c r="C12" t="n">
-        <v>0.224315</v>
+        <v>0.230749</v>
       </c>
       <c r="D12" t="n">
-        <v>0.191645</v>
+        <v>0.193322</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.285158</v>
+        <v>0.288474</v>
       </c>
       <c r="C13" t="n">
-        <v>0.231678</v>
+        <v>0.237492</v>
       </c>
       <c r="D13" t="n">
-        <v>0.194695</v>
+        <v>0.195762</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.301003</v>
+        <v>0.303169</v>
       </c>
       <c r="C14" t="n">
-        <v>0.236629</v>
+        <v>0.244896</v>
       </c>
       <c r="D14" t="n">
-        <v>0.197334</v>
+        <v>0.19978</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.308717</v>
+        <v>0.31005</v>
       </c>
       <c r="C15" t="n">
-        <v>0.244018</v>
+        <v>0.252611</v>
       </c>
       <c r="D15" t="n">
-        <v>0.20202</v>
+        <v>0.202459</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.319829</v>
+        <v>0.319276</v>
       </c>
       <c r="C16" t="n">
-        <v>0.252935</v>
+        <v>0.262376</v>
       </c>
       <c r="D16" t="n">
-        <v>0.206274</v>
+        <v>0.206884</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.330793</v>
+        <v>0.332922</v>
       </c>
       <c r="C17" t="n">
-        <v>0.259374</v>
+        <v>0.268949</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210684</v>
+        <v>0.210537</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.339756</v>
+        <v>0.342081</v>
       </c>
       <c r="C18" t="n">
-        <v>0.26812</v>
+        <v>0.278493</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209395</v>
+        <v>0.212048</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.351116</v>
+        <v>0.353044</v>
       </c>
       <c r="C19" t="n">
-        <v>0.277071</v>
+        <v>0.287828</v>
       </c>
       <c r="D19" t="n">
-        <v>0.218895</v>
+        <v>0.219521</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.365864</v>
+        <v>0.367497</v>
       </c>
       <c r="C20" t="n">
-        <v>0.289981</v>
+        <v>0.300487</v>
       </c>
       <c r="D20" t="n">
-        <v>0.224722</v>
+        <v>0.224246</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.378214</v>
+        <v>0.380544</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234858</v>
+        <v>0.242073</v>
       </c>
       <c r="D21" t="n">
-        <v>0.203757</v>
+        <v>0.204126</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.294617</v>
+        <v>0.295604</v>
       </c>
       <c r="C22" t="n">
-        <v>0.24068</v>
+        <v>0.247956</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206473</v>
+        <v>0.206561</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.301887</v>
+        <v>0.302799</v>
       </c>
       <c r="C23" t="n">
-        <v>0.24688</v>
+        <v>0.254644</v>
       </c>
       <c r="D23" t="n">
-        <v>0.209973</v>
+        <v>0.210355</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.309908</v>
+        <v>0.310546</v>
       </c>
       <c r="C24" t="n">
-        <v>0.252075</v>
+        <v>0.259923</v>
       </c>
       <c r="D24" t="n">
-        <v>0.213339</v>
+        <v>0.213639</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.317101</v>
+        <v>0.317678</v>
       </c>
       <c r="C25" t="n">
-        <v>0.259113</v>
+        <v>0.266564</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216297</v>
+        <v>0.217068</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.326096</v>
+        <v>0.326457</v>
       </c>
       <c r="C26" t="n">
-        <v>0.266475</v>
+        <v>0.27441</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220821</v>
+        <v>0.221262</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.327915</v>
+        <v>0.333422</v>
       </c>
       <c r="C27" t="n">
-        <v>0.270476</v>
+        <v>0.279275</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224551</v>
+        <v>0.224354</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.341874</v>
+        <v>0.343421</v>
       </c>
       <c r="C28" t="n">
-        <v>0.277856</v>
+        <v>0.287279</v>
       </c>
       <c r="D28" t="n">
-        <v>0.227885</v>
+        <v>0.228411</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.351421</v>
+        <v>0.35298</v>
       </c>
       <c r="C29" t="n">
-        <v>0.285329</v>
+        <v>0.294294</v>
       </c>
       <c r="D29" t="n">
-        <v>0.231954</v>
+        <v>0.232514</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.360474</v>
+        <v>0.362946</v>
       </c>
       <c r="C30" t="n">
-        <v>0.293575</v>
+        <v>0.302497</v>
       </c>
       <c r="D30" t="n">
-        <v>0.235911</v>
+        <v>0.236497</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.371449</v>
+        <v>0.373131</v>
       </c>
       <c r="C31" t="n">
-        <v>0.299542</v>
+        <v>0.310122</v>
       </c>
       <c r="D31" t="n">
-        <v>0.239528</v>
+        <v>0.2406</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.380675</v>
+        <v>0.383552</v>
       </c>
       <c r="C32" t="n">
-        <v>0.309401</v>
+        <v>0.32003</v>
       </c>
       <c r="D32" t="n">
-        <v>0.244023</v>
+        <v>0.245929</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.393816</v>
+        <v>0.396029</v>
       </c>
       <c r="C33" t="n">
-        <v>0.317678</v>
+        <v>0.328921</v>
       </c>
       <c r="D33" t="n">
-        <v>0.247931</v>
+        <v>0.250692</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.405858</v>
+        <v>0.408317</v>
       </c>
       <c r="C34" t="n">
-        <v>0.327629</v>
+        <v>0.339055</v>
       </c>
       <c r="D34" t="n">
-        <v>0.254477</v>
+        <v>0.254909</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.419136</v>
+        <v>0.422003</v>
       </c>
       <c r="C35" t="n">
-        <v>0.253034</v>
+        <v>0.259814</v>
       </c>
       <c r="D35" t="n">
-        <v>0.227001</v>
+        <v>0.226882</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.315854</v>
+        <v>0.316176</v>
       </c>
       <c r="C36" t="n">
-        <v>0.25967</v>
+        <v>0.267093</v>
       </c>
       <c r="D36" t="n">
-        <v>0.230317</v>
+        <v>0.230338</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322562</v>
+        <v>0.322492</v>
       </c>
       <c r="C37" t="n">
-        <v>0.264987</v>
+        <v>0.272527</v>
       </c>
       <c r="D37" t="n">
-        <v>0.233559</v>
+        <v>0.233351</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.330925</v>
+        <v>0.330612</v>
       </c>
       <c r="C38" t="n">
-        <v>0.272229</v>
+        <v>0.279504</v>
       </c>
       <c r="D38" t="n">
-        <v>0.237374</v>
+        <v>0.236852</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.336661</v>
+        <v>0.336486</v>
       </c>
       <c r="C39" t="n">
-        <v>0.277729</v>
+        <v>0.285494</v>
       </c>
       <c r="D39" t="n">
-        <v>0.239988</v>
+        <v>0.240516</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345853</v>
+        <v>0.346204</v>
       </c>
       <c r="C40" t="n">
-        <v>0.284383</v>
+        <v>0.292191</v>
       </c>
       <c r="D40" t="n">
-        <v>0.244025</v>
+        <v>0.244593</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.354147</v>
+        <v>0.354387</v>
       </c>
       <c r="C41" t="n">
-        <v>0.29078</v>
+        <v>0.29901</v>
       </c>
       <c r="D41" t="n">
-        <v>0.247464</v>
+        <v>0.247697</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.361776</v>
+        <v>0.361954</v>
       </c>
       <c r="C42" t="n">
-        <v>0.296189</v>
+        <v>0.304186</v>
       </c>
       <c r="D42" t="n">
-        <v>0.25111</v>
+        <v>0.251051</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.370664</v>
+        <v>0.370794</v>
       </c>
       <c r="C43" t="n">
-        <v>0.303665</v>
+        <v>0.312582</v>
       </c>
       <c r="D43" t="n">
-        <v>0.254797</v>
+        <v>0.254623</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.380538</v>
+        <v>0.380698</v>
       </c>
       <c r="C44" t="n">
-        <v>0.311787</v>
+        <v>0.320342</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259382</v>
+        <v>0.259106</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.392201</v>
+        <v>0.392214</v>
       </c>
       <c r="C45" t="n">
-        <v>0.319707</v>
+        <v>0.329428</v>
       </c>
       <c r="D45" t="n">
-        <v>0.262569</v>
+        <v>0.264706</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.402715</v>
+        <v>0.402898</v>
       </c>
       <c r="C46" t="n">
-        <v>0.328348</v>
+        <v>0.338535</v>
       </c>
       <c r="D46" t="n">
-        <v>0.266832</v>
+        <v>0.267494</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.412814</v>
+        <v>0.413018</v>
       </c>
       <c r="C47" t="n">
-        <v>0.336296</v>
+        <v>0.346249</v>
       </c>
       <c r="D47" t="n">
-        <v>0.273907</v>
+        <v>0.27356</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.424394</v>
+        <v>0.424441</v>
       </c>
       <c r="C48" t="n">
-        <v>0.34517</v>
+        <v>0.356589</v>
       </c>
       <c r="D48" t="n">
-        <v>0.279286</v>
+        <v>0.278472</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.435292</v>
+        <v>0.435352</v>
       </c>
       <c r="C49" t="n">
-        <v>0.355551</v>
+        <v>0.366752</v>
       </c>
       <c r="D49" t="n">
-        <v>0.283155</v>
+        <v>0.283735</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.449694</v>
+        <v>0.449527</v>
       </c>
       <c r="C50" t="n">
-        <v>0.267051</v>
+        <v>0.274759</v>
       </c>
       <c r="D50" t="n">
-        <v>0.231037</v>
+        <v>0.231672</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.33338</v>
+        <v>0.333741</v>
       </c>
       <c r="C51" t="n">
-        <v>0.272796</v>
+        <v>0.280627</v>
       </c>
       <c r="D51" t="n">
-        <v>0.233988</v>
+        <v>0.234629</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340426</v>
+        <v>0.340807</v>
       </c>
       <c r="C52" t="n">
-        <v>0.278952</v>
+        <v>0.286678</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237611</v>
+        <v>0.238166</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3469</v>
+        <v>0.347607</v>
       </c>
       <c r="C53" t="n">
-        <v>0.285992</v>
+        <v>0.294091</v>
       </c>
       <c r="D53" t="n">
-        <v>0.241599</v>
+        <v>0.242326</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.355102</v>
+        <v>0.355739</v>
       </c>
       <c r="C54" t="n">
-        <v>0.292289</v>
+        <v>0.300464</v>
       </c>
       <c r="D54" t="n">
-        <v>0.245231</v>
+        <v>0.245691</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.364016</v>
+        <v>0.364693</v>
       </c>
       <c r="C55" t="n">
-        <v>0.298728</v>
+        <v>0.307807</v>
       </c>
       <c r="D55" t="n">
-        <v>0.249111</v>
+        <v>0.250013</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.373975</v>
+        <v>0.373856</v>
       </c>
       <c r="C56" t="n">
-        <v>0.304504</v>
+        <v>0.313951</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253098</v>
+        <v>0.253791</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.382409</v>
+        <v>0.383195</v>
       </c>
       <c r="C57" t="n">
-        <v>0.312469</v>
+        <v>0.322296</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257188</v>
+        <v>0.258067</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.392078</v>
+        <v>0.392951</v>
       </c>
       <c r="C58" t="n">
-        <v>0.320208</v>
+        <v>0.330915</v>
       </c>
       <c r="D58" t="n">
-        <v>0.262303</v>
+        <v>0.264017</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403916</v>
+        <v>0.404667</v>
       </c>
       <c r="C59" t="n">
-        <v>0.327474</v>
+        <v>0.337863</v>
       </c>
       <c r="D59" t="n">
-        <v>0.266182</v>
+        <v>0.266963</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.413609</v>
+        <v>0.414109</v>
       </c>
       <c r="C60" t="n">
-        <v>0.334911</v>
+        <v>0.346046</v>
       </c>
       <c r="D60" t="n">
-        <v>0.270315</v>
+        <v>0.271261</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.424221</v>
+        <v>0.425091</v>
       </c>
       <c r="C61" t="n">
-        <v>0.34465</v>
+        <v>0.356418</v>
       </c>
       <c r="D61" t="n">
-        <v>0.276157</v>
+        <v>0.276551</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.435238</v>
+        <v>0.436215</v>
       </c>
       <c r="C62" t="n">
-        <v>0.353201</v>
+        <v>0.365715</v>
       </c>
       <c r="D62" t="n">
-        <v>0.280999</v>
+        <v>0.28146</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.447206</v>
+        <v>0.447828</v>
       </c>
       <c r="C63" t="n">
-        <v>0.363661</v>
+        <v>0.376477</v>
       </c>
       <c r="D63" t="n">
-        <v>0.287149</v>
+        <v>0.287874</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.461571</v>
+        <v>0.46054</v>
       </c>
       <c r="C64" t="n">
-        <v>0.284065</v>
+        <v>0.298037</v>
       </c>
       <c r="D64" t="n">
-        <v>0.245744</v>
+        <v>0.248442</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.358707</v>
+        <v>0.367058</v>
       </c>
       <c r="C65" t="n">
-        <v>0.292523</v>
+        <v>0.305315</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24807</v>
+        <v>0.251752</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.37053</v>
+        <v>0.380305</v>
       </c>
       <c r="C66" t="n">
-        <v>0.303332</v>
+        <v>0.313837</v>
       </c>
       <c r="D66" t="n">
-        <v>0.253985</v>
+        <v>0.255565</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.384854</v>
+        <v>0.392098</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3114</v>
+        <v>0.326807</v>
       </c>
       <c r="D67" t="n">
-        <v>0.259236</v>
+        <v>0.26133</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.395467</v>
+        <v>0.408706</v>
       </c>
       <c r="C68" t="n">
-        <v>0.321863</v>
+        <v>0.338375</v>
       </c>
       <c r="D68" t="n">
-        <v>0.266193</v>
+        <v>0.267586</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.409899</v>
+        <v>0.425862</v>
       </c>
       <c r="C69" t="n">
-        <v>0.333053</v>
+        <v>0.35411</v>
       </c>
       <c r="D69" t="n">
-        <v>0.270494</v>
+        <v>0.272281</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.428757</v>
+        <v>0.437245</v>
       </c>
       <c r="C70" t="n">
-        <v>0.346896</v>
+        <v>0.368585</v>
       </c>
       <c r="D70" t="n">
-        <v>0.276415</v>
+        <v>0.278304</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.450373</v>
+        <v>0.469059</v>
       </c>
       <c r="C71" t="n">
-        <v>0.361413</v>
+        <v>0.384494</v>
       </c>
       <c r="D71" t="n">
-        <v>0.28376</v>
+        <v>0.28812</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.470123</v>
+        <v>0.493018</v>
       </c>
       <c r="C72" t="n">
-        <v>0.376256</v>
+        <v>0.402979</v>
       </c>
       <c r="D72" t="n">
-        <v>0.291568</v>
+        <v>0.296169</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.49254</v>
+        <v>0.522441</v>
       </c>
       <c r="C73" t="n">
-        <v>0.392385</v>
+        <v>0.425807</v>
       </c>
       <c r="D73" t="n">
-        <v>0.299124</v>
+        <v>0.304114</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5192600000000001</v>
+        <v>0.550937</v>
       </c>
       <c r="C74" t="n">
-        <v>0.412569</v>
+        <v>0.44838</v>
       </c>
       <c r="D74" t="n">
-        <v>0.309533</v>
+        <v>0.31637</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.548474</v>
+        <v>0.582189</v>
       </c>
       <c r="C75" t="n">
-        <v>0.432318</v>
+        <v>0.47161</v>
       </c>
       <c r="D75" t="n">
-        <v>0.318187</v>
+        <v>0.32766</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.583853</v>
+        <v>0.61395</v>
       </c>
       <c r="C76" t="n">
-        <v>0.460862</v>
+        <v>0.502726</v>
       </c>
       <c r="D76" t="n">
-        <v>0.330666</v>
+        <v>0.340052</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.624939</v>
+        <v>0.654725</v>
       </c>
       <c r="C77" t="n">
-        <v>0.487908</v>
+        <v>0.53166</v>
       </c>
       <c r="D77" t="n">
-        <v>0.342767</v>
+        <v>0.35258</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6718</v>
+        <v>0.703299</v>
       </c>
       <c r="C78" t="n">
-        <v>0.447357</v>
+        <v>0.45894</v>
       </c>
       <c r="D78" t="n">
-        <v>0.309656</v>
+        <v>0.315424</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.623564</v>
+        <v>0.61922</v>
       </c>
       <c r="C79" t="n">
-        <v>0.472857</v>
+        <v>0.485266</v>
       </c>
       <c r="D79" t="n">
-        <v>0.324182</v>
+        <v>0.328193</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.665233</v>
+        <v>0.659914</v>
       </c>
       <c r="C80" t="n">
-        <v>0.501203</v>
+        <v>0.517214</v>
       </c>
       <c r="D80" t="n">
-        <v>0.336687</v>
+        <v>0.338175</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.708578</v>
+        <v>0.705353</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5374139999999999</v>
+        <v>0.556718</v>
       </c>
       <c r="D81" t="n">
-        <v>0.347617</v>
+        <v>0.355019</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.754142</v>
+        <v>0.755234</v>
       </c>
       <c r="C82" t="n">
-        <v>0.570491</v>
+        <v>0.5920570000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.36684</v>
+        <v>0.37674</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.806737</v>
+        <v>0.80546</v>
       </c>
       <c r="C83" t="n">
-        <v>0.609012</v>
+        <v>0.632692</v>
       </c>
       <c r="D83" t="n">
-        <v>0.389713</v>
+        <v>0.391507</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.864198</v>
+        <v>0.859172</v>
       </c>
       <c r="C84" t="n">
-        <v>0.652043</v>
+        <v>0.6760930000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.410067</v>
+        <v>0.412903</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.920174</v>
+        <v>0.916089</v>
       </c>
       <c r="C85" t="n">
-        <v>0.69335</v>
+        <v>0.720199</v>
       </c>
       <c r="D85" t="n">
-        <v>0.432397</v>
+        <v>0.437532</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.980335</v>
+        <v>0.974873</v>
       </c>
       <c r="C86" t="n">
-        <v>0.739693</v>
+        <v>0.766269</v>
       </c>
       <c r="D86" t="n">
-        <v>0.462897</v>
+        <v>0.463681</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.04282</v>
+        <v>1.03719</v>
       </c>
       <c r="C87" t="n">
-        <v>0.790687</v>
+        <v>0.821214</v>
       </c>
       <c r="D87" t="n">
-        <v>0.48824</v>
+        <v>0.485922</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.10729</v>
+        <v>1.10299</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8363660000000001</v>
+        <v>0.873485</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5165999999999999</v>
+        <v>0.513665</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.17803</v>
+        <v>1.1739</v>
       </c>
       <c r="C89" t="n">
-        <v>0.890356</v>
+        <v>0.931518</v>
       </c>
       <c r="D89" t="n">
-        <v>0.546125</v>
+        <v>0.543436</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.25271</v>
+        <v>1.24653</v>
       </c>
       <c r="C90" t="n">
-        <v>0.940447</v>
+        <v>0.987156</v>
       </c>
       <c r="D90" t="n">
-        <v>0.574917</v>
+        <v>0.573723</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.32891</v>
+        <v>1.32389</v>
       </c>
       <c r="C91" t="n">
-        <v>0.997048</v>
+        <v>1.05025</v>
       </c>
       <c r="D91" t="n">
-        <v>0.61583</v>
+        <v>0.610851</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.41407</v>
+        <v>1.40521</v>
       </c>
       <c r="C92" t="n">
-        <v>0.859142</v>
+        <v>0.883073</v>
       </c>
       <c r="D92" t="n">
-        <v>0.615538</v>
+        <v>0.616885</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.137</v>
+        <v>1.13465</v>
       </c>
       <c r="C93" t="n">
-        <v>0.892078</v>
+        <v>0.917759</v>
       </c>
       <c r="D93" t="n">
-        <v>0.638035</v>
+        <v>0.639908</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.18297</v>
+        <v>1.17898</v>
       </c>
       <c r="C94" t="n">
-        <v>0.928901</v>
+        <v>0.956165</v>
       </c>
       <c r="D94" t="n">
-        <v>0.660307</v>
+        <v>0.6614989999999999</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.22866</v>
+        <v>1.22496</v>
       </c>
       <c r="C95" t="n">
-        <v>0.962098</v>
+        <v>0.991922</v>
       </c>
       <c r="D95" t="n">
-        <v>0.686561</v>
+        <v>0.686634</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.28149</v>
+        <v>1.27869</v>
       </c>
       <c r="C96" t="n">
-        <v>1.00164</v>
+        <v>1.03502</v>
       </c>
       <c r="D96" t="n">
-        <v>0.714708</v>
+        <v>0.7148369999999999</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.33388</v>
+        <v>1.32585</v>
       </c>
       <c r="C97" t="n">
-        <v>1.04044</v>
+        <v>1.07601</v>
       </c>
       <c r="D97" t="n">
-        <v>0.73631</v>
+        <v>0.736196</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.38601</v>
+        <v>1.38488</v>
       </c>
       <c r="C98" t="n">
-        <v>1.08019</v>
+        <v>1.11962</v>
       </c>
       <c r="D98" t="n">
-        <v>0.765216</v>
+        <v>0.765866</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.43087</v>
+        <v>1.4367</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12402</v>
+        <v>1.1667</v>
       </c>
       <c r="D99" t="n">
-        <v>0.796522</v>
+        <v>0.7938770000000001</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.49238</v>
+        <v>1.48611</v>
       </c>
       <c r="C100" t="n">
-        <v>1.16891</v>
+        <v>1.21261</v>
       </c>
       <c r="D100" t="n">
-        <v>0.819894</v>
+        <v>0.818625</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.56077</v>
+        <v>1.53734</v>
       </c>
       <c r="C101" t="n">
-        <v>1.21235</v>
+        <v>1.26523</v>
       </c>
       <c r="D101" t="n">
-        <v>0.84693</v>
+        <v>0.846257</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.57877</v>
+        <v>1.59858</v>
       </c>
       <c r="C102" t="n">
-        <v>1.26213</v>
+        <v>1.31015</v>
       </c>
       <c r="D102" t="n">
-        <v>0.879126</v>
+        <v>0.875063</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.64351</v>
+        <v>1.65579</v>
       </c>
       <c r="C103" t="n">
-        <v>1.30784</v>
+        <v>1.368</v>
       </c>
       <c r="D103" t="n">
-        <v>0.914933</v>
+        <v>0.90965</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.71215</v>
+        <v>1.70282</v>
       </c>
       <c r="C104" t="n">
-        <v>1.36482</v>
+        <v>1.41055</v>
       </c>
       <c r="D104" t="n">
-        <v>0.944014</v>
+        <v>0.940646</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.78596</v>
+        <v>1.77132</v>
       </c>
       <c r="C105" t="n">
-        <v>1.41966</v>
+        <v>1.48432</v>
       </c>
       <c r="D105" t="n">
-        <v>0.981075</v>
+        <v>0.9771260000000001</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.85863</v>
+        <v>1.84665</v>
       </c>
       <c r="C106" t="n">
-        <v>1.47131</v>
+        <v>1.51191</v>
       </c>
       <c r="D106" t="n">
-        <v>1.01033</v>
+        <v>1.00573</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.36334</v>
+        <v>1.35576</v>
       </c>
       <c r="C107" t="n">
-        <v>1.14119</v>
+        <v>1.14215</v>
       </c>
       <c r="D107" t="n">
-        <v>0.924955</v>
+        <v>0.9281470000000001</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.39694</v>
+        <v>1.39697</v>
       </c>
       <c r="C108" t="n">
-        <v>1.17977</v>
+        <v>1.17087</v>
       </c>
       <c r="D108" t="n">
-        <v>0.952364</v>
+        <v>0.951582</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.45416</v>
+        <v>1.44223</v>
       </c>
       <c r="C109" t="n">
-        <v>1.21064</v>
+        <v>1.20185</v>
       </c>
       <c r="D109" t="n">
-        <v>0.981276</v>
+        <v>0.970842</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.50327</v>
+        <v>1.49079</v>
       </c>
       <c r="C110" t="n">
-        <v>1.25563</v>
+        <v>1.23827</v>
       </c>
       <c r="D110" t="n">
-        <v>1.00185</v>
+        <v>0.99091</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.55035</v>
+        <v>1.54015</v>
       </c>
       <c r="C111" t="n">
-        <v>1.27792</v>
+        <v>1.27762</v>
       </c>
       <c r="D111" t="n">
-        <v>1.02704</v>
+        <v>1.01658</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.58633</v>
+        <v>1.59027</v>
       </c>
       <c r="C112" t="n">
-        <v>1.31833</v>
+        <v>1.31785</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05541</v>
+        <v>1.04468</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.65783</v>
+        <v>1.64298</v>
       </c>
       <c r="C113" t="n">
-        <v>1.35827</v>
+        <v>1.36055</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08156</v>
+        <v>1.06888</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.71621</v>
+        <v>1.70041</v>
       </c>
       <c r="C114" t="n">
-        <v>1.40063</v>
+        <v>1.40201</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10804</v>
+        <v>1.09532</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.77331</v>
+        <v>1.75911</v>
       </c>
       <c r="C115" t="n">
-        <v>1.45557</v>
+        <v>1.44945</v>
       </c>
       <c r="D115" t="n">
-        <v>1.13751</v>
+        <v>1.12712</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.83916</v>
+        <v>1.82282</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48489</v>
+        <v>1.49867</v>
       </c>
       <c r="D116" t="n">
-        <v>1.1698</v>
+        <v>1.15635</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.90625</v>
+        <v>1.88839</v>
       </c>
       <c r="C117" t="n">
-        <v>1.52215</v>
+        <v>1.55165</v>
       </c>
       <c r="D117" t="n">
-        <v>1.19765</v>
+        <v>1.18441</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.97687</v>
+        <v>1.95731</v>
       </c>
       <c r="C118" t="n">
-        <v>1.57125</v>
+        <v>1.60827</v>
       </c>
       <c r="D118" t="n">
-        <v>1.22391</v>
+        <v>1.21569</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.04704</v>
+        <v>2.0297</v>
       </c>
       <c r="C119" t="n">
-        <v>1.61633</v>
+        <v>1.66346</v>
       </c>
       <c r="D119" t="n">
-        <v>1.26207</v>
+        <v>1.25018</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.641926</v>
+        <v>0.646263</v>
       </c>
       <c r="C2" t="n">
-        <v>0.465951</v>
+        <v>0.483009</v>
       </c>
       <c r="D2" t="n">
-        <v>0.311226</v>
+        <v>0.31041</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.665194</v>
+        <v>0.664992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.473549</v>
+        <v>0.497936</v>
       </c>
       <c r="D3" t="n">
-        <v>0.319696</v>
+        <v>0.322805</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.692995</v>
+        <v>0.699022</v>
       </c>
       <c r="C4" t="n">
-        <v>0.496555</v>
+        <v>0.527402</v>
       </c>
       <c r="D4" t="n">
-        <v>0.329602</v>
+        <v>0.333999</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.718356</v>
+        <v>0.723032</v>
       </c>
       <c r="C5" t="n">
-        <v>0.512859</v>
+        <v>0.5441009999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.339587</v>
+        <v>0.344068</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.743162</v>
+        <v>0.75364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.531953</v>
+        <v>0.565825</v>
       </c>
       <c r="D6" t="n">
-        <v>0.351967</v>
+        <v>0.356102</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.775979</v>
+        <v>0.781494</v>
       </c>
       <c r="C7" t="n">
-        <v>0.55359</v>
+        <v>0.59577</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359523</v>
+        <v>0.362514</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.807404</v>
+        <v>0.810316</v>
       </c>
       <c r="C8" t="n">
-        <v>0.593701</v>
+        <v>0.618166</v>
       </c>
       <c r="D8" t="n">
-        <v>0.366605</v>
+        <v>0.367843</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.846183</v>
+        <v>0.845743</v>
       </c>
       <c r="C9" t="n">
-        <v>0.615695</v>
+        <v>0.6428160000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.383701</v>
+        <v>0.379164</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.881786</v>
+        <v>0.8801870000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6459</v>
+        <v>0.66469</v>
       </c>
       <c r="D10" t="n">
-        <v>0.400457</v>
+        <v>0.393148</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.92187</v>
+        <v>0.911564</v>
       </c>
       <c r="C11" t="n">
-        <v>0.438307</v>
+        <v>0.450099</v>
       </c>
       <c r="D11" t="n">
-        <v>0.292304</v>
+        <v>0.290739</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.60886</v>
+        <v>0.593937</v>
       </c>
       <c r="C12" t="n">
-        <v>0.459808</v>
+        <v>0.471134</v>
       </c>
       <c r="D12" t="n">
-        <v>0.304905</v>
+        <v>0.300828</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.634944</v>
+        <v>0.61</v>
       </c>
       <c r="C13" t="n">
-        <v>0.487357</v>
+        <v>0.48709</v>
       </c>
       <c r="D13" t="n">
-        <v>0.318152</v>
+        <v>0.30873</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.658896</v>
+        <v>0.640311</v>
       </c>
       <c r="C14" t="n">
-        <v>0.515043</v>
+        <v>0.5206229999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.32928</v>
+        <v>0.317805</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.686267</v>
+        <v>0.6746</v>
       </c>
       <c r="C15" t="n">
-        <v>0.538873</v>
+        <v>0.5431550000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.341445</v>
+        <v>0.336194</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.722071</v>
+        <v>0.712164</v>
       </c>
       <c r="C16" t="n">
-        <v>0.561164</v>
+        <v>0.575735</v>
       </c>
       <c r="D16" t="n">
-        <v>0.353801</v>
+        <v>0.35058</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.754947</v>
+        <v>0.747953</v>
       </c>
       <c r="C17" t="n">
-        <v>0.588206</v>
+        <v>0.608717</v>
       </c>
       <c r="D17" t="n">
-        <v>0.370824</v>
+        <v>0.362876</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.788347</v>
+        <v>0.786481</v>
       </c>
       <c r="C18" t="n">
-        <v>0.611962</v>
+        <v>0.6478930000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.37893</v>
+        <v>0.375526</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.829708</v>
+        <v>0.828519</v>
       </c>
       <c r="C19" t="n">
-        <v>0.633984</v>
+        <v>0.677502</v>
       </c>
       <c r="D19" t="n">
-        <v>0.391599</v>
+        <v>0.390804</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.867808</v>
+        <v>0.8689480000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.681042</v>
+        <v>0.7175049999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.403871</v>
+        <v>0.405717</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9028659999999999</v>
+        <v>0.911316</v>
       </c>
       <c r="C21" t="n">
-        <v>0.701466</v>
+        <v>0.751674</v>
       </c>
       <c r="D21" t="n">
-        <v>0.418695</v>
+        <v>0.420157</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.950375</v>
+        <v>0.952424</v>
       </c>
       <c r="C22" t="n">
-        <v>0.738658</v>
+        <v>0.7908579999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.433888</v>
+        <v>0.436004</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9919519999999999</v>
+        <v>0.996984</v>
       </c>
       <c r="C23" t="n">
-        <v>0.776339</v>
+        <v>0.830421</v>
       </c>
       <c r="D23" t="n">
-        <v>0.445612</v>
+        <v>0.446443</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.02856</v>
+        <v>1.04008</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7841129999999999</v>
+        <v>0.86589</v>
       </c>
       <c r="D24" t="n">
-        <v>0.462646</v>
+        <v>0.466018</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.07914</v>
+        <v>1.08924</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8592</v>
+        <v>0.911875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.473728</v>
+        <v>0.486732</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.12062</v>
+        <v>1.13144</v>
       </c>
       <c r="C26" t="n">
-        <v>0.552615</v>
+        <v>0.58802</v>
       </c>
       <c r="D26" t="n">
-        <v>0.341289</v>
+        <v>0.34671</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.735253</v>
+        <v>0.7396779999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5750150000000001</v>
+        <v>0.614266</v>
       </c>
       <c r="D27" t="n">
-        <v>0.356398</v>
+        <v>0.359225</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.771887</v>
+        <v>0.773855</v>
       </c>
       <c r="C28" t="n">
-        <v>0.605044</v>
+        <v>0.647913</v>
       </c>
       <c r="D28" t="n">
-        <v>0.370533</v>
+        <v>0.373031</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.807252</v>
+        <v>0.810819</v>
       </c>
       <c r="C29" t="n">
-        <v>0.629152</v>
+        <v>0.68036</v>
       </c>
       <c r="D29" t="n">
-        <v>0.383386</v>
+        <v>0.386333</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.843716</v>
+        <v>0.846757</v>
       </c>
       <c r="C30" t="n">
-        <v>0.661816</v>
+        <v>0.71369</v>
       </c>
       <c r="D30" t="n">
-        <v>0.39825</v>
+        <v>0.400921</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.878176</v>
+        <v>0.884392</v>
       </c>
       <c r="C31" t="n">
-        <v>0.68162</v>
+        <v>0.7461950000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.412072</v>
+        <v>0.414701</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.918276</v>
+        <v>0.921381</v>
       </c>
       <c r="C32" t="n">
-        <v>0.719755</v>
+        <v>0.784214</v>
       </c>
       <c r="D32" t="n">
-        <v>0.426288</v>
+        <v>0.429835</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.960295</v>
+        <v>0.964519</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7400409999999999</v>
+        <v>0.81881</v>
       </c>
       <c r="D33" t="n">
-        <v>0.442859</v>
+        <v>0.444229</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.00061</v>
+        <v>1.00178</v>
       </c>
       <c r="C34" t="n">
-        <v>0.776366</v>
+        <v>0.852945</v>
       </c>
       <c r="D34" t="n">
-        <v>0.454708</v>
+        <v>0.456602</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.05018</v>
+        <v>1.05298</v>
       </c>
       <c r="C35" t="n">
-        <v>0.811447</v>
+        <v>0.890855</v>
       </c>
       <c r="D35" t="n">
-        <v>0.472</v>
+        <v>0.471045</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.0902</v>
+        <v>1.09308</v>
       </c>
       <c r="C36" t="n">
-        <v>0.848033</v>
+        <v>0.925666</v>
       </c>
       <c r="D36" t="n">
-        <v>0.485432</v>
+        <v>0.48783</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.12882</v>
+        <v>1.13328</v>
       </c>
       <c r="C37" t="n">
-        <v>0.883925</v>
+        <v>0.967801</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5007779999999999</v>
+        <v>0.501897</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.18209</v>
+        <v>1.18134</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9054</v>
+        <v>1.00592</v>
       </c>
       <c r="D38" t="n">
-        <v>0.525302</v>
+        <v>0.523055</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.23204</v>
+        <v>1.23034</v>
       </c>
       <c r="C39" t="n">
-        <v>0.961599</v>
+        <v>1.04566</v>
       </c>
       <c r="D39" t="n">
-        <v>0.533488</v>
+        <v>0.536212</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.2775</v>
+        <v>1.27802</v>
       </c>
       <c r="C40" t="n">
-        <v>0.610984</v>
+        <v>0.649859</v>
       </c>
       <c r="D40" t="n">
-        <v>0.400692</v>
+        <v>0.3994</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.808568</v>
+        <v>0.808194</v>
       </c>
       <c r="C41" t="n">
-        <v>0.633166</v>
+        <v>0.674834</v>
       </c>
       <c r="D41" t="n">
-        <v>0.413511</v>
+        <v>0.411371</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.843344</v>
+        <v>0.843153</v>
       </c>
       <c r="C42" t="n">
-        <v>0.654996</v>
+        <v>0.701877</v>
       </c>
       <c r="D42" t="n">
-        <v>0.427153</v>
+        <v>0.42556</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.876099</v>
+        <v>0.875588</v>
       </c>
       <c r="C43" t="n">
-        <v>0.688758</v>
+        <v>0.736465</v>
       </c>
       <c r="D43" t="n">
-        <v>0.441346</v>
+        <v>0.439634</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.918229</v>
+        <v>0.918282</v>
       </c>
       <c r="C44" t="n">
-        <v>0.709058</v>
+        <v>0.767523</v>
       </c>
       <c r="D44" t="n">
-        <v>0.456507</v>
+        <v>0.453432</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9546210000000001</v>
+        <v>0.954105</v>
       </c>
       <c r="C45" t="n">
-        <v>0.742529</v>
+        <v>0.801503</v>
       </c>
       <c r="D45" t="n">
-        <v>0.472171</v>
+        <v>0.473415</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.997042</v>
+        <v>0.996048</v>
       </c>
       <c r="C46" t="n">
-        <v>0.775739</v>
+        <v>0.83629</v>
       </c>
       <c r="D46" t="n">
-        <v>0.490877</v>
+        <v>0.489065</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.03904</v>
+        <v>1.03785</v>
       </c>
       <c r="C47" t="n">
-        <v>0.814657</v>
+        <v>0.871601</v>
       </c>
       <c r="D47" t="n">
-        <v>0.506424</v>
+        <v>0.501785</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.08316</v>
+        <v>1.0797</v>
       </c>
       <c r="C48" t="n">
-        <v>0.847953</v>
+        <v>0.9087</v>
       </c>
       <c r="D48" t="n">
-        <v>0.520273</v>
+        <v>0.517371</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.12418</v>
+        <v>1.12392</v>
       </c>
       <c r="C49" t="n">
-        <v>0.872178</v>
+        <v>0.950044</v>
       </c>
       <c r="D49" t="n">
-        <v>0.531911</v>
+        <v>0.5346689999999999</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.17154</v>
+        <v>1.16912</v>
       </c>
       <c r="C50" t="n">
-        <v>0.921988</v>
+        <v>0.990804</v>
       </c>
       <c r="D50" t="n">
-        <v>0.547084</v>
+        <v>0.548639</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.21734</v>
+        <v>1.21342</v>
       </c>
       <c r="C51" t="n">
-        <v>0.947505</v>
+        <v>1.02753</v>
       </c>
       <c r="D51" t="n">
-        <v>0.568448</v>
+        <v>0.567961</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.26104</v>
+        <v>1.25792</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9901529999999999</v>
+        <v>1.06962</v>
       </c>
       <c r="D52" t="n">
-        <v>0.583778</v>
+        <v>0.5835630000000001</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.30891</v>
+        <v>1.30729</v>
       </c>
       <c r="C53" t="n">
-        <v>1.02604</v>
+        <v>1.11048</v>
       </c>
       <c r="D53" t="n">
-        <v>0.600846</v>
+        <v>0.6019139999999999</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.35609</v>
+        <v>1.35502</v>
       </c>
       <c r="C54" t="n">
-        <v>0.638795</v>
+        <v>0.680167</v>
       </c>
       <c r="D54" t="n">
-        <v>0.429354</v>
+        <v>0.429043</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.842203</v>
+        <v>0.840835</v>
       </c>
       <c r="C55" t="n">
-        <v>0.659368</v>
+        <v>0.707359</v>
       </c>
       <c r="D55" t="n">
-        <v>0.445559</v>
+        <v>0.445119</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.874189</v>
+        <v>0.873547</v>
       </c>
       <c r="C56" t="n">
-        <v>0.690093</v>
+        <v>0.735738</v>
       </c>
       <c r="D56" t="n">
-        <v>0.458253</v>
+        <v>0.457683</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9108889999999999</v>
+        <v>0.910391</v>
       </c>
       <c r="C57" t="n">
-        <v>0.707297</v>
+        <v>0.765185</v>
       </c>
       <c r="D57" t="n">
-        <v>0.471414</v>
+        <v>0.470739</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.945283</v>
+        <v>0.945453</v>
       </c>
       <c r="C58" t="n">
-        <v>0.739143</v>
+        <v>0.798843</v>
       </c>
       <c r="D58" t="n">
-        <v>0.489024</v>
+        <v>0.487295</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.985055</v>
+        <v>0.984979</v>
       </c>
       <c r="C59" t="n">
-        <v>0.781961</v>
+        <v>0.833901</v>
       </c>
       <c r="D59" t="n">
-        <v>0.505304</v>
+        <v>0.503302</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.02492</v>
+        <v>1.02414</v>
       </c>
       <c r="C60" t="n">
-        <v>0.811716</v>
+        <v>0.867852</v>
       </c>
       <c r="D60" t="n">
-        <v>0.523092</v>
+        <v>0.51874</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.06597</v>
+        <v>1.06454</v>
       </c>
       <c r="C61" t="n">
-        <v>0.834891</v>
+        <v>0.906108</v>
       </c>
       <c r="D61" t="n">
-        <v>0.536724</v>
+        <v>0.535663</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.10789</v>
+        <v>1.10807</v>
       </c>
       <c r="C62" t="n">
-        <v>0.872009</v>
+        <v>0.947037</v>
       </c>
       <c r="D62" t="n">
-        <v>0.549303</v>
+        <v>0.550269</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15373</v>
+        <v>1.15232</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9166879999999999</v>
+        <v>0.980012</v>
       </c>
       <c r="D63" t="n">
-        <v>0.570457</v>
+        <v>0.568557</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.20016</v>
+        <v>1.2008</v>
       </c>
       <c r="C64" t="n">
-        <v>0.957779</v>
+        <v>1.02179</v>
       </c>
       <c r="D64" t="n">
-        <v>0.585792</v>
+        <v>0.582687</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.25213</v>
+        <v>1.24727</v>
       </c>
       <c r="C65" t="n">
-        <v>0.99944</v>
+        <v>1.06053</v>
       </c>
       <c r="D65" t="n">
-        <v>0.599623</v>
+        <v>0.598834</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.29754</v>
+        <v>1.2896</v>
       </c>
       <c r="C66" t="n">
-        <v>1.03708</v>
+        <v>1.102</v>
       </c>
       <c r="D66" t="n">
-        <v>0.618993</v>
+        <v>0.617219</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.34678</v>
+        <v>1.33972</v>
       </c>
       <c r="C67" t="n">
-        <v>1.08918</v>
+        <v>1.14366</v>
       </c>
       <c r="D67" t="n">
-        <v>0.633935</v>
+        <v>0.633166</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.39621</v>
+        <v>1.38503</v>
       </c>
       <c r="C68" t="n">
-        <v>0.663256</v>
+        <v>0.705592</v>
       </c>
       <c r="D68" t="n">
-        <v>0.458884</v>
+        <v>0.458752</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.903357</v>
+        <v>0.890289</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6958299999999999</v>
+        <v>0.745845</v>
       </c>
       <c r="D69" t="n">
-        <v>0.471562</v>
+        <v>0.471014</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.955526</v>
+        <v>0.941295</v>
       </c>
       <c r="C70" t="n">
-        <v>0.735472</v>
+        <v>0.790191</v>
       </c>
       <c r="D70" t="n">
-        <v>0.493725</v>
+        <v>0.492923</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.02091</v>
+        <v>0.995752</v>
       </c>
       <c r="C71" t="n">
-        <v>0.785482</v>
+        <v>0.834687</v>
       </c>
       <c r="D71" t="n">
-        <v>0.513486</v>
+        <v>0.513613</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.07115</v>
+        <v>1.05805</v>
       </c>
       <c r="C72" t="n">
-        <v>0.823744</v>
+        <v>0.889668</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5343560000000001</v>
+        <v>0.536503</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.14819</v>
+        <v>1.1303</v>
       </c>
       <c r="C73" t="n">
-        <v>0.889313</v>
+        <v>0.950335</v>
       </c>
       <c r="D73" t="n">
-        <v>0.562304</v>
+        <v>0.556542</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.2213</v>
+        <v>1.19808</v>
       </c>
       <c r="C74" t="n">
-        <v>0.945129</v>
+        <v>1.01092</v>
       </c>
       <c r="D74" t="n">
-        <v>0.579954</v>
+        <v>0.5767060000000001</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.30538</v>
+        <v>1.28249</v>
       </c>
       <c r="C75" t="n">
-        <v>0.997202</v>
+        <v>1.08152</v>
       </c>
       <c r="D75" t="n">
-        <v>0.610413</v>
+        <v>0.606498</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.3949</v>
+        <v>1.38344</v>
       </c>
       <c r="C76" t="n">
-        <v>1.07315</v>
+        <v>1.16709</v>
       </c>
       <c r="D76" t="n">
-        <v>0.635363</v>
+        <v>0.633498</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.49961</v>
+        <v>1.48596</v>
       </c>
       <c r="C77" t="n">
-        <v>1.16096</v>
+        <v>1.25386</v>
       </c>
       <c r="D77" t="n">
-        <v>0.668937</v>
+        <v>0.667083</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.59944</v>
+        <v>1.61954</v>
       </c>
       <c r="C78" t="n">
-        <v>1.24569</v>
+        <v>1.36163</v>
       </c>
       <c r="D78" t="n">
-        <v>0.695365</v>
+        <v>0.694861</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.73749</v>
+        <v>1.75736</v>
       </c>
       <c r="C79" t="n">
-        <v>1.33578</v>
+        <v>1.48422</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7285509999999999</v>
+        <v>0.727151</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.89697</v>
+        <v>1.93</v>
       </c>
       <c r="C80" t="n">
-        <v>1.45519</v>
+        <v>1.62799</v>
       </c>
       <c r="D80" t="n">
-        <v>0.763294</v>
+        <v>0.77055</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.05812</v>
+        <v>2.11602</v>
       </c>
       <c r="C81" t="n">
-        <v>1.59186</v>
+        <v>1.78808</v>
       </c>
       <c r="D81" t="n">
-        <v>0.802716</v>
+        <v>0.815457</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.26334</v>
+        <v>2.32647</v>
       </c>
       <c r="C82" t="n">
-        <v>1.75799</v>
+        <v>1.97127</v>
       </c>
       <c r="D82" t="n">
-        <v>0.874455</v>
+        <v>0.898815</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.48618</v>
+        <v>2.58283</v>
       </c>
       <c r="C83" t="n">
-        <v>1.12987</v>
+        <v>1.29452</v>
       </c>
       <c r="D83" t="n">
-        <v>0.629752</v>
+        <v>0.647374</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.68308</v>
+        <v>1.72486</v>
       </c>
       <c r="C84" t="n">
-        <v>1.23921</v>
+        <v>1.4258</v>
       </c>
       <c r="D84" t="n">
-        <v>0.676556</v>
+        <v>0.686347</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.83943</v>
+        <v>1.89649</v>
       </c>
       <c r="C85" t="n">
-        <v>1.35851</v>
+        <v>1.56664</v>
       </c>
       <c r="D85" t="n">
-        <v>0.735502</v>
+        <v>0.737526</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.03286</v>
+        <v>2.07297</v>
       </c>
       <c r="C86" t="n">
-        <v>1.49417</v>
+        <v>1.71926</v>
       </c>
       <c r="D86" t="n">
-        <v>0.79137</v>
+        <v>0.79513</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.23791</v>
+        <v>2.27476</v>
       </c>
       <c r="C87" t="n">
-        <v>1.63814</v>
+        <v>1.88362</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8333390000000001</v>
+        <v>0.857779</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.47468</v>
+        <v>2.49312</v>
       </c>
       <c r="C88" t="n">
-        <v>1.83298</v>
+        <v>2.06336</v>
       </c>
       <c r="D88" t="n">
-        <v>0.909095</v>
+        <v>0.931798</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.71965</v>
+        <v>2.72879</v>
       </c>
       <c r="C89" t="n">
-        <v>2.01025</v>
+        <v>2.26826</v>
       </c>
       <c r="D89" t="n">
-        <v>1.00464</v>
+        <v>1.00152</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.99044</v>
+        <v>2.99641</v>
       </c>
       <c r="C90" t="n">
-        <v>2.20434</v>
+        <v>2.48775</v>
       </c>
       <c r="D90" t="n">
-        <v>1.09011</v>
+        <v>1.08434</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.26721</v>
+        <v>3.2584</v>
       </c>
       <c r="C91" t="n">
-        <v>2.4148</v>
+        <v>2.70878</v>
       </c>
       <c r="D91" t="n">
-        <v>1.17507</v>
+        <v>1.17888</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.5654</v>
+        <v>3.54041</v>
       </c>
       <c r="C92" t="n">
-        <v>2.63732</v>
+        <v>2.95722</v>
       </c>
       <c r="D92" t="n">
-        <v>1.26535</v>
+        <v>1.26013</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.86142</v>
+        <v>3.85448</v>
       </c>
       <c r="C93" t="n">
-        <v>2.89101</v>
+        <v>3.20991</v>
       </c>
       <c r="D93" t="n">
-        <v>1.3496</v>
+        <v>1.34801</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.18918</v>
+        <v>4.16478</v>
       </c>
       <c r="C94" t="n">
-        <v>3.10844</v>
+        <v>3.48626</v>
       </c>
       <c r="D94" t="n">
-        <v>1.44292</v>
+        <v>1.44173</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.52434</v>
+        <v>4.51296</v>
       </c>
       <c r="C95" t="n">
-        <v>3.49357</v>
+        <v>3.77647</v>
       </c>
       <c r="D95" t="n">
-        <v>1.56534</v>
+        <v>1.56009</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.87303</v>
+        <v>4.84868</v>
       </c>
       <c r="C96" t="n">
-        <v>3.77027</v>
+        <v>4.07703</v>
       </c>
       <c r="D96" t="n">
-        <v>1.68808</v>
+        <v>1.68751</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.23843</v>
+        <v>5.21743</v>
       </c>
       <c r="C97" t="n">
-        <v>2.14343</v>
+        <v>2.44769</v>
       </c>
       <c r="D97" t="n">
-        <v>1.17739</v>
+        <v>1.17564</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.21658</v>
+        <v>3.20991</v>
       </c>
       <c r="C98" t="n">
-        <v>2.27691</v>
+        <v>2.61503</v>
       </c>
       <c r="D98" t="n">
-        <v>1.25287</v>
+        <v>1.24098</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.43317</v>
+        <v>3.44978</v>
       </c>
       <c r="C99" t="n">
-        <v>2.43943</v>
+        <v>2.80203</v>
       </c>
       <c r="D99" t="n">
-        <v>1.33024</v>
+        <v>1.33593</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.64238</v>
+        <v>3.6373</v>
       </c>
       <c r="C100" t="n">
-        <v>2.57969</v>
+        <v>2.9845</v>
       </c>
       <c r="D100" t="n">
-        <v>1.4088</v>
+        <v>1.42029</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.83216</v>
+        <v>3.88906</v>
       </c>
       <c r="C101" t="n">
-        <v>2.76903</v>
+        <v>3.18123</v>
       </c>
       <c r="D101" t="n">
-        <v>1.48021</v>
+        <v>1.47307</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.05515</v>
+        <v>4.09372</v>
       </c>
       <c r="C102" t="n">
-        <v>2.94678</v>
+        <v>3.37104</v>
       </c>
       <c r="D102" t="n">
-        <v>1.57829</v>
+        <v>1.5768</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.26791</v>
+        <v>4.28165</v>
       </c>
       <c r="C103" t="n">
-        <v>3.14349</v>
+        <v>3.50551</v>
       </c>
       <c r="D103" t="n">
-        <v>1.67041</v>
+        <v>1.65246</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.53162</v>
+        <v>4.5321</v>
       </c>
       <c r="C104" t="n">
-        <v>3.34899</v>
+        <v>3.71407</v>
       </c>
       <c r="D104" t="n">
-        <v>1.75944</v>
+        <v>1.75652</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.82064</v>
+        <v>4.80263</v>
       </c>
       <c r="C105" t="n">
-        <v>3.54438</v>
+        <v>3.94516</v>
       </c>
       <c r="D105" t="n">
-        <v>1.82629</v>
+        <v>1.82633</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.1074</v>
+        <v>5.11642</v>
       </c>
       <c r="C106" t="n">
-        <v>3.7605</v>
+        <v>4.19698</v>
       </c>
       <c r="D106" t="n">
-        <v>1.93884</v>
+        <v>1.94713</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.42953</v>
+        <v>5.42581</v>
       </c>
       <c r="C107" t="n">
-        <v>3.98487</v>
+        <v>4.45865</v>
       </c>
       <c r="D107" t="n">
-        <v>2.07026</v>
+        <v>2.03917</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.75513</v>
+        <v>5.7393</v>
       </c>
       <c r="C108" t="n">
-        <v>4.16315</v>
+        <v>4.73299</v>
       </c>
       <c r="D108" t="n">
-        <v>2.16961</v>
+        <v>2.14431</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.09988</v>
+        <v>6.07861</v>
       </c>
       <c r="C109" t="n">
-        <v>4.49064</v>
+        <v>5.01758</v>
       </c>
       <c r="D109" t="n">
-        <v>2.25555</v>
+        <v>2.25718</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.45206</v>
+        <v>6.42198</v>
       </c>
       <c r="C110" t="n">
-        <v>4.75222</v>
+        <v>5.32254</v>
       </c>
       <c r="D110" t="n">
-        <v>2.35978</v>
+        <v>2.3655</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.81511</v>
+        <v>6.77735</v>
       </c>
       <c r="C111" t="n">
-        <v>2.70709</v>
+        <v>3.06719</v>
       </c>
       <c r="D111" t="n">
-        <v>1.66331</v>
+        <v>1.64886</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.03286</v>
+        <v>4.00744</v>
       </c>
       <c r="C112" t="n">
-        <v>2.81902</v>
+        <v>3.23834</v>
       </c>
       <c r="D112" t="n">
-        <v>1.73355</v>
+        <v>1.7099</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.26788</v>
+        <v>4.21925</v>
       </c>
       <c r="C113" t="n">
-        <v>2.95566</v>
+        <v>3.41627</v>
       </c>
       <c r="D113" t="n">
-        <v>1.81517</v>
+        <v>1.79217</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.47339</v>
+        <v>4.44216</v>
       </c>
       <c r="C114" t="n">
-        <v>3.1026</v>
+        <v>3.60703</v>
       </c>
       <c r="D114" t="n">
-        <v>1.89534</v>
+        <v>1.87986</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.71411</v>
+        <v>4.6811</v>
       </c>
       <c r="C115" t="n">
-        <v>3.29542</v>
+        <v>3.8067</v>
       </c>
       <c r="D115" t="n">
-        <v>1.98037</v>
+        <v>1.95046</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96303</v>
+        <v>4.93134</v>
       </c>
       <c r="C116" t="n">
-        <v>3.47701</v>
+        <v>4.02041</v>
       </c>
       <c r="D116" t="n">
-        <v>2.05183</v>
+        <v>2.03674</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.22985</v>
+        <v>5.1969</v>
       </c>
       <c r="C117" t="n">
-        <v>3.6837</v>
+        <v>4.24606</v>
       </c>
       <c r="D117" t="n">
-        <v>2.16028</v>
+        <v>2.15455</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.51294</v>
+        <v>5.47933</v>
       </c>
       <c r="C118" t="n">
-        <v>3.8448</v>
+        <v>4.48109</v>
       </c>
       <c r="D118" t="n">
-        <v>2.26678</v>
+        <v>2.25461</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.80339</v>
+        <v>5.77026</v>
       </c>
       <c r="C119" t="n">
-        <v>4.13169</v>
+        <v>4.7303</v>
       </c>
       <c r="D119" t="n">
-        <v>2.34218</v>
+        <v>2.33849</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.403956</v>
+        <v>0.402336</v>
       </c>
       <c r="C2" t="n">
-        <v>0.30034</v>
+        <v>0.301862</v>
       </c>
       <c r="D2" t="n">
-        <v>0.321808</v>
+        <v>0.323973</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.414925</v>
+        <v>0.416358</v>
       </c>
       <c r="C3" t="n">
-        <v>0.306121</v>
+        <v>0.307202</v>
       </c>
       <c r="D3" t="n">
-        <v>0.327412</v>
+        <v>0.329047</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.424121</v>
+        <v>0.424142</v>
       </c>
       <c r="C4" t="n">
-        <v>0.314145</v>
+        <v>0.315684</v>
       </c>
       <c r="D4" t="n">
-        <v>0.333278</v>
+        <v>0.334798</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.434841</v>
+        <v>0.43355</v>
       </c>
       <c r="C5" t="n">
-        <v>0.319593</v>
+        <v>0.320204</v>
       </c>
       <c r="D5" t="n">
-        <v>0.340088</v>
+        <v>0.342145</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.44705</v>
+        <v>0.450498</v>
       </c>
       <c r="C6" t="n">
-        <v>0.324613</v>
+        <v>0.32958</v>
       </c>
       <c r="D6" t="n">
-        <v>0.345207</v>
+        <v>0.349129</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.455998</v>
+        <v>0.461822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.263882</v>
+        <v>0.264789</v>
       </c>
       <c r="D7" t="n">
-        <v>0.287338</v>
+        <v>0.288797</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.347739</v>
+        <v>0.344288</v>
       </c>
       <c r="C8" t="n">
-        <v>0.271486</v>
+        <v>0.272818</v>
       </c>
       <c r="D8" t="n">
-        <v>0.297372</v>
+        <v>0.299772</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.358956</v>
+        <v>0.360878</v>
       </c>
       <c r="C9" t="n">
-        <v>0.280202</v>
+        <v>0.280695</v>
       </c>
       <c r="D9" t="n">
-        <v>0.30455</v>
+        <v>0.305218</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.371293</v>
+        <v>0.369944</v>
       </c>
       <c r="C10" t="n">
-        <v>0.288864</v>
+        <v>0.290323</v>
       </c>
       <c r="D10" t="n">
-        <v>0.316884</v>
+        <v>0.317196</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.386119</v>
+        <v>0.382642</v>
       </c>
       <c r="C11" t="n">
-        <v>0.298973</v>
+        <v>0.298516</v>
       </c>
       <c r="D11" t="n">
-        <v>0.324184</v>
+        <v>0.324992</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.399775</v>
+        <v>0.396443</v>
       </c>
       <c r="C12" t="n">
-        <v>0.30867</v>
+        <v>0.307583</v>
       </c>
       <c r="D12" t="n">
-        <v>0.334356</v>
+        <v>0.335464</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.41064</v>
+        <v>0.406966</v>
       </c>
       <c r="C13" t="n">
-        <v>0.320119</v>
+        <v>0.317852</v>
       </c>
       <c r="D13" t="n">
-        <v>0.344144</v>
+        <v>0.345143</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.42114</v>
+        <v>0.418171</v>
       </c>
       <c r="C14" t="n">
-        <v>0.325574</v>
+        <v>0.324868</v>
       </c>
       <c r="D14" t="n">
-        <v>0.353876</v>
+        <v>0.354561</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.43327</v>
+        <v>0.43026</v>
       </c>
       <c r="C15" t="n">
-        <v>0.331888</v>
+        <v>0.331284</v>
       </c>
       <c r="D15" t="n">
-        <v>0.362982</v>
+        <v>0.362831</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.447685</v>
+        <v>0.443892</v>
       </c>
       <c r="C16" t="n">
-        <v>0.339707</v>
+        <v>0.33892</v>
       </c>
       <c r="D16" t="n">
-        <v>0.37432</v>
+        <v>0.373757</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.460662</v>
+        <v>0.457214</v>
       </c>
       <c r="C17" t="n">
-        <v>0.348137</v>
+        <v>0.347224</v>
       </c>
       <c r="D17" t="n">
-        <v>0.381447</v>
+        <v>0.380775</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.471557</v>
+        <v>0.467491</v>
       </c>
       <c r="C18" t="n">
-        <v>0.354632</v>
+        <v>0.353563</v>
       </c>
       <c r="D18" t="n">
-        <v>0.389403</v>
+        <v>0.388784</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.484903</v>
+        <v>0.482671</v>
       </c>
       <c r="C19" t="n">
-        <v>0.361262</v>
+        <v>0.360416</v>
       </c>
       <c r="D19" t="n">
-        <v>0.397533</v>
+        <v>0.397187</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.497001</v>
+        <v>0.493293</v>
       </c>
       <c r="C20" t="n">
-        <v>0.369694</v>
+        <v>0.369641</v>
       </c>
       <c r="D20" t="n">
-        <v>0.405866</v>
+        <v>0.403584</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.510006</v>
+        <v>0.5061560000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.291182</v>
+        <v>0.291467</v>
       </c>
       <c r="D21" t="n">
-        <v>0.316063</v>
+        <v>0.315722</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.393595</v>
+        <v>0.392365</v>
       </c>
       <c r="C22" t="n">
-        <v>0.299326</v>
+        <v>0.29918</v>
       </c>
       <c r="D22" t="n">
-        <v>0.326441</v>
+        <v>0.327861</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.404586</v>
+        <v>0.404187</v>
       </c>
       <c r="C23" t="n">
-        <v>0.307404</v>
+        <v>0.307399</v>
       </c>
       <c r="D23" t="n">
-        <v>0.336366</v>
+        <v>0.336299</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.414818</v>
+        <v>0.413837</v>
       </c>
       <c r="C24" t="n">
-        <v>0.316233</v>
+        <v>0.315977</v>
       </c>
       <c r="D24" t="n">
-        <v>0.345399</v>
+        <v>0.34484</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.427667</v>
+        <v>0.425556</v>
       </c>
       <c r="C25" t="n">
-        <v>0.325133</v>
+        <v>0.324696</v>
       </c>
       <c r="D25" t="n">
-        <v>0.356318</v>
+        <v>0.355091</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.438707</v>
+        <v>0.437473</v>
       </c>
       <c r="C26" t="n">
-        <v>0.33357</v>
+        <v>0.33315</v>
       </c>
       <c r="D26" t="n">
-        <v>0.366807</v>
+        <v>0.365916</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.450381</v>
+        <v>0.450753</v>
       </c>
       <c r="C27" t="n">
-        <v>0.340621</v>
+        <v>0.340669</v>
       </c>
       <c r="D27" t="n">
-        <v>0.378357</v>
+        <v>0.377456</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.463444</v>
+        <v>0.462816</v>
       </c>
       <c r="C28" t="n">
-        <v>0.34944</v>
+        <v>0.350945</v>
       </c>
       <c r="D28" t="n">
-        <v>0.388057</v>
+        <v>0.387814</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.476101</v>
+        <v>0.473708</v>
       </c>
       <c r="C29" t="n">
-        <v>0.357891</v>
+        <v>0.357477</v>
       </c>
       <c r="D29" t="n">
-        <v>0.398651</v>
+        <v>0.398978</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.485046</v>
+        <v>0.484488</v>
       </c>
       <c r="C30" t="n">
-        <v>0.365348</v>
+        <v>0.365446</v>
       </c>
       <c r="D30" t="n">
-        <v>0.410214</v>
+        <v>0.407649</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.498412</v>
+        <v>0.495515</v>
       </c>
       <c r="C31" t="n">
-        <v>0.372924</v>
+        <v>0.372607</v>
       </c>
       <c r="D31" t="n">
-        <v>0.41752</v>
+        <v>0.417222</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.506472</v>
+        <v>0.506403</v>
       </c>
       <c r="C32" t="n">
-        <v>0.380661</v>
+        <v>0.381043</v>
       </c>
       <c r="D32" t="n">
-        <v>0.427062</v>
+        <v>0.427001</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.522257</v>
+        <v>0.518629</v>
       </c>
       <c r="C33" t="n">
-        <v>0.388116</v>
+        <v>0.388047</v>
       </c>
       <c r="D33" t="n">
-        <v>0.435198</v>
+        <v>0.435227</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.533627</v>
+        <v>0.529265</v>
       </c>
       <c r="C34" t="n">
-        <v>0.395903</v>
+        <v>0.395759</v>
       </c>
       <c r="D34" t="n">
-        <v>0.444959</v>
+        <v>0.445142</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.545806</v>
+        <v>0.544586</v>
       </c>
       <c r="C35" t="n">
-        <v>0.307445</v>
+        <v>0.307856</v>
       </c>
       <c r="D35" t="n">
-        <v>0.337902</v>
+        <v>0.337833</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.413809</v>
+        <v>0.412445</v>
       </c>
       <c r="C36" t="n">
-        <v>0.315072</v>
+        <v>0.315336</v>
       </c>
       <c r="D36" t="n">
-        <v>0.349407</v>
+        <v>0.349032</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.425372</v>
+        <v>0.423477</v>
       </c>
       <c r="C37" t="n">
-        <v>0.322758</v>
+        <v>0.323175</v>
       </c>
       <c r="D37" t="n">
-        <v>0.35797</v>
+        <v>0.358026</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.436315</v>
+        <v>0.434123</v>
       </c>
       <c r="C38" t="n">
-        <v>0.332666</v>
+        <v>0.332052</v>
       </c>
       <c r="D38" t="n">
-        <v>0.37008</v>
+        <v>0.369557</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.444911</v>
+        <v>0.444648</v>
       </c>
       <c r="C39" t="n">
-        <v>0.339726</v>
+        <v>0.339745</v>
       </c>
       <c r="D39" t="n">
-        <v>0.379663</v>
+        <v>0.379721</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.458911</v>
+        <v>0.456111</v>
       </c>
       <c r="C40" t="n">
-        <v>0.348399</v>
+        <v>0.348717</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3905</v>
+        <v>0.390416</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.469933</v>
+        <v>0.470291</v>
       </c>
       <c r="C41" t="n">
-        <v>0.357473</v>
+        <v>0.3579</v>
       </c>
       <c r="D41" t="n">
-        <v>0.401534</v>
+        <v>0.401347</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.482382</v>
+        <v>0.479497</v>
       </c>
       <c r="C42" t="n">
-        <v>0.365395</v>
+        <v>0.365429</v>
       </c>
       <c r="D42" t="n">
-        <v>0.410244</v>
+        <v>0.410711</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.494863</v>
+        <v>0.491273</v>
       </c>
       <c r="C43" t="n">
-        <v>0.373604</v>
+        <v>0.37335</v>
       </c>
       <c r="D43" t="n">
-        <v>0.421063</v>
+        <v>0.421457</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.506486</v>
+        <v>0.502294</v>
       </c>
       <c r="C44" t="n">
-        <v>0.381273</v>
+        <v>0.381416</v>
       </c>
       <c r="D44" t="n">
-        <v>0.431044</v>
+        <v>0.430734</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.517425</v>
+        <v>0.513529</v>
       </c>
       <c r="C45" t="n">
-        <v>0.387849</v>
+        <v>0.387993</v>
       </c>
       <c r="D45" t="n">
-        <v>0.440374</v>
+        <v>0.440048</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.528652</v>
+        <v>0.5239509999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.394721</v>
+        <v>0.394864</v>
       </c>
       <c r="D46" t="n">
-        <v>0.448184</v>
+        <v>0.448449</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.540482</v>
+        <v>0.536172</v>
       </c>
       <c r="C47" t="n">
-        <v>0.401232</v>
+        <v>0.401474</v>
       </c>
       <c r="D47" t="n">
-        <v>0.45739</v>
+        <v>0.457362</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.552969</v>
+        <v>0.548934</v>
       </c>
       <c r="C48" t="n">
-        <v>0.407999</v>
+        <v>0.408356</v>
       </c>
       <c r="D48" t="n">
-        <v>0.465646</v>
+        <v>0.465978</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.564761</v>
+        <v>0.560096</v>
       </c>
       <c r="C49" t="n">
-        <v>0.416119</v>
+        <v>0.41644</v>
       </c>
       <c r="D49" t="n">
-        <v>0.474879</v>
+        <v>0.474634</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.577356</v>
+        <v>0.5716290000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.321378</v>
+        <v>0.322144</v>
       </c>
       <c r="D50" t="n">
-        <v>0.348051</v>
+        <v>0.348311</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.431855</v>
+        <v>0.430404</v>
       </c>
       <c r="C51" t="n">
-        <v>0.329693</v>
+        <v>0.330027</v>
       </c>
       <c r="D51" t="n">
-        <v>0.359325</v>
+        <v>0.359258</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.444085</v>
+        <v>0.441857</v>
       </c>
       <c r="C52" t="n">
-        <v>0.33852</v>
+        <v>0.338629</v>
       </c>
       <c r="D52" t="n">
-        <v>0.370119</v>
+        <v>0.370277</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.455874</v>
+        <v>0.453355</v>
       </c>
       <c r="C53" t="n">
-        <v>0.34742</v>
+        <v>0.347732</v>
       </c>
       <c r="D53" t="n">
-        <v>0.380936</v>
+        <v>0.380963</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.467873</v>
+        <v>0.465173</v>
       </c>
       <c r="C54" t="n">
-        <v>0.356385</v>
+        <v>0.356623</v>
       </c>
       <c r="D54" t="n">
-        <v>0.392163</v>
+        <v>0.391944</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.479498</v>
+        <v>0.478302</v>
       </c>
       <c r="C55" t="n">
-        <v>0.365214</v>
+        <v>0.365468</v>
       </c>
       <c r="D55" t="n">
-        <v>0.403125</v>
+        <v>0.403875</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.491894</v>
+        <v>0.488644</v>
       </c>
       <c r="C56" t="n">
-        <v>0.373662</v>
+        <v>0.37372</v>
       </c>
       <c r="D56" t="n">
-        <v>0.415206</v>
+        <v>0.415527</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.503896</v>
+        <v>0.50024</v>
       </c>
       <c r="C57" t="n">
-        <v>0.381266</v>
+        <v>0.381609</v>
       </c>
       <c r="D57" t="n">
-        <v>0.424661</v>
+        <v>0.425161</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.515133</v>
+        <v>0.510617</v>
       </c>
       <c r="C58" t="n">
-        <v>0.389469</v>
+        <v>0.388683</v>
       </c>
       <c r="D58" t="n">
-        <v>0.433605</v>
+        <v>0.433982</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.526548</v>
+        <v>0.521225</v>
       </c>
       <c r="C59" t="n">
-        <v>0.39518</v>
+        <v>0.395424</v>
       </c>
       <c r="D59" t="n">
-        <v>0.442527</v>
+        <v>0.442907</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.533277</v>
+        <v>0.532381</v>
       </c>
       <c r="C60" t="n">
-        <v>0.402022</v>
+        <v>0.402229</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4521</v>
+        <v>0.452794</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.549484</v>
+        <v>0.543269</v>
       </c>
       <c r="C61" t="n">
-        <v>0.408627</v>
+        <v>0.409053</v>
       </c>
       <c r="D61" t="n">
-        <v>0.460641</v>
+        <v>0.461205</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.561465</v>
+        <v>0.554983</v>
       </c>
       <c r="C62" t="n">
-        <v>0.415639</v>
+        <v>0.415858</v>
       </c>
       <c r="D62" t="n">
-        <v>0.469419</v>
+        <v>0.470002</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.573581</v>
+        <v>0.566612</v>
       </c>
       <c r="C63" t="n">
-        <v>0.422977</v>
+        <v>0.423134</v>
       </c>
       <c r="D63" t="n">
-        <v>0.479524</v>
+        <v>0.480031</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.586235</v>
+        <v>0.579037</v>
       </c>
       <c r="C64" t="n">
-        <v>0.334136</v>
+        <v>0.335382</v>
       </c>
       <c r="D64" t="n">
-        <v>0.367527</v>
+        <v>0.368463</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.462768</v>
+        <v>0.457288</v>
       </c>
       <c r="C65" t="n">
-        <v>0.343319</v>
+        <v>0.344559</v>
       </c>
       <c r="D65" t="n">
-        <v>0.380661</v>
+        <v>0.381324</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.48016</v>
+        <v>0.47079</v>
       </c>
       <c r="C66" t="n">
-        <v>0.354314</v>
+        <v>0.355548</v>
       </c>
       <c r="D66" t="n">
-        <v>0.393888</v>
+        <v>0.395055</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.49393</v>
+        <v>0.488234</v>
       </c>
       <c r="C67" t="n">
-        <v>0.365888</v>
+        <v>0.366517</v>
       </c>
       <c r="D67" t="n">
-        <v>0.40614</v>
+        <v>0.406497</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.515076</v>
+        <v>0.507097</v>
       </c>
       <c r="C68" t="n">
-        <v>0.377256</v>
+        <v>0.37804</v>
       </c>
       <c r="D68" t="n">
-        <v>0.42142</v>
+        <v>0.421889</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.530246</v>
+        <v>0.534886</v>
       </c>
       <c r="C69" t="n">
-        <v>0.390976</v>
+        <v>0.388751</v>
       </c>
       <c r="D69" t="n">
-        <v>0.436586</v>
+        <v>0.437469</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.559076</v>
+        <v>0.556242</v>
       </c>
       <c r="C70" t="n">
-        <v>0.40442</v>
+        <v>0.402099</v>
       </c>
       <c r="D70" t="n">
-        <v>0.455675</v>
+        <v>0.45311</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.587257</v>
+        <v>0.571823</v>
       </c>
       <c r="C71" t="n">
-        <v>0.418387</v>
+        <v>0.416952</v>
       </c>
       <c r="D71" t="n">
-        <v>0.472658</v>
+        <v>0.470996</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.621048</v>
+        <v>0.596224</v>
       </c>
       <c r="C72" t="n">
-        <v>0.436196</v>
+        <v>0.429755</v>
       </c>
       <c r="D72" t="n">
-        <v>0.493497</v>
+        <v>0.487406</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.647542</v>
+        <v>0.622905</v>
       </c>
       <c r="C73" t="n">
-        <v>0.450681</v>
+        <v>0.444293</v>
       </c>
       <c r="D73" t="n">
-        <v>0.512653</v>
+        <v>0.505404</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.68968</v>
+        <v>0.653096</v>
       </c>
       <c r="C74" t="n">
-        <v>0.47324</v>
+        <v>0.462783</v>
       </c>
       <c r="D74" t="n">
-        <v>0.535551</v>
+        <v>0.526041</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.732256</v>
+        <v>0.693618</v>
       </c>
       <c r="C75" t="n">
-        <v>0.493697</v>
+        <v>0.484973</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5628919999999999</v>
+        <v>0.550042</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7822519999999999</v>
+        <v>0.726727</v>
       </c>
       <c r="C76" t="n">
-        <v>0.522407</v>
+        <v>0.504768</v>
       </c>
       <c r="D76" t="n">
-        <v>0.592946</v>
+        <v>0.575264</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.834991</v>
+        <v>0.768126</v>
       </c>
       <c r="C77" t="n">
-        <v>0.550058</v>
+        <v>0.527282</v>
       </c>
       <c r="D77" t="n">
-        <v>0.629008</v>
+        <v>0.600929</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.90134</v>
+        <v>0.8217449999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.484597</v>
+        <v>0.464377</v>
       </c>
       <c r="D78" t="n">
-        <v>0.541689</v>
+        <v>0.518711</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.868071</v>
+        <v>0.813711</v>
       </c>
       <c r="C79" t="n">
-        <v>0.511852</v>
+        <v>0.48861</v>
       </c>
       <c r="D79" t="n">
-        <v>0.578479</v>
+        <v>0.554288</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.923415</v>
+        <v>0.856356</v>
       </c>
       <c r="C80" t="n">
-        <v>0.541851</v>
+        <v>0.518907</v>
       </c>
       <c r="D80" t="n">
-        <v>0.610311</v>
+        <v>0.5830920000000001</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.978573</v>
+        <v>0.907816</v>
       </c>
       <c r="C81" t="n">
-        <v>0.575534</v>
+        <v>0.549854</v>
       </c>
       <c r="D81" t="n">
-        <v>0.643319</v>
+        <v>0.612713</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.03067</v>
+        <v>0.956538</v>
       </c>
       <c r="C82" t="n">
-        <v>0.612999</v>
+        <v>0.583443</v>
       </c>
       <c r="D82" t="n">
-        <v>0.676183</v>
+        <v>0.645599</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.08844</v>
+        <v>1.00937</v>
       </c>
       <c r="C83" t="n">
-        <v>0.650965</v>
+        <v>0.616059</v>
       </c>
       <c r="D83" t="n">
-        <v>0.717729</v>
+        <v>0.68333</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.1886</v>
+        <v>1.06824</v>
       </c>
       <c r="C84" t="n">
-        <v>0.689295</v>
+        <v>0.652496</v>
       </c>
       <c r="D84" t="n">
-        <v>0.767829</v>
+        <v>0.728599</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.21506</v>
+        <v>1.12023</v>
       </c>
       <c r="C85" t="n">
-        <v>0.729294</v>
+        <v>0.689703</v>
       </c>
       <c r="D85" t="n">
-        <v>0.810842</v>
+        <v>0.770509</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.28198</v>
+        <v>1.17736</v>
       </c>
       <c r="C86" t="n">
-        <v>0.771578</v>
+        <v>0.727532</v>
       </c>
       <c r="D86" t="n">
-        <v>0.858572</v>
+        <v>0.814187</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.34953</v>
+        <v>1.23533</v>
       </c>
       <c r="C87" t="n">
-        <v>0.813656</v>
+        <v>0.764979</v>
       </c>
       <c r="D87" t="n">
-        <v>0.898845</v>
+        <v>0.850864</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.41726</v>
+        <v>1.29603</v>
       </c>
       <c r="C88" t="n">
-        <v>0.857198</v>
+        <v>0.804599</v>
       </c>
       <c r="D88" t="n">
-        <v>0.945519</v>
+        <v>0.892787</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.48691</v>
+        <v>1.35831</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9014180000000001</v>
+        <v>0.845633</v>
       </c>
       <c r="D89" t="n">
-        <v>0.993222</v>
+        <v>0.937074</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.56503</v>
+        <v>1.42462</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9491540000000001</v>
+        <v>0.887526</v>
       </c>
       <c r="D90" t="n">
-        <v>1.04212</v>
+        <v>0.9811800000000001</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.64673</v>
+        <v>1.49155</v>
       </c>
       <c r="C91" t="n">
-        <v>0.997621</v>
+        <v>0.931254</v>
       </c>
       <c r="D91" t="n">
-        <v>1.09242</v>
+        <v>1.02647</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.72801</v>
+        <v>1.56189</v>
       </c>
       <c r="C92" t="n">
-        <v>0.868228</v>
+        <v>0.80085</v>
       </c>
       <c r="D92" t="n">
-        <v>0.987044</v>
+        <v>0.910974</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.50128</v>
+        <v>1.37301</v>
       </c>
       <c r="C93" t="n">
-        <v>0.899222</v>
+        <v>0.8295630000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>1.0344</v>
+        <v>0.956461</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.54652</v>
+        <v>1.41338</v>
       </c>
       <c r="C94" t="n">
-        <v>0.931971</v>
+        <v>0.8594349999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>1.06964</v>
+        <v>0.987981</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.59211</v>
+        <v>1.45451</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9659990000000001</v>
+        <v>0.8908740000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>1.09912</v>
+        <v>1.01458</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.64054</v>
+        <v>1.49582</v>
       </c>
       <c r="C96" t="n">
-        <v>1.00182</v>
+        <v>0.923507</v>
       </c>
       <c r="D96" t="n">
-        <v>1.13569</v>
+        <v>1.0477</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.69079</v>
+        <v>1.54026</v>
       </c>
       <c r="C97" t="n">
-        <v>1.0389</v>
+        <v>0.956902</v>
       </c>
       <c r="D97" t="n">
-        <v>1.20256</v>
+        <v>1.10919</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.74517</v>
+        <v>1.58744</v>
       </c>
       <c r="C98" t="n">
-        <v>1.07635</v>
+        <v>0.990834</v>
       </c>
       <c r="D98" t="n">
-        <v>1.2344</v>
+        <v>1.13827</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.8056</v>
+        <v>1.63546</v>
       </c>
       <c r="C99" t="n">
-        <v>1.11552</v>
+        <v>1.02568</v>
       </c>
       <c r="D99" t="n">
-        <v>1.28274</v>
+        <v>1.18181</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.8605</v>
+        <v>1.6829</v>
       </c>
       <c r="C100" t="n">
-        <v>1.15551</v>
+        <v>1.06138</v>
       </c>
       <c r="D100" t="n">
-        <v>1.33586</v>
+        <v>1.22856</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.91361</v>
+        <v>1.7337</v>
       </c>
       <c r="C101" t="n">
-        <v>1.19583</v>
+        <v>1.09726</v>
       </c>
       <c r="D101" t="n">
-        <v>1.38586</v>
+        <v>1.27353</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.96962</v>
+        <v>1.78819</v>
       </c>
       <c r="C102" t="n">
-        <v>1.23706</v>
+        <v>1.13475</v>
       </c>
       <c r="D102" t="n">
-        <v>1.43541</v>
+        <v>1.3183</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.0479</v>
+        <v>1.84325</v>
       </c>
       <c r="C103" t="n">
-        <v>1.28108</v>
+        <v>1.17517</v>
       </c>
       <c r="D103" t="n">
-        <v>1.4884</v>
+        <v>1.36643</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.10746</v>
+        <v>1.90428</v>
       </c>
       <c r="C104" t="n">
-        <v>1.32337</v>
+        <v>1.21592</v>
       </c>
       <c r="D104" t="n">
-        <v>1.54184</v>
+        <v>1.41733</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.18749</v>
+        <v>1.96508</v>
       </c>
       <c r="C105" t="n">
-        <v>1.37044</v>
+        <v>1.25721</v>
       </c>
       <c r="D105" t="n">
-        <v>1.59753</v>
+        <v>1.46888</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.25975</v>
+        <v>2.03081</v>
       </c>
       <c r="C106" t="n">
-        <v>1.42088</v>
+        <v>1.30085</v>
       </c>
       <c r="D106" t="n">
-        <v>1.6572</v>
+        <v>1.52215</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.78176</v>
+        <v>1.65882</v>
       </c>
       <c r="C107" t="n">
-        <v>1.1348</v>
+        <v>1.04612</v>
       </c>
       <c r="D107" t="n">
-        <v>1.40716</v>
+        <v>1.26619</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.81642</v>
+        <v>1.70218</v>
       </c>
       <c r="C108" t="n">
-        <v>1.15508</v>
+        <v>1.08295</v>
       </c>
       <c r="D108" t="n">
-        <v>1.44156</v>
+        <v>1.3165</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.85923</v>
+        <v>1.74039</v>
       </c>
       <c r="C109" t="n">
-        <v>1.18327</v>
+        <v>1.10321</v>
       </c>
       <c r="D109" t="n">
-        <v>1.49012</v>
+        <v>1.35224</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.89783</v>
+        <v>1.7791</v>
       </c>
       <c r="C110" t="n">
-        <v>1.21686</v>
+        <v>1.1408</v>
       </c>
       <c r="D110" t="n">
-        <v>1.53581</v>
+        <v>1.40578</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.93926</v>
+        <v>1.81325</v>
       </c>
       <c r="C111" t="n">
-        <v>1.24846</v>
+        <v>1.16436</v>
       </c>
       <c r="D111" t="n">
-        <v>1.56859</v>
+        <v>1.42015</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.98519</v>
+        <v>1.85158</v>
       </c>
       <c r="C112" t="n">
-        <v>1.28296</v>
+        <v>1.19897</v>
       </c>
       <c r="D112" t="n">
-        <v>1.61407</v>
+        <v>1.4665</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.02732</v>
+        <v>1.89456</v>
       </c>
       <c r="C113" t="n">
-        <v>1.31832</v>
+        <v>1.23052</v>
       </c>
       <c r="D113" t="n">
-        <v>1.66542</v>
+        <v>1.5097</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.08044</v>
+        <v>1.94265</v>
       </c>
       <c r="C114" t="n">
-        <v>1.35491</v>
+        <v>1.26554</v>
       </c>
       <c r="D114" t="n">
-        <v>1.70262</v>
+        <v>1.54335</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.12942</v>
+        <v>1.99968</v>
       </c>
       <c r="C115" t="n">
-        <v>1.39307</v>
+        <v>1.30432</v>
       </c>
       <c r="D115" t="n">
-        <v>1.76221</v>
+        <v>1.61041</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.18637</v>
+        <v>2.0424</v>
       </c>
       <c r="C116" t="n">
-        <v>1.43221</v>
+        <v>1.33457</v>
       </c>
       <c r="D116" t="n">
-        <v>1.80872</v>
+        <v>1.65644</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.24831</v>
+        <v>2.09946</v>
       </c>
       <c r="C117" t="n">
-        <v>1.47221</v>
+        <v>1.37501</v>
       </c>
       <c r="D117" t="n">
-        <v>1.86684</v>
+        <v>1.70503</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.30441</v>
+        <v>2.15569</v>
       </c>
       <c r="C118" t="n">
-        <v>1.51345</v>
+        <v>1.41398</v>
       </c>
       <c r="D118" t="n">
-        <v>1.91212</v>
+        <v>1.74995</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.36654</v>
+        <v>2.2172</v>
       </c>
       <c r="C119" t="n">
-        <v>1.55622</v>
+        <v>1.45867</v>
       </c>
       <c r="D119" t="n">
-        <v>1.96997</v>
+        <v>1.80081</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.283306</v>
+        <v>0.282271</v>
       </c>
       <c r="C2" t="n">
-        <v>0.217659</v>
+        <v>0.211384</v>
       </c>
       <c r="D2" t="n">
-        <v>0.181834</v>
+        <v>0.180609</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.292764</v>
+        <v>0.289633</v>
       </c>
       <c r="C3" t="n">
-        <v>0.222507</v>
+        <v>0.216153</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18401</v>
+        <v>0.182476</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.300162</v>
+        <v>0.297041</v>
       </c>
       <c r="C4" t="n">
-        <v>0.228538</v>
+        <v>0.222242</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18679</v>
+        <v>0.185525</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.310714</v>
+        <v>0.306115</v>
       </c>
       <c r="C5" t="n">
-        <v>0.234207</v>
+        <v>0.228423</v>
       </c>
       <c r="D5" t="n">
-        <v>0.189798</v>
+        <v>0.187967</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.321503</v>
+        <v>0.31617</v>
       </c>
       <c r="C6" t="n">
-        <v>0.23869</v>
+        <v>0.233742</v>
       </c>
       <c r="D6" t="n">
-        <v>0.191668</v>
+        <v>0.190768</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.328282</v>
+        <v>0.328422</v>
       </c>
       <c r="C7" t="n">
-        <v>0.204513</v>
+        <v>0.200863</v>
       </c>
       <c r="D7" t="n">
-        <v>0.181969</v>
+        <v>0.176368</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.25722</v>
+        <v>0.2522</v>
       </c>
       <c r="C8" t="n">
-        <v>0.207748</v>
+        <v>0.203971</v>
       </c>
       <c r="D8" t="n">
-        <v>0.183668</v>
+        <v>0.182135</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.262453</v>
+        <v>0.254959</v>
       </c>
       <c r="C9" t="n">
-        <v>0.213245</v>
+        <v>0.209707</v>
       </c>
       <c r="D9" t="n">
-        <v>0.185622</v>
+        <v>0.184334</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.270309</v>
+        <v>0.265104</v>
       </c>
       <c r="C10" t="n">
-        <v>0.219006</v>
+        <v>0.216474</v>
       </c>
       <c r="D10" t="n">
-        <v>0.187677</v>
+        <v>0.183044</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.277521</v>
+        <v>0.2722</v>
       </c>
       <c r="C11" t="n">
-        <v>0.223489</v>
+        <v>0.220112</v>
       </c>
       <c r="D11" t="n">
-        <v>0.190572</v>
+        <v>0.187179</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.285055</v>
+        <v>0.280424</v>
       </c>
       <c r="C12" t="n">
-        <v>0.230749</v>
+        <v>0.225379</v>
       </c>
       <c r="D12" t="n">
-        <v>0.193322</v>
+        <v>0.189677</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288474</v>
+        <v>0.288374</v>
       </c>
       <c r="C13" t="n">
-        <v>0.237492</v>
+        <v>0.230901</v>
       </c>
       <c r="D13" t="n">
-        <v>0.195762</v>
+        <v>0.192258</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.303169</v>
+        <v>0.297026</v>
       </c>
       <c r="C14" t="n">
-        <v>0.244896</v>
+        <v>0.240764</v>
       </c>
       <c r="D14" t="n">
-        <v>0.19978</v>
+        <v>0.196116</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.31005</v>
+        <v>0.304351</v>
       </c>
       <c r="C15" t="n">
-        <v>0.252611</v>
+        <v>0.245976</v>
       </c>
       <c r="D15" t="n">
-        <v>0.202459</v>
+        <v>0.200447</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.319276</v>
+        <v>0.315592</v>
       </c>
       <c r="C16" t="n">
-        <v>0.262376</v>
+        <v>0.257916</v>
       </c>
       <c r="D16" t="n">
-        <v>0.206884</v>
+        <v>0.205898</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.332922</v>
+        <v>0.328628</v>
       </c>
       <c r="C17" t="n">
-        <v>0.268949</v>
+        <v>0.265963</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210537</v>
+        <v>0.208967</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.342081</v>
+        <v>0.337138</v>
       </c>
       <c r="C18" t="n">
-        <v>0.278493</v>
+        <v>0.273783</v>
       </c>
       <c r="D18" t="n">
-        <v>0.212048</v>
+        <v>0.213753</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.353044</v>
+        <v>0.348596</v>
       </c>
       <c r="C19" t="n">
-        <v>0.287828</v>
+        <v>0.283939</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219521</v>
+        <v>0.218459</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.367497</v>
+        <v>0.363387</v>
       </c>
       <c r="C20" t="n">
-        <v>0.300487</v>
+        <v>0.29635</v>
       </c>
       <c r="D20" t="n">
-        <v>0.224246</v>
+        <v>0.224407</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.380544</v>
+        <v>0.375753</v>
       </c>
       <c r="C21" t="n">
-        <v>0.242073</v>
+        <v>0.241524</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204126</v>
+        <v>0.206401</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.295604</v>
+        <v>0.295532</v>
       </c>
       <c r="C22" t="n">
-        <v>0.247956</v>
+        <v>0.245747</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206561</v>
+        <v>0.209585</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.302799</v>
+        <v>0.303062</v>
       </c>
       <c r="C23" t="n">
-        <v>0.254644</v>
+        <v>0.254331</v>
       </c>
       <c r="D23" t="n">
-        <v>0.210355</v>
+        <v>0.212637</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.310546</v>
+        <v>0.310562</v>
       </c>
       <c r="C24" t="n">
-        <v>0.259923</v>
+        <v>0.259907</v>
       </c>
       <c r="D24" t="n">
-        <v>0.213639</v>
+        <v>0.216962</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.317678</v>
+        <v>0.317622</v>
       </c>
       <c r="C25" t="n">
-        <v>0.266564</v>
+        <v>0.266569</v>
       </c>
       <c r="D25" t="n">
-        <v>0.217068</v>
+        <v>0.219905</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.326457</v>
+        <v>0.326116</v>
       </c>
       <c r="C26" t="n">
-        <v>0.27441</v>
+        <v>0.274647</v>
       </c>
       <c r="D26" t="n">
-        <v>0.221262</v>
+        <v>0.224035</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.333422</v>
+        <v>0.332322</v>
       </c>
       <c r="C27" t="n">
-        <v>0.279275</v>
+        <v>0.27932</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224354</v>
+        <v>0.22702</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.343421</v>
+        <v>0.342635</v>
       </c>
       <c r="C28" t="n">
-        <v>0.287279</v>
+        <v>0.286029</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228411</v>
+        <v>0.230187</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.35298</v>
+        <v>0.352595</v>
       </c>
       <c r="C29" t="n">
-        <v>0.294294</v>
+        <v>0.293128</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232514</v>
+        <v>0.234825</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.362946</v>
+        <v>0.362075</v>
       </c>
       <c r="C30" t="n">
-        <v>0.302497</v>
+        <v>0.302449</v>
       </c>
       <c r="D30" t="n">
-        <v>0.236497</v>
+        <v>0.239657</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.373131</v>
+        <v>0.372957</v>
       </c>
       <c r="C31" t="n">
-        <v>0.310122</v>
+        <v>0.309967</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2406</v>
+        <v>0.24446</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.383552</v>
+        <v>0.382846</v>
       </c>
       <c r="C32" t="n">
-        <v>0.32003</v>
+        <v>0.319856</v>
       </c>
       <c r="D32" t="n">
-        <v>0.245929</v>
+        <v>0.248221</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.396029</v>
+        <v>0.396401</v>
       </c>
       <c r="C33" t="n">
-        <v>0.328921</v>
+        <v>0.328571</v>
       </c>
       <c r="D33" t="n">
-        <v>0.250692</v>
+        <v>0.254696</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.408317</v>
+        <v>0.408437</v>
       </c>
       <c r="C34" t="n">
-        <v>0.339055</v>
+        <v>0.339525</v>
       </c>
       <c r="D34" t="n">
-        <v>0.254909</v>
+        <v>0.258852</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.422003</v>
+        <v>0.421846</v>
       </c>
       <c r="C35" t="n">
-        <v>0.259814</v>
+        <v>0.256766</v>
       </c>
       <c r="D35" t="n">
-        <v>0.226882</v>
+        <v>0.223686</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.316176</v>
+        <v>0.313606</v>
       </c>
       <c r="C36" t="n">
-        <v>0.267093</v>
+        <v>0.264615</v>
       </c>
       <c r="D36" t="n">
-        <v>0.230338</v>
+        <v>0.227091</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322492</v>
+        <v>0.32029</v>
       </c>
       <c r="C37" t="n">
-        <v>0.272527</v>
+        <v>0.269788</v>
       </c>
       <c r="D37" t="n">
-        <v>0.233351</v>
+        <v>0.230264</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.330612</v>
+        <v>0.328587</v>
       </c>
       <c r="C38" t="n">
-        <v>0.279504</v>
+        <v>0.276665</v>
       </c>
       <c r="D38" t="n">
-        <v>0.236852</v>
+        <v>0.233764</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.336486</v>
+        <v>0.33413</v>
       </c>
       <c r="C39" t="n">
-        <v>0.285494</v>
+        <v>0.282816</v>
       </c>
       <c r="D39" t="n">
-        <v>0.240516</v>
+        <v>0.237855</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.346204</v>
+        <v>0.344103</v>
       </c>
       <c r="C40" t="n">
-        <v>0.292191</v>
+        <v>0.28979</v>
       </c>
       <c r="D40" t="n">
-        <v>0.244593</v>
+        <v>0.241535</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.354387</v>
+        <v>0.353966</v>
       </c>
       <c r="C41" t="n">
-        <v>0.29901</v>
+        <v>0.297054</v>
       </c>
       <c r="D41" t="n">
-        <v>0.247697</v>
+        <v>0.244126</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.361954</v>
+        <v>0.359698</v>
       </c>
       <c r="C42" t="n">
-        <v>0.304186</v>
+        <v>0.302026</v>
       </c>
       <c r="D42" t="n">
-        <v>0.251051</v>
+        <v>0.248246</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.370794</v>
+        <v>0.368897</v>
       </c>
       <c r="C43" t="n">
-        <v>0.312582</v>
+        <v>0.309945</v>
       </c>
       <c r="D43" t="n">
-        <v>0.254623</v>
+        <v>0.251752</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.380698</v>
+        <v>0.37857</v>
       </c>
       <c r="C44" t="n">
-        <v>0.320342</v>
+        <v>0.318124</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259106</v>
+        <v>0.25624</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.392214</v>
+        <v>0.390504</v>
       </c>
       <c r="C45" t="n">
-        <v>0.329428</v>
+        <v>0.32739</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264706</v>
+        <v>0.261009</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.402898</v>
+        <v>0.401519</v>
       </c>
       <c r="C46" t="n">
-        <v>0.338535</v>
+        <v>0.336514</v>
       </c>
       <c r="D46" t="n">
-        <v>0.267494</v>
+        <v>0.264995</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.413018</v>
+        <v>0.410912</v>
       </c>
       <c r="C47" t="n">
-        <v>0.346249</v>
+        <v>0.344241</v>
       </c>
       <c r="D47" t="n">
-        <v>0.27356</v>
+        <v>0.270082</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.424441</v>
+        <v>0.423037</v>
       </c>
       <c r="C48" t="n">
-        <v>0.356589</v>
+        <v>0.354576</v>
       </c>
       <c r="D48" t="n">
-        <v>0.278472</v>
+        <v>0.275493</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.435352</v>
+        <v>0.433752</v>
       </c>
       <c r="C49" t="n">
-        <v>0.366752</v>
+        <v>0.365366</v>
       </c>
       <c r="D49" t="n">
-        <v>0.283735</v>
+        <v>0.281582</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.449527</v>
+        <v>0.447801</v>
       </c>
       <c r="C50" t="n">
-        <v>0.274759</v>
+        <v>0.27503</v>
       </c>
       <c r="D50" t="n">
-        <v>0.231672</v>
+        <v>0.23145</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.333741</v>
+        <v>0.333907</v>
       </c>
       <c r="C51" t="n">
-        <v>0.280627</v>
+        <v>0.280535</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234629</v>
+        <v>0.234816</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340807</v>
+        <v>0.341182</v>
       </c>
       <c r="C52" t="n">
-        <v>0.286678</v>
+        <v>0.287113</v>
       </c>
       <c r="D52" t="n">
-        <v>0.238166</v>
+        <v>0.238164</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347607</v>
+        <v>0.34808</v>
       </c>
       <c r="C53" t="n">
-        <v>0.294091</v>
+        <v>0.294348</v>
       </c>
       <c r="D53" t="n">
-        <v>0.242326</v>
+        <v>0.241914</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.355739</v>
+        <v>0.356007</v>
       </c>
       <c r="C54" t="n">
-        <v>0.300464</v>
+        <v>0.300644</v>
       </c>
       <c r="D54" t="n">
-        <v>0.245691</v>
+        <v>0.245242</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.364693</v>
+        <v>0.364459</v>
       </c>
       <c r="C55" t="n">
-        <v>0.307807</v>
+        <v>0.308706</v>
       </c>
       <c r="D55" t="n">
-        <v>0.250013</v>
+        <v>0.24994</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.373856</v>
+        <v>0.374093</v>
       </c>
       <c r="C56" t="n">
-        <v>0.313951</v>
+        <v>0.315119</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253791</v>
+        <v>0.254222</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.383195</v>
+        <v>0.384263</v>
       </c>
       <c r="C57" t="n">
-        <v>0.322296</v>
+        <v>0.322814</v>
       </c>
       <c r="D57" t="n">
-        <v>0.258067</v>
+        <v>0.258432</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.392951</v>
+        <v>0.394122</v>
       </c>
       <c r="C58" t="n">
-        <v>0.330915</v>
+        <v>0.331553</v>
       </c>
       <c r="D58" t="n">
-        <v>0.264017</v>
+        <v>0.263917</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.404667</v>
+        <v>0.40587</v>
       </c>
       <c r="C59" t="n">
-        <v>0.337863</v>
+        <v>0.338562</v>
       </c>
       <c r="D59" t="n">
-        <v>0.266963</v>
+        <v>0.267336</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.414109</v>
+        <v>0.415394</v>
       </c>
       <c r="C60" t="n">
-        <v>0.346046</v>
+        <v>0.347181</v>
       </c>
       <c r="D60" t="n">
-        <v>0.271261</v>
+        <v>0.271398</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.425091</v>
+        <v>0.426472</v>
       </c>
       <c r="C61" t="n">
-        <v>0.356418</v>
+        <v>0.357113</v>
       </c>
       <c r="D61" t="n">
-        <v>0.276551</v>
+        <v>0.277318</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.436215</v>
+        <v>0.437709</v>
       </c>
       <c r="C62" t="n">
-        <v>0.365715</v>
+        <v>0.366861</v>
       </c>
       <c r="D62" t="n">
-        <v>0.28146</v>
+        <v>0.281762</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.447828</v>
+        <v>0.449577</v>
       </c>
       <c r="C63" t="n">
-        <v>0.376477</v>
+        <v>0.377399</v>
       </c>
       <c r="D63" t="n">
-        <v>0.287874</v>
+        <v>0.287565</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.46054</v>
+        <v>0.463094</v>
       </c>
       <c r="C64" t="n">
-        <v>0.298037</v>
+        <v>0.290199</v>
       </c>
       <c r="D64" t="n">
-        <v>0.248442</v>
+        <v>0.247565</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.367058</v>
+        <v>0.354583</v>
       </c>
       <c r="C65" t="n">
-        <v>0.305315</v>
+        <v>0.296568</v>
       </c>
       <c r="D65" t="n">
-        <v>0.251752</v>
+        <v>0.246019</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.380305</v>
+        <v>0.366095</v>
       </c>
       <c r="C66" t="n">
-        <v>0.313837</v>
+        <v>0.306278</v>
       </c>
       <c r="D66" t="n">
-        <v>0.255565</v>
+        <v>0.252907</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.392098</v>
+        <v>0.378726</v>
       </c>
       <c r="C67" t="n">
-        <v>0.326807</v>
+        <v>0.318136</v>
       </c>
       <c r="D67" t="n">
-        <v>0.26133</v>
+        <v>0.257471</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.408706</v>
+        <v>0.390447</v>
       </c>
       <c r="C68" t="n">
-        <v>0.338375</v>
+        <v>0.326571</v>
       </c>
       <c r="D68" t="n">
-        <v>0.267586</v>
+        <v>0.26349</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.425862</v>
+        <v>0.41218</v>
       </c>
       <c r="C69" t="n">
-        <v>0.35411</v>
+        <v>0.338811</v>
       </c>
       <c r="D69" t="n">
-        <v>0.272281</v>
+        <v>0.269005</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.437245</v>
+        <v>0.427262</v>
       </c>
       <c r="C70" t="n">
-        <v>0.368585</v>
+        <v>0.352502</v>
       </c>
       <c r="D70" t="n">
-        <v>0.278304</v>
+        <v>0.275071</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.469059</v>
+        <v>0.444438</v>
       </c>
       <c r="C71" t="n">
-        <v>0.384494</v>
+        <v>0.367742</v>
       </c>
       <c r="D71" t="n">
-        <v>0.28812</v>
+        <v>0.2806</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.493018</v>
+        <v>0.469375</v>
       </c>
       <c r="C72" t="n">
-        <v>0.402979</v>
+        <v>0.387524</v>
       </c>
       <c r="D72" t="n">
-        <v>0.296169</v>
+        <v>0.290231</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.522441</v>
+        <v>0.505793</v>
       </c>
       <c r="C73" t="n">
-        <v>0.425807</v>
+        <v>0.413252</v>
       </c>
       <c r="D73" t="n">
-        <v>0.304114</v>
+        <v>0.299448</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.550937</v>
+        <v>0.539265</v>
       </c>
       <c r="C74" t="n">
-        <v>0.44838</v>
+        <v>0.440291</v>
       </c>
       <c r="D74" t="n">
-        <v>0.31637</v>
+        <v>0.311364</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.582189</v>
+        <v>0.57261</v>
       </c>
       <c r="C75" t="n">
-        <v>0.47161</v>
+        <v>0.467018</v>
       </c>
       <c r="D75" t="n">
-        <v>0.32766</v>
+        <v>0.322226</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.61395</v>
+        <v>0.607124</v>
       </c>
       <c r="C76" t="n">
-        <v>0.502726</v>
+        <v>0.495183</v>
       </c>
       <c r="D76" t="n">
-        <v>0.340052</v>
+        <v>0.330096</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.654725</v>
+        <v>0.658202</v>
       </c>
       <c r="C77" t="n">
-        <v>0.53166</v>
+        <v>0.532207</v>
       </c>
       <c r="D77" t="n">
-        <v>0.35258</v>
+        <v>0.349132</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.703299</v>
+        <v>0.701878</v>
       </c>
       <c r="C78" t="n">
-        <v>0.45894</v>
+        <v>0.473108</v>
       </c>
       <c r="D78" t="n">
-        <v>0.315424</v>
+        <v>0.318583</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.61922</v>
+        <v>0.651935</v>
       </c>
       <c r="C79" t="n">
-        <v>0.485266</v>
+        <v>0.502865</v>
       </c>
       <c r="D79" t="n">
-        <v>0.328193</v>
+        <v>0.330776</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.659914</v>
+        <v>0.693719</v>
       </c>
       <c r="C80" t="n">
-        <v>0.517214</v>
+        <v>0.537855</v>
       </c>
       <c r="D80" t="n">
-        <v>0.338175</v>
+        <v>0.342338</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.705353</v>
+        <v>0.741822</v>
       </c>
       <c r="C81" t="n">
-        <v>0.556718</v>
+        <v>0.577036</v>
       </c>
       <c r="D81" t="n">
-        <v>0.355019</v>
+        <v>0.360303</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.755234</v>
+        <v>0.800213</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5920570000000001</v>
+        <v>0.620707</v>
       </c>
       <c r="D82" t="n">
-        <v>0.37674</v>
+        <v>0.388135</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.80546</v>
+        <v>0.851785</v>
       </c>
       <c r="C83" t="n">
-        <v>0.632692</v>
+        <v>0.665285</v>
       </c>
       <c r="D83" t="n">
-        <v>0.391507</v>
+        <v>0.40888</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.859172</v>
+        <v>0.912479</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6760930000000001</v>
+        <v>0.712238</v>
       </c>
       <c r="D84" t="n">
-        <v>0.412903</v>
+        <v>0.433824</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.916089</v>
+        <v>0.972248</v>
       </c>
       <c r="C85" t="n">
-        <v>0.720199</v>
+        <v>0.7615769999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.437532</v>
+        <v>0.45005</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.974873</v>
+        <v>1.04199</v>
       </c>
       <c r="C86" t="n">
-        <v>0.766269</v>
+        <v>0.813051</v>
       </c>
       <c r="D86" t="n">
-        <v>0.463681</v>
+        <v>0.48229</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.03719</v>
+        <v>1.11119</v>
       </c>
       <c r="C87" t="n">
-        <v>0.821214</v>
+        <v>0.8736159999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.485922</v>
+        <v>0.5139629999999999</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.10299</v>
+        <v>1.18198</v>
       </c>
       <c r="C88" t="n">
-        <v>0.873485</v>
+        <v>0.9329499999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.513665</v>
+        <v>0.547575</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.1739</v>
+        <v>1.26248</v>
       </c>
       <c r="C89" t="n">
-        <v>0.931518</v>
+        <v>0.996108</v>
       </c>
       <c r="D89" t="n">
-        <v>0.543436</v>
+        <v>0.573819</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.24653</v>
+        <v>1.34035</v>
       </c>
       <c r="C90" t="n">
-        <v>0.987156</v>
+        <v>1.0572</v>
       </c>
       <c r="D90" t="n">
-        <v>0.573723</v>
+        <v>0.609507</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.32389</v>
+        <v>1.42826</v>
       </c>
       <c r="C91" t="n">
-        <v>1.05025</v>
+        <v>1.12751</v>
       </c>
       <c r="D91" t="n">
-        <v>0.610851</v>
+        <v>0.648151</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.40521</v>
+        <v>1.51743</v>
       </c>
       <c r="C92" t="n">
-        <v>0.883073</v>
+        <v>0.951613</v>
       </c>
       <c r="D92" t="n">
-        <v>0.616885</v>
+        <v>0.650973</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.13465</v>
+        <v>1.22849</v>
       </c>
       <c r="C93" t="n">
-        <v>0.917759</v>
+        <v>0.989255</v>
       </c>
       <c r="D93" t="n">
-        <v>0.639908</v>
+        <v>0.682364</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.17898</v>
+        <v>1.25033</v>
       </c>
       <c r="C94" t="n">
-        <v>0.956165</v>
+        <v>1.03204</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6614989999999999</v>
+        <v>0.705608</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.22496</v>
+        <v>1.29143</v>
       </c>
       <c r="C95" t="n">
-        <v>0.991922</v>
+        <v>1.06976</v>
       </c>
       <c r="D95" t="n">
-        <v>0.686634</v>
+        <v>0.729557</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.27869</v>
+        <v>1.34664</v>
       </c>
       <c r="C96" t="n">
-        <v>1.03502</v>
+        <v>1.11813</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7148369999999999</v>
+        <v>0.755362</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.32585</v>
+        <v>1.39672</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07601</v>
+        <v>1.16482</v>
       </c>
       <c r="D97" t="n">
-        <v>0.736196</v>
+        <v>0.783822</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.38488</v>
+        <v>1.45561</v>
       </c>
       <c r="C98" t="n">
-        <v>1.11962</v>
+        <v>1.20095</v>
       </c>
       <c r="D98" t="n">
-        <v>0.765866</v>
+        <v>0.813595</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.4367</v>
+        <v>1.51516</v>
       </c>
       <c r="C99" t="n">
-        <v>1.1667</v>
+        <v>1.24619</v>
       </c>
       <c r="D99" t="n">
-        <v>0.7938770000000001</v>
+        <v>0.8423040000000001</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.48611</v>
+        <v>1.57537</v>
       </c>
       <c r="C100" t="n">
-        <v>1.21261</v>
+        <v>1.27847</v>
       </c>
       <c r="D100" t="n">
-        <v>0.818625</v>
+        <v>0.872031</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.53734</v>
+        <v>1.64692</v>
       </c>
       <c r="C101" t="n">
-        <v>1.26523</v>
+        <v>1.32938</v>
       </c>
       <c r="D101" t="n">
-        <v>0.846257</v>
+        <v>0.908753</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.59858</v>
+        <v>1.71225</v>
       </c>
       <c r="C102" t="n">
-        <v>1.31015</v>
+        <v>1.38631</v>
       </c>
       <c r="D102" t="n">
-        <v>0.875063</v>
+        <v>0.943881</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.65579</v>
+        <v>1.78504</v>
       </c>
       <c r="C103" t="n">
-        <v>1.368</v>
+        <v>1.44524</v>
       </c>
       <c r="D103" t="n">
-        <v>0.90965</v>
+        <v>0.976088</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.70282</v>
+        <v>1.86326</v>
       </c>
       <c r="C104" t="n">
-        <v>1.41055</v>
+        <v>1.50502</v>
       </c>
       <c r="D104" t="n">
-        <v>0.940646</v>
+        <v>1.01514</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.77132</v>
+        <v>1.94142</v>
       </c>
       <c r="C105" t="n">
-        <v>1.48432</v>
+        <v>1.56993</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9771260000000001</v>
+        <v>1.06171</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.84665</v>
+        <v>2.02323</v>
       </c>
       <c r="C106" t="n">
-        <v>1.51191</v>
+        <v>1.63724</v>
       </c>
       <c r="D106" t="n">
-        <v>1.00573</v>
+        <v>1.09677</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.35576</v>
+        <v>1.4874</v>
       </c>
       <c r="C107" t="n">
-        <v>1.14215</v>
+        <v>1.22521</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9281470000000001</v>
+        <v>0.986584</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.39697</v>
+        <v>1.53335</v>
       </c>
       <c r="C108" t="n">
-        <v>1.17087</v>
+        <v>1.28297</v>
       </c>
       <c r="D108" t="n">
-        <v>0.951582</v>
+        <v>1.03238</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.44223</v>
+        <v>1.58112</v>
       </c>
       <c r="C109" t="n">
-        <v>1.20185</v>
+        <v>1.31959</v>
       </c>
       <c r="D109" t="n">
-        <v>0.970842</v>
+        <v>1.051</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.49079</v>
+        <v>1.63765</v>
       </c>
       <c r="C110" t="n">
-        <v>1.23827</v>
+        <v>1.33958</v>
       </c>
       <c r="D110" t="n">
-        <v>0.99091</v>
+        <v>1.05696</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.54015</v>
+        <v>1.67091</v>
       </c>
       <c r="C111" t="n">
-        <v>1.27762</v>
+        <v>1.38202</v>
       </c>
       <c r="D111" t="n">
-        <v>1.01658</v>
+        <v>1.08875</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.59027</v>
+        <v>1.74561</v>
       </c>
       <c r="C112" t="n">
-        <v>1.31785</v>
+        <v>1.43268</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04468</v>
+        <v>1.11159</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.64298</v>
+        <v>1.78957</v>
       </c>
       <c r="C113" t="n">
-        <v>1.36055</v>
+        <v>1.4745</v>
       </c>
       <c r="D113" t="n">
-        <v>1.06888</v>
+        <v>1.17079</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.70041</v>
+        <v>1.87215</v>
       </c>
       <c r="C114" t="n">
-        <v>1.40201</v>
+        <v>1.54326</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09532</v>
+        <v>1.19984</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.75911</v>
+        <v>1.93276</v>
       </c>
       <c r="C115" t="n">
-        <v>1.44945</v>
+        <v>1.5959</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12712</v>
+        <v>1.2235</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.82282</v>
+        <v>2.0089</v>
       </c>
       <c r="C116" t="n">
-        <v>1.49867</v>
+        <v>1.6505</v>
       </c>
       <c r="D116" t="n">
-        <v>1.15635</v>
+        <v>1.24803</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.88839</v>
+        <v>2.08614</v>
       </c>
       <c r="C117" t="n">
-        <v>1.55165</v>
+        <v>1.715</v>
       </c>
       <c r="D117" t="n">
-        <v>1.18441</v>
+        <v>1.26218</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.95731</v>
+        <v>2.16239</v>
       </c>
       <c r="C118" t="n">
-        <v>1.60827</v>
+        <v>1.7752</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21569</v>
+        <v>1.32031</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.0297</v>
+        <v>2.24138</v>
       </c>
       <c r="C119" t="n">
-        <v>1.66346</v>
+        <v>1.83688</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25018</v>
+        <v>1.36754</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.646263</v>
+        <v>0.638935</v>
       </c>
       <c r="C2" t="n">
-        <v>0.483009</v>
+        <v>0.476425</v>
       </c>
       <c r="D2" t="n">
-        <v>0.31041</v>
+        <v>0.308552</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.664992</v>
+        <v>0.664741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.497936</v>
+        <v>0.485543</v>
       </c>
       <c r="D3" t="n">
-        <v>0.322805</v>
+        <v>0.320173</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.699022</v>
+        <v>0.690439</v>
       </c>
       <c r="C4" t="n">
-        <v>0.527402</v>
+        <v>0.506633</v>
       </c>
       <c r="D4" t="n">
-        <v>0.333999</v>
+        <v>0.33126</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.723032</v>
+        <v>0.714866</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5441009999999999</v>
+        <v>0.5263949999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.344068</v>
+        <v>0.340752</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.75364</v>
+        <v>0.743067</v>
       </c>
       <c r="C6" t="n">
-        <v>0.565825</v>
+        <v>0.54657</v>
       </c>
       <c r="D6" t="n">
-        <v>0.356102</v>
+        <v>0.349921</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.781494</v>
+        <v>0.772574</v>
       </c>
       <c r="C7" t="n">
-        <v>0.59577</v>
+        <v>0.572215</v>
       </c>
       <c r="D7" t="n">
-        <v>0.362514</v>
+        <v>0.358448</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.810316</v>
+        <v>0.804813</v>
       </c>
       <c r="C8" t="n">
-        <v>0.618166</v>
+        <v>0.594557</v>
       </c>
       <c r="D8" t="n">
-        <v>0.367843</v>
+        <v>0.362571</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.845743</v>
+        <v>0.834322</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6428160000000001</v>
+        <v>0.624587</v>
       </c>
       <c r="D9" t="n">
-        <v>0.379164</v>
+        <v>0.37362</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8801870000000001</v>
+        <v>0.870566</v>
       </c>
       <c r="C10" t="n">
-        <v>0.66469</v>
+        <v>0.64943</v>
       </c>
       <c r="D10" t="n">
-        <v>0.393148</v>
+        <v>0.391222</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.911564</v>
+        <v>0.907822</v>
       </c>
       <c r="C11" t="n">
-        <v>0.450099</v>
+        <v>0.436341</v>
       </c>
       <c r="D11" t="n">
-        <v>0.290739</v>
+        <v>0.28781</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.593937</v>
+        <v>0.594259</v>
       </c>
       <c r="C12" t="n">
-        <v>0.471134</v>
+        <v>0.462359</v>
       </c>
       <c r="D12" t="n">
-        <v>0.300828</v>
+        <v>0.296511</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.61</v>
+        <v>0.610827</v>
       </c>
       <c r="C13" t="n">
-        <v>0.48709</v>
+        <v>0.482375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.30873</v>
+        <v>0.308389</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.640311</v>
+        <v>0.638578</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5206229999999999</v>
+        <v>0.507969</v>
       </c>
       <c r="D14" t="n">
-        <v>0.317805</v>
+        <v>0.317872</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6746</v>
+        <v>0.665596</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5431550000000001</v>
+        <v>0.537319</v>
       </c>
       <c r="D15" t="n">
-        <v>0.336194</v>
+        <v>0.328503</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.712164</v>
+        <v>0.702195</v>
       </c>
       <c r="C16" t="n">
-        <v>0.575735</v>
+        <v>0.56125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.35058</v>
+        <v>0.344005</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.747953</v>
+        <v>0.735009</v>
       </c>
       <c r="C17" t="n">
-        <v>0.608717</v>
+        <v>0.591605</v>
       </c>
       <c r="D17" t="n">
-        <v>0.362876</v>
+        <v>0.361761</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.786481</v>
+        <v>0.771351</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6478930000000001</v>
+        <v>0.632359</v>
       </c>
       <c r="D18" t="n">
-        <v>0.375526</v>
+        <v>0.36706</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.828519</v>
+        <v>0.812732</v>
       </c>
       <c r="C19" t="n">
-        <v>0.677502</v>
+        <v>0.664076</v>
       </c>
       <c r="D19" t="n">
-        <v>0.390804</v>
+        <v>0.382655</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8689480000000001</v>
+        <v>0.848478</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7175049999999999</v>
+        <v>0.695987</v>
       </c>
       <c r="D20" t="n">
-        <v>0.405717</v>
+        <v>0.39218</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.911316</v>
+        <v>0.885931</v>
       </c>
       <c r="C21" t="n">
-        <v>0.751674</v>
+        <v>0.734561</v>
       </c>
       <c r="D21" t="n">
-        <v>0.420157</v>
+        <v>0.40758</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.952424</v>
+        <v>0.9285060000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7908579999999999</v>
+        <v>0.763635</v>
       </c>
       <c r="D22" t="n">
-        <v>0.436004</v>
+        <v>0.424196</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.996984</v>
+        <v>0.967958</v>
       </c>
       <c r="C23" t="n">
-        <v>0.830421</v>
+        <v>0.807825</v>
       </c>
       <c r="D23" t="n">
-        <v>0.446443</v>
+        <v>0.436245</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.04008</v>
+        <v>1.01788</v>
       </c>
       <c r="C24" t="n">
-        <v>0.86589</v>
+        <v>0.850388</v>
       </c>
       <c r="D24" t="n">
-        <v>0.466018</v>
+        <v>0.452032</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.08924</v>
+        <v>1.06721</v>
       </c>
       <c r="C25" t="n">
-        <v>0.911875</v>
+        <v>0.886007</v>
       </c>
       <c r="D25" t="n">
-        <v>0.486732</v>
+        <v>0.469937</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.13144</v>
+        <v>1.10237</v>
       </c>
       <c r="C26" t="n">
-        <v>0.58802</v>
+        <v>0.578727</v>
       </c>
       <c r="D26" t="n">
-        <v>0.34671</v>
+        <v>0.340239</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7396779999999999</v>
+        <v>0.7276280000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.614266</v>
+        <v>0.604701</v>
       </c>
       <c r="D27" t="n">
-        <v>0.359225</v>
+        <v>0.354536</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.773855</v>
+        <v>0.7647119999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.647913</v>
+        <v>0.638025</v>
       </c>
       <c r="D28" t="n">
-        <v>0.373031</v>
+        <v>0.369412</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.810819</v>
+        <v>0.798303</v>
       </c>
       <c r="C29" t="n">
-        <v>0.68036</v>
+        <v>0.670554</v>
       </c>
       <c r="D29" t="n">
-        <v>0.386333</v>
+        <v>0.382676</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.846757</v>
+        <v>0.836704</v>
       </c>
       <c r="C30" t="n">
-        <v>0.71369</v>
+        <v>0.704144</v>
       </c>
       <c r="D30" t="n">
-        <v>0.400921</v>
+        <v>0.40042</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.884392</v>
+        <v>0.872022</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7461950000000001</v>
+        <v>0.73827</v>
       </c>
       <c r="D31" t="n">
-        <v>0.414701</v>
+        <v>0.410181</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.921381</v>
+        <v>0.907049</v>
       </c>
       <c r="C32" t="n">
-        <v>0.784214</v>
+        <v>0.7766</v>
       </c>
       <c r="D32" t="n">
-        <v>0.429835</v>
+        <v>0.427735</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.964519</v>
+        <v>0.95414</v>
       </c>
       <c r="C33" t="n">
-        <v>0.81881</v>
+        <v>0.8114209999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.444229</v>
+        <v>0.443934</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.00178</v>
+        <v>0.993441</v>
       </c>
       <c r="C34" t="n">
-        <v>0.852945</v>
+        <v>0.847209</v>
       </c>
       <c r="D34" t="n">
-        <v>0.456602</v>
+        <v>0.456219</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.05298</v>
+        <v>1.04243</v>
       </c>
       <c r="C35" t="n">
-        <v>0.890855</v>
+        <v>0.8833760000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.471045</v>
+        <v>0.466421</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.09308</v>
+        <v>1.08107</v>
       </c>
       <c r="C36" t="n">
-        <v>0.925666</v>
+        <v>0.920092</v>
       </c>
       <c r="D36" t="n">
-        <v>0.48783</v>
+        <v>0.488596</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.13328</v>
+        <v>1.12573</v>
       </c>
       <c r="C37" t="n">
-        <v>0.967801</v>
+        <v>0.958414</v>
       </c>
       <c r="D37" t="n">
-        <v>0.501897</v>
+        <v>0.499543</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.18134</v>
+        <v>1.17155</v>
       </c>
       <c r="C38" t="n">
-        <v>1.00592</v>
+        <v>1.00128</v>
       </c>
       <c r="D38" t="n">
-        <v>0.523055</v>
+        <v>0.513937</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.23034</v>
+        <v>1.22377</v>
       </c>
       <c r="C39" t="n">
-        <v>1.04566</v>
+        <v>1.03971</v>
       </c>
       <c r="D39" t="n">
-        <v>0.536212</v>
+        <v>0.534978</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.27802</v>
+        <v>1.26762</v>
       </c>
       <c r="C40" t="n">
-        <v>0.649859</v>
+        <v>0.648461</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3994</v>
+        <v>0.39904</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.808194</v>
+        <v>0.805543</v>
       </c>
       <c r="C41" t="n">
-        <v>0.674834</v>
+        <v>0.6743440000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.411371</v>
+        <v>0.41146</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.843153</v>
+        <v>0.840705</v>
       </c>
       <c r="C42" t="n">
-        <v>0.701877</v>
+        <v>0.701765</v>
       </c>
       <c r="D42" t="n">
-        <v>0.42556</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.875588</v>
+        <v>0.873732</v>
       </c>
       <c r="C43" t="n">
-        <v>0.736465</v>
+        <v>0.734472</v>
       </c>
       <c r="D43" t="n">
-        <v>0.439634</v>
+        <v>0.440636</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.918282</v>
+        <v>0.915493</v>
       </c>
       <c r="C44" t="n">
-        <v>0.767523</v>
+        <v>0.766356</v>
       </c>
       <c r="D44" t="n">
-        <v>0.453432</v>
+        <v>0.449646</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.954105</v>
+        <v>0.951771</v>
       </c>
       <c r="C45" t="n">
-        <v>0.801503</v>
+        <v>0.801867</v>
       </c>
       <c r="D45" t="n">
-        <v>0.473415</v>
+        <v>0.469369</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.996048</v>
+        <v>0.994707</v>
       </c>
       <c r="C46" t="n">
-        <v>0.83629</v>
+        <v>0.837342</v>
       </c>
       <c r="D46" t="n">
-        <v>0.489065</v>
+        <v>0.488921</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.03785</v>
+        <v>1.03654</v>
       </c>
       <c r="C47" t="n">
-        <v>0.871601</v>
+        <v>0.874376</v>
       </c>
       <c r="D47" t="n">
-        <v>0.501785</v>
+        <v>0.502573</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.0797</v>
+        <v>1.07916</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9087</v>
+        <v>0.910235</v>
       </c>
       <c r="D48" t="n">
-        <v>0.517371</v>
+        <v>0.518727</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.12392</v>
+        <v>1.1201</v>
       </c>
       <c r="C49" t="n">
-        <v>0.950044</v>
+        <v>0.949972</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5346689999999999</v>
+        <v>0.537819</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.16912</v>
+        <v>1.16712</v>
       </c>
       <c r="C50" t="n">
-        <v>0.990804</v>
+        <v>0.989187</v>
       </c>
       <c r="D50" t="n">
-        <v>0.548639</v>
+        <v>0.550401</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.21342</v>
+        <v>1.21098</v>
       </c>
       <c r="C51" t="n">
-        <v>1.02753</v>
+        <v>1.02704</v>
       </c>
       <c r="D51" t="n">
-        <v>0.567961</v>
+        <v>0.568809</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.25792</v>
+        <v>1.25679</v>
       </c>
       <c r="C52" t="n">
-        <v>1.06962</v>
+        <v>1.06687</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5835630000000001</v>
+        <v>0.58705</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.30729</v>
+        <v>1.30527</v>
       </c>
       <c r="C53" t="n">
-        <v>1.11048</v>
+        <v>1.1083</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6019139999999999</v>
+        <v>0.593608</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.35502</v>
+        <v>1.35106</v>
       </c>
       <c r="C54" t="n">
-        <v>0.680167</v>
+        <v>0.680808</v>
       </c>
       <c r="D54" t="n">
-        <v>0.429043</v>
+        <v>0.427241</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.840835</v>
+        <v>0.840791</v>
       </c>
       <c r="C55" t="n">
-        <v>0.707359</v>
+        <v>0.707105</v>
       </c>
       <c r="D55" t="n">
-        <v>0.445119</v>
+        <v>0.446225</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.873547</v>
+        <v>0.8727780000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.735738</v>
+        <v>0.735903</v>
       </c>
       <c r="D56" t="n">
-        <v>0.457683</v>
+        <v>0.458989</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.910391</v>
+        <v>0.910124</v>
       </c>
       <c r="C57" t="n">
-        <v>0.765185</v>
+        <v>0.765218</v>
       </c>
       <c r="D57" t="n">
-        <v>0.470739</v>
+        <v>0.475993</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.945453</v>
+        <v>0.944539</v>
       </c>
       <c r="C58" t="n">
-        <v>0.798843</v>
+        <v>0.799068</v>
       </c>
       <c r="D58" t="n">
-        <v>0.487295</v>
+        <v>0.487528</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.984979</v>
+        <v>0.984101</v>
       </c>
       <c r="C59" t="n">
-        <v>0.833901</v>
+        <v>0.8353</v>
       </c>
       <c r="D59" t="n">
-        <v>0.503302</v>
+        <v>0.503312</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.02414</v>
+        <v>1.02301</v>
       </c>
       <c r="C60" t="n">
-        <v>0.867852</v>
+        <v>0.869487</v>
       </c>
       <c r="D60" t="n">
-        <v>0.51874</v>
+        <v>0.522497</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.06454</v>
+        <v>1.06373</v>
       </c>
       <c r="C61" t="n">
-        <v>0.906108</v>
+        <v>0.907517</v>
       </c>
       <c r="D61" t="n">
-        <v>0.535663</v>
+        <v>0.536255</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.10807</v>
+        <v>1.10783</v>
       </c>
       <c r="C62" t="n">
-        <v>0.947037</v>
+        <v>0.948278</v>
       </c>
       <c r="D62" t="n">
-        <v>0.550269</v>
+        <v>0.5551700000000001</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15232</v>
+        <v>1.15533</v>
       </c>
       <c r="C63" t="n">
-        <v>0.980012</v>
+        <v>0.985559</v>
       </c>
       <c r="D63" t="n">
-        <v>0.568557</v>
+        <v>0.570501</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.2008</v>
+        <v>1.20268</v>
       </c>
       <c r="C64" t="n">
-        <v>1.02179</v>
+        <v>1.02676</v>
       </c>
       <c r="D64" t="n">
-        <v>0.582687</v>
+        <v>0.58582</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.24727</v>
+        <v>1.25195</v>
       </c>
       <c r="C65" t="n">
-        <v>1.06053</v>
+        <v>1.06634</v>
       </c>
       <c r="D65" t="n">
-        <v>0.598834</v>
+        <v>0.601303</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.2896</v>
+        <v>1.29519</v>
       </c>
       <c r="C66" t="n">
-        <v>1.102</v>
+        <v>1.10881</v>
       </c>
       <c r="D66" t="n">
-        <v>0.617219</v>
+        <v>0.61858</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.33972</v>
+        <v>1.34386</v>
       </c>
       <c r="C67" t="n">
-        <v>1.14366</v>
+        <v>1.15094</v>
       </c>
       <c r="D67" t="n">
-        <v>0.633166</v>
+        <v>0.63537</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.38503</v>
+        <v>1.39009</v>
       </c>
       <c r="C68" t="n">
-        <v>0.705592</v>
+        <v>0.700655</v>
       </c>
       <c r="D68" t="n">
-        <v>0.458752</v>
+        <v>0.455515</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.890289</v>
+        <v>0.878234</v>
       </c>
       <c r="C69" t="n">
-        <v>0.745845</v>
+        <v>0.740739</v>
       </c>
       <c r="D69" t="n">
-        <v>0.471014</v>
+        <v>0.467898</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.941295</v>
+        <v>0.929939</v>
       </c>
       <c r="C70" t="n">
-        <v>0.790191</v>
+        <v>0.78048</v>
       </c>
       <c r="D70" t="n">
-        <v>0.492923</v>
+        <v>0.485051</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.995752</v>
+        <v>0.991563</v>
       </c>
       <c r="C71" t="n">
-        <v>0.834687</v>
+        <v>0.829521</v>
       </c>
       <c r="D71" t="n">
-        <v>0.513613</v>
+        <v>0.5061369999999999</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.05805</v>
+        <v>1.04303</v>
       </c>
       <c r="C72" t="n">
-        <v>0.889668</v>
+        <v>0.878694</v>
       </c>
       <c r="D72" t="n">
-        <v>0.536503</v>
+        <v>0.53317</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.1303</v>
+        <v>1.097</v>
       </c>
       <c r="C73" t="n">
-        <v>0.950335</v>
+        <v>0.9313129999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.556542</v>
+        <v>0.547754</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.19808</v>
+        <v>1.1568</v>
       </c>
       <c r="C74" t="n">
-        <v>1.01092</v>
+        <v>0.981699</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5767060000000001</v>
+        <v>0.567391</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.28249</v>
+        <v>1.23046</v>
       </c>
       <c r="C75" t="n">
-        <v>1.08152</v>
+        <v>1.04373</v>
       </c>
       <c r="D75" t="n">
-        <v>0.606498</v>
+        <v>0.5898679999999999</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.38344</v>
+        <v>1.33552</v>
       </c>
       <c r="C76" t="n">
-        <v>1.16709</v>
+        <v>1.13259</v>
       </c>
       <c r="D76" t="n">
-        <v>0.633498</v>
+        <v>0.621507</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.48596</v>
+        <v>1.45626</v>
       </c>
       <c r="C77" t="n">
-        <v>1.25386</v>
+        <v>1.23489</v>
       </c>
       <c r="D77" t="n">
-        <v>0.667083</v>
+        <v>0.654927</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.61954</v>
+        <v>1.58725</v>
       </c>
       <c r="C78" t="n">
-        <v>1.36163</v>
+        <v>1.35115</v>
       </c>
       <c r="D78" t="n">
-        <v>0.694861</v>
+        <v>0.68153</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.75736</v>
+        <v>1.73016</v>
       </c>
       <c r="C79" t="n">
-        <v>1.48422</v>
+        <v>1.46935</v>
       </c>
       <c r="D79" t="n">
-        <v>0.727151</v>
+        <v>0.724205</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.93</v>
+        <v>1.89727</v>
       </c>
       <c r="C80" t="n">
-        <v>1.62799</v>
+        <v>1.61014</v>
       </c>
       <c r="D80" t="n">
-        <v>0.77055</v>
+        <v>0.7700669999999999</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.11602</v>
+        <v>2.09458</v>
       </c>
       <c r="C81" t="n">
-        <v>1.78808</v>
+        <v>1.78206</v>
       </c>
       <c r="D81" t="n">
-        <v>0.815457</v>
+        <v>0.819003</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.32647</v>
+        <v>2.30333</v>
       </c>
       <c r="C82" t="n">
-        <v>1.97127</v>
+        <v>1.96446</v>
       </c>
       <c r="D82" t="n">
-        <v>0.898815</v>
+        <v>0.881449</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.58283</v>
+        <v>2.57144</v>
       </c>
       <c r="C83" t="n">
-        <v>1.29452</v>
+        <v>1.31283</v>
       </c>
       <c r="D83" t="n">
-        <v>0.647374</v>
+        <v>0.643482</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.72486</v>
+        <v>1.75275</v>
       </c>
       <c r="C84" t="n">
-        <v>1.4258</v>
+        <v>1.44775</v>
       </c>
       <c r="D84" t="n">
-        <v>0.686347</v>
+        <v>0.699367</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.89649</v>
+        <v>1.93097</v>
       </c>
       <c r="C85" t="n">
-        <v>1.56664</v>
+        <v>1.60287</v>
       </c>
       <c r="D85" t="n">
-        <v>0.737526</v>
+        <v>0.754501</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.07297</v>
+        <v>2.13685</v>
       </c>
       <c r="C86" t="n">
-        <v>1.71926</v>
+        <v>1.77284</v>
       </c>
       <c r="D86" t="n">
-        <v>0.79513</v>
+        <v>0.807526</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.27476</v>
+        <v>2.36522</v>
       </c>
       <c r="C87" t="n">
-        <v>1.88362</v>
+        <v>1.95796</v>
       </c>
       <c r="D87" t="n">
-        <v>0.857779</v>
+        <v>0.869318</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.49312</v>
+        <v>2.61951</v>
       </c>
       <c r="C88" t="n">
-        <v>2.06336</v>
+        <v>2.17356</v>
       </c>
       <c r="D88" t="n">
-        <v>0.931798</v>
+        <v>0.951967</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.72879</v>
+        <v>2.87973</v>
       </c>
       <c r="C89" t="n">
-        <v>2.26826</v>
+        <v>2.39892</v>
       </c>
       <c r="D89" t="n">
-        <v>1.00152</v>
+        <v>1.0367</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.99641</v>
+        <v>3.1866</v>
       </c>
       <c r="C90" t="n">
-        <v>2.48775</v>
+        <v>2.64386</v>
       </c>
       <c r="D90" t="n">
-        <v>1.08434</v>
+        <v>1.13943</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.2584</v>
+        <v>3.48262</v>
       </c>
       <c r="C91" t="n">
-        <v>2.70878</v>
+        <v>2.90634</v>
       </c>
       <c r="D91" t="n">
-        <v>1.17888</v>
+        <v>1.25178</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.54041</v>
+        <v>3.82452</v>
       </c>
       <c r="C92" t="n">
-        <v>2.95722</v>
+        <v>3.19084</v>
       </c>
       <c r="D92" t="n">
-        <v>1.26013</v>
+        <v>1.34531</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.85448</v>
+        <v>4.16777</v>
       </c>
       <c r="C93" t="n">
-        <v>3.20991</v>
+        <v>3.48519</v>
       </c>
       <c r="D93" t="n">
-        <v>1.34801</v>
+        <v>1.45178</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.16478</v>
+        <v>4.52837</v>
       </c>
       <c r="C94" t="n">
-        <v>3.48626</v>
+        <v>3.78614</v>
       </c>
       <c r="D94" t="n">
-        <v>1.44173</v>
+        <v>1.52557</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.51296</v>
+        <v>4.92942</v>
       </c>
       <c r="C95" t="n">
-        <v>3.77647</v>
+        <v>4.10286</v>
       </c>
       <c r="D95" t="n">
-        <v>1.56009</v>
+        <v>1.67178</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.84868</v>
+        <v>5.29736</v>
       </c>
       <c r="C96" t="n">
-        <v>4.07703</v>
+        <v>4.4312</v>
       </c>
       <c r="D96" t="n">
-        <v>1.68751</v>
+        <v>1.79817</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.21743</v>
+        <v>5.63885</v>
       </c>
       <c r="C97" t="n">
-        <v>2.44769</v>
+        <v>2.62448</v>
       </c>
       <c r="D97" t="n">
-        <v>1.17564</v>
+        <v>1.2496</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.20991</v>
+        <v>3.41327</v>
       </c>
       <c r="C98" t="n">
-        <v>2.61503</v>
+        <v>2.81848</v>
       </c>
       <c r="D98" t="n">
-        <v>1.24098</v>
+        <v>1.31788</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.44978</v>
+        <v>3.63751</v>
       </c>
       <c r="C99" t="n">
-        <v>2.80203</v>
+        <v>2.95065</v>
       </c>
       <c r="D99" t="n">
-        <v>1.33593</v>
+        <v>1.42659</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.6373</v>
+        <v>3.86295</v>
       </c>
       <c r="C100" t="n">
-        <v>2.9845</v>
+        <v>3.14907</v>
       </c>
       <c r="D100" t="n">
-        <v>1.42029</v>
+        <v>1.50026</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.88906</v>
+        <v>4.12346</v>
       </c>
       <c r="C101" t="n">
-        <v>3.18123</v>
+        <v>3.36091</v>
       </c>
       <c r="D101" t="n">
-        <v>1.47307</v>
+        <v>1.58821</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.09372</v>
+        <v>4.41015</v>
       </c>
       <c r="C102" t="n">
-        <v>3.37104</v>
+        <v>3.59066</v>
       </c>
       <c r="D102" t="n">
-        <v>1.5768</v>
+        <v>1.6821</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.28165</v>
+        <v>4.70264</v>
       </c>
       <c r="C103" t="n">
-        <v>3.50551</v>
+        <v>3.82301</v>
       </c>
       <c r="D103" t="n">
-        <v>1.65246</v>
+        <v>1.79528</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.5321</v>
+        <v>4.95253</v>
       </c>
       <c r="C104" t="n">
-        <v>3.71407</v>
+        <v>4.07088</v>
       </c>
       <c r="D104" t="n">
-        <v>1.75652</v>
+        <v>1.89004</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.80263</v>
+        <v>5.2983</v>
       </c>
       <c r="C105" t="n">
-        <v>3.94516</v>
+        <v>4.33475</v>
       </c>
       <c r="D105" t="n">
-        <v>1.82633</v>
+        <v>1.96922</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.11642</v>
+        <v>5.62117</v>
       </c>
       <c r="C106" t="n">
-        <v>4.19698</v>
+        <v>4.62728</v>
       </c>
       <c r="D106" t="n">
-        <v>1.94713</v>
+        <v>2.08801</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.42581</v>
+        <v>5.98164</v>
       </c>
       <c r="C107" t="n">
-        <v>4.45865</v>
+        <v>4.90865</v>
       </c>
       <c r="D107" t="n">
-        <v>2.03917</v>
+        <v>2.20616</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.7393</v>
+        <v>6.30769</v>
       </c>
       <c r="C108" t="n">
-        <v>4.73299</v>
+        <v>5.21723</v>
       </c>
       <c r="D108" t="n">
-        <v>2.14431</v>
+        <v>2.31846</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.07861</v>
+        <v>6.71688</v>
       </c>
       <c r="C109" t="n">
-        <v>5.01758</v>
+        <v>5.54165</v>
       </c>
       <c r="D109" t="n">
-        <v>2.25718</v>
+        <v>2.44488</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.42198</v>
+        <v>7.09194</v>
       </c>
       <c r="C110" t="n">
-        <v>5.32254</v>
+        <v>5.88002</v>
       </c>
       <c r="D110" t="n">
-        <v>2.3655</v>
+        <v>2.57114</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.77735</v>
+        <v>7.47198</v>
       </c>
       <c r="C111" t="n">
-        <v>3.06719</v>
+        <v>3.37874</v>
       </c>
       <c r="D111" t="n">
-        <v>1.64886</v>
+        <v>1.78811</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.00744</v>
+        <v>4.41982</v>
       </c>
       <c r="C112" t="n">
-        <v>3.23834</v>
+        <v>3.56572</v>
       </c>
       <c r="D112" t="n">
-        <v>1.7099</v>
+        <v>1.86787</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.21925</v>
+        <v>4.63864</v>
       </c>
       <c r="C113" t="n">
-        <v>3.41627</v>
+        <v>3.76342</v>
       </c>
       <c r="D113" t="n">
-        <v>1.79217</v>
+        <v>1.95753</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.44216</v>
+        <v>4.92261</v>
       </c>
       <c r="C114" t="n">
-        <v>3.60703</v>
+        <v>3.99403</v>
       </c>
       <c r="D114" t="n">
-        <v>1.87986</v>
+        <v>2.04832</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.6811</v>
+        <v>5.18437</v>
       </c>
       <c r="C115" t="n">
-        <v>3.8067</v>
+        <v>4.22051</v>
       </c>
       <c r="D115" t="n">
-        <v>1.95046</v>
+        <v>2.13217</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.93134</v>
+        <v>5.45685</v>
       </c>
       <c r="C116" t="n">
-        <v>4.02041</v>
+        <v>4.45059</v>
       </c>
       <c r="D116" t="n">
-        <v>2.03674</v>
+        <v>2.24355</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.1969</v>
+        <v>5.74355</v>
       </c>
       <c r="C117" t="n">
-        <v>4.24606</v>
+        <v>4.69676</v>
       </c>
       <c r="D117" t="n">
-        <v>2.15455</v>
+        <v>2.3494</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.47933</v>
+        <v>6.05549</v>
       </c>
       <c r="C118" t="n">
-        <v>4.48109</v>
+        <v>4.95805</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25461</v>
+        <v>2.47962</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.77026</v>
+        <v>6.40193</v>
       </c>
       <c r="C119" t="n">
-        <v>4.7303</v>
+        <v>5.23739</v>
       </c>
       <c r="D119" t="n">
-        <v>2.33849</v>
+        <v>2.57236</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.396092</v>
+        <v>0.399045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.289772</v>
+        <v>0.29908</v>
       </c>
       <c r="D2" t="n">
-        <v>0.313422</v>
+        <v>0.32147</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.402994</v>
+        <v>0.413506</v>
       </c>
       <c r="C3" t="n">
-        <v>0.292934</v>
+        <v>0.306792</v>
       </c>
       <c r="D3" t="n">
-        <v>0.319183</v>
+        <v>0.328379</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.412243</v>
+        <v>0.422266</v>
       </c>
       <c r="C4" t="n">
-        <v>0.297888</v>
+        <v>0.313267</v>
       </c>
       <c r="D4" t="n">
-        <v>0.322223</v>
+        <v>0.333793</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.424901</v>
+        <v>0.434403</v>
       </c>
       <c r="C5" t="n">
-        <v>0.304332</v>
+        <v>0.322104</v>
       </c>
       <c r="D5" t="n">
-        <v>0.326801</v>
+        <v>0.33915</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.436076</v>
+        <v>0.449272</v>
       </c>
       <c r="C6" t="n">
-        <v>0.309937</v>
+        <v>0.329252</v>
       </c>
       <c r="D6" t="n">
-        <v>0.333543</v>
+        <v>0.346784</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.449721</v>
+        <v>0.460156</v>
       </c>
       <c r="C7" t="n">
-        <v>0.251946</v>
+        <v>0.266107</v>
       </c>
       <c r="D7" t="n">
-        <v>0.284426</v>
+        <v>0.291541</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.335903</v>
+        <v>0.352815</v>
       </c>
       <c r="C8" t="n">
-        <v>0.259578</v>
+        <v>0.274611</v>
       </c>
       <c r="D8" t="n">
-        <v>0.293659</v>
+        <v>0.300884</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.348578</v>
+        <v>0.3636</v>
       </c>
       <c r="C9" t="n">
-        <v>0.266804</v>
+        <v>0.282539</v>
       </c>
       <c r="D9" t="n">
-        <v>0.298928</v>
+        <v>0.309743</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.360714</v>
+        <v>0.375163</v>
       </c>
       <c r="C10" t="n">
-        <v>0.276775</v>
+        <v>0.293963</v>
       </c>
       <c r="D10" t="n">
-        <v>0.309984</v>
+        <v>0.318628</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.375198</v>
+        <v>0.389972</v>
       </c>
       <c r="C11" t="n">
-        <v>0.284195</v>
+        <v>0.30101</v>
       </c>
       <c r="D11" t="n">
-        <v>0.320297</v>
+        <v>0.327567</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.382659</v>
+        <v>0.398749</v>
       </c>
       <c r="C12" t="n">
-        <v>0.293542</v>
+        <v>0.309823</v>
       </c>
       <c r="D12" t="n">
-        <v>0.327596</v>
+        <v>0.336942</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.397812</v>
+        <v>0.413319</v>
       </c>
       <c r="C13" t="n">
-        <v>0.301804</v>
+        <v>0.319234</v>
       </c>
       <c r="D13" t="n">
-        <v>0.338413</v>
+        <v>0.345582</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.413388</v>
+        <v>0.424673</v>
       </c>
       <c r="C14" t="n">
-        <v>0.309415</v>
+        <v>0.327665</v>
       </c>
       <c r="D14" t="n">
-        <v>0.348563</v>
+        <v>0.357517</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.425486</v>
+        <v>0.435488</v>
       </c>
       <c r="C15" t="n">
-        <v>0.315164</v>
+        <v>0.335599</v>
       </c>
       <c r="D15" t="n">
-        <v>0.35583</v>
+        <v>0.366916</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.438299</v>
+        <v>0.449406</v>
       </c>
       <c r="C16" t="n">
-        <v>0.323462</v>
+        <v>0.341121</v>
       </c>
       <c r="D16" t="n">
-        <v>0.365986</v>
+        <v>0.377968</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.451246</v>
+        <v>0.462177</v>
       </c>
       <c r="C17" t="n">
-        <v>0.330823</v>
+        <v>0.349627</v>
       </c>
       <c r="D17" t="n">
-        <v>0.373007</v>
+        <v>0.382928</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.463407</v>
+        <v>0.473559</v>
       </c>
       <c r="C18" t="n">
-        <v>0.337147</v>
+        <v>0.355806</v>
       </c>
       <c r="D18" t="n">
-        <v>0.381433</v>
+        <v>0.391035</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.475886</v>
+        <v>0.487258</v>
       </c>
       <c r="C19" t="n">
-        <v>0.342489</v>
+        <v>0.364784</v>
       </c>
       <c r="D19" t="n">
-        <v>0.389384</v>
+        <v>0.399491</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.488344</v>
+        <v>0.495699</v>
       </c>
       <c r="C20" t="n">
-        <v>0.350468</v>
+        <v>0.37063</v>
       </c>
       <c r="D20" t="n">
-        <v>0.398922</v>
+        <v>0.405381</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.501383</v>
+        <v>0.508185</v>
       </c>
       <c r="C21" t="n">
-        <v>0.280749</v>
+        <v>0.291828</v>
       </c>
       <c r="D21" t="n">
-        <v>0.31482</v>
+        <v>0.316272</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.389677</v>
+        <v>0.393929</v>
       </c>
       <c r="C22" t="n">
-        <v>0.288786</v>
+        <v>0.299753</v>
       </c>
       <c r="D22" t="n">
-        <v>0.323282</v>
+        <v>0.326111</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.400825</v>
+        <v>0.404955</v>
       </c>
       <c r="C23" t="n">
-        <v>0.297023</v>
+        <v>0.307937</v>
       </c>
       <c r="D23" t="n">
-        <v>0.33396</v>
+        <v>0.335929</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.411152</v>
+        <v>0.414858</v>
       </c>
       <c r="C24" t="n">
-        <v>0.305387</v>
+        <v>0.316151</v>
       </c>
       <c r="D24" t="n">
-        <v>0.343113</v>
+        <v>0.346606</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.422679</v>
+        <v>0.426983</v>
       </c>
       <c r="C25" t="n">
-        <v>0.313864</v>
+        <v>0.324931</v>
       </c>
       <c r="D25" t="n">
-        <v>0.353439</v>
+        <v>0.355104</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.434078</v>
+        <v>0.438447</v>
       </c>
       <c r="C26" t="n">
-        <v>0.322283</v>
+        <v>0.333526</v>
       </c>
       <c r="D26" t="n">
-        <v>0.364628</v>
+        <v>0.365856</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.442947</v>
+        <v>0.450297</v>
       </c>
       <c r="C27" t="n">
-        <v>0.33039</v>
+        <v>0.340493</v>
       </c>
       <c r="D27" t="n">
-        <v>0.375827</v>
+        <v>0.379823</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.458666</v>
+        <v>0.463834</v>
       </c>
       <c r="C28" t="n">
-        <v>0.338915</v>
+        <v>0.349838</v>
       </c>
       <c r="D28" t="n">
-        <v>0.385082</v>
+        <v>0.387095</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.471283</v>
+        <v>0.474977</v>
       </c>
       <c r="C29" t="n">
-        <v>0.346424</v>
+        <v>0.357883</v>
       </c>
       <c r="D29" t="n">
-        <v>0.396279</v>
+        <v>0.397069</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.482573</v>
+        <v>0.485108</v>
       </c>
       <c r="C30" t="n">
-        <v>0.353961</v>
+        <v>0.366122</v>
       </c>
       <c r="D30" t="n">
-        <v>0.40598</v>
+        <v>0.407585</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.492977</v>
+        <v>0.496231</v>
       </c>
       <c r="C31" t="n">
-        <v>0.359934</v>
+        <v>0.372864</v>
       </c>
       <c r="D31" t="n">
-        <v>0.415007</v>
+        <v>0.418085</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.504297</v>
+        <v>0.507291</v>
       </c>
       <c r="C32" t="n">
-        <v>0.36867</v>
+        <v>0.381695</v>
       </c>
       <c r="D32" t="n">
-        <v>0.424638</v>
+        <v>0.426897</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.51635</v>
+        <v>0.519489</v>
       </c>
       <c r="C33" t="n">
-        <v>0.375482</v>
+        <v>0.388476</v>
       </c>
       <c r="D33" t="n">
-        <v>0.433042</v>
+        <v>0.435099</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.532156</v>
+        <v>0.530058</v>
       </c>
       <c r="C34" t="n">
-        <v>0.383214</v>
+        <v>0.396172</v>
       </c>
       <c r="D34" t="n">
-        <v>0.442641</v>
+        <v>0.444802</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.539776</v>
+        <v>0.541795</v>
       </c>
       <c r="C35" t="n">
-        <v>0.298346</v>
+        <v>0.30741</v>
       </c>
       <c r="D35" t="n">
-        <v>0.338227</v>
+        <v>0.337748</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.409444</v>
+        <v>0.412167</v>
       </c>
       <c r="C36" t="n">
-        <v>0.305424</v>
+        <v>0.314728</v>
       </c>
       <c r="D36" t="n">
-        <v>0.348113</v>
+        <v>0.348507</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.420435</v>
+        <v>0.423319</v>
       </c>
       <c r="C37" t="n">
-        <v>0.313681</v>
+        <v>0.322736</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3572</v>
+        <v>0.357568</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.430835</v>
+        <v>0.434078</v>
       </c>
       <c r="C38" t="n">
-        <v>0.322936</v>
+        <v>0.331907</v>
       </c>
       <c r="D38" t="n">
-        <v>0.367871</v>
+        <v>0.369413</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.441806</v>
+        <v>0.444807</v>
       </c>
       <c r="C39" t="n">
-        <v>0.330813</v>
+        <v>0.339617</v>
       </c>
       <c r="D39" t="n">
-        <v>0.378792</v>
+        <v>0.379206</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.452957</v>
+        <v>0.456311</v>
       </c>
       <c r="C40" t="n">
-        <v>0.339519</v>
+        <v>0.348405</v>
       </c>
       <c r="D40" t="n">
-        <v>0.38917</v>
+        <v>0.390251</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.46845</v>
+        <v>0.470015</v>
       </c>
       <c r="C41" t="n">
-        <v>0.348158</v>
+        <v>0.357717</v>
       </c>
       <c r="D41" t="n">
-        <v>0.400318</v>
+        <v>0.401139</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.476016</v>
+        <v>0.479734</v>
       </c>
       <c r="C42" t="n">
-        <v>0.35613</v>
+        <v>0.365279</v>
       </c>
       <c r="D42" t="n">
-        <v>0.409439</v>
+        <v>0.410335</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.488529</v>
+        <v>0.491382</v>
       </c>
       <c r="C43" t="n">
-        <v>0.363805</v>
+        <v>0.37326</v>
       </c>
       <c r="D43" t="n">
-        <v>0.41991</v>
+        <v>0.421376</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.500742</v>
+        <v>0.502444</v>
       </c>
       <c r="C44" t="n">
-        <v>0.370576</v>
+        <v>0.381257</v>
       </c>
       <c r="D44" t="n">
-        <v>0.428083</v>
+        <v>0.430754</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5115420000000001</v>
+        <v>0.513397</v>
       </c>
       <c r="C45" t="n">
-        <v>0.377531</v>
+        <v>0.387928</v>
       </c>
       <c r="D45" t="n">
-        <v>0.437451</v>
+        <v>0.440007</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.522903</v>
+        <v>0.524054</v>
       </c>
       <c r="C46" t="n">
-        <v>0.383936</v>
+        <v>0.394636</v>
       </c>
       <c r="D46" t="n">
-        <v>0.445723</v>
+        <v>0.44809</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.534591</v>
+        <v>0.536177</v>
       </c>
       <c r="C47" t="n">
-        <v>0.390837</v>
+        <v>0.401318</v>
       </c>
       <c r="D47" t="n">
-        <v>0.453909</v>
+        <v>0.456894</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.552163</v>
+        <v>0.549094</v>
       </c>
       <c r="C48" t="n">
-        <v>0.397663</v>
+        <v>0.408608</v>
       </c>
       <c r="D48" t="n">
-        <v>0.463186</v>
+        <v>0.466232</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.56069</v>
+        <v>0.560515</v>
       </c>
       <c r="C49" t="n">
-        <v>0.404917</v>
+        <v>0.416249</v>
       </c>
       <c r="D49" t="n">
-        <v>0.473127</v>
+        <v>0.474119</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.576249</v>
+        <v>0.572693</v>
       </c>
       <c r="C50" t="n">
-        <v>0.311389</v>
+        <v>0.322323</v>
       </c>
       <c r="D50" t="n">
-        <v>0.34729</v>
+        <v>0.348139</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430632</v>
+        <v>0.430799</v>
       </c>
       <c r="C51" t="n">
-        <v>0.320542</v>
+        <v>0.330034</v>
       </c>
       <c r="D51" t="n">
-        <v>0.35802</v>
+        <v>0.359573</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.440256</v>
+        <v>0.441783</v>
       </c>
       <c r="C52" t="n">
-        <v>0.329411</v>
+        <v>0.338807</v>
       </c>
       <c r="D52" t="n">
-        <v>0.369199</v>
+        <v>0.370408</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.452198</v>
+        <v>0.453288</v>
       </c>
       <c r="C53" t="n">
-        <v>0.337878</v>
+        <v>0.347781</v>
       </c>
       <c r="D53" t="n">
-        <v>0.380094</v>
+        <v>0.381121</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.463763</v>
+        <v>0.464983</v>
       </c>
       <c r="C54" t="n">
-        <v>0.347132</v>
+        <v>0.356626</v>
       </c>
       <c r="D54" t="n">
-        <v>0.391585</v>
+        <v>0.393629</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.47887</v>
+        <v>0.479165</v>
       </c>
       <c r="C55" t="n">
-        <v>0.356009</v>
+        <v>0.365753</v>
       </c>
       <c r="D55" t="n">
-        <v>0.402742</v>
+        <v>0.404216</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.487514</v>
+        <v>0.488669</v>
       </c>
       <c r="C56" t="n">
-        <v>0.364041</v>
+        <v>0.374094</v>
       </c>
       <c r="D56" t="n">
-        <v>0.412546</v>
+        <v>0.415117</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.498513</v>
+        <v>0.499983</v>
       </c>
       <c r="C57" t="n">
-        <v>0.371901</v>
+        <v>0.381806</v>
       </c>
       <c r="D57" t="n">
-        <v>0.421954</v>
+        <v>0.42503</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.509329</v>
+        <v>0.510259</v>
       </c>
       <c r="C58" t="n">
-        <v>0.378743</v>
+        <v>0.3888</v>
       </c>
       <c r="D58" t="n">
-        <v>0.431721</v>
+        <v>0.433781</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.51961</v>
+        <v>0.521055</v>
       </c>
       <c r="C59" t="n">
-        <v>0.385354</v>
+        <v>0.39558</v>
       </c>
       <c r="D59" t="n">
-        <v>0.440584</v>
+        <v>0.442829</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5310589999999999</v>
+        <v>0.532241</v>
       </c>
       <c r="C60" t="n">
-        <v>0.39192</v>
+        <v>0.402321</v>
       </c>
       <c r="D60" t="n">
-        <v>0.449948</v>
+        <v>0.452452</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.545658</v>
+        <v>0.543048</v>
       </c>
       <c r="C61" t="n">
-        <v>0.398571</v>
+        <v>0.409548</v>
       </c>
       <c r="D61" t="n">
-        <v>0.458525</v>
+        <v>0.461148</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.556478</v>
+        <v>0.555933</v>
       </c>
       <c r="C62" t="n">
-        <v>0.406378</v>
+        <v>0.416326</v>
       </c>
       <c r="D62" t="n">
-        <v>0.468815</v>
+        <v>0.469848</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.568156</v>
+        <v>0.567659</v>
       </c>
       <c r="C63" t="n">
-        <v>0.413184</v>
+        <v>0.424052</v>
       </c>
       <c r="D63" t="n">
-        <v>0.478062</v>
+        <v>0.480636</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.581934</v>
+        <v>0.579966</v>
       </c>
       <c r="C64" t="n">
-        <v>0.322432</v>
+        <v>0.334518</v>
       </c>
       <c r="D64" t="n">
-        <v>0.36382</v>
+        <v>0.367522</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.452881</v>
+        <v>0.462057</v>
       </c>
       <c r="C65" t="n">
-        <v>0.331898</v>
+        <v>0.344702</v>
       </c>
       <c r="D65" t="n">
-        <v>0.376401</v>
+        <v>0.380622</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.470985</v>
+        <v>0.476483</v>
       </c>
       <c r="C66" t="n">
-        <v>0.343202</v>
+        <v>0.355719</v>
       </c>
       <c r="D66" t="n">
-        <v>0.389484</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.487685</v>
+        <v>0.49378</v>
       </c>
       <c r="C67" t="n">
-        <v>0.353853</v>
+        <v>0.367132</v>
       </c>
       <c r="D67" t="n">
-        <v>0.40355</v>
+        <v>0.407209</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.507189</v>
+        <v>0.510575</v>
       </c>
       <c r="C68" t="n">
-        <v>0.365464</v>
+        <v>0.37935</v>
       </c>
       <c r="D68" t="n">
-        <v>0.41721</v>
+        <v>0.421906</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.531614</v>
+        <v>0.52607</v>
       </c>
       <c r="C69" t="n">
-        <v>0.37884</v>
+        <v>0.389499</v>
       </c>
       <c r="D69" t="n">
-        <v>0.434426</v>
+        <v>0.439379</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5526990000000001</v>
+        <v>0.5505</v>
       </c>
       <c r="C70" t="n">
-        <v>0.392631</v>
+        <v>0.40126</v>
       </c>
       <c r="D70" t="n">
-        <v>0.452543</v>
+        <v>0.453843</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.571972</v>
+        <v>0.572565</v>
       </c>
       <c r="C71" t="n">
-        <v>0.405044</v>
+        <v>0.416739</v>
       </c>
       <c r="D71" t="n">
-        <v>0.468306</v>
+        <v>0.469982</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.598222</v>
+        <v>0.598478</v>
       </c>
       <c r="C72" t="n">
-        <v>0.420281</v>
+        <v>0.431063</v>
       </c>
       <c r="D72" t="n">
-        <v>0.485249</v>
+        <v>0.487872</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.625599</v>
+        <v>0.626968</v>
       </c>
       <c r="C73" t="n">
-        <v>0.435636</v>
+        <v>0.446981</v>
       </c>
       <c r="D73" t="n">
-        <v>0.505153</v>
+        <v>0.506627</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.657898</v>
+        <v>0.65884</v>
       </c>
       <c r="C74" t="n">
-        <v>0.453964</v>
+        <v>0.46406</v>
       </c>
       <c r="D74" t="n">
-        <v>0.527343</v>
+        <v>0.527498</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.692509</v>
+        <v>0.694573</v>
       </c>
       <c r="C75" t="n">
-        <v>0.47246</v>
+        <v>0.483649</v>
       </c>
       <c r="D75" t="n">
-        <v>0.549817</v>
+        <v>0.550629</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.732764</v>
+        <v>0.731584</v>
       </c>
       <c r="C76" t="n">
-        <v>0.494956</v>
+        <v>0.505867</v>
       </c>
       <c r="D76" t="n">
-        <v>0.575879</v>
+        <v>0.576036</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.776136</v>
+        <v>0.7712290000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.51999</v>
+        <v>0.528682</v>
       </c>
       <c r="D77" t="n">
-        <v>0.605174</v>
+        <v>0.603441</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.82803</v>
+        <v>0.817868</v>
       </c>
       <c r="C78" t="n">
-        <v>0.458796</v>
+        <v>0.459508</v>
       </c>
       <c r="D78" t="n">
-        <v>0.524268</v>
+        <v>0.512749</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.823605</v>
+        <v>0.804406</v>
       </c>
       <c r="C79" t="n">
-        <v>0.482123</v>
+        <v>0.483671</v>
       </c>
       <c r="D79" t="n">
-        <v>0.556032</v>
+        <v>0.548893</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.865823</v>
+        <v>0.8475240000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.508991</v>
+        <v>0.51292</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5863080000000001</v>
+        <v>0.580634</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.904107</v>
+        <v>0.899962</v>
       </c>
       <c r="C81" t="n">
-        <v>0.539008</v>
+        <v>0.542444</v>
       </c>
       <c r="D81" t="n">
-        <v>0.613105</v>
+        <v>0.6093150000000001</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.952579</v>
+        <v>0.949745</v>
       </c>
       <c r="C82" t="n">
-        <v>0.571943</v>
+        <v>0.576061</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6446769999999999</v>
+        <v>0.639974</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.00141</v>
+        <v>1.0007</v>
       </c>
       <c r="C83" t="n">
-        <v>0.603648</v>
+        <v>0.610394</v>
       </c>
       <c r="D83" t="n">
-        <v>0.680639</v>
+        <v>0.67784</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.04091</v>
+        <v>1.06484</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6391559999999999</v>
+        <v>0.644323</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7256359999999999</v>
+        <v>0.723383</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.10524</v>
+        <v>1.10982</v>
       </c>
       <c r="C85" t="n">
-        <v>0.67334</v>
+        <v>0.68128</v>
       </c>
       <c r="D85" t="n">
-        <v>0.765343</v>
+        <v>0.762822</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.15851</v>
+        <v>1.16604</v>
       </c>
       <c r="C86" t="n">
-        <v>0.708996</v>
+        <v>0.719607</v>
       </c>
       <c r="D86" t="n">
-        <v>0.806466</v>
+        <v>0.806356</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.21274</v>
+        <v>1.22285</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7441410000000001</v>
+        <v>0.757675</v>
       </c>
       <c r="D87" t="n">
-        <v>0.841801</v>
+        <v>0.842546</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.26935</v>
+        <v>1.28266</v>
       </c>
       <c r="C88" t="n">
-        <v>0.780229</v>
+        <v>0.7964639999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.879288</v>
+        <v>0.884242</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.32532</v>
+        <v>1.34345</v>
       </c>
       <c r="C89" t="n">
-        <v>0.815157</v>
+        <v>0.836153</v>
       </c>
       <c r="D89" t="n">
-        <v>0.919107</v>
+        <v>0.926336</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.38758</v>
+        <v>1.40879</v>
       </c>
       <c r="C90" t="n">
-        <v>0.855302</v>
+        <v>0.877963</v>
       </c>
       <c r="D90" t="n">
-        <v>0.959884</v>
+        <v>0.970498</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.45524</v>
+        <v>1.47667</v>
       </c>
       <c r="C91" t="n">
-        <v>0.897514</v>
+        <v>0.9207379999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>1.00484</v>
+        <v>1.01604</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.52519</v>
+        <v>1.54625</v>
       </c>
       <c r="C92" t="n">
-        <v>0.768577</v>
+        <v>0.793019</v>
       </c>
       <c r="D92" t="n">
-        <v>0.885239</v>
+        <v>0.901941</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.33211</v>
+        <v>1.35514</v>
       </c>
       <c r="C93" t="n">
-        <v>0.795513</v>
+        <v>0.821504</v>
       </c>
       <c r="D93" t="n">
-        <v>0.92963</v>
+        <v>0.94712</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.37038</v>
+        <v>1.39372</v>
       </c>
       <c r="C94" t="n">
-        <v>0.824229</v>
+        <v>0.850955</v>
       </c>
       <c r="D94" t="n">
-        <v>0.960354</v>
+        <v>0.978092</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.41082</v>
+        <v>1.43353</v>
       </c>
       <c r="C95" t="n">
-        <v>0.854582</v>
+        <v>0.881503</v>
       </c>
       <c r="D95" t="n">
-        <v>0.98584</v>
+        <v>1.0039</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.45296</v>
+        <v>1.47606</v>
       </c>
       <c r="C96" t="n">
-        <v>0.886644</v>
+        <v>0.914492</v>
       </c>
       <c r="D96" t="n">
-        <v>1.01929</v>
+        <v>1.03755</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.49537</v>
+        <v>1.51963</v>
       </c>
       <c r="C97" t="n">
-        <v>0.918785</v>
+        <v>0.947215</v>
       </c>
       <c r="D97" t="n">
-        <v>1.07856</v>
+        <v>1.09738</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.53975</v>
+        <v>1.56555</v>
       </c>
       <c r="C98" t="n">
-        <v>0.951591</v>
+        <v>0.9813</v>
       </c>
       <c r="D98" t="n">
-        <v>1.10719</v>
+        <v>1.12623</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.58637</v>
+        <v>1.61414</v>
       </c>
       <c r="C99" t="n">
-        <v>0.985537</v>
+        <v>1.01576</v>
       </c>
       <c r="D99" t="n">
-        <v>1.14938</v>
+        <v>1.16989</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.63414</v>
+        <v>1.66179</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02</v>
+        <v>1.05138</v>
       </c>
       <c r="D100" t="n">
-        <v>1.19373</v>
+        <v>1.21522</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.68192</v>
+        <v>1.71144</v>
       </c>
       <c r="C101" t="n">
-        <v>1.0554</v>
+        <v>1.08737</v>
       </c>
       <c r="D101" t="n">
-        <v>1.23807</v>
+        <v>1.25969</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.73396</v>
+        <v>1.76458</v>
       </c>
       <c r="C102" t="n">
-        <v>1.09148</v>
+        <v>1.12432</v>
       </c>
       <c r="D102" t="n">
-        <v>1.27768</v>
+        <v>1.30554</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.78987</v>
+        <v>1.81913</v>
       </c>
       <c r="C103" t="n">
-        <v>1.12962</v>
+        <v>1.16316</v>
       </c>
       <c r="D103" t="n">
-        <v>1.32491</v>
+        <v>1.35294</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.84696</v>
+        <v>1.87836</v>
       </c>
       <c r="C104" t="n">
-        <v>1.16795</v>
+        <v>1.20259</v>
       </c>
       <c r="D104" t="n">
-        <v>1.37416</v>
+        <v>1.40218</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.90716</v>
+        <v>1.93887</v>
       </c>
       <c r="C105" t="n">
-        <v>1.20851</v>
+        <v>1.24466</v>
       </c>
       <c r="D105" t="n">
-        <v>1.42263</v>
+        <v>1.45315</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.97179</v>
+        <v>2.00666</v>
       </c>
       <c r="C106" t="n">
-        <v>1.25087</v>
+        <v>1.28772</v>
       </c>
       <c r="D106" t="n">
-        <v>1.47415</v>
+        <v>1.50522</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.62548</v>
+        <v>1.65137</v>
       </c>
       <c r="C107" t="n">
-        <v>1.01712</v>
+        <v>1.04685</v>
       </c>
       <c r="D107" t="n">
-        <v>1.25256</v>
+        <v>1.26715</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.66086</v>
+        <v>1.67633</v>
       </c>
       <c r="C108" t="n">
-        <v>1.04265</v>
+        <v>1.07159</v>
       </c>
       <c r="D108" t="n">
-        <v>1.28249</v>
+        <v>1.30094</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.6915</v>
+        <v>1.72018</v>
       </c>
       <c r="C109" t="n">
-        <v>1.07071</v>
+        <v>1.10168</v>
       </c>
       <c r="D109" t="n">
-        <v>1.3303</v>
+        <v>1.34692</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.71602</v>
+        <v>1.75237</v>
       </c>
       <c r="C110" t="n">
-        <v>1.08152</v>
+        <v>1.13184</v>
       </c>
       <c r="D110" t="n">
-        <v>1.34145</v>
+        <v>1.38639</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.76524</v>
+        <v>1.78919</v>
       </c>
       <c r="C111" t="n">
-        <v>1.12688</v>
+        <v>1.15947</v>
       </c>
       <c r="D111" t="n">
-        <v>1.39413</v>
+        <v>1.41578</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.80634</v>
+        <v>1.83398</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1603</v>
+        <v>1.19276</v>
       </c>
       <c r="D112" t="n">
-        <v>1.43863</v>
+        <v>1.45911</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.84653</v>
+        <v>1.87768</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19231</v>
+        <v>1.22643</v>
       </c>
       <c r="D113" t="n">
-        <v>1.48051</v>
+        <v>1.50218</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.89386</v>
+        <v>1.92156</v>
       </c>
       <c r="C114" t="n">
-        <v>1.22472</v>
+        <v>1.25597</v>
       </c>
       <c r="D114" t="n">
-        <v>1.5144</v>
+        <v>1.53746</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.92759</v>
+        <v>1.97172</v>
       </c>
       <c r="C115" t="n">
-        <v>1.24379</v>
+        <v>1.29477</v>
       </c>
       <c r="D115" t="n">
-        <v>1.56901</v>
+        <v>1.59183</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.97544</v>
+        <v>2.02232</v>
       </c>
       <c r="C116" t="n">
-        <v>1.27805</v>
+        <v>1.32965</v>
       </c>
       <c r="D116" t="n">
-        <v>1.61288</v>
+        <v>1.63711</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.02984</v>
+        <v>2.07582</v>
       </c>
       <c r="C117" t="n">
-        <v>1.31424</v>
+        <v>1.35962</v>
       </c>
       <c r="D117" t="n">
-        <v>1.65835</v>
+        <v>1.68264</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.08747</v>
+        <v>2.13129</v>
       </c>
       <c r="C118" t="n">
-        <v>1.35245</v>
+        <v>1.38747</v>
       </c>
       <c r="D118" t="n">
-        <v>1.70038</v>
+        <v>1.72673</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.13895</v>
+        <v>2.18703</v>
       </c>
       <c r="C119" t="n">
-        <v>1.39098</v>
+        <v>1.43835</v>
       </c>
       <c r="D119" t="n">
-        <v>1.75048</v>
+        <v>1.77584</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.279766</v>
+        <v>0.281065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.200826</v>
+        <v>0.214663</v>
       </c>
       <c r="D2" t="n">
-        <v>0.179987</v>
+        <v>0.180797</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.293105</v>
+        <v>0.292224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207552</v>
+        <v>0.219738</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183851</v>
+        <v>0.183785</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.299197</v>
+        <v>0.299979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.213485</v>
+        <v>0.227775</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185021</v>
+        <v>0.18657</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.308613</v>
+        <v>0.309701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.21869</v>
+        <v>0.234399</v>
       </c>
       <c r="D5" t="n">
-        <v>0.189105</v>
+        <v>0.189601</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.321379</v>
+        <v>0.319888</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228151</v>
+        <v>0.241601</v>
       </c>
       <c r="D6" t="n">
-        <v>0.192221</v>
+        <v>0.191874</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.332437</v>
+        <v>0.332113</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188731</v>
+        <v>0.198492</v>
       </c>
       <c r="D7" t="n">
-        <v>0.173443</v>
+        <v>0.175989</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252607</v>
+        <v>0.253148</v>
       </c>
       <c r="C8" t="n">
-        <v>0.191308</v>
+        <v>0.202028</v>
       </c>
       <c r="D8" t="n">
-        <v>0.175115</v>
+        <v>0.177426</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.254265</v>
+        <v>0.257583</v>
       </c>
       <c r="C9" t="n">
-        <v>0.197451</v>
+        <v>0.207381</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177958</v>
+        <v>0.179996</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.264267</v>
+        <v>0.264275</v>
       </c>
       <c r="C10" t="n">
-        <v>0.203748</v>
+        <v>0.213517</v>
       </c>
       <c r="D10" t="n">
-        <v>0.18178</v>
+        <v>0.183263</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.270729</v>
+        <v>0.273813</v>
       </c>
       <c r="C11" t="n">
-        <v>0.208483</v>
+        <v>0.218733</v>
       </c>
       <c r="D11" t="n">
-        <v>0.184969</v>
+        <v>0.186485</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.278313</v>
+        <v>0.281633</v>
       </c>
       <c r="C12" t="n">
-        <v>0.214302</v>
+        <v>0.225904</v>
       </c>
       <c r="D12" t="n">
-        <v>0.188123</v>
+        <v>0.189952</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.285632</v>
+        <v>0.289362</v>
       </c>
       <c r="C13" t="n">
-        <v>0.223271</v>
+        <v>0.234552</v>
       </c>
       <c r="D13" t="n">
-        <v>0.189562</v>
+        <v>0.192067</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.29739</v>
+        <v>0.300557</v>
       </c>
       <c r="C14" t="n">
-        <v>0.229617</v>
+        <v>0.243395</v>
       </c>
       <c r="D14" t="n">
-        <v>0.194445</v>
+        <v>0.196473</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.30462</v>
+        <v>0.30801</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236089</v>
+        <v>0.24899</v>
       </c>
       <c r="D15" t="n">
-        <v>0.198291</v>
+        <v>0.201192</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.315854</v>
+        <v>0.318037</v>
       </c>
       <c r="C16" t="n">
-        <v>0.246553</v>
+        <v>0.259644</v>
       </c>
       <c r="D16" t="n">
-        <v>0.202494</v>
+        <v>0.207407</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.328604</v>
+        <v>0.330654</v>
       </c>
       <c r="C17" t="n">
-        <v>0.254784</v>
+        <v>0.267418</v>
       </c>
       <c r="D17" t="n">
-        <v>0.206641</v>
+        <v>0.208632</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.338726</v>
+        <v>0.34018</v>
       </c>
       <c r="C18" t="n">
-        <v>0.263425</v>
+        <v>0.276712</v>
       </c>
       <c r="D18" t="n">
-        <v>0.210655</v>
+        <v>0.212987</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.35094</v>
+        <v>0.352097</v>
       </c>
       <c r="C19" t="n">
-        <v>0.271412</v>
+        <v>0.286073</v>
       </c>
       <c r="D19" t="n">
-        <v>0.216604</v>
+        <v>0.218531</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.364564</v>
+        <v>0.367336</v>
       </c>
       <c r="C20" t="n">
-        <v>0.284078</v>
+        <v>0.298757</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221518</v>
+        <v>0.224501</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.377572</v>
+        <v>0.379094</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231845</v>
+        <v>0.24146</v>
       </c>
       <c r="D21" t="n">
-        <v>0.203642</v>
+        <v>0.205055</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.294598</v>
+        <v>0.295417</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237615</v>
+        <v>0.247718</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206346</v>
+        <v>0.208073</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.302175</v>
+        <v>0.302755</v>
       </c>
       <c r="C23" t="n">
-        <v>0.244241</v>
+        <v>0.254492</v>
       </c>
       <c r="D23" t="n">
-        <v>0.209698</v>
+        <v>0.211498</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.309893</v>
+        <v>0.310307</v>
       </c>
       <c r="C24" t="n">
-        <v>0.249167</v>
+        <v>0.259582</v>
       </c>
       <c r="D24" t="n">
-        <v>0.213348</v>
+        <v>0.21447</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.317176</v>
+        <v>0.317659</v>
       </c>
       <c r="C25" t="n">
-        <v>0.255507</v>
+        <v>0.266447</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216647</v>
+        <v>0.217918</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.325919</v>
+        <v>0.326549</v>
       </c>
       <c r="C26" t="n">
-        <v>0.263187</v>
+        <v>0.273789</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220546</v>
+        <v>0.222428</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332931</v>
+        <v>0.334079</v>
       </c>
       <c r="C27" t="n">
-        <v>0.267774</v>
+        <v>0.278974</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224456</v>
+        <v>0.225634</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.342754</v>
+        <v>0.342694</v>
       </c>
       <c r="C28" t="n">
-        <v>0.274202</v>
+        <v>0.286311</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228415</v>
+        <v>0.229454</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.352791</v>
+        <v>0.352813</v>
       </c>
       <c r="C29" t="n">
-        <v>0.281661</v>
+        <v>0.2937</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232615</v>
+        <v>0.233549</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.361969</v>
+        <v>0.362282</v>
       </c>
       <c r="C30" t="n">
-        <v>0.289851</v>
+        <v>0.302118</v>
       </c>
       <c r="D30" t="n">
-        <v>0.236529</v>
+        <v>0.237837</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.372686</v>
+        <v>0.37303</v>
       </c>
       <c r="C31" t="n">
-        <v>0.296566</v>
+        <v>0.309953</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240736</v>
+        <v>0.242042</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.382626</v>
+        <v>0.382902</v>
       </c>
       <c r="C32" t="n">
-        <v>0.306169</v>
+        <v>0.319421</v>
       </c>
       <c r="D32" t="n">
-        <v>0.245462</v>
+        <v>0.246748</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.395931</v>
+        <v>0.396319</v>
       </c>
       <c r="C33" t="n">
-        <v>0.314443</v>
+        <v>0.328487</v>
       </c>
       <c r="D33" t="n">
-        <v>0.250408</v>
+        <v>0.252026</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.408486</v>
+        <v>0.40847</v>
       </c>
       <c r="C34" t="n">
-        <v>0.324163</v>
+        <v>0.338992</v>
       </c>
       <c r="D34" t="n">
-        <v>0.255232</v>
+        <v>0.257275</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.421139</v>
+        <v>0.421729</v>
       </c>
       <c r="C35" t="n">
-        <v>0.249897</v>
+        <v>0.259563</v>
       </c>
       <c r="D35" t="n">
-        <v>0.227151</v>
+        <v>0.22823</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.316136</v>
+        <v>0.315988</v>
       </c>
       <c r="C36" t="n">
-        <v>0.256492</v>
+        <v>0.267043</v>
       </c>
       <c r="D36" t="n">
-        <v>0.230789</v>
+        <v>0.231729</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322315</v>
+        <v>0.322731</v>
       </c>
       <c r="C37" t="n">
-        <v>0.261739</v>
+        <v>0.272411</v>
       </c>
       <c r="D37" t="n">
-        <v>0.233497</v>
+        <v>0.234481</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.331126</v>
+        <v>0.330897</v>
       </c>
       <c r="C38" t="n">
-        <v>0.268562</v>
+        <v>0.279336</v>
       </c>
       <c r="D38" t="n">
-        <v>0.237131</v>
+        <v>0.238055</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.336702</v>
+        <v>0.336426</v>
       </c>
       <c r="C39" t="n">
-        <v>0.27441</v>
+        <v>0.285763</v>
       </c>
       <c r="D39" t="n">
-        <v>0.240863</v>
+        <v>0.241604</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.346381</v>
+        <v>0.346367</v>
       </c>
       <c r="C40" t="n">
-        <v>0.280962</v>
+        <v>0.291985</v>
       </c>
       <c r="D40" t="n">
-        <v>0.244784</v>
+        <v>0.24569</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.353951</v>
+        <v>0.353551</v>
       </c>
       <c r="C41" t="n">
-        <v>0.286975</v>
+        <v>0.2985</v>
       </c>
       <c r="D41" t="n">
-        <v>0.248018</v>
+        <v>0.248821</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.361977</v>
+        <v>0.361851</v>
       </c>
       <c r="C42" t="n">
-        <v>0.292537</v>
+        <v>0.304131</v>
       </c>
       <c r="D42" t="n">
-        <v>0.251221</v>
+        <v>0.251889</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.370846</v>
+        <v>0.370637</v>
       </c>
       <c r="C43" t="n">
-        <v>0.299469</v>
+        <v>0.311898</v>
       </c>
       <c r="D43" t="n">
-        <v>0.254791</v>
+        <v>0.255491</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.380799</v>
+        <v>0.380681</v>
       </c>
       <c r="C44" t="n">
-        <v>0.30764</v>
+        <v>0.32005</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259314</v>
+        <v>0.260569</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.392496</v>
+        <v>0.392003</v>
       </c>
       <c r="C45" t="n">
-        <v>0.315683</v>
+        <v>0.329206</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264611</v>
+        <v>0.265874</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.40279</v>
+        <v>0.402893</v>
       </c>
       <c r="C46" t="n">
-        <v>0.324358</v>
+        <v>0.337846</v>
       </c>
       <c r="D46" t="n">
-        <v>0.267754</v>
+        <v>0.269361</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.413271</v>
+        <v>0.41308</v>
       </c>
       <c r="C47" t="n">
-        <v>0.331848</v>
+        <v>0.345899</v>
       </c>
       <c r="D47" t="n">
-        <v>0.273671</v>
+        <v>0.274625</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.424755</v>
+        <v>0.42439</v>
       </c>
       <c r="C48" t="n">
-        <v>0.340854</v>
+        <v>0.356058</v>
       </c>
       <c r="D48" t="n">
-        <v>0.278651</v>
+        <v>0.279459</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.435383</v>
+        <v>0.435157</v>
       </c>
       <c r="C49" t="n">
-        <v>0.351012</v>
+        <v>0.366193</v>
       </c>
       <c r="D49" t="n">
-        <v>0.284049</v>
+        <v>0.285535</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.449592</v>
+        <v>0.449775</v>
       </c>
       <c r="C50" t="n">
-        <v>0.264088</v>
+        <v>0.274257</v>
       </c>
       <c r="D50" t="n">
-        <v>0.231539</v>
+        <v>0.231897</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.333895</v>
+        <v>0.333707</v>
       </c>
       <c r="C51" t="n">
-        <v>0.269799</v>
+        <v>0.28007</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234456</v>
+        <v>0.234956</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340598</v>
+        <v>0.340534</v>
       </c>
       <c r="C52" t="n">
-        <v>0.275539</v>
+        <v>0.286465</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237957</v>
+        <v>0.238417</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347638</v>
+        <v>0.347319</v>
       </c>
       <c r="C53" t="n">
-        <v>0.282452</v>
+        <v>0.29337</v>
       </c>
       <c r="D53" t="n">
-        <v>0.242001</v>
+        <v>0.242463</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.355497</v>
+        <v>0.3555</v>
       </c>
       <c r="C54" t="n">
-        <v>0.28841</v>
+        <v>0.299937</v>
       </c>
       <c r="D54" t="n">
-        <v>0.245636</v>
+        <v>0.245854</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.36484</v>
+        <v>0.364466</v>
       </c>
       <c r="C55" t="n">
-        <v>0.295583</v>
+        <v>0.306868</v>
       </c>
       <c r="D55" t="n">
-        <v>0.24993</v>
+        <v>0.250384</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.374039</v>
+        <v>0.373642</v>
       </c>
       <c r="C56" t="n">
-        <v>0.301165</v>
+        <v>0.31338</v>
       </c>
       <c r="D56" t="n">
-        <v>0.25372</v>
+        <v>0.254068</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.382952</v>
+        <v>0.382877</v>
       </c>
       <c r="C57" t="n">
-        <v>0.309154</v>
+        <v>0.32148</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257816</v>
+        <v>0.258173</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.393066</v>
+        <v>0.39267</v>
       </c>
       <c r="C58" t="n">
-        <v>0.316847</v>
+        <v>0.330038</v>
       </c>
       <c r="D58" t="n">
-        <v>0.263739</v>
+        <v>0.263843</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.404594</v>
+        <v>0.404377</v>
       </c>
       <c r="C59" t="n">
-        <v>0.323468</v>
+        <v>0.336933</v>
       </c>
       <c r="D59" t="n">
-        <v>0.266628</v>
+        <v>0.267309</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.41415</v>
+        <v>0.413824</v>
       </c>
       <c r="C60" t="n">
-        <v>0.33106</v>
+        <v>0.345199</v>
       </c>
       <c r="D60" t="n">
-        <v>0.270847</v>
+        <v>0.271358</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.425161</v>
+        <v>0.424978</v>
       </c>
       <c r="C61" t="n">
-        <v>0.340572</v>
+        <v>0.355142</v>
       </c>
       <c r="D61" t="n">
-        <v>0.276048</v>
+        <v>0.276936</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.436041</v>
+        <v>0.435743</v>
       </c>
       <c r="C62" t="n">
-        <v>0.349185</v>
+        <v>0.364456</v>
       </c>
       <c r="D62" t="n">
-        <v>0.281058</v>
+        <v>0.281562</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.447961</v>
+        <v>0.447433</v>
       </c>
       <c r="C63" t="n">
-        <v>0.359703</v>
+        <v>0.375159</v>
       </c>
       <c r="D63" t="n">
-        <v>0.28723</v>
+        <v>0.287753</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.461763</v>
+        <v>0.460259</v>
       </c>
       <c r="C64" t="n">
-        <v>0.28268</v>
+        <v>0.293993</v>
       </c>
       <c r="D64" t="n">
-        <v>0.247718</v>
+        <v>0.248094</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.359669</v>
+        <v>0.364638</v>
       </c>
       <c r="C65" t="n">
-        <v>0.291293</v>
+        <v>0.302065</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24867</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.373258</v>
+        <v>0.375941</v>
       </c>
       <c r="C66" t="n">
-        <v>0.300986</v>
+        <v>0.310999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.254885</v>
+        <v>0.25498</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.387425</v>
+        <v>0.386823</v>
       </c>
       <c r="C67" t="n">
-        <v>0.310704</v>
+        <v>0.322568</v>
       </c>
       <c r="D67" t="n">
-        <v>0.261187</v>
+        <v>0.260388</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.399755</v>
+        <v>0.401703</v>
       </c>
       <c r="C68" t="n">
-        <v>0.322351</v>
+        <v>0.331726</v>
       </c>
       <c r="D68" t="n">
-        <v>0.267461</v>
+        <v>0.266561</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.412366</v>
+        <v>0.415588</v>
       </c>
       <c r="C69" t="n">
-        <v>0.330823</v>
+        <v>0.345519</v>
       </c>
       <c r="D69" t="n">
-        <v>0.270878</v>
+        <v>0.27081</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.424589</v>
+        <v>0.434675</v>
       </c>
       <c r="C70" t="n">
-        <v>0.340902</v>
+        <v>0.359359</v>
       </c>
       <c r="D70" t="n">
-        <v>0.276989</v>
+        <v>0.276663</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.446481</v>
+        <v>0.453241</v>
       </c>
       <c r="C71" t="n">
-        <v>0.35611</v>
+        <v>0.374567</v>
       </c>
       <c r="D71" t="n">
-        <v>0.284178</v>
+        <v>0.285251</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.467091</v>
+        <v>0.476339</v>
       </c>
       <c r="C72" t="n">
-        <v>0.370645</v>
+        <v>0.390544</v>
       </c>
       <c r="D72" t="n">
-        <v>0.290436</v>
+        <v>0.292302</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.488304</v>
+        <v>0.499454</v>
       </c>
       <c r="C73" t="n">
-        <v>0.387233</v>
+        <v>0.410967</v>
       </c>
       <c r="D73" t="n">
-        <v>0.298572</v>
+        <v>0.300377</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.511892</v>
+        <v>0.526496</v>
       </c>
       <c r="C74" t="n">
-        <v>0.404448</v>
+        <v>0.432064</v>
       </c>
       <c r="D74" t="n">
-        <v>0.307913</v>
+        <v>0.310571</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.540569</v>
+        <v>0.5578880000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.424694</v>
+        <v>0.45262</v>
       </c>
       <c r="D75" t="n">
-        <v>0.317514</v>
+        <v>0.321693</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.567492</v>
+        <v>0.594244</v>
       </c>
       <c r="C76" t="n">
-        <v>0.447896</v>
+        <v>0.48557</v>
       </c>
       <c r="D76" t="n">
-        <v>0.326419</v>
+        <v>0.334024</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.610306</v>
+        <v>0.639635</v>
       </c>
       <c r="C77" t="n">
-        <v>0.475916</v>
+        <v>0.5196730000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.337047</v>
+        <v>0.34695</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.651129</v>
+        <v>0.683602</v>
       </c>
       <c r="C78" t="n">
-        <v>0.433822</v>
+        <v>0.463932</v>
       </c>
       <c r="D78" t="n">
-        <v>0.308172</v>
+        <v>0.315964</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.610829</v>
+        <v>0.6341830000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.46509</v>
+        <v>0.489964</v>
       </c>
       <c r="D79" t="n">
-        <v>0.320107</v>
+        <v>0.329426</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.651397</v>
+        <v>0.6721</v>
       </c>
       <c r="C80" t="n">
-        <v>0.488552</v>
+        <v>0.519679</v>
       </c>
       <c r="D80" t="n">
-        <v>0.334927</v>
+        <v>0.341161</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.694233</v>
+        <v>0.715529</v>
       </c>
       <c r="C81" t="n">
-        <v>0.526352</v>
+        <v>0.561152</v>
       </c>
       <c r="D81" t="n">
-        <v>0.349474</v>
+        <v>0.357916</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.74336</v>
+        <v>0.761771</v>
       </c>
       <c r="C82" t="n">
-        <v>0.562364</v>
+        <v>0.594826</v>
       </c>
       <c r="D82" t="n">
-        <v>0.36768</v>
+        <v>0.377357</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.794401</v>
+        <v>0.814481</v>
       </c>
       <c r="C83" t="n">
-        <v>0.602447</v>
+        <v>0.637721</v>
       </c>
       <c r="D83" t="n">
-        <v>0.384116</v>
+        <v>0.394099</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.855758</v>
+        <v>0.868613</v>
       </c>
       <c r="C84" t="n">
-        <v>0.643873</v>
+        <v>0.681415</v>
       </c>
       <c r="D84" t="n">
-        <v>0.40679</v>
+        <v>0.415183</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.908857</v>
+        <v>0.926904</v>
       </c>
       <c r="C85" t="n">
-        <v>0.688778</v>
+        <v>0.727041</v>
       </c>
       <c r="D85" t="n">
-        <v>0.432678</v>
+        <v>0.442911</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.966979</v>
+        <v>0.986356</v>
       </c>
       <c r="C86" t="n">
-        <v>0.73324</v>
+        <v>0.774439</v>
       </c>
       <c r="D86" t="n">
-        <v>0.460094</v>
+        <v>0.470745</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02896</v>
+        <v>1.04861</v>
       </c>
       <c r="C87" t="n">
-        <v>0.784701</v>
+        <v>0.829009</v>
       </c>
       <c r="D87" t="n">
-        <v>0.482165</v>
+        <v>0.496254</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.09819</v>
+        <v>1.11667</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8347329999999999</v>
+        <v>0.882572</v>
       </c>
       <c r="D88" t="n">
-        <v>0.50815</v>
+        <v>0.518672</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.16726</v>
+        <v>1.18669</v>
       </c>
       <c r="C89" t="n">
-        <v>0.892299</v>
+        <v>0.940577</v>
       </c>
       <c r="D89" t="n">
-        <v>0.538527</v>
+        <v>0.551667</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.23931</v>
+        <v>1.26123</v>
       </c>
       <c r="C90" t="n">
-        <v>0.942892</v>
+        <v>0.995501</v>
       </c>
       <c r="D90" t="n">
-        <v>0.570171</v>
+        <v>0.579336</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.31965</v>
+        <v>1.33877</v>
       </c>
       <c r="C91" t="n">
-        <v>1.0022</v>
+        <v>1.05949</v>
       </c>
       <c r="D91" t="n">
-        <v>0.607423</v>
+        <v>0.619557</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.39941</v>
+        <v>1.42297</v>
       </c>
       <c r="C92" t="n">
-        <v>0.830967</v>
+        <v>0.890616</v>
       </c>
       <c r="D92" t="n">
-        <v>0.582359</v>
+        <v>0.617662</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.11002</v>
+        <v>1.14688</v>
       </c>
       <c r="C93" t="n">
-        <v>0.862306</v>
+        <v>0.926172</v>
       </c>
       <c r="D93" t="n">
-        <v>0.604764</v>
+        <v>0.640769</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.15431</v>
+        <v>1.19258</v>
       </c>
       <c r="C94" t="n">
-        <v>0.900031</v>
+        <v>0.964875</v>
       </c>
       <c r="D94" t="n">
-        <v>0.628067</v>
+        <v>0.663002</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.19999</v>
+        <v>1.23938</v>
       </c>
       <c r="C95" t="n">
-        <v>0.934655</v>
+        <v>1.00125</v>
       </c>
       <c r="D95" t="n">
-        <v>0.653604</v>
+        <v>0.689319</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.25414</v>
+        <v>1.28922</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9738520000000001</v>
+        <v>1.04375</v>
       </c>
       <c r="D96" t="n">
-        <v>0.68186</v>
+        <v>0.717872</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.30292</v>
+        <v>1.33245</v>
       </c>
       <c r="C97" t="n">
-        <v>1.01422</v>
+        <v>1.0854</v>
       </c>
       <c r="D97" t="n">
-        <v>0.70187</v>
+        <v>0.738219</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.37372</v>
+        <v>1.38222</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05744</v>
+        <v>1.13038</v>
       </c>
       <c r="D98" t="n">
-        <v>0.731311</v>
+        <v>0.768442</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.41268</v>
+        <v>1.43525</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09942</v>
+        <v>1.17552</v>
       </c>
       <c r="D99" t="n">
-        <v>0.760985</v>
+        <v>0.796932</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.45845</v>
+        <v>1.47001</v>
       </c>
       <c r="C100" t="n">
-        <v>1.14672</v>
+        <v>1.22273</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7857189999999999</v>
+        <v>0.822475</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.52666</v>
+        <v>1.52972</v>
       </c>
       <c r="C101" t="n">
-        <v>1.19376</v>
+        <v>1.27604</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8135829999999999</v>
+        <v>0.849898</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.59401</v>
+        <v>1.60699</v>
       </c>
       <c r="C102" t="n">
-        <v>1.24548</v>
+        <v>1.3232</v>
       </c>
       <c r="D102" t="n">
-        <v>0.863945</v>
+        <v>0.881495</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.66473</v>
+        <v>1.64339</v>
       </c>
       <c r="C103" t="n">
-        <v>1.29572</v>
+        <v>1.38082</v>
       </c>
       <c r="D103" t="n">
-        <v>0.876424</v>
+        <v>0.914716</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.68052</v>
+        <v>1.7167</v>
       </c>
       <c r="C104" t="n">
-        <v>1.35124</v>
+        <v>1.43605</v>
       </c>
       <c r="D104" t="n">
-        <v>0.907385</v>
+        <v>0.947036</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.75706</v>
+        <v>1.78881</v>
       </c>
       <c r="C105" t="n">
-        <v>1.40847</v>
+        <v>1.4878</v>
       </c>
       <c r="D105" t="n">
-        <v>0.94382</v>
+        <v>0.982455</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.82763</v>
+        <v>1.86377</v>
       </c>
       <c r="C106" t="n">
-        <v>1.46178</v>
+        <v>1.51133</v>
       </c>
       <c r="D106" t="n">
-        <v>0.972703</v>
+        <v>1.01146</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.35036</v>
+        <v>1.36588</v>
       </c>
       <c r="C107" t="n">
-        <v>1.13932</v>
+        <v>1.16816</v>
       </c>
       <c r="D107" t="n">
-        <v>0.92218</v>
+        <v>0.941895</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.39196</v>
+        <v>1.41002</v>
       </c>
       <c r="C108" t="n">
-        <v>1.1519</v>
+        <v>1.19961</v>
       </c>
       <c r="D108" t="n">
-        <v>0.91974</v>
+        <v>0.9647520000000001</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.42083</v>
+        <v>1.45378</v>
       </c>
       <c r="C109" t="n">
-        <v>1.18642</v>
+        <v>1.21127</v>
       </c>
       <c r="D109" t="n">
-        <v>0.938805</v>
+        <v>0.984433</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.48479</v>
+        <v>1.50537</v>
       </c>
       <c r="C110" t="n">
-        <v>1.23725</v>
+        <v>1.25224</v>
       </c>
       <c r="D110" t="n">
-        <v>0.983606</v>
+        <v>1.00554</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.514</v>
+        <v>1.5516</v>
       </c>
       <c r="C111" t="n">
-        <v>1.25448</v>
+        <v>1.28778</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9864889999999999</v>
+        <v>1.03213</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.57091</v>
+        <v>1.60481</v>
       </c>
       <c r="C112" t="n">
-        <v>1.29666</v>
+        <v>1.3304</v>
       </c>
       <c r="D112" t="n">
-        <v>1.03772</v>
+        <v>1.05884</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.63575</v>
+        <v>1.65845</v>
       </c>
       <c r="C113" t="n">
-        <v>1.3519</v>
+        <v>1.37104</v>
       </c>
       <c r="D113" t="n">
-        <v>1.06242</v>
+        <v>1.08336</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.69457</v>
+        <v>1.71701</v>
       </c>
       <c r="C114" t="n">
-        <v>1.39026</v>
+        <v>1.41445</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08957</v>
+        <v>1.11085</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.75294</v>
+        <v>1.77579</v>
       </c>
       <c r="C115" t="n">
-        <v>1.43587</v>
+        <v>1.4619</v>
       </c>
       <c r="D115" t="n">
-        <v>1.1214</v>
+        <v>1.142</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.81507</v>
+        <v>1.83982</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48681</v>
+        <v>1.5114</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14971</v>
+        <v>1.17165</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.88137</v>
+        <v>1.90635</v>
       </c>
       <c r="C117" t="n">
-        <v>1.5165</v>
+        <v>1.56517</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1752</v>
+        <v>1.20024</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.95335</v>
+        <v>1.97505</v>
       </c>
       <c r="C118" t="n">
-        <v>1.56409</v>
+        <v>1.62078</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21129</v>
+        <v>1.23227</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.02421</v>
+        <v>2.04812</v>
       </c>
       <c r="C119" t="n">
-        <v>1.62881</v>
+        <v>1.67676</v>
       </c>
       <c r="D119" t="n">
-        <v>1.24509</v>
+        <v>1.26716</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.634857</v>
+        <v>0.641359</v>
       </c>
       <c r="C2" t="n">
-        <v>0.422975</v>
+        <v>0.466127</v>
       </c>
       <c r="D2" t="n">
-        <v>0.306629</v>
+        <v>0.307957</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.662934</v>
+        <v>0.661616</v>
       </c>
       <c r="C3" t="n">
-        <v>0.435714</v>
+        <v>0.483961</v>
       </c>
       <c r="D3" t="n">
-        <v>0.315872</v>
+        <v>0.320477</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.687853</v>
+        <v>0.694775</v>
       </c>
       <c r="C4" t="n">
-        <v>0.459829</v>
+        <v>0.5108740000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.324502</v>
+        <v>0.329536</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.710283</v>
+        <v>0.714098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.477839</v>
+        <v>0.527847</v>
       </c>
       <c r="D5" t="n">
-        <v>0.334853</v>
+        <v>0.340647</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.737662</v>
+        <v>0.744978</v>
       </c>
       <c r="C6" t="n">
-        <v>0.51229</v>
+        <v>0.562142</v>
       </c>
       <c r="D6" t="n">
-        <v>0.346468</v>
+        <v>0.352311</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.782581</v>
+        <v>0.779173</v>
       </c>
       <c r="C7" t="n">
-        <v>0.535054</v>
+        <v>0.585925</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359854</v>
+        <v>0.362085</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.802082</v>
+        <v>0.807202</v>
       </c>
       <c r="C8" t="n">
-        <v>0.562441</v>
+        <v>0.60812</v>
       </c>
       <c r="D8" t="n">
-        <v>0.366234</v>
+        <v>0.367267</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.84276</v>
+        <v>0.842014</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5853120000000001</v>
+        <v>0.640526</v>
       </c>
       <c r="D9" t="n">
-        <v>0.382921</v>
+        <v>0.380019</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.881319</v>
+        <v>0.880317</v>
       </c>
       <c r="C10" t="n">
-        <v>0.612905</v>
+        <v>0.667717</v>
       </c>
       <c r="D10" t="n">
-        <v>0.387762</v>
+        <v>0.392243</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.905213</v>
+        <v>0.911465</v>
       </c>
       <c r="C11" t="n">
-        <v>0.423735</v>
+        <v>0.458476</v>
       </c>
       <c r="D11" t="n">
-        <v>0.285583</v>
+        <v>0.291548</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5940029999999999</v>
+        <v>0.60759</v>
       </c>
       <c r="C12" t="n">
-        <v>0.435131</v>
+        <v>0.48066</v>
       </c>
       <c r="D12" t="n">
-        <v>0.297756</v>
+        <v>0.303804</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.605948</v>
+        <v>0.62474</v>
       </c>
       <c r="C13" t="n">
-        <v>0.453982</v>
+        <v>0.504647</v>
       </c>
       <c r="D13" t="n">
-        <v>0.306969</v>
+        <v>0.311409</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.637837</v>
+        <v>0.65715</v>
       </c>
       <c r="C14" t="n">
-        <v>0.472032</v>
+        <v>0.530042</v>
       </c>
       <c r="D14" t="n">
-        <v>0.315118</v>
+        <v>0.326211</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.658845</v>
+        <v>0.684996</v>
       </c>
       <c r="C15" t="n">
-        <v>0.507897</v>
+        <v>0.562439</v>
       </c>
       <c r="D15" t="n">
-        <v>0.33035</v>
+        <v>0.34244</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.696734</v>
+        <v>0.724845</v>
       </c>
       <c r="C16" t="n">
-        <v>0.534706</v>
+        <v>0.5933079999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.344442</v>
+        <v>0.355804</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7312920000000001</v>
+        <v>0.762352</v>
       </c>
       <c r="C17" t="n">
-        <v>0.563367</v>
+        <v>0.627219</v>
       </c>
       <c r="D17" t="n">
-        <v>0.353914</v>
+        <v>0.364771</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.773487</v>
+        <v>0.795195</v>
       </c>
       <c r="C18" t="n">
-        <v>0.596583</v>
+        <v>0.654632</v>
       </c>
       <c r="D18" t="n">
-        <v>0.371693</v>
+        <v>0.382132</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.806566</v>
+        <v>0.827895</v>
       </c>
       <c r="C19" t="n">
-        <v>0.624856</v>
+        <v>0.688254</v>
       </c>
       <c r="D19" t="n">
-        <v>0.380441</v>
+        <v>0.394847</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.847985</v>
+        <v>0.870261</v>
       </c>
       <c r="C20" t="n">
-        <v>0.657604</v>
+        <v>0.721173</v>
       </c>
       <c r="D20" t="n">
-        <v>0.394771</v>
+        <v>0.409101</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.886193</v>
+        <v>0.91022</v>
       </c>
       <c r="C21" t="n">
-        <v>0.692932</v>
+        <v>0.760969</v>
       </c>
       <c r="D21" t="n">
-        <v>0.407208</v>
+        <v>0.418536</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.925919</v>
+        <v>0.953797</v>
       </c>
       <c r="C22" t="n">
-        <v>0.726401</v>
+        <v>0.792013</v>
       </c>
       <c r="D22" t="n">
-        <v>0.421568</v>
+        <v>0.434403</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9693040000000001</v>
+        <v>0.9946</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7686539999999999</v>
+        <v>0.8341</v>
       </c>
       <c r="D23" t="n">
-        <v>0.437545</v>
+        <v>0.447317</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.02114</v>
+        <v>1.03402</v>
       </c>
       <c r="C24" t="n">
-        <v>0.799319</v>
+        <v>0.872839</v>
       </c>
       <c r="D24" t="n">
-        <v>0.455331</v>
+        <v>0.464851</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.06973</v>
+        <v>1.08862</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8444700000000001</v>
+        <v>0.910254</v>
       </c>
       <c r="D25" t="n">
-        <v>0.475349</v>
+        <v>0.485177</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.1078</v>
+        <v>1.12557</v>
       </c>
       <c r="C26" t="n">
-        <v>0.547551</v>
+        <v>0.58689</v>
       </c>
       <c r="D26" t="n">
-        <v>0.342588</v>
+        <v>0.344709</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.728212</v>
+        <v>0.7342109999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.575833</v>
+        <v>0.61192</v>
       </c>
       <c r="D27" t="n">
-        <v>0.354154</v>
+        <v>0.357345</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.76476</v>
+        <v>0.773342</v>
       </c>
       <c r="C28" t="n">
-        <v>0.606874</v>
+        <v>0.644877</v>
       </c>
       <c r="D28" t="n">
-        <v>0.369194</v>
+        <v>0.372748</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.797697</v>
+        <v>0.807189</v>
       </c>
       <c r="C29" t="n">
-        <v>0.637124</v>
+        <v>0.67836</v>
       </c>
       <c r="D29" t="n">
-        <v>0.383698</v>
+        <v>0.385056</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.833942</v>
+        <v>0.842253</v>
       </c>
       <c r="C30" t="n">
-        <v>0.67143</v>
+        <v>0.713234</v>
       </c>
       <c r="D30" t="n">
-        <v>0.395151</v>
+        <v>0.401948</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.874879</v>
+        <v>0.878283</v>
       </c>
       <c r="C31" t="n">
-        <v>0.701369</v>
+        <v>0.745341</v>
       </c>
       <c r="D31" t="n">
-        <v>0.411561</v>
+        <v>0.41209</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9076689999999999</v>
+        <v>0.918035</v>
       </c>
       <c r="C32" t="n">
-        <v>0.738047</v>
+        <v>0.7835</v>
       </c>
       <c r="D32" t="n">
-        <v>0.426963</v>
+        <v>0.429468</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.956745</v>
+        <v>0.9602039999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.770699</v>
+        <v>0.8191850000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.437091</v>
+        <v>0.442639</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.992922</v>
+        <v>1.00182</v>
       </c>
       <c r="C34" t="n">
-        <v>0.807953</v>
+        <v>0.852037</v>
       </c>
       <c r="D34" t="n">
-        <v>0.454912</v>
+        <v>0.454995</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.03882</v>
+        <v>1.04845</v>
       </c>
       <c r="C35" t="n">
-        <v>0.840096</v>
+        <v>0.8911829999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.467251</v>
+        <v>0.470436</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.08751</v>
+        <v>1.09054</v>
       </c>
       <c r="C36" t="n">
-        <v>0.870175</v>
+        <v>0.925777</v>
       </c>
       <c r="D36" t="n">
-        <v>0.480436</v>
+        <v>0.486639</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.12611</v>
+        <v>1.13332</v>
       </c>
       <c r="C37" t="n">
-        <v>0.909909</v>
+        <v>0.96645</v>
       </c>
       <c r="D37" t="n">
-        <v>0.49381</v>
+        <v>0.501113</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.17317</v>
+        <v>1.18154</v>
       </c>
       <c r="C38" t="n">
-        <v>0.949204</v>
+        <v>1.00675</v>
       </c>
       <c r="D38" t="n">
-        <v>0.519388</v>
+        <v>0.52042</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.22596</v>
+        <v>1.23064</v>
       </c>
       <c r="C39" t="n">
-        <v>0.981847</v>
+        <v>1.04336</v>
       </c>
       <c r="D39" t="n">
-        <v>0.532436</v>
+        <v>0.535953</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.26841</v>
+        <v>1.27827</v>
       </c>
       <c r="C40" t="n">
-        <v>0.61713</v>
+        <v>0.647861</v>
       </c>
       <c r="D40" t="n">
-        <v>0.398001</v>
+        <v>0.399163</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8052280000000001</v>
+        <v>0.806196</v>
       </c>
       <c r="C41" t="n">
-        <v>0.639884</v>
+        <v>0.6726490000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.410155</v>
+        <v>0.410737</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.84165</v>
+        <v>0.841692</v>
       </c>
       <c r="C42" t="n">
-        <v>0.669525</v>
+        <v>0.702483</v>
       </c>
       <c r="D42" t="n">
-        <v>0.423985</v>
+        <v>0.425648</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.873407</v>
+        <v>0.874505</v>
       </c>
       <c r="C43" t="n">
-        <v>0.698888</v>
+        <v>0.733749</v>
       </c>
       <c r="D43" t="n">
-        <v>0.438165</v>
+        <v>0.439333</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.916199</v>
+        <v>0.916003</v>
       </c>
       <c r="C44" t="n">
-        <v>0.730527</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.452345</v>
+        <v>0.452924</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.950979</v>
+        <v>0.951313</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7631790000000001</v>
+        <v>0.8018960000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.469125</v>
+        <v>0.470022</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.994328</v>
+        <v>0.99373</v>
       </c>
       <c r="C46" t="n">
-        <v>0.798526</v>
+        <v>0.836589</v>
       </c>
       <c r="D46" t="n">
-        <v>0.487877</v>
+        <v>0.488618</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.03698</v>
+        <v>1.03823</v>
       </c>
       <c r="C47" t="n">
-        <v>0.833098</v>
+        <v>0.87358</v>
       </c>
       <c r="D47" t="n">
-        <v>0.500807</v>
+        <v>0.5010599999999999</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.07918</v>
+        <v>1.08157</v>
       </c>
       <c r="C48" t="n">
-        <v>0.868263</v>
+        <v>0.911135</v>
       </c>
       <c r="D48" t="n">
-        <v>0.516313</v>
+        <v>0.516993</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.12479</v>
+        <v>1.12294</v>
       </c>
       <c r="C49" t="n">
-        <v>0.902494</v>
+        <v>0.950851</v>
       </c>
       <c r="D49" t="n">
-        <v>0.526115</v>
+        <v>0.532229</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.16836</v>
+        <v>1.17096</v>
       </c>
       <c r="C50" t="n">
-        <v>0.942925</v>
+        <v>0.991403</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5430779999999999</v>
+        <v>0.545421</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.2124</v>
+        <v>1.2164</v>
       </c>
       <c r="C51" t="n">
-        <v>0.977669</v>
+        <v>1.02863</v>
       </c>
       <c r="D51" t="n">
-        <v>0.567561</v>
+        <v>0.567132</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.2558</v>
+        <v>1.26151</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0164</v>
+        <v>1.07004</v>
       </c>
       <c r="D52" t="n">
-        <v>0.582932</v>
+        <v>0.583996</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.30791</v>
+        <v>1.30772</v>
       </c>
       <c r="C53" t="n">
-        <v>1.05508</v>
+        <v>1.11039</v>
       </c>
       <c r="D53" t="n">
-        <v>0.601569</v>
+        <v>0.600666</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.35369</v>
+        <v>1.35618</v>
       </c>
       <c r="C54" t="n">
-        <v>0.648949</v>
+        <v>0.678037</v>
       </c>
       <c r="D54" t="n">
-        <v>0.428628</v>
+        <v>0.429111</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.840419</v>
+        <v>0.839078</v>
       </c>
       <c r="C55" t="n">
-        <v>0.672844</v>
+        <v>0.704937</v>
       </c>
       <c r="D55" t="n">
-        <v>0.444938</v>
+        <v>0.445549</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.874075</v>
+        <v>0.872364</v>
       </c>
       <c r="C56" t="n">
-        <v>0.700195</v>
+        <v>0.73376</v>
       </c>
       <c r="D56" t="n">
-        <v>0.457485</v>
+        <v>0.457865</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.909992</v>
+        <v>0.909214</v>
       </c>
       <c r="C57" t="n">
-        <v>0.730036</v>
+        <v>0.763861</v>
       </c>
       <c r="D57" t="n">
-        <v>0.470977</v>
+        <v>0.4716</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.94559</v>
+        <v>0.944071</v>
       </c>
       <c r="C58" t="n">
-        <v>0.762812</v>
+        <v>0.79811</v>
       </c>
       <c r="D58" t="n">
-        <v>0.488139</v>
+        <v>0.488933</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.985136</v>
+        <v>0.9832070000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.794939</v>
+        <v>0.8345320000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.503958</v>
+        <v>0.503956</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.02312</v>
+        <v>1.02354</v>
       </c>
       <c r="C60" t="n">
-        <v>0.828267</v>
+        <v>0.868895</v>
       </c>
       <c r="D60" t="n">
-        <v>0.518976</v>
+        <v>0.519436</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.06624</v>
+        <v>1.06433</v>
       </c>
       <c r="C61" t="n">
-        <v>0.864335</v>
+        <v>0.905564</v>
       </c>
       <c r="D61" t="n">
-        <v>0.535878</v>
+        <v>0.53637</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.10735</v>
+        <v>1.10711</v>
       </c>
       <c r="C62" t="n">
-        <v>0.903464</v>
+        <v>0.947126</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5511160000000001</v>
+        <v>0.550468</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15269</v>
+        <v>1.15266</v>
       </c>
       <c r="C63" t="n">
-        <v>0.938599</v>
+        <v>0.9812959999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.56962</v>
+        <v>0.569809</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.20187</v>
+        <v>1.19998</v>
       </c>
       <c r="C64" t="n">
-        <v>0.974239</v>
+        <v>1.0224</v>
       </c>
       <c r="D64" t="n">
-        <v>0.583562</v>
+        <v>0.583429</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.24755</v>
+        <v>1.2447</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00945</v>
+        <v>1.0622</v>
       </c>
       <c r="D65" t="n">
-        <v>0.599587</v>
+        <v>0.599035</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.29008</v>
+        <v>1.29018</v>
       </c>
       <c r="C66" t="n">
-        <v>1.05123</v>
+        <v>1.10381</v>
       </c>
       <c r="D66" t="n">
-        <v>0.618485</v>
+        <v>0.617384</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.33884</v>
+        <v>1.33896</v>
       </c>
       <c r="C67" t="n">
-        <v>1.08736</v>
+        <v>1.14583</v>
       </c>
       <c r="D67" t="n">
-        <v>0.634201</v>
+        <v>0.633355</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.38947</v>
+        <v>1.38614</v>
       </c>
       <c r="C68" t="n">
-        <v>0.66861</v>
+        <v>0.70377</v>
       </c>
       <c r="D68" t="n">
-        <v>0.455881</v>
+        <v>0.45862</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.883287</v>
+        <v>0.893476</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7049299999999999</v>
+        <v>0.747422</v>
       </c>
       <c r="D69" t="n">
-        <v>0.468086</v>
+        <v>0.471347</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.934617</v>
+        <v>0.943159</v>
       </c>
       <c r="C70" t="n">
-        <v>0.745899</v>
+        <v>0.78938</v>
       </c>
       <c r="D70" t="n">
-        <v>0.489634</v>
+        <v>0.492956</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.990168</v>
+        <v>1.00463</v>
       </c>
       <c r="C71" t="n">
-        <v>0.788995</v>
+        <v>0.837074</v>
       </c>
       <c r="D71" t="n">
-        <v>0.511391</v>
+        <v>0.514191</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.04965</v>
+        <v>1.05826</v>
       </c>
       <c r="C72" t="n">
-        <v>0.837433</v>
+        <v>0.8906269999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.532963</v>
+        <v>0.539162</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.1004</v>
+        <v>1.1298</v>
       </c>
       <c r="C73" t="n">
-        <v>0.880226</v>
+        <v>0.950368</v>
       </c>
       <c r="D73" t="n">
-        <v>0.548544</v>
+        <v>0.556399</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.16208</v>
+        <v>1.20574</v>
       </c>
       <c r="C74" t="n">
-        <v>0.932378</v>
+        <v>1.01748</v>
       </c>
       <c r="D74" t="n">
-        <v>0.568273</v>
+        <v>0.578487</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.23697</v>
+        <v>1.28752</v>
       </c>
       <c r="C75" t="n">
-        <v>0.99288</v>
+        <v>1.08743</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6001300000000001</v>
+        <v>0.606062</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.30664</v>
+        <v>1.37794</v>
       </c>
       <c r="C76" t="n">
-        <v>1.05255</v>
+        <v>1.16517</v>
       </c>
       <c r="D76" t="n">
-        <v>0.615741</v>
+        <v>0.630991</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.40704</v>
+        <v>1.49892</v>
       </c>
       <c r="C77" t="n">
-        <v>1.12312</v>
+        <v>1.26582</v>
       </c>
       <c r="D77" t="n">
-        <v>0.645993</v>
+        <v>0.671549</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.51301</v>
+        <v>1.62443</v>
       </c>
       <c r="C78" t="n">
-        <v>1.21539</v>
+        <v>1.37498</v>
       </c>
       <c r="D78" t="n">
-        <v>0.670942</v>
+        <v>0.6956369999999999</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.6466</v>
+        <v>1.75464</v>
       </c>
       <c r="C79" t="n">
-        <v>1.31982</v>
+        <v>1.48547</v>
       </c>
       <c r="D79" t="n">
-        <v>0.705999</v>
+        <v>0.730511</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.78672</v>
+        <v>1.90486</v>
       </c>
       <c r="C80" t="n">
-        <v>1.43386</v>
+        <v>1.61349</v>
       </c>
       <c r="D80" t="n">
-        <v>0.740837</v>
+        <v>0.769954</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.94349</v>
+        <v>2.09268</v>
       </c>
       <c r="C81" t="n">
-        <v>1.57862</v>
+        <v>1.77947</v>
       </c>
       <c r="D81" t="n">
-        <v>0.770416</v>
+        <v>0.810878</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.1408</v>
+        <v>2.29292</v>
       </c>
       <c r="C82" t="n">
-        <v>1.73273</v>
+        <v>1.95114</v>
       </c>
       <c r="D82" t="n">
-        <v>0.842334</v>
+        <v>0.892463</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.38364</v>
+        <v>2.51142</v>
       </c>
       <c r="C83" t="n">
-        <v>1.15348</v>
+        <v>1.26262</v>
       </c>
       <c r="D83" t="n">
-        <v>0.61149</v>
+        <v>0.63266</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.62374</v>
+        <v>1.69277</v>
       </c>
       <c r="C84" t="n">
-        <v>1.28279</v>
+        <v>1.3986</v>
       </c>
       <c r="D84" t="n">
-        <v>0.651998</v>
+        <v>0.68096</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.80191</v>
+        <v>1.85191</v>
       </c>
       <c r="C85" t="n">
-        <v>1.42395</v>
+        <v>1.53877</v>
       </c>
       <c r="D85" t="n">
-        <v>0.701443</v>
+        <v>0.728592</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.99465</v>
+        <v>2.05085</v>
       </c>
       <c r="C86" t="n">
-        <v>1.58682</v>
+        <v>1.7001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.759033</v>
+        <v>0.78179</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.20627</v>
+        <v>2.26385</v>
       </c>
       <c r="C87" t="n">
-        <v>1.75588</v>
+        <v>1.87786</v>
       </c>
       <c r="D87" t="n">
-        <v>0.822889</v>
+        <v>0.845822</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.43397</v>
+        <v>2.49656</v>
       </c>
       <c r="C88" t="n">
-        <v>1.93753</v>
+        <v>2.07231</v>
       </c>
       <c r="D88" t="n">
-        <v>0.902876</v>
+        <v>0.92793</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.66898</v>
+        <v>2.74236</v>
       </c>
       <c r="C89" t="n">
-        <v>2.14234</v>
+        <v>2.28315</v>
       </c>
       <c r="D89" t="n">
-        <v>0.977537</v>
+        <v>1.00463</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.92716</v>
+        <v>3.00307</v>
       </c>
       <c r="C90" t="n">
-        <v>2.34484</v>
+        <v>2.50212</v>
       </c>
       <c r="D90" t="n">
-        <v>1.06459</v>
+        <v>1.08035</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.20194</v>
+        <v>3.27647</v>
       </c>
       <c r="C91" t="n">
-        <v>2.57076</v>
+        <v>2.73353</v>
       </c>
       <c r="D91" t="n">
-        <v>1.15486</v>
+        <v>1.1735</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.50188</v>
+        <v>3.58538</v>
       </c>
       <c r="C92" t="n">
-        <v>2.80814</v>
+        <v>2.98612</v>
       </c>
       <c r="D92" t="n">
-        <v>1.24232</v>
+        <v>1.26633</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.8072</v>
+        <v>3.88413</v>
       </c>
       <c r="C93" t="n">
-        <v>3.0469</v>
+        <v>3.23975</v>
       </c>
       <c r="D93" t="n">
-        <v>1.33346</v>
+        <v>1.35821</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.10347</v>
+        <v>4.21401</v>
       </c>
       <c r="C94" t="n">
-        <v>3.30344</v>
+        <v>3.51467</v>
       </c>
       <c r="D94" t="n">
-        <v>1.42129</v>
+        <v>1.45183</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.43968</v>
+        <v>4.54525</v>
       </c>
       <c r="C95" t="n">
-        <v>3.58549</v>
+        <v>3.80826</v>
       </c>
       <c r="D95" t="n">
-        <v>1.54358</v>
+        <v>1.57148</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.80115</v>
+        <v>4.90345</v>
       </c>
       <c r="C96" t="n">
-        <v>3.87725</v>
+        <v>4.11303</v>
       </c>
       <c r="D96" t="n">
-        <v>1.66133</v>
+        <v>1.69631</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.14875</v>
+        <v>5.26107</v>
       </c>
       <c r="C97" t="n">
-        <v>2.31702</v>
+        <v>2.46597</v>
       </c>
       <c r="D97" t="n">
-        <v>1.16375</v>
+        <v>1.18315</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.16495</v>
+        <v>3.22899</v>
       </c>
       <c r="C98" t="n">
-        <v>2.48466</v>
+        <v>2.63787</v>
       </c>
       <c r="D98" t="n">
-        <v>1.23208</v>
+        <v>1.24992</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.36875</v>
+        <v>3.46865</v>
       </c>
       <c r="C99" t="n">
-        <v>2.64862</v>
+        <v>2.8222</v>
       </c>
       <c r="D99" t="n">
-        <v>1.32517</v>
+        <v>1.34605</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.60289</v>
+        <v>3.59781</v>
       </c>
       <c r="C100" t="n">
-        <v>2.8321</v>
+        <v>3.01121</v>
       </c>
       <c r="D100" t="n">
-        <v>1.40297</v>
+        <v>1.4264</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.7934</v>
+        <v>3.84275</v>
       </c>
       <c r="C101" t="n">
-        <v>3.01641</v>
+        <v>3.17597</v>
       </c>
       <c r="D101" t="n">
-        <v>1.4536</v>
+        <v>1.48345</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.00256</v>
+        <v>4.08875</v>
       </c>
       <c r="C102" t="n">
-        <v>3.22337</v>
+        <v>3.32737</v>
       </c>
       <c r="D102" t="n">
-        <v>1.55839</v>
+        <v>1.58536</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.27191</v>
+        <v>4.29279</v>
       </c>
       <c r="C103" t="n">
-        <v>3.43177</v>
+        <v>3.52398</v>
       </c>
       <c r="D103" t="n">
-        <v>1.63944</v>
+        <v>1.66936</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.47161</v>
+        <v>4.56318</v>
       </c>
       <c r="C104" t="n">
-        <v>3.63797</v>
+        <v>3.74695</v>
       </c>
       <c r="D104" t="n">
-        <v>1.7415</v>
+        <v>1.76998</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.76794</v>
+        <v>4.84407</v>
       </c>
       <c r="C105" t="n">
-        <v>3.84146</v>
+        <v>3.98446</v>
       </c>
       <c r="D105" t="n">
-        <v>1.81229</v>
+        <v>1.83935</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.05222</v>
+        <v>5.13824</v>
       </c>
       <c r="C106" t="n">
-        <v>4.05406</v>
+        <v>4.2379</v>
       </c>
       <c r="D106" t="n">
-        <v>1.92671</v>
+        <v>1.959</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.35528</v>
+        <v>5.4567</v>
       </c>
       <c r="C107" t="n">
-        <v>4.24502</v>
+        <v>4.5097</v>
       </c>
       <c r="D107" t="n">
-        <v>2.01903</v>
+        <v>2.0554</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.68094</v>
+        <v>5.78099</v>
       </c>
       <c r="C108" t="n">
-        <v>4.49008</v>
+        <v>4.78808</v>
       </c>
       <c r="D108" t="n">
-        <v>2.12559</v>
+        <v>2.16341</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.0278</v>
+        <v>6.12964</v>
       </c>
       <c r="C109" t="n">
-        <v>4.76761</v>
+        <v>5.08629</v>
       </c>
       <c r="D109" t="n">
-        <v>2.23496</v>
+        <v>2.27398</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.36424</v>
+        <v>6.48017</v>
       </c>
       <c r="C110" t="n">
-        <v>5.07974</v>
+        <v>5.38895</v>
       </c>
       <c r="D110" t="n">
-        <v>2.34898</v>
+        <v>2.38536</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.71334</v>
+        <v>6.84011</v>
       </c>
       <c r="C111" t="n">
-        <v>2.90662</v>
+        <v>3.09035</v>
       </c>
       <c r="D111" t="n">
-        <v>1.6357</v>
+        <v>1.66676</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.97588</v>
+        <v>4.03956</v>
       </c>
       <c r="C112" t="n">
-        <v>3.07522</v>
+        <v>3.26377</v>
       </c>
       <c r="D112" t="n">
-        <v>1.69195</v>
+        <v>1.7223</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.19104</v>
+        <v>4.25426</v>
       </c>
       <c r="C113" t="n">
-        <v>3.23924</v>
+        <v>3.44506</v>
       </c>
       <c r="D113" t="n">
-        <v>1.77604</v>
+        <v>1.80653</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.41254</v>
+        <v>4.48007</v>
       </c>
       <c r="C114" t="n">
-        <v>3.41884</v>
+        <v>3.63598</v>
       </c>
       <c r="D114" t="n">
-        <v>1.86319</v>
+        <v>1.89297</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.64907</v>
+        <v>4.72095</v>
       </c>
       <c r="C115" t="n">
-        <v>3.60463</v>
+        <v>3.83953</v>
       </c>
       <c r="D115" t="n">
-        <v>1.93262</v>
+        <v>1.9672</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.90067</v>
+        <v>4.97396</v>
       </c>
       <c r="C116" t="n">
-        <v>3.80905</v>
+        <v>4.05773</v>
       </c>
       <c r="D116" t="n">
-        <v>2.02117</v>
+        <v>2.05399</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.15683</v>
+        <v>5.24475</v>
       </c>
       <c r="C117" t="n">
-        <v>4.01693</v>
+        <v>4.29378</v>
       </c>
       <c r="D117" t="n">
-        <v>2.13662</v>
+        <v>2.17133</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.44177</v>
+        <v>5.5252</v>
       </c>
       <c r="C118" t="n">
-        <v>4.24783</v>
+        <v>4.53279</v>
       </c>
       <c r="D118" t="n">
-        <v>2.24234</v>
+        <v>2.27669</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.73973</v>
+        <v>5.82024</v>
       </c>
       <c r="C119" t="n">
-        <v>4.49347</v>
+        <v>4.7823</v>
       </c>
       <c r="D119" t="n">
-        <v>2.3187</v>
+        <v>2.36102</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.399045</v>
+        <v>0.403281</v>
       </c>
       <c r="C2" t="n">
-        <v>0.29908</v>
+        <v>0.307304</v>
       </c>
       <c r="D2" t="n">
-        <v>0.32147</v>
+        <v>0.317736</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.413506</v>
+        <v>0.417626</v>
       </c>
       <c r="C3" t="n">
-        <v>0.306792</v>
+        <v>0.313765</v>
       </c>
       <c r="D3" t="n">
-        <v>0.328379</v>
+        <v>0.325871</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.422266</v>
+        <v>0.429292</v>
       </c>
       <c r="C4" t="n">
-        <v>0.313267</v>
+        <v>0.322859</v>
       </c>
       <c r="D4" t="n">
-        <v>0.333793</v>
+        <v>0.332496</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.434403</v>
+        <v>0.441832</v>
       </c>
       <c r="C5" t="n">
-        <v>0.322104</v>
+        <v>0.327042</v>
       </c>
       <c r="D5" t="n">
-        <v>0.33915</v>
+        <v>0.337946</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.449272</v>
+        <v>0.453883</v>
       </c>
       <c r="C6" t="n">
-        <v>0.329252</v>
+        <v>0.333545</v>
       </c>
       <c r="D6" t="n">
-        <v>0.346784</v>
+        <v>0.343952</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.460156</v>
+        <v>0.463607</v>
       </c>
       <c r="C7" t="n">
-        <v>0.266107</v>
+        <v>0.265386</v>
       </c>
       <c r="D7" t="n">
-        <v>0.291541</v>
+        <v>0.286888</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.352815</v>
+        <v>0.342701</v>
       </c>
       <c r="C8" t="n">
-        <v>0.274611</v>
+        <v>0.273626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.300884</v>
+        <v>0.297007</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3636</v>
+        <v>0.357254</v>
       </c>
       <c r="C9" t="n">
-        <v>0.282539</v>
+        <v>0.281785</v>
       </c>
       <c r="D9" t="n">
-        <v>0.309743</v>
+        <v>0.303209</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.375163</v>
+        <v>0.370144</v>
       </c>
       <c r="C10" t="n">
-        <v>0.293963</v>
+        <v>0.293422</v>
       </c>
       <c r="D10" t="n">
-        <v>0.318628</v>
+        <v>0.31481</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.389972</v>
+        <v>0.384202</v>
       </c>
       <c r="C11" t="n">
-        <v>0.30101</v>
+        <v>0.302812</v>
       </c>
       <c r="D11" t="n">
-        <v>0.327567</v>
+        <v>0.324358</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.398749</v>
+        <v>0.396853</v>
       </c>
       <c r="C12" t="n">
-        <v>0.309823</v>
+        <v>0.313077</v>
       </c>
       <c r="D12" t="n">
-        <v>0.336942</v>
+        <v>0.332553</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.413319</v>
+        <v>0.414062</v>
       </c>
       <c r="C13" t="n">
-        <v>0.319234</v>
+        <v>0.322763</v>
       </c>
       <c r="D13" t="n">
-        <v>0.345582</v>
+        <v>0.343121</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.424673</v>
+        <v>0.419147</v>
       </c>
       <c r="C14" t="n">
-        <v>0.327665</v>
+        <v>0.331256</v>
       </c>
       <c r="D14" t="n">
-        <v>0.357517</v>
+        <v>0.354118</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.435488</v>
+        <v>0.430416</v>
       </c>
       <c r="C15" t="n">
-        <v>0.335599</v>
+        <v>0.338093</v>
       </c>
       <c r="D15" t="n">
-        <v>0.366916</v>
+        <v>0.362096</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.449406</v>
+        <v>0.443053</v>
       </c>
       <c r="C16" t="n">
-        <v>0.341121</v>
+        <v>0.346537</v>
       </c>
       <c r="D16" t="n">
-        <v>0.377968</v>
+        <v>0.373035</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.462177</v>
+        <v>0.456978</v>
       </c>
       <c r="C17" t="n">
-        <v>0.349627</v>
+        <v>0.354769</v>
       </c>
       <c r="D17" t="n">
-        <v>0.382928</v>
+        <v>0.381268</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.473559</v>
+        <v>0.468286</v>
       </c>
       <c r="C18" t="n">
-        <v>0.355806</v>
+        <v>0.361203</v>
       </c>
       <c r="D18" t="n">
-        <v>0.391035</v>
+        <v>0.390013</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.487258</v>
+        <v>0.481669</v>
       </c>
       <c r="C19" t="n">
-        <v>0.364784</v>
+        <v>0.368067</v>
       </c>
       <c r="D19" t="n">
-        <v>0.399491</v>
+        <v>0.398598</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.495699</v>
+        <v>0.493031</v>
       </c>
       <c r="C20" t="n">
-        <v>0.37063</v>
+        <v>0.377041</v>
       </c>
       <c r="D20" t="n">
-        <v>0.405381</v>
+        <v>0.40911</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.508185</v>
+        <v>0.50603</v>
       </c>
       <c r="C21" t="n">
-        <v>0.291828</v>
+        <v>0.293906</v>
       </c>
       <c r="D21" t="n">
-        <v>0.316272</v>
+        <v>0.315058</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.393929</v>
+        <v>0.394944</v>
       </c>
       <c r="C22" t="n">
-        <v>0.299753</v>
+        <v>0.302734</v>
       </c>
       <c r="D22" t="n">
-        <v>0.326111</v>
+        <v>0.32537</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.404955</v>
+        <v>0.406373</v>
       </c>
       <c r="C23" t="n">
-        <v>0.307937</v>
+        <v>0.311765</v>
       </c>
       <c r="D23" t="n">
-        <v>0.335929</v>
+        <v>0.336516</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.414858</v>
+        <v>0.416047</v>
       </c>
       <c r="C24" t="n">
-        <v>0.316151</v>
+        <v>0.320304</v>
       </c>
       <c r="D24" t="n">
-        <v>0.346606</v>
+        <v>0.345582</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.426983</v>
+        <v>0.426638</v>
       </c>
       <c r="C25" t="n">
-        <v>0.324931</v>
+        <v>0.329989</v>
       </c>
       <c r="D25" t="n">
-        <v>0.355104</v>
+        <v>0.356339</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.438447</v>
+        <v>0.439035</v>
       </c>
       <c r="C26" t="n">
-        <v>0.333526</v>
+        <v>0.339683</v>
       </c>
       <c r="D26" t="n">
-        <v>0.365856</v>
+        <v>0.367794</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.450297</v>
+        <v>0.452405</v>
       </c>
       <c r="C27" t="n">
-        <v>0.340493</v>
+        <v>0.348288</v>
       </c>
       <c r="D27" t="n">
-        <v>0.379823</v>
+        <v>0.379745</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.463834</v>
+        <v>0.465318</v>
       </c>
       <c r="C28" t="n">
-        <v>0.349838</v>
+        <v>0.357319</v>
       </c>
       <c r="D28" t="n">
-        <v>0.387095</v>
+        <v>0.389264</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.474977</v>
+        <v>0.476499</v>
       </c>
       <c r="C29" t="n">
-        <v>0.357883</v>
+        <v>0.365474</v>
       </c>
       <c r="D29" t="n">
-        <v>0.397069</v>
+        <v>0.401329</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.485108</v>
+        <v>0.487658</v>
       </c>
       <c r="C30" t="n">
-        <v>0.366122</v>
+        <v>0.373993</v>
       </c>
       <c r="D30" t="n">
-        <v>0.407585</v>
+        <v>0.410327</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.496231</v>
+        <v>0.497158</v>
       </c>
       <c r="C31" t="n">
-        <v>0.372864</v>
+        <v>0.382429</v>
       </c>
       <c r="D31" t="n">
-        <v>0.418085</v>
+        <v>0.420096</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.507291</v>
+        <v>0.509809</v>
       </c>
       <c r="C32" t="n">
-        <v>0.381695</v>
+        <v>0.390849</v>
       </c>
       <c r="D32" t="n">
-        <v>0.426897</v>
+        <v>0.430467</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.519489</v>
+        <v>0.521852</v>
       </c>
       <c r="C33" t="n">
-        <v>0.388476</v>
+        <v>0.397997</v>
       </c>
       <c r="D33" t="n">
-        <v>0.435099</v>
+        <v>0.438356</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.530058</v>
+        <v>0.533253</v>
       </c>
       <c r="C34" t="n">
-        <v>0.396172</v>
+        <v>0.40586</v>
       </c>
       <c r="D34" t="n">
-        <v>0.444802</v>
+        <v>0.448692</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.541795</v>
+        <v>0.544447</v>
       </c>
       <c r="C35" t="n">
-        <v>0.30741</v>
+        <v>0.312262</v>
       </c>
       <c r="D35" t="n">
-        <v>0.337748</v>
+        <v>0.338445</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.412167</v>
+        <v>0.415229</v>
       </c>
       <c r="C36" t="n">
-        <v>0.314728</v>
+        <v>0.320125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.348507</v>
+        <v>0.34863</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.423319</v>
+        <v>0.426214</v>
       </c>
       <c r="C37" t="n">
-        <v>0.322736</v>
+        <v>0.327858</v>
       </c>
       <c r="D37" t="n">
-        <v>0.357568</v>
+        <v>0.358042</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.434078</v>
+        <v>0.436306</v>
       </c>
       <c r="C38" t="n">
-        <v>0.331907</v>
+        <v>0.337481</v>
       </c>
       <c r="D38" t="n">
-        <v>0.369413</v>
+        <v>0.369493</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.444807</v>
+        <v>0.446897</v>
       </c>
       <c r="C39" t="n">
-        <v>0.339617</v>
+        <v>0.346624</v>
       </c>
       <c r="D39" t="n">
-        <v>0.379206</v>
+        <v>0.380464</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.456311</v>
+        <v>0.458569</v>
       </c>
       <c r="C40" t="n">
-        <v>0.348405</v>
+        <v>0.355877</v>
       </c>
       <c r="D40" t="n">
-        <v>0.390251</v>
+        <v>0.391642</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.470015</v>
+        <v>0.472327</v>
       </c>
       <c r="C41" t="n">
-        <v>0.357717</v>
+        <v>0.365659</v>
       </c>
       <c r="D41" t="n">
-        <v>0.401139</v>
+        <v>0.402275</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.479734</v>
+        <v>0.482372</v>
       </c>
       <c r="C42" t="n">
-        <v>0.365279</v>
+        <v>0.373752</v>
       </c>
       <c r="D42" t="n">
-        <v>0.410335</v>
+        <v>0.41261</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.491382</v>
+        <v>0.494082</v>
       </c>
       <c r="C43" t="n">
-        <v>0.37326</v>
+        <v>0.382213</v>
       </c>
       <c r="D43" t="n">
-        <v>0.421376</v>
+        <v>0.423744</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.502444</v>
+        <v>0.5056349999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.381257</v>
+        <v>0.390406</v>
       </c>
       <c r="D44" t="n">
-        <v>0.430754</v>
+        <v>0.434418</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.513397</v>
+        <v>0.516699</v>
       </c>
       <c r="C45" t="n">
-        <v>0.387928</v>
+        <v>0.398219</v>
       </c>
       <c r="D45" t="n">
-        <v>0.440007</v>
+        <v>0.444484</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.524054</v>
+        <v>0.5268890000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.394636</v>
+        <v>0.405045</v>
       </c>
       <c r="D46" t="n">
-        <v>0.44809</v>
+        <v>0.453039</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.536177</v>
+        <v>0.539045</v>
       </c>
       <c r="C47" t="n">
-        <v>0.401318</v>
+        <v>0.412088</v>
       </c>
       <c r="D47" t="n">
-        <v>0.456894</v>
+        <v>0.461997</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.549094</v>
+        <v>0.550552</v>
       </c>
       <c r="C48" t="n">
-        <v>0.408608</v>
+        <v>0.419319</v>
       </c>
       <c r="D48" t="n">
-        <v>0.466232</v>
+        <v>0.471334</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.560515</v>
+        <v>0.565519</v>
       </c>
       <c r="C49" t="n">
-        <v>0.416249</v>
+        <v>0.425939</v>
       </c>
       <c r="D49" t="n">
-        <v>0.474119</v>
+        <v>0.4807</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.572693</v>
+        <v>0.576832</v>
       </c>
       <c r="C50" t="n">
-        <v>0.322323</v>
+        <v>0.327186</v>
       </c>
       <c r="D50" t="n">
-        <v>0.348139</v>
+        <v>0.348471</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430799</v>
+        <v>0.432758</v>
       </c>
       <c r="C51" t="n">
-        <v>0.330034</v>
+        <v>0.335791</v>
       </c>
       <c r="D51" t="n">
-        <v>0.359573</v>
+        <v>0.359272</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.441783</v>
+        <v>0.443904</v>
       </c>
       <c r="C52" t="n">
-        <v>0.338807</v>
+        <v>0.345215</v>
       </c>
       <c r="D52" t="n">
-        <v>0.370408</v>
+        <v>0.370624</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.453288</v>
+        <v>0.455802</v>
       </c>
       <c r="C53" t="n">
-        <v>0.347781</v>
+        <v>0.354734</v>
       </c>
       <c r="D53" t="n">
-        <v>0.381121</v>
+        <v>0.381756</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.464983</v>
+        <v>0.467133</v>
       </c>
       <c r="C54" t="n">
-        <v>0.356626</v>
+        <v>0.364055</v>
       </c>
       <c r="D54" t="n">
-        <v>0.393629</v>
+        <v>0.392906</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.479165</v>
+        <v>0.480296</v>
       </c>
       <c r="C55" t="n">
-        <v>0.365753</v>
+        <v>0.374314</v>
       </c>
       <c r="D55" t="n">
-        <v>0.404216</v>
+        <v>0.404855</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.488669</v>
+        <v>0.490546</v>
       </c>
       <c r="C56" t="n">
-        <v>0.374094</v>
+        <v>0.382817</v>
       </c>
       <c r="D56" t="n">
-        <v>0.415117</v>
+        <v>0.415718</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.499983</v>
+        <v>0.501794</v>
       </c>
       <c r="C57" t="n">
-        <v>0.381806</v>
+        <v>0.391174</v>
       </c>
       <c r="D57" t="n">
-        <v>0.42503</v>
+        <v>0.425249</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.510259</v>
+        <v>0.512537</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3888</v>
+        <v>0.398647</v>
       </c>
       <c r="D58" t="n">
-        <v>0.433781</v>
+        <v>0.43414</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.521055</v>
+        <v>0.522804</v>
       </c>
       <c r="C59" t="n">
-        <v>0.39558</v>
+        <v>0.405457</v>
       </c>
       <c r="D59" t="n">
-        <v>0.442829</v>
+        <v>0.443084</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.532241</v>
+        <v>0.534148</v>
       </c>
       <c r="C60" t="n">
-        <v>0.402321</v>
+        <v>0.412641</v>
       </c>
       <c r="D60" t="n">
-        <v>0.452452</v>
+        <v>0.452573</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.543048</v>
+        <v>0.545331</v>
       </c>
       <c r="C61" t="n">
-        <v>0.409548</v>
+        <v>0.419313</v>
       </c>
       <c r="D61" t="n">
-        <v>0.461148</v>
+        <v>0.462358</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.555933</v>
+        <v>0.558186</v>
       </c>
       <c r="C62" t="n">
-        <v>0.416326</v>
+        <v>0.425879</v>
       </c>
       <c r="D62" t="n">
-        <v>0.469848</v>
+        <v>0.470193</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.567659</v>
+        <v>0.5697489999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.424052</v>
+        <v>0.433442</v>
       </c>
       <c r="D63" t="n">
-        <v>0.480636</v>
+        <v>0.479686</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.579966</v>
+        <v>0.582132</v>
       </c>
       <c r="C64" t="n">
-        <v>0.334518</v>
+        <v>0.340433</v>
       </c>
       <c r="D64" t="n">
-        <v>0.367522</v>
+        <v>0.368421</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.462057</v>
+        <v>0.460943</v>
       </c>
       <c r="C65" t="n">
-        <v>0.344702</v>
+        <v>0.350131</v>
       </c>
       <c r="D65" t="n">
-        <v>0.380622</v>
+        <v>0.381512</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.476483</v>
+        <v>0.472453</v>
       </c>
       <c r="C66" t="n">
-        <v>0.355719</v>
+        <v>0.361285</v>
       </c>
       <c r="D66" t="n">
-        <v>0.394433</v>
+        <v>0.394828</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.49378</v>
+        <v>0.490972</v>
       </c>
       <c r="C67" t="n">
-        <v>0.367132</v>
+        <v>0.373399</v>
       </c>
       <c r="D67" t="n">
-        <v>0.407209</v>
+        <v>0.407398</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.510575</v>
+        <v>0.508095</v>
       </c>
       <c r="C68" t="n">
-        <v>0.37935</v>
+        <v>0.385684</v>
       </c>
       <c r="D68" t="n">
-        <v>0.421906</v>
+        <v>0.422659</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.52607</v>
+        <v>0.527721</v>
       </c>
       <c r="C69" t="n">
-        <v>0.389499</v>
+        <v>0.398626</v>
       </c>
       <c r="D69" t="n">
-        <v>0.439379</v>
+        <v>0.438483</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5505</v>
+        <v>0.548784</v>
       </c>
       <c r="C70" t="n">
-        <v>0.40126</v>
+        <v>0.410478</v>
       </c>
       <c r="D70" t="n">
-        <v>0.453843</v>
+        <v>0.453642</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.572565</v>
+        <v>0.5669729999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.416739</v>
+        <v>0.423497</v>
       </c>
       <c r="D71" t="n">
-        <v>0.469982</v>
+        <v>0.469254</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.598478</v>
+        <v>0.5895899999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.431063</v>
+        <v>0.436668</v>
       </c>
       <c r="D72" t="n">
-        <v>0.487872</v>
+        <v>0.484646</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.626968</v>
+        <v>0.620155</v>
       </c>
       <c r="C73" t="n">
-        <v>0.446981</v>
+        <v>0.452675</v>
       </c>
       <c r="D73" t="n">
-        <v>0.506627</v>
+        <v>0.504254</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.65884</v>
+        <v>0.650184</v>
       </c>
       <c r="C74" t="n">
-        <v>0.46406</v>
+        <v>0.469245</v>
       </c>
       <c r="D74" t="n">
-        <v>0.527498</v>
+        <v>0.525637</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.694573</v>
+        <v>0.6830079999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.483649</v>
+        <v>0.487249</v>
       </c>
       <c r="D75" t="n">
-        <v>0.550629</v>
+        <v>0.543574</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.731584</v>
+        <v>0.723788</v>
       </c>
       <c r="C76" t="n">
-        <v>0.505867</v>
+        <v>0.51004</v>
       </c>
       <c r="D76" t="n">
-        <v>0.576036</v>
+        <v>0.574612</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7712290000000001</v>
+        <v>0.765207</v>
       </c>
       <c r="C77" t="n">
-        <v>0.528682</v>
+        <v>0.533378</v>
       </c>
       <c r="D77" t="n">
-        <v>0.603441</v>
+        <v>0.601009</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.817868</v>
+        <v>0.823068</v>
       </c>
       <c r="C78" t="n">
-        <v>0.459508</v>
+        <v>0.46679</v>
       </c>
       <c r="D78" t="n">
-        <v>0.512749</v>
+        <v>0.508616</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.804406</v>
+        <v>0.815288</v>
       </c>
       <c r="C79" t="n">
-        <v>0.483671</v>
+        <v>0.493581</v>
       </c>
       <c r="D79" t="n">
-        <v>0.548893</v>
+        <v>0.545339</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8475240000000001</v>
+        <v>0.855881</v>
       </c>
       <c r="C80" t="n">
-        <v>0.51292</v>
+        <v>0.52315</v>
       </c>
       <c r="D80" t="n">
-        <v>0.580634</v>
+        <v>0.58072</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.899962</v>
+        <v>0.900871</v>
       </c>
       <c r="C81" t="n">
-        <v>0.542444</v>
+        <v>0.552203</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6093150000000001</v>
+        <v>0.608973</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.949745</v>
+        <v>0.9467</v>
       </c>
       <c r="C82" t="n">
-        <v>0.576061</v>
+        <v>0.585148</v>
       </c>
       <c r="D82" t="n">
-        <v>0.639974</v>
+        <v>0.641079</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0007</v>
+        <v>0.998983</v>
       </c>
       <c r="C83" t="n">
-        <v>0.610394</v>
+        <v>0.61925</v>
       </c>
       <c r="D83" t="n">
-        <v>0.67784</v>
+        <v>0.679327</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.06484</v>
+        <v>1.05262</v>
       </c>
       <c r="C84" t="n">
-        <v>0.644323</v>
+        <v>0.656792</v>
       </c>
       <c r="D84" t="n">
-        <v>0.723383</v>
+        <v>0.725943</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.10982</v>
+        <v>1.10787</v>
       </c>
       <c r="C85" t="n">
-        <v>0.68128</v>
+        <v>0.691452</v>
       </c>
       <c r="D85" t="n">
-        <v>0.762822</v>
+        <v>0.764192</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.16604</v>
+        <v>1.16312</v>
       </c>
       <c r="C86" t="n">
-        <v>0.719607</v>
+        <v>0.729235</v>
       </c>
       <c r="D86" t="n">
-        <v>0.806356</v>
+        <v>0.807752</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.22285</v>
+        <v>1.22065</v>
       </c>
       <c r="C87" t="n">
-        <v>0.757675</v>
+        <v>0.768254</v>
       </c>
       <c r="D87" t="n">
-        <v>0.842546</v>
+        <v>0.844076</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.28266</v>
+        <v>1.27789</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7964639999999999</v>
+        <v>0.806466</v>
       </c>
       <c r="D88" t="n">
-        <v>0.884242</v>
+        <v>0.884356</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.34345</v>
+        <v>1.33802</v>
       </c>
       <c r="C89" t="n">
-        <v>0.836153</v>
+        <v>0.845915</v>
       </c>
       <c r="D89" t="n">
-        <v>0.926336</v>
+        <v>0.927081</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.40879</v>
+        <v>1.40127</v>
       </c>
       <c r="C90" t="n">
-        <v>0.877963</v>
+        <v>0.887365</v>
       </c>
       <c r="D90" t="n">
-        <v>0.970498</v>
+        <v>0.9710299999999999</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.47667</v>
+        <v>1.46708</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9207379999999999</v>
+        <v>0.930409</v>
       </c>
       <c r="D91" t="n">
-        <v>1.01604</v>
+        <v>1.01645</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.54625</v>
+        <v>1.53429</v>
       </c>
       <c r="C92" t="n">
-        <v>0.793019</v>
+        <v>0.798816</v>
       </c>
       <c r="D92" t="n">
-        <v>0.901941</v>
+        <v>0.903823</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.35514</v>
+        <v>1.35414</v>
       </c>
       <c r="C93" t="n">
-        <v>0.821504</v>
+        <v>0.828314</v>
       </c>
       <c r="D93" t="n">
-        <v>0.94712</v>
+        <v>0.951898</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.39372</v>
+        <v>1.39393</v>
       </c>
       <c r="C94" t="n">
-        <v>0.850955</v>
+        <v>0.857803</v>
       </c>
       <c r="D94" t="n">
-        <v>0.978092</v>
+        <v>0.979429</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.43353</v>
+        <v>1.43298</v>
       </c>
       <c r="C95" t="n">
-        <v>0.881503</v>
+        <v>0.888962</v>
       </c>
       <c r="D95" t="n">
-        <v>1.0039</v>
+        <v>1.0076</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.47606</v>
+        <v>1.47477</v>
       </c>
       <c r="C96" t="n">
-        <v>0.914492</v>
+        <v>0.921404</v>
       </c>
       <c r="D96" t="n">
-        <v>1.03755</v>
+        <v>1.03945</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.51963</v>
+        <v>1.51701</v>
       </c>
       <c r="C97" t="n">
-        <v>0.947215</v>
+        <v>0.955165</v>
       </c>
       <c r="D97" t="n">
-        <v>1.09738</v>
+        <v>1.0989</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.56555</v>
+        <v>1.56262</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9813</v>
+        <v>0.98915</v>
       </c>
       <c r="D98" t="n">
-        <v>1.12623</v>
+        <v>1.12785</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.61414</v>
+        <v>1.61</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01576</v>
+        <v>1.0244</v>
       </c>
       <c r="D99" t="n">
-        <v>1.16989</v>
+        <v>1.171</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.66179</v>
+        <v>1.65677</v>
       </c>
       <c r="C100" t="n">
-        <v>1.05138</v>
+        <v>1.05977</v>
       </c>
       <c r="D100" t="n">
-        <v>1.21522</v>
+        <v>1.21434</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.71144</v>
+        <v>1.70539</v>
       </c>
       <c r="C101" t="n">
-        <v>1.08737</v>
+        <v>1.09642</v>
       </c>
       <c r="D101" t="n">
-        <v>1.25969</v>
+        <v>1.25932</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.76458</v>
+        <v>1.75663</v>
       </c>
       <c r="C102" t="n">
-        <v>1.12432</v>
+        <v>1.13331</v>
       </c>
       <c r="D102" t="n">
-        <v>1.30554</v>
+        <v>1.30675</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.81913</v>
+        <v>1.81058</v>
       </c>
       <c r="C103" t="n">
-        <v>1.16316</v>
+        <v>1.1724</v>
       </c>
       <c r="D103" t="n">
-        <v>1.35294</v>
+        <v>1.35447</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.87836</v>
+        <v>1.86628</v>
       </c>
       <c r="C104" t="n">
-        <v>1.20259</v>
+        <v>1.21125</v>
       </c>
       <c r="D104" t="n">
-        <v>1.40218</v>
+        <v>1.40287</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.93887</v>
+        <v>1.92657</v>
       </c>
       <c r="C105" t="n">
-        <v>1.24466</v>
+        <v>1.25263</v>
       </c>
       <c r="D105" t="n">
-        <v>1.45315</v>
+        <v>1.45397</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.00666</v>
+        <v>1.99081</v>
       </c>
       <c r="C106" t="n">
-        <v>1.28772</v>
+        <v>1.29549</v>
       </c>
       <c r="D106" t="n">
-        <v>1.50522</v>
+        <v>1.50563</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.65137</v>
+        <v>1.65084</v>
       </c>
       <c r="C107" t="n">
-        <v>1.04685</v>
+        <v>1.0489</v>
       </c>
       <c r="D107" t="n">
-        <v>1.26715</v>
+        <v>1.26436</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.67633</v>
+        <v>1.68174</v>
       </c>
       <c r="C108" t="n">
-        <v>1.07159</v>
+        <v>1.08008</v>
       </c>
       <c r="D108" t="n">
-        <v>1.30094</v>
+        <v>1.30375</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.72018</v>
+        <v>1.71706</v>
       </c>
       <c r="C109" t="n">
-        <v>1.10168</v>
+        <v>1.10755</v>
       </c>
       <c r="D109" t="n">
-        <v>1.34692</v>
+        <v>1.34935</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.75237</v>
+        <v>1.75456</v>
       </c>
       <c r="C110" t="n">
-        <v>1.13184</v>
+        <v>1.13903</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38639</v>
+        <v>1.38863</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.78919</v>
+        <v>1.7943</v>
       </c>
       <c r="C111" t="n">
-        <v>1.15947</v>
+        <v>1.16875</v>
       </c>
       <c r="D111" t="n">
-        <v>1.41578</v>
+        <v>1.41885</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.83398</v>
+        <v>1.83527</v>
       </c>
       <c r="C112" t="n">
-        <v>1.19276</v>
+        <v>1.19657</v>
       </c>
       <c r="D112" t="n">
-        <v>1.45911</v>
+        <v>1.46359</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.87768</v>
+        <v>1.87268</v>
       </c>
       <c r="C113" t="n">
-        <v>1.22643</v>
+        <v>1.23358</v>
       </c>
       <c r="D113" t="n">
-        <v>1.50218</v>
+        <v>1.50736</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.92156</v>
+        <v>1.92105</v>
       </c>
       <c r="C114" t="n">
-        <v>1.25597</v>
+        <v>1.27035</v>
       </c>
       <c r="D114" t="n">
-        <v>1.53746</v>
+        <v>1.5425</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.97172</v>
+        <v>1.96479</v>
       </c>
       <c r="C115" t="n">
-        <v>1.29477</v>
+        <v>1.30073</v>
       </c>
       <c r="D115" t="n">
-        <v>1.59183</v>
+        <v>1.59185</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.02232</v>
+        <v>2.01217</v>
       </c>
       <c r="C116" t="n">
-        <v>1.32965</v>
+        <v>1.32931</v>
       </c>
       <c r="D116" t="n">
-        <v>1.63711</v>
+        <v>1.63695</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.07582</v>
+        <v>2.06654</v>
       </c>
       <c r="C117" t="n">
-        <v>1.35962</v>
+        <v>1.36815</v>
       </c>
       <c r="D117" t="n">
-        <v>1.68264</v>
+        <v>1.68376</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.13129</v>
+        <v>2.11952</v>
       </c>
       <c r="C118" t="n">
-        <v>1.38747</v>
+        <v>1.4033</v>
       </c>
       <c r="D118" t="n">
-        <v>1.72673</v>
+        <v>1.72567</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.18703</v>
+        <v>2.17507</v>
       </c>
       <c r="C119" t="n">
-        <v>1.43835</v>
+        <v>1.44246</v>
       </c>
       <c r="D119" t="n">
-        <v>1.77584</v>
+        <v>1.77632</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.281065</v>
+        <v>0.275466</v>
       </c>
       <c r="C2" t="n">
-        <v>0.214663</v>
+        <v>0.211503</v>
       </c>
       <c r="D2" t="n">
-        <v>0.180797</v>
+        <v>0.179614</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.292224</v>
+        <v>0.283112</v>
       </c>
       <c r="C3" t="n">
-        <v>0.219738</v>
+        <v>0.214608</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183785</v>
+        <v>0.181555</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.299979</v>
+        <v>0.290106</v>
       </c>
       <c r="C4" t="n">
-        <v>0.227775</v>
+        <v>0.221871</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18657</v>
+        <v>0.184031</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.309701</v>
+        <v>0.298342</v>
       </c>
       <c r="C5" t="n">
-        <v>0.234399</v>
+        <v>0.22751</v>
       </c>
       <c r="D5" t="n">
-        <v>0.189601</v>
+        <v>0.186958</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.319888</v>
+        <v>0.307363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.241601</v>
+        <v>0.230682</v>
       </c>
       <c r="D6" t="n">
-        <v>0.191874</v>
+        <v>0.18884</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.332113</v>
+        <v>0.318549</v>
       </c>
       <c r="C7" t="n">
-        <v>0.198492</v>
+        <v>0.200256</v>
       </c>
       <c r="D7" t="n">
-        <v>0.175989</v>
+        <v>0.174709</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.253148</v>
+        <v>0.249621</v>
       </c>
       <c r="C8" t="n">
-        <v>0.202028</v>
+        <v>0.20552</v>
       </c>
       <c r="D8" t="n">
-        <v>0.177426</v>
+        <v>0.176825</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.257583</v>
+        <v>0.253054</v>
       </c>
       <c r="C9" t="n">
-        <v>0.207381</v>
+        <v>0.210728</v>
       </c>
       <c r="D9" t="n">
-        <v>0.179996</v>
+        <v>0.178984</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.264275</v>
+        <v>0.261377</v>
       </c>
       <c r="C10" t="n">
-        <v>0.213517</v>
+        <v>0.216747</v>
       </c>
       <c r="D10" t="n">
-        <v>0.183263</v>
+        <v>0.17974</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.273813</v>
+        <v>0.270389</v>
       </c>
       <c r="C11" t="n">
-        <v>0.218733</v>
+        <v>0.220591</v>
       </c>
       <c r="D11" t="n">
-        <v>0.186485</v>
+        <v>0.183034</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.281633</v>
+        <v>0.278001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.225904</v>
+        <v>0.228144</v>
       </c>
       <c r="D12" t="n">
-        <v>0.189952</v>
+        <v>0.186203</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.289362</v>
+        <v>0.283144</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234552</v>
+        <v>0.236881</v>
       </c>
       <c r="D13" t="n">
-        <v>0.192067</v>
+        <v>0.192026</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.300557</v>
+        <v>0.296699</v>
       </c>
       <c r="C14" t="n">
-        <v>0.243395</v>
+        <v>0.244994</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196473</v>
+        <v>0.194397</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.30801</v>
+        <v>0.303682</v>
       </c>
       <c r="C15" t="n">
-        <v>0.24899</v>
+        <v>0.251022</v>
       </c>
       <c r="D15" t="n">
-        <v>0.201192</v>
+        <v>0.198644</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.318037</v>
+        <v>0.315159</v>
       </c>
       <c r="C16" t="n">
-        <v>0.259644</v>
+        <v>0.261501</v>
       </c>
       <c r="D16" t="n">
-        <v>0.207407</v>
+        <v>0.201863</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.330654</v>
+        <v>0.326771</v>
       </c>
       <c r="C17" t="n">
-        <v>0.267418</v>
+        <v>0.269537</v>
       </c>
       <c r="D17" t="n">
-        <v>0.208632</v>
+        <v>0.20575</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.34018</v>
+        <v>0.335776</v>
       </c>
       <c r="C18" t="n">
-        <v>0.276712</v>
+        <v>0.278617</v>
       </c>
       <c r="D18" t="n">
-        <v>0.212987</v>
+        <v>0.211538</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.352097</v>
+        <v>0.347877</v>
       </c>
       <c r="C19" t="n">
-        <v>0.286073</v>
+        <v>0.287855</v>
       </c>
       <c r="D19" t="n">
-        <v>0.218531</v>
+        <v>0.215818</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.367336</v>
+        <v>0.36335</v>
       </c>
       <c r="C20" t="n">
-        <v>0.298757</v>
+        <v>0.301427</v>
       </c>
       <c r="D20" t="n">
-        <v>0.224501</v>
+        <v>0.22358</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.379094</v>
+        <v>0.375032</v>
       </c>
       <c r="C21" t="n">
-        <v>0.24146</v>
+        <v>0.245791</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205055</v>
+        <v>0.20484</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.295417</v>
+        <v>0.293966</v>
       </c>
       <c r="C22" t="n">
-        <v>0.247718</v>
+        <v>0.252386</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208073</v>
+        <v>0.207597</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.302755</v>
+        <v>0.301549</v>
       </c>
       <c r="C23" t="n">
-        <v>0.254492</v>
+        <v>0.259005</v>
       </c>
       <c r="D23" t="n">
-        <v>0.211498</v>
+        <v>0.211168</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.310307</v>
+        <v>0.308948</v>
       </c>
       <c r="C24" t="n">
-        <v>0.259582</v>
+        <v>0.263689</v>
       </c>
       <c r="D24" t="n">
-        <v>0.21447</v>
+        <v>0.21458</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.317659</v>
+        <v>0.316289</v>
       </c>
       <c r="C25" t="n">
-        <v>0.266447</v>
+        <v>0.271547</v>
       </c>
       <c r="D25" t="n">
-        <v>0.217918</v>
+        <v>0.217982</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.326549</v>
+        <v>0.325223</v>
       </c>
       <c r="C26" t="n">
-        <v>0.273789</v>
+        <v>0.279092</v>
       </c>
       <c r="D26" t="n">
-        <v>0.222428</v>
+        <v>0.222347</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.334079</v>
+        <v>0.326079</v>
       </c>
       <c r="C27" t="n">
-        <v>0.278974</v>
+        <v>0.284135</v>
       </c>
       <c r="D27" t="n">
-        <v>0.225634</v>
+        <v>0.224534</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.342694</v>
+        <v>0.34058</v>
       </c>
       <c r="C28" t="n">
-        <v>0.286311</v>
+        <v>0.290062</v>
       </c>
       <c r="D28" t="n">
-        <v>0.229454</v>
+        <v>0.228197</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.352813</v>
+        <v>0.350094</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2937</v>
+        <v>0.297926</v>
       </c>
       <c r="D29" t="n">
-        <v>0.233549</v>
+        <v>0.232698</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.362282</v>
+        <v>0.360105</v>
       </c>
       <c r="C30" t="n">
-        <v>0.302118</v>
+        <v>0.307324</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237837</v>
+        <v>0.235764</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.37303</v>
+        <v>0.369888</v>
       </c>
       <c r="C31" t="n">
-        <v>0.309953</v>
+        <v>0.313621</v>
       </c>
       <c r="D31" t="n">
-        <v>0.242042</v>
+        <v>0.241439</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.382902</v>
+        <v>0.379541</v>
       </c>
       <c r="C32" t="n">
-        <v>0.319421</v>
+        <v>0.324438</v>
       </c>
       <c r="D32" t="n">
-        <v>0.246748</v>
+        <v>0.242669</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.396319</v>
+        <v>0.391428</v>
       </c>
       <c r="C33" t="n">
-        <v>0.328487</v>
+        <v>0.332603</v>
       </c>
       <c r="D33" t="n">
-        <v>0.252026</v>
+        <v>0.251459</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.40847</v>
+        <v>0.404153</v>
       </c>
       <c r="C34" t="n">
-        <v>0.338992</v>
+        <v>0.34326</v>
       </c>
       <c r="D34" t="n">
-        <v>0.257275</v>
+        <v>0.256338</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.421729</v>
+        <v>0.418366</v>
       </c>
       <c r="C35" t="n">
-        <v>0.259563</v>
+        <v>0.264112</v>
       </c>
       <c r="D35" t="n">
-        <v>0.22823</v>
+        <v>0.22743</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.315988</v>
+        <v>0.315218</v>
       </c>
       <c r="C36" t="n">
-        <v>0.267043</v>
+        <v>0.271363</v>
       </c>
       <c r="D36" t="n">
-        <v>0.231729</v>
+        <v>0.230832</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322731</v>
+        <v>0.321716</v>
       </c>
       <c r="C37" t="n">
-        <v>0.272411</v>
+        <v>0.277224</v>
       </c>
       <c r="D37" t="n">
-        <v>0.234481</v>
+        <v>0.233987</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.330897</v>
+        <v>0.330418</v>
       </c>
       <c r="C38" t="n">
-        <v>0.279336</v>
+        <v>0.284159</v>
       </c>
       <c r="D38" t="n">
-        <v>0.238055</v>
+        <v>0.23785</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.336426</v>
+        <v>0.336081</v>
       </c>
       <c r="C39" t="n">
-        <v>0.285763</v>
+        <v>0.29051</v>
       </c>
       <c r="D39" t="n">
-        <v>0.241604</v>
+        <v>0.241524</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.346367</v>
+        <v>0.34538</v>
       </c>
       <c r="C40" t="n">
-        <v>0.291985</v>
+        <v>0.298092</v>
       </c>
       <c r="D40" t="n">
-        <v>0.24569</v>
+        <v>0.245264</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.353551</v>
+        <v>0.352866</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2985</v>
+        <v>0.304312</v>
       </c>
       <c r="D41" t="n">
-        <v>0.248821</v>
+        <v>0.247614</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.361851</v>
+        <v>0.360976</v>
       </c>
       <c r="C42" t="n">
-        <v>0.304131</v>
+        <v>0.309962</v>
       </c>
       <c r="D42" t="n">
-        <v>0.251889</v>
+        <v>0.252014</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.370637</v>
+        <v>0.369901</v>
       </c>
       <c r="C43" t="n">
-        <v>0.311898</v>
+        <v>0.317523</v>
       </c>
       <c r="D43" t="n">
-        <v>0.255491</v>
+        <v>0.255442</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.380681</v>
+        <v>0.379316</v>
       </c>
       <c r="C44" t="n">
-        <v>0.32005</v>
+        <v>0.326218</v>
       </c>
       <c r="D44" t="n">
-        <v>0.260569</v>
+        <v>0.260504</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.392003</v>
+        <v>0.391198</v>
       </c>
       <c r="C45" t="n">
-        <v>0.329206</v>
+        <v>0.335087</v>
       </c>
       <c r="D45" t="n">
-        <v>0.265874</v>
+        <v>0.264505</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.402893</v>
+        <v>0.40031</v>
       </c>
       <c r="C46" t="n">
-        <v>0.337846</v>
+        <v>0.344675</v>
       </c>
       <c r="D46" t="n">
-        <v>0.269361</v>
+        <v>0.268693</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.41308</v>
+        <v>0.412006</v>
       </c>
       <c r="C47" t="n">
-        <v>0.345899</v>
+        <v>0.352216</v>
       </c>
       <c r="D47" t="n">
-        <v>0.274625</v>
+        <v>0.27366</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.42439</v>
+        <v>0.42333</v>
       </c>
       <c r="C48" t="n">
-        <v>0.356058</v>
+        <v>0.362941</v>
       </c>
       <c r="D48" t="n">
-        <v>0.279459</v>
+        <v>0.278849</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.435157</v>
+        <v>0.434087</v>
       </c>
       <c r="C49" t="n">
-        <v>0.366193</v>
+        <v>0.373325</v>
       </c>
       <c r="D49" t="n">
-        <v>0.285535</v>
+        <v>0.285044</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.449775</v>
+        <v>0.44813</v>
       </c>
       <c r="C50" t="n">
-        <v>0.274257</v>
+        <v>0.279581</v>
       </c>
       <c r="D50" t="n">
-        <v>0.231897</v>
+        <v>0.23119</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.333707</v>
+        <v>0.333031</v>
       </c>
       <c r="C51" t="n">
-        <v>0.28007</v>
+        <v>0.285568</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234956</v>
+        <v>0.234419</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340534</v>
+        <v>0.339823</v>
       </c>
       <c r="C52" t="n">
-        <v>0.286465</v>
+        <v>0.292143</v>
       </c>
       <c r="D52" t="n">
-        <v>0.238417</v>
+        <v>0.237861</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347319</v>
+        <v>0.346436</v>
       </c>
       <c r="C53" t="n">
-        <v>0.29337</v>
+        <v>0.29936</v>
       </c>
       <c r="D53" t="n">
-        <v>0.242463</v>
+        <v>0.241487</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3555</v>
+        <v>0.354553</v>
       </c>
       <c r="C54" t="n">
-        <v>0.299937</v>
+        <v>0.30585</v>
       </c>
       <c r="D54" t="n">
-        <v>0.245854</v>
+        <v>0.244976</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.364466</v>
+        <v>0.363555</v>
       </c>
       <c r="C55" t="n">
-        <v>0.306868</v>
+        <v>0.31319</v>
       </c>
       <c r="D55" t="n">
-        <v>0.250384</v>
+        <v>0.249409</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.373642</v>
+        <v>0.373377</v>
       </c>
       <c r="C56" t="n">
-        <v>0.31338</v>
+        <v>0.319562</v>
       </c>
       <c r="D56" t="n">
-        <v>0.254068</v>
+        <v>0.253256</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.382877</v>
+        <v>0.381538</v>
       </c>
       <c r="C57" t="n">
-        <v>0.32148</v>
+        <v>0.327728</v>
       </c>
       <c r="D57" t="n">
-        <v>0.258173</v>
+        <v>0.25742</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.39267</v>
+        <v>0.392171</v>
       </c>
       <c r="C58" t="n">
-        <v>0.330038</v>
+        <v>0.336559</v>
       </c>
       <c r="D58" t="n">
-        <v>0.263843</v>
+        <v>0.263287</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.404377</v>
+        <v>0.404017</v>
       </c>
       <c r="C59" t="n">
-        <v>0.336933</v>
+        <v>0.343881</v>
       </c>
       <c r="D59" t="n">
-        <v>0.267309</v>
+        <v>0.26627</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.413824</v>
+        <v>0.413395</v>
       </c>
       <c r="C60" t="n">
-        <v>0.345199</v>
+        <v>0.352242</v>
       </c>
       <c r="D60" t="n">
-        <v>0.271358</v>
+        <v>0.270717</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.424978</v>
+        <v>0.42407</v>
       </c>
       <c r="C61" t="n">
-        <v>0.355142</v>
+        <v>0.362617</v>
       </c>
       <c r="D61" t="n">
-        <v>0.276936</v>
+        <v>0.276483</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.435743</v>
+        <v>0.434862</v>
       </c>
       <c r="C62" t="n">
-        <v>0.364456</v>
+        <v>0.371616</v>
       </c>
       <c r="D62" t="n">
-        <v>0.281562</v>
+        <v>0.28091</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.447433</v>
+        <v>0.446544</v>
       </c>
       <c r="C63" t="n">
-        <v>0.375159</v>
+        <v>0.382866</v>
       </c>
       <c r="D63" t="n">
-        <v>0.287753</v>
+        <v>0.28687</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.460259</v>
+        <v>0.461665</v>
       </c>
       <c r="C64" t="n">
-        <v>0.293993</v>
+        <v>0.298688</v>
       </c>
       <c r="D64" t="n">
-        <v>0.248094</v>
+        <v>0.245365</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.364638</v>
+        <v>0.359124</v>
       </c>
       <c r="C65" t="n">
-        <v>0.302065</v>
+        <v>0.306291</v>
       </c>
       <c r="D65" t="n">
-        <v>0.249</v>
+        <v>0.248334</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.375941</v>
+        <v>0.371548</v>
       </c>
       <c r="C66" t="n">
-        <v>0.310999</v>
+        <v>0.317054</v>
       </c>
       <c r="D66" t="n">
-        <v>0.25498</v>
+        <v>0.25254</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.386823</v>
+        <v>0.382581</v>
       </c>
       <c r="C67" t="n">
-        <v>0.322568</v>
+        <v>0.325922</v>
       </c>
       <c r="D67" t="n">
-        <v>0.260388</v>
+        <v>0.258422</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.401703</v>
+        <v>0.398912</v>
       </c>
       <c r="C68" t="n">
-        <v>0.331726</v>
+        <v>0.337345</v>
       </c>
       <c r="D68" t="n">
-        <v>0.266561</v>
+        <v>0.264361</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.415588</v>
+        <v>0.417818</v>
       </c>
       <c r="C69" t="n">
-        <v>0.345519</v>
+        <v>0.349768</v>
       </c>
       <c r="D69" t="n">
-        <v>0.27081</v>
+        <v>0.270176</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.434675</v>
+        <v>0.43326</v>
       </c>
       <c r="C70" t="n">
-        <v>0.359359</v>
+        <v>0.362615</v>
       </c>
       <c r="D70" t="n">
-        <v>0.276663</v>
+        <v>0.276279</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.453241</v>
+        <v>0.453066</v>
       </c>
       <c r="C71" t="n">
-        <v>0.374567</v>
+        <v>0.378597</v>
       </c>
       <c r="D71" t="n">
-        <v>0.285251</v>
+        <v>0.282732</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.476339</v>
+        <v>0.483598</v>
       </c>
       <c r="C72" t="n">
-        <v>0.390544</v>
+        <v>0.400391</v>
       </c>
       <c r="D72" t="n">
-        <v>0.292302</v>
+        <v>0.29294</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.499454</v>
+        <v>0.5079939999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.410967</v>
+        <v>0.422739</v>
       </c>
       <c r="D73" t="n">
-        <v>0.300377</v>
+        <v>0.302425</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.526496</v>
+        <v>0.540787</v>
       </c>
       <c r="C74" t="n">
-        <v>0.432064</v>
+        <v>0.449514</v>
       </c>
       <c r="D74" t="n">
-        <v>0.310571</v>
+        <v>0.31421</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5578880000000001</v>
+        <v>0.574301</v>
       </c>
       <c r="C75" t="n">
-        <v>0.45262</v>
+        <v>0.473814</v>
       </c>
       <c r="D75" t="n">
-        <v>0.321693</v>
+        <v>0.324932</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.594244</v>
+        <v>0.613374</v>
       </c>
       <c r="C76" t="n">
-        <v>0.48557</v>
+        <v>0.507139</v>
       </c>
       <c r="D76" t="n">
-        <v>0.334024</v>
+        <v>0.32993</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.639635</v>
+        <v>0.662503</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5196730000000001</v>
+        <v>0.541008</v>
       </c>
       <c r="D77" t="n">
-        <v>0.34695</v>
+        <v>0.350606</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.683602</v>
+        <v>0.701356</v>
       </c>
       <c r="C78" t="n">
-        <v>0.463932</v>
+        <v>0.469623</v>
       </c>
       <c r="D78" t="n">
-        <v>0.315964</v>
+        <v>0.318202</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6341830000000001</v>
+        <v>0.628752</v>
       </c>
       <c r="C79" t="n">
-        <v>0.489964</v>
+        <v>0.498707</v>
       </c>
       <c r="D79" t="n">
-        <v>0.329426</v>
+        <v>0.32713</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6721</v>
+        <v>0.670194</v>
       </c>
       <c r="C80" t="n">
-        <v>0.519679</v>
+        <v>0.529782</v>
       </c>
       <c r="D80" t="n">
-        <v>0.341161</v>
+        <v>0.338824</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.715529</v>
+        <v>0.71821</v>
       </c>
       <c r="C81" t="n">
-        <v>0.561152</v>
+        <v>0.567529</v>
       </c>
       <c r="D81" t="n">
-        <v>0.357916</v>
+        <v>0.356899</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.761771</v>
+        <v>0.762161</v>
       </c>
       <c r="C82" t="n">
-        <v>0.594826</v>
+        <v>0.603639</v>
       </c>
       <c r="D82" t="n">
-        <v>0.377357</v>
+        <v>0.380898</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.814481</v>
+        <v>0.816203</v>
       </c>
       <c r="C83" t="n">
-        <v>0.637721</v>
+        <v>0.646223</v>
       </c>
       <c r="D83" t="n">
-        <v>0.394099</v>
+        <v>0.40055</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.868613</v>
+        <v>0.870502</v>
       </c>
       <c r="C84" t="n">
-        <v>0.681415</v>
+        <v>0.691322</v>
       </c>
       <c r="D84" t="n">
-        <v>0.415183</v>
+        <v>0.421627</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.926904</v>
+        <v>0.926243</v>
       </c>
       <c r="C85" t="n">
-        <v>0.727041</v>
+        <v>0.733557</v>
       </c>
       <c r="D85" t="n">
-        <v>0.442911</v>
+        <v>0.443964</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.986356</v>
+        <v>0.982584</v>
       </c>
       <c r="C86" t="n">
-        <v>0.774439</v>
+        <v>0.7804410000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.470745</v>
+        <v>0.468716</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.04861</v>
+        <v>1.04368</v>
       </c>
       <c r="C87" t="n">
-        <v>0.829009</v>
+        <v>0.835207</v>
       </c>
       <c r="D87" t="n">
-        <v>0.496254</v>
+        <v>0.493146</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.11667</v>
+        <v>1.11582</v>
       </c>
       <c r="C88" t="n">
-        <v>0.882572</v>
+        <v>0.888916</v>
       </c>
       <c r="D88" t="n">
-        <v>0.518672</v>
+        <v>0.527675</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.18669</v>
+        <v>1.18484</v>
       </c>
       <c r="C89" t="n">
-        <v>0.940577</v>
+        <v>0.947528</v>
       </c>
       <c r="D89" t="n">
-        <v>0.551667</v>
+        <v>0.553914</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.26123</v>
+        <v>1.25577</v>
       </c>
       <c r="C90" t="n">
-        <v>0.995501</v>
+        <v>1.00352</v>
       </c>
       <c r="D90" t="n">
-        <v>0.579336</v>
+        <v>0.579862</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.33877</v>
+        <v>1.33681</v>
       </c>
       <c r="C91" t="n">
-        <v>1.05949</v>
+        <v>1.06657</v>
       </c>
       <c r="D91" t="n">
-        <v>0.619557</v>
+        <v>0.615564</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.42297</v>
+        <v>1.42043</v>
       </c>
       <c r="C92" t="n">
-        <v>0.890616</v>
+        <v>0.895269</v>
       </c>
       <c r="D92" t="n">
-        <v>0.617662</v>
+        <v>0.615444</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.14688</v>
+        <v>1.14163</v>
       </c>
       <c r="C93" t="n">
-        <v>0.926172</v>
+        <v>0.931372</v>
       </c>
       <c r="D93" t="n">
-        <v>0.640769</v>
+        <v>0.64427</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.19258</v>
+        <v>1.18757</v>
       </c>
       <c r="C94" t="n">
-        <v>0.964875</v>
+        <v>0.97076</v>
       </c>
       <c r="D94" t="n">
-        <v>0.663002</v>
+        <v>0.667782</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.23938</v>
+        <v>1.23621</v>
       </c>
       <c r="C95" t="n">
-        <v>1.00125</v>
+        <v>1.00641</v>
       </c>
       <c r="D95" t="n">
-        <v>0.689319</v>
+        <v>0.6903319999999999</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.28922</v>
+        <v>1.28494</v>
       </c>
       <c r="C96" t="n">
-        <v>1.04375</v>
+        <v>1.05008</v>
       </c>
       <c r="D96" t="n">
-        <v>0.717872</v>
+        <v>0.712573</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.33245</v>
+        <v>1.3383</v>
       </c>
       <c r="C97" t="n">
-        <v>1.0854</v>
+        <v>1.09158</v>
       </c>
       <c r="D97" t="n">
-        <v>0.738219</v>
+        <v>0.739269</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.38222</v>
+        <v>1.3882</v>
       </c>
       <c r="C98" t="n">
-        <v>1.13038</v>
+        <v>1.13739</v>
       </c>
       <c r="D98" t="n">
-        <v>0.768442</v>
+        <v>0.7652330000000001</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.43525</v>
+        <v>1.42882</v>
       </c>
       <c r="C99" t="n">
-        <v>1.17552</v>
+        <v>1.18463</v>
       </c>
       <c r="D99" t="n">
-        <v>0.796932</v>
+        <v>0.791722</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.47001</v>
+        <v>1.46274</v>
       </c>
       <c r="C100" t="n">
-        <v>1.22273</v>
+        <v>1.23323</v>
       </c>
       <c r="D100" t="n">
-        <v>0.822475</v>
+        <v>0.822672</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.52972</v>
+        <v>1.55297</v>
       </c>
       <c r="C101" t="n">
-        <v>1.27604</v>
+        <v>1.28388</v>
       </c>
       <c r="D101" t="n">
-        <v>0.849898</v>
+        <v>0.854409</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.60699</v>
+        <v>1.60073</v>
       </c>
       <c r="C102" t="n">
-        <v>1.3232</v>
+        <v>1.33716</v>
       </c>
       <c r="D102" t="n">
-        <v>0.881495</v>
+        <v>0.886309</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.64339</v>
+        <v>1.64564</v>
       </c>
       <c r="C103" t="n">
-        <v>1.38082</v>
+        <v>1.39232</v>
       </c>
       <c r="D103" t="n">
-        <v>0.914716</v>
+        <v>0.9142670000000001</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.7167</v>
+        <v>1.71203</v>
       </c>
       <c r="C104" t="n">
-        <v>1.43605</v>
+        <v>1.44034</v>
       </c>
       <c r="D104" t="n">
-        <v>0.947036</v>
+        <v>0.948929</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.78881</v>
+        <v>1.78672</v>
       </c>
       <c r="C105" t="n">
-        <v>1.4878</v>
+        <v>1.50239</v>
       </c>
       <c r="D105" t="n">
-        <v>0.982455</v>
+        <v>0.993084</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.86377</v>
+        <v>1.863</v>
       </c>
       <c r="C106" t="n">
-        <v>1.51133</v>
+        <v>1.56517</v>
       </c>
       <c r="D106" t="n">
-        <v>1.01146</v>
+        <v>1.02566</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.36588</v>
+        <v>1.36496</v>
       </c>
       <c r="C107" t="n">
-        <v>1.16816</v>
+        <v>1.19396</v>
       </c>
       <c r="D107" t="n">
-        <v>0.941895</v>
+        <v>0.9376910000000001</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.41002</v>
+        <v>1.40841</v>
       </c>
       <c r="C108" t="n">
-        <v>1.19961</v>
+        <v>1.23395</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9647520000000001</v>
+        <v>0.95663</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.45378</v>
+        <v>1.45286</v>
       </c>
       <c r="C109" t="n">
-        <v>1.21127</v>
+        <v>1.24539</v>
       </c>
       <c r="D109" t="n">
-        <v>0.984433</v>
+        <v>0.9799</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.50537</v>
+        <v>1.50366</v>
       </c>
       <c r="C110" t="n">
-        <v>1.25224</v>
+        <v>1.29245</v>
       </c>
       <c r="D110" t="n">
-        <v>1.00554</v>
+        <v>1.00109</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.5516</v>
+        <v>1.54929</v>
       </c>
       <c r="C111" t="n">
-        <v>1.28778</v>
+        <v>1.31495</v>
       </c>
       <c r="D111" t="n">
-        <v>1.03213</v>
+        <v>1.03029</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.60481</v>
+        <v>1.59149</v>
       </c>
       <c r="C112" t="n">
-        <v>1.3304</v>
+        <v>1.33728</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05884</v>
+        <v>1.0528</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.65845</v>
+        <v>1.65493</v>
       </c>
       <c r="C113" t="n">
-        <v>1.37104</v>
+        <v>1.38948</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08336</v>
+        <v>1.08038</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.71701</v>
+        <v>1.71302</v>
       </c>
       <c r="C114" t="n">
-        <v>1.41445</v>
+        <v>1.42723</v>
       </c>
       <c r="D114" t="n">
-        <v>1.11085</v>
+        <v>1.10622</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.77579</v>
+        <v>1.77284</v>
       </c>
       <c r="C115" t="n">
-        <v>1.4619</v>
+        <v>1.47026</v>
       </c>
       <c r="D115" t="n">
-        <v>1.142</v>
+        <v>1.13477</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.83982</v>
+        <v>1.83609</v>
       </c>
       <c r="C116" t="n">
-        <v>1.5114</v>
+        <v>1.5238</v>
       </c>
       <c r="D116" t="n">
-        <v>1.17165</v>
+        <v>1.16611</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.90635</v>
+        <v>1.90267</v>
       </c>
       <c r="C117" t="n">
-        <v>1.56517</v>
+        <v>1.57124</v>
       </c>
       <c r="D117" t="n">
-        <v>1.20024</v>
+        <v>1.1981</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.97505</v>
+        <v>1.97199</v>
       </c>
       <c r="C118" t="n">
-        <v>1.62078</v>
+        <v>1.62822</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23227</v>
+        <v>1.22853</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.04812</v>
+        <v>2.04616</v>
       </c>
       <c r="C119" t="n">
-        <v>1.67676</v>
+        <v>1.6851</v>
       </c>
       <c r="D119" t="n">
-        <v>1.26716</v>
+        <v>1.25929</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.641359</v>
+        <v>0.626379</v>
       </c>
       <c r="C2" t="n">
-        <v>0.466127</v>
+        <v>0.46534</v>
       </c>
       <c r="D2" t="n">
-        <v>0.307957</v>
+        <v>0.303036</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.661616</v>
+        <v>0.651411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.483961</v>
+        <v>0.479542</v>
       </c>
       <c r="D3" t="n">
-        <v>0.320477</v>
+        <v>0.314079</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.694775</v>
+        <v>0.680415</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5108740000000001</v>
+        <v>0.503756</v>
       </c>
       <c r="D4" t="n">
-        <v>0.329536</v>
+        <v>0.322886</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.714098</v>
+        <v>0.702359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.527847</v>
+        <v>0.519097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.340647</v>
+        <v>0.332883</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.744978</v>
+        <v>0.72734</v>
       </c>
       <c r="C6" t="n">
-        <v>0.562142</v>
+        <v>0.5358619999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.352311</v>
+        <v>0.343686</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.779173</v>
+        <v>0.757592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.585925</v>
+        <v>0.562234</v>
       </c>
       <c r="D7" t="n">
-        <v>0.362085</v>
+        <v>0.350904</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.807202</v>
+        <v>0.79031</v>
       </c>
       <c r="C8" t="n">
-        <v>0.60812</v>
+        <v>0.5809530000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.367267</v>
+        <v>0.358406</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.842014</v>
+        <v>0.815387</v>
       </c>
       <c r="C9" t="n">
-        <v>0.640526</v>
+        <v>0.60608</v>
       </c>
       <c r="D9" t="n">
-        <v>0.380019</v>
+        <v>0.37061</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.880317</v>
+        <v>0.851782</v>
       </c>
       <c r="C10" t="n">
-        <v>0.667717</v>
+        <v>0.627193</v>
       </c>
       <c r="D10" t="n">
-        <v>0.392243</v>
+        <v>0.386745</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.911465</v>
+        <v>0.883894</v>
       </c>
       <c r="C11" t="n">
-        <v>0.458476</v>
+        <v>0.431755</v>
       </c>
       <c r="D11" t="n">
-        <v>0.291548</v>
+        <v>0.282133</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.60759</v>
+        <v>0.579093</v>
       </c>
       <c r="C12" t="n">
-        <v>0.48066</v>
+        <v>0.457584</v>
       </c>
       <c r="D12" t="n">
-        <v>0.303804</v>
+        <v>0.294139</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.62474</v>
+        <v>0.592522</v>
       </c>
       <c r="C13" t="n">
-        <v>0.504647</v>
+        <v>0.482804</v>
       </c>
       <c r="D13" t="n">
-        <v>0.311409</v>
+        <v>0.30403</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.65715</v>
+        <v>0.625611</v>
       </c>
       <c r="C14" t="n">
-        <v>0.530042</v>
+        <v>0.507992</v>
       </c>
       <c r="D14" t="n">
-        <v>0.326211</v>
+        <v>0.312636</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.684996</v>
+        <v>0.651243</v>
       </c>
       <c r="C15" t="n">
-        <v>0.562439</v>
+        <v>0.539785</v>
       </c>
       <c r="D15" t="n">
-        <v>0.34244</v>
+        <v>0.32757</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.724845</v>
+        <v>0.689124</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5933079999999999</v>
+        <v>0.568779</v>
       </c>
       <c r="D16" t="n">
-        <v>0.355804</v>
+        <v>0.342043</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.762352</v>
+        <v>0.724184</v>
       </c>
       <c r="C17" t="n">
-        <v>0.627219</v>
+        <v>0.6038790000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.364771</v>
+        <v>0.358252</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.795195</v>
+        <v>0.76239</v>
       </c>
       <c r="C18" t="n">
-        <v>0.654632</v>
+        <v>0.6428739999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.382132</v>
+        <v>0.366815</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.827895</v>
+        <v>0.800077</v>
       </c>
       <c r="C19" t="n">
-        <v>0.688254</v>
+        <v>0.674774</v>
       </c>
       <c r="D19" t="n">
-        <v>0.394847</v>
+        <v>0.381606</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.870261</v>
+        <v>0.844537</v>
       </c>
       <c r="C20" t="n">
-        <v>0.721173</v>
+        <v>0.708439</v>
       </c>
       <c r="D20" t="n">
-        <v>0.409101</v>
+        <v>0.393995</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.91022</v>
+        <v>0.878225</v>
       </c>
       <c r="C21" t="n">
-        <v>0.760969</v>
+        <v>0.746829</v>
       </c>
       <c r="D21" t="n">
-        <v>0.418536</v>
+        <v>0.406514</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.953797</v>
+        <v>0.925602</v>
       </c>
       <c r="C22" t="n">
-        <v>0.792013</v>
+        <v>0.776569</v>
       </c>
       <c r="D22" t="n">
-        <v>0.434403</v>
+        <v>0.426655</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9946</v>
+        <v>0.961719</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8341</v>
+        <v>0.824717</v>
       </c>
       <c r="D23" t="n">
-        <v>0.447317</v>
+        <v>0.435775</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.03402</v>
+        <v>1.00962</v>
       </c>
       <c r="C24" t="n">
-        <v>0.872839</v>
+        <v>0.862525</v>
       </c>
       <c r="D24" t="n">
-        <v>0.464851</v>
+        <v>0.451379</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.08862</v>
+        <v>1.05739</v>
       </c>
       <c r="C25" t="n">
-        <v>0.910254</v>
+        <v>0.903496</v>
       </c>
       <c r="D25" t="n">
-        <v>0.485177</v>
+        <v>0.471022</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.12557</v>
+        <v>1.09722</v>
       </c>
       <c r="C26" t="n">
-        <v>0.58689</v>
+        <v>0.592162</v>
       </c>
       <c r="D26" t="n">
-        <v>0.344709</v>
+        <v>0.33938</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7342109999999999</v>
+        <v>0.724589</v>
       </c>
       <c r="C27" t="n">
-        <v>0.61192</v>
+        <v>0.61646</v>
       </c>
       <c r="D27" t="n">
-        <v>0.357345</v>
+        <v>0.354116</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.773342</v>
+        <v>0.759387</v>
       </c>
       <c r="C28" t="n">
-        <v>0.644877</v>
+        <v>0.65249</v>
       </c>
       <c r="D28" t="n">
-        <v>0.372748</v>
+        <v>0.371062</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.807189</v>
+        <v>0.796319</v>
       </c>
       <c r="C29" t="n">
-        <v>0.67836</v>
+        <v>0.682295</v>
       </c>
       <c r="D29" t="n">
-        <v>0.385056</v>
+        <v>0.381545</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.842253</v>
+        <v>0.8323469999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.713234</v>
+        <v>0.717015</v>
       </c>
       <c r="D30" t="n">
-        <v>0.401948</v>
+        <v>0.398261</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.878283</v>
+        <v>0.868051</v>
       </c>
       <c r="C31" t="n">
-        <v>0.745341</v>
+        <v>0.753305</v>
       </c>
       <c r="D31" t="n">
-        <v>0.41209</v>
+        <v>0.407496</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.918035</v>
+        <v>0.903409</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7835</v>
+        <v>0.789562</v>
       </c>
       <c r="D32" t="n">
-        <v>0.429468</v>
+        <v>0.427963</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9602039999999999</v>
+        <v>0.951253</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8191850000000001</v>
+        <v>0.825731</v>
       </c>
       <c r="D33" t="n">
-        <v>0.442639</v>
+        <v>0.444221</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.00182</v>
+        <v>0.991432</v>
       </c>
       <c r="C34" t="n">
-        <v>0.852037</v>
+        <v>0.860359</v>
       </c>
       <c r="D34" t="n">
-        <v>0.454995</v>
+        <v>0.454317</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.04845</v>
+        <v>1.03979</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8911829999999999</v>
+        <v>0.900217</v>
       </c>
       <c r="D35" t="n">
-        <v>0.470436</v>
+        <v>0.461106</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.09054</v>
+        <v>1.07647</v>
       </c>
       <c r="C36" t="n">
-        <v>0.925777</v>
+        <v>0.936079</v>
       </c>
       <c r="D36" t="n">
-        <v>0.486639</v>
+        <v>0.488161</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.13332</v>
+        <v>1.1257</v>
       </c>
       <c r="C37" t="n">
-        <v>0.96645</v>
+        <v>0.976617</v>
       </c>
       <c r="D37" t="n">
-        <v>0.501113</v>
+        <v>0.500728</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.18154</v>
+        <v>1.16774</v>
       </c>
       <c r="C38" t="n">
-        <v>1.00675</v>
+        <v>1.01628</v>
       </c>
       <c r="D38" t="n">
-        <v>0.52042</v>
+        <v>0.516437</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.23064</v>
+        <v>1.21809</v>
       </c>
       <c r="C39" t="n">
-        <v>1.04336</v>
+        <v>1.0534</v>
       </c>
       <c r="D39" t="n">
-        <v>0.535953</v>
+        <v>0.532049</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.27827</v>
+        <v>1.26662</v>
       </c>
       <c r="C40" t="n">
-        <v>0.647861</v>
+        <v>0.659586</v>
       </c>
       <c r="D40" t="n">
-        <v>0.399163</v>
+        <v>0.399146</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.806196</v>
+        <v>0.801277</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6726490000000001</v>
+        <v>0.686401</v>
       </c>
       <c r="D41" t="n">
-        <v>0.410737</v>
+        <v>0.410837</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.841692</v>
+        <v>0.837385</v>
       </c>
       <c r="C42" t="n">
-        <v>0.702483</v>
+        <v>0.71465</v>
       </c>
       <c r="D42" t="n">
-        <v>0.425648</v>
+        <v>0.424329</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.874505</v>
+        <v>0.869817</v>
       </c>
       <c r="C43" t="n">
-        <v>0.733749</v>
+        <v>0.748045</v>
       </c>
       <c r="D43" t="n">
-        <v>0.439333</v>
+        <v>0.437522</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.916003</v>
+        <v>0.9110470000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7669820000000001</v>
+        <v>0.779784</v>
       </c>
       <c r="D44" t="n">
-        <v>0.452924</v>
+        <v>0.445956</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.951313</v>
+        <v>0.947716</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8018960000000001</v>
+        <v>0.81608</v>
       </c>
       <c r="D45" t="n">
-        <v>0.470022</v>
+        <v>0.470586</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.99373</v>
+        <v>0.98969</v>
       </c>
       <c r="C46" t="n">
-        <v>0.836589</v>
+        <v>0.852537</v>
       </c>
       <c r="D46" t="n">
-        <v>0.488618</v>
+        <v>0.488594</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.03823</v>
+        <v>1.03316</v>
       </c>
       <c r="C47" t="n">
-        <v>0.87358</v>
+        <v>0.889289</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5010599999999999</v>
+        <v>0.500613</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.08157</v>
+        <v>1.07724</v>
       </c>
       <c r="C48" t="n">
-        <v>0.911135</v>
+        <v>0.925451</v>
       </c>
       <c r="D48" t="n">
-        <v>0.516993</v>
+        <v>0.515506</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.12294</v>
+        <v>1.11869</v>
       </c>
       <c r="C49" t="n">
-        <v>0.950851</v>
+        <v>0.966928</v>
       </c>
       <c r="D49" t="n">
-        <v>0.532229</v>
+        <v>0.534511</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.17096</v>
+        <v>1.16607</v>
       </c>
       <c r="C50" t="n">
-        <v>0.991403</v>
+        <v>1.00744</v>
       </c>
       <c r="D50" t="n">
-        <v>0.545421</v>
+        <v>0.550602</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.2164</v>
+        <v>1.21166</v>
       </c>
       <c r="C51" t="n">
-        <v>1.02863</v>
+        <v>1.04636</v>
       </c>
       <c r="D51" t="n">
-        <v>0.567132</v>
+        <v>0.5659</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.26151</v>
+        <v>1.25685</v>
       </c>
       <c r="C52" t="n">
-        <v>1.07004</v>
+        <v>1.08616</v>
       </c>
       <c r="D52" t="n">
-        <v>0.583996</v>
+        <v>0.583082</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.30772</v>
+        <v>1.30383</v>
       </c>
       <c r="C53" t="n">
-        <v>1.11039</v>
+        <v>1.12802</v>
       </c>
       <c r="D53" t="n">
-        <v>0.600666</v>
+        <v>0.594271</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.35618</v>
+        <v>1.35258</v>
       </c>
       <c r="C54" t="n">
-        <v>0.678037</v>
+        <v>0.692111</v>
       </c>
       <c r="D54" t="n">
-        <v>0.429111</v>
+        <v>0.429192</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.839078</v>
+        <v>0.8374470000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.704937</v>
+        <v>0.71865</v>
       </c>
       <c r="D55" t="n">
-        <v>0.445549</v>
+        <v>0.443322</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.872364</v>
+        <v>0.869714</v>
       </c>
       <c r="C56" t="n">
-        <v>0.73376</v>
+        <v>0.74886</v>
       </c>
       <c r="D56" t="n">
-        <v>0.457865</v>
+        <v>0.456777</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.909214</v>
+        <v>0.906655</v>
       </c>
       <c r="C57" t="n">
-        <v>0.763861</v>
+        <v>0.778981</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4716</v>
+        <v>0.472953</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.944071</v>
+        <v>0.941128</v>
       </c>
       <c r="C58" t="n">
-        <v>0.79811</v>
+        <v>0.813804</v>
       </c>
       <c r="D58" t="n">
-        <v>0.488933</v>
+        <v>0.486771</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9832070000000001</v>
+        <v>0.980425</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8345320000000001</v>
+        <v>0.849341</v>
       </c>
       <c r="D59" t="n">
-        <v>0.503956</v>
+        <v>0.502138</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.02354</v>
+        <v>1.0198</v>
       </c>
       <c r="C60" t="n">
-        <v>0.868895</v>
+        <v>0.885421</v>
       </c>
       <c r="D60" t="n">
-        <v>0.519436</v>
+        <v>0.520462</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.06433</v>
+        <v>1.06031</v>
       </c>
       <c r="C61" t="n">
-        <v>0.905564</v>
+        <v>0.922805</v>
       </c>
       <c r="D61" t="n">
-        <v>0.53637</v>
+        <v>0.534919</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.10711</v>
+        <v>1.10288</v>
       </c>
       <c r="C62" t="n">
-        <v>0.947126</v>
+        <v>0.963638</v>
       </c>
       <c r="D62" t="n">
-        <v>0.550468</v>
+        <v>0.552546</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15266</v>
+        <v>1.14893</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9812959999999999</v>
+        <v>0.998669</v>
       </c>
       <c r="D63" t="n">
-        <v>0.569809</v>
+        <v>0.567667</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.19998</v>
+        <v>1.19672</v>
       </c>
       <c r="C64" t="n">
-        <v>1.0224</v>
+        <v>1.04055</v>
       </c>
       <c r="D64" t="n">
-        <v>0.583429</v>
+        <v>0.58318</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.2447</v>
+        <v>1.24174</v>
       </c>
       <c r="C65" t="n">
-        <v>1.0622</v>
+        <v>1.07897</v>
       </c>
       <c r="D65" t="n">
-        <v>0.599035</v>
+        <v>0.59982</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.29018</v>
+        <v>1.28604</v>
       </c>
       <c r="C66" t="n">
-        <v>1.10381</v>
+        <v>1.11916</v>
       </c>
       <c r="D66" t="n">
-        <v>0.617384</v>
+        <v>0.620716</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.33896</v>
+        <v>1.34325</v>
       </c>
       <c r="C67" t="n">
-        <v>1.14583</v>
+        <v>1.16882</v>
       </c>
       <c r="D67" t="n">
-        <v>0.633355</v>
+        <v>0.634148</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.38614</v>
+        <v>1.39685</v>
       </c>
       <c r="C68" t="n">
-        <v>0.70377</v>
+        <v>0.720638</v>
       </c>
       <c r="D68" t="n">
-        <v>0.45862</v>
+        <v>0.454871</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.893476</v>
+        <v>0.886388</v>
       </c>
       <c r="C69" t="n">
-        <v>0.747422</v>
+        <v>0.760004</v>
       </c>
       <c r="D69" t="n">
-        <v>0.471347</v>
+        <v>0.469312</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.943159</v>
+        <v>0.934497</v>
       </c>
       <c r="C70" t="n">
-        <v>0.78938</v>
+        <v>0.805104</v>
       </c>
       <c r="D70" t="n">
-        <v>0.492956</v>
+        <v>0.488327</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.00463</v>
+        <v>1.0031</v>
       </c>
       <c r="C71" t="n">
-        <v>0.837074</v>
+        <v>0.851738</v>
       </c>
       <c r="D71" t="n">
-        <v>0.514191</v>
+        <v>0.510814</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.05826</v>
+        <v>1.05361</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8906269999999999</v>
+        <v>0.903776</v>
       </c>
       <c r="D72" t="n">
-        <v>0.539162</v>
+        <v>0.534486</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.1298</v>
+        <v>1.11254</v>
       </c>
       <c r="C73" t="n">
-        <v>0.950368</v>
+        <v>0.96178</v>
       </c>
       <c r="D73" t="n">
-        <v>0.556399</v>
+        <v>0.553217</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.20574</v>
+        <v>1.1814</v>
       </c>
       <c r="C74" t="n">
-        <v>1.01748</v>
+        <v>1.01691</v>
       </c>
       <c r="D74" t="n">
-        <v>0.578487</v>
+        <v>0.572852</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.28752</v>
+        <v>1.26448</v>
       </c>
       <c r="C75" t="n">
-        <v>1.08743</v>
+        <v>1.0885</v>
       </c>
       <c r="D75" t="n">
-        <v>0.606062</v>
+        <v>0.599584</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.37794</v>
+        <v>1.35912</v>
       </c>
       <c r="C76" t="n">
-        <v>1.16517</v>
+        <v>1.16788</v>
       </c>
       <c r="D76" t="n">
-        <v>0.630991</v>
+        <v>0.63156</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.49892</v>
+        <v>1.45655</v>
       </c>
       <c r="C77" t="n">
-        <v>1.26582</v>
+        <v>1.25322</v>
       </c>
       <c r="D77" t="n">
-        <v>0.671549</v>
+        <v>0.654173</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.62443</v>
+        <v>1.57174</v>
       </c>
       <c r="C78" t="n">
-        <v>1.37498</v>
+        <v>1.35154</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6956369999999999</v>
+        <v>0.681307</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.75464</v>
+        <v>1.70342</v>
       </c>
       <c r="C79" t="n">
-        <v>1.48547</v>
+        <v>1.46257</v>
       </c>
       <c r="D79" t="n">
-        <v>0.730511</v>
+        <v>0.719608</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.90486</v>
+        <v>1.87058</v>
       </c>
       <c r="C80" t="n">
-        <v>1.61349</v>
+        <v>1.60262</v>
       </c>
       <c r="D80" t="n">
-        <v>0.769954</v>
+        <v>0.759962</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.09268</v>
+        <v>2.04201</v>
       </c>
       <c r="C81" t="n">
-        <v>1.77947</v>
+        <v>1.75777</v>
       </c>
       <c r="D81" t="n">
-        <v>0.810878</v>
+        <v>0.809744</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.29292</v>
+        <v>2.24604</v>
       </c>
       <c r="C82" t="n">
-        <v>1.95114</v>
+        <v>1.93151</v>
       </c>
       <c r="D82" t="n">
-        <v>0.892463</v>
+        <v>0.87191</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.51142</v>
+        <v>2.48451</v>
       </c>
       <c r="C83" t="n">
-        <v>1.26262</v>
+        <v>1.27079</v>
       </c>
       <c r="D83" t="n">
-        <v>0.63266</v>
+        <v>0.631844</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.69277</v>
+        <v>1.6687</v>
       </c>
       <c r="C84" t="n">
-        <v>1.3986</v>
+        <v>1.39966</v>
       </c>
       <c r="D84" t="n">
-        <v>0.68096</v>
+        <v>0.679678</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.85191</v>
+        <v>1.84013</v>
       </c>
       <c r="C85" t="n">
-        <v>1.53877</v>
+        <v>1.54626</v>
       </c>
       <c r="D85" t="n">
-        <v>0.728592</v>
+        <v>0.734712</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.05085</v>
+        <v>2.03593</v>
       </c>
       <c r="C86" t="n">
-        <v>1.7001</v>
+        <v>1.71551</v>
       </c>
       <c r="D86" t="n">
-        <v>0.78179</v>
+        <v>0.785961</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.26385</v>
+        <v>2.24134</v>
       </c>
       <c r="C87" t="n">
-        <v>1.87786</v>
+        <v>1.87922</v>
       </c>
       <c r="D87" t="n">
-        <v>0.845822</v>
+        <v>0.837561</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.49656</v>
+        <v>2.47615</v>
       </c>
       <c r="C88" t="n">
-        <v>2.07231</v>
+        <v>2.0798</v>
       </c>
       <c r="D88" t="n">
-        <v>0.92793</v>
+        <v>0.919731</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.74236</v>
+        <v>2.71403</v>
       </c>
       <c r="C89" t="n">
-        <v>2.28315</v>
+        <v>2.28242</v>
       </c>
       <c r="D89" t="n">
-        <v>1.00463</v>
+        <v>0.9981409999999999</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>3.00307</v>
+        <v>2.97736</v>
       </c>
       <c r="C90" t="n">
-        <v>2.50212</v>
+        <v>2.50438</v>
       </c>
       <c r="D90" t="n">
-        <v>1.08035</v>
+        <v>1.08671</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.27647</v>
+        <v>3.25134</v>
       </c>
       <c r="C91" t="n">
-        <v>2.73353</v>
+        <v>2.73152</v>
       </c>
       <c r="D91" t="n">
-        <v>1.1735</v>
+        <v>1.18573</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.58538</v>
+        <v>3.55158</v>
       </c>
       <c r="C92" t="n">
-        <v>2.98612</v>
+        <v>2.98724</v>
       </c>
       <c r="D92" t="n">
-        <v>1.26633</v>
+        <v>1.27386</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.88413</v>
+        <v>3.85857</v>
       </c>
       <c r="C93" t="n">
-        <v>3.23975</v>
+        <v>3.24843</v>
       </c>
       <c r="D93" t="n">
-        <v>1.35821</v>
+        <v>1.3647</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.21401</v>
+        <v>4.19683</v>
       </c>
       <c r="C94" t="n">
-        <v>3.51467</v>
+        <v>3.52523</v>
       </c>
       <c r="D94" t="n">
-        <v>1.45183</v>
+        <v>1.43384</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.54525</v>
+        <v>4.53644</v>
       </c>
       <c r="C95" t="n">
-        <v>3.80826</v>
+        <v>3.81541</v>
       </c>
       <c r="D95" t="n">
-        <v>1.57148</v>
+        <v>1.56847</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.90345</v>
+        <v>4.88197</v>
       </c>
       <c r="C96" t="n">
-        <v>4.11303</v>
+        <v>4.11291</v>
       </c>
       <c r="D96" t="n">
-        <v>1.69631</v>
+        <v>1.68165</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.26107</v>
+        <v>5.24247</v>
       </c>
       <c r="C97" t="n">
-        <v>2.46597</v>
+        <v>2.47715</v>
       </c>
       <c r="D97" t="n">
-        <v>1.18315</v>
+        <v>1.17483</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.22899</v>
+        <v>3.21771</v>
       </c>
       <c r="C98" t="n">
-        <v>2.63787</v>
+        <v>2.64846</v>
       </c>
       <c r="D98" t="n">
-        <v>1.24992</v>
+        <v>1.23634</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.46865</v>
+        <v>3.43994</v>
       </c>
       <c r="C99" t="n">
-        <v>2.8222</v>
+        <v>2.82744</v>
       </c>
       <c r="D99" t="n">
-        <v>1.34605</v>
+        <v>1.33304</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.59781</v>
+        <v>3.65886</v>
       </c>
       <c r="C100" t="n">
-        <v>3.01121</v>
+        <v>3.01604</v>
       </c>
       <c r="D100" t="n">
-        <v>1.4264</v>
+        <v>1.40566</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.84275</v>
+        <v>3.89676</v>
       </c>
       <c r="C101" t="n">
-        <v>3.17597</v>
+        <v>3.23435</v>
       </c>
       <c r="D101" t="n">
-        <v>1.48345</v>
+        <v>1.4884</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.08875</v>
+        <v>4.05502</v>
       </c>
       <c r="C102" t="n">
-        <v>3.32737</v>
+        <v>3.38125</v>
       </c>
       <c r="D102" t="n">
-        <v>1.58536</v>
+        <v>1.57637</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.29279</v>
+        <v>4.27334</v>
       </c>
       <c r="C103" t="n">
-        <v>3.52398</v>
+        <v>3.54447</v>
       </c>
       <c r="D103" t="n">
-        <v>1.66936</v>
+        <v>1.6763</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.56318</v>
+        <v>4.5481</v>
       </c>
       <c r="C104" t="n">
-        <v>3.74695</v>
+        <v>3.75251</v>
       </c>
       <c r="D104" t="n">
-        <v>1.76998</v>
+        <v>1.77037</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.84407</v>
+        <v>4.81888</v>
       </c>
       <c r="C105" t="n">
-        <v>3.98446</v>
+        <v>3.9963</v>
       </c>
       <c r="D105" t="n">
-        <v>1.83935</v>
+        <v>1.837</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.13824</v>
+        <v>5.12242</v>
       </c>
       <c r="C106" t="n">
-        <v>4.2379</v>
+        <v>4.24845</v>
       </c>
       <c r="D106" t="n">
-        <v>1.959</v>
+        <v>1.94558</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.4567</v>
+        <v>5.44567</v>
       </c>
       <c r="C107" t="n">
-        <v>4.5097</v>
+        <v>4.51797</v>
       </c>
       <c r="D107" t="n">
-        <v>2.0554</v>
+        <v>2.0537</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.78099</v>
+        <v>5.76923</v>
       </c>
       <c r="C108" t="n">
-        <v>4.78808</v>
+        <v>4.79566</v>
       </c>
       <c r="D108" t="n">
-        <v>2.16341</v>
+        <v>2.14777</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.12964</v>
+        <v>6.10861</v>
       </c>
       <c r="C109" t="n">
-        <v>5.08629</v>
+        <v>5.08137</v>
       </c>
       <c r="D109" t="n">
-        <v>2.27398</v>
+        <v>2.26186</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.48017</v>
+        <v>6.4633</v>
       </c>
       <c r="C110" t="n">
-        <v>5.38895</v>
+        <v>5.39226</v>
       </c>
       <c r="D110" t="n">
-        <v>2.38536</v>
+        <v>2.38072</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.84011</v>
+        <v>6.82582</v>
       </c>
       <c r="C111" t="n">
-        <v>3.09035</v>
+        <v>3.10312</v>
       </c>
       <c r="D111" t="n">
-        <v>1.66676</v>
+        <v>1.66221</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.03956</v>
+        <v>4.02591</v>
       </c>
       <c r="C112" t="n">
-        <v>3.26377</v>
+        <v>3.27885</v>
       </c>
       <c r="D112" t="n">
-        <v>1.7223</v>
+        <v>1.73568</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.25426</v>
+        <v>4.24929</v>
       </c>
       <c r="C113" t="n">
-        <v>3.44506</v>
+        <v>3.45876</v>
       </c>
       <c r="D113" t="n">
-        <v>1.80653</v>
+        <v>1.81544</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.48007</v>
+        <v>4.47232</v>
       </c>
       <c r="C114" t="n">
-        <v>3.63598</v>
+        <v>3.65324</v>
       </c>
       <c r="D114" t="n">
-        <v>1.89297</v>
+        <v>1.88563</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.72095</v>
+        <v>4.7138</v>
       </c>
       <c r="C115" t="n">
-        <v>3.83953</v>
+        <v>3.85545</v>
       </c>
       <c r="D115" t="n">
-        <v>1.9672</v>
+        <v>1.97018</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.97396</v>
+        <v>4.96403</v>
       </c>
       <c r="C116" t="n">
-        <v>4.05773</v>
+        <v>4.07587</v>
       </c>
       <c r="D116" t="n">
-        <v>2.05399</v>
+        <v>2.07091</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.24475</v>
+        <v>5.23147</v>
       </c>
       <c r="C117" t="n">
-        <v>4.29378</v>
+        <v>4.3058</v>
       </c>
       <c r="D117" t="n">
-        <v>2.17133</v>
+        <v>2.18127</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.5252</v>
+        <v>5.50949</v>
       </c>
       <c r="C118" t="n">
-        <v>4.53279</v>
+        <v>4.54341</v>
       </c>
       <c r="D118" t="n">
-        <v>2.27669</v>
+        <v>2.2737</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.82024</v>
+        <v>5.80509</v>
       </c>
       <c r="C119" t="n">
-        <v>4.7823</v>
+        <v>4.80299</v>
       </c>
       <c r="D119" t="n">
-        <v>2.36102</v>
+        <v>2.36886</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.403281</v>
+        <v>0.414369</v>
       </c>
       <c r="C2" t="n">
-        <v>0.307304</v>
+        <v>0.309938</v>
       </c>
       <c r="D2" t="n">
-        <v>0.317736</v>
+        <v>0.320745</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.417626</v>
+        <v>0.416605</v>
       </c>
       <c r="C3" t="n">
-        <v>0.313765</v>
+        <v>0.31746</v>
       </c>
       <c r="D3" t="n">
-        <v>0.325871</v>
+        <v>0.327239</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.429292</v>
+        <v>0.426856</v>
       </c>
       <c r="C4" t="n">
-        <v>0.322859</v>
+        <v>0.323988</v>
       </c>
       <c r="D4" t="n">
-        <v>0.332496</v>
+        <v>0.333812</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.441832</v>
+        <v>0.440177</v>
       </c>
       <c r="C5" t="n">
-        <v>0.327042</v>
+        <v>0.329748</v>
       </c>
       <c r="D5" t="n">
-        <v>0.337946</v>
+        <v>0.342145</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.453883</v>
+        <v>0.455306</v>
       </c>
       <c r="C6" t="n">
-        <v>0.333545</v>
+        <v>0.33683</v>
       </c>
       <c r="D6" t="n">
-        <v>0.343952</v>
+        <v>0.346817</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.463607</v>
+        <v>0.467893</v>
       </c>
       <c r="C7" t="n">
-        <v>0.265386</v>
+        <v>0.271959</v>
       </c>
       <c r="D7" t="n">
-        <v>0.286888</v>
+        <v>0.291403</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.342701</v>
+        <v>0.355638</v>
       </c>
       <c r="C8" t="n">
-        <v>0.273626</v>
+        <v>0.280359</v>
       </c>
       <c r="D8" t="n">
-        <v>0.297007</v>
+        <v>0.301649</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.357254</v>
+        <v>0.370591</v>
       </c>
       <c r="C9" t="n">
-        <v>0.281785</v>
+        <v>0.288596</v>
       </c>
       <c r="D9" t="n">
-        <v>0.303209</v>
+        <v>0.308331</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.370144</v>
+        <v>0.379692</v>
       </c>
       <c r="C10" t="n">
-        <v>0.293422</v>
+        <v>0.300184</v>
       </c>
       <c r="D10" t="n">
-        <v>0.31481</v>
+        <v>0.318965</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.384202</v>
+        <v>0.390687</v>
       </c>
       <c r="C11" t="n">
-        <v>0.302812</v>
+        <v>0.309299</v>
       </c>
       <c r="D11" t="n">
-        <v>0.324358</v>
+        <v>0.329249</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.396853</v>
+        <v>0.400847</v>
       </c>
       <c r="C12" t="n">
-        <v>0.313077</v>
+        <v>0.319098</v>
       </c>
       <c r="D12" t="n">
-        <v>0.332553</v>
+        <v>0.337846</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.414062</v>
+        <v>0.4141</v>
       </c>
       <c r="C13" t="n">
-        <v>0.322763</v>
+        <v>0.328347</v>
       </c>
       <c r="D13" t="n">
-        <v>0.343121</v>
+        <v>0.347329</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.419147</v>
+        <v>0.426373</v>
       </c>
       <c r="C14" t="n">
-        <v>0.331256</v>
+        <v>0.337682</v>
       </c>
       <c r="D14" t="n">
-        <v>0.354118</v>
+        <v>0.357657</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.430416</v>
+        <v>0.438665</v>
       </c>
       <c r="C15" t="n">
-        <v>0.338093</v>
+        <v>0.343088</v>
       </c>
       <c r="D15" t="n">
-        <v>0.362096</v>
+        <v>0.365255</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.443053</v>
+        <v>0.450417</v>
       </c>
       <c r="C16" t="n">
-        <v>0.346537</v>
+        <v>0.351046</v>
       </c>
       <c r="D16" t="n">
-        <v>0.373035</v>
+        <v>0.377032</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.456978</v>
+        <v>0.462242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.354769</v>
+        <v>0.359269</v>
       </c>
       <c r="D17" t="n">
-        <v>0.381268</v>
+        <v>0.383809</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.468286</v>
+        <v>0.472607</v>
       </c>
       <c r="C18" t="n">
-        <v>0.361203</v>
+        <v>0.364875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.390013</v>
+        <v>0.390861</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.481669</v>
+        <v>0.485826</v>
       </c>
       <c r="C19" t="n">
-        <v>0.368067</v>
+        <v>0.371224</v>
       </c>
       <c r="D19" t="n">
-        <v>0.398598</v>
+        <v>0.399715</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.493031</v>
+        <v>0.496804</v>
       </c>
       <c r="C20" t="n">
-        <v>0.377041</v>
+        <v>0.379705</v>
       </c>
       <c r="D20" t="n">
-        <v>0.40911</v>
+        <v>0.404669</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.50603</v>
+        <v>0.5079360000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.293906</v>
+        <v>0.296144</v>
       </c>
       <c r="D21" t="n">
-        <v>0.315058</v>
+        <v>0.314915</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.394944</v>
+        <v>0.393076</v>
       </c>
       <c r="C22" t="n">
-        <v>0.302734</v>
+        <v>0.304894</v>
       </c>
       <c r="D22" t="n">
-        <v>0.32537</v>
+        <v>0.325453</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.406373</v>
+        <v>0.405083</v>
       </c>
       <c r="C23" t="n">
-        <v>0.311765</v>
+        <v>0.313074</v>
       </c>
       <c r="D23" t="n">
-        <v>0.336516</v>
+        <v>0.334638</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.416047</v>
+        <v>0.415348</v>
       </c>
       <c r="C24" t="n">
-        <v>0.320304</v>
+        <v>0.321304</v>
       </c>
       <c r="D24" t="n">
-        <v>0.345582</v>
+        <v>0.344455</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.426638</v>
+        <v>0.425275</v>
       </c>
       <c r="C25" t="n">
-        <v>0.329989</v>
+        <v>0.330568</v>
       </c>
       <c r="D25" t="n">
-        <v>0.356339</v>
+        <v>0.354419</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.439035</v>
+        <v>0.436977</v>
       </c>
       <c r="C26" t="n">
-        <v>0.339683</v>
+        <v>0.339795</v>
       </c>
       <c r="D26" t="n">
-        <v>0.367794</v>
+        <v>0.365276</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.452405</v>
+        <v>0.449214</v>
       </c>
       <c r="C27" t="n">
-        <v>0.348288</v>
+        <v>0.349091</v>
       </c>
       <c r="D27" t="n">
-        <v>0.379745</v>
+        <v>0.377031</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.465318</v>
+        <v>0.462148</v>
       </c>
       <c r="C28" t="n">
-        <v>0.357319</v>
+        <v>0.357205</v>
       </c>
       <c r="D28" t="n">
-        <v>0.389264</v>
+        <v>0.386323</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.476499</v>
+        <v>0.473973</v>
       </c>
       <c r="C29" t="n">
-        <v>0.365474</v>
+        <v>0.365297</v>
       </c>
       <c r="D29" t="n">
-        <v>0.401329</v>
+        <v>0.39751</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.487658</v>
+        <v>0.484746</v>
       </c>
       <c r="C30" t="n">
-        <v>0.373993</v>
+        <v>0.373652</v>
       </c>
       <c r="D30" t="n">
-        <v>0.410327</v>
+        <v>0.406521</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.497158</v>
+        <v>0.495739</v>
       </c>
       <c r="C31" t="n">
-        <v>0.382429</v>
+        <v>0.381107</v>
       </c>
       <c r="D31" t="n">
-        <v>0.420096</v>
+        <v>0.415948</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.509809</v>
+        <v>0.507373</v>
       </c>
       <c r="C32" t="n">
-        <v>0.390849</v>
+        <v>0.3891</v>
       </c>
       <c r="D32" t="n">
-        <v>0.430467</v>
+        <v>0.425848</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.521852</v>
+        <v>0.518779</v>
       </c>
       <c r="C33" t="n">
-        <v>0.397997</v>
+        <v>0.395526</v>
       </c>
       <c r="D33" t="n">
-        <v>0.438356</v>
+        <v>0.434438</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.533253</v>
+        <v>0.530579</v>
       </c>
       <c r="C34" t="n">
-        <v>0.40586</v>
+        <v>0.403648</v>
       </c>
       <c r="D34" t="n">
-        <v>0.448692</v>
+        <v>0.444184</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.544447</v>
+        <v>0.542304</v>
       </c>
       <c r="C35" t="n">
-        <v>0.312262</v>
+        <v>0.314382</v>
       </c>
       <c r="D35" t="n">
-        <v>0.338445</v>
+        <v>0.339398</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.415229</v>
+        <v>0.412649</v>
       </c>
       <c r="C36" t="n">
-        <v>0.320125</v>
+        <v>0.322408</v>
       </c>
       <c r="D36" t="n">
-        <v>0.34863</v>
+        <v>0.348949</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.426214</v>
+        <v>0.423536</v>
       </c>
       <c r="C37" t="n">
-        <v>0.327858</v>
+        <v>0.33027</v>
       </c>
       <c r="D37" t="n">
-        <v>0.358042</v>
+        <v>0.358449</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.436306</v>
+        <v>0.434378</v>
       </c>
       <c r="C38" t="n">
-        <v>0.337481</v>
+        <v>0.338969</v>
       </c>
       <c r="D38" t="n">
-        <v>0.369493</v>
+        <v>0.369893</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.446897</v>
+        <v>0.444593</v>
       </c>
       <c r="C39" t="n">
-        <v>0.346624</v>
+        <v>0.348105</v>
       </c>
       <c r="D39" t="n">
-        <v>0.380464</v>
+        <v>0.380432</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.458569</v>
+        <v>0.456344</v>
       </c>
       <c r="C40" t="n">
-        <v>0.355877</v>
+        <v>0.356817</v>
       </c>
       <c r="D40" t="n">
-        <v>0.391642</v>
+        <v>0.390648</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.472327</v>
+        <v>0.469964</v>
       </c>
       <c r="C41" t="n">
-        <v>0.365659</v>
+        <v>0.365717</v>
       </c>
       <c r="D41" t="n">
-        <v>0.402275</v>
+        <v>0.401305</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.482372</v>
+        <v>0.480066</v>
       </c>
       <c r="C42" t="n">
-        <v>0.373752</v>
+        <v>0.37409</v>
       </c>
       <c r="D42" t="n">
-        <v>0.41261</v>
+        <v>0.411448</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.494082</v>
+        <v>0.491494</v>
       </c>
       <c r="C43" t="n">
-        <v>0.382213</v>
+        <v>0.381997</v>
       </c>
       <c r="D43" t="n">
-        <v>0.423744</v>
+        <v>0.421519</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5056349999999999</v>
+        <v>0.5028319999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.390406</v>
+        <v>0.389617</v>
       </c>
       <c r="D44" t="n">
-        <v>0.434418</v>
+        <v>0.430648</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.516699</v>
+        <v>0.51355</v>
       </c>
       <c r="C45" t="n">
-        <v>0.398219</v>
+        <v>0.396784</v>
       </c>
       <c r="D45" t="n">
-        <v>0.444484</v>
+        <v>0.439801</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5268890000000001</v>
+        <v>0.524686</v>
       </c>
       <c r="C46" t="n">
-        <v>0.405045</v>
+        <v>0.40317</v>
       </c>
       <c r="D46" t="n">
-        <v>0.453039</v>
+        <v>0.448251</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.539045</v>
+        <v>0.536794</v>
       </c>
       <c r="C47" t="n">
-        <v>0.412088</v>
+        <v>0.410294</v>
       </c>
       <c r="D47" t="n">
-        <v>0.461997</v>
+        <v>0.456785</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.550552</v>
+        <v>0.552907</v>
       </c>
       <c r="C48" t="n">
-        <v>0.419319</v>
+        <v>0.41703</v>
       </c>
       <c r="D48" t="n">
-        <v>0.471334</v>
+        <v>0.466031</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.565519</v>
+        <v>0.563961</v>
       </c>
       <c r="C49" t="n">
-        <v>0.425939</v>
+        <v>0.422241</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4807</v>
+        <v>0.47572</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.576832</v>
+        <v>0.575634</v>
       </c>
       <c r="C50" t="n">
-        <v>0.327186</v>
+        <v>0.329912</v>
       </c>
       <c r="D50" t="n">
-        <v>0.348471</v>
+        <v>0.349039</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.432758</v>
+        <v>0.430497</v>
       </c>
       <c r="C51" t="n">
-        <v>0.335791</v>
+        <v>0.338732</v>
       </c>
       <c r="D51" t="n">
-        <v>0.359272</v>
+        <v>0.359468</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.443904</v>
+        <v>0.441721</v>
       </c>
       <c r="C52" t="n">
-        <v>0.345215</v>
+        <v>0.347536</v>
       </c>
       <c r="D52" t="n">
-        <v>0.370624</v>
+        <v>0.370916</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.455802</v>
+        <v>0.45331</v>
       </c>
       <c r="C53" t="n">
-        <v>0.354734</v>
+        <v>0.356666</v>
       </c>
       <c r="D53" t="n">
-        <v>0.381756</v>
+        <v>0.381592</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.467133</v>
+        <v>0.465182</v>
       </c>
       <c r="C54" t="n">
-        <v>0.364055</v>
+        <v>0.365445</v>
       </c>
       <c r="D54" t="n">
-        <v>0.392906</v>
+        <v>0.392222</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.480296</v>
+        <v>0.479044</v>
       </c>
       <c r="C55" t="n">
-        <v>0.374314</v>
+        <v>0.375076</v>
       </c>
       <c r="D55" t="n">
-        <v>0.404855</v>
+        <v>0.403979</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.490546</v>
+        <v>0.488529</v>
       </c>
       <c r="C56" t="n">
-        <v>0.382817</v>
+        <v>0.382904</v>
       </c>
       <c r="D56" t="n">
-        <v>0.415718</v>
+        <v>0.414786</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.501794</v>
+        <v>0.499811</v>
       </c>
       <c r="C57" t="n">
-        <v>0.391174</v>
+        <v>0.390436</v>
       </c>
       <c r="D57" t="n">
-        <v>0.425249</v>
+        <v>0.424294</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.512537</v>
+        <v>0.511285</v>
       </c>
       <c r="C58" t="n">
-        <v>0.398647</v>
+        <v>0.397167</v>
       </c>
       <c r="D58" t="n">
-        <v>0.43414</v>
+        <v>0.432908</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.522804</v>
+        <v>0.521323</v>
       </c>
       <c r="C59" t="n">
-        <v>0.405457</v>
+        <v>0.403272</v>
       </c>
       <c r="D59" t="n">
-        <v>0.443084</v>
+        <v>0.441683</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.534148</v>
+        <v>0.533009</v>
       </c>
       <c r="C60" t="n">
-        <v>0.412641</v>
+        <v>0.409605</v>
       </c>
       <c r="D60" t="n">
-        <v>0.452573</v>
+        <v>0.450919</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.545331</v>
+        <v>0.544306</v>
       </c>
       <c r="C61" t="n">
-        <v>0.419313</v>
+        <v>0.416246</v>
       </c>
       <c r="D61" t="n">
-        <v>0.462358</v>
+        <v>0.459338</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.558186</v>
+        <v>0.556095</v>
       </c>
       <c r="C62" t="n">
-        <v>0.425879</v>
+        <v>0.422773</v>
       </c>
       <c r="D62" t="n">
-        <v>0.470193</v>
+        <v>0.468062</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5697489999999999</v>
+        <v>0.5682199999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.433442</v>
+        <v>0.429805</v>
       </c>
       <c r="D63" t="n">
-        <v>0.479686</v>
+        <v>0.477576</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.582132</v>
+        <v>0.582375</v>
       </c>
       <c r="C64" t="n">
-        <v>0.340433</v>
+        <v>0.342483</v>
       </c>
       <c r="D64" t="n">
-        <v>0.368421</v>
+        <v>0.367447</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.460943</v>
+        <v>0.460901</v>
       </c>
       <c r="C65" t="n">
-        <v>0.350131</v>
+        <v>0.351926</v>
       </c>
       <c r="D65" t="n">
-        <v>0.381512</v>
+        <v>0.380512</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.472453</v>
+        <v>0.475996</v>
       </c>
       <c r="C66" t="n">
-        <v>0.361285</v>
+        <v>0.36299</v>
       </c>
       <c r="D66" t="n">
-        <v>0.394828</v>
+        <v>0.393532</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.490972</v>
+        <v>0.491588</v>
       </c>
       <c r="C67" t="n">
-        <v>0.373399</v>
+        <v>0.37481</v>
       </c>
       <c r="D67" t="n">
-        <v>0.407398</v>
+        <v>0.406787</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.508095</v>
+        <v>0.508103</v>
       </c>
       <c r="C68" t="n">
-        <v>0.385684</v>
+        <v>0.387224</v>
       </c>
       <c r="D68" t="n">
-        <v>0.422659</v>
+        <v>0.422546</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.527721</v>
+        <v>0.539006</v>
       </c>
       <c r="C69" t="n">
-        <v>0.398626</v>
+        <v>0.398345</v>
       </c>
       <c r="D69" t="n">
-        <v>0.438483</v>
+        <v>0.438444</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.548784</v>
+        <v>0.555941</v>
       </c>
       <c r="C70" t="n">
-        <v>0.410478</v>
+        <v>0.409499</v>
       </c>
       <c r="D70" t="n">
-        <v>0.453642</v>
+        <v>0.453699</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5669729999999999</v>
+        <v>0.569117</v>
       </c>
       <c r="C71" t="n">
-        <v>0.423497</v>
+        <v>0.422211</v>
       </c>
       <c r="D71" t="n">
-        <v>0.469254</v>
+        <v>0.47023</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5895899999999999</v>
+        <v>0.59705</v>
       </c>
       <c r="C72" t="n">
-        <v>0.436668</v>
+        <v>0.436854</v>
       </c>
       <c r="D72" t="n">
-        <v>0.484646</v>
+        <v>0.486543</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.620155</v>
+        <v>0.625529</v>
       </c>
       <c r="C73" t="n">
-        <v>0.452675</v>
+        <v>0.452549</v>
       </c>
       <c r="D73" t="n">
-        <v>0.504254</v>
+        <v>0.506304</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.650184</v>
+        <v>0.662231</v>
       </c>
       <c r="C74" t="n">
-        <v>0.469245</v>
+        <v>0.472761</v>
       </c>
       <c r="D74" t="n">
-        <v>0.525637</v>
+        <v>0.5300010000000001</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6830079999999999</v>
+        <v>0.70434</v>
       </c>
       <c r="C75" t="n">
-        <v>0.487249</v>
+        <v>0.494249</v>
       </c>
       <c r="D75" t="n">
-        <v>0.543574</v>
+        <v>0.557877</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.723788</v>
+        <v>0.737027</v>
       </c>
       <c r="C76" t="n">
-        <v>0.51004</v>
+        <v>0.514078</v>
       </c>
       <c r="D76" t="n">
-        <v>0.574612</v>
+        <v>0.580741</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.765207</v>
+        <v>0.786087</v>
       </c>
       <c r="C77" t="n">
-        <v>0.533378</v>
+        <v>0.542269</v>
       </c>
       <c r="D77" t="n">
-        <v>0.601009</v>
+        <v>0.609959</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.823068</v>
+        <v>0.836919</v>
       </c>
       <c r="C78" t="n">
-        <v>0.46679</v>
+        <v>0.469771</v>
       </c>
       <c r="D78" t="n">
-        <v>0.508616</v>
+        <v>0.515164</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.815288</v>
+        <v>0.805666</v>
       </c>
       <c r="C79" t="n">
-        <v>0.493581</v>
+        <v>0.494667</v>
       </c>
       <c r="D79" t="n">
-        <v>0.545339</v>
+        <v>0.548204</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.855881</v>
+        <v>0.850472</v>
       </c>
       <c r="C80" t="n">
-        <v>0.52315</v>
+        <v>0.523733</v>
       </c>
       <c r="D80" t="n">
-        <v>0.58072</v>
+        <v>0.582168</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.900871</v>
+        <v>0.897273</v>
       </c>
       <c r="C81" t="n">
-        <v>0.552203</v>
+        <v>0.5533670000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.608973</v>
+        <v>0.609631</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9467</v>
+        <v>0.947766</v>
       </c>
       <c r="C82" t="n">
-        <v>0.585148</v>
+        <v>0.586076</v>
       </c>
       <c r="D82" t="n">
-        <v>0.641079</v>
+        <v>0.64141</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.998983</v>
+        <v>0.99776</v>
       </c>
       <c r="C83" t="n">
-        <v>0.61925</v>
+        <v>0.619304</v>
       </c>
       <c r="D83" t="n">
-        <v>0.679327</v>
+        <v>0.676718</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05262</v>
+        <v>1.05773</v>
       </c>
       <c r="C84" t="n">
-        <v>0.656792</v>
+        <v>0.6533870000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.725943</v>
+        <v>0.722001</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.10787</v>
+        <v>1.10596</v>
       </c>
       <c r="C85" t="n">
-        <v>0.691452</v>
+        <v>0.691335</v>
       </c>
       <c r="D85" t="n">
-        <v>0.764192</v>
+        <v>0.762583</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.16312</v>
+        <v>1.16196</v>
       </c>
       <c r="C86" t="n">
-        <v>0.729235</v>
+        <v>0.727523</v>
       </c>
       <c r="D86" t="n">
-        <v>0.807752</v>
+        <v>0.804057</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.22065</v>
+        <v>1.21903</v>
       </c>
       <c r="C87" t="n">
-        <v>0.768254</v>
+        <v>0.765267</v>
       </c>
       <c r="D87" t="n">
-        <v>0.844076</v>
+        <v>0.840311</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.27789</v>
+        <v>1.28049</v>
       </c>
       <c r="C88" t="n">
-        <v>0.806466</v>
+        <v>0.803973</v>
       </c>
       <c r="D88" t="n">
-        <v>0.884356</v>
+        <v>0.881771</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.33802</v>
+        <v>1.34161</v>
       </c>
       <c r="C89" t="n">
-        <v>0.845915</v>
+        <v>0.843971</v>
       </c>
       <c r="D89" t="n">
-        <v>0.927081</v>
+        <v>0.923895</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.40127</v>
+        <v>1.40565</v>
       </c>
       <c r="C90" t="n">
-        <v>0.887365</v>
+        <v>0.884362</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9710299999999999</v>
+        <v>0.96745</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.46708</v>
+        <v>1.47328</v>
       </c>
       <c r="C91" t="n">
-        <v>0.930409</v>
+        <v>0.927596</v>
       </c>
       <c r="D91" t="n">
-        <v>1.01645</v>
+        <v>1.01234</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.53429</v>
+        <v>1.54279</v>
       </c>
       <c r="C92" t="n">
-        <v>0.798816</v>
+        <v>0.802265</v>
       </c>
       <c r="D92" t="n">
-        <v>0.903823</v>
+        <v>0.906127</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.35414</v>
+        <v>1.3574</v>
       </c>
       <c r="C93" t="n">
-        <v>0.828314</v>
+        <v>0.83106</v>
       </c>
       <c r="D93" t="n">
-        <v>0.951898</v>
+        <v>0.951376</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.39393</v>
+        <v>1.39626</v>
       </c>
       <c r="C94" t="n">
-        <v>0.857803</v>
+        <v>0.860561</v>
       </c>
       <c r="D94" t="n">
-        <v>0.979429</v>
+        <v>0.981496</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.43298</v>
+        <v>1.43569</v>
       </c>
       <c r="C95" t="n">
-        <v>0.888962</v>
+        <v>0.891615</v>
       </c>
       <c r="D95" t="n">
-        <v>1.0076</v>
+        <v>1.00776</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.47477</v>
+        <v>1.47856</v>
       </c>
       <c r="C96" t="n">
-        <v>0.921404</v>
+        <v>0.923565</v>
       </c>
       <c r="D96" t="n">
-        <v>1.03945</v>
+        <v>1.04013</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.51701</v>
+        <v>1.5219</v>
       </c>
       <c r="C97" t="n">
-        <v>0.955165</v>
+        <v>0.956163</v>
       </c>
       <c r="D97" t="n">
-        <v>1.0989</v>
+        <v>1.10004</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.56262</v>
+        <v>1.56774</v>
       </c>
       <c r="C98" t="n">
-        <v>0.98915</v>
+        <v>0.990542</v>
       </c>
       <c r="D98" t="n">
-        <v>1.12785</v>
+        <v>1.12938</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.61</v>
+        <v>1.6151</v>
       </c>
       <c r="C99" t="n">
-        <v>1.0244</v>
+        <v>1.02592</v>
       </c>
       <c r="D99" t="n">
-        <v>1.171</v>
+        <v>1.17272</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.65677</v>
+        <v>1.66378</v>
       </c>
       <c r="C100" t="n">
-        <v>1.05977</v>
+        <v>1.06087</v>
       </c>
       <c r="D100" t="n">
-        <v>1.21434</v>
+        <v>1.21677</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.70539</v>
+        <v>1.71354</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09642</v>
+        <v>1.09708</v>
       </c>
       <c r="D101" t="n">
-        <v>1.25932</v>
+        <v>1.26056</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.75663</v>
+        <v>1.76724</v>
       </c>
       <c r="C102" t="n">
-        <v>1.13331</v>
+        <v>1.13374</v>
       </c>
       <c r="D102" t="n">
-        <v>1.30675</v>
+        <v>1.30736</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.81058</v>
+        <v>1.82292</v>
       </c>
       <c r="C103" t="n">
-        <v>1.1724</v>
+        <v>1.17245</v>
       </c>
       <c r="D103" t="n">
-        <v>1.35447</v>
+        <v>1.35522</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.86628</v>
+        <v>1.88166</v>
       </c>
       <c r="C104" t="n">
-        <v>1.21125</v>
+        <v>1.21256</v>
       </c>
       <c r="D104" t="n">
-        <v>1.40287</v>
+        <v>1.40414</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.92657</v>
+        <v>1.94438</v>
       </c>
       <c r="C105" t="n">
-        <v>1.25263</v>
+        <v>1.25387</v>
       </c>
       <c r="D105" t="n">
-        <v>1.45397</v>
+        <v>1.45538</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.99081</v>
+        <v>2.01099</v>
       </c>
       <c r="C106" t="n">
-        <v>1.29549</v>
+        <v>1.29689</v>
       </c>
       <c r="D106" t="n">
-        <v>1.50563</v>
+        <v>1.50817</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.65084</v>
+        <v>1.64871</v>
       </c>
       <c r="C107" t="n">
-        <v>1.0489</v>
+        <v>1.05399</v>
       </c>
       <c r="D107" t="n">
-        <v>1.26436</v>
+        <v>1.27055</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.68174</v>
+        <v>1.68658</v>
       </c>
       <c r="C108" t="n">
-        <v>1.08008</v>
+        <v>1.08012</v>
       </c>
       <c r="D108" t="n">
-        <v>1.30375</v>
+        <v>1.30374</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.71706</v>
+        <v>1.72132</v>
       </c>
       <c r="C109" t="n">
-        <v>1.10755</v>
+        <v>1.10851</v>
       </c>
       <c r="D109" t="n">
-        <v>1.34935</v>
+        <v>1.35064</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.75456</v>
+        <v>1.75955</v>
       </c>
       <c r="C110" t="n">
-        <v>1.13903</v>
+        <v>1.13998</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38863</v>
+        <v>1.39007</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.7943</v>
+        <v>1.79713</v>
       </c>
       <c r="C111" t="n">
-        <v>1.16875</v>
+        <v>1.16989</v>
       </c>
       <c r="D111" t="n">
-        <v>1.41885</v>
+        <v>1.41781</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.83527</v>
+        <v>1.83734</v>
       </c>
       <c r="C112" t="n">
-        <v>1.19657</v>
+        <v>1.19748</v>
       </c>
       <c r="D112" t="n">
-        <v>1.46359</v>
+        <v>1.46291</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.87268</v>
+        <v>1.87936</v>
       </c>
       <c r="C113" t="n">
-        <v>1.23358</v>
+        <v>1.23245</v>
       </c>
       <c r="D113" t="n">
-        <v>1.50736</v>
+        <v>1.50521</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.92105</v>
+        <v>1.92534</v>
       </c>
       <c r="C114" t="n">
-        <v>1.27035</v>
+        <v>1.26588</v>
       </c>
       <c r="D114" t="n">
-        <v>1.5425</v>
+        <v>1.54017</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.96479</v>
+        <v>1.97459</v>
       </c>
       <c r="C115" t="n">
-        <v>1.30073</v>
+        <v>1.3044</v>
       </c>
       <c r="D115" t="n">
-        <v>1.59185</v>
+        <v>1.59378</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.01217</v>
+        <v>2.02339</v>
       </c>
       <c r="C116" t="n">
-        <v>1.32931</v>
+        <v>1.33916</v>
       </c>
       <c r="D116" t="n">
-        <v>1.63695</v>
+        <v>1.63811</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.06654</v>
+        <v>2.07824</v>
       </c>
       <c r="C117" t="n">
-        <v>1.36815</v>
+        <v>1.36491</v>
       </c>
       <c r="D117" t="n">
-        <v>1.68376</v>
+        <v>1.68512</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.11952</v>
+        <v>2.1345</v>
       </c>
       <c r="C118" t="n">
-        <v>1.4033</v>
+        <v>1.40588</v>
       </c>
       <c r="D118" t="n">
-        <v>1.72567</v>
+        <v>1.7272</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.17507</v>
+        <v>2.19264</v>
       </c>
       <c r="C119" t="n">
-        <v>1.44246</v>
+        <v>1.45444</v>
       </c>
       <c r="D119" t="n">
-        <v>1.77632</v>
+        <v>1.77561</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.275466</v>
+        <v>0.287201</v>
       </c>
       <c r="C2" t="n">
-        <v>0.211503</v>
+        <v>0.223203</v>
       </c>
       <c r="D2" t="n">
-        <v>0.179614</v>
+        <v>0.183009</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.283112</v>
+        <v>0.295658</v>
       </c>
       <c r="C3" t="n">
-        <v>0.214608</v>
+        <v>0.227926</v>
       </c>
       <c r="D3" t="n">
-        <v>0.181555</v>
+        <v>0.185675</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.290106</v>
+        <v>0.301341</v>
       </c>
       <c r="C4" t="n">
-        <v>0.221871</v>
+        <v>0.232974</v>
       </c>
       <c r="D4" t="n">
-        <v>0.184031</v>
+        <v>0.188478</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.298342</v>
+        <v>0.311345</v>
       </c>
       <c r="C5" t="n">
-        <v>0.22751</v>
+        <v>0.238736</v>
       </c>
       <c r="D5" t="n">
-        <v>0.186958</v>
+        <v>0.190717</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.307363</v>
+        <v>0.322528</v>
       </c>
       <c r="C6" t="n">
-        <v>0.230682</v>
+        <v>0.245109</v>
       </c>
       <c r="D6" t="n">
-        <v>0.18884</v>
+        <v>0.192954</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.318549</v>
+        <v>0.331905</v>
       </c>
       <c r="C7" t="n">
-        <v>0.200256</v>
+        <v>0.21052</v>
       </c>
       <c r="D7" t="n">
-        <v>0.174709</v>
+        <v>0.180929</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.249621</v>
+        <v>0.25713</v>
       </c>
       <c r="C8" t="n">
-        <v>0.20552</v>
+        <v>0.212673</v>
       </c>
       <c r="D8" t="n">
-        <v>0.176825</v>
+        <v>0.181854</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.253054</v>
+        <v>0.262754</v>
       </c>
       <c r="C9" t="n">
-        <v>0.210728</v>
+        <v>0.219285</v>
       </c>
       <c r="D9" t="n">
-        <v>0.178984</v>
+        <v>0.184965</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.261377</v>
+        <v>0.269778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.216747</v>
+        <v>0.224558</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17974</v>
+        <v>0.187875</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.270389</v>
+        <v>0.277451</v>
       </c>
       <c r="C11" t="n">
-        <v>0.220591</v>
+        <v>0.228861</v>
       </c>
       <c r="D11" t="n">
-        <v>0.183034</v>
+        <v>0.18998</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.278001</v>
+        <v>0.286515</v>
       </c>
       <c r="C12" t="n">
-        <v>0.228144</v>
+        <v>0.235895</v>
       </c>
       <c r="D12" t="n">
-        <v>0.186203</v>
+        <v>0.192942</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.283144</v>
+        <v>0.291268</v>
       </c>
       <c r="C13" t="n">
-        <v>0.236881</v>
+        <v>0.243734</v>
       </c>
       <c r="D13" t="n">
-        <v>0.192026</v>
+        <v>0.197354</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.296699</v>
+        <v>0.305286</v>
       </c>
       <c r="C14" t="n">
-        <v>0.244994</v>
+        <v>0.25075</v>
       </c>
       <c r="D14" t="n">
-        <v>0.194397</v>
+        <v>0.200658</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.303682</v>
+        <v>0.312072</v>
       </c>
       <c r="C15" t="n">
-        <v>0.251022</v>
+        <v>0.257569</v>
       </c>
       <c r="D15" t="n">
-        <v>0.198644</v>
+        <v>0.204895</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.315159</v>
+        <v>0.323238</v>
       </c>
       <c r="C16" t="n">
-        <v>0.261501</v>
+        <v>0.268524</v>
       </c>
       <c r="D16" t="n">
-        <v>0.201863</v>
+        <v>0.209671</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.326771</v>
+        <v>0.334882</v>
       </c>
       <c r="C17" t="n">
-        <v>0.269537</v>
+        <v>0.275861</v>
       </c>
       <c r="D17" t="n">
-        <v>0.20575</v>
+        <v>0.21352</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.335776</v>
+        <v>0.342605</v>
       </c>
       <c r="C18" t="n">
-        <v>0.278617</v>
+        <v>0.283512</v>
       </c>
       <c r="D18" t="n">
-        <v>0.211538</v>
+        <v>0.215247</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.347877</v>
+        <v>0.353034</v>
       </c>
       <c r="C19" t="n">
-        <v>0.287855</v>
+        <v>0.292413</v>
       </c>
       <c r="D19" t="n">
-        <v>0.215818</v>
+        <v>0.219259</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.36335</v>
+        <v>0.366159</v>
       </c>
       <c r="C20" t="n">
-        <v>0.301427</v>
+        <v>0.306258</v>
       </c>
       <c r="D20" t="n">
-        <v>0.22358</v>
+        <v>0.224451</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.375032</v>
+        <v>0.379582</v>
       </c>
       <c r="C21" t="n">
-        <v>0.245791</v>
+        <v>0.246557</v>
       </c>
       <c r="D21" t="n">
-        <v>0.20484</v>
+        <v>0.205376</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.293966</v>
+        <v>0.295322</v>
       </c>
       <c r="C22" t="n">
-        <v>0.252386</v>
+        <v>0.253485</v>
       </c>
       <c r="D22" t="n">
-        <v>0.207597</v>
+        <v>0.208082</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.301549</v>
+        <v>0.302524</v>
       </c>
       <c r="C23" t="n">
-        <v>0.259005</v>
+        <v>0.259296</v>
       </c>
       <c r="D23" t="n">
-        <v>0.211168</v>
+        <v>0.211609</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.308948</v>
+        <v>0.309578</v>
       </c>
       <c r="C24" t="n">
-        <v>0.263689</v>
+        <v>0.264913</v>
       </c>
       <c r="D24" t="n">
-        <v>0.21458</v>
+        <v>0.215363</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.316289</v>
+        <v>0.317214</v>
       </c>
       <c r="C25" t="n">
-        <v>0.271547</v>
+        <v>0.27226</v>
       </c>
       <c r="D25" t="n">
-        <v>0.217982</v>
+        <v>0.218172</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.325223</v>
+        <v>0.325895</v>
       </c>
       <c r="C26" t="n">
-        <v>0.279092</v>
+        <v>0.280073</v>
       </c>
       <c r="D26" t="n">
-        <v>0.222347</v>
+        <v>0.222738</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.326079</v>
+        <v>0.334211</v>
       </c>
       <c r="C27" t="n">
-        <v>0.284135</v>
+        <v>0.284633</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224534</v>
+        <v>0.225208</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.34058</v>
+        <v>0.342187</v>
       </c>
       <c r="C28" t="n">
-        <v>0.290062</v>
+        <v>0.292074</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228197</v>
+        <v>0.229629</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.350094</v>
+        <v>0.351838</v>
       </c>
       <c r="C29" t="n">
-        <v>0.297926</v>
+        <v>0.299623</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232698</v>
+        <v>0.233698</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.360105</v>
+        <v>0.361939</v>
       </c>
       <c r="C30" t="n">
-        <v>0.307324</v>
+        <v>0.308706</v>
       </c>
       <c r="D30" t="n">
-        <v>0.235764</v>
+        <v>0.238154</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.369888</v>
+        <v>0.372681</v>
       </c>
       <c r="C31" t="n">
-        <v>0.313621</v>
+        <v>0.315419</v>
       </c>
       <c r="D31" t="n">
-        <v>0.241439</v>
+        <v>0.242649</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.379541</v>
+        <v>0.38236</v>
       </c>
       <c r="C32" t="n">
-        <v>0.324438</v>
+        <v>0.325816</v>
       </c>
       <c r="D32" t="n">
-        <v>0.242669</v>
+        <v>0.2462</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.391428</v>
+        <v>0.395548</v>
       </c>
       <c r="C33" t="n">
-        <v>0.332603</v>
+        <v>0.334808</v>
       </c>
       <c r="D33" t="n">
-        <v>0.251459</v>
+        <v>0.252606</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.404153</v>
+        <v>0.407327</v>
       </c>
       <c r="C34" t="n">
-        <v>0.34326</v>
+        <v>0.345676</v>
       </c>
       <c r="D34" t="n">
-        <v>0.256338</v>
+        <v>0.257626</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.418366</v>
+        <v>0.420432</v>
       </c>
       <c r="C35" t="n">
-        <v>0.264112</v>
+        <v>0.264553</v>
       </c>
       <c r="D35" t="n">
-        <v>0.22743</v>
+        <v>0.227859</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.315218</v>
+        <v>0.315453</v>
       </c>
       <c r="C36" t="n">
-        <v>0.271363</v>
+        <v>0.272288</v>
       </c>
       <c r="D36" t="n">
-        <v>0.230832</v>
+        <v>0.231285</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.321716</v>
+        <v>0.321965</v>
       </c>
       <c r="C37" t="n">
-        <v>0.277224</v>
+        <v>0.277905</v>
       </c>
       <c r="D37" t="n">
-        <v>0.233987</v>
+        <v>0.234185</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.330418</v>
+        <v>0.330207</v>
       </c>
       <c r="C38" t="n">
-        <v>0.284159</v>
+        <v>0.284856</v>
       </c>
       <c r="D38" t="n">
-        <v>0.23785</v>
+        <v>0.23811</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.336081</v>
+        <v>0.335957</v>
       </c>
       <c r="C39" t="n">
-        <v>0.29051</v>
+        <v>0.291147</v>
       </c>
       <c r="D39" t="n">
-        <v>0.241524</v>
+        <v>0.241926</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.34538</v>
+        <v>0.345616</v>
       </c>
       <c r="C40" t="n">
-        <v>0.298092</v>
+        <v>0.297761</v>
       </c>
       <c r="D40" t="n">
-        <v>0.245264</v>
+        <v>0.245867</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.352866</v>
+        <v>0.353507</v>
       </c>
       <c r="C41" t="n">
-        <v>0.304312</v>
+        <v>0.304556</v>
       </c>
       <c r="D41" t="n">
-        <v>0.247614</v>
+        <v>0.24819</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.360976</v>
+        <v>0.361364</v>
       </c>
       <c r="C42" t="n">
-        <v>0.309962</v>
+        <v>0.310042</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252014</v>
+        <v>0.252449</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.369901</v>
+        <v>0.369951</v>
       </c>
       <c r="C43" t="n">
-        <v>0.317523</v>
+        <v>0.318271</v>
       </c>
       <c r="D43" t="n">
-        <v>0.255442</v>
+        <v>0.255837</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.379316</v>
+        <v>0.380068</v>
       </c>
       <c r="C44" t="n">
-        <v>0.326218</v>
+        <v>0.326505</v>
       </c>
       <c r="D44" t="n">
-        <v>0.260504</v>
+        <v>0.260559</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.391198</v>
+        <v>0.391562</v>
       </c>
       <c r="C45" t="n">
-        <v>0.335087</v>
+        <v>0.335472</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264505</v>
+        <v>0.265127</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.40031</v>
+        <v>0.401768</v>
       </c>
       <c r="C46" t="n">
-        <v>0.344675</v>
+        <v>0.344743</v>
       </c>
       <c r="D46" t="n">
-        <v>0.268693</v>
+        <v>0.268941</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.412006</v>
+        <v>0.412084</v>
       </c>
       <c r="C47" t="n">
-        <v>0.352216</v>
+        <v>0.352486</v>
       </c>
       <c r="D47" t="n">
-        <v>0.27366</v>
+        <v>0.274241</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.42333</v>
+        <v>0.423537</v>
       </c>
       <c r="C48" t="n">
-        <v>0.362941</v>
+        <v>0.36333</v>
       </c>
       <c r="D48" t="n">
-        <v>0.278849</v>
+        <v>0.279355</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.434087</v>
+        <v>0.433904</v>
       </c>
       <c r="C49" t="n">
-        <v>0.373325</v>
+        <v>0.374138</v>
       </c>
       <c r="D49" t="n">
-        <v>0.285044</v>
+        <v>0.285548</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.44813</v>
+        <v>0.448396</v>
       </c>
       <c r="C50" t="n">
-        <v>0.279581</v>
+        <v>0.279938</v>
       </c>
       <c r="D50" t="n">
-        <v>0.23119</v>
+        <v>0.23116</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.333031</v>
+        <v>0.333208</v>
       </c>
       <c r="C51" t="n">
-        <v>0.285568</v>
+        <v>0.286462</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234419</v>
+        <v>0.234476</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.339823</v>
+        <v>0.340394</v>
       </c>
       <c r="C52" t="n">
-        <v>0.292143</v>
+        <v>0.292631</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237861</v>
+        <v>0.237901</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346436</v>
+        <v>0.346773</v>
       </c>
       <c r="C53" t="n">
-        <v>0.29936</v>
+        <v>0.300021</v>
       </c>
       <c r="D53" t="n">
-        <v>0.241487</v>
+        <v>0.241439</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.354553</v>
+        <v>0.354848</v>
       </c>
       <c r="C54" t="n">
-        <v>0.30585</v>
+        <v>0.306504</v>
       </c>
       <c r="D54" t="n">
-        <v>0.244976</v>
+        <v>0.245026</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.363555</v>
+        <v>0.363941</v>
       </c>
       <c r="C55" t="n">
-        <v>0.31319</v>
+        <v>0.313783</v>
       </c>
       <c r="D55" t="n">
-        <v>0.249409</v>
+        <v>0.249443</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.373377</v>
+        <v>0.373258</v>
       </c>
       <c r="C56" t="n">
-        <v>0.319562</v>
+        <v>0.320355</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253256</v>
+        <v>0.253347</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.381538</v>
+        <v>0.382095</v>
       </c>
       <c r="C57" t="n">
-        <v>0.327728</v>
+        <v>0.328637</v>
       </c>
       <c r="D57" t="n">
-        <v>0.25742</v>
+        <v>0.257642</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.392171</v>
+        <v>0.392066</v>
       </c>
       <c r="C58" t="n">
-        <v>0.336559</v>
+        <v>0.337297</v>
       </c>
       <c r="D58" t="n">
-        <v>0.263287</v>
+        <v>0.263846</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.404017</v>
+        <v>0.403831</v>
       </c>
       <c r="C59" t="n">
-        <v>0.343881</v>
+        <v>0.344702</v>
       </c>
       <c r="D59" t="n">
-        <v>0.26627</v>
+        <v>0.266544</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.413395</v>
+        <v>0.413034</v>
       </c>
       <c r="C60" t="n">
-        <v>0.352242</v>
+        <v>0.352917</v>
       </c>
       <c r="D60" t="n">
-        <v>0.270717</v>
+        <v>0.2707</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.42407</v>
+        <v>0.424237</v>
       </c>
       <c r="C61" t="n">
-        <v>0.362617</v>
+        <v>0.363266</v>
       </c>
       <c r="D61" t="n">
-        <v>0.276483</v>
+        <v>0.276508</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.434862</v>
+        <v>0.43491</v>
       </c>
       <c r="C62" t="n">
-        <v>0.371616</v>
+        <v>0.372607</v>
       </c>
       <c r="D62" t="n">
-        <v>0.28091</v>
+        <v>0.280738</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.446544</v>
+        <v>0.446399</v>
       </c>
       <c r="C63" t="n">
-        <v>0.382866</v>
+        <v>0.383587</v>
       </c>
       <c r="D63" t="n">
-        <v>0.28687</v>
+        <v>0.286284</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.461665</v>
+        <v>0.459038</v>
       </c>
       <c r="C64" t="n">
-        <v>0.298688</v>
+        <v>0.300797</v>
       </c>
       <c r="D64" t="n">
-        <v>0.245365</v>
+        <v>0.249156</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.359124</v>
+        <v>0.363984</v>
       </c>
       <c r="C65" t="n">
-        <v>0.306291</v>
+        <v>0.310266</v>
       </c>
       <c r="D65" t="n">
-        <v>0.248334</v>
+        <v>0.24945</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.371548</v>
+        <v>0.376177</v>
       </c>
       <c r="C66" t="n">
-        <v>0.317054</v>
+        <v>0.320739</v>
       </c>
       <c r="D66" t="n">
-        <v>0.25254</v>
+        <v>0.254878</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.382581</v>
+        <v>0.388001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.325922</v>
+        <v>0.329117</v>
       </c>
       <c r="D67" t="n">
-        <v>0.258422</v>
+        <v>0.260281</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.398912</v>
+        <v>0.400398</v>
       </c>
       <c r="C68" t="n">
-        <v>0.337345</v>
+        <v>0.340036</v>
       </c>
       <c r="D68" t="n">
-        <v>0.264361</v>
+        <v>0.266469</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.417818</v>
+        <v>0.417943</v>
       </c>
       <c r="C69" t="n">
-        <v>0.349768</v>
+        <v>0.35177</v>
       </c>
       <c r="D69" t="n">
-        <v>0.270176</v>
+        <v>0.271826</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.43326</v>
+        <v>0.435788</v>
       </c>
       <c r="C70" t="n">
-        <v>0.362615</v>
+        <v>0.363444</v>
       </c>
       <c r="D70" t="n">
-        <v>0.276279</v>
+        <v>0.278436</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.453066</v>
+        <v>0.452553</v>
       </c>
       <c r="C71" t="n">
-        <v>0.378597</v>
+        <v>0.383369</v>
       </c>
       <c r="D71" t="n">
-        <v>0.282732</v>
+        <v>0.284156</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.483598</v>
+        <v>0.47565</v>
       </c>
       <c r="C72" t="n">
-        <v>0.400391</v>
+        <v>0.402298</v>
       </c>
       <c r="D72" t="n">
-        <v>0.29294</v>
+        <v>0.292591</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5079939999999999</v>
+        <v>0.503982</v>
       </c>
       <c r="C73" t="n">
-        <v>0.422739</v>
+        <v>0.422314</v>
       </c>
       <c r="D73" t="n">
-        <v>0.302425</v>
+        <v>0.302681</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.540787</v>
+        <v>0.531184</v>
       </c>
       <c r="C74" t="n">
-        <v>0.449514</v>
+        <v>0.445299</v>
       </c>
       <c r="D74" t="n">
-        <v>0.31421</v>
+        <v>0.31215</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.574301</v>
+        <v>0.56142</v>
       </c>
       <c r="C75" t="n">
-        <v>0.473814</v>
+        <v>0.467976</v>
       </c>
       <c r="D75" t="n">
-        <v>0.324932</v>
+        <v>0.323258</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.613374</v>
+        <v>0.593462</v>
       </c>
       <c r="C76" t="n">
-        <v>0.507139</v>
+        <v>0.495155</v>
       </c>
       <c r="D76" t="n">
-        <v>0.32993</v>
+        <v>0.330101</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.662503</v>
+        <v>0.63444</v>
       </c>
       <c r="C77" t="n">
-        <v>0.541008</v>
+        <v>0.526049</v>
       </c>
       <c r="D77" t="n">
-        <v>0.350606</v>
+        <v>0.345947</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.701356</v>
+        <v>0.676702</v>
       </c>
       <c r="C78" t="n">
-        <v>0.469623</v>
+        <v>0.469714</v>
       </c>
       <c r="D78" t="n">
-        <v>0.318202</v>
+        <v>0.312517</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.628752</v>
+        <v>0.6295190000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.498707</v>
+        <v>0.495133</v>
       </c>
       <c r="D79" t="n">
-        <v>0.32713</v>
+        <v>0.322425</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.670194</v>
+        <v>0.6664870000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.529782</v>
+        <v>0.524967</v>
       </c>
       <c r="D80" t="n">
-        <v>0.338824</v>
+        <v>0.336226</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.71821</v>
+        <v>0.710972</v>
       </c>
       <c r="C81" t="n">
-        <v>0.567529</v>
+        <v>0.5641620000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.356899</v>
+        <v>0.351292</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.762161</v>
+        <v>0.762266</v>
       </c>
       <c r="C82" t="n">
-        <v>0.603639</v>
+        <v>0.599017</v>
       </c>
       <c r="D82" t="n">
-        <v>0.380898</v>
+        <v>0.377547</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.816203</v>
+        <v>0.81004</v>
       </c>
       <c r="C83" t="n">
-        <v>0.646223</v>
+        <v>0.642859</v>
       </c>
       <c r="D83" t="n">
-        <v>0.40055</v>
+        <v>0.39656</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.870502</v>
+        <v>0.8655</v>
       </c>
       <c r="C84" t="n">
-        <v>0.691322</v>
+        <v>0.6876139999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.421627</v>
+        <v>0.41836</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.926243</v>
+        <v>0.924152</v>
       </c>
       <c r="C85" t="n">
-        <v>0.733557</v>
+        <v>0.734396</v>
       </c>
       <c r="D85" t="n">
-        <v>0.443964</v>
+        <v>0.437919</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.982584</v>
+        <v>0.984583</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7804410000000001</v>
+        <v>0.782125</v>
       </c>
       <c r="D86" t="n">
-        <v>0.468716</v>
+        <v>0.465618</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.04368</v>
+        <v>1.04829</v>
       </c>
       <c r="C87" t="n">
-        <v>0.835207</v>
+        <v>0.83522</v>
       </c>
       <c r="D87" t="n">
-        <v>0.493146</v>
+        <v>0.493029</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.11582</v>
+        <v>1.11768</v>
       </c>
       <c r="C88" t="n">
-        <v>0.888916</v>
+        <v>0.892831</v>
       </c>
       <c r="D88" t="n">
-        <v>0.527675</v>
+        <v>0.528102</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.18484</v>
+        <v>1.18789</v>
       </c>
       <c r="C89" t="n">
-        <v>0.947528</v>
+        <v>0.94991</v>
       </c>
       <c r="D89" t="n">
-        <v>0.553914</v>
+        <v>0.552915</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.25577</v>
+        <v>1.2601</v>
       </c>
       <c r="C90" t="n">
-        <v>1.00352</v>
+        <v>1.00604</v>
       </c>
       <c r="D90" t="n">
-        <v>0.579862</v>
+        <v>0.581263</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.33681</v>
+        <v>1.34029</v>
       </c>
       <c r="C91" t="n">
-        <v>1.06657</v>
+        <v>1.06855</v>
       </c>
       <c r="D91" t="n">
-        <v>0.615564</v>
+        <v>0.619779</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.42043</v>
+        <v>1.42068</v>
       </c>
       <c r="C92" t="n">
-        <v>0.895269</v>
+        <v>0.89881</v>
       </c>
       <c r="D92" t="n">
-        <v>0.615444</v>
+        <v>0.617766</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.14163</v>
+        <v>1.14833</v>
       </c>
       <c r="C93" t="n">
-        <v>0.931372</v>
+        <v>0.934579</v>
       </c>
       <c r="D93" t="n">
-        <v>0.64427</v>
+        <v>0.645541</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.18757</v>
+        <v>1.19359</v>
       </c>
       <c r="C94" t="n">
-        <v>0.97076</v>
+        <v>0.972843</v>
       </c>
       <c r="D94" t="n">
-        <v>0.667782</v>
+        <v>0.668392</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.23621</v>
+        <v>1.23814</v>
       </c>
       <c r="C95" t="n">
-        <v>1.00641</v>
+        <v>1.01012</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6903319999999999</v>
+        <v>0.6903049999999999</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.28494</v>
+        <v>1.29077</v>
       </c>
       <c r="C96" t="n">
-        <v>1.05008</v>
+        <v>1.05303</v>
       </c>
       <c r="D96" t="n">
-        <v>0.712573</v>
+        <v>0.713033</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.3383</v>
+        <v>1.34722</v>
       </c>
       <c r="C97" t="n">
-        <v>1.09158</v>
+        <v>1.09428</v>
       </c>
       <c r="D97" t="n">
-        <v>0.739269</v>
+        <v>0.740848</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.3882</v>
+        <v>1.40071</v>
       </c>
       <c r="C98" t="n">
-        <v>1.13739</v>
+        <v>1.14158</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7652330000000001</v>
+        <v>0.765042</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.42882</v>
+        <v>1.46067</v>
       </c>
       <c r="C99" t="n">
-        <v>1.18463</v>
+        <v>1.18705</v>
       </c>
       <c r="D99" t="n">
-        <v>0.791722</v>
+        <v>0.79253</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.46274</v>
+        <v>1.51351</v>
       </c>
       <c r="C100" t="n">
-        <v>1.23323</v>
+        <v>1.23712</v>
       </c>
       <c r="D100" t="n">
-        <v>0.822672</v>
+        <v>0.822126</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.55297</v>
+        <v>1.57567</v>
       </c>
       <c r="C101" t="n">
-        <v>1.28388</v>
+        <v>1.28598</v>
       </c>
       <c r="D101" t="n">
-        <v>0.854409</v>
+        <v>0.855009</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.60073</v>
+        <v>1.63866</v>
       </c>
       <c r="C102" t="n">
-        <v>1.33716</v>
+        <v>1.33845</v>
       </c>
       <c r="D102" t="n">
-        <v>0.886309</v>
+        <v>0.886121</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.64564</v>
+        <v>1.6851</v>
       </c>
       <c r="C103" t="n">
-        <v>1.39232</v>
+        <v>1.38834</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9142670000000001</v>
+        <v>0.915242</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.71203</v>
+        <v>1.7544</v>
       </c>
       <c r="C104" t="n">
-        <v>1.44034</v>
+        <v>1.44784</v>
       </c>
       <c r="D104" t="n">
-        <v>0.948929</v>
+        <v>0.949668</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.78672</v>
+        <v>1.80084</v>
       </c>
       <c r="C105" t="n">
-        <v>1.50239</v>
+        <v>1.50637</v>
       </c>
       <c r="D105" t="n">
-        <v>0.993084</v>
+        <v>0.993223</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.863</v>
+        <v>1.86942</v>
       </c>
       <c r="C106" t="n">
-        <v>1.56517</v>
+        <v>1.53219</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02566</v>
+        <v>1.02686</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.36496</v>
+        <v>1.37059</v>
       </c>
       <c r="C107" t="n">
-        <v>1.19396</v>
+        <v>1.16872</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9376910000000001</v>
+        <v>0.939202</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.40841</v>
+        <v>1.41208</v>
       </c>
       <c r="C108" t="n">
-        <v>1.23395</v>
+        <v>1.19247</v>
       </c>
       <c r="D108" t="n">
-        <v>0.95663</v>
+        <v>0.956627</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.45286</v>
+        <v>1.45717</v>
       </c>
       <c r="C109" t="n">
-        <v>1.24539</v>
+        <v>1.22037</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9799</v>
+        <v>0.979403</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.50366</v>
+        <v>1.5066</v>
       </c>
       <c r="C110" t="n">
-        <v>1.29245</v>
+        <v>1.29408</v>
       </c>
       <c r="D110" t="n">
-        <v>1.00109</v>
+        <v>1.00295</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.54929</v>
+        <v>1.55497</v>
       </c>
       <c r="C111" t="n">
-        <v>1.31495</v>
+        <v>1.29664</v>
       </c>
       <c r="D111" t="n">
-        <v>1.03029</v>
+        <v>1.03214</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.59149</v>
+        <v>1.60659</v>
       </c>
       <c r="C112" t="n">
-        <v>1.33728</v>
+        <v>1.33953</v>
       </c>
       <c r="D112" t="n">
-        <v>1.0528</v>
+        <v>1.05377</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.65493</v>
+        <v>1.66222</v>
       </c>
       <c r="C113" t="n">
-        <v>1.38948</v>
+        <v>1.38135</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08038</v>
+        <v>1.08213</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.71302</v>
+        <v>1.72008</v>
       </c>
       <c r="C114" t="n">
-        <v>1.42723</v>
+        <v>1.42411</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10622</v>
+        <v>1.10798</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.77284</v>
+        <v>1.77996</v>
       </c>
       <c r="C115" t="n">
-        <v>1.47026</v>
+        <v>1.47215</v>
       </c>
       <c r="D115" t="n">
-        <v>1.13477</v>
+        <v>1.13587</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.83609</v>
+        <v>1.84429</v>
       </c>
       <c r="C116" t="n">
-        <v>1.5238</v>
+        <v>1.52196</v>
       </c>
       <c r="D116" t="n">
-        <v>1.16611</v>
+        <v>1.16698</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.90267</v>
+        <v>1.91113</v>
       </c>
       <c r="C117" t="n">
-        <v>1.57124</v>
+        <v>1.5758</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1981</v>
+        <v>1.1999</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.97199</v>
+        <v>1.97995</v>
       </c>
       <c r="C118" t="n">
-        <v>1.62822</v>
+        <v>1.63286</v>
       </c>
       <c r="D118" t="n">
-        <v>1.22853</v>
+        <v>1.23022</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.04616</v>
+        <v>2.0535</v>
       </c>
       <c r="C119" t="n">
-        <v>1.6851</v>
+        <v>1.68909</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25929</v>
+        <v>1.26265</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.626379</v>
+        <v>0.641788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.46534</v>
+        <v>0.494928</v>
       </c>
       <c r="D2" t="n">
-        <v>0.303036</v>
+        <v>0.312028</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.651411</v>
+        <v>0.664429</v>
       </c>
       <c r="C3" t="n">
-        <v>0.479542</v>
+        <v>0.509117</v>
       </c>
       <c r="D3" t="n">
-        <v>0.314079</v>
+        <v>0.322991</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.680415</v>
+        <v>0.695207</v>
       </c>
       <c r="C4" t="n">
-        <v>0.503756</v>
+        <v>0.538469</v>
       </c>
       <c r="D4" t="n">
-        <v>0.322886</v>
+        <v>0.333653</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.702359</v>
+        <v>0.725947</v>
       </c>
       <c r="C5" t="n">
-        <v>0.519097</v>
+        <v>0.570482</v>
       </c>
       <c r="D5" t="n">
-        <v>0.332883</v>
+        <v>0.345271</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.72734</v>
+        <v>0.749236</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5358619999999999</v>
+        <v>0.590344</v>
       </c>
       <c r="D6" t="n">
-        <v>0.343686</v>
+        <v>0.357785</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.757592</v>
+        <v>0.783953</v>
       </c>
       <c r="C7" t="n">
-        <v>0.562234</v>
+        <v>0.612654</v>
       </c>
       <c r="D7" t="n">
-        <v>0.350904</v>
+        <v>0.365034</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.79031</v>
+        <v>0.809299</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5809530000000001</v>
+        <v>0.634953</v>
       </c>
       <c r="D8" t="n">
-        <v>0.358406</v>
+        <v>0.369815</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.815387</v>
+        <v>0.848191</v>
       </c>
       <c r="C9" t="n">
-        <v>0.60608</v>
+        <v>0.659764</v>
       </c>
       <c r="D9" t="n">
-        <v>0.37061</v>
+        <v>0.381505</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.851782</v>
+        <v>0.878857</v>
       </c>
       <c r="C10" t="n">
-        <v>0.627193</v>
+        <v>0.69156</v>
       </c>
       <c r="D10" t="n">
-        <v>0.386745</v>
+        <v>0.396911</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.883894</v>
+        <v>0.914238</v>
       </c>
       <c r="C11" t="n">
-        <v>0.431755</v>
+        <v>0.462375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.282133</v>
+        <v>0.29476</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.579093</v>
+        <v>0.598753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.457584</v>
+        <v>0.487603</v>
       </c>
       <c r="D12" t="n">
-        <v>0.294139</v>
+        <v>0.304779</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.592522</v>
+        <v>0.615912</v>
       </c>
       <c r="C13" t="n">
-        <v>0.482804</v>
+        <v>0.510338</v>
       </c>
       <c r="D13" t="n">
-        <v>0.30403</v>
+        <v>0.31398</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.625611</v>
+        <v>0.64534</v>
       </c>
       <c r="C14" t="n">
-        <v>0.507992</v>
+        <v>0.535977</v>
       </c>
       <c r="D14" t="n">
-        <v>0.312636</v>
+        <v>0.323321</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.651243</v>
+        <v>0.676338</v>
       </c>
       <c r="C15" t="n">
-        <v>0.539785</v>
+        <v>0.568658</v>
       </c>
       <c r="D15" t="n">
-        <v>0.32757</v>
+        <v>0.339369</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.689124</v>
+        <v>0.709943</v>
       </c>
       <c r="C16" t="n">
-        <v>0.568779</v>
+        <v>0.596733</v>
       </c>
       <c r="D16" t="n">
-        <v>0.342043</v>
+        <v>0.352812</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.724184</v>
+        <v>0.747456</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6038790000000001</v>
+        <v>0.629667</v>
       </c>
       <c r="D17" t="n">
-        <v>0.358252</v>
+        <v>0.367191</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.76239</v>
+        <v>0.783767</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6428739999999999</v>
+        <v>0.662177</v>
       </c>
       <c r="D18" t="n">
-        <v>0.366815</v>
+        <v>0.375017</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.800077</v>
+        <v>0.8203279999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.674774</v>
+        <v>0.699218</v>
       </c>
       <c r="D19" t="n">
-        <v>0.381606</v>
+        <v>0.389496</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.844537</v>
+        <v>0.864259</v>
       </c>
       <c r="C20" t="n">
-        <v>0.708439</v>
+        <v>0.733185</v>
       </c>
       <c r="D20" t="n">
-        <v>0.393995</v>
+        <v>0.402233</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.878225</v>
+        <v>0.9058079999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.746829</v>
+        <v>0.770721</v>
       </c>
       <c r="D21" t="n">
-        <v>0.406514</v>
+        <v>0.41864</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.925602</v>
+        <v>0.9487449999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.776569</v>
+        <v>0.807739</v>
       </c>
       <c r="D22" t="n">
-        <v>0.426655</v>
+        <v>0.436617</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.961719</v>
+        <v>0.989833</v>
       </c>
       <c r="C23" t="n">
-        <v>0.824717</v>
+        <v>0.850548</v>
       </c>
       <c r="D23" t="n">
-        <v>0.435775</v>
+        <v>0.444908</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.00962</v>
+        <v>1.03565</v>
       </c>
       <c r="C24" t="n">
-        <v>0.862525</v>
+        <v>0.887173</v>
       </c>
       <c r="D24" t="n">
-        <v>0.451379</v>
+        <v>0.464878</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.05739</v>
+        <v>1.08457</v>
       </c>
       <c r="C25" t="n">
-        <v>0.903496</v>
+        <v>0.929746</v>
       </c>
       <c r="D25" t="n">
-        <v>0.471022</v>
+        <v>0.479228</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.09722</v>
+        <v>1.12399</v>
       </c>
       <c r="C26" t="n">
-        <v>0.592162</v>
+        <v>0.601393</v>
       </c>
       <c r="D26" t="n">
-        <v>0.33938</v>
+        <v>0.343279</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.724589</v>
+        <v>0.734534</v>
       </c>
       <c r="C27" t="n">
-        <v>0.61646</v>
+        <v>0.626787</v>
       </c>
       <c r="D27" t="n">
-        <v>0.354116</v>
+        <v>0.358112</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.759387</v>
+        <v>0.77107</v>
       </c>
       <c r="C28" t="n">
-        <v>0.65249</v>
+        <v>0.6603250000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.371062</v>
+        <v>0.372687</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.796319</v>
+        <v>0.806381</v>
       </c>
       <c r="C29" t="n">
-        <v>0.682295</v>
+        <v>0.6955</v>
       </c>
       <c r="D29" t="n">
-        <v>0.381545</v>
+        <v>0.386731</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8323469999999999</v>
+        <v>0.843009</v>
       </c>
       <c r="C30" t="n">
-        <v>0.717015</v>
+        <v>0.7297129999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.398261</v>
+        <v>0.402624</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.868051</v>
+        <v>0.878915</v>
       </c>
       <c r="C31" t="n">
-        <v>0.753305</v>
+        <v>0.764514</v>
       </c>
       <c r="D31" t="n">
-        <v>0.407496</v>
+        <v>0.414906</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.903409</v>
+        <v>0.917639</v>
       </c>
       <c r="C32" t="n">
-        <v>0.789562</v>
+        <v>0.801265</v>
       </c>
       <c r="D32" t="n">
-        <v>0.427963</v>
+        <v>0.430108</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.951253</v>
+        <v>0.9619450000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.825731</v>
+        <v>0.836059</v>
       </c>
       <c r="D33" t="n">
-        <v>0.444221</v>
+        <v>0.447551</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.991432</v>
+        <v>1.00136</v>
       </c>
       <c r="C34" t="n">
-        <v>0.860359</v>
+        <v>0.8717279999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.454317</v>
+        <v>0.458339</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.03979</v>
+        <v>1.05006</v>
       </c>
       <c r="C35" t="n">
-        <v>0.900217</v>
+        <v>0.908612</v>
       </c>
       <c r="D35" t="n">
-        <v>0.461106</v>
+        <v>0.46826</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.07647</v>
+        <v>1.0894</v>
       </c>
       <c r="C36" t="n">
-        <v>0.936079</v>
+        <v>0.946241</v>
       </c>
       <c r="D36" t="n">
-        <v>0.488161</v>
+        <v>0.490835</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.1257</v>
+        <v>1.13674</v>
       </c>
       <c r="C37" t="n">
-        <v>0.976617</v>
+        <v>0.9852300000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.500728</v>
+        <v>0.50202</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.16774</v>
+        <v>1.18095</v>
       </c>
       <c r="C38" t="n">
-        <v>1.01628</v>
+        <v>1.02712</v>
       </c>
       <c r="D38" t="n">
-        <v>0.516437</v>
+        <v>0.521842</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.21809</v>
+        <v>1.23136</v>
       </c>
       <c r="C39" t="n">
-        <v>1.0534</v>
+        <v>1.06485</v>
       </c>
       <c r="D39" t="n">
-        <v>0.532049</v>
+        <v>0.536836</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.26662</v>
+        <v>1.27716</v>
       </c>
       <c r="C40" t="n">
-        <v>0.659586</v>
+        <v>0.663691</v>
       </c>
       <c r="D40" t="n">
-        <v>0.399146</v>
+        <v>0.40076</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.801277</v>
+        <v>0.806691</v>
       </c>
       <c r="C41" t="n">
-        <v>0.686401</v>
+        <v>0.688885</v>
       </c>
       <c r="D41" t="n">
-        <v>0.410837</v>
+        <v>0.412573</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.837385</v>
+        <v>0.842002</v>
       </c>
       <c r="C42" t="n">
-        <v>0.71465</v>
+        <v>0.717992</v>
       </c>
       <c r="D42" t="n">
-        <v>0.424329</v>
+        <v>0.425787</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.869817</v>
+        <v>0.873559</v>
       </c>
       <c r="C43" t="n">
-        <v>0.748045</v>
+        <v>0.751386</v>
       </c>
       <c r="D43" t="n">
-        <v>0.437522</v>
+        <v>0.438986</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9110470000000001</v>
+        <v>0.915059</v>
       </c>
       <c r="C44" t="n">
-        <v>0.779784</v>
+        <v>0.783921</v>
       </c>
       <c r="D44" t="n">
-        <v>0.445956</v>
+        <v>0.45231</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.947716</v>
+        <v>0.950545</v>
       </c>
       <c r="C45" t="n">
-        <v>0.81608</v>
+        <v>0.818998</v>
       </c>
       <c r="D45" t="n">
-        <v>0.470586</v>
+        <v>0.472562</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.98969</v>
+        <v>0.995351</v>
       </c>
       <c r="C46" t="n">
-        <v>0.852537</v>
+        <v>0.854071</v>
       </c>
       <c r="D46" t="n">
-        <v>0.488594</v>
+        <v>0.489984</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.03316</v>
+        <v>1.03918</v>
       </c>
       <c r="C47" t="n">
-        <v>0.889289</v>
+        <v>0.891119</v>
       </c>
       <c r="D47" t="n">
-        <v>0.500613</v>
+        <v>0.503922</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.07724</v>
+        <v>1.08267</v>
       </c>
       <c r="C48" t="n">
-        <v>0.925451</v>
+        <v>0.92958</v>
       </c>
       <c r="D48" t="n">
-        <v>0.515506</v>
+        <v>0.519254</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.11869</v>
+        <v>1.12193</v>
       </c>
       <c r="C49" t="n">
-        <v>0.966928</v>
+        <v>0.970792</v>
       </c>
       <c r="D49" t="n">
-        <v>0.534511</v>
+        <v>0.5362440000000001</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.16607</v>
+        <v>1.17222</v>
       </c>
       <c r="C50" t="n">
-        <v>1.00744</v>
+        <v>1.0101</v>
       </c>
       <c r="D50" t="n">
-        <v>0.550602</v>
+        <v>0.55193</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.21166</v>
+        <v>1.21917</v>
       </c>
       <c r="C51" t="n">
-        <v>1.04636</v>
+        <v>1.04712</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5659</v>
+        <v>0.567142</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.25685</v>
+        <v>1.26162</v>
       </c>
       <c r="C52" t="n">
-        <v>1.08616</v>
+        <v>1.08964</v>
       </c>
       <c r="D52" t="n">
-        <v>0.583082</v>
+        <v>0.584673</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.30383</v>
+        <v>1.3116</v>
       </c>
       <c r="C53" t="n">
-        <v>1.12802</v>
+        <v>1.13105</v>
       </c>
       <c r="D53" t="n">
-        <v>0.594271</v>
+        <v>0.597807</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.35258</v>
+        <v>1.35535</v>
       </c>
       <c r="C54" t="n">
-        <v>0.692111</v>
+        <v>0.694315</v>
       </c>
       <c r="D54" t="n">
-        <v>0.429192</v>
+        <v>0.42944</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8374470000000001</v>
+        <v>0.838399</v>
       </c>
       <c r="C55" t="n">
-        <v>0.71865</v>
+        <v>0.72083</v>
       </c>
       <c r="D55" t="n">
-        <v>0.443322</v>
+        <v>0.444417</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.869714</v>
+        <v>0.872178</v>
       </c>
       <c r="C56" t="n">
-        <v>0.74886</v>
+        <v>0.749966</v>
       </c>
       <c r="D56" t="n">
-        <v>0.456777</v>
+        <v>0.456654</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.906655</v>
+        <v>0.909375</v>
       </c>
       <c r="C57" t="n">
-        <v>0.778981</v>
+        <v>0.7796650000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.472953</v>
+        <v>0.473723</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.941128</v>
+        <v>0.9444979999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.813804</v>
+        <v>0.814476</v>
       </c>
       <c r="D58" t="n">
-        <v>0.486771</v>
+        <v>0.486028</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.980425</v>
+        <v>0.983807</v>
       </c>
       <c r="C59" t="n">
-        <v>0.849341</v>
+        <v>0.851729</v>
       </c>
       <c r="D59" t="n">
-        <v>0.502138</v>
+        <v>0.5029940000000001</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.0198</v>
+        <v>1.02363</v>
       </c>
       <c r="C60" t="n">
-        <v>0.885421</v>
+        <v>0.885667</v>
       </c>
       <c r="D60" t="n">
-        <v>0.520462</v>
+        <v>0.521674</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.06031</v>
+        <v>1.06238</v>
       </c>
       <c r="C61" t="n">
-        <v>0.922805</v>
+        <v>0.92435</v>
       </c>
       <c r="D61" t="n">
-        <v>0.534919</v>
+        <v>0.535917</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.10288</v>
+        <v>1.10715</v>
       </c>
       <c r="C62" t="n">
-        <v>0.963638</v>
+        <v>0.964068</v>
       </c>
       <c r="D62" t="n">
-        <v>0.552546</v>
+        <v>0.553661</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.14893</v>
+        <v>1.15154</v>
       </c>
       <c r="C63" t="n">
-        <v>0.998669</v>
+        <v>0.999298</v>
       </c>
       <c r="D63" t="n">
-        <v>0.567667</v>
+        <v>0.569727</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.19672</v>
+        <v>1.20069</v>
       </c>
       <c r="C64" t="n">
-        <v>1.04055</v>
+        <v>1.04142</v>
       </c>
       <c r="D64" t="n">
-        <v>0.58318</v>
+        <v>0.584965</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.24174</v>
+        <v>1.24654</v>
       </c>
       <c r="C65" t="n">
-        <v>1.07897</v>
+        <v>1.07947</v>
       </c>
       <c r="D65" t="n">
-        <v>0.59982</v>
+        <v>0.60228</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.28604</v>
+        <v>1.29203</v>
       </c>
       <c r="C66" t="n">
-        <v>1.11916</v>
+        <v>1.12266</v>
       </c>
       <c r="D66" t="n">
-        <v>0.620716</v>
+        <v>0.622131</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.34325</v>
+        <v>1.34046</v>
       </c>
       <c r="C67" t="n">
-        <v>1.16882</v>
+        <v>1.16531</v>
       </c>
       <c r="D67" t="n">
-        <v>0.634148</v>
+        <v>0.634095</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.39685</v>
+        <v>1.38554</v>
       </c>
       <c r="C68" t="n">
-        <v>0.720638</v>
+        <v>0.719105</v>
       </c>
       <c r="D68" t="n">
-        <v>0.454871</v>
+        <v>0.45668</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.886388</v>
+        <v>0.88859</v>
       </c>
       <c r="C69" t="n">
-        <v>0.760004</v>
+        <v>0.759773</v>
       </c>
       <c r="D69" t="n">
-        <v>0.469312</v>
+        <v>0.472264</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.934497</v>
+        <v>0.940786</v>
       </c>
       <c r="C70" t="n">
-        <v>0.805104</v>
+        <v>0.806101</v>
       </c>
       <c r="D70" t="n">
-        <v>0.488327</v>
+        <v>0.491361</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.0031</v>
+        <v>1.00013</v>
       </c>
       <c r="C71" t="n">
-        <v>0.851738</v>
+        <v>0.852432</v>
       </c>
       <c r="D71" t="n">
-        <v>0.510814</v>
+        <v>0.514447</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.05361</v>
+        <v>1.04985</v>
       </c>
       <c r="C72" t="n">
-        <v>0.903776</v>
+        <v>0.897831</v>
       </c>
       <c r="D72" t="n">
-        <v>0.534486</v>
+        <v>0.537532</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.11254</v>
+        <v>1.11135</v>
       </c>
       <c r="C73" t="n">
-        <v>0.96178</v>
+        <v>0.956402</v>
       </c>
       <c r="D73" t="n">
-        <v>0.553217</v>
+        <v>0.5555870000000001</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.1814</v>
+        <v>1.18552</v>
       </c>
       <c r="C74" t="n">
-        <v>1.01691</v>
+        <v>1.0175</v>
       </c>
       <c r="D74" t="n">
-        <v>0.572852</v>
+        <v>0.577323</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.26448</v>
+        <v>1.26069</v>
       </c>
       <c r="C75" t="n">
-        <v>1.0885</v>
+        <v>1.08213</v>
       </c>
       <c r="D75" t="n">
-        <v>0.599584</v>
+        <v>0.600061</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.35912</v>
+        <v>1.34482</v>
       </c>
       <c r="C76" t="n">
-        <v>1.16788</v>
+        <v>1.15121</v>
       </c>
       <c r="D76" t="n">
-        <v>0.63156</v>
+        <v>0.630336</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.45655</v>
+        <v>1.44796</v>
       </c>
       <c r="C77" t="n">
-        <v>1.25322</v>
+        <v>1.23701</v>
       </c>
       <c r="D77" t="n">
-        <v>0.654173</v>
+        <v>0.658461</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.57174</v>
+        <v>1.54388</v>
       </c>
       <c r="C78" t="n">
-        <v>1.35154</v>
+        <v>1.32479</v>
       </c>
       <c r="D78" t="n">
-        <v>0.681307</v>
+        <v>0.681596</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.70342</v>
+        <v>1.67668</v>
       </c>
       <c r="C79" t="n">
-        <v>1.46257</v>
+        <v>1.43907</v>
       </c>
       <c r="D79" t="n">
-        <v>0.719608</v>
+        <v>0.720276</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.87058</v>
+        <v>1.8465</v>
       </c>
       <c r="C80" t="n">
-        <v>1.60262</v>
+        <v>1.58295</v>
       </c>
       <c r="D80" t="n">
-        <v>0.759962</v>
+        <v>0.758798</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.04201</v>
+        <v>2.0254</v>
       </c>
       <c r="C81" t="n">
-        <v>1.75777</v>
+        <v>1.74457</v>
       </c>
       <c r="D81" t="n">
-        <v>0.809744</v>
+        <v>0.797358</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.24604</v>
+        <v>2.3416</v>
       </c>
       <c r="C82" t="n">
-        <v>1.93151</v>
+        <v>1.994</v>
       </c>
       <c r="D82" t="n">
-        <v>0.87191</v>
+        <v>0.882865</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.48451</v>
+        <v>2.57144</v>
       </c>
       <c r="C83" t="n">
-        <v>1.27079</v>
+        <v>1.32942</v>
       </c>
       <c r="D83" t="n">
-        <v>0.631844</v>
+        <v>0.647253</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.6687</v>
+        <v>1.7689</v>
       </c>
       <c r="C84" t="n">
-        <v>1.39966</v>
+        <v>1.47141</v>
       </c>
       <c r="D84" t="n">
-        <v>0.679678</v>
+        <v>0.70518</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.84013</v>
+        <v>1.94696</v>
       </c>
       <c r="C85" t="n">
-        <v>1.54626</v>
+        <v>1.63497</v>
       </c>
       <c r="D85" t="n">
-        <v>0.734712</v>
+        <v>0.758323</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.03593</v>
+        <v>2.15986</v>
       </c>
       <c r="C86" t="n">
-        <v>1.71551</v>
+        <v>1.8034</v>
       </c>
       <c r="D86" t="n">
-        <v>0.785961</v>
+        <v>0.810215</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.24134</v>
+        <v>2.39054</v>
       </c>
       <c r="C87" t="n">
-        <v>1.87922</v>
+        <v>1.99749</v>
       </c>
       <c r="D87" t="n">
-        <v>0.837561</v>
+        <v>0.87208</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.47615</v>
+        <v>2.65952</v>
       </c>
       <c r="C88" t="n">
-        <v>2.0798</v>
+        <v>2.21977</v>
       </c>
       <c r="D88" t="n">
-        <v>0.919731</v>
+        <v>0.961429</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.71403</v>
+        <v>2.93283</v>
       </c>
       <c r="C89" t="n">
-        <v>2.28242</v>
+        <v>2.45552</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9981409999999999</v>
+        <v>1.05276</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.97736</v>
+        <v>3.22894</v>
       </c>
       <c r="C90" t="n">
-        <v>2.50438</v>
+        <v>2.70221</v>
       </c>
       <c r="D90" t="n">
-        <v>1.08671</v>
+        <v>1.15093</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.25134</v>
+        <v>3.53849</v>
       </c>
       <c r="C91" t="n">
-        <v>2.73152</v>
+        <v>2.96336</v>
       </c>
       <c r="D91" t="n">
-        <v>1.18573</v>
+        <v>1.26522</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.55158</v>
+        <v>3.88317</v>
       </c>
       <c r="C92" t="n">
-        <v>2.98724</v>
+        <v>3.24723</v>
       </c>
       <c r="D92" t="n">
-        <v>1.27386</v>
+        <v>1.36183</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.85857</v>
+        <v>4.21276</v>
       </c>
       <c r="C93" t="n">
-        <v>3.24843</v>
+        <v>3.53102</v>
       </c>
       <c r="D93" t="n">
-        <v>1.3647</v>
+        <v>1.46535</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.19683</v>
+        <v>4.57704</v>
       </c>
       <c r="C94" t="n">
-        <v>3.52523</v>
+        <v>3.83922</v>
       </c>
       <c r="D94" t="n">
-        <v>1.43384</v>
+        <v>1.54538</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.53644</v>
+        <v>4.95732</v>
       </c>
       <c r="C95" t="n">
-        <v>3.81541</v>
+        <v>4.16319</v>
       </c>
       <c r="D95" t="n">
-        <v>1.56847</v>
+        <v>1.6916</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.88197</v>
+        <v>5.34327</v>
       </c>
       <c r="C96" t="n">
-        <v>4.11291</v>
+        <v>4.47564</v>
       </c>
       <c r="D96" t="n">
-        <v>1.68165</v>
+        <v>1.81714</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.24247</v>
+        <v>5.69828</v>
       </c>
       <c r="C97" t="n">
-        <v>2.47715</v>
+        <v>2.70223</v>
       </c>
       <c r="D97" t="n">
-        <v>1.17483</v>
+        <v>1.26972</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.21771</v>
+        <v>3.4759</v>
       </c>
       <c r="C98" t="n">
-        <v>2.64846</v>
+        <v>2.83137</v>
       </c>
       <c r="D98" t="n">
-        <v>1.23634</v>
+        <v>1.33649</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.43994</v>
+        <v>3.68866</v>
       </c>
       <c r="C99" t="n">
-        <v>2.82744</v>
+        <v>3.01579</v>
       </c>
       <c r="D99" t="n">
-        <v>1.33304</v>
+        <v>1.44589</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.65886</v>
+        <v>3.93034</v>
       </c>
       <c r="C100" t="n">
-        <v>3.01604</v>
+        <v>3.21834</v>
       </c>
       <c r="D100" t="n">
-        <v>1.40566</v>
+        <v>1.52245</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.89676</v>
+        <v>4.20432</v>
       </c>
       <c r="C101" t="n">
-        <v>3.23435</v>
+        <v>3.4389</v>
       </c>
       <c r="D101" t="n">
-        <v>1.4884</v>
+        <v>1.61528</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.05502</v>
+        <v>4.48256</v>
       </c>
       <c r="C102" t="n">
-        <v>3.38125</v>
+        <v>3.67136</v>
       </c>
       <c r="D102" t="n">
-        <v>1.57637</v>
+        <v>1.71509</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.27334</v>
+        <v>4.77587</v>
       </c>
       <c r="C103" t="n">
-        <v>3.54447</v>
+        <v>3.91347</v>
       </c>
       <c r="D103" t="n">
-        <v>1.6763</v>
+        <v>1.82873</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.5481</v>
+        <v>5.07547</v>
       </c>
       <c r="C104" t="n">
-        <v>3.75251</v>
+        <v>4.17744</v>
       </c>
       <c r="D104" t="n">
-        <v>1.77037</v>
+        <v>1.93199</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.81888</v>
+        <v>5.4004</v>
       </c>
       <c r="C105" t="n">
-        <v>3.9963</v>
+        <v>4.44729</v>
       </c>
       <c r="D105" t="n">
-        <v>1.837</v>
+        <v>2.00592</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.12242</v>
+        <v>5.73264</v>
       </c>
       <c r="C106" t="n">
-        <v>4.24845</v>
+        <v>4.73939</v>
       </c>
       <c r="D106" t="n">
-        <v>1.94558</v>
+        <v>2.128</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.44567</v>
+        <v>6.09609</v>
       </c>
       <c r="C107" t="n">
-        <v>4.51797</v>
+        <v>5.03814</v>
       </c>
       <c r="D107" t="n">
-        <v>2.0537</v>
+        <v>2.24821</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.76923</v>
+        <v>6.45273</v>
       </c>
       <c r="C108" t="n">
-        <v>4.79566</v>
+        <v>5.35043</v>
       </c>
       <c r="D108" t="n">
-        <v>2.14777</v>
+        <v>2.35075</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.10861</v>
+        <v>6.85008</v>
       </c>
       <c r="C109" t="n">
-        <v>5.08137</v>
+        <v>5.68201</v>
       </c>
       <c r="D109" t="n">
-        <v>2.26186</v>
+        <v>2.47859</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.4633</v>
+        <v>7.2529</v>
       </c>
       <c r="C110" t="n">
-        <v>5.39226</v>
+        <v>6.02977</v>
       </c>
       <c r="D110" t="n">
-        <v>2.38072</v>
+        <v>2.61542</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.82582</v>
+        <v>7.6626</v>
       </c>
       <c r="C111" t="n">
-        <v>3.10312</v>
+        <v>3.4652</v>
       </c>
       <c r="D111" t="n">
-        <v>1.66221</v>
+        <v>1.81414</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.02591</v>
+        <v>4.52106</v>
       </c>
       <c r="C112" t="n">
-        <v>3.27885</v>
+        <v>3.66247</v>
       </c>
       <c r="D112" t="n">
-        <v>1.73568</v>
+        <v>1.89802</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.24929</v>
+        <v>4.76796</v>
       </c>
       <c r="C113" t="n">
-        <v>3.45876</v>
+        <v>3.86368</v>
       </c>
       <c r="D113" t="n">
-        <v>1.81544</v>
+        <v>1.99048</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.47232</v>
+        <v>5.02174</v>
       </c>
       <c r="C114" t="n">
-        <v>3.65324</v>
+        <v>4.08227</v>
       </c>
       <c r="D114" t="n">
-        <v>1.88563</v>
+        <v>2.07409</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.7138</v>
+        <v>5.2941</v>
       </c>
       <c r="C115" t="n">
-        <v>3.85545</v>
+        <v>4.31297</v>
       </c>
       <c r="D115" t="n">
-        <v>1.97018</v>
+        <v>2.1595</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96403</v>
+        <v>5.57812</v>
       </c>
       <c r="C116" t="n">
-        <v>4.07587</v>
+        <v>4.55848</v>
       </c>
       <c r="D116" t="n">
-        <v>2.07091</v>
+        <v>2.27094</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.23147</v>
+        <v>5.87876</v>
       </c>
       <c r="C117" t="n">
-        <v>4.3058</v>
+        <v>4.81413</v>
       </c>
       <c r="D117" t="n">
-        <v>2.18127</v>
+        <v>2.40014</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.50949</v>
+        <v>6.19892</v>
       </c>
       <c r="C118" t="n">
-        <v>4.54341</v>
+        <v>5.08589</v>
       </c>
       <c r="D118" t="n">
-        <v>2.2737</v>
+        <v>2.50851</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.80509</v>
+        <v>6.53069</v>
       </c>
       <c r="C119" t="n">
-        <v>4.80299</v>
+        <v>5.37436</v>
       </c>
       <c r="D119" t="n">
-        <v>2.36886</v>
+        <v>2.60642</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.414369</v>
+        <v>0.414279</v>
       </c>
       <c r="C2" t="n">
-        <v>0.309938</v>
+        <v>0.315344</v>
       </c>
       <c r="D2" t="n">
-        <v>0.320745</v>
+        <v>0.33097</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.416605</v>
+        <v>0.422923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.31746</v>
+        <v>0.321742</v>
       </c>
       <c r="D3" t="n">
-        <v>0.327239</v>
+        <v>0.336179</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.426856</v>
+        <v>0.433706</v>
       </c>
       <c r="C4" t="n">
-        <v>0.323988</v>
+        <v>0.329968</v>
       </c>
       <c r="D4" t="n">
-        <v>0.333812</v>
+        <v>0.341295</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.440177</v>
+        <v>0.449307</v>
       </c>
       <c r="C5" t="n">
-        <v>0.329748</v>
+        <v>0.335379</v>
       </c>
       <c r="D5" t="n">
-        <v>0.342145</v>
+        <v>0.350064</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.455306</v>
+        <v>0.465658</v>
       </c>
       <c r="C6" t="n">
-        <v>0.33683</v>
+        <v>0.342879</v>
       </c>
       <c r="D6" t="n">
-        <v>0.346817</v>
+        <v>0.355602</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.467893</v>
+        <v>0.47469</v>
       </c>
       <c r="C7" t="n">
-        <v>0.271959</v>
+        <v>0.269988</v>
       </c>
       <c r="D7" t="n">
-        <v>0.291403</v>
+        <v>0.292025</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.355638</v>
+        <v>0.352242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.280359</v>
+        <v>0.280813</v>
       </c>
       <c r="D8" t="n">
-        <v>0.301649</v>
+        <v>0.302583</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.370591</v>
+        <v>0.367336</v>
       </c>
       <c r="C9" t="n">
-        <v>0.288596</v>
+        <v>0.288474</v>
       </c>
       <c r="D9" t="n">
-        <v>0.308331</v>
+        <v>0.309953</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.379692</v>
+        <v>0.376788</v>
       </c>
       <c r="C10" t="n">
-        <v>0.300184</v>
+        <v>0.299894</v>
       </c>
       <c r="D10" t="n">
-        <v>0.318965</v>
+        <v>0.319157</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.390687</v>
+        <v>0.389515</v>
       </c>
       <c r="C11" t="n">
-        <v>0.309299</v>
+        <v>0.308096</v>
       </c>
       <c r="D11" t="n">
-        <v>0.329249</v>
+        <v>0.329069</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.400847</v>
+        <v>0.400325</v>
       </c>
       <c r="C12" t="n">
-        <v>0.319098</v>
+        <v>0.318566</v>
       </c>
       <c r="D12" t="n">
-        <v>0.337846</v>
+        <v>0.335854</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4141</v>
+        <v>0.414027</v>
       </c>
       <c r="C13" t="n">
-        <v>0.328347</v>
+        <v>0.327022</v>
       </c>
       <c r="D13" t="n">
-        <v>0.347329</v>
+        <v>0.345296</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.426373</v>
+        <v>0.423814</v>
       </c>
       <c r="C14" t="n">
-        <v>0.337682</v>
+        <v>0.337092</v>
       </c>
       <c r="D14" t="n">
-        <v>0.357657</v>
+        <v>0.356993</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.438665</v>
+        <v>0.436119</v>
       </c>
       <c r="C15" t="n">
-        <v>0.343088</v>
+        <v>0.342806</v>
       </c>
       <c r="D15" t="n">
-        <v>0.365255</v>
+        <v>0.364426</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.450417</v>
+        <v>0.447106</v>
       </c>
       <c r="C16" t="n">
-        <v>0.351046</v>
+        <v>0.350257</v>
       </c>
       <c r="D16" t="n">
-        <v>0.377032</v>
+        <v>0.374768</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.462242</v>
+        <v>0.460157</v>
       </c>
       <c r="C17" t="n">
-        <v>0.359269</v>
+        <v>0.358858</v>
       </c>
       <c r="D17" t="n">
-        <v>0.383809</v>
+        <v>0.38245</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.472607</v>
+        <v>0.472108</v>
       </c>
       <c r="C18" t="n">
-        <v>0.364875</v>
+        <v>0.364707</v>
       </c>
       <c r="D18" t="n">
-        <v>0.390861</v>
+        <v>0.390138</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.485826</v>
+        <v>0.484841</v>
       </c>
       <c r="C19" t="n">
-        <v>0.371224</v>
+        <v>0.371447</v>
       </c>
       <c r="D19" t="n">
-        <v>0.399715</v>
+        <v>0.398623</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.496804</v>
+        <v>0.496834</v>
       </c>
       <c r="C20" t="n">
-        <v>0.379705</v>
+        <v>0.380479</v>
       </c>
       <c r="D20" t="n">
-        <v>0.404669</v>
+        <v>0.40549</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5079360000000001</v>
+        <v>0.510321</v>
       </c>
       <c r="C21" t="n">
-        <v>0.296144</v>
+        <v>0.295532</v>
       </c>
       <c r="D21" t="n">
-        <v>0.314915</v>
+        <v>0.31345</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.393076</v>
+        <v>0.392486</v>
       </c>
       <c r="C22" t="n">
-        <v>0.304894</v>
+        <v>0.303931</v>
       </c>
       <c r="D22" t="n">
-        <v>0.325453</v>
+        <v>0.324257</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.405083</v>
+        <v>0.40459</v>
       </c>
       <c r="C23" t="n">
-        <v>0.313074</v>
+        <v>0.31191</v>
       </c>
       <c r="D23" t="n">
-        <v>0.334638</v>
+        <v>0.333723</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.415348</v>
+        <v>0.415041</v>
       </c>
       <c r="C24" t="n">
-        <v>0.321304</v>
+        <v>0.320858</v>
       </c>
       <c r="D24" t="n">
-        <v>0.344455</v>
+        <v>0.343273</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.425275</v>
+        <v>0.426222</v>
       </c>
       <c r="C25" t="n">
-        <v>0.330568</v>
+        <v>0.32992</v>
       </c>
       <c r="D25" t="n">
-        <v>0.354419</v>
+        <v>0.353457</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.436977</v>
+        <v>0.436923</v>
       </c>
       <c r="C26" t="n">
-        <v>0.339795</v>
+        <v>0.339037</v>
       </c>
       <c r="D26" t="n">
-        <v>0.365276</v>
+        <v>0.364569</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.449214</v>
+        <v>0.45093</v>
       </c>
       <c r="C27" t="n">
-        <v>0.349091</v>
+        <v>0.347677</v>
       </c>
       <c r="D27" t="n">
-        <v>0.377031</v>
+        <v>0.375965</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.462148</v>
+        <v>0.461326</v>
       </c>
       <c r="C28" t="n">
-        <v>0.357205</v>
+        <v>0.356414</v>
       </c>
       <c r="D28" t="n">
-        <v>0.386323</v>
+        <v>0.385602</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.473973</v>
+        <v>0.473471</v>
       </c>
       <c r="C29" t="n">
-        <v>0.365297</v>
+        <v>0.364396</v>
       </c>
       <c r="D29" t="n">
-        <v>0.39751</v>
+        <v>0.39854</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.484746</v>
+        <v>0.484768</v>
       </c>
       <c r="C30" t="n">
-        <v>0.373652</v>
+        <v>0.372788</v>
       </c>
       <c r="D30" t="n">
-        <v>0.406521</v>
+        <v>0.406055</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.495739</v>
+        <v>0.495827</v>
       </c>
       <c r="C31" t="n">
-        <v>0.381107</v>
+        <v>0.380052</v>
       </c>
       <c r="D31" t="n">
-        <v>0.415948</v>
+        <v>0.415758</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.507373</v>
+        <v>0.507903</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3891</v>
+        <v>0.388443</v>
       </c>
       <c r="D32" t="n">
-        <v>0.425848</v>
+        <v>0.425777</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.518779</v>
+        <v>0.519027</v>
       </c>
       <c r="C33" t="n">
-        <v>0.395526</v>
+        <v>0.394931</v>
       </c>
       <c r="D33" t="n">
-        <v>0.434438</v>
+        <v>0.434337</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.530579</v>
+        <v>0.530276</v>
       </c>
       <c r="C34" t="n">
-        <v>0.403648</v>
+        <v>0.403454</v>
       </c>
       <c r="D34" t="n">
-        <v>0.444184</v>
+        <v>0.443948</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.542304</v>
+        <v>0.542439</v>
       </c>
       <c r="C35" t="n">
-        <v>0.314382</v>
+        <v>0.31371</v>
       </c>
       <c r="D35" t="n">
-        <v>0.339398</v>
+        <v>0.338578</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.412649</v>
+        <v>0.41261</v>
       </c>
       <c r="C36" t="n">
-        <v>0.322408</v>
+        <v>0.321764</v>
       </c>
       <c r="D36" t="n">
-        <v>0.348949</v>
+        <v>0.348306</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.423536</v>
+        <v>0.423116</v>
       </c>
       <c r="C37" t="n">
-        <v>0.33027</v>
+        <v>0.329774</v>
       </c>
       <c r="D37" t="n">
-        <v>0.358449</v>
+        <v>0.358178</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.434378</v>
+        <v>0.434393</v>
       </c>
       <c r="C38" t="n">
-        <v>0.338969</v>
+        <v>0.33862</v>
       </c>
       <c r="D38" t="n">
-        <v>0.369893</v>
+        <v>0.369537</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.444593</v>
+        <v>0.444485</v>
       </c>
       <c r="C39" t="n">
-        <v>0.348105</v>
+        <v>0.347226</v>
       </c>
       <c r="D39" t="n">
-        <v>0.380432</v>
+        <v>0.379847</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.456344</v>
+        <v>0.456271</v>
       </c>
       <c r="C40" t="n">
-        <v>0.356817</v>
+        <v>0.356292</v>
       </c>
       <c r="D40" t="n">
-        <v>0.390648</v>
+        <v>0.390332</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.469964</v>
+        <v>0.468945</v>
       </c>
       <c r="C41" t="n">
-        <v>0.365717</v>
+        <v>0.365208</v>
       </c>
       <c r="D41" t="n">
-        <v>0.401305</v>
+        <v>0.401267</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.480066</v>
+        <v>0.479779</v>
       </c>
       <c r="C42" t="n">
-        <v>0.37409</v>
+        <v>0.373659</v>
       </c>
       <c r="D42" t="n">
-        <v>0.411448</v>
+        <v>0.41129</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.491494</v>
+        <v>0.491403</v>
       </c>
       <c r="C43" t="n">
-        <v>0.381997</v>
+        <v>0.381786</v>
       </c>
       <c r="D43" t="n">
-        <v>0.421519</v>
+        <v>0.421353</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5028319999999999</v>
+        <v>0.502842</v>
       </c>
       <c r="C44" t="n">
-        <v>0.389617</v>
+        <v>0.389424</v>
       </c>
       <c r="D44" t="n">
-        <v>0.430648</v>
+        <v>0.431106</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.51355</v>
+        <v>0.513522</v>
       </c>
       <c r="C45" t="n">
-        <v>0.396784</v>
+        <v>0.396475</v>
       </c>
       <c r="D45" t="n">
-        <v>0.439801</v>
+        <v>0.440413</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.524686</v>
+        <v>0.524671</v>
       </c>
       <c r="C46" t="n">
-        <v>0.40317</v>
+        <v>0.403256</v>
       </c>
       <c r="D46" t="n">
-        <v>0.448251</v>
+        <v>0.448861</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.536794</v>
+        <v>0.536816</v>
       </c>
       <c r="C47" t="n">
-        <v>0.410294</v>
+        <v>0.41003</v>
       </c>
       <c r="D47" t="n">
-        <v>0.456785</v>
+        <v>0.457845</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.552907</v>
+        <v>0.550234</v>
       </c>
       <c r="C48" t="n">
-        <v>0.41703</v>
+        <v>0.416892</v>
       </c>
       <c r="D48" t="n">
-        <v>0.466031</v>
+        <v>0.466704</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.563961</v>
+        <v>0.561455</v>
       </c>
       <c r="C49" t="n">
-        <v>0.422241</v>
+        <v>0.42284</v>
       </c>
       <c r="D49" t="n">
-        <v>0.47572</v>
+        <v>0.475355</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.575634</v>
+        <v>0.57323</v>
       </c>
       <c r="C50" t="n">
-        <v>0.329912</v>
+        <v>0.329821</v>
       </c>
       <c r="D50" t="n">
-        <v>0.349039</v>
+        <v>0.34849</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430497</v>
+        <v>0.430336</v>
       </c>
       <c r="C51" t="n">
-        <v>0.338732</v>
+        <v>0.338241</v>
       </c>
       <c r="D51" t="n">
-        <v>0.359468</v>
+        <v>0.358807</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.441721</v>
+        <v>0.441528</v>
       </c>
       <c r="C52" t="n">
-        <v>0.347536</v>
+        <v>0.347046</v>
       </c>
       <c r="D52" t="n">
-        <v>0.370916</v>
+        <v>0.370294</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.45331</v>
+        <v>0.453467</v>
       </c>
       <c r="C53" t="n">
-        <v>0.356666</v>
+        <v>0.35622</v>
       </c>
       <c r="D53" t="n">
-        <v>0.381592</v>
+        <v>0.38118</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.465182</v>
+        <v>0.464964</v>
       </c>
       <c r="C54" t="n">
-        <v>0.365445</v>
+        <v>0.36509</v>
       </c>
       <c r="D54" t="n">
-        <v>0.392222</v>
+        <v>0.391947</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.479044</v>
+        <v>0.478513</v>
       </c>
       <c r="C55" t="n">
-        <v>0.375076</v>
+        <v>0.374483</v>
       </c>
       <c r="D55" t="n">
-        <v>0.403979</v>
+        <v>0.403797</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.488529</v>
+        <v>0.488391</v>
       </c>
       <c r="C56" t="n">
-        <v>0.382904</v>
+        <v>0.382713</v>
       </c>
       <c r="D56" t="n">
-        <v>0.414786</v>
+        <v>0.414714</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.499811</v>
+        <v>0.499788</v>
       </c>
       <c r="C57" t="n">
-        <v>0.390436</v>
+        <v>0.390154</v>
       </c>
       <c r="D57" t="n">
-        <v>0.424294</v>
+        <v>0.423923</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.511285</v>
+        <v>0.510877</v>
       </c>
       <c r="C58" t="n">
-        <v>0.397167</v>
+        <v>0.396992</v>
       </c>
       <c r="D58" t="n">
-        <v>0.432908</v>
+        <v>0.432793</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.521323</v>
+        <v>0.521223</v>
       </c>
       <c r="C59" t="n">
-        <v>0.403272</v>
+        <v>0.403279</v>
       </c>
       <c r="D59" t="n">
-        <v>0.441683</v>
+        <v>0.441759</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.533009</v>
+        <v>0.532783</v>
       </c>
       <c r="C60" t="n">
-        <v>0.409605</v>
+        <v>0.409482</v>
       </c>
       <c r="D60" t="n">
-        <v>0.450919</v>
+        <v>0.450946</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.544306</v>
+        <v>0.544005</v>
       </c>
       <c r="C61" t="n">
-        <v>0.416246</v>
+        <v>0.416134</v>
       </c>
       <c r="D61" t="n">
-        <v>0.459338</v>
+        <v>0.459219</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.556095</v>
+        <v>0.558544</v>
       </c>
       <c r="C62" t="n">
-        <v>0.422773</v>
+        <v>0.422576</v>
       </c>
       <c r="D62" t="n">
-        <v>0.468062</v>
+        <v>0.468114</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5682199999999999</v>
+        <v>0.571564</v>
       </c>
       <c r="C63" t="n">
-        <v>0.429805</v>
+        <v>0.429888</v>
       </c>
       <c r="D63" t="n">
-        <v>0.477576</v>
+        <v>0.477463</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.582375</v>
+        <v>0.5805630000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.342483</v>
+        <v>0.343575</v>
       </c>
       <c r="D64" t="n">
-        <v>0.367447</v>
+        <v>0.369166</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.460901</v>
+        <v>0.465733</v>
       </c>
       <c r="C65" t="n">
-        <v>0.351926</v>
+        <v>0.353538</v>
       </c>
       <c r="D65" t="n">
-        <v>0.380512</v>
+        <v>0.382873</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.475996</v>
+        <v>0.480031</v>
       </c>
       <c r="C66" t="n">
-        <v>0.36299</v>
+        <v>0.365461</v>
       </c>
       <c r="D66" t="n">
-        <v>0.393532</v>
+        <v>0.394384</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.491588</v>
+        <v>0.496062</v>
       </c>
       <c r="C67" t="n">
-        <v>0.37481</v>
+        <v>0.37685</v>
       </c>
       <c r="D67" t="n">
-        <v>0.406787</v>
+        <v>0.409916</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.508103</v>
+        <v>0.51341</v>
       </c>
       <c r="C68" t="n">
-        <v>0.387224</v>
+        <v>0.389306</v>
       </c>
       <c r="D68" t="n">
-        <v>0.422546</v>
+        <v>0.424607</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.539006</v>
+        <v>0.533944</v>
       </c>
       <c r="C69" t="n">
-        <v>0.398345</v>
+        <v>0.400774</v>
       </c>
       <c r="D69" t="n">
-        <v>0.438444</v>
+        <v>0.441421</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.555941</v>
+        <v>0.560616</v>
       </c>
       <c r="C70" t="n">
-        <v>0.409499</v>
+        <v>0.412082</v>
       </c>
       <c r="D70" t="n">
-        <v>0.453699</v>
+        <v>0.457834</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.569117</v>
+        <v>0.580936</v>
       </c>
       <c r="C71" t="n">
-        <v>0.422211</v>
+        <v>0.428395</v>
       </c>
       <c r="D71" t="n">
-        <v>0.47023</v>
+        <v>0.474869</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.59705</v>
+        <v>0.613245</v>
       </c>
       <c r="C72" t="n">
-        <v>0.436854</v>
+        <v>0.445075</v>
       </c>
       <c r="D72" t="n">
-        <v>0.486543</v>
+        <v>0.494779</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.625529</v>
+        <v>0.643342</v>
       </c>
       <c r="C73" t="n">
-        <v>0.452549</v>
+        <v>0.462341</v>
       </c>
       <c r="D73" t="n">
-        <v>0.506304</v>
+        <v>0.514722</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.662231</v>
+        <v>0.6799539999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.472761</v>
+        <v>0.483121</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5300010000000001</v>
+        <v>0.538716</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.70434</v>
+        <v>0.713009</v>
       </c>
       <c r="C75" t="n">
-        <v>0.494249</v>
+        <v>0.501163</v>
       </c>
       <c r="D75" t="n">
-        <v>0.557877</v>
+        <v>0.560825</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.737027</v>
+        <v>0.751329</v>
       </c>
       <c r="C76" t="n">
-        <v>0.514078</v>
+        <v>0.5238429999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.580741</v>
+        <v>0.58868</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.786087</v>
+        <v>0.795192</v>
       </c>
       <c r="C77" t="n">
-        <v>0.542269</v>
+        <v>0.548152</v>
       </c>
       <c r="D77" t="n">
-        <v>0.609959</v>
+        <v>0.618799</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.836919</v>
+        <v>0.849616</v>
       </c>
       <c r="C78" t="n">
-        <v>0.469771</v>
+        <v>0.47479</v>
       </c>
       <c r="D78" t="n">
-        <v>0.515164</v>
+        <v>0.52734</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.805666</v>
+        <v>0.82161</v>
       </c>
       <c r="C79" t="n">
-        <v>0.494667</v>
+        <v>0.501946</v>
       </c>
       <c r="D79" t="n">
-        <v>0.548204</v>
+        <v>0.560368</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.850472</v>
+        <v>0.866841</v>
       </c>
       <c r="C80" t="n">
-        <v>0.523733</v>
+        <v>0.530855</v>
       </c>
       <c r="D80" t="n">
-        <v>0.582168</v>
+        <v>0.5881999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.897273</v>
+        <v>0.910039</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5533670000000001</v>
+        <v>0.560956</v>
       </c>
       <c r="D81" t="n">
-        <v>0.609631</v>
+        <v>0.619163</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.947766</v>
+        <v>0.958326</v>
       </c>
       <c r="C82" t="n">
-        <v>0.586076</v>
+        <v>0.5933389999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.64141</v>
+        <v>0.649986</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.99776</v>
+        <v>1.00891</v>
       </c>
       <c r="C83" t="n">
-        <v>0.619304</v>
+        <v>0.6266</v>
       </c>
       <c r="D83" t="n">
-        <v>0.676718</v>
+        <v>0.685017</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05773</v>
+        <v>1.05909</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6533870000000001</v>
+        <v>0.661385</v>
       </c>
       <c r="D84" t="n">
-        <v>0.722001</v>
+        <v>0.728909</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.10596</v>
+        <v>1.11219</v>
       </c>
       <c r="C85" t="n">
-        <v>0.691335</v>
+        <v>0.694</v>
       </c>
       <c r="D85" t="n">
-        <v>0.762583</v>
+        <v>0.766934</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.16196</v>
+        <v>1.16538</v>
       </c>
       <c r="C86" t="n">
-        <v>0.727523</v>
+        <v>0.730284</v>
       </c>
       <c r="D86" t="n">
-        <v>0.804057</v>
+        <v>0.807545</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.21903</v>
+        <v>1.22263</v>
       </c>
       <c r="C87" t="n">
-        <v>0.765267</v>
+        <v>0.767482</v>
       </c>
       <c r="D87" t="n">
-        <v>0.840311</v>
+        <v>0.844076</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.28049</v>
+        <v>1.28278</v>
       </c>
       <c r="C88" t="n">
-        <v>0.803973</v>
+        <v>0.805059</v>
       </c>
       <c r="D88" t="n">
-        <v>0.881771</v>
+        <v>0.884938</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.34161</v>
+        <v>1.34273</v>
       </c>
       <c r="C89" t="n">
-        <v>0.843971</v>
+        <v>0.8440839999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.923895</v>
+        <v>0.925973</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.40565</v>
+        <v>1.40753</v>
       </c>
       <c r="C90" t="n">
-        <v>0.884362</v>
+        <v>0.885948</v>
       </c>
       <c r="D90" t="n">
-        <v>0.96745</v>
+        <v>0.969315</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.47328</v>
+        <v>1.47354</v>
       </c>
       <c r="C91" t="n">
-        <v>0.927596</v>
+        <v>0.9285330000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>1.01234</v>
+        <v>1.0143</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.54279</v>
+        <v>1.54471</v>
       </c>
       <c r="C92" t="n">
-        <v>0.802265</v>
+        <v>0.8007300000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.906127</v>
+        <v>0.903928</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.3574</v>
+        <v>1.354</v>
       </c>
       <c r="C93" t="n">
-        <v>0.83106</v>
+        <v>0.829602</v>
       </c>
       <c r="D93" t="n">
-        <v>0.951376</v>
+        <v>0.948665</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.39626</v>
+        <v>1.39412</v>
       </c>
       <c r="C94" t="n">
-        <v>0.860561</v>
+        <v>0.859061</v>
       </c>
       <c r="D94" t="n">
-        <v>0.981496</v>
+        <v>0.980258</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.43569</v>
+        <v>1.43415</v>
       </c>
       <c r="C95" t="n">
-        <v>0.891615</v>
+        <v>0.889927</v>
       </c>
       <c r="D95" t="n">
-        <v>1.00776</v>
+        <v>1.00655</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.47856</v>
+        <v>1.47536</v>
       </c>
       <c r="C96" t="n">
-        <v>0.923565</v>
+        <v>0.921859</v>
       </c>
       <c r="D96" t="n">
-        <v>1.04013</v>
+        <v>1.0392</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.5219</v>
+        <v>1.51867</v>
       </c>
       <c r="C97" t="n">
-        <v>0.956163</v>
+        <v>0.954772</v>
       </c>
       <c r="D97" t="n">
-        <v>1.10004</v>
+        <v>1.09918</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.56774</v>
+        <v>1.56394</v>
       </c>
       <c r="C98" t="n">
-        <v>0.990542</v>
+        <v>0.989182</v>
       </c>
       <c r="D98" t="n">
-        <v>1.12938</v>
+        <v>1.12834</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.6151</v>
+        <v>1.61231</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02592</v>
+        <v>1.02435</v>
       </c>
       <c r="D99" t="n">
-        <v>1.17272</v>
+        <v>1.17115</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.66378</v>
+        <v>1.66052</v>
       </c>
       <c r="C100" t="n">
-        <v>1.06087</v>
+        <v>1.06</v>
       </c>
       <c r="D100" t="n">
-        <v>1.21677</v>
+        <v>1.21637</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.71354</v>
+        <v>1.71139</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09708</v>
+        <v>1.09579</v>
       </c>
       <c r="D101" t="n">
-        <v>1.26056</v>
+        <v>1.26108</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.76724</v>
+        <v>1.76468</v>
       </c>
       <c r="C102" t="n">
-        <v>1.13374</v>
+        <v>1.13358</v>
       </c>
       <c r="D102" t="n">
-        <v>1.30736</v>
+        <v>1.30894</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.82292</v>
+        <v>1.82071</v>
       </c>
       <c r="C103" t="n">
-        <v>1.17245</v>
+        <v>1.17116</v>
       </c>
       <c r="D103" t="n">
-        <v>1.35522</v>
+        <v>1.35561</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.88166</v>
+        <v>1.87902</v>
       </c>
       <c r="C104" t="n">
-        <v>1.21256</v>
+        <v>1.21124</v>
       </c>
       <c r="D104" t="n">
-        <v>1.40414</v>
+        <v>1.40448</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.94438</v>
+        <v>1.94094</v>
       </c>
       <c r="C105" t="n">
-        <v>1.25387</v>
+        <v>1.25204</v>
       </c>
       <c r="D105" t="n">
-        <v>1.45538</v>
+        <v>1.4554</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.01099</v>
+        <v>2.00818</v>
       </c>
       <c r="C106" t="n">
-        <v>1.29689</v>
+        <v>1.295</v>
       </c>
       <c r="D106" t="n">
-        <v>1.50817</v>
+        <v>1.50783</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.64871</v>
+        <v>1.65101</v>
       </c>
       <c r="C107" t="n">
-        <v>1.05399</v>
+        <v>1.04962</v>
       </c>
       <c r="D107" t="n">
-        <v>1.27055</v>
+        <v>1.27002</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.68658</v>
+        <v>1.68412</v>
       </c>
       <c r="C108" t="n">
-        <v>1.08012</v>
+        <v>1.08072</v>
       </c>
       <c r="D108" t="n">
-        <v>1.30374</v>
+        <v>1.30185</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.72132</v>
+        <v>1.71676</v>
       </c>
       <c r="C109" t="n">
-        <v>1.10851</v>
+        <v>1.10899</v>
       </c>
       <c r="D109" t="n">
-        <v>1.35064</v>
+        <v>1.35034</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.75955</v>
+        <v>1.75968</v>
       </c>
       <c r="C110" t="n">
-        <v>1.13998</v>
+        <v>1.13395</v>
       </c>
       <c r="D110" t="n">
-        <v>1.39007</v>
+        <v>1.38878</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.79713</v>
+        <v>1.79655</v>
       </c>
       <c r="C111" t="n">
-        <v>1.16989</v>
+        <v>1.16333</v>
       </c>
       <c r="D111" t="n">
-        <v>1.41781</v>
+        <v>1.41666</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.83734</v>
+        <v>1.83312</v>
       </c>
       <c r="C112" t="n">
-        <v>1.19748</v>
+        <v>1.20171</v>
       </c>
       <c r="D112" t="n">
-        <v>1.46291</v>
+        <v>1.46204</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.87936</v>
+        <v>1.87657</v>
       </c>
       <c r="C113" t="n">
-        <v>1.23245</v>
+        <v>1.2303</v>
       </c>
       <c r="D113" t="n">
-        <v>1.50521</v>
+        <v>1.50392</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.92534</v>
+        <v>1.92651</v>
       </c>
       <c r="C114" t="n">
-        <v>1.26588</v>
+        <v>1.25812</v>
       </c>
       <c r="D114" t="n">
-        <v>1.54017</v>
+        <v>1.53897</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.97459</v>
+        <v>1.97303</v>
       </c>
       <c r="C115" t="n">
-        <v>1.3044</v>
+        <v>1.302</v>
       </c>
       <c r="D115" t="n">
-        <v>1.59378</v>
+        <v>1.59406</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.02339</v>
+        <v>2.02106</v>
       </c>
       <c r="C116" t="n">
-        <v>1.33916</v>
+        <v>1.33094</v>
       </c>
       <c r="D116" t="n">
-        <v>1.63811</v>
+        <v>1.6392</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.07824</v>
+        <v>2.07729</v>
       </c>
       <c r="C117" t="n">
-        <v>1.36491</v>
+        <v>1.37563</v>
       </c>
       <c r="D117" t="n">
-        <v>1.68512</v>
+        <v>1.68532</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.1345</v>
+        <v>2.13167</v>
       </c>
       <c r="C118" t="n">
-        <v>1.40588</v>
+        <v>1.41104</v>
       </c>
       <c r="D118" t="n">
-        <v>1.7272</v>
+        <v>1.72427</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.19264</v>
+        <v>2.19039</v>
       </c>
       <c r="C119" t="n">
-        <v>1.45444</v>
+        <v>1.44958</v>
       </c>
       <c r="D119" t="n">
-        <v>1.77561</v>
+        <v>1.77361</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.287201</v>
+        <v>0.284548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223203</v>
+        <v>0.226675</v>
       </c>
       <c r="D2" t="n">
-        <v>0.183009</v>
+        <v>0.182638</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.295658</v>
+        <v>0.298931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.227926</v>
+        <v>0.230686</v>
       </c>
       <c r="D3" t="n">
-        <v>0.185675</v>
+        <v>0.185601</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.301341</v>
+        <v>0.304726</v>
       </c>
       <c r="C4" t="n">
-        <v>0.232974</v>
+        <v>0.23649</v>
       </c>
       <c r="D4" t="n">
-        <v>0.188478</v>
+        <v>0.188911</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.311345</v>
+        <v>0.312871</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238736</v>
+        <v>0.244637</v>
       </c>
       <c r="D5" t="n">
-        <v>0.190717</v>
+        <v>0.191668</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.322528</v>
+        <v>0.326476</v>
       </c>
       <c r="C6" t="n">
-        <v>0.245109</v>
+        <v>0.250397</v>
       </c>
       <c r="D6" t="n">
-        <v>0.192954</v>
+        <v>0.19504</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.331905</v>
+        <v>0.336505</v>
       </c>
       <c r="C7" t="n">
-        <v>0.21052</v>
+        <v>0.207523</v>
       </c>
       <c r="D7" t="n">
-        <v>0.180929</v>
+        <v>0.176625</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.25713</v>
+        <v>0.253869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.212673</v>
+        <v>0.211055</v>
       </c>
       <c r="D8" t="n">
-        <v>0.181854</v>
+        <v>0.178942</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.262754</v>
+        <v>0.261126</v>
       </c>
       <c r="C9" t="n">
-        <v>0.219285</v>
+        <v>0.218844</v>
       </c>
       <c r="D9" t="n">
-        <v>0.184965</v>
+        <v>0.181452</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.269778</v>
+        <v>0.267013</v>
       </c>
       <c r="C10" t="n">
-        <v>0.224558</v>
+        <v>0.223029</v>
       </c>
       <c r="D10" t="n">
-        <v>0.187875</v>
+        <v>0.189389</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.277451</v>
+        <v>0.27654</v>
       </c>
       <c r="C11" t="n">
-        <v>0.228861</v>
+        <v>0.226925</v>
       </c>
       <c r="D11" t="n">
-        <v>0.18998</v>
+        <v>0.187628</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286515</v>
+        <v>0.284621</v>
       </c>
       <c r="C12" t="n">
-        <v>0.235895</v>
+        <v>0.233621</v>
       </c>
       <c r="D12" t="n">
-        <v>0.192942</v>
+        <v>0.191363</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.291268</v>
+        <v>0.299896</v>
       </c>
       <c r="C13" t="n">
-        <v>0.243734</v>
+        <v>0.241527</v>
       </c>
       <c r="D13" t="n">
-        <v>0.197354</v>
+        <v>0.194563</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.305286</v>
+        <v>0.301788</v>
       </c>
       <c r="C14" t="n">
-        <v>0.25075</v>
+        <v>0.24863</v>
       </c>
       <c r="D14" t="n">
-        <v>0.200658</v>
+        <v>0.196973</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.312072</v>
+        <v>0.307996</v>
       </c>
       <c r="C15" t="n">
-        <v>0.257569</v>
+        <v>0.255884</v>
       </c>
       <c r="D15" t="n">
-        <v>0.204895</v>
+        <v>0.201313</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.323238</v>
+        <v>0.318824</v>
       </c>
       <c r="C16" t="n">
-        <v>0.268524</v>
+        <v>0.267618</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209671</v>
+        <v>0.20688</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.334882</v>
+        <v>0.331543</v>
       </c>
       <c r="C17" t="n">
-        <v>0.275861</v>
+        <v>0.274167</v>
       </c>
       <c r="D17" t="n">
-        <v>0.21352</v>
+        <v>0.21096</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.342605</v>
+        <v>0.341281</v>
       </c>
       <c r="C18" t="n">
-        <v>0.283512</v>
+        <v>0.282571</v>
       </c>
       <c r="D18" t="n">
-        <v>0.215247</v>
+        <v>0.216139</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.353034</v>
+        <v>0.352238</v>
       </c>
       <c r="C19" t="n">
-        <v>0.292413</v>
+        <v>0.291255</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219259</v>
+        <v>0.218886</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.366159</v>
+        <v>0.365705</v>
       </c>
       <c r="C20" t="n">
-        <v>0.306258</v>
+        <v>0.304634</v>
       </c>
       <c r="D20" t="n">
-        <v>0.224451</v>
+        <v>0.223557</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.379582</v>
+        <v>0.378231</v>
       </c>
       <c r="C21" t="n">
-        <v>0.246557</v>
+        <v>0.246436</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205376</v>
+        <v>0.204844</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.295322</v>
+        <v>0.295591</v>
       </c>
       <c r="C22" t="n">
-        <v>0.253485</v>
+        <v>0.253872</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208082</v>
+        <v>0.208086</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.302524</v>
+        <v>0.302834</v>
       </c>
       <c r="C23" t="n">
-        <v>0.259296</v>
+        <v>0.260023</v>
       </c>
       <c r="D23" t="n">
-        <v>0.211609</v>
+        <v>0.211368</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.309578</v>
+        <v>0.310254</v>
       </c>
       <c r="C24" t="n">
-        <v>0.264913</v>
+        <v>0.265012</v>
       </c>
       <c r="D24" t="n">
-        <v>0.215363</v>
+        <v>0.214735</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.317214</v>
+        <v>0.317846</v>
       </c>
       <c r="C25" t="n">
-        <v>0.27226</v>
+        <v>0.272586</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218172</v>
+        <v>0.218182</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.325895</v>
+        <v>0.326697</v>
       </c>
       <c r="C26" t="n">
-        <v>0.280073</v>
+        <v>0.280632</v>
       </c>
       <c r="D26" t="n">
-        <v>0.222738</v>
+        <v>0.222787</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.334211</v>
+        <v>0.33297</v>
       </c>
       <c r="C27" t="n">
-        <v>0.284633</v>
+        <v>0.2857</v>
       </c>
       <c r="D27" t="n">
-        <v>0.225208</v>
+        <v>0.225247</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.342187</v>
+        <v>0.343314</v>
       </c>
       <c r="C28" t="n">
-        <v>0.292074</v>
+        <v>0.292565</v>
       </c>
       <c r="D28" t="n">
-        <v>0.229629</v>
+        <v>0.228762</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.351838</v>
+        <v>0.35236</v>
       </c>
       <c r="C29" t="n">
-        <v>0.299623</v>
+        <v>0.299931</v>
       </c>
       <c r="D29" t="n">
-        <v>0.233698</v>
+        <v>0.233848</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.361939</v>
+        <v>0.362879</v>
       </c>
       <c r="C30" t="n">
-        <v>0.308706</v>
+        <v>0.309311</v>
       </c>
       <c r="D30" t="n">
-        <v>0.238154</v>
+        <v>0.23772</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.372681</v>
+        <v>0.37382</v>
       </c>
       <c r="C31" t="n">
-        <v>0.315419</v>
+        <v>0.315886</v>
       </c>
       <c r="D31" t="n">
-        <v>0.242649</v>
+        <v>0.242926</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.38236</v>
+        <v>0.383309</v>
       </c>
       <c r="C32" t="n">
-        <v>0.325816</v>
+        <v>0.326367</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2462</v>
+        <v>0.247413</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.395548</v>
+        <v>0.396221</v>
       </c>
       <c r="C33" t="n">
-        <v>0.334808</v>
+        <v>0.335411</v>
       </c>
       <c r="D33" t="n">
-        <v>0.252606</v>
+        <v>0.252754</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.407327</v>
+        <v>0.408089</v>
       </c>
       <c r="C34" t="n">
-        <v>0.345676</v>
+        <v>0.346082</v>
       </c>
       <c r="D34" t="n">
-        <v>0.257626</v>
+        <v>0.257378</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.420432</v>
+        <v>0.421238</v>
       </c>
       <c r="C35" t="n">
-        <v>0.264553</v>
+        <v>0.265157</v>
       </c>
       <c r="D35" t="n">
-        <v>0.227859</v>
+        <v>0.228668</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.315453</v>
+        <v>0.316348</v>
       </c>
       <c r="C36" t="n">
-        <v>0.272288</v>
+        <v>0.272799</v>
       </c>
       <c r="D36" t="n">
-        <v>0.231285</v>
+        <v>0.232024</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.321965</v>
+        <v>0.322911</v>
       </c>
       <c r="C37" t="n">
-        <v>0.277905</v>
+        <v>0.278614</v>
       </c>
       <c r="D37" t="n">
-        <v>0.234185</v>
+        <v>0.235245</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.330207</v>
+        <v>0.331227</v>
       </c>
       <c r="C38" t="n">
-        <v>0.284856</v>
+        <v>0.285524</v>
       </c>
       <c r="D38" t="n">
-        <v>0.23811</v>
+        <v>0.239041</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.335957</v>
+        <v>0.336949</v>
       </c>
       <c r="C39" t="n">
-        <v>0.291147</v>
+        <v>0.292154</v>
       </c>
       <c r="D39" t="n">
-        <v>0.241926</v>
+        <v>0.242623</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345616</v>
+        <v>0.346714</v>
       </c>
       <c r="C40" t="n">
-        <v>0.297761</v>
+        <v>0.298488</v>
       </c>
       <c r="D40" t="n">
-        <v>0.245867</v>
+        <v>0.246461</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.353507</v>
+        <v>0.35376</v>
       </c>
       <c r="C41" t="n">
-        <v>0.304556</v>
+        <v>0.305194</v>
       </c>
       <c r="D41" t="n">
-        <v>0.24819</v>
+        <v>0.24874</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.361364</v>
+        <v>0.362093</v>
       </c>
       <c r="C42" t="n">
-        <v>0.310042</v>
+        <v>0.310764</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252449</v>
+        <v>0.253227</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.369951</v>
+        <v>0.370862</v>
       </c>
       <c r="C43" t="n">
-        <v>0.318271</v>
+        <v>0.319055</v>
       </c>
       <c r="D43" t="n">
-        <v>0.255837</v>
+        <v>0.25647</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.380068</v>
+        <v>0.380693</v>
       </c>
       <c r="C44" t="n">
-        <v>0.326505</v>
+        <v>0.327241</v>
       </c>
       <c r="D44" t="n">
-        <v>0.260559</v>
+        <v>0.260856</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.391562</v>
+        <v>0.392435</v>
       </c>
       <c r="C45" t="n">
-        <v>0.335472</v>
+        <v>0.336137</v>
       </c>
       <c r="D45" t="n">
-        <v>0.265127</v>
+        <v>0.265718</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.401768</v>
+        <v>0.403004</v>
       </c>
       <c r="C46" t="n">
-        <v>0.344743</v>
+        <v>0.34567</v>
       </c>
       <c r="D46" t="n">
-        <v>0.268941</v>
+        <v>0.269627</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.412084</v>
+        <v>0.413373</v>
       </c>
       <c r="C47" t="n">
-        <v>0.352486</v>
+        <v>0.353605</v>
       </c>
       <c r="D47" t="n">
-        <v>0.274241</v>
+        <v>0.274996</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.423537</v>
+        <v>0.424432</v>
       </c>
       <c r="C48" t="n">
-        <v>0.36333</v>
+        <v>0.364116</v>
       </c>
       <c r="D48" t="n">
-        <v>0.279355</v>
+        <v>0.280059</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.433904</v>
+        <v>0.435071</v>
       </c>
       <c r="C49" t="n">
-        <v>0.374138</v>
+        <v>0.375135</v>
       </c>
       <c r="D49" t="n">
-        <v>0.285548</v>
+        <v>0.286155</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.448396</v>
+        <v>0.44984</v>
       </c>
       <c r="C50" t="n">
-        <v>0.279938</v>
+        <v>0.280324</v>
       </c>
       <c r="D50" t="n">
-        <v>0.23116</v>
+        <v>0.231209</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.333208</v>
+        <v>0.333473</v>
       </c>
       <c r="C51" t="n">
-        <v>0.286462</v>
+        <v>0.286599</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234476</v>
+        <v>0.234484</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340394</v>
+        <v>0.340736</v>
       </c>
       <c r="C52" t="n">
-        <v>0.292631</v>
+        <v>0.292701</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237901</v>
+        <v>0.237881</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346773</v>
+        <v>0.347189</v>
       </c>
       <c r="C53" t="n">
-        <v>0.300021</v>
+        <v>0.300304</v>
       </c>
       <c r="D53" t="n">
-        <v>0.241439</v>
+        <v>0.241525</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.354848</v>
+        <v>0.3554</v>
       </c>
       <c r="C54" t="n">
-        <v>0.306504</v>
+        <v>0.306772</v>
       </c>
       <c r="D54" t="n">
-        <v>0.245026</v>
+        <v>0.245054</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.363941</v>
+        <v>0.364449</v>
       </c>
       <c r="C55" t="n">
-        <v>0.313783</v>
+        <v>0.314034</v>
       </c>
       <c r="D55" t="n">
-        <v>0.249443</v>
+        <v>0.249314</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.373258</v>
+        <v>0.373723</v>
       </c>
       <c r="C56" t="n">
-        <v>0.320355</v>
+        <v>0.320509</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253347</v>
+        <v>0.253415</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.382095</v>
+        <v>0.382422</v>
       </c>
       <c r="C57" t="n">
-        <v>0.328637</v>
+        <v>0.329016</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257642</v>
+        <v>0.257571</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.392066</v>
+        <v>0.392248</v>
       </c>
       <c r="C58" t="n">
-        <v>0.337297</v>
+        <v>0.337631</v>
       </c>
       <c r="D58" t="n">
-        <v>0.263846</v>
+        <v>0.263386</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403831</v>
+        <v>0.404197</v>
       </c>
       <c r="C59" t="n">
-        <v>0.344702</v>
+        <v>0.344986</v>
       </c>
       <c r="D59" t="n">
-        <v>0.266544</v>
+        <v>0.266456</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.413034</v>
+        <v>0.413768</v>
       </c>
       <c r="C60" t="n">
-        <v>0.352917</v>
+        <v>0.353437</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2707</v>
+        <v>0.270847</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.424237</v>
+        <v>0.424965</v>
       </c>
       <c r="C61" t="n">
-        <v>0.363266</v>
+        <v>0.363669</v>
       </c>
       <c r="D61" t="n">
-        <v>0.276508</v>
+        <v>0.276678</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.43491</v>
+        <v>0.435059</v>
       </c>
       <c r="C62" t="n">
-        <v>0.372607</v>
+        <v>0.373163</v>
       </c>
       <c r="D62" t="n">
-        <v>0.280738</v>
+        <v>0.280984</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.446399</v>
+        <v>0.447613</v>
       </c>
       <c r="C63" t="n">
-        <v>0.383587</v>
+        <v>0.384297</v>
       </c>
       <c r="D63" t="n">
-        <v>0.286284</v>
+        <v>0.286671</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.459038</v>
+        <v>0.460232</v>
       </c>
       <c r="C64" t="n">
-        <v>0.300797</v>
+        <v>0.301164</v>
       </c>
       <c r="D64" t="n">
-        <v>0.249156</v>
+        <v>0.24905</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.363984</v>
+        <v>0.364942</v>
       </c>
       <c r="C65" t="n">
-        <v>0.310266</v>
+        <v>0.311921</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24945</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.376177</v>
+        <v>0.378011</v>
       </c>
       <c r="C66" t="n">
-        <v>0.320739</v>
+        <v>0.322123</v>
       </c>
       <c r="D66" t="n">
-        <v>0.254878</v>
+        <v>0.255142</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388001</v>
+        <v>0.389976</v>
       </c>
       <c r="C67" t="n">
-        <v>0.329117</v>
+        <v>0.331642</v>
       </c>
       <c r="D67" t="n">
-        <v>0.260281</v>
+        <v>0.260872</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.400398</v>
+        <v>0.403696</v>
       </c>
       <c r="C68" t="n">
-        <v>0.340036</v>
+        <v>0.342213</v>
       </c>
       <c r="D68" t="n">
-        <v>0.266469</v>
+        <v>0.266956</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.417943</v>
+        <v>0.412603</v>
       </c>
       <c r="C69" t="n">
-        <v>0.35177</v>
+        <v>0.355707</v>
       </c>
       <c r="D69" t="n">
-        <v>0.271826</v>
+        <v>0.273481</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.435788</v>
+        <v>0.427007</v>
       </c>
       <c r="C70" t="n">
-        <v>0.363444</v>
+        <v>0.36812</v>
       </c>
       <c r="D70" t="n">
-        <v>0.278436</v>
+        <v>0.279297</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.452553</v>
+        <v>0.453756</v>
       </c>
       <c r="C71" t="n">
-        <v>0.383369</v>
+        <v>0.383062</v>
       </c>
       <c r="D71" t="n">
-        <v>0.284156</v>
+        <v>0.284818</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.47565</v>
+        <v>0.475434</v>
       </c>
       <c r="C72" t="n">
-        <v>0.402298</v>
+        <v>0.399452</v>
       </c>
       <c r="D72" t="n">
-        <v>0.292591</v>
+        <v>0.292728</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.503982</v>
+        <v>0.500192</v>
       </c>
       <c r="C73" t="n">
-        <v>0.422314</v>
+        <v>0.420234</v>
       </c>
       <c r="D73" t="n">
-        <v>0.302681</v>
+        <v>0.301699</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.531184</v>
+        <v>0.527601</v>
       </c>
       <c r="C74" t="n">
-        <v>0.445299</v>
+        <v>0.441109</v>
       </c>
       <c r="D74" t="n">
-        <v>0.31215</v>
+        <v>0.31014</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.56142</v>
+        <v>0.554213</v>
       </c>
       <c r="C75" t="n">
-        <v>0.467976</v>
+        <v>0.461706</v>
       </c>
       <c r="D75" t="n">
-        <v>0.323258</v>
+        <v>0.320646</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.593462</v>
+        <v>0.584772</v>
       </c>
       <c r="C76" t="n">
-        <v>0.495155</v>
+        <v>0.491245</v>
       </c>
       <c r="D76" t="n">
-        <v>0.330101</v>
+        <v>0.327915</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.63444</v>
+        <v>0.62829</v>
       </c>
       <c r="C77" t="n">
-        <v>0.526049</v>
+        <v>0.523072</v>
       </c>
       <c r="D77" t="n">
-        <v>0.345947</v>
+        <v>0.341895</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.676702</v>
+        <v>0.677154</v>
       </c>
       <c r="C78" t="n">
-        <v>0.469714</v>
+        <v>0.463662</v>
       </c>
       <c r="D78" t="n">
-        <v>0.312517</v>
+        <v>0.31731</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6295190000000001</v>
+        <v>0.626715</v>
       </c>
       <c r="C79" t="n">
-        <v>0.495133</v>
+        <v>0.494591</v>
       </c>
       <c r="D79" t="n">
-        <v>0.322425</v>
+        <v>0.329038</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6664870000000001</v>
+        <v>0.667621</v>
       </c>
       <c r="C80" t="n">
-        <v>0.524967</v>
+        <v>0.52618</v>
       </c>
       <c r="D80" t="n">
-        <v>0.336226</v>
+        <v>0.339037</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.710972</v>
+        <v>0.714021</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5641620000000001</v>
+        <v>0.563738</v>
       </c>
       <c r="D81" t="n">
-        <v>0.351292</v>
+        <v>0.357297</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.762266</v>
+        <v>0.763599</v>
       </c>
       <c r="C82" t="n">
-        <v>0.599017</v>
+        <v>0.602089</v>
       </c>
       <c r="D82" t="n">
-        <v>0.377547</v>
+        <v>0.381425</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.81004</v>
+        <v>0.81535</v>
       </c>
       <c r="C83" t="n">
-        <v>0.642859</v>
+        <v>0.645095</v>
       </c>
       <c r="D83" t="n">
-        <v>0.39656</v>
+        <v>0.400567</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8655</v>
+        <v>0.870968</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6876139999999999</v>
+        <v>0.690484</v>
       </c>
       <c r="D84" t="n">
-        <v>0.41836</v>
+        <v>0.421963</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.924152</v>
+        <v>0.929356</v>
       </c>
       <c r="C85" t="n">
-        <v>0.734396</v>
+        <v>0.736112</v>
       </c>
       <c r="D85" t="n">
-        <v>0.437919</v>
+        <v>0.440271</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.984583</v>
+        <v>0.988919</v>
       </c>
       <c r="C86" t="n">
-        <v>0.782125</v>
+        <v>0.78276</v>
       </c>
       <c r="D86" t="n">
-        <v>0.465618</v>
+        <v>0.466914</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.04829</v>
+        <v>1.05159</v>
       </c>
       <c r="C87" t="n">
-        <v>0.83522</v>
+        <v>0.838706</v>
       </c>
       <c r="D87" t="n">
-        <v>0.493029</v>
+        <v>0.492969</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.11768</v>
+        <v>1.11764</v>
       </c>
       <c r="C88" t="n">
-        <v>0.892831</v>
+        <v>0.893923</v>
       </c>
       <c r="D88" t="n">
-        <v>0.528102</v>
+        <v>0.528421</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.18789</v>
+        <v>1.19219</v>
       </c>
       <c r="C89" t="n">
-        <v>0.94991</v>
+        <v>0.953379</v>
       </c>
       <c r="D89" t="n">
-        <v>0.552915</v>
+        <v>0.553983</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.2601</v>
+        <v>1.26444</v>
       </c>
       <c r="C90" t="n">
-        <v>1.00604</v>
+        <v>1.00939</v>
       </c>
       <c r="D90" t="n">
-        <v>0.581263</v>
+        <v>0.578775</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.34029</v>
+        <v>1.34457</v>
       </c>
       <c r="C91" t="n">
-        <v>1.06855</v>
+        <v>1.07357</v>
       </c>
       <c r="D91" t="n">
-        <v>0.619779</v>
+        <v>0.619389</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.42068</v>
+        <v>1.42885</v>
       </c>
       <c r="C92" t="n">
-        <v>0.89881</v>
+        <v>0.902166</v>
       </c>
       <c r="D92" t="n">
-        <v>0.617766</v>
+        <v>0.623144</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.14833</v>
+        <v>1.15304</v>
       </c>
       <c r="C93" t="n">
-        <v>0.934579</v>
+        <v>0.93828</v>
       </c>
       <c r="D93" t="n">
-        <v>0.645541</v>
+        <v>0.651356</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.19359</v>
+        <v>1.19761</v>
       </c>
       <c r="C94" t="n">
-        <v>0.972843</v>
+        <v>0.977553</v>
       </c>
       <c r="D94" t="n">
-        <v>0.668392</v>
+        <v>0.674489</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.23814</v>
+        <v>1.24569</v>
       </c>
       <c r="C95" t="n">
-        <v>1.01012</v>
+        <v>1.01401</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6903049999999999</v>
+        <v>0.696147</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.29077</v>
+        <v>1.29974</v>
       </c>
       <c r="C96" t="n">
-        <v>1.05303</v>
+        <v>1.05846</v>
       </c>
       <c r="D96" t="n">
-        <v>0.713033</v>
+        <v>0.719977</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.34722</v>
+        <v>1.35203</v>
       </c>
       <c r="C97" t="n">
-        <v>1.09428</v>
+        <v>1.09988</v>
       </c>
       <c r="D97" t="n">
-        <v>0.740848</v>
+        <v>0.744438</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.40071</v>
+        <v>1.41029</v>
       </c>
       <c r="C98" t="n">
-        <v>1.14158</v>
+        <v>1.1469</v>
       </c>
       <c r="D98" t="n">
-        <v>0.765042</v>
+        <v>0.770833</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.46067</v>
+        <v>1.46387</v>
       </c>
       <c r="C99" t="n">
-        <v>1.18705</v>
+        <v>1.19352</v>
       </c>
       <c r="D99" t="n">
-        <v>0.79253</v>
+        <v>0.798457</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.51351</v>
+        <v>1.52686</v>
       </c>
       <c r="C100" t="n">
-        <v>1.23712</v>
+        <v>1.24311</v>
       </c>
       <c r="D100" t="n">
-        <v>0.822126</v>
+        <v>0.830093</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.57567</v>
+        <v>1.583</v>
       </c>
       <c r="C101" t="n">
-        <v>1.28598</v>
+        <v>1.29359</v>
       </c>
       <c r="D101" t="n">
-        <v>0.855009</v>
+        <v>0.862128</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.63866</v>
+        <v>1.64833</v>
       </c>
       <c r="C102" t="n">
-        <v>1.33845</v>
+        <v>1.34605</v>
       </c>
       <c r="D102" t="n">
-        <v>0.886121</v>
+        <v>0.88993</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.6851</v>
+        <v>1.6886</v>
       </c>
       <c r="C103" t="n">
-        <v>1.38834</v>
+        <v>1.39991</v>
       </c>
       <c r="D103" t="n">
-        <v>0.915242</v>
+        <v>0.92137</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.7544</v>
+        <v>1.73794</v>
       </c>
       <c r="C104" t="n">
-        <v>1.44784</v>
+        <v>1.45698</v>
       </c>
       <c r="D104" t="n">
-        <v>0.949668</v>
+        <v>0.956101</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.80084</v>
+        <v>1.81083</v>
       </c>
       <c r="C105" t="n">
-        <v>1.50637</v>
+        <v>1.51217</v>
       </c>
       <c r="D105" t="n">
-        <v>0.993223</v>
+        <v>0.995375</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.86942</v>
+        <v>1.88807</v>
       </c>
       <c r="C106" t="n">
-        <v>1.53219</v>
+        <v>1.56845</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02686</v>
+        <v>1.02735</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.37059</v>
+        <v>1.38439</v>
       </c>
       <c r="C107" t="n">
-        <v>1.16872</v>
+        <v>1.20004</v>
       </c>
       <c r="D107" t="n">
-        <v>0.939202</v>
+        <v>0.943016</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.41208</v>
+        <v>1.42422</v>
       </c>
       <c r="C108" t="n">
-        <v>1.19247</v>
+        <v>1.20746</v>
       </c>
       <c r="D108" t="n">
-        <v>0.956627</v>
+        <v>0.961182</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.45717</v>
+        <v>1.47198</v>
       </c>
       <c r="C109" t="n">
-        <v>1.22037</v>
+        <v>1.24145</v>
       </c>
       <c r="D109" t="n">
-        <v>0.979403</v>
+        <v>0.984576</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.5066</v>
+        <v>1.52055</v>
       </c>
       <c r="C110" t="n">
-        <v>1.29408</v>
+        <v>1.26809</v>
       </c>
       <c r="D110" t="n">
-        <v>1.00295</v>
+        <v>1.00854</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.55497</v>
+        <v>1.56967</v>
       </c>
       <c r="C111" t="n">
-        <v>1.29664</v>
+        <v>1.31114</v>
       </c>
       <c r="D111" t="n">
-        <v>1.03214</v>
+        <v>1.0375</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.60659</v>
+        <v>1.62248</v>
       </c>
       <c r="C112" t="n">
-        <v>1.33953</v>
+        <v>1.35023</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05377</v>
+        <v>1.05717</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.66222</v>
+        <v>1.67851</v>
       </c>
       <c r="C113" t="n">
-        <v>1.38135</v>
+        <v>1.39329</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08213</v>
+        <v>1.09015</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.72008</v>
+        <v>1.73866</v>
       </c>
       <c r="C114" t="n">
-        <v>1.42411</v>
+        <v>1.43791</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10798</v>
+        <v>1.11662</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.77996</v>
+        <v>1.79708</v>
       </c>
       <c r="C115" t="n">
-        <v>1.47215</v>
+        <v>1.48575</v>
       </c>
       <c r="D115" t="n">
-        <v>1.13587</v>
+        <v>1.14229</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.84429</v>
+        <v>1.86343</v>
       </c>
       <c r="C116" t="n">
-        <v>1.52196</v>
+        <v>1.53616</v>
       </c>
       <c r="D116" t="n">
-        <v>1.16698</v>
+        <v>1.17483</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.91113</v>
+        <v>1.93141</v>
       </c>
       <c r="C117" t="n">
-        <v>1.5758</v>
+        <v>1.591</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1999</v>
+        <v>1.20695</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.97995</v>
+        <v>2.00078</v>
       </c>
       <c r="C118" t="n">
-        <v>1.63286</v>
+        <v>1.64831</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23022</v>
+        <v>1.23719</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.0535</v>
+        <v>2.07474</v>
       </c>
       <c r="C119" t="n">
-        <v>1.68909</v>
+        <v>1.70468</v>
       </c>
       <c r="D119" t="n">
-        <v>1.26265</v>
+        <v>1.27051</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.641788</v>
+        <v>0.6447889999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.494928</v>
+        <v>0.491334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.312028</v>
+        <v>0.310403</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.664429</v>
+        <v>0.666484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.509117</v>
+        <v>0.511812</v>
       </c>
       <c r="D3" t="n">
-        <v>0.322991</v>
+        <v>0.325639</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.695207</v>
+        <v>0.702292</v>
       </c>
       <c r="C4" t="n">
-        <v>0.538469</v>
+        <v>0.548038</v>
       </c>
       <c r="D4" t="n">
-        <v>0.333653</v>
+        <v>0.334582</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.725947</v>
+        <v>0.727328</v>
       </c>
       <c r="C5" t="n">
-        <v>0.570482</v>
+        <v>0.574515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.345271</v>
+        <v>0.347427</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.749236</v>
+        <v>0.753775</v>
       </c>
       <c r="C6" t="n">
-        <v>0.590344</v>
+        <v>0.599907</v>
       </c>
       <c r="D6" t="n">
-        <v>0.357785</v>
+        <v>0.361996</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.783953</v>
+        <v>0.792982</v>
       </c>
       <c r="C7" t="n">
-        <v>0.612654</v>
+        <v>0.6292410000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.365034</v>
+        <v>0.368438</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.809299</v>
+        <v>0.818215</v>
       </c>
       <c r="C8" t="n">
-        <v>0.634953</v>
+        <v>0.650182</v>
       </c>
       <c r="D8" t="n">
-        <v>0.369815</v>
+        <v>0.371442</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.848191</v>
+        <v>0.858701</v>
       </c>
       <c r="C9" t="n">
-        <v>0.659764</v>
+        <v>0.673983</v>
       </c>
       <c r="D9" t="n">
-        <v>0.381505</v>
+        <v>0.385832</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.878857</v>
+        <v>0.89558</v>
       </c>
       <c r="C10" t="n">
-        <v>0.69156</v>
+        <v>0.7149720000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.396911</v>
+        <v>0.405692</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.914238</v>
+        <v>0.927876</v>
       </c>
       <c r="C11" t="n">
-        <v>0.462375</v>
+        <v>0.483016</v>
       </c>
       <c r="D11" t="n">
-        <v>0.29476</v>
+        <v>0.293569</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.598753</v>
+        <v>0.604394</v>
       </c>
       <c r="C12" t="n">
-        <v>0.487603</v>
+        <v>0.495961</v>
       </c>
       <c r="D12" t="n">
-        <v>0.304779</v>
+        <v>0.305619</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.615912</v>
+        <v>0.629935</v>
       </c>
       <c r="C13" t="n">
-        <v>0.510338</v>
+        <v>0.5230939999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.31398</v>
+        <v>0.317518</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.64534</v>
+        <v>0.656644</v>
       </c>
       <c r="C14" t="n">
-        <v>0.535977</v>
+        <v>0.5441240000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.323321</v>
+        <v>0.327701</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.676338</v>
+        <v>0.680192</v>
       </c>
       <c r="C15" t="n">
-        <v>0.568658</v>
+        <v>0.580236</v>
       </c>
       <c r="D15" t="n">
-        <v>0.339369</v>
+        <v>0.340068</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.709943</v>
+        <v>0.7170339999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.596733</v>
+        <v>0.5970569999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.352812</v>
+        <v>0.354979</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.747456</v>
+        <v>0.7525849999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.629667</v>
+        <v>0.636724</v>
       </c>
       <c r="D17" t="n">
-        <v>0.367191</v>
+        <v>0.367608</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.783767</v>
+        <v>0.789663</v>
       </c>
       <c r="C18" t="n">
-        <v>0.662177</v>
+        <v>0.663409</v>
       </c>
       <c r="D18" t="n">
-        <v>0.375017</v>
+        <v>0.379856</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8203279999999999</v>
+        <v>0.820306</v>
       </c>
       <c r="C19" t="n">
-        <v>0.699218</v>
+        <v>0.700084</v>
       </c>
       <c r="D19" t="n">
-        <v>0.389496</v>
+        <v>0.392071</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.864259</v>
+        <v>0.8644500000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.733185</v>
+        <v>0.733649</v>
       </c>
       <c r="D20" t="n">
-        <v>0.402233</v>
+        <v>0.403877</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9058079999999999</v>
+        <v>0.902935</v>
       </c>
       <c r="C21" t="n">
-        <v>0.770721</v>
+        <v>0.77189</v>
       </c>
       <c r="D21" t="n">
-        <v>0.41864</v>
+        <v>0.418212</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9487449999999999</v>
+        <v>0.948498</v>
       </c>
       <c r="C22" t="n">
-        <v>0.807739</v>
+        <v>0.804899</v>
       </c>
       <c r="D22" t="n">
-        <v>0.436617</v>
+        <v>0.436326</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.989833</v>
+        <v>0.989021</v>
       </c>
       <c r="C23" t="n">
-        <v>0.850548</v>
+        <v>0.849599</v>
       </c>
       <c r="D23" t="n">
-        <v>0.444908</v>
+        <v>0.446234</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.03565</v>
+        <v>1.03917</v>
       </c>
       <c r="C24" t="n">
-        <v>0.887173</v>
+        <v>0.889669</v>
       </c>
       <c r="D24" t="n">
-        <v>0.464878</v>
+        <v>0.463081</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.08457</v>
+        <v>1.08642</v>
       </c>
       <c r="C25" t="n">
-        <v>0.929746</v>
+        <v>0.9287570000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.479228</v>
+        <v>0.478469</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.12399</v>
+        <v>1.12534</v>
       </c>
       <c r="C26" t="n">
-        <v>0.601393</v>
+        <v>0.600927</v>
       </c>
       <c r="D26" t="n">
-        <v>0.343279</v>
+        <v>0.343768</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.734534</v>
+        <v>0.7346780000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.626787</v>
+        <v>0.627393</v>
       </c>
       <c r="D27" t="n">
-        <v>0.358112</v>
+        <v>0.358447</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.77107</v>
+        <v>0.770909</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6603250000000001</v>
+        <v>0.660068</v>
       </c>
       <c r="D28" t="n">
-        <v>0.372687</v>
+        <v>0.374887</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.806381</v>
+        <v>0.804994</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6955</v>
+        <v>0.694032</v>
       </c>
       <c r="D29" t="n">
-        <v>0.386731</v>
+        <v>0.386545</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.843009</v>
+        <v>0.841023</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7297129999999999</v>
+        <v>0.728196</v>
       </c>
       <c r="D30" t="n">
-        <v>0.402624</v>
+        <v>0.404452</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.878915</v>
+        <v>0.879039</v>
       </c>
       <c r="C31" t="n">
-        <v>0.764514</v>
+        <v>0.763843</v>
       </c>
       <c r="D31" t="n">
-        <v>0.414906</v>
+        <v>0.415899</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.917639</v>
+        <v>0.917719</v>
       </c>
       <c r="C32" t="n">
-        <v>0.801265</v>
+        <v>0.800238</v>
       </c>
       <c r="D32" t="n">
-        <v>0.430108</v>
+        <v>0.432117</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9619450000000001</v>
+        <v>0.9610880000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.836059</v>
+        <v>0.83621</v>
       </c>
       <c r="D33" t="n">
-        <v>0.447551</v>
+        <v>0.446828</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.00136</v>
+        <v>1.00241</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8717279999999999</v>
+        <v>0.871483</v>
       </c>
       <c r="D34" t="n">
-        <v>0.458339</v>
+        <v>0.457147</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.05006</v>
+        <v>1.05084</v>
       </c>
       <c r="C35" t="n">
-        <v>0.908612</v>
+        <v>0.908004</v>
       </c>
       <c r="D35" t="n">
-        <v>0.46826</v>
+        <v>0.467605</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.0894</v>
+        <v>1.09045</v>
       </c>
       <c r="C36" t="n">
-        <v>0.946241</v>
+        <v>0.945314</v>
       </c>
       <c r="D36" t="n">
-        <v>0.490835</v>
+        <v>0.491702</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.13674</v>
+        <v>1.13738</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9852300000000001</v>
+        <v>0.984554</v>
       </c>
       <c r="D37" t="n">
-        <v>0.50202</v>
+        <v>0.502767</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.18095</v>
+        <v>1.18033</v>
       </c>
       <c r="C38" t="n">
-        <v>1.02712</v>
+        <v>1.02792</v>
       </c>
       <c r="D38" t="n">
-        <v>0.521842</v>
+        <v>0.519957</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.23136</v>
+        <v>1.2327</v>
       </c>
       <c r="C39" t="n">
-        <v>1.06485</v>
+        <v>1.06388</v>
       </c>
       <c r="D39" t="n">
-        <v>0.536836</v>
+        <v>0.539156</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.27716</v>
+        <v>1.27818</v>
       </c>
       <c r="C40" t="n">
-        <v>0.663691</v>
+        <v>0.6622479999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.40076</v>
+        <v>0.399755</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.806691</v>
+        <v>0.8075909999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.688885</v>
+        <v>0.687447</v>
       </c>
       <c r="D41" t="n">
-        <v>0.412573</v>
+        <v>0.411835</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.842002</v>
+        <v>0.842556</v>
       </c>
       <c r="C42" t="n">
-        <v>0.717992</v>
+        <v>0.717482</v>
       </c>
       <c r="D42" t="n">
-        <v>0.425787</v>
+        <v>0.42459</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.873559</v>
+        <v>0.872543</v>
       </c>
       <c r="C43" t="n">
-        <v>0.751386</v>
+        <v>0.750629</v>
       </c>
       <c r="D43" t="n">
-        <v>0.438986</v>
+        <v>0.438489</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.915059</v>
+        <v>0.915591</v>
       </c>
       <c r="C44" t="n">
-        <v>0.783921</v>
+        <v>0.7817269999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.45231</v>
+        <v>0.453106</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.950545</v>
+        <v>0.949523</v>
       </c>
       <c r="C45" t="n">
-        <v>0.818998</v>
+        <v>0.818452</v>
       </c>
       <c r="D45" t="n">
-        <v>0.472562</v>
+        <v>0.471747</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.995351</v>
+        <v>0.99368</v>
       </c>
       <c r="C46" t="n">
-        <v>0.854071</v>
+        <v>0.852443</v>
       </c>
       <c r="D46" t="n">
-        <v>0.489984</v>
+        <v>0.489606</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.03918</v>
+        <v>1.03781</v>
       </c>
       <c r="C47" t="n">
-        <v>0.891119</v>
+        <v>0.890452</v>
       </c>
       <c r="D47" t="n">
-        <v>0.503922</v>
+        <v>0.505118</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.08267</v>
+        <v>1.08175</v>
       </c>
       <c r="C48" t="n">
-        <v>0.92958</v>
+        <v>0.92761</v>
       </c>
       <c r="D48" t="n">
-        <v>0.519254</v>
+        <v>0.51872</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.12193</v>
+        <v>1.12253</v>
       </c>
       <c r="C49" t="n">
-        <v>0.970792</v>
+        <v>0.968937</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5362440000000001</v>
+        <v>0.535744</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.17222</v>
+        <v>1.17102</v>
       </c>
       <c r="C50" t="n">
-        <v>1.0101</v>
+        <v>1.00855</v>
       </c>
       <c r="D50" t="n">
-        <v>0.55193</v>
+        <v>0.552629</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.21917</v>
+        <v>1.21785</v>
       </c>
       <c r="C51" t="n">
-        <v>1.04712</v>
+        <v>1.04699</v>
       </c>
       <c r="D51" t="n">
-        <v>0.567142</v>
+        <v>0.5680539999999999</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.26162</v>
+        <v>1.26018</v>
       </c>
       <c r="C52" t="n">
-        <v>1.08964</v>
+        <v>1.08953</v>
       </c>
       <c r="D52" t="n">
-        <v>0.584673</v>
+        <v>0.584856</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.3116</v>
+        <v>1.30847</v>
       </c>
       <c r="C53" t="n">
-        <v>1.13105</v>
+        <v>1.12921</v>
       </c>
       <c r="D53" t="n">
-        <v>0.597807</v>
+        <v>0.597104</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.35535</v>
+        <v>1.35647</v>
       </c>
       <c r="C54" t="n">
-        <v>0.694315</v>
+        <v>0.693535</v>
       </c>
       <c r="D54" t="n">
-        <v>0.42944</v>
+        <v>0.429499</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.838399</v>
+        <v>0.838033</v>
       </c>
       <c r="C55" t="n">
-        <v>0.72083</v>
+        <v>0.7194</v>
       </c>
       <c r="D55" t="n">
-        <v>0.444417</v>
+        <v>0.444568</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.872178</v>
+        <v>0.871736</v>
       </c>
       <c r="C56" t="n">
-        <v>0.749966</v>
+        <v>0.749387</v>
       </c>
       <c r="D56" t="n">
-        <v>0.456654</v>
+        <v>0.457139</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.909375</v>
+        <v>0.9091900000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7796650000000001</v>
+        <v>0.778446</v>
       </c>
       <c r="D57" t="n">
-        <v>0.473723</v>
+        <v>0.474004</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9444979999999999</v>
+        <v>0.943041</v>
       </c>
       <c r="C58" t="n">
-        <v>0.814476</v>
+        <v>0.813648</v>
       </c>
       <c r="D58" t="n">
-        <v>0.486028</v>
+        <v>0.486148</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.983807</v>
+        <v>0.984147</v>
       </c>
       <c r="C59" t="n">
-        <v>0.851729</v>
+        <v>0.848785</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5029940000000001</v>
+        <v>0.503301</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.02363</v>
+        <v>1.02284</v>
       </c>
       <c r="C60" t="n">
-        <v>0.885667</v>
+        <v>0.884699</v>
       </c>
       <c r="D60" t="n">
-        <v>0.521674</v>
+        <v>0.521209</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.06238</v>
+        <v>1.06305</v>
       </c>
       <c r="C61" t="n">
-        <v>0.92435</v>
+        <v>0.923432</v>
       </c>
       <c r="D61" t="n">
-        <v>0.535917</v>
+        <v>0.536066</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.10715</v>
+        <v>1.10423</v>
       </c>
       <c r="C62" t="n">
-        <v>0.964068</v>
+        <v>0.962484</v>
       </c>
       <c r="D62" t="n">
-        <v>0.553661</v>
+        <v>0.553747</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15154</v>
+        <v>1.14969</v>
       </c>
       <c r="C63" t="n">
-        <v>0.999298</v>
+        <v>0.998637</v>
       </c>
       <c r="D63" t="n">
-        <v>0.569727</v>
+        <v>0.569582</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.20069</v>
+        <v>1.20038</v>
       </c>
       <c r="C64" t="n">
-        <v>1.04142</v>
+        <v>1.04021</v>
       </c>
       <c r="D64" t="n">
-        <v>0.584965</v>
+        <v>0.584101</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.24654</v>
+        <v>1.24548</v>
       </c>
       <c r="C65" t="n">
-        <v>1.07947</v>
+        <v>1.07884</v>
       </c>
       <c r="D65" t="n">
-        <v>0.60228</v>
+        <v>0.601849</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.29203</v>
+        <v>1.29103</v>
       </c>
       <c r="C66" t="n">
-        <v>1.12266</v>
+        <v>1.12271</v>
       </c>
       <c r="D66" t="n">
-        <v>0.622131</v>
+        <v>0.621268</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.34046</v>
+        <v>1.34356</v>
       </c>
       <c r="C67" t="n">
-        <v>1.16531</v>
+        <v>1.16593</v>
       </c>
       <c r="D67" t="n">
-        <v>0.634095</v>
+        <v>0.634446</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.38554</v>
+        <v>1.38969</v>
       </c>
       <c r="C68" t="n">
-        <v>0.719105</v>
+        <v>0.718121</v>
       </c>
       <c r="D68" t="n">
-        <v>0.45668</v>
+        <v>0.456529</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.88859</v>
+        <v>0.890923</v>
       </c>
       <c r="C69" t="n">
-        <v>0.759773</v>
+        <v>0.764577</v>
       </c>
       <c r="D69" t="n">
-        <v>0.472264</v>
+        <v>0.472225</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.940786</v>
+        <v>0.948417</v>
       </c>
       <c r="C70" t="n">
-        <v>0.806101</v>
+        <v>0.811405</v>
       </c>
       <c r="D70" t="n">
-        <v>0.491361</v>
+        <v>0.491846</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.00013</v>
+        <v>1.00253</v>
       </c>
       <c r="C71" t="n">
-        <v>0.852432</v>
+        <v>0.859405</v>
       </c>
       <c r="D71" t="n">
-        <v>0.514447</v>
+        <v>0.515176</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.04985</v>
+        <v>1.0592</v>
       </c>
       <c r="C72" t="n">
-        <v>0.897831</v>
+        <v>0.906428</v>
       </c>
       <c r="D72" t="n">
-        <v>0.537532</v>
+        <v>0.538349</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.11135</v>
+        <v>1.14032</v>
       </c>
       <c r="C73" t="n">
-        <v>0.956402</v>
+        <v>0.981642</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5555870000000001</v>
+        <v>0.561913</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.18552</v>
+        <v>1.22628</v>
       </c>
       <c r="C74" t="n">
-        <v>1.0175</v>
+        <v>1.05239</v>
       </c>
       <c r="D74" t="n">
-        <v>0.577323</v>
+        <v>0.582494</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.26069</v>
+        <v>1.30397</v>
       </c>
       <c r="C75" t="n">
-        <v>1.08213</v>
+        <v>1.11936</v>
       </c>
       <c r="D75" t="n">
-        <v>0.600061</v>
+        <v>0.6093730000000001</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.34482</v>
+        <v>1.39983</v>
       </c>
       <c r="C76" t="n">
-        <v>1.15121</v>
+        <v>1.19578</v>
       </c>
       <c r="D76" t="n">
-        <v>0.630336</v>
+        <v>0.640854</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.44796</v>
+        <v>1.51245</v>
       </c>
       <c r="C77" t="n">
-        <v>1.23701</v>
+        <v>1.29379</v>
       </c>
       <c r="D77" t="n">
-        <v>0.658461</v>
+        <v>0.671645</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.54388</v>
+        <v>1.63692</v>
       </c>
       <c r="C78" t="n">
-        <v>1.32479</v>
+        <v>1.40286</v>
       </c>
       <c r="D78" t="n">
-        <v>0.681596</v>
+        <v>0.700354</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.67668</v>
+        <v>1.77849</v>
       </c>
       <c r="C79" t="n">
-        <v>1.43907</v>
+        <v>1.52521</v>
       </c>
       <c r="D79" t="n">
-        <v>0.720276</v>
+        <v>0.74409</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.8465</v>
+        <v>1.942</v>
       </c>
       <c r="C80" t="n">
-        <v>1.58295</v>
+        <v>1.66097</v>
       </c>
       <c r="D80" t="n">
-        <v>0.758798</v>
+        <v>0.782566</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.0254</v>
+        <v>2.13293</v>
       </c>
       <c r="C81" t="n">
-        <v>1.74457</v>
+        <v>1.83477</v>
       </c>
       <c r="D81" t="n">
-        <v>0.797358</v>
+        <v>0.834246</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.3416</v>
+        <v>2.33695</v>
       </c>
       <c r="C82" t="n">
-        <v>1.994</v>
+        <v>1.99536</v>
       </c>
       <c r="D82" t="n">
-        <v>0.882865</v>
+        <v>0.909792</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.57144</v>
+        <v>2.57377</v>
       </c>
       <c r="C83" t="n">
-        <v>1.32942</v>
+        <v>1.29791</v>
       </c>
       <c r="D83" t="n">
-        <v>0.647253</v>
+        <v>0.650618</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.7689</v>
+        <v>1.70775</v>
       </c>
       <c r="C84" t="n">
-        <v>1.47141</v>
+        <v>1.42786</v>
       </c>
       <c r="D84" t="n">
-        <v>0.70518</v>
+        <v>0.696156</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.94696</v>
+        <v>1.8899</v>
       </c>
       <c r="C85" t="n">
-        <v>1.63497</v>
+        <v>1.57682</v>
       </c>
       <c r="D85" t="n">
-        <v>0.758323</v>
+        <v>0.7531600000000001</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.15986</v>
+        <v>2.07581</v>
       </c>
       <c r="C86" t="n">
-        <v>1.8034</v>
+        <v>1.73287</v>
       </c>
       <c r="D86" t="n">
-        <v>0.810215</v>
+        <v>0.797372</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.39054</v>
+        <v>2.28375</v>
       </c>
       <c r="C87" t="n">
-        <v>1.99749</v>
+        <v>1.90079</v>
       </c>
       <c r="D87" t="n">
-        <v>0.87208</v>
+        <v>0.856393</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.65952</v>
+        <v>2.50723</v>
       </c>
       <c r="C88" t="n">
-        <v>2.21977</v>
+        <v>2.09171</v>
       </c>
       <c r="D88" t="n">
-        <v>0.961429</v>
+        <v>0.926964</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.93283</v>
+        <v>2.73135</v>
       </c>
       <c r="C89" t="n">
-        <v>2.45552</v>
+        <v>2.29017</v>
       </c>
       <c r="D89" t="n">
-        <v>1.05276</v>
+        <v>1.00517</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>3.22894</v>
+        <v>2.99696</v>
       </c>
       <c r="C90" t="n">
-        <v>2.70221</v>
+        <v>2.50861</v>
       </c>
       <c r="D90" t="n">
-        <v>1.15093</v>
+        <v>1.10044</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.53849</v>
+        <v>3.27835</v>
       </c>
       <c r="C91" t="n">
-        <v>2.96336</v>
+        <v>2.7447</v>
       </c>
       <c r="D91" t="n">
-        <v>1.26522</v>
+        <v>1.19617</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.88317</v>
+        <v>3.58232</v>
       </c>
       <c r="C92" t="n">
-        <v>3.24723</v>
+        <v>3.00431</v>
       </c>
       <c r="D92" t="n">
-        <v>1.36183</v>
+        <v>1.27993</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>4.21276</v>
+        <v>3.88963</v>
       </c>
       <c r="C93" t="n">
-        <v>3.53102</v>
+        <v>3.25894</v>
       </c>
       <c r="D93" t="n">
-        <v>1.46535</v>
+        <v>1.37283</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.57704</v>
+        <v>4.20946</v>
       </c>
       <c r="C94" t="n">
-        <v>3.83922</v>
+        <v>3.53873</v>
       </c>
       <c r="D94" t="n">
-        <v>1.54538</v>
+        <v>1.44348</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.95732</v>
+        <v>4.55424</v>
       </c>
       <c r="C95" t="n">
-        <v>4.16319</v>
+        <v>3.83387</v>
       </c>
       <c r="D95" t="n">
-        <v>1.6916</v>
+        <v>1.57941</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>5.34327</v>
+        <v>4.91246</v>
       </c>
       <c r="C96" t="n">
-        <v>4.47564</v>
+        <v>4.14312</v>
       </c>
       <c r="D96" t="n">
-        <v>1.81714</v>
+        <v>1.69403</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.69828</v>
+        <v>5.29217</v>
       </c>
       <c r="C97" t="n">
-        <v>2.70223</v>
+        <v>2.48947</v>
       </c>
       <c r="D97" t="n">
-        <v>1.26972</v>
+        <v>1.18106</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.4759</v>
+        <v>3.24552</v>
       </c>
       <c r="C98" t="n">
-        <v>2.83137</v>
+        <v>2.667</v>
       </c>
       <c r="D98" t="n">
-        <v>1.33649</v>
+        <v>1.24311</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.68866</v>
+        <v>3.4806</v>
       </c>
       <c r="C99" t="n">
-        <v>3.01579</v>
+        <v>2.84853</v>
       </c>
       <c r="D99" t="n">
-        <v>1.44589</v>
+        <v>1.34465</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.93034</v>
+        <v>3.69514</v>
       </c>
       <c r="C100" t="n">
-        <v>3.21834</v>
+        <v>3.03326</v>
       </c>
       <c r="D100" t="n">
-        <v>1.52245</v>
+        <v>1.41315</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.20432</v>
+        <v>3.94658</v>
       </c>
       <c r="C101" t="n">
-        <v>3.4389</v>
+        <v>3.23159</v>
       </c>
       <c r="D101" t="n">
-        <v>1.61528</v>
+        <v>1.49452</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.48256</v>
+        <v>4.0932</v>
       </c>
       <c r="C102" t="n">
-        <v>3.67136</v>
+        <v>3.35652</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71509</v>
+        <v>1.58379</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.77587</v>
+        <v>4.33678</v>
       </c>
       <c r="C103" t="n">
-        <v>3.91347</v>
+        <v>3.57294</v>
       </c>
       <c r="D103" t="n">
-        <v>1.82873</v>
+        <v>1.68686</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>5.07547</v>
+        <v>4.59935</v>
       </c>
       <c r="C104" t="n">
-        <v>4.17744</v>
+        <v>3.79194</v>
       </c>
       <c r="D104" t="n">
-        <v>1.93199</v>
+        <v>1.77999</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>5.4004</v>
+        <v>4.89233</v>
       </c>
       <c r="C105" t="n">
-        <v>4.44729</v>
+        <v>4.03485</v>
       </c>
       <c r="D105" t="n">
-        <v>2.00592</v>
+        <v>1.84713</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.73264</v>
+        <v>5.20132</v>
       </c>
       <c r="C106" t="n">
-        <v>4.73939</v>
+        <v>4.29517</v>
       </c>
       <c r="D106" t="n">
-        <v>2.128</v>
+        <v>1.958</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>6.09609</v>
+        <v>5.52294</v>
       </c>
       <c r="C107" t="n">
-        <v>5.03814</v>
+        <v>4.56086</v>
       </c>
       <c r="D107" t="n">
-        <v>2.24821</v>
+        <v>2.06614</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>6.45273</v>
+        <v>5.84561</v>
       </c>
       <c r="C108" t="n">
-        <v>5.35043</v>
+        <v>4.84414</v>
       </c>
       <c r="D108" t="n">
-        <v>2.35075</v>
+        <v>2.16603</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.85008</v>
+        <v>6.19551</v>
       </c>
       <c r="C109" t="n">
-        <v>5.68201</v>
+        <v>5.14746</v>
       </c>
       <c r="D109" t="n">
-        <v>2.47859</v>
+        <v>2.2755</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>7.2529</v>
+        <v>6.54375</v>
       </c>
       <c r="C110" t="n">
-        <v>6.02977</v>
+        <v>5.45371</v>
       </c>
       <c r="D110" t="n">
-        <v>2.61542</v>
+        <v>2.39644</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>7.6626</v>
+        <v>6.91227</v>
       </c>
       <c r="C111" t="n">
-        <v>3.4652</v>
+        <v>3.1387</v>
       </c>
       <c r="D111" t="n">
-        <v>1.81414</v>
+        <v>1.66679</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.52106</v>
+        <v>4.09215</v>
       </c>
       <c r="C112" t="n">
-        <v>3.66247</v>
+        <v>3.31449</v>
       </c>
       <c r="D112" t="n">
-        <v>1.89802</v>
+        <v>1.74262</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.76796</v>
+        <v>4.31455</v>
       </c>
       <c r="C113" t="n">
-        <v>3.86368</v>
+        <v>3.49818</v>
       </c>
       <c r="D113" t="n">
-        <v>1.99048</v>
+        <v>1.82642</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>5.02174</v>
+        <v>4.53218</v>
       </c>
       <c r="C114" t="n">
-        <v>4.08227</v>
+        <v>3.69314</v>
       </c>
       <c r="D114" t="n">
-        <v>2.07409</v>
+        <v>1.89684</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>5.2941</v>
+        <v>4.77906</v>
       </c>
       <c r="C115" t="n">
-        <v>4.31297</v>
+        <v>3.89989</v>
       </c>
       <c r="D115" t="n">
-        <v>2.1595</v>
+        <v>1.98035</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.57812</v>
+        <v>5.03561</v>
       </c>
       <c r="C116" t="n">
-        <v>4.55848</v>
+        <v>4.11957</v>
       </c>
       <c r="D116" t="n">
-        <v>2.27094</v>
+        <v>2.08022</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.87876</v>
+        <v>5.30496</v>
       </c>
       <c r="C117" t="n">
-        <v>4.81413</v>
+        <v>4.34945</v>
       </c>
       <c r="D117" t="n">
-        <v>2.40014</v>
+        <v>2.19287</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>6.19892</v>
+        <v>5.58626</v>
       </c>
       <c r="C118" t="n">
-        <v>5.08589</v>
+        <v>4.59067</v>
       </c>
       <c r="D118" t="n">
-        <v>2.50851</v>
+        <v>2.29076</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>6.53069</v>
+        <v>5.88618</v>
       </c>
       <c r="C119" t="n">
-        <v>5.37436</v>
+        <v>4.84622</v>
       </c>
       <c r="D119" t="n">
-        <v>2.60642</v>
+        <v>2.38261</v>
       </c>
     </row>
   </sheetData>
